--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -2243,50 +2243,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">z </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;</t>
     </r>
     <r>
@@ -2325,6 +2281,50 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">z </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt; &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -5109,6 +5109,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5213,15 +5222,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5412,11 +5412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159561984"/>
-        <c:axId val="283225688"/>
+        <c:axId val="77172320"/>
+        <c:axId val="160758056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159561984"/>
+        <c:axId val="77172320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5473,12 +5473,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283225688"/>
+        <c:crossAx val="160758056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283225688"/>
+        <c:axId val="160758056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,7 +5535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159561984"/>
+        <c:crossAx val="77172320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5675,11 +5675,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="122205072"/>
-        <c:axId val="159848552"/>
+        <c:axId val="160939000"/>
+        <c:axId val="159282464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122205072"/>
+        <c:axId val="160939000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,7 +5772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159848552"/>
+        <c:crossAx val="159282464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5780,7 +5780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159848552"/>
+        <c:axId val="159282464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +5889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122205072"/>
+        <c:crossAx val="160939000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6466,11 +6466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="282360608"/>
-        <c:axId val="160273864"/>
+        <c:axId val="158911536"/>
+        <c:axId val="159333824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282360608"/>
+        <c:axId val="158911536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,7 +6566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160273864"/>
+        <c:crossAx val="159333824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6574,7 +6574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160273864"/>
+        <c:axId val="159333824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,7 +6678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282360608"/>
+        <c:crossAx val="158911536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,11 +6903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="282995456"/>
-        <c:axId val="283081704"/>
+        <c:axId val="282427672"/>
+        <c:axId val="282199248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282995456"/>
+        <c:axId val="282427672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7003,7 +7003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283081704"/>
+        <c:crossAx val="282199248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7011,7 +7011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283081704"/>
+        <c:axId val="282199248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7116,7 +7116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282995456"/>
+        <c:crossAx val="282427672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7317,11 +7317,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="283205616"/>
-        <c:axId val="157863816"/>
+        <c:axId val="282326624"/>
+        <c:axId val="124864408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="283205616"/>
+        <c:axId val="282326624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7414,7 +7414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157863816"/>
+        <c:crossAx val="124864408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7422,7 +7422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157863816"/>
+        <c:axId val="124864408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7523,7 +7523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283205616"/>
+        <c:crossAx val="282326624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14781,14 +14781,14 @@
         <f>COUNT(B5:B60)</f>
         <v>10</v>
       </c>
-      <c r="E2" s="517" t="s">
+      <c r="E2" s="520" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="518"/>
-      <c r="G2" s="519" t="s">
+      <c r="F2" s="521"/>
+      <c r="G2" s="522" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="520"/>
+      <c r="H2" s="523"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -15732,8 +15732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15755,6 +15755,7 @@
     <col min="18" max="18" width="8.5703125" customWidth="1"/>
     <col min="19" max="19" width="8.140625" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1">
@@ -16412,11 +16413,11 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="553" t="s">
+      <c r="M16" s="518" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" s="519" t="s">
         <v>175</v>
-      </c>
-      <c r="N16" s="554" t="s">
-        <v>176</v>
       </c>
       <c r="O16" s="66"/>
       <c r="V16" s="509">
@@ -16441,23 +16442,23 @@
         <v>50</v>
       </c>
       <c r="J17" s="91">
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
       <c r="K17" s="121">
         <f>_xlfn.NORM.S.DIST(J17,TRUE)</f>
-        <v>0.41683383651755768</v>
+        <v>0.42465456526520451</v>
       </c>
       <c r="L17" s="96">
         <f>1-K17</f>
-        <v>0.58316616348244232</v>
+        <v>0.57534543473479549</v>
       </c>
       <c r="M17" s="121">
         <f>ABS(_xlfn.NORM.S.DIST(J17,TRUE) - _xlfn.NORM.S.DIST(J18,TRUE) )</f>
-        <v>0.50240950424867126</v>
+        <v>0.49458877550102442</v>
       </c>
       <c r="N17" s="121">
         <f>1-M17</f>
-        <v>0.49759049575132874</v>
+        <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
       <c r="V17" s="509">
@@ -16503,15 +16504,15 @@
         <v>0.03</v>
       </c>
       <c r="H19" s="264"/>
-      <c r="I19" s="552" t="s">
+      <c r="I19" s="517" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
-        <v>0.22</v>
-      </c>
-      <c r="K19" s="116">
+        <v>0.11</v>
+      </c>
+      <c r="K19" s="345">
         <f>_xlfn.NORM.S.INV(J19)</f>
-        <v>-0.77219321418868503</v>
+        <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
       <c r="V19" s="509">
@@ -16564,7 +16565,7 @@
       </c>
       <c r="K21" s="266">
         <f>K19*J21+J20</f>
-        <v>1.1884268894128227</v>
+        <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
       <c r="V21" s="509">
@@ -16598,8 +16599,8 @@
         <v/>
       </c>
       <c r="H23" s="264"/>
-      <c r="J23" s="521"/>
-      <c r="K23" s="521"/>
+      <c r="J23" s="524"/>
+      <c r="K23" s="524"/>
       <c r="O23" s="66"/>
       <c r="V23" s="509">
         <v>4</v>
@@ -17207,8 +17208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17286,14 +17287,14 @@
         <v>41</v>
       </c>
       <c r="H2" s="361">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="I2" s="100" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="124">
         <f>H2</f>
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="K2" s="362"/>
       <c r="L2" s="348"/>
@@ -17332,14 +17333,15 @@
         <v>42</v>
       </c>
       <c r="H3" s="364">
-        <v>8</v>
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
       </c>
       <c r="I3" s="100" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="121">
         <f>H3/SQRT(H4)</f>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="317"/>
@@ -17386,17 +17388,17 @@
         <v>52</v>
       </c>
       <c r="H4" s="290">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I4" s="186"/>
       <c r="J4" s="445">
         <f>SQRT(H6*(1-H6)/H4)</f>
-        <v>6.123724356957945E-2</v>
+        <v>4.6188021535170057E-2</v>
       </c>
       <c r="K4" s="288"/>
       <c r="L4" s="275">
         <f>H6</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N4" s="333"/>
       <c r="O4" s="294" t="s">
@@ -17447,21 +17449,21 @@
         <v>116</v>
       </c>
       <c r="H5" s="290">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="I5" s="287" t="s">
         <v>117</v>
       </c>
       <c r="J5" s="289">
         <f>H4*H6*(1-H6)</f>
-        <v>15.36</v>
+        <v>11.999999999999996</v>
       </c>
       <c r="K5" s="284" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="183">
         <f>H4/H5</f>
-        <v>6.4</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="N5" s="334"/>
       <c r="O5" s="295" t="s">
@@ -17502,21 +17504,21 @@
         <v>115</v>
       </c>
       <c r="H6" s="290">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="168" t="s">
         <v>160</v>
       </c>
       <c r="J6" s="383">
         <f>ROUND(H8/H6, 0)</f>
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="K6" s="168" t="s">
         <v>159</v>
       </c>
       <c r="L6" s="383">
         <f>ROUND(10/(H6*(1-H6)),0)</f>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="N6" s="334"/>
       <c r="O6" s="66"/>
@@ -17546,15 +17548,14 @@
         <v>111</v>
       </c>
       <c r="H7" s="303">
-        <f>J3</f>
-        <v>1</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I7" s="284" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="275">
         <f>H7*SQRT(H4)</f>
-        <v>8</v>
+        <v>0.39837168574084181</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="317"/>
@@ -17577,11 +17578,11 @@
       <c r="W7" s="236">
         <v>15</v>
       </c>
-      <c r="X7" s="526" t="s">
+      <c r="X7" s="529" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="527"/>
-      <c r="Z7" s="528"/>
+      <c r="Y7" s="530"/>
+      <c r="Z7" s="531"/>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="281"/>
@@ -17597,7 +17598,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="290">
-        <v>89.85</v>
+        <v>3.3</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>43</v>
@@ -17655,23 +17656,23 @@
         <v>106</v>
       </c>
       <c r="H9" s="291">
-        <v>6.5</v>
+        <v>83.75</v>
       </c>
       <c r="I9" s="278">
         <f>ROUND((H8-H2)/H3,2)</f>
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="J9" s="279">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
-        <v>0.59143970594016337</v>
+        <v>0.56875488493203918</v>
       </c>
       <c r="K9" s="279">
         <f>1-J9</f>
-        <v>0.40856029405983663</v>
+        <v>0.43124511506796082</v>
       </c>
       <c r="L9" s="280">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
-        <v>-0.59143970594016337</v>
+        <v>0.43124511506796082</v>
       </c>
       <c r="N9" s="334"/>
       <c r="O9" s="94"/>
@@ -17752,19 +17753,19 @@
       <c r="D11" s="85"/>
       <c r="I11" s="358">
         <f>ROUND((H8-H2)/H7, 2)</f>
-        <v>1.85</v>
+        <v>6.52</v>
       </c>
       <c r="J11" s="359">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
-        <v>0.96784322520438626</v>
+        <v>0.99999999996484634</v>
       </c>
       <c r="K11" s="359">
         <f>1-J11</f>
-        <v>3.2156774795613741E-2</v>
+        <v>3.5153657762521107E-11</v>
       </c>
       <c r="L11" s="156">
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
-        <v>-0.96784322520438626</v>
+        <v>3.5153657762521107E-11</v>
       </c>
       <c r="N11" s="334"/>
       <c r="O11" s="309" t="s">
@@ -17798,10 +17799,10 @@
       <c r="C12" s="314"/>
       <c r="D12" s="85"/>
       <c r="N12" s="334"/>
-      <c r="O12" s="522" t="s">
+      <c r="O12" s="525" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="523"/>
+      <c r="P12" s="526"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
         <v>2.7044592674331618</v>
@@ -17823,7 +17824,7 @@
       <c r="D13" s="85"/>
       <c r="G13" s="128"/>
       <c r="H13" s="144">
-        <v>1.1000000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I13" s="201"/>
       <c r="J13" s="191"/>
@@ -17885,25 +17886,25 @@
       <c r="D15" s="85"/>
       <c r="G15" s="200"/>
       <c r="H15" s="97"/>
-      <c r="I15" s="139">
-        <f xml:space="preserve"> (H13-H6) / SQRT(H6*(1-H6)/H4)</f>
-        <v>8.1649658092772626</v>
+      <c r="I15" s="117">
+        <f xml:space="preserve"> ROUND( (H13-H6) / SQRT(H6*(1-H6)/H4), 2)</f>
+        <v>0.87</v>
       </c>
       <c r="J15" s="96">
         <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
-        <v>0.99999999999999989</v>
+        <v>0.80784979789630373</v>
       </c>
       <c r="K15" s="121">
         <f>1-J15</f>
-        <v>0</v>
+        <v>0.19215020210369627</v>
       </c>
       <c r="L15" s="121">
         <f>2*J15</f>
-        <v>1.9999999999999998</v>
+        <v>1.6156995957926075</v>
       </c>
       <c r="M15" s="149">
         <f>2*K15</f>
-        <v>0</v>
+        <v>0.38430040420739253</v>
       </c>
       <c r="N15" s="334"/>
       <c r="O15" s="169" t="s">
@@ -18101,7 +18102,7 @@
       <c r="C22" s="314"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="524">
+      <c r="H22" s="527">
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="I22" s="70" t="s">
@@ -18140,7 +18141,7 @@
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="525"/>
+      <c r="H23" s="528"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
         <v>-1.8896857578022153</v>
@@ -19370,8 +19371,8 @@
       <c r="F1" s="377" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="529"/>
-      <c r="H1" s="530"/>
+      <c r="G1" s="532"/>
+      <c r="H1" s="533"/>
       <c r="I1" s="196"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
@@ -20164,8 +20165,8 @@
       <c r="M12" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="531"/>
-      <c r="O12" s="532"/>
+      <c r="N12" s="534"/>
+      <c r="O12" s="535"/>
       <c r="P12" s="70" t="s">
         <v>161</v>
       </c>
@@ -20388,10 +20389,10 @@
       </c>
       <c r="E15" s="212"/>
       <c r="F15" s="212"/>
-      <c r="G15" s="533" t="s">
+      <c r="G15" s="536" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="534"/>
+      <c r="H15" s="537"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
@@ -20686,8 +20687,8 @@
         <f>E3</f>
         <v>11.525</v>
       </c>
-      <c r="G20" s="536"/>
-      <c r="H20" s="537"/>
+      <c r="G20" s="539"/>
+      <c r="H20" s="540"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.84676339285714164</v>
@@ -20823,10 +20824,10 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="535" t="s">
+      <c r="G22" s="538" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="535"/>
+      <c r="H22" s="538"/>
       <c r="I22" s="197"/>
       <c r="J22" s="231" t="s">
         <v>68</v>
@@ -22043,10 +22044,10 @@
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="545" t="s">
+      <c r="D4" s="548" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="546"/>
+      <c r="E4" s="549"/>
       <c r="G4" s="94"/>
       <c r="H4" s="205"/>
       <c r="I4" s="30"/>
@@ -22198,10 +22199,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="541" t="s">
+      <c r="D9" s="544" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="542"/>
+      <c r="E9" s="545"/>
       <c r="F9" s="70" t="s">
         <v>165</v>
       </c>
@@ -22229,11 +22230,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="547">
+      <c r="D10" s="550">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="548"/>
+      <c r="E10" s="551"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -22369,10 +22370,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="549" t="s">
+      <c r="D15" s="552" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="550"/>
+      <c r="E15" s="553"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="439">
@@ -22482,12 +22483,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="539" t="s">
+      <c r="D20" s="542" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="540"/>
-      <c r="F20" s="538"/>
-      <c r="G20" s="538"/>
+      <c r="E20" s="543"/>
+      <c r="F20" s="541"/>
+      <c r="G20" s="541"/>
       <c r="K20" s="495">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
@@ -22524,10 +22525,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="541" t="s">
+      <c r="D22" s="544" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="542"/>
+      <c r="E22" s="545"/>
       <c r="F22" s="497"/>
       <c r="G22" s="497"/>
       <c r="K22" s="495">
@@ -22544,11 +22545,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="543">
+      <c r="D23" s="546">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="544"/>
+      <c r="E23" s="547"/>
       <c r="F23" s="498"/>
       <c r="G23" s="499"/>
       <c r="K23" s="495">
@@ -23171,10 +23172,10 @@
     </row>
     <row r="20" spans="2:12" ht="15.75">
       <c r="B20" s="28"/>
-      <c r="K20" s="551" t="s">
+      <c r="K20" s="554" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="551"/>
+      <c r="L20" s="554"/>
     </row>
     <row r="21" spans="2:12" ht="15.75">
       <c r="B21" s="28"/>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="178">
   <si>
     <t>Mean</t>
   </si>
@@ -2332,6 +2332,9 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>Lower (AC)</t>
+  </si>
 </sst>
 </file>
 
@@ -3809,7 +3812,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="555">
+  <cellXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -4253,7 +4256,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4635,9 +4637,6 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5223,6 +5222,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5412,11 +5418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="77172320"/>
-        <c:axId val="160758056"/>
+        <c:axId val="79604968"/>
+        <c:axId val="79605360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77172320"/>
+        <c:axId val="79604968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5473,12 +5479,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160758056"/>
+        <c:crossAx val="79605360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160758056"/>
+        <c:axId val="79605360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,7 +5541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77172320"/>
+        <c:crossAx val="79604968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5675,11 +5681,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="160939000"/>
-        <c:axId val="159282464"/>
+        <c:axId val="79606536"/>
+        <c:axId val="79606928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160939000"/>
+        <c:axId val="79606536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,7 +5778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159282464"/>
+        <c:crossAx val="79606928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5780,7 +5786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159282464"/>
+        <c:axId val="79606928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +5895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160939000"/>
+        <c:crossAx val="79606536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6466,11 +6472,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="158911536"/>
-        <c:axId val="159333824"/>
+        <c:axId val="79608104"/>
+        <c:axId val="223769760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158911536"/>
+        <c:axId val="79608104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,7 +6572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159333824"/>
+        <c:crossAx val="223769760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6574,7 +6580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159333824"/>
+        <c:axId val="223769760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,7 +6684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158911536"/>
+        <c:crossAx val="79608104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,11 +6909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="282427672"/>
-        <c:axId val="282199248"/>
+        <c:axId val="223772504"/>
+        <c:axId val="223772896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282427672"/>
+        <c:axId val="223772504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7003,7 +7009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282199248"/>
+        <c:crossAx val="223772896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7011,7 +7017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282199248"/>
+        <c:axId val="223772896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7116,7 +7122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282427672"/>
+        <c:crossAx val="223772504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7317,11 +7323,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="282326624"/>
-        <c:axId val="124864408"/>
+        <c:axId val="224694696"/>
+        <c:axId val="224695088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="282326624"/>
+        <c:axId val="224694696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7414,7 +7420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124864408"/>
+        <c:crossAx val="224695088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7422,7 +7428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124864408"/>
+        <c:axId val="224695088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7523,7 +7529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282326624"/>
+        <c:crossAx val="224694696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12802,6 +12808,70 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16435" name="Object 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16435"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -14781,14 +14851,14 @@
         <f>COUNT(B5:B60)</f>
         <v>10</v>
       </c>
-      <c r="E2" s="520" t="s">
+      <c r="E2" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="521"/>
-      <c r="G2" s="522" t="s">
+      <c r="F2" s="519"/>
+      <c r="G2" s="520" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="523"/>
+      <c r="H2" s="521"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -14831,8 +14901,8 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B4" s="479"/>
-      <c r="C4" s="479"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="477"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
@@ -14850,10 +14920,10 @@
         <f>MEDIAN(C5:C60)</f>
         <v>67</v>
       </c>
-      <c r="J4" s="426" t="s">
+      <c r="J4" s="424" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="467"/>
+      <c r="K4" s="465"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -14861,8 +14931,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="482"/>
-      <c r="P4" s="482"/>
+      <c r="O4" s="480"/>
+      <c r="P4" s="480"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -14874,7 +14944,7 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B5" s="492">
+      <c r="B5" s="490">
         <v>6</v>
       </c>
       <c r="C5" s="3">
@@ -14893,11 +14963,11 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="477">
+      <c r="J5" s="475">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="466" t="s">
+      <c r="K5" s="464" t="s">
         <v>166</v>
       </c>
       <c r="M5">
@@ -14910,7 +14980,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="481">
+      <c r="P5" s="479">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -14927,7 +14997,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B6" s="492">
+      <c r="B6" s="490">
         <v>56</v>
       </c>
       <c r="C6" s="3">
@@ -14950,11 +15020,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="459">
+      <c r="J6" s="457">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="464">
+      <c r="K6" s="462">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -14965,7 +15035,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="481">
+      <c r="P6" s="479">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -14983,7 +15053,7 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="492">
+      <c r="B7" s="490">
         <v>16</v>
       </c>
       <c r="C7" s="3">
@@ -15002,11 +15072,11 @@
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="458">
+      <c r="J7" s="456">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="464">
+      <c r="K7" s="462">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15014,7 +15084,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="481">
+      <c r="P7" s="479">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15027,12 +15097,12 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B8" s="492">
+      <c r="B8" s="490">
         <v>50</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="490">
+      <c r="E8" s="488">
         <f>_xlfn.STDEV.P(B5:B60)</f>
         <v>13.905394636614957</v>
       </c>
@@ -15040,7 +15110,7 @@
         <f>E8^2</f>
         <v>193.36</v>
       </c>
-      <c r="G8" s="490">
+      <c r="G8" s="488">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15049,11 +15119,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="458">
+      <c r="J8" s="456">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="464">
+      <c r="K8" s="462">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15063,7 +15133,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="481">
+      <c r="P8" s="479">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15076,7 +15146,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75">
-      <c r="B9" s="492">
+      <c r="B9" s="490">
         <v>38</v>
       </c>
       <c r="C9" s="3"/>
@@ -15088,11 +15158,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="458">
+      <c r="J9" s="456">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="464">
+      <c r="K9" s="462">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15100,7 +15170,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="481">
+      <c r="P9" s="479">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15117,7 +15187,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B10" s="492">
+      <c r="B10" s="490">
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
@@ -15131,8 +15201,8 @@
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="458"/>
-      <c r="K10" s="464" t="str">
+      <c r="J10" s="456"/>
+      <c r="K10" s="462" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15140,7 +15210,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="481"/>
+      <c r="P10" s="479"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15155,21 +15225,21 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="18.75">
-      <c r="B11" s="492">
+      <c r="B11" s="490">
         <v>33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="259" t="s">
+      <c r="E11" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="246">
+      <c r="F11" s="245">
         <v>60</v>
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="458"/>
-      <c r="K11" s="464" t="str">
+      <c r="J11" s="456"/>
+      <c r="K11" s="462" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15177,7 +15247,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="481"/>
+      <c r="P11" s="479"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15192,22 +15262,22 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75">
-      <c r="B12" s="492">
+      <c r="B12" s="490">
         <v>32</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="245" t="s">
+      <c r="E12" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="247">
+      <c r="F12" s="246">
         <f>(F11-E4)/(E6)</f>
         <v>1.9239201550296339</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="458"/>
-      <c r="K12" s="464" t="str">
+      <c r="J12" s="456"/>
+      <c r="K12" s="462" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15226,7 +15296,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="15.75">
-      <c r="B13" s="492">
+      <c r="B13" s="490">
         <v>34</v>
       </c>
       <c r="C13" s="3"/>
@@ -15235,8 +15305,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="463"/>
-      <c r="K13" s="464" t="str">
+      <c r="J13" s="461"/>
+      <c r="K13" s="462" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15255,13 +15325,13 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B14" s="492">
+      <c r="B14" s="490">
         <v>27</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="463"/>
-      <c r="K14" s="464" t="str">
+      <c r="J14" s="461"/>
+      <c r="K14" s="462" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15280,10 +15350,10 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="492"/>
+      <c r="B15" s="490"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="253" t="s">
+      <c r="E15" s="252" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="54" t="s">
@@ -15313,10 +15383,10 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B16" s="492"/>
+      <c r="B16" s="490"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="254">
+      <c r="E16" s="253">
         <f>MIN(B5:B60)</f>
         <v>6</v>
       </c>
@@ -15332,7 +15402,7 @@
         <f>QUARTILE($B$5:$B$60, 3)</f>
         <v>37</v>
       </c>
-      <c r="I16" s="250">
+      <c r="I16" s="249">
         <f>MAX(B5:B60)</f>
         <v>56</v>
       </c>
@@ -15351,10 +15421,10 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B17" s="492"/>
+      <c r="B17" s="490"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="255" t="s">
+      <c r="E17" s="254" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="54" t="s">
@@ -15384,25 +15454,25 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B18" s="492"/>
+      <c r="B18" s="490"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="256">
+      <c r="E18" s="255">
         <v>75</v>
       </c>
       <c r="F18" s="59">
         <f xml:space="preserve">  INDEX(B5:B260, $E$26) + (INDEX(B5:B60, 1+ $E$26) -INDEX(B5:B60, $E$26))*E25</f>
         <v>32.5</v>
       </c>
-      <c r="G18" s="249">
+      <c r="G18" s="248">
         <f>H16-F16</f>
         <v>10.75</v>
       </c>
-      <c r="H18" s="248">
+      <c r="H18" s="247">
         <f>F16-1.5*G18</f>
         <v>10.125</v>
       </c>
-      <c r="I18" s="248">
+      <c r="I18" s="247">
         <f>H16+1.5*G18</f>
         <v>53.125</v>
       </c>
@@ -15421,7 +15491,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B19" s="491"/>
+      <c r="B19" s="489"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15439,13 +15509,13 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="257" t="s">
+      <c r="E20" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="252">
+      <c r="F20" s="251">
         <v>55</v>
       </c>
-      <c r="G20" s="221" t="s">
+      <c r="G20" s="220" t="s">
         <v>43</v>
       </c>
       <c r="O20" s="61"/>
@@ -15463,17 +15533,17 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="257" t="s">
+      <c r="E21" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="252">
+      <c r="F21" s="251">
         <v>95</v>
       </c>
-      <c r="G21" s="251">
+      <c r="G21" s="250">
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>-13.333333333333334</v>
       </c>
-      <c r="K21" s="478"/>
+      <c r="K21" s="476"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -15489,14 +15559,14 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="257" t="s">
+      <c r="E22" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="252">
+      <c r="F22" s="251">
         <v>3</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="489"/>
+      <c r="I22" s="487"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15536,7 +15606,7 @@
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="493"/>
+      <c r="H24" s="491"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -15555,7 +15625,7 @@
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="493"/>
+      <c r="H25" s="491"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -15574,7 +15644,7 @@
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="493"/>
+      <c r="H26" s="491"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -15590,7 +15660,7 @@
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="493"/>
+      <c r="H27" s="491"/>
     </row>
     <row r="28" spans="2:18" ht="15.75">
       <c r="B28" s="3"/>
@@ -15599,7 +15669,7 @@
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="493"/>
+      <c r="H28" s="491"/>
     </row>
     <row r="29" spans="2:18" ht="15.75">
       <c r="B29" s="3"/>
@@ -15608,7 +15678,7 @@
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="493"/>
+      <c r="H29" s="491"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1">
       <c r="B30" s="3"/>
@@ -15616,7 +15686,7 @@
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="493"/>
+      <c r="H30" s="491"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="3"/>
@@ -15624,12 +15694,12 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="493"/>
+      <c r="H31" s="491"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="3"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="494"/>
+      <c r="H32" s="492"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="3"/>
@@ -15773,13 +15843,13 @@
       <c r="H1" s="66"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
-      <c r="K1" s="260" t="s">
+      <c r="K1" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="261" t="s">
+      <c r="L1" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="262" t="s">
+      <c r="M1" s="261" t="s">
         <v>38</v>
       </c>
       <c r="N1" s="66"/>
@@ -15790,13 +15860,13 @@
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1">
       <c r="A2" s="66"/>
-      <c r="B2" s="512">
+      <c r="B2" s="510">
         <v>0</v>
       </c>
-      <c r="C2" s="512">
+      <c r="C2" s="510">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D2" s="435">
+      <c r="D2" s="433">
         <f>(B2-$G$2)^2 *C2</f>
         <v>0.90720000000000034</v>
       </c>
@@ -15811,28 +15881,28 @@
         <f>SUM(E2:E12)</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="H2" s="263"/>
+      <c r="H2" s="262"/>
       <c r="I2" s="68" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="76">
         <v>3</v>
       </c>
-      <c r="K2" s="269">
+      <c r="K2" s="268">
         <f>PERMUT(J3,J2)</f>
         <v>120</v>
       </c>
-      <c r="L2" s="270">
+      <c r="L2" s="269">
         <f>COMBIN(J3,J2)</f>
         <v>20</v>
       </c>
-      <c r="M2" s="271">
+      <c r="M2" s="270">
         <f>FACT(J3)</f>
         <v>720</v>
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
-      <c r="Q2" s="426" t="s">
+      <c r="Q2" s="424" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="70" t="s">
@@ -15844,10 +15914,10 @@
       <c r="T2" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="509">
+      <c r="V2" s="507">
         <v>10</v>
       </c>
-      <c r="W2" s="513" t="s">
+      <c r="W2" s="511" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -15857,10 +15927,10 @@
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="512">
+      <c r="B3" s="510">
         <v>1</v>
       </c>
-      <c r="C3" s="512">
+      <c r="C3" s="510">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -15878,7 +15948,7 @@
         <f>SUM(D2:D11)</f>
         <v>2.2400000000000002</v>
       </c>
-      <c r="H3" s="263"/>
+      <c r="H3" s="262"/>
       <c r="I3" s="68" t="s">
         <v>35</v>
       </c>
@@ -15890,23 +15960,23 @@
       <c r="M3" s="94"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
-      <c r="Q3" s="427">
+      <c r="Q3" s="425">
         <v>1</v>
       </c>
-      <c r="R3" s="428">
+      <c r="R3" s="426">
         <v>38</v>
       </c>
-      <c r="S3" s="429">
+      <c r="S3" s="427">
         <v>245</v>
       </c>
-      <c r="T3" s="434">
+      <c r="T3" s="432">
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="509">
+      <c r="V3" s="507">
         <v>10</v>
       </c>
-      <c r="W3" s="514" t="s">
+      <c r="W3" s="512" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -15916,10 +15986,10 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="66"/>
-      <c r="B4" s="512">
+      <c r="B4" s="510">
         <v>2</v>
       </c>
-      <c r="C4" s="512">
+      <c r="C4" s="510">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -15937,7 +16007,7 @@
         <f>SQRT(G3)</f>
         <v>1.4966629547095767</v>
       </c>
-      <c r="H4" s="263"/>
+      <c r="H4" s="262"/>
       <c r="I4" s="67"/>
       <c r="J4" s="76"/>
       <c r="K4" s="95"/>
@@ -15945,27 +16015,27 @@
       <c r="M4" s="95"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
-      <c r="Q4" s="430">
+      <c r="Q4" s="428">
         <v>37</v>
       </c>
-      <c r="R4" s="252">
+      <c r="R4" s="251">
         <v>38</v>
       </c>
-      <c r="S4" s="431">
+      <c r="S4" s="429">
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="509">
+      <c r="V4" s="507">
         <v>9</v>
       </c>
-      <c r="W4" s="285"/>
+      <c r="W4" s="284"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1">
       <c r="A5" s="66"/>
-      <c r="B5" s="512">
+      <c r="B5" s="510">
         <v>3</v>
       </c>
-      <c r="C5" s="512">
+      <c r="C5" s="510">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -15980,7 +16050,7 @@
       <c r="G5" s="66">
         <v>6</v>
       </c>
-      <c r="H5" s="263"/>
+      <c r="H5" s="262"/>
       <c r="I5" s="68" t="s">
         <v>35</v>
       </c>
@@ -15996,26 +16066,26 @@
       <c r="M5" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="199" t="s">
+      <c r="N5" s="198" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="199" t="s">
+      <c r="O5" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="430"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="431"/>
+      <c r="Q5" s="428"/>
+      <c r="R5" s="251"/>
+      <c r="S5" s="429"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="509">
+      <c r="V5" s="507">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" thickBot="1">
       <c r="A6" s="66"/>
-      <c r="B6" s="512">
+      <c r="B6" s="510">
         <v>5</v>
       </c>
-      <c r="C6" s="512">
+      <c r="C6" s="510">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16030,11 +16100,11 @@
       <c r="G6" s="66">
         <v>2</v>
       </c>
-      <c r="H6" s="263"/>
+      <c r="H6" s="262"/>
       <c r="I6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="274">
+      <c r="J6" s="273">
         <v>0.23</v>
       </c>
       <c r="K6" s="116">
@@ -16045,7 +16115,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.10156460410175912</v>
       </c>
-      <c r="M6" s="507">
+      <c r="M6" s="505">
         <f>1-L6+K6</f>
         <v>0.94500615986258107</v>
       </c>
@@ -16057,26 +16127,26 @@
         <f>_xlfn.BINOM.DIST(J8,J5, J6, TRUE)-N6</f>
         <v>-8.3266726846886741E-17</v>
       </c>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="432"/>
-      <c r="R6" s="516" t="s">
+      <c r="P6" s="257"/>
+      <c r="Q6" s="430"/>
+      <c r="R6" s="514" t="s">
         <v>171</v>
       </c>
-      <c r="S6" s="433">
+      <c r="S6" s="431">
         <v>1000</v>
       </c>
-      <c r="T6" s="515">
+      <c r="T6" s="513">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="509">
+      <c r="V6" s="507">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1">
       <c r="A7" s="66"/>
-      <c r="B7" s="512"/>
-      <c r="C7" s="512"/>
+      <c r="B7" s="510"/>
+      <c r="C7" s="510"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16089,7 +16159,7 @@
       <c r="G7" s="66">
         <v>4</v>
       </c>
-      <c r="H7" s="263"/>
+      <c r="H7" s="262"/>
       <c r="I7" s="67" t="s">
         <v>39</v>
       </c>
@@ -16105,20 +16175,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="508" t="s">
+      <c r="N7" s="506" t="s">
         <v>170</v>
       </c>
-      <c r="O7" s="199" t="s">
+      <c r="O7" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="V7" s="509">
+      <c r="V7" s="507">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" thickBot="1">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="504"/>
+      <c r="C8" s="502"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16127,23 +16197,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="488">
+      <c r="F8" s="486">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G8" s="66"/>
-      <c r="H8" s="263"/>
+      <c r="H8" s="262"/>
       <c r="I8" s="67" t="s">
         <v>106</v>
       </c>
       <c r="J8" s="76">
         <v>9</v>
       </c>
-      <c r="K8" s="506">
+      <c r="K8" s="504">
         <f>J5*J6</f>
         <v>14.72</v>
       </c>
-      <c r="L8" s="325">
+      <c r="L8" s="323">
         <f>SQRT(J5*J6*(1-J6))</f>
         <v>3.3666600660001302</v>
       </c>
@@ -16151,7 +16221,7 @@
         <f>ROUND((J7 - K8)/L8, 2)</f>
         <v>-1.4</v>
       </c>
-      <c r="N8" s="190">
+      <c r="N8" s="189">
         <f>J7/J6</f>
         <v>43.478260869565219</v>
       </c>
@@ -16159,7 +16229,7 @@
         <f>1-L6</f>
         <v>0.89843539589824084</v>
       </c>
-      <c r="V8" s="509">
+      <c r="V8" s="507">
         <v>7</v>
       </c>
     </row>
@@ -16180,16 +16250,16 @@
         <v>-9.76</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="263"/>
+      <c r="H9" s="262"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="505"/>
+      <c r="N9" s="503"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="503"/>
-      <c r="V9" s="509">
+      <c r="T9" s="501"/>
+      <c r="V9" s="507">
         <v>6</v>
       </c>
     </row>
@@ -16207,7 +16277,7 @@
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
-      <c r="H10" s="263"/>
+      <c r="H10" s="262"/>
       <c r="I10" s="68"/>
       <c r="J10" s="76"/>
       <c r="K10" s="94"/>
@@ -16215,7 +16285,7 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="509">
+      <c r="V10" s="507">
         <v>6</v>
       </c>
     </row>
@@ -16231,11 +16301,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="426" t="s">
+      <c r="F11" s="424" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="467"/>
-      <c r="H11" s="263"/>
+      <c r="G11" s="465"/>
+      <c r="H11" s="262"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
       </c>
@@ -16251,11 +16321,11 @@
       <c r="M11" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="199" t="s">
+      <c r="N11" s="198" t="s">
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="509">
+      <c r="V11" s="507">
         <v>5</v>
       </c>
     </row>
@@ -16265,29 +16335,29 @@
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="465">
+      <c r="F12" s="463">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="466" t="s">
+      <c r="G12" s="464" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="263"/>
+      <c r="H12" s="262"/>
       <c r="I12" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="76">
         <v>57</v>
       </c>
-      <c r="K12" s="267">
+      <c r="K12" s="266">
         <f xml:space="preserve"> (J11-J12)/J13</f>
         <v>0.25</v>
       </c>
-      <c r="L12" s="268">
+      <c r="L12" s="267">
         <f xml:space="preserve"> _xlfn.NORM.DIST(J11,J12,J13, TRUE)</f>
         <v>0.5987063256829237</v>
       </c>
-      <c r="M12" s="268">
+      <c r="M12" s="267">
         <f>1-L12</f>
         <v>0.4012936743170763</v>
       </c>
@@ -16296,7 +16366,7 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="509">
+      <c r="V12" s="507">
         <v>5</v>
       </c>
     </row>
@@ -16305,15 +16375,15 @@
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="460"/>
-      <c r="F13" s="509">
+      <c r="E13" s="458"/>
+      <c r="F13" s="507">
         <v>12</v>
       </c>
-      <c r="G13" s="510">
+      <c r="G13" s="508">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
-      <c r="H13" s="263"/>
+      <c r="H13" s="262"/>
       <c r="I13" s="67" t="s">
         <v>42</v>
       </c>
@@ -16325,24 +16395,24 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="509">
+      <c r="V13" s="507">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="483"/>
+      <c r="C14" s="481"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="460"/>
-      <c r="F14" s="509">
+      <c r="E14" s="458"/>
+      <c r="F14" s="507">
         <v>33</v>
       </c>
-      <c r="G14" s="511">
+      <c r="G14" s="509">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
-      <c r="H14" s="263"/>
+      <c r="H14" s="262"/>
       <c r="I14" s="67" t="s">
         <v>106</v>
       </c>
@@ -16354,24 +16424,24 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="509">
+      <c r="V14" s="507">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.5" thickBot="1">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="485"/>
+      <c r="C15" s="483"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="461"/>
-      <c r="F15" s="509">
+      <c r="E15" s="459"/>
+      <c r="F15" s="507">
         <v>29</v>
       </c>
-      <c r="G15" s="511">
+      <c r="G15" s="509">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H15" s="263"/>
+      <c r="H15" s="262"/>
       <c r="I15" s="67"/>
       <c r="J15" s="76"/>
       <c r="K15" s="157" t="s">
@@ -16387,24 +16457,24 @@
         <v>174</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="509">
+      <c r="V15" s="507">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="484"/>
+      <c r="C16" s="482"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="509">
+      <c r="F16" s="507">
         <v>11</v>
       </c>
-      <c r="G16" s="511">
+      <c r="G16" s="509">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
-      <c r="H16" s="263"/>
+      <c r="H16" s="262"/>
       <c r="I16" s="87"/>
       <c r="J16" s="88"/>
       <c r="K16" s="70" t="s">
@@ -16413,14 +16483,14 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="518" t="s">
+      <c r="M16" s="516" t="s">
         <v>176</v>
       </c>
-      <c r="N16" s="519" t="s">
+      <c r="N16" s="517" t="s">
         <v>175</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="509">
+      <c r="V16" s="507">
         <v>5</v>
       </c>
     </row>
@@ -16430,14 +16500,14 @@
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="486">
+      <c r="F17" s="484">
         <v>6</v>
       </c>
-      <c r="G17" s="462">
+      <c r="G17" s="460">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="H17" s="263"/>
+      <c r="H17" s="262"/>
       <c r="I17" s="90" t="s">
         <v>50</v>
       </c>
@@ -16461,7 +16531,7 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="509">
+      <c r="V17" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16469,26 +16539,26 @@
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="486">
+      <c r="F18" s="484">
         <v>2</v>
       </c>
-      <c r="G18" s="462">
+      <c r="G18" s="460">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H18" s="264"/>
-      <c r="I18" s="213" t="s">
+      <c r="H18" s="263"/>
+      <c r="I18" s="212" t="s">
         <v>172</v>
       </c>
-      <c r="J18" s="214">
+      <c r="J18" s="213">
         <v>1.4</v>
       </c>
-      <c r="K18" s="273" t="s">
+      <c r="K18" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="258"/>
+      <c r="M18" s="257"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="509">
+      <c r="V18" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16496,26 +16566,26 @@
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="487">
+      <c r="F19" s="485">
         <v>3</v>
       </c>
-      <c r="G19" s="462">
+      <c r="G19" s="460">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="H19" s="264"/>
-      <c r="I19" s="517" t="s">
+      <c r="H19" s="263"/>
+      <c r="I19" s="515" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
         <v>0.11</v>
       </c>
-      <c r="K19" s="345">
+      <c r="K19" s="343">
         <f>_xlfn.NORM.S.INV(J19)</f>
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="509">
+      <c r="V19" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16523,25 +16593,25 @@
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="487">
+      <c r="F20" s="485">
         <v>1</v>
       </c>
-      <c r="G20" s="462">
+      <c r="G20" s="460">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="H20" s="264"/>
+      <c r="H20" s="263"/>
       <c r="I20" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J20" s="76">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K20" s="265" t="s">
+      <c r="K20" s="264" t="s">
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="509">
+      <c r="V20" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16549,26 +16619,26 @@
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="487">
+      <c r="F21" s="485">
         <v>1</v>
       </c>
-      <c r="G21" s="462">
+      <c r="G21" s="460">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="H21" s="264"/>
+      <c r="H21" s="263"/>
       <c r="I21" s="67" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="76">
         <v>1.31</v>
       </c>
-      <c r="K21" s="266">
+      <c r="K21" s="265">
         <f>K19*J21+J20</f>
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="509">
+      <c r="V21" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16576,16 +16646,16 @@
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="487">
+      <c r="F22" s="485">
         <v>2</v>
       </c>
-      <c r="G22" s="462">
+      <c r="G22" s="460">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H22" s="264"/>
+      <c r="H22" s="263"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="509">
+      <c r="V22" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16593,16 +16663,16 @@
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="487"/>
-      <c r="G23" s="462" t="str">
+      <c r="F23" s="485"/>
+      <c r="G23" s="460" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H23" s="264"/>
-      <c r="J23" s="524"/>
-      <c r="K23" s="524"/>
+      <c r="H23" s="263"/>
+      <c r="J23" s="522"/>
+      <c r="K23" s="522"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="509">
+      <c r="V23" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16610,12 +16680,12 @@
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="487"/>
-      <c r="G24" s="462" t="str">
+      <c r="F24" s="485"/>
+      <c r="G24" s="460" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" s="264"/>
+      <c r="H24" s="263"/>
       <c r="I24" s="67" t="s">
         <v>39</v>
       </c>
@@ -16632,7 +16702,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="509">
+      <c r="V24" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16641,18 +16711,18 @@
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
       <c r="F25" s="81"/>
-      <c r="H25" s="264"/>
+      <c r="H25" s="263"/>
       <c r="I25" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="76">
         <v>74</v>
       </c>
-      <c r="K25" s="267">
+      <c r="K25" s="266">
         <f xml:space="preserve"> (J24-J25)/K27</f>
         <v>7.2000000000000171</v>
       </c>
-      <c r="L25" s="268">
+      <c r="L25" s="267">
         <f xml:space="preserve">  _xlfn.NORM.S.DIST(K25,TRUE)</f>
         <v>0.99999999999969891</v>
       </c>
@@ -16660,7 +16730,7 @@
         <f>1-L25</f>
         <v>3.0109248427834245E-13</v>
       </c>
-      <c r="V25" s="509">
+      <c r="V25" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16669,7 +16739,7 @@
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
-      <c r="H26" s="264"/>
+      <c r="H26" s="263"/>
       <c r="I26" s="67" t="s">
         <v>42</v>
       </c>
@@ -16681,7 +16751,7 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="509">
+      <c r="V26" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16690,7 +16760,7 @@
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
-      <c r="H27" s="264"/>
+      <c r="H27" s="263"/>
       <c r="I27" s="98" t="s">
         <v>52</v>
       </c>
@@ -16701,7 +16771,7 @@
         <f>J26/SQRT(J27)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V27" s="509">
+      <c r="V27" s="507">
         <v>4</v>
       </c>
     </row>
@@ -16710,8 +16780,8 @@
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
-      <c r="H28" s="264"/>
-      <c r="V28" s="509">
+      <c r="H28" s="263"/>
+      <c r="V28" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16720,8 +16790,8 @@
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
-      <c r="H29" s="264"/>
-      <c r="V29" s="509">
+      <c r="H29" s="263"/>
+      <c r="V29" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16730,7 +16800,7 @@
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="509">
+      <c r="V30" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16739,7 +16809,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="509">
+      <c r="V31" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16748,7 +16818,7 @@
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="509">
+      <c r="V32" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16757,7 +16827,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="509">
+      <c r="V33" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16766,7 +16836,7 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="509">
+      <c r="V34" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16775,7 +16845,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="509">
+      <c r="V35" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16784,7 +16854,7 @@
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="509">
+      <c r="V36" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16793,7 +16863,7 @@
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="509">
+      <c r="V37" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16802,7 +16872,7 @@
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="509">
+      <c r="V38" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16811,7 +16881,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="509">
+      <c r="V39" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16820,7 +16890,7 @@
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="509">
+      <c r="V40" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16829,7 +16899,7 @@
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="509">
+      <c r="V41" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16838,7 +16908,7 @@
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="509">
+      <c r="V42" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16847,7 +16917,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="509">
+      <c r="V43" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16856,7 +16926,7 @@
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="509">
+      <c r="V44" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16865,7 +16935,7 @@
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="509">
+      <c r="V45" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16874,7 +16944,7 @@
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="509">
+      <c r="V46" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16883,7 +16953,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="509">
+      <c r="V47" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16892,7 +16962,7 @@
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="509">
+      <c r="V48" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16901,7 +16971,7 @@
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="509">
+      <c r="V49" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16910,7 +16980,7 @@
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="509">
+      <c r="V50" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16919,7 +16989,7 @@
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="509">
+      <c r="V51" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16928,7 +16998,7 @@
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="509">
+      <c r="V52" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16937,7 +17007,7 @@
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="509">
+      <c r="V53" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16946,7 +17016,7 @@
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="509">
+      <c r="V54" s="507">
         <v>3</v>
       </c>
     </row>
@@ -16955,237 +17025,237 @@
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="509">
+      <c r="V55" s="507">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:22">
-      <c r="V56" s="509">
+      <c r="V56" s="507">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="3:22">
-      <c r="V57" s="509">
+      <c r="V57" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="3:22">
-      <c r="V58" s="509">
+      <c r="V58" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:22">
-      <c r="V59" s="509">
+      <c r="V59" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:22">
-      <c r="V60" s="509">
+      <c r="V60" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="3:22">
-      <c r="V61" s="509">
+      <c r="V61" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="3:22">
-      <c r="V62" s="509">
+      <c r="V62" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:22">
-      <c r="V63" s="509">
+      <c r="V63" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:22">
-      <c r="V64" s="509">
+      <c r="V64" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="22:22">
-      <c r="V65" s="509">
+      <c r="V65" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="22:22">
-      <c r="V66" s="509">
+      <c r="V66" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="22:22">
-      <c r="V67" s="509">
+      <c r="V67" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="22:22">
-      <c r="V68" s="509">
+      <c r="V68" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="22:22">
-      <c r="V69" s="509">
+      <c r="V69" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="22:22">
-      <c r="V70" s="509">
+      <c r="V70" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="22:22">
-      <c r="V71" s="509">
+      <c r="V71" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="22:22">
-      <c r="V72" s="509">
+      <c r="V72" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="22:22">
-      <c r="V73" s="509">
+      <c r="V73" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="22:22">
-      <c r="V74" s="509">
+      <c r="V74" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="22:22">
-      <c r="V75" s="509">
+      <c r="V75" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="22:22">
-      <c r="V76" s="509">
+      <c r="V76" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="22:22">
-      <c r="V77" s="509">
+      <c r="V77" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="22:22">
-      <c r="V78" s="509">
+      <c r="V78" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="22:22">
-      <c r="V79" s="509">
+      <c r="V79" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="22:22">
-      <c r="V80" s="509">
+      <c r="V80" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="22:22">
-      <c r="V81" s="509">
+      <c r="V81" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="22:22">
-      <c r="V82" s="509">
+      <c r="V82" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="22:22">
-      <c r="V83" s="509">
+      <c r="V83" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="22:22">
-      <c r="V84" s="509">
+      <c r="V84" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="22:22">
-      <c r="V85" s="509">
+      <c r="V85" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="22:22">
-      <c r="V86" s="509">
+      <c r="V86" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="22:22">
-      <c r="V87" s="509">
+      <c r="V87" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="22:22">
-      <c r="V88" s="509">
+      <c r="V88" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="22:22">
-      <c r="V89" s="509">
+      <c r="V89" s="507">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="22:22">
-      <c r="V90" s="509">
+      <c r="V90" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="22:22">
-      <c r="V91" s="509">
+      <c r="V91" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="22:22">
-      <c r="V92" s="509">
+      <c r="V92" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="22:22">
-      <c r="V93" s="509">
+      <c r="V93" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="22:22">
-      <c r="V94" s="509">
+      <c r="V94" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="22:22">
-      <c r="V95" s="509">
+      <c r="V95" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="22:22">
-      <c r="V96" s="509">
+      <c r="V96" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="22:22">
-      <c r="V97" s="509">
+      <c r="V97" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="22:22">
-      <c r="V98" s="509">
+      <c r="V98" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="22:22">
-      <c r="V99" s="509">
+      <c r="V99" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="22:22">
-      <c r="V100" s="509">
+      <c r="V100" s="507">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="22:22">
-      <c r="V101" s="509">
+      <c r="V101" s="507">
         <v>1</v>
       </c>
     </row>
@@ -17209,7 +17279,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17244,27 +17314,27 @@
       <c r="A1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="220" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="105"/>
       <c r="D1" s="84"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
-      <c r="K1" s="356" t="s">
+      <c r="K1" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="357">
-        <v>99</v>
-      </c>
-      <c r="N1" s="305"/>
-      <c r="U1" s="341"/>
+      <c r="L1" s="355">
+        <v>95</v>
+      </c>
+      <c r="N1" s="304"/>
+      <c r="U1" s="339"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A2" s="440">
+      <c r="A2" s="438">
         <v>35</v>
       </c>
-      <c r="B2" s="441">
+      <c r="B2" s="439">
         <f>1/38</f>
         <v>2.6315789473684209E-2</v>
       </c>
@@ -17279,14 +17349,14 @@
       <c r="E2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="353">
+      <c r="F2" s="351">
         <f>SUM(D2:D6)</f>
         <v>-5.2631578947368474E-2</v>
       </c>
-      <c r="G2" s="360" t="s">
+      <c r="G2" s="358" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="361">
+      <c r="H2" s="359">
         <v>3</v>
       </c>
       <c r="I2" s="100" t="s">
@@ -17296,21 +17366,21 @@
         <f>H2</f>
         <v>3</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="348"/>
-      <c r="N2" s="306"/>
+      <c r="K2" s="360"/>
+      <c r="L2" s="346"/>
+      <c r="N2" s="305"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
-      <c r="U2" s="342"/>
+      <c r="U2" s="340"/>
       <c r="X2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A3" s="442">
+      <c r="A3" s="440">
         <v>-1</v>
       </c>
-      <c r="B3" s="443">
+      <c r="B3" s="441">
         <f>1-B2</f>
         <v>0.97368421052631582</v>
       </c>
@@ -17325,14 +17395,14 @@
       <c r="E3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="354">
+      <c r="F3" s="352">
         <f>SUM(C2:C6)</f>
         <v>33.207756232686982</v>
       </c>
-      <c r="G3" s="363" t="s">
+      <c r="G3" s="361" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="364">
+      <c r="H3" s="362">
         <f>SQRT(3)</f>
         <v>1.7320508075688772</v>
       </c>
@@ -17344,20 +17414,20 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="317"/>
-      <c r="N3" s="306"/>
-      <c r="O3" s="294" t="s">
+      <c r="L3" s="316"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="293" t="s">
         <v>102</v>
       </c>
       <c r="P3" s="74">
-        <v>20</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="Q3" s="160"/>
-      <c r="R3" s="297">
+      <c r="R3" s="296">
         <f>(P3+P4)/2</f>
-        <v>25</v>
-      </c>
-      <c r="U3" s="342"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="U3" s="340"/>
       <c r="V3" s="94"/>
       <c r="W3" s="76">
         <v>0.05</v>
@@ -17367,8 +17437,8 @@
       <c r="Z3" s="126"/>
     </row>
     <row r="4" spans="1:27" ht="18" thickBot="1">
-      <c r="A4" s="442"/>
-      <c r="B4" s="443"/>
+      <c r="A4" s="440"/>
+      <c r="B4" s="441"/>
       <c r="C4" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17380,48 +17450,48 @@
       <c r="E4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="355">
+      <c r="F4" s="353">
         <f>SQRT(F3)</f>
         <v>5.7626171339667343</v>
       </c>
-      <c r="G4" s="365" t="s">
+      <c r="G4" s="363" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="290">
+      <c r="H4" s="289">
         <v>75</v>
       </c>
-      <c r="I4" s="186"/>
-      <c r="J4" s="445">
+      <c r="I4" s="185"/>
+      <c r="J4" s="443">
         <f>SQRT(H6*(1-H6)/H4)</f>
         <v>4.6188021535170057E-2</v>
       </c>
-      <c r="K4" s="288"/>
-      <c r="L4" s="275">
+      <c r="K4" s="287"/>
+      <c r="L4" s="274">
         <f>H6</f>
         <v>0.8</v>
       </c>
-      <c r="N4" s="333"/>
-      <c r="O4" s="294" t="s">
+      <c r="N4" s="331"/>
+      <c r="O4" s="293" t="s">
         <v>103</v>
       </c>
       <c r="P4" s="74">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="296" t="s">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="Q4" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="272">
+      <c r="R4" s="271">
         <f>(P4-P3)/2</f>
-        <v>5</v>
-      </c>
-      <c r="U4" s="342"/>
-      <c r="V4" s="344" t="s">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="U4" s="340"/>
+      <c r="V4" s="342" t="s">
         <v>122</v>
       </c>
       <c r="W4" s="76">
         <v>40</v>
       </c>
-      <c r="X4" s="307">
+      <c r="X4" s="306">
         <f>_xlfn.CHISQ.INV(W3,W4)</f>
         <v>26.509303196693114</v>
       </c>
@@ -17436,54 +17506,54 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="18" thickBot="1">
-      <c r="A5" s="442"/>
-      <c r="B5" s="443"/>
+      <c r="A5" s="440"/>
+      <c r="B5" s="441"/>
       <c r="C5" s="106"/>
       <c r="D5" s="85"/>
-      <c r="E5" s="446">
+      <c r="E5" s="444">
         <f>A2*B2+A3*B3</f>
         <v>-5.2631578947368474E-2</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="365" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="363" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="290">
+      <c r="H5" s="289">
         <v>20000</v>
       </c>
-      <c r="I5" s="287" t="s">
+      <c r="I5" s="286" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="289">
+      <c r="J5" s="288">
         <f>H4*H6*(1-H6)</f>
         <v>11.999999999999996</v>
       </c>
-      <c r="K5" s="284" t="s">
+      <c r="K5" s="283" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="183">
+      <c r="L5" s="182">
         <f>H4/H5</f>
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="N5" s="334"/>
-      <c r="O5" s="295" t="s">
+      <c r="N5" s="332"/>
+      <c r="O5" s="294" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="74">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="284" t="s">
+        <v>2000</v>
+      </c>
+      <c r="Q5" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="298">
+      <c r="R5" s="297">
         <f>P5*R3</f>
-        <v>1800</v>
-      </c>
-      <c r="U5" s="342"/>
-      <c r="V5" s="331" t="s">
+        <v>1319.9999999999998</v>
+      </c>
+      <c r="U5" s="340"/>
+      <c r="V5" s="329" t="s">
         <v>125</v>
       </c>
-      <c r="W5" s="236">
+      <c r="W5" s="235">
         <v>2.9</v>
       </c>
       <c r="X5" s="159"/>
@@ -17494,110 +17564,110 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A6" s="444"/>
+      <c r="A6" s="442"/>
       <c r="B6" s="34"/>
       <c r="C6" s="106"/>
       <c r="D6" s="85"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="365" t="s">
+      <c r="E6" s="284"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="363" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="290">
+      <c r="H6" s="289">
         <v>0.8</v>
       </c>
       <c r="I6" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="383">
+      <c r="J6" s="381">
         <f>ROUND(H8/H6, 0)</f>
         <v>4</v>
       </c>
       <c r="K6" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="383">
+      <c r="L6" s="381">
         <f>ROUND(10/(H6*(1-H6)),0)</f>
         <v>63</v>
       </c>
-      <c r="N6" s="334"/>
+      <c r="N6" s="332"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
-      <c r="U6" s="342"/>
+      <c r="U6" s="340"/>
       <c r="V6" s="68"/>
-      <c r="W6" s="236"/>
-      <c r="X6" s="345">
+      <c r="W6" s="235"/>
+      <c r="X6" s="343">
         <f>(W7-1)*W5^2 / W8^2</f>
         <v>45.992187499999993</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A7" s="311"/>
-      <c r="B7" s="315" t="s">
+      <c r="A7" s="310"/>
+      <c r="B7" s="314" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="314"/>
+      <c r="C7" s="313"/>
       <c r="D7" s="85"/>
       <c r="E7" s="153" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="66"/>
-      <c r="G7" s="363" t="s">
+      <c r="G7" s="361" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="303">
+      <c r="H7" s="302">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I7" s="284" t="s">
+      <c r="I7" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="275">
+      <c r="J7" s="274">
         <f>H7*SQRT(H4)</f>
         <v>0.39837168574084181</v>
       </c>
       <c r="K7" s="29"/>
-      <c r="L7" s="317"/>
-      <c r="N7" s="334"/>
+      <c r="L7" s="316"/>
+      <c r="N7" s="332"/>
       <c r="O7" s="178"/>
       <c r="P7" s="144">
-        <v>0.54</v>
-      </c>
-      <c r="Q7" s="300" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="299" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="301">
+      <c r="R7" s="300">
         <f>P7*(1-P7)* ((_xlfn.NORM.S.INV(1- (100-L1)/200))/P8)^2</f>
-        <v>203.47016243131716</v>
-      </c>
-      <c r="U7" s="342"/>
+        <v>800.30392097794254</v>
+      </c>
+      <c r="U7" s="340"/>
       <c r="V7" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="236">
+      <c r="W7" s="235">
         <v>15</v>
       </c>
-      <c r="X7" s="529" t="s">
+      <c r="X7" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="530"/>
-      <c r="Z7" s="531"/>
+      <c r="Y7" s="528"/>
+      <c r="Z7" s="529"/>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A8" s="281"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="314"/>
+      <c r="A8" s="280"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="313"/>
       <c r="D8" s="85"/>
       <c r="E8" s="155">
         <f>IF(B9="","",AVERAGE(B9:B30))</f>
         <v>5.8</v>
       </c>
       <c r="F8" s="66"/>
-      <c r="G8" s="363" t="s">
+      <c r="G8" s="361" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="290">
+      <c r="H8" s="289">
         <v>3.3</v>
       </c>
       <c r="I8" s="70" t="s">
@@ -17609,72 +17679,72 @@
       <c r="K8" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="199" t="s">
+      <c r="L8" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="334"/>
-      <c r="O8" s="330" t="s">
+      <c r="N8" s="332"/>
+      <c r="O8" s="328" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="97">
-        <v>0.09</v>
-      </c>
-      <c r="Q8" s="302" t="s">
+        <v>0.03</v>
+      </c>
+      <c r="Q8" s="301" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="301">
+      <c r="R8" s="300">
         <f>0.25* ((_xlfn.NORM.S.INV(1- (100-L$1)/200))/P8)^2</f>
-        <v>204.78075929077815</v>
-      </c>
-      <c r="U8" s="342"/>
-      <c r="V8" s="282" t="s">
+        <v>1067.0718946372567</v>
+      </c>
+      <c r="U8" s="340"/>
+      <c r="V8" s="281" t="s">
         <v>42</v>
       </c>
       <c r="W8" s="74">
         <v>1.6</v>
       </c>
-      <c r="X8" s="346" t="s">
+      <c r="X8" s="344" t="s">
         <v>134</v>
       </c>
-      <c r="Y8" s="349" t="s">
+      <c r="Y8" s="347" t="s">
         <v>133</v>
       </c>
-      <c r="Z8" s="351"/>
+      <c r="Z8" s="349"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A9" s="281"/>
-      <c r="B9" s="286">
+      <c r="A9" s="280"/>
+      <c r="B9" s="285">
         <v>7</v>
       </c>
-      <c r="C9" s="314"/>
+      <c r="C9" s="313"/>
       <c r="D9" s="85"/>
       <c r="E9" s="153" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="366" t="s">
+      <c r="G9" s="364" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="291">
+      <c r="H9" s="290">
         <v>83.75</v>
       </c>
-      <c r="I9" s="278">
+      <c r="I9" s="277">
         <f>ROUND((H8-H2)/H3,2)</f>
         <v>0.17</v>
       </c>
-      <c r="J9" s="279">
+      <c r="J9" s="278">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
         <v>0.56875488493203918</v>
       </c>
-      <c r="K9" s="279">
+      <c r="K9" s="278">
         <f>1-J9</f>
         <v>0.43124511506796082</v>
       </c>
-      <c r="L9" s="280">
+      <c r="L9" s="279">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
         <v>0.43124511506796082</v>
       </c>
-      <c r="N9" s="334"/>
+      <c r="N9" s="332"/>
       <c r="O9" s="94"/>
       <c r="P9" s="76">
         <v>0.01</v>
@@ -17683,12 +17753,12 @@
         <v>67</v>
       </c>
       <c r="R9" s="140"/>
-      <c r="U9" s="342"/>
-      <c r="X9" s="187">
+      <c r="U9" s="340"/>
+      <c r="X9" s="186">
         <f>CHIDIST(X6,W7-1)</f>
         <v>2.8119835991838909E-5</v>
       </c>
-      <c r="Y9" s="350">
+      <c r="Y9" s="348">
         <f>1-X9</f>
         <v>0.99997188016400818</v>
       </c>
@@ -17698,34 +17768,34 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A10" s="281"/>
-      <c r="B10" s="286">
+      <c r="A10" s="280"/>
+      <c r="B10" s="285">
         <v>9</v>
       </c>
-      <c r="C10" s="314"/>
+      <c r="C10" s="313"/>
       <c r="D10" s="85"/>
-      <c r="E10" s="352">
+      <c r="E10" s="350">
         <f>_xlfn.STDEV.S(B9:B30)</f>
         <v>2.3874672772626648</v>
       </c>
-      <c r="G10" s="367"/>
-      <c r="H10" s="283" t="s">
+      <c r="G10" s="365"/>
+      <c r="H10" s="282" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="276" t="s">
+      <c r="I10" s="275" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="276" t="s">
+      <c r="J10" s="275" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="276" t="s">
+      <c r="K10" s="275" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="277" t="s">
+      <c r="L10" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="334"/>
-      <c r="O10" s="309" t="s">
+      <c r="N10" s="332"/>
+      <c r="O10" s="308" t="s">
         <v>122</v>
       </c>
       <c r="P10" s="69">
@@ -17737,7 +17807,7 @@
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="342"/>
+      <c r="U10" s="340"/>
       <c r="W10" s="91">
         <v>10.8</v>
       </c>
@@ -17745,21 +17815,21 @@
       <c r="Y10" s="94"/>
     </row>
     <row r="11" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A11" s="281"/>
-      <c r="B11" s="286">
+      <c r="A11" s="280"/>
+      <c r="B11" s="285">
         <v>3</v>
       </c>
-      <c r="C11" s="314"/>
+      <c r="C11" s="313"/>
       <c r="D11" s="85"/>
-      <c r="I11" s="358">
+      <c r="I11" s="356">
         <f>ROUND((H8-H2)/H7, 2)</f>
         <v>6.52</v>
       </c>
-      <c r="J11" s="359">
+      <c r="J11" s="357">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
         <v>0.99999999996484634</v>
       </c>
-      <c r="K11" s="359">
+      <c r="K11" s="357">
         <f>1-J11</f>
         <v>3.5153657762521107E-11</v>
       </c>
@@ -17767,21 +17837,21 @@
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
         <v>3.5153657762521107E-11</v>
       </c>
-      <c r="N11" s="334"/>
-      <c r="O11" s="309" t="s">
+      <c r="N11" s="332"/>
+      <c r="O11" s="308" t="s">
         <v>115</v>
       </c>
       <c r="P11" s="69">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="307">
+      <c r="Q11" s="306">
         <f>TINV(2*P11, P10)</f>
         <v>0.85069979579045529</v>
       </c>
       <c r="R11" s="167"/>
       <c r="S11" s="111"/>
       <c r="T11" s="111"/>
-      <c r="U11" s="342"/>
+      <c r="U11" s="340"/>
       <c r="W11" s="91">
         <v>9</v>
       </c>
@@ -17792,60 +17862,60 @@
       <c r="Y11" s="111"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A12" s="281"/>
-      <c r="B12" s="286">
+      <c r="A12" s="280"/>
+      <c r="B12" s="285">
         <v>4</v>
       </c>
-      <c r="C12" s="314"/>
+      <c r="C12" s="313"/>
       <c r="D12" s="85"/>
-      <c r="N12" s="334"/>
-      <c r="O12" s="525" t="s">
+      <c r="N12" s="332"/>
+      <c r="O12" s="523" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="526"/>
+      <c r="P12" s="524"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
-        <v>2.7044592674331618</v>
+        <v>2.0210753903062715</v>
       </c>
       <c r="R12" s="75"/>
       <c r="S12" s="29"/>
       <c r="T12" s="111"/>
-      <c r="U12" s="342"/>
+      <c r="U12" s="340"/>
       <c r="W12" s="132"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A13" s="281"/>
-      <c r="B13" s="286">
+      <c r="A13" s="280"/>
+      <c r="B13" s="285">
         <v>6</v>
       </c>
-      <c r="C13" s="314"/>
+      <c r="C13" s="313"/>
       <c r="D13" s="85"/>
       <c r="G13" s="128"/>
       <c r="H13" s="144">
         <v>0.84</v>
       </c>
-      <c r="I13" s="201"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="202" t="s">
+      <c r="I13" s="200"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="304" t="s">
+      <c r="M13" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="334"/>
-      <c r="O13" s="308"/>
+      <c r="N13" s="332"/>
+      <c r="O13" s="307"/>
       <c r="P13" s="74"/>
       <c r="Q13" s="111"/>
       <c r="R13" s="66"/>
-      <c r="U13" s="342"/>
+      <c r="U13" s="340"/>
     </row>
     <row r="14" spans="1:27" ht="18" thickBot="1">
-      <c r="A14" s="316"/>
-      <c r="B14" s="313"/>
-      <c r="C14" s="314"/>
+      <c r="A14" s="315"/>
+      <c r="B14" s="312"/>
+      <c r="C14" s="313"/>
       <c r="D14" s="85"/>
       <c r="G14" s="90"/>
       <c r="H14" s="91"/>
@@ -17861,14 +17931,14 @@
       <c r="L14" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="220" t="s">
+      <c r="M14" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="334"/>
+      <c r="N14" s="332"/>
       <c r="O14" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="320">
+      <c r="P14" s="319">
         <v>67.5</v>
       </c>
       <c r="Q14" s="70" t="s">
@@ -17877,14 +17947,14 @@
       <c r="R14" s="160"/>
       <c r="S14" s="160"/>
       <c r="T14" s="29"/>
-      <c r="U14" s="342"/>
+      <c r="U14" s="340"/>
     </row>
     <row r="15" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A15" s="316"/>
-      <c r="B15" s="313"/>
-      <c r="C15" s="314"/>
+      <c r="A15" s="315"/>
+      <c r="B15" s="312"/>
+      <c r="C15" s="313"/>
       <c r="D15" s="85"/>
-      <c r="G15" s="200"/>
+      <c r="G15" s="199"/>
       <c r="H15" s="97"/>
       <c r="I15" s="117">
         <f xml:space="preserve"> ROUND( (H13-H6) / SQRT(H6*(1-H6)/H4), 2)</f>
@@ -17906,38 +17976,38 @@
         <f>2*K15</f>
         <v>0.38430040420739253</v>
       </c>
-      <c r="N15" s="334"/>
+      <c r="N15" s="332"/>
       <c r="O15" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="P15" s="236">
+      <c r="P15" s="235">
         <v>3.6</v>
       </c>
       <c r="Q15" s="121">
         <f xml:space="preserve"> TINV(1-L$1/100, P16 -1 )* P15 / SQRT(P16)</f>
-        <v>2.652041595127713</v>
+        <v>1.9183045910037968</v>
       </c>
       <c r="R15" s="117">
         <f>P14-Q15</f>
-        <v>64.847958404872287</v>
+        <v>65.581695408996197</v>
       </c>
       <c r="S15" s="117">
         <f>P14+Q15</f>
-        <v>70.152041595127713</v>
+        <v>69.418304591003803</v>
       </c>
       <c r="T15" s="123"/>
-      <c r="U15" s="342"/>
+      <c r="U15" s="340"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="316"/>
-      <c r="B16" s="313"/>
-      <c r="C16" s="314"/>
+      <c r="A16" s="315"/>
+      <c r="B16" s="312"/>
+      <c r="C16" s="313"/>
       <c r="D16" s="85"/>
-      <c r="N16" s="334"/>
-      <c r="O16" s="310" t="s">
+      <c r="N16" s="332"/>
+      <c r="O16" s="309" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="236">
+      <c r="P16" s="235">
         <v>16</v>
       </c>
       <c r="Q16" s="168" t="s">
@@ -17946,60 +18016,60 @@
       <c r="R16" s="117"/>
       <c r="S16" s="117"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="342"/>
+      <c r="U16" s="340"/>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="316"/>
-      <c r="B17" s="313"/>
-      <c r="C17" s="314"/>
+      <c r="A17" s="315"/>
+      <c r="B17" s="312"/>
+      <c r="C17" s="313"/>
       <c r="D17" s="85"/>
       <c r="G17" s="94"/>
       <c r="H17" s="91"/>
       <c r="I17" s="70"/>
       <c r="J17" s="111"/>
       <c r="K17" s="111"/>
-      <c r="N17" s="334"/>
-      <c r="O17" s="336" t="s">
+      <c r="N17" s="332"/>
+      <c r="O17" s="334" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="337">
+      <c r="P17" s="335">
         <v>4</v>
       </c>
-      <c r="Q17" s="190">
+      <c r="Q17" s="189">
         <f>((_xlfn.NORM.S.INV(1- (100-L1)/200))*P15/P17)^2</f>
-        <v>5.3742662468271822</v>
+        <v>3.1115816447622398</v>
       </c>
       <c r="R17" s="123"/>
       <c r="S17" s="111"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="342"/>
+      <c r="U17" s="340"/>
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A18" s="316"/>
-      <c r="B18" s="313"/>
-      <c r="C18" s="314"/>
+      <c r="A18" s="315"/>
+      <c r="B18" s="312"/>
+      <c r="C18" s="313"/>
       <c r="D18" s="85"/>
       <c r="G18" s="94"/>
       <c r="H18" s="91"/>
       <c r="I18" s="114">
         <f>-_xlfn.NORM.S.INV( (1-L1/100)/2)</f>
-        <v>2.5758293035488999</v>
-      </c>
-      <c r="J18" s="219"/>
-      <c r="K18" s="219"/>
-      <c r="N18" s="334"/>
-      <c r="O18" s="338"/>
-      <c r="P18" s="340"/>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="N18" s="332"/>
+      <c r="O18" s="336"/>
+      <c r="P18" s="338"/>
       <c r="Q18" s="177"/>
       <c r="R18" s="177"/>
-      <c r="S18" s="339"/>
-      <c r="T18" s="339"/>
-      <c r="U18" s="342"/>
+      <c r="S18" s="337"/>
+      <c r="T18" s="337"/>
+      <c r="U18" s="340"/>
     </row>
     <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="316"/>
-      <c r="B19" s="317"/>
-      <c r="C19" s="314"/>
+      <c r="A19" s="315"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="313"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
       <c r="H19" s="75"/>
@@ -18011,20 +18081,20 @@
       <c r="L19" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="334"/>
+      <c r="N19" s="332"/>
       <c r="O19" s="68"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="114"/>
       <c r="R19" s="114"/>
-      <c r="U19" s="342"/>
+      <c r="U19" s="340"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A20" s="316"/>
-      <c r="B20" s="317"/>
-      <c r="C20" s="314"/>
+      <c r="A20" s="315"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="313"/>
       <c r="D20" s="85"/>
-      <c r="G20" s="447"/>
-      <c r="H20" s="448"/>
+      <c r="G20" s="445"/>
+      <c r="H20" s="446"/>
       <c r="I20" s="70" t="s">
         <v>44</v>
       </c>
@@ -18037,32 +18107,32 @@
       <c r="L20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="334"/>
+      <c r="N20" s="332"/>
       <c r="O20" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="236">
+      <c r="P20" s="235">
         <v>16</v>
       </c>
       <c r="Q20" s="138">
         <f>_xlfn.CHISQ.INV((1-L1/100)/2,P20-1)</f>
-        <v>4.6009155717273398</v>
+        <v>6.2621377950432535</v>
       </c>
       <c r="R20" s="138">
         <f>_xlfn.CHISQ.INV.RT((1-L1/100)/2,P20-1)</f>
-        <v>32.80132064579184</v>
-      </c>
-      <c r="U20" s="342"/>
+        <v>27.488392863442979</v>
+      </c>
+      <c r="U20" s="340"/>
     </row>
     <row r="21" spans="1:21" ht="21" thickBot="1">
-      <c r="A21" s="316"/>
-      <c r="B21" s="317"/>
-      <c r="C21" s="314"/>
+      <c r="A21" s="315"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="313"/>
       <c r="D21" s="85"/>
-      <c r="G21" s="292" t="s">
+      <c r="G21" s="291" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="293">
+      <c r="H21" s="292">
         <v>-0.28000000000000003</v>
       </c>
       <c r="I21" s="121">
@@ -18073,15 +18143,15 @@
         <f>1-I21</f>
         <v>0.61026124755579725</v>
       </c>
-      <c r="K21" s="326">
+      <c r="K21" s="324">
         <f>2*I21</f>
         <v>0.7794775048884055</v>
       </c>
-      <c r="L21" s="326">
+      <c r="L21" s="324">
         <f>2*J21</f>
         <v>1.2205224951115945</v>
       </c>
-      <c r="N21" s="334"/>
+      <c r="N21" s="332"/>
       <c r="O21" s="68" t="s">
         <v>127</v>
       </c>
@@ -18094,15 +18164,15 @@
       <c r="R21" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="U21" s="342"/>
+      <c r="U21" s="340"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A22" s="316"/>
-      <c r="B22" s="317"/>
-      <c r="C22" s="314"/>
+      <c r="A22" s="315"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="313"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="527">
+      <c r="H22" s="525">
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="I22" s="70" t="s">
@@ -18111,37 +18181,37 @@
       <c r="J22" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="327" t="s">
+      <c r="K22" s="325" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="328" t="s">
+      <c r="L22" s="326" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="329" t="s">
+      <c r="M22" s="327" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="334"/>
+      <c r="N22" s="332"/>
       <c r="O22" s="66"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="138">
         <f>(P20-1)*P21/R20</f>
-        <v>1.0517869195741083</v>
+        <v>1.2550751937877682</v>
       </c>
       <c r="R22" s="138">
         <f>(P20-1)*P21/Q20</f>
-        <v>7.4985075170695925</v>
-      </c>
-      <c r="U22" s="342"/>
+        <v>5.5093006780061922</v>
+      </c>
+      <c r="U22" s="340"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A23" s="316"/>
-      <c r="B23" s="317"/>
-      <c r="C23" s="314"/>
+      <c r="A23" s="315"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="313"/>
       <c r="D23" s="85"/>
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="528"/>
+      <c r="H23" s="526"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
         <v>-1.8896857578022153</v>
@@ -18150,11 +18220,11 @@
         <f>_xlfn.NORM.S.INV(H22/2)</f>
         <v>-2.1780810922893403</v>
       </c>
-      <c r="K23" s="203">
+      <c r="K23" s="202">
         <f>-TINV(2*H22,H24)</f>
         <v>-2.0175492882337003</v>
       </c>
-      <c r="L23" s="325">
+      <c r="L23" s="323">
         <f>TINV(2*H22,H24)</f>
         <v>2.0175492882337003</v>
       </c>
@@ -18162,7 +18232,7 @@
         <f>TINV(H22,H24)</f>
         <v>2.3660751777643623</v>
       </c>
-      <c r="N23" s="334"/>
+      <c r="N23" s="332"/>
       <c r="O23" s="152" t="s">
         <v>128</v>
       </c>
@@ -18171,20 +18241,20 @@
       </c>
       <c r="Q23" s="138">
         <f>SQRT((P20-1)*(P23^2)/R20)</f>
-        <v>1.8934681142722354</v>
+        <v>2.0683736017015146</v>
       </c>
       <c r="R23" s="138">
         <f>SQRT((P20-1)*(P23^2)/Q20)</f>
-        <v>5.0557027178453167</v>
-      </c>
-      <c r="U23" s="342"/>
+        <v>4.3335354236049</v>
+      </c>
+      <c r="U23" s="340"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="316"/>
-      <c r="B24" s="317"/>
-      <c r="C24" s="314"/>
+      <c r="A24" s="315"/>
+      <c r="B24" s="316"/>
+      <c r="C24" s="313"/>
       <c r="D24" s="85"/>
-      <c r="G24" s="309" t="s">
+      <c r="G24" s="308" t="s">
         <v>122</v>
       </c>
       <c r="H24" s="69">
@@ -18199,55 +18269,55 @@
       <c r="M24" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="N24" s="334"/>
+      <c r="N24" s="332"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="138">
         <f>Q23^2</f>
-        <v>3.5852214997656549</v>
+        <v>4.2781693562156962</v>
       </c>
       <c r="R24" s="138">
         <f>R23^2</f>
-        <v>25.560129971228523</v>
-      </c>
-      <c r="U24" s="342"/>
+        <v>18.779529267638498</v>
+      </c>
+      <c r="U24" s="340"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A25" s="316"/>
-      <c r="B25" s="317"/>
-      <c r="C25" s="314"/>
+      <c r="A25" s="315"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="313"/>
       <c r="D25" s="85"/>
       <c r="K25" s="121">
         <f>IF(J29 &gt;=10,  _xlfn.NORM.S.DIST(K27,TRUE), _xlfn.BINOM.DIST(H28, H26, H27, TRUE))</f>
-        <v>0.36689674240000009</v>
+        <v>0.91528746138612238</v>
       </c>
       <c r="L25" s="121">
         <f>1-K25</f>
-        <v>0.63310325759999997</v>
+        <v>8.4712538613877619E-2</v>
       </c>
       <c r="M25" s="121">
         <f>2*L25</f>
-        <v>1.2662065151999999</v>
-      </c>
-      <c r="N25" s="334"/>
+        <v>0.16942507722775524</v>
+      </c>
+      <c r="N25" s="332"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="321"/>
-      <c r="U25" s="342"/>
+      <c r="Q25" s="320"/>
+      <c r="U25" s="340"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" thickBot="1">
-      <c r="A26" s="316"/>
-      <c r="B26" s="317"/>
-      <c r="C26" s="314"/>
+      <c r="A26" s="315"/>
+      <c r="B26" s="316"/>
+      <c r="C26" s="313"/>
       <c r="D26" s="85"/>
       <c r="G26" s="128" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="144">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I26" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="221" t="s">
+      <c r="J26" s="220" t="s">
         <v>62</v>
       </c>
       <c r="K26" s="70" t="s">
@@ -18256,11 +18326,11 @@
       <c r="L26" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="220" t="s">
+      <c r="M26" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="334"/>
-      <c r="O26" s="231" t="s">
+      <c r="N26" s="332"/>
+      <c r="O26" s="230" t="s">
         <v>68</v>
       </c>
       <c r="P26" s="144">
@@ -18272,44 +18342,43 @@
       <c r="R26" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="347"/>
-      <c r="T26" s="348"/>
-      <c r="U26" s="342"/>
+      <c r="S26" s="345"/>
+      <c r="T26" s="346"/>
+      <c r="U26" s="340"/>
     </row>
     <row r="27" spans="1:21" ht="20.25" thickBot="1">
-      <c r="A27" s="316"/>
-      <c r="B27" s="317"/>
-      <c r="C27" s="314"/>
+      <c r="A27" s="315"/>
+      <c r="B27" s="316"/>
+      <c r="C27" s="313"/>
       <c r="D27" s="85"/>
       <c r="G27" s="90" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="131">
-        <f>3/5</f>
-        <v>0.6</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I27" s="124">
         <f>H26*H27</f>
-        <v>6</v>
-      </c>
-      <c r="J27" s="322">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="J27" s="321">
         <f>SQRT(H26*H27*(1-H27))</f>
-        <v>1.5491933384829668</v>
+        <v>0.98923606889356808</v>
       </c>
       <c r="K27" s="130">
         <f>ROUND((H28 - I27)/J27,2)</f>
-        <v>-0.32</v>
+        <v>0.94</v>
       </c>
       <c r="L27" s="121">
         <f>_xlfn.NORM.S.DIST(K27,TRUE)</f>
-        <v>0.37448416527667994</v>
+        <v>0.82639121966137541</v>
       </c>
       <c r="M27" s="149">
         <f>1-L27</f>
-        <v>0.62551583472332006</v>
-      </c>
-      <c r="N27" s="334"/>
-      <c r="O27" s="332" t="s">
+        <v>0.17360878033862459</v>
+      </c>
+      <c r="N27" s="332"/>
+      <c r="O27" s="330" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="91">
@@ -18325,34 +18394,34 @@
       </c>
       <c r="S27" s="130">
         <f>P28-Q29*P27/SQRT(P26)</f>
-        <v>14.417204860812628</v>
+        <v>14.965723656605658</v>
       </c>
       <c r="T27" s="130">
         <f>P28+Q29*P27/SQRT(P26)</f>
-        <v>18.182795139187373</v>
-      </c>
-      <c r="U27" s="342"/>
+        <v>17.634276343394344</v>
+      </c>
+      <c r="U27" s="340"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A28" s="316"/>
-      <c r="B28" s="317"/>
-      <c r="C28" s="314"/>
+      <c r="A28" s="315"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="313"/>
       <c r="D28" s="85"/>
       <c r="G28" s="90" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="91">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="I28" s="126"/>
-      <c r="J28" s="299" t="s">
+      <c r="J28" s="298" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="179"/>
-      <c r="M28" s="192" t="s">
+      <c r="K28" s="555"/>
+      <c r="M28" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="N28" s="334"/>
+      <c r="N28" s="332"/>
       <c r="O28" s="94"/>
       <c r="P28" s="99">
         <v>16.3</v>
@@ -18364,14 +18433,14 @@
       <c r="S28" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="U28" s="342"/>
+      <c r="U28" s="340"/>
     </row>
     <row r="29" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A29" s="316"/>
-      <c r="B29" s="317"/>
-      <c r="C29" s="314"/>
+      <c r="A29" s="315"/>
+      <c r="B29" s="316"/>
+      <c r="C29" s="313"/>
       <c r="D29" s="85"/>
-      <c r="G29" s="366" t="s">
+      <c r="G29" s="364" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="97">
@@ -18379,25 +18448,28 @@
       </c>
       <c r="I29" s="138">
         <f xml:space="preserve"> H28/H26</f>
-        <v>0.55000000000000004</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="J29" s="117">
         <f>H26*I29*(1-I29)</f>
-        <v>2.4749999999999996</v>
-      </c>
-      <c r="K29" s="323"/>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="K29" s="553">
+        <f>(H28+2)/(H26+4)</f>
+        <v>0.23529411764705882</v>
+      </c>
       <c r="M29" s="121">
         <f xml:space="preserve"> M27 - 1 + _xlfn.NORM.S.DIST(ROUND((H29 - I27)/J27,2),TRUE)</f>
-        <v>0.25103166944664013</v>
-      </c>
-      <c r="N29" s="334"/>
+        <v>0.1736087602419375</v>
+      </c>
+      <c r="N29" s="332"/>
       <c r="O29" s="177"/>
       <c r="P29" s="97">
         <v>16.8</v>
       </c>
       <c r="Q29" s="121">
         <f>TINV((100-L1)/100, P26-1)</f>
-        <v>3.1058065155392809</v>
+        <v>2.2009851600916384</v>
       </c>
       <c r="R29" s="121">
         <f>1-_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
@@ -18407,12 +18479,12 @@
         <f>_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
         <v>0.21350844230674559</v>
       </c>
-      <c r="U29" s="342"/>
+      <c r="U29" s="340"/>
     </row>
     <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A30" s="318"/>
-      <c r="B30" s="319"/>
-      <c r="C30" s="314"/>
+      <c r="A30" s="317"/>
+      <c r="B30" s="318"/>
+      <c r="C30" s="313"/>
       <c r="D30" s="85"/>
       <c r="I30" s="128" t="s">
         <v>70</v>
@@ -18423,34 +18495,34 @@
       <c r="K30" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="258"/>
-      <c r="N30" s="334"/>
+      <c r="M30" s="257"/>
+      <c r="N30" s="332"/>
       <c r="O30" s="145"/>
       <c r="P30" s="123"/>
       <c r="Q30" s="94"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="324" t="s">
+      <c r="S30" s="322" t="s">
         <v>66</v>
       </c>
       <c r="T30" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="U30" s="342"/>
+      <c r="U30" s="340"/>
     </row>
     <row r="31" spans="1:21" ht="20.25" thickBot="1">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J31" s="116">
         <f>1-I31</f>
-        <v>0.995</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="K31" s="112">
         <f>_xlfn.NORM.S.INV(J31)</f>
-        <v>2.5758293035488999</v>
-      </c>
-      <c r="N31" s="334"/>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="N31" s="332"/>
       <c r="O31" s="147" t="s">
         <v>61</v>
       </c>
@@ -18466,10 +18538,10 @@
       <c r="S31" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="T31" s="220" t="s">
+      <c r="T31" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="342"/>
+      <c r="U31" s="340"/>
     </row>
     <row r="32" spans="1:21" ht="20.25" thickBot="1">
       <c r="I32" s="113" t="s">
@@ -18477,9 +18549,13 @@
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="334"/>
+      <c r="L32" s="554" t="s">
+        <v>177</v>
+      </c>
+      <c r="M32" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" s="332"/>
       <c r="O32" s="148" t="s">
         <v>52</v>
       </c>
@@ -18502,28 +18578,34 @@
         <f>2*R32</f>
         <v>1.0231309026183606</v>
       </c>
-      <c r="U32" s="342"/>
+      <c r="U32" s="340"/>
     </row>
     <row r="33" spans="9:21" ht="16.5" thickBot="1">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
-        <v>0.40523288474070679</v>
+        <v>0.19613016918857804</v>
       </c>
       <c r="J33" s="114">
         <f>I29-I33</f>
-        <v>0.14476711525929326</v>
+        <v>-4.228401534242418E-2</v>
       </c>
       <c r="K33" s="114">
         <f>I29+I33</f>
-        <v>0.95523288474070678</v>
-      </c>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="335"/>
-      <c r="U33" s="342"/>
+        <v>0.34997632303473192</v>
+      </c>
+      <c r="L33" s="202">
+        <f>K29-K31*SQRT(K29*(1-K29)/(H26+4))</f>
+        <v>3.3654260647468931E-2</v>
+      </c>
+      <c r="M33" s="89">
+        <f>K29+K31*SQRT(K29*(1-K29)/(H26+4))</f>
+        <v>0.43693397464664874</v>
+      </c>
+      <c r="N33" s="333"/>
+      <c r="U33" s="340"/>
     </row>
     <row r="34" spans="9:21" ht="16.5" thickBot="1">
-      <c r="U34" s="343"/>
+      <c r="U34" s="341"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19311,6 +19393,31 @@
         <oleObject progId="Equation.DSMT4" shapeId="16431" r:id="rId57"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="16435" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="16435" r:id="rId58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
@@ -19338,7 +19445,7 @@
     <col min="13" max="14" width="9.7109375" style="132" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="29" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="17" width="1.28515625" style="391" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" style="389" customWidth="1"/>
     <col min="18" max="18" width="7.28515625" style="29" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" style="29" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" style="29" customWidth="1"/>
@@ -19365,26 +19472,26 @@
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="151"/>
-      <c r="E1" s="376" t="s">
+      <c r="E1" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="377" t="s">
+      <c r="F1" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="532"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="196"/>
+      <c r="G1" s="530"/>
+      <c r="H1" s="531"/>
+      <c r="I1" s="195"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
       <c r="O1" s="75"/>
       <c r="P1" s="75"/>
-      <c r="Q1" s="196"/>
+      <c r="Q1" s="195"/>
       <c r="R1" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="450">
+      <c r="S1" s="448">
         <f>SUM(S4:S18)</f>
         <v>100</v>
       </c>
@@ -19415,17 +19522,17 @@
       <c r="F2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="382" t="s">
+      <c r="G2" s="380" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="382" t="s">
+      <c r="H2" s="380" t="s">
         <v>146</v>
       </c>
       <c r="I2" s="154"/>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="198">
+      <c r="K2" s="197">
         <v>95</v>
       </c>
       <c r="L2" s="111"/>
@@ -19433,15 +19540,15 @@
       <c r="N2" s="94"/>
       <c r="O2" s="75"/>
       <c r="P2" s="75"/>
-      <c r="Q2" s="393"/>
-      <c r="R2" s="392" t="s">
+      <c r="Q2" s="391"/>
+      <c r="R2" s="390" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="32">
         <v>100</v>
       </c>
       <c r="T2" s="132"/>
-      <c r="U2" s="402"/>
+      <c r="U2" s="400"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -19453,9 +19560,9 @@
       <c r="AD2" s="75"/>
     </row>
     <row r="3" spans="1:34" ht="17.25" thickBot="1">
-      <c r="A3" s="480"/>
-      <c r="B3" s="480"/>
-      <c r="C3" s="371" t="s">
+      <c r="A3" s="478"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="369" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="154"/>
@@ -19471,7 +19578,7 @@
         <f xml:space="preserve"> IF(G8&gt;0, 2*(1-_xlfn.T.DIST(G8,A1- 1, TRUE)), 2*(_xlfn.T.DIST(G8,A1- 1, TRUE)))</f>
         <v>0.85265327826320769</v>
       </c>
-      <c r="H3" s="184">
+      <c r="H3" s="183">
         <f>_xlfn.T.DIST(G8,A1- 1, TRUE)</f>
         <v>0.57367336086839615</v>
       </c>
@@ -19485,19 +19592,19 @@
       <c r="N3" s="123"/>
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
-      <c r="Q3" s="393"/>
-      <c r="R3" s="371" t="s">
+      <c r="Q3" s="391"/>
+      <c r="R3" s="369" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="371" t="s">
+      <c r="S3" s="369" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="389" t="s">
+      <c r="T3" s="387" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="402"/>
-      <c r="V3" s="410"/>
-      <c r="W3" s="411"/>
+      <c r="U3" s="400"/>
+      <c r="V3" s="408"/>
+      <c r="W3" s="409"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -19514,13 +19621,13 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="473">
+      <c r="A4" s="471">
         <v>9.1</v>
       </c>
-      <c r="B4" s="473">
+      <c r="B4" s="471">
         <v>12.9</v>
       </c>
-      <c r="C4" s="370">
+      <c r="C4" s="368">
         <f>A4-B4</f>
         <v>-3.8000000000000007</v>
       </c>
@@ -19535,13 +19642,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="470"/>
+      <c r="H4" s="468"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
-      <c r="Q4" s="393">
+      <c r="Q4" s="391">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
         <v>22.502717391304348</v>
       </c>
@@ -19552,19 +19659,19 @@
       <c r="S4" s="175">
         <v>23</v>
       </c>
-      <c r="T4" s="383">
+      <c r="T4" s="381">
         <f>S$2*R4</f>
         <v>25</v>
       </c>
-      <c r="U4" s="402">
+      <c r="U4" s="400">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
         <v>0.16</v>
       </c>
-      <c r="V4" s="412">
+      <c r="V4" s="410">
         <f>SUM(Q4:Q15)</f>
         <v>98.010040218939679</v>
       </c>
-      <c r="W4" s="413">
+      <c r="W4" s="411">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
         <v>7.8147279032511792</v>
       </c>
@@ -19586,13 +19693,13 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A5" s="473">
+      <c r="A5" s="471">
         <v>9</v>
       </c>
-      <c r="B5" s="473">
+      <c r="B5" s="471">
         <v>13.8</v>
       </c>
-      <c r="C5" s="370">
+      <c r="C5" s="368">
         <f t="shared" ref="C5:C15" si="0">A5-B5</f>
         <v>-4.8000000000000007</v>
       </c>
@@ -19609,14 +19716,14 @@
         <v>2.6027114981989712</v>
       </c>
       <c r="G5" s="155"/>
-      <c r="H5" s="184"/>
+      <c r="H5" s="183"/>
       <c r="I5" s="154"/>
       <c r="J5" s="176"/>
       <c r="K5" s="176"/>
       <c r="L5" s="123"/>
       <c r="O5" s="75"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="393">
+      <c r="Q5" s="391">
         <f t="shared" ref="Q5:Q23" si="2">IF(S5=0,0, (R5-S5)^2 / S5)</f>
         <v>23.502604166666668</v>
       </c>
@@ -19626,11 +19733,11 @@
       <c r="S5" s="175">
         <v>24</v>
       </c>
-      <c r="T5" s="383">
+      <c r="T5" s="381">
         <f t="shared" ref="T5:T15" si="3">S$2*R5</f>
         <v>25</v>
       </c>
-      <c r="U5" s="402">
+      <c r="U5" s="400">
         <f t="shared" ref="U5:U17" si="4">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
         <v>0.04</v>
       </c>
@@ -19654,13 +19761,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A6" s="473">
+      <c r="A6" s="471">
         <v>12.7</v>
       </c>
-      <c r="B6" s="473">
+      <c r="B6" s="471">
         <v>14</v>
       </c>
-      <c r="C6" s="370">
+      <c r="C6" s="368">
         <f t="shared" si="0"/>
         <v>-1.3000000000000007</v>
       </c>
@@ -19673,11 +19780,11 @@
       <c r="G6" s="66"/>
       <c r="H6" s="162"/>
       <c r="I6" s="154"/>
-      <c r="O6" s="222" t="s">
+      <c r="O6" s="221" t="s">
         <v>141</v>
       </c>
       <c r="P6" s="140"/>
-      <c r="Q6" s="393">
+      <c r="Q6" s="391">
         <f t="shared" si="2"/>
         <v>25.502403846153847</v>
       </c>
@@ -19687,18 +19794,18 @@
       <c r="S6" s="175">
         <v>26</v>
       </c>
-      <c r="T6" s="383">
+      <c r="T6" s="381">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U6" s="402">
+      <c r="U6" s="400">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="V6" s="414" t="s">
+      <c r="V6" s="412" t="s">
         <v>149</v>
       </c>
-      <c r="W6" s="382" t="s">
+      <c r="W6" s="380" t="s">
         <v>146</v>
       </c>
       <c r="X6" s="3"/>
@@ -19719,13 +19826,13 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="473">
+      <c r="A7" s="471">
         <v>11.8</v>
       </c>
-      <c r="B7" s="473">
+      <c r="B7" s="471">
         <v>11.3</v>
       </c>
-      <c r="C7" s="370">
+      <c r="C7" s="368">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -19738,7 +19845,7 @@
       <c r="G7" s="66"/>
       <c r="H7" s="70"/>
       <c r="I7" s="154"/>
-      <c r="J7" s="231" t="s">
+      <c r="J7" s="230" t="s">
         <v>76</v>
       </c>
       <c r="K7" s="144">
@@ -19749,11 +19856,11 @@
       </c>
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
-      <c r="O7" s="221" t="s">
+      <c r="O7" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="375"/>
-      <c r="Q7" s="393">
+      <c r="P7" s="373"/>
+      <c r="Q7" s="391">
         <f t="shared" si="2"/>
         <v>26.502314814814813</v>
       </c>
@@ -19763,15 +19870,15 @@
       <c r="S7" s="175">
         <v>27</v>
       </c>
-      <c r="T7" s="383">
+      <c r="T7" s="381">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U7" s="402">
+      <c r="U7" s="400">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
-      <c r="V7" s="415">
+      <c r="V7" s="413">
         <f>SUM(U4:U17)</f>
         <v>0.4</v>
       </c>
@@ -19779,11 +19886,11 @@
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
         <v>0.94024249483936073</v>
       </c>
-      <c r="X7" s="419">
+      <c r="X7" s="417">
         <f>1-W7</f>
         <v>5.9757505160639268E-2</v>
       </c>
-      <c r="Y7" s="476">
+      <c r="Y7" s="474">
         <f>2*W7</f>
         <v>1.8804849896787215</v>
       </c>
@@ -19806,13 +19913,13 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="473">
+      <c r="A8" s="471">
         <v>11.5</v>
       </c>
-      <c r="B8" s="473">
+      <c r="B8" s="471">
         <v>7.7</v>
       </c>
-      <c r="C8" s="370">
+      <c r="C8" s="368">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
@@ -19832,7 +19939,7 @@
         <f>E8*SQRT(A1)/F8</f>
         <v>0.19271617174689112</v>
       </c>
-      <c r="H8" s="184"/>
+      <c r="H8" s="183"/>
       <c r="I8" s="154"/>
       <c r="J8" s="145" t="s">
         <v>75</v>
@@ -19848,7 +19955,7 @@
         <f>K7/K8</f>
         <v>0.466403162055336</v>
       </c>
-      <c r="N8" s="180">
+      <c r="N8" s="179">
         <f>K10/K11</f>
         <v>0.44654088050314467</v>
       </c>
@@ -19857,21 +19964,21 @@
         <v>1.4263994477758974</v>
       </c>
       <c r="P8" s="111"/>
-      <c r="Q8" s="393">
+      <c r="Q8" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="175"/>
       <c r="S8" s="175"/>
-      <c r="T8" s="383">
+      <c r="T8" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="402">
+      <c r="U8" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="416" t="s">
+      <c r="V8" s="414" t="s">
         <v>150</v>
       </c>
       <c r="W8" s="3"/>
@@ -19896,13 +20003,13 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A9" s="473">
+      <c r="A9" s="471">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B9" s="473">
+      <c r="B9" s="471">
         <v>8.9</v>
       </c>
-      <c r="C9" s="370">
+      <c r="C9" s="368">
         <f t="shared" si="0"/>
         <v>0.29999999999999893</v>
       </c>
@@ -19910,39 +20017,39 @@
         <f t="shared" si="1"/>
         <v>1.0112359550561726E-2</v>
       </c>
-      <c r="E9" s="220" t="s">
+      <c r="E9" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="243"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="195" t="s">
+      <c r="F9" s="242"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="194" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="154"/>
       <c r="J9" s="145"/>
       <c r="K9" s="123"/>
       <c r="N9" s="94"/>
-      <c r="O9" s="194" t="s">
+      <c r="O9" s="193" t="s">
         <v>66</v>
       </c>
       <c r="P9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="393">
+      <c r="Q9" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="175"/>
       <c r="S9" s="175"/>
-      <c r="T9" s="383">
+      <c r="T9" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9" s="402">
+      <c r="U9" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9" s="417">
+      <c r="V9" s="415">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
         <v>25</v>
       </c>
@@ -19965,13 +20072,13 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A10" s="473">
+      <c r="A10" s="471">
         <v>13.5</v>
       </c>
-      <c r="B10" s="473">
+      <c r="B10" s="471">
         <v>13.2</v>
       </c>
-      <c r="C10" s="370">
+      <c r="C10" s="368">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
@@ -19983,15 +20090,15 @@
         <f xml:space="preserve"> H10* F8 /SQRT(A1)</f>
         <v>3.2208706743009405</v>
       </c>
-      <c r="F10" s="190">
+      <c r="F10" s="189">
         <f>E8-E10</f>
         <v>-2.9583706743009408</v>
       </c>
-      <c r="G10" s="469">
+      <c r="G10" s="467">
         <f>E8+E10</f>
         <v>3.4833706743009403</v>
       </c>
-      <c r="H10" s="185">
+      <c r="H10" s="184">
         <f>TINV(1-K2/100, A$1- 1)</f>
         <v>2.3646242515927849</v>
       </c>
@@ -20014,20 +20121,20 @@
       <c r="O10" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="220" t="s">
+      <c r="P10" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="393">
+      <c r="Q10" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="175"/>
       <c r="S10" s="175"/>
-      <c r="T10" s="383">
+      <c r="T10" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" s="402">
+      <c r="U10" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20051,13 +20158,13 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A11" s="473">
+      <c r="A11" s="471">
         <v>15.4</v>
       </c>
-      <c r="B11" s="473">
+      <c r="B11" s="471">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C11" s="370">
+      <c r="C11" s="368">
         <f t="shared" si="0"/>
         <v>7.1</v>
       </c>
@@ -20067,8 +20174,8 @@
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="123"/>
-      <c r="G11" s="386"/>
-      <c r="H11" s="387"/>
+      <c r="G11" s="384"/>
+      <c r="H11" s="385"/>
       <c r="I11" s="154"/>
       <c r="J11" s="145" t="s">
         <v>74</v>
@@ -20096,23 +20203,23 @@
         <f>2*N11</f>
         <v>0.6359077018144641</v>
       </c>
-      <c r="Q11" s="393">
+      <c r="Q11" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="175"/>
       <c r="S11" s="175"/>
-      <c r="T11" s="383">
+      <c r="T11" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11" s="402">
+      <c r="U11" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="451" t="s">
+      <c r="X11" s="449" t="s">
         <v>163</v>
       </c>
       <c r="Y11" s="3"/>
@@ -20132,9 +20239,9 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A12" s="471"/>
-      <c r="B12" s="472"/>
-      <c r="C12" s="370">
+      <c r="A12" s="469"/>
+      <c r="B12" s="470"/>
+      <c r="C12" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20142,55 +20249,55 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="374" t="s">
+      <c r="E12" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="229">
+      <c r="F12" s="228">
         <f>E$5^2/A$1</f>
         <v>0.67919642857142992</v>
       </c>
-      <c r="G12" s="388">
+      <c r="G12" s="386">
         <f xml:space="preserve"> E3-G3 -H14</f>
         <v>8.7235800832978736</v>
       </c>
-      <c r="H12" s="239">
+      <c r="H12" s="238">
         <f>E3-G3+H14</f>
         <v>12.621113360175711</v>
       </c>
       <c r="I12" s="154"/>
-      <c r="J12" s="222"/>
-      <c r="L12" s="181" t="s">
+      <c r="J12" s="221"/>
+      <c r="L12" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="220" t="s">
+      <c r="M12" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="534"/>
-      <c r="O12" s="535"/>
+      <c r="N12" s="532"/>
+      <c r="O12" s="533"/>
       <c r="P12" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="393">
+      <c r="Q12" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="175"/>
       <c r="S12" s="175"/>
-      <c r="T12" s="383">
+      <c r="T12" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12" s="402">
+      <c r="U12" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="420" t="s">
+      <c r="V12" s="418" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="421">
+      <c r="W12" s="419">
         <v>769</v>
       </c>
-      <c r="X12" s="453">
+      <c r="X12" s="451">
         <f>W12*W13</f>
         <v>107.66000000000001</v>
       </c>
@@ -20211,9 +20318,9 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A13" s="468"/>
-      <c r="B13" s="468"/>
-      <c r="C13" s="370">
+      <c r="A13" s="466"/>
+      <c r="B13" s="466"/>
+      <c r="C13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20241,43 +20348,43 @@
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
         <v>8.2245126945467512E-2</v>
       </c>
-      <c r="M13" s="368">
+      <c r="M13" s="366">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="N13" s="187">
+      <c r="N13" s="186">
         <f>M8-N8-L13</f>
         <v>-6.2382845393276182E-2</v>
       </c>
-      <c r="O13" s="188">
+      <c r="O13" s="187">
         <f>M8-N8+L13</f>
         <v>0.10210740849765884</v>
       </c>
-      <c r="P13" s="449">
+      <c r="P13" s="447">
         <f>2*M11</f>
         <v>1.3640922981855359</v>
       </c>
-      <c r="Q13" s="393">
+      <c r="Q13" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
-      <c r="T13" s="383">
+      <c r="T13" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U13" s="402">
+      <c r="U13" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="420" t="s">
+      <c r="V13" s="418" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="452">
+      <c r="W13" s="450">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X13" s="455" t="s">
+      <c r="X13" s="453" t="s">
         <v>164</v>
       </c>
       <c r="Y13" s="3"/>
@@ -20297,9 +20404,9 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A14" s="468"/>
-      <c r="B14" s="468"/>
-      <c r="C14" s="370">
+      <c r="A14" s="466"/>
+      <c r="B14" s="466"/>
+      <c r="C14" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20307,7 +20414,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="228" t="s">
+      <c r="E14" s="227" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="174">
@@ -20323,40 +20430,40 @@
         <v>1.9487666384389182</v>
       </c>
       <c r="I14" s="154"/>
-      <c r="J14" s="232" t="s">
+      <c r="J14" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="369">
+      <c r="K14" s="367">
         <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="221"/>
+      <c r="M14" s="220"/>
       <c r="N14" s="94"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
-      <c r="Q14" s="393">
+      <c r="Q14" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
-      <c r="T14" s="383">
+      <c r="T14" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14" s="402">
+      <c r="U14" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="422" t="s">
+      <c r="V14" s="420" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="423">
+      <c r="W14" s="421">
         <v>30</v>
       </c>
-      <c r="X14" s="454">
+      <c r="X14" s="452">
         <f>W12-X12</f>
         <v>661.34</v>
       </c>
@@ -20377,22 +20484,22 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="18" thickBot="1">
-      <c r="A15" s="468"/>
-      <c r="B15" s="468"/>
-      <c r="C15" s="370">
+      <c r="A15" s="466"/>
+      <c r="B15" s="466"/>
+      <c r="C15" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="384">
+      <c r="D15" s="382">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="536" t="s">
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="534" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="537"/>
+      <c r="H15" s="535"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
@@ -20400,20 +20507,20 @@
         <v>-2.8629732859266332</v>
       </c>
       <c r="M15" s="138"/>
-      <c r="N15" s="219"/>
+      <c r="N15" s="218"/>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
-      <c r="Q15" s="393">
+      <c r="Q15" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="398"/>
-      <c r="S15" s="398"/>
-      <c r="T15" s="383">
+      <c r="R15" s="396"/>
+      <c r="S15" s="396"/>
+      <c r="T15" s="381">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U15" s="402">
+      <c r="U15" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20439,13 +20546,13 @@
       <c r="A16" s="175"/>
       <c r="B16" s="175"/>
       <c r="C16" s="175"/>
-      <c r="D16" s="384">
+      <c r="D16" s="382">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="385"/>
-      <c r="F16" s="385"/>
-      <c r="G16" s="192" t="s">
+      <c r="E16" s="383"/>
+      <c r="F16" s="383"/>
+      <c r="G16" s="191" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="158" t="s">
@@ -20455,40 +20562,40 @@
       <c r="K16" s="91">
         <v>0.215</v>
       </c>
-      <c r="L16" s="189" t="s">
+      <c r="L16" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="189" t="s">
+      <c r="M16" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="N16" s="223"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="393">
+      <c r="N16" s="222"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="399"/>
-      <c r="S16" s="399"/>
-      <c r="T16" s="383"/>
-      <c r="U16" s="402">
+      <c r="R16" s="397"/>
+      <c r="S16" s="397"/>
+      <c r="T16" s="381"/>
+      <c r="U16" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V16" s="224"/>
-      <c r="W16" s="382" t="s">
+      <c r="V16" s="223"/>
+      <c r="W16" s="380" t="s">
         <v>146</v>
       </c>
       <c r="X16" s="121">
         <f>CHIDIST( (W14-X12)^2 / X12 + (W12-W14-X14)^2 / X14,1)</f>
         <v>6.9792408532011301E-16</v>
       </c>
-      <c r="Y16" s="224"/>
+      <c r="Y16" s="223"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="225"/>
+      <c r="AD16" s="224"/>
       <c r="AG16" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20508,7 +20615,7 @@
       </c>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
-      <c r="G17" s="193">
+      <c r="G17" s="192">
         <f xml:space="preserve"> (I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1))</f>
         <v>13.833193466531478</v>
       </c>
@@ -20521,42 +20628,42 @@
       <c r="K17" s="91">
         <v>0.187</v>
       </c>
-      <c r="L17" s="190">
+      <c r="L17" s="189">
         <f>(K16*(1-K16) + K17*(1-K17)) * (M13/K18)^2</f>
         <v>1369.2922649239993</v>
       </c>
-      <c r="M17" s="190">
+      <c r="M17" s="189">
         <f xml:space="preserve"> 0.5* (M13/K18)^2</f>
         <v>2134.1437892745134</v>
       </c>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="393">
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="399"/>
-      <c r="S17" s="399"/>
-      <c r="T17" s="383"/>
-      <c r="U17" s="402">
+      <c r="R17" s="397"/>
+      <c r="S17" s="397"/>
+      <c r="T17" s="381"/>
+      <c r="U17" s="400">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V17" s="224"/>
-      <c r="W17" s="382" t="s">
+      <c r="V17" s="223"/>
+      <c r="W17" s="380" t="s">
         <v>153</v>
       </c>
-      <c r="X17" s="219">
+      <c r="X17" s="218">
         <f>1-_xlfn.NORM.S.DIST(X20,TRUE)</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="Y17" s="224"/>
-      <c r="Z17" s="224"/>
+      <c r="Y17" s="223"/>
+      <c r="Z17" s="223"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="224"/>
+      <c r="AD17" s="223"/>
       <c r="AG17" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20588,26 +20695,26 @@
       </c>
       <c r="L18" s="165"/>
       <c r="M18" s="165"/>
-      <c r="N18" s="226"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="227"/>
-      <c r="Q18" s="393">
+      <c r="N18" s="225"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="226"/>
+      <c r="Q18" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="400"/>
-      <c r="S18" s="400"/>
-      <c r="T18" s="227"/>
-      <c r="U18" s="403"/>
-      <c r="V18" s="227"/>
-      <c r="W18" s="227"/>
-      <c r="X18" s="227"/>
-      <c r="Y18" s="227"/>
-      <c r="Z18" s="227"/>
+      <c r="R18" s="398"/>
+      <c r="S18" s="398"/>
+      <c r="T18" s="226"/>
+      <c r="U18" s="401"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="226"/>
+      <c r="Z18" s="226"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="227"/>
+      <c r="AD18" s="226"/>
       <c r="AG18" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20644,30 +20751,30 @@
       <c r="K19" s="123"/>
       <c r="L19" s="94"/>
       <c r="M19" s="75"/>
-      <c r="N19" s="235" t="s">
+      <c r="N19" s="234" t="s">
         <v>66</v>
       </c>
       <c r="O19" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="223"/>
-      <c r="Q19" s="393">
+      <c r="P19" s="222"/>
+      <c r="Q19" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="401"/>
-      <c r="S19" s="401"/>
-      <c r="T19" s="223"/>
-      <c r="U19" s="404"/>
-      <c r="V19" s="223"/>
-      <c r="W19" s="223"/>
-      <c r="X19" s="424"/>
-      <c r="Y19" s="223"/>
-      <c r="Z19" s="223"/>
+      <c r="R19" s="399"/>
+      <c r="S19" s="399"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="402"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="422"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="222"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="223"/>
+      <c r="AD19" s="222"/>
       <c r="AG19" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20683,12 +20790,12 @@
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="474">
+      <c r="F20" s="472">
         <f>E3</f>
         <v>11.525</v>
       </c>
-      <c r="G20" s="539"/>
-      <c r="H20" s="540"/>
+      <c r="G20" s="537"/>
+      <c r="H20" s="538"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.84676339285714164</v>
@@ -20712,23 +20819,23 @@
         <v>65</v>
       </c>
       <c r="P20" s="157"/>
-      <c r="Q20" s="393">
+      <c r="Q20" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="324"/>
-      <c r="S20" s="324"/>
+      <c r="R20" s="322"/>
+      <c r="S20" s="322"/>
       <c r="T20" s="157"/>
-      <c r="U20" s="405"/>
+      <c r="U20" s="403"/>
       <c r="V20" s="157"/>
-      <c r="W20" s="399" t="s">
+      <c r="W20" s="397" t="s">
         <v>152</v>
       </c>
-      <c r="X20" s="418">
+      <c r="X20" s="416">
         <f>(W14/W12-W13)/SQRT(W13*(1-W13)/W12)</f>
         <v>-8.070881536847379</v>
       </c>
-      <c r="Y20" s="425"/>
+      <c r="Y20" s="423"/>
       <c r="Z20" s="157"/>
       <c r="AA20" s="157"/>
       <c r="AB20" s="157"/>
@@ -20751,7 +20858,7 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="475">
+      <c r="F21" s="473">
         <f>E5</f>
         <v>2.3310022369297374</v>
       </c>
@@ -20763,7 +20870,7 @@
         <f xml:space="preserve">  F20- F23 + H19</f>
         <v>2.9311979198911255</v>
       </c>
-      <c r="I21" s="197"/>
+      <c r="I21" s="196"/>
       <c r="J21" s="148" t="s">
         <v>52</v>
       </c>
@@ -20787,14 +20894,14 @@
         <v>5.8457278969697296E-2</v>
       </c>
       <c r="P21" s="94"/>
-      <c r="Q21" s="393">
+      <c r="Q21" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="94"/>
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
-      <c r="U21" s="406"/>
+      <c r="U21" s="404"/>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
       <c r="X21" s="94"/>
@@ -20824,18 +20931,18 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="538" t="s">
+      <c r="G22" s="536" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="538"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="231" t="s">
+      <c r="H22" s="536"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="230" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="237">
+      <c r="K22" s="236">
         <v>12</v>
       </c>
-      <c r="L22" s="238" t="s">
+      <c r="L22" s="237" t="s">
         <v>89</v>
       </c>
       <c r="M22" s="121">
@@ -20845,14 +20952,14 @@
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
-      <c r="Q22" s="393">
+      <c r="Q22" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="111"/>
       <c r="S22" s="111"/>
       <c r="T22" s="111"/>
-      <c r="U22" s="407"/>
+      <c r="U22" s="405"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -20877,33 +20984,33 @@
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="474">
+      <c r="F23" s="472">
         <f>F3</f>
         <v>11.262500000000001</v>
       </c>
-      <c r="G23" s="192" t="s">
+      <c r="G23" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="195" t="s">
+      <c r="H23" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="197"/>
+      <c r="I23" s="196"/>
       <c r="J23" s="145"/>
-      <c r="K23" s="236">
+      <c r="K23" s="235">
         <v>3.125</v>
       </c>
-      <c r="L23" s="241"/>
-      <c r="M23" s="242"/>
+      <c r="L23" s="240"/>
+      <c r="M23" s="241"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
-      <c r="Q23" s="393">
+      <c r="Q23" s="391">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="398"/>
-      <c r="S23" s="398"/>
+      <c r="R23" s="396"/>
+      <c r="S23" s="396"/>
       <c r="T23" s="75"/>
-      <c r="U23" s="408"/>
+      <c r="U23" s="406"/>
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
@@ -20930,11 +21037,11 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="475">
+      <c r="F24" s="473">
         <f>F5</f>
         <v>2.6027114981989712</v>
       </c>
-      <c r="G24" s="193">
+      <c r="G24" s="192">
         <f xml:space="preserve"> IF(F19=F22,F19-1,(I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1)))</f>
         <v>7</v>
       </c>
@@ -20942,12 +21049,12 @@
         <f>TINV(1-K2/100, G24)</f>
         <v>2.3646242515927849</v>
       </c>
-      <c r="I24" s="197"/>
+      <c r="I24" s="196"/>
       <c r="J24" s="148"/>
-      <c r="K24" s="240">
+      <c r="K24" s="239">
         <v>2.911</v>
       </c>
-      <c r="L24" s="239">
+      <c r="L24" s="238">
         <f>K23 - M22* K24 /SQRT(K22)</f>
         <v>1.2754388401805083</v>
       </c>
@@ -20958,11 +21065,11 @@
       <c r="N24" s="166"/>
       <c r="O24" s="157"/>
       <c r="P24" s="157"/>
-      <c r="Q24" s="394"/>
+      <c r="Q24" s="392"/>
       <c r="R24" s="157"/>
       <c r="S24" s="157"/>
       <c r="T24" s="157"/>
-      <c r="U24" s="405"/>
+      <c r="U24" s="403"/>
       <c r="V24" s="157"/>
       <c r="W24" s="157"/>
       <c r="X24" s="157"/>
@@ -20991,10 +21098,10 @@
       <c r="G25" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="220" t="s">
+      <c r="H25" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="197"/>
+      <c r="I25" s="196"/>
       <c r="J25" s="75"/>
       <c r="K25" s="75"/>
       <c r="L25" s="94"/>
@@ -21002,11 +21109,11 @@
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
-      <c r="Q25" s="395"/>
+      <c r="Q25" s="393"/>
       <c r="R25" s="94"/>
       <c r="S25" s="94"/>
       <c r="T25" s="94"/>
-      <c r="U25" s="406"/>
+      <c r="U25" s="404"/>
       <c r="V25" s="94"/>
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
@@ -21040,7 +21147,7 @@
         <f xml:space="preserve"> H24 * SQRT( F21^2 /F19 + F24^2/F22)</f>
         <v>2.9210143383037286</v>
       </c>
-      <c r="I26" s="197"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="150"/>
       <c r="K26" s="54" t="s">
         <v>25</v>
@@ -21058,11 +21165,11 @@
         <v>26</v>
       </c>
       <c r="P26" s="111"/>
-      <c r="Q26" s="396"/>
+      <c r="Q26" s="394"/>
       <c r="R26" s="111"/>
       <c r="S26" s="111"/>
       <c r="T26" s="111"/>
-      <c r="U26" s="407"/>
+      <c r="U26" s="405"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -21088,36 +21195,36 @@
       <c r="D27" s="154"/>
       <c r="E27" s="150"/>
       <c r="F27" s="76"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="234"/>
-      <c r="I27" s="197"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="196"/>
       <c r="J27" s="94"/>
-      <c r="K27" s="378">
+      <c r="K27" s="376">
         <f>MIN(C4:C28)</f>
         <v>-4.8000000000000007</v>
       </c>
-      <c r="L27" s="379">
+      <c r="L27" s="377">
         <f>QUARTILE(C4:C27, 1)</f>
         <v>-0.32500000000000018</v>
       </c>
-      <c r="M27" s="379">
+      <c r="M27" s="377">
         <f>QUARTILE(C4:C15, 2)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="379">
+      <c r="N27" s="377">
         <f>QUARTILE(C4:C15, 3)</f>
         <v>0.35000000000000053</v>
       </c>
-      <c r="O27" s="380">
+      <c r="O27" s="378">
         <f>MAX(C4:C24)</f>
         <v>7.1</v>
       </c>
       <c r="P27" s="75"/>
-      <c r="Q27" s="397"/>
+      <c r="Q27" s="395"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
       <c r="T27" s="75"/>
-      <c r="U27" s="409"/>
+      <c r="U27" s="407"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
@@ -21147,17 +21254,17 @@
         <f xml:space="preserve"> F20- F23 -H26</f>
         <v>-2.6585143383037293</v>
       </c>
-      <c r="H28" s="230">
+      <c r="H28" s="229">
         <f xml:space="preserve">  F20- F23 + H26</f>
         <v>3.1835143383037279</v>
       </c>
-      <c r="I28" s="197"/>
+      <c r="I28" s="196"/>
       <c r="J28" s="94"/>
       <c r="L28" s="111"/>
       <c r="M28" s="75"/>
       <c r="O28" s="75"/>
       <c r="P28" s="75"/>
-      <c r="Q28" s="390"/>
+      <c r="Q28" s="388"/>
       <c r="R28" s="75"/>
       <c r="S28" s="75"/>
       <c r="T28" s="75"/>
@@ -21185,22 +21292,22 @@
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
       <c r="D29" s="154"/>
-      <c r="E29" s="372" t="s">
+      <c r="E29" s="370" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="373" t="s">
+      <c r="F29" s="371" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="381" t="s">
+      <c r="G29" s="379" t="s">
         <v>145</v>
       </c>
       <c r="H29" s="157"/>
-      <c r="I29" s="197"/>
+      <c r="I29" s="196"/>
       <c r="J29" s="150"/>
       <c r="K29" s="175"/>
       <c r="O29" s="75"/>
       <c r="P29" s="75"/>
-      <c r="Q29" s="390"/>
+      <c r="Q29" s="388"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
       <c r="T29" s="75"/>
@@ -21238,13 +21345,13 @@
         <v>65</v>
       </c>
       <c r="H30" s="70"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="456"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="454"/>
       <c r="K30" s="175"/>
-      <c r="L30" s="383"/>
+      <c r="L30" s="381"/>
       <c r="O30" s="75"/>
       <c r="P30" s="75"/>
-      <c r="Q30" s="390"/>
+      <c r="Q30" s="388"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
       <c r="T30" s="75"/>
@@ -21287,13 +21394,13 @@
         <v>0.83501316929174241</v>
       </c>
       <c r="H31" s="121"/>
-      <c r="I31" s="197"/>
+      <c r="I31" s="196"/>
       <c r="J31" s="175"/>
       <c r="K31" s="175"/>
-      <c r="L31" s="383"/>
+      <c r="L31" s="381"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
-      <c r="Q31" s="390"/>
+      <c r="Q31" s="388"/>
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="75"/>
@@ -21336,13 +21443,13 @@
         <v>0.8377729102773297</v>
       </c>
       <c r="H32" s="121"/>
-      <c r="I32" s="197"/>
+      <c r="I32" s="196"/>
       <c r="J32" s="175"/>
       <c r="K32" s="175"/>
-      <c r="L32" s="383"/>
+      <c r="L32" s="381"/>
       <c r="O32" s="75"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="390"/>
+      <c r="Q32" s="388"/>
       <c r="R32" s="75"/>
       <c r="S32" s="75"/>
       <c r="T32" s="75"/>
@@ -21372,10 +21479,10 @@
       <c r="D33" s="154"/>
       <c r="E33" s="46"/>
       <c r="F33" s="43"/>
-      <c r="I33" s="197"/>
+      <c r="I33" s="196"/>
       <c r="J33" s="175"/>
       <c r="K33" s="175"/>
-      <c r="L33" s="383"/>
+      <c r="L33" s="381"/>
       <c r="AG33" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -21390,10 +21497,10 @@
       <c r="B34" s="175"/>
       <c r="C34" s="175"/>
       <c r="D34" s="154"/>
-      <c r="I34" s="197"/>
+      <c r="I34" s="196"/>
       <c r="J34" s="175"/>
       <c r="K34" s="175"/>
-      <c r="L34" s="383"/>
+      <c r="L34" s="381"/>
       <c r="AG34" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -21404,12 +21511,12 @@
       </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="244"/>
-      <c r="B35" s="244"/>
-      <c r="C35" s="244"/>
+      <c r="A35" s="243"/>
+      <c r="B35" s="243"/>
+      <c r="C35" s="243"/>
       <c r="D35" s="154"/>
-      <c r="I35" s="197"/>
-      <c r="L35" s="383"/>
+      <c r="I35" s="196"/>
+      <c r="L35" s="381"/>
       <c r="AG35" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -21962,7 +22069,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="11" max="12" width="0.85546875" style="437" customWidth="1"/>
+    <col min="11" max="12" width="0.85546875" style="435" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1">
@@ -21974,21 +22081,21 @@
         <f>COUNT(B4:B25)</f>
         <v>10</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="206" t="s">
+      <c r="C1" s="206"/>
+      <c r="D1" s="205" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="210" t="s">
+      <c r="G1" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="198">
+      <c r="H1" s="197">
         <v>95</v>
       </c>
-      <c r="K1" s="438"/>
-      <c r="L1" s="438"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
       <c r="A2" s="152" t="s">
@@ -21997,8 +22104,8 @@
       <c r="B2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="182">
+      <c r="C2" s="207"/>
+      <c r="D2" s="181">
         <f>CORREL(A3:A33, B3:B33)</f>
         <v>0.9896545822453271</v>
       </c>
@@ -22006,105 +22113,105 @@
         <f>D2^2</f>
         <v>0.97941619215917286</v>
       </c>
-      <c r="K2" s="438"/>
-      <c r="L2" s="438"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="480"/>
-      <c r="B3" s="480"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="206" t="s">
+      <c r="A3" s="478"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="205" t="s">
         <v>92</v>
       </c>
       <c r="E3" s="138">
         <f>(_xlfn.T.INV((1-(100 -$H$1)/200), $A$1-2)) / SQRT((_xlfn.T.INV((1-(100 -$H$1)/200), $A$1-2))^2 + $A$1-2)</f>
         <v>0.63189686471983386</v>
       </c>
-      <c r="G3" s="213" t="s">
+      <c r="G3" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="180">
+      <c r="H3" s="179">
         <f>_xlfn.NORM.S.INV(1- (100-H1)/200)</f>
         <v>1.9599639845400536</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="439"/>
-      <c r="L3" s="439"/>
+      <c r="K3" s="437"/>
+      <c r="L3" s="437"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="501">
+      <c r="A4" s="499">
         <v>-5</v>
       </c>
-      <c r="B4" s="501">
+      <c r="B4" s="499">
         <v>-10</v>
       </c>
-      <c r="C4" s="208">
+      <c r="C4" s="207">
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="548" t="s">
+      <c r="D4" s="546" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="549"/>
+      <c r="E4" s="547"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="205"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="439">
+      <c r="K4" s="437">
         <f>IF( A4="",0, A4*E$6+D$6)</f>
         <v>-11.036363636363637</v>
       </c>
-      <c r="L4" s="439">
+      <c r="L4" s="437">
         <f>(K4-B4)^2</f>
         <v>1.0740495867768609</v>
       </c>
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A5" s="501">
+      <c r="A5" s="499">
         <v>-3</v>
       </c>
-      <c r="B5" s="501">
+      <c r="B5" s="499">
         <v>-8</v>
       </c>
-      <c r="C5" s="208">
+      <c r="C5" s="207">
         <f t="shared" ref="C5:C33" si="0">A5*B5</f>
         <v>24</v>
       </c>
-      <c r="D5" s="206" t="s">
+      <c r="D5" s="205" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="211"/>
+      <c r="F5" s="210"/>
       <c r="G5" s="29"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="439">
+      <c r="K5" s="437">
         <f t="shared" ref="K5:K18" si="1">IF( A5="",0, A5*E$6+D$6)</f>
         <v>-6.8424242424242427</v>
       </c>
-      <c r="L5" s="439">
+      <c r="L5" s="437">
         <f t="shared" ref="L5:L18" si="2">(K5-B5)^2</f>
         <v>1.3399816345270883</v>
       </c>
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A6" s="501">
+      <c r="A6" s="499">
         <v>4</v>
       </c>
-      <c r="B6" s="501">
+      <c r="B6" s="499">
         <v>9</v>
       </c>
-      <c r="C6" s="208">
+      <c r="C6" s="207">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D6" s="183">
+      <c r="D6" s="182">
         <f xml:space="preserve"> (SUM($B$4:$B$33)*SUMSQ($A$4:$A$33) - SUM(A4:A33)*SUM(C4:C33) ) / (COUNT(A4:A33)*SUMSQ(A4:A33) - SUM(A4:A33)^2 )</f>
         <v>-0.55151515151515151</v>
       </c>
@@ -22119,31 +22226,31 @@
       <c r="G6" s="123"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="439">
+      <c r="K6" s="437">
         <f t="shared" si="1"/>
         <v>7.8363636363636369</v>
       </c>
-      <c r="L6" s="439">
+      <c r="L6" s="437">
         <f t="shared" si="2"/>
         <v>1.3540495867768583</v>
       </c>
       <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="501">
+      <c r="A7" s="499">
         <v>1</v>
       </c>
-      <c r="B7" s="501">
+      <c r="B7" s="499">
         <v>1</v>
       </c>
-      <c r="C7" s="208">
+      <c r="C7" s="207">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="214">
+      <c r="E7" s="213">
         <v>4</v>
       </c>
       <c r="F7" s="121">
@@ -22152,24 +22259,24 @@
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="94"/>
-      <c r="K7" s="439">
+      <c r="K7" s="437">
         <f t="shared" si="1"/>
         <v>1.5454545454545456</v>
       </c>
-      <c r="L7" s="439">
+      <c r="L7" s="437">
         <f t="shared" si="2"/>
         <v>0.29752066115702497</v>
       </c>
-      <c r="M7" s="205"/>
+      <c r="M7" s="204"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="501">
+      <c r="A8" s="499">
         <v>-1</v>
       </c>
-      <c r="B8" s="501">
+      <c r="B8" s="499">
         <v>-2</v>
       </c>
-      <c r="C8" s="208">
+      <c r="C8" s="207">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -22178,63 +22285,63 @@
       <c r="F8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="439">
+      <c r="K8" s="437">
         <f t="shared" si="1"/>
         <v>-2.6484848484848484</v>
       </c>
-      <c r="L8" s="439">
+      <c r="L8" s="437">
         <f t="shared" si="2"/>
         <v>0.42053259871441684</v>
       </c>
       <c r="M8" s="132"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="501">
+      <c r="A9" s="499">
         <v>-2</v>
       </c>
-      <c r="B9" s="501">
+      <c r="B9" s="499">
         <v>-6</v>
       </c>
-      <c r="C9" s="436">
+      <c r="C9" s="434">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="544" t="s">
+      <c r="D9" s="542" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="545"/>
+      <c r="E9" s="543"/>
       <c r="F9" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="219"/>
+      <c r="G9" s="218"/>
       <c r="I9" s="30"/>
       <c r="J9" s="132"/>
-      <c r="K9" s="439">
+      <c r="K9" s="437">
         <f t="shared" si="1"/>
         <v>-4.745454545454546</v>
       </c>
-      <c r="L9" s="439">
+      <c r="L9" s="437">
         <f t="shared" si="2"/>
         <v>1.5738842975206597</v>
       </c>
       <c r="M9" s="132"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="501">
+      <c r="A10" s="499">
         <v>0</v>
       </c>
-      <c r="B10" s="501">
+      <c r="B10" s="499">
         <v>-1</v>
       </c>
-      <c r="C10" s="436">
+      <c r="C10" s="434">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="550">
+      <c r="D10" s="548">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="551"/>
+      <c r="E10" s="549"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -22242,56 +22349,56 @@
       <c r="G10" s="29"/>
       <c r="I10" s="30"/>
       <c r="J10" s="132"/>
-      <c r="K10" s="439">
+      <c r="K10" s="437">
         <f t="shared" si="1"/>
         <v>-0.55151515151515151</v>
       </c>
-      <c r="L10" s="439">
+      <c r="L10" s="437">
         <f t="shared" si="2"/>
         <v>0.2011386593204775</v>
       </c>
       <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="501">
+      <c r="A11" s="499">
         <v>2</v>
       </c>
-      <c r="B11" s="501">
+      <c r="B11" s="499">
         <v>3</v>
       </c>
-      <c r="C11" s="208">
+      <c r="C11" s="207">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
       <c r="I11" s="30"/>
       <c r="J11" s="132"/>
-      <c r="K11" s="439">
+      <c r="K11" s="437">
         <f t="shared" si="1"/>
         <v>3.6424242424242426</v>
       </c>
-      <c r="L11" s="439">
+      <c r="L11" s="437">
         <f t="shared" si="2"/>
         <v>0.41270890725436199</v>
       </c>
       <c r="M11" s="132"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="501">
+      <c r="A12" s="499">
         <v>3</v>
       </c>
-      <c r="B12" s="501">
+      <c r="B12" s="499">
         <v>6</v>
       </c>
-      <c r="C12" s="208">
+      <c r="C12" s="207">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D12" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="214">
+      <c r="E12" s="213">
         <v>10</v>
       </c>
       <c r="F12" s="70" t="s">
@@ -22303,49 +22410,49 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="439">
+      <c r="K12" s="437">
         <f t="shared" si="1"/>
         <v>5.7393939393939393</v>
       </c>
-      <c r="L12" s="439">
+      <c r="L12" s="437">
         <f t="shared" si="2"/>
         <v>6.7915518824609805E-2</v>
       </c>
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="501">
+      <c r="A13" s="499">
         <v>-4</v>
       </c>
-      <c r="B13" s="501">
+      <c r="B13" s="499">
         <v>-8</v>
       </c>
-      <c r="C13" s="208">
+      <c r="C13" s="207">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D13" s="216" t="s">
+      <c r="D13" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="217">
+      <c r="E13" s="216">
         <v>0.21149999999999999</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="132"/>
-      <c r="K13" s="439">
+      <c r="K13" s="437">
         <f t="shared" si="1"/>
         <v>-8.9393939393939394</v>
       </c>
-      <c r="L13" s="439">
+      <c r="L13" s="437">
         <f t="shared" si="2"/>
         <v>0.88246097337006435</v>
       </c>
       <c r="M13" s="132"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="500"/>
-      <c r="B14" s="500"/>
-      <c r="C14" s="208">
+      <c r="A14" s="498"/>
+      <c r="B14" s="498"/>
+      <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22353,76 +22460,76 @@
       <c r="E14" s="76"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="439">
+      <c r="K14" s="437">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="439">
+      <c r="L14" s="437">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="500"/>
-      <c r="B15" s="500"/>
-      <c r="C15" s="208">
+      <c r="A15" s="498"/>
+      <c r="B15" s="498"/>
+      <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="552" t="s">
+      <c r="D15" s="550" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="553"/>
+      <c r="E15" s="551"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
-      <c r="K15" s="439">
+      <c r="K15" s="437">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="439">
+      <c r="L15" s="437">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="500"/>
-      <c r="B16" s="500"/>
-      <c r="C16" s="208">
+      <c r="A16" s="498"/>
+      <c r="B16" s="498"/>
+      <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="221" t="s">
+      <c r="D16" s="220" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="211"/>
+      <c r="F16" s="210"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="439">
+      <c r="K16" s="437">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="439">
+      <c r="L16" s="437">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="500"/>
-      <c r="B17" s="500"/>
-      <c r="C17" s="208">
+      <c r="A17" s="498"/>
+      <c r="B17" s="498"/>
+      <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="457">
+      <c r="D17" s="455">
         <v>2.097</v>
       </c>
-      <c r="E17" s="457">
+      <c r="E17" s="455">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -22431,257 +22538,257 @@
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="439">
+      <c r="K17" s="437">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="439">
+      <c r="L17" s="437">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="500"/>
-      <c r="B18" s="500"/>
-      <c r="C18" s="208">
+      <c r="A18" s="498"/>
+      <c r="B18" s="498"/>
+      <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="214">
+      <c r="E18" s="213">
         <v>3</v>
       </c>
       <c r="F18" s="121"/>
-      <c r="K18" s="439">
+      <c r="K18" s="437">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="502">
+      <c r="L18" s="500">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C19" s="208">
+      <c r="C19" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="495">
+      <c r="K19" s="493">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="495">
+      <c r="L19" s="493">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C20" s="436">
+      <c r="C20" s="434">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="542" t="s">
+      <c r="D20" s="540" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="543"/>
-      <c r="F20" s="541"/>
-      <c r="G20" s="541"/>
-      <c r="K20" s="495">
+      <c r="E20" s="541"/>
+      <c r="F20" s="539"/>
+      <c r="G20" s="539"/>
+      <c r="K20" s="493">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="495">
+      <c r="L20" s="493">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C21" s="436">
+      <c r="C21" s="434">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="432">
+      <c r="D21" s="430">
         <v>2.097</v>
       </c>
-      <c r="E21" s="433">
+      <c r="E21" s="431">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="496"/>
-      <c r="G21" s="496"/>
-      <c r="K21" s="495">
+      <c r="F21" s="494"/>
+      <c r="G21" s="494"/>
+      <c r="K21" s="493">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="495">
+      <c r="L21" s="493">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
-      <c r="C22" s="436">
+      <c r="C22" s="434">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="544" t="s">
+      <c r="D22" s="542" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="545"/>
-      <c r="F22" s="497"/>
-      <c r="G22" s="497"/>
-      <c r="K22" s="495">
+      <c r="E22" s="543"/>
+      <c r="F22" s="495"/>
+      <c r="G22" s="495"/>
+      <c r="K22" s="493">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="495">
+      <c r="L22" s="493">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C23" s="436">
+      <c r="C23" s="434">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="546">
+      <c r="D23" s="544">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="547"/>
-      <c r="F23" s="498"/>
-      <c r="G23" s="499"/>
-      <c r="K23" s="495">
+      <c r="E23" s="545"/>
+      <c r="F23" s="496"/>
+      <c r="G23" s="497"/>
+      <c r="K23" s="493">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="495">
+      <c r="L23" s="493">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="C24" s="208">
+      <c r="C24" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="495">
+      <c r="K24" s="493">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="495">
+      <c r="L24" s="493">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="C25" s="208">
+      <c r="C25" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="495">
+      <c r="K25" s="493">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="495">
+      <c r="L25" s="493">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="C26" s="208">
+      <c r="C26" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="495">
+      <c r="K26" s="493">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="495">
+      <c r="L26" s="493">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="C27" s="208">
+      <c r="C27" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="495">
+      <c r="K27" s="493">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="495">
+      <c r="L27" s="493">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="C28" s="208">
+      <c r="C28" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="495">
+      <c r="K28" s="493">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="495">
+      <c r="L28" s="493">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="C29" s="208">
+      <c r="C29" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="495">
+      <c r="K29" s="493">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="495">
+      <c r="L29" s="493">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="C30" s="208">
+      <c r="C30" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="495">
+      <c r="K30" s="493">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="495">
+      <c r="L30" s="493">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="C31" s="208">
+      <c r="C31" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="495"/>
-      <c r="L31" s="495"/>
+      <c r="K31" s="493"/>
+      <c r="L31" s="493"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="C32" s="208">
+      <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="495"/>
-      <c r="L32" s="495"/>
+      <c r="K32" s="493"/>
+      <c r="L32" s="493"/>
     </row>
     <row r="33" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C33" s="218">
+      <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="438"/>
-      <c r="L33" s="438"/>
+      <c r="K33" s="436"/>
+      <c r="L33" s="436"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -23172,10 +23279,10 @@
     </row>
     <row r="20" spans="2:12" ht="15.75">
       <c r="B20" s="28"/>
-      <c r="K20" s="554" t="s">
+      <c r="K20" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="554"/>
+      <c r="L20" s="552"/>
     </row>
     <row r="21" spans="2:12" ht="15.75">
       <c r="B21" s="28"/>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
   <si>
     <t>Mean</t>
   </si>
@@ -2335,6 +2335,9 @@
   <si>
     <t>Lower (AC)</t>
   </si>
+  <si>
+    <t>.</t>
+  </si>
 </sst>
 </file>
 
@@ -3812,7 +3815,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="552">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -4941,21 +4944,6 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="27" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5229,6 +5217,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14817,7 +14806,7 @@
   <dimension ref="B1:T54"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14849,16 +14838,16 @@
     <row r="2" spans="2:20" ht="16.5" thickBot="1">
       <c r="B2" s="23">
         <f>COUNT(B5:B60)</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="518" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="519"/>
-      <c r="G2" s="520" t="s">
+      <c r="F2" s="514"/>
+      <c r="G2" s="515" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="521"/>
+      <c r="H2" s="516"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -14901,16 +14890,16 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B4" s="477"/>
-      <c r="C4" s="477"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
-        <v>31.8</v>
+        <v>4.9891666666666667</v>
       </c>
       <c r="F4" s="19">
         <f>MEDIAN(B5:B60)</f>
-        <v>32.5</v>
+        <v>4.91</v>
       </c>
       <c r="G4" s="20">
         <f>IF(C5="","",AVERAGE(C5:C60))</f>
@@ -14923,7 +14912,7 @@
       <c r="J4" s="424" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="465"/>
+      <c r="K4" s="460"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -14931,8 +14920,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="480"/>
-      <c r="P4" s="480"/>
+      <c r="O4" s="475"/>
+      <c r="P4" s="475"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -14944,8 +14933,8 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B5" s="490">
-        <v>6</v>
+      <c r="B5" s="485">
+        <v>5.05</v>
       </c>
       <c r="C5" s="3">
         <v>79</v>
@@ -14963,11 +14952,11 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="475">
+      <c r="J5" s="470">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="464" t="s">
+      <c r="K5" s="459" t="s">
         <v>166</v>
       </c>
       <c r="M5">
@@ -14980,7 +14969,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="479">
+      <c r="P5" s="474">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -14997,8 +14986,8 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B6" s="490">
-        <v>56</v>
+      <c r="B6" s="485">
+        <v>5.0199999999999996</v>
       </c>
       <c r="C6" s="3">
         <v>65</v>
@@ -15006,11 +14995,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="20">
         <f>_xlfn.STDEV.S(B5:B60)</f>
-        <v>14.657572938397561</v>
+        <v>0.41320165302259632</v>
       </c>
       <c r="F6" s="21">
         <f>E6^2</f>
-        <v>214.84444444444449</v>
+        <v>0.17073560606060609</v>
       </c>
       <c r="G6" s="20">
         <f>_xlfn.STDEV.S(C5:C60)</f>
@@ -15020,11 +15009,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="457">
+      <c r="J6" s="452">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="462">
+      <c r="K6" s="457">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -15035,7 +15024,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="479">
+      <c r="P6" s="474">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -15053,8 +15042,8 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="490">
-        <v>16</v>
+      <c r="B7" s="485">
+        <v>5.43</v>
       </c>
       <c r="C7" s="3">
         <v>67</v>
@@ -15072,11 +15061,11 @@
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="456">
+      <c r="J7" s="451">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="462">
+      <c r="K7" s="457">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15084,7 +15073,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="479">
+      <c r="P7" s="474">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15097,20 +15086,20 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B8" s="490">
-        <v>50</v>
+      <c r="B8" s="485">
+        <v>5.72</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="488">
+      <c r="E8" s="483">
         <f>_xlfn.STDEV.P(B5:B60)</f>
-        <v>13.905394636614957</v>
+        <v>0.39561046357356239</v>
       </c>
       <c r="F8" s="21">
         <f>E8^2</f>
-        <v>193.36</v>
-      </c>
-      <c r="G8" s="488">
+        <v>0.15650763888888894</v>
+      </c>
+      <c r="G8" s="483">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15119,11 +15108,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="456">
+      <c r="J8" s="451">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="462">
+      <c r="K8" s="457">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15133,7 +15122,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="479">
+      <c r="P8" s="474">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15146,8 +15135,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75">
-      <c r="B9" s="490">
-        <v>38</v>
+      <c r="B9" s="485">
+        <v>4.68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -15158,11 +15147,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="456">
+      <c r="J9" s="451">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="462">
+      <c r="K9" s="457">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15170,7 +15159,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="479">
+      <c r="P9" s="474">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15187,22 +15176,22 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B10" s="490">
-        <v>26</v>
+      <c r="B10" s="485">
+        <v>4.76</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="64">
         <f>E6/E4</f>
-        <v>0.4609299666162755</v>
+        <v>8.2819773446987738E-2</v>
       </c>
       <c r="G10" s="65">
         <f>G6/G4</f>
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="456"/>
-      <c r="K10" s="462" t="str">
+      <c r="J10" s="451"/>
+      <c r="K10" s="457" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15210,7 +15199,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="479"/>
+      <c r="P10" s="474"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15225,8 +15214,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="18.75">
-      <c r="B11" s="490">
-        <v>33</v>
+      <c r="B11" s="485">
+        <v>4.38</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
@@ -15238,8 +15227,8 @@
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="456"/>
-      <c r="K11" s="462" t="str">
+      <c r="J11" s="451"/>
+      <c r="K11" s="457" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15247,7 +15236,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="479"/>
+      <c r="P11" s="474"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15262,8 +15251,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75">
-      <c r="B12" s="490">
-        <v>32</v>
+      <c r="B12" s="485">
+        <v>4.74</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
@@ -15272,12 +15261,12 @@
       </c>
       <c r="F12" s="246">
         <f>(F11-E4)/(E6)</f>
-        <v>1.9239201550296339</v>
+        <v>133.13313954802842</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="456"/>
-      <c r="K12" s="462" t="str">
+      <c r="J12" s="451"/>
+      <c r="K12" s="457" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15296,8 +15285,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="15.75">
-      <c r="B13" s="490">
-        <v>34</v>
+      <c r="B13" s="485">
+        <v>4.5599999999999996</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
@@ -15305,8 +15294,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="461"/>
-      <c r="K13" s="462" t="str">
+      <c r="J13" s="456"/>
+      <c r="K13" s="457" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15325,13 +15314,13 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B14" s="490">
-        <v>27</v>
+      <c r="B14" s="485">
+        <v>4.8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="461"/>
-      <c r="K14" s="462" t="str">
+      <c r="J14" s="456"/>
+      <c r="K14" s="457" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15350,7 +15339,9 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="490"/>
+      <c r="B15" s="485">
+        <v>5.19</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="252" t="s">
@@ -15383,28 +15374,30 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B16" s="490"/>
+      <c r="B16" s="485">
+        <v>5.54</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="253">
         <f>MIN(B5:B60)</f>
-        <v>6</v>
+        <v>4.38</v>
       </c>
       <c r="F16" s="55">
         <f>QUARTILE($B$5:$B$60, 1)</f>
-        <v>26.25</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="G16" s="55">
         <f>QUARTILE($B$5:$B$60, 2)</f>
-        <v>32.5</v>
+        <v>4.91</v>
       </c>
       <c r="H16" s="55">
         <f>QUARTILE($B$5:$B$60, 3)</f>
-        <v>37</v>
+        <v>5.25</v>
       </c>
       <c r="I16" s="249">
         <f>MAX(B5:B60)</f>
-        <v>56</v>
+        <v>5.72</v>
       </c>
       <c r="O16" s="61">
         <f t="shared" si="3"/>
@@ -15421,7 +15414,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B17" s="490"/>
+      <c r="B17" s="485"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="254" t="s">
@@ -15454,7 +15447,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B18" s="490"/>
+      <c r="B18" s="485"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="255">
@@ -15462,19 +15455,19 @@
       </c>
       <c r="F18" s="59">
         <f xml:space="preserve">  INDEX(B5:B260, $E$26) + (INDEX(B5:B60, 1+ $E$26) -INDEX(B5:B60, $E$26))*E25</f>
-        <v>32.5</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G18" s="248">
         <f>H16-F16</f>
-        <v>10.75</v>
+        <v>0.52500000000000036</v>
       </c>
       <c r="H18" s="247">
         <f>F16-1.5*G18</f>
-        <v>10.125</v>
+        <v>3.9374999999999991</v>
       </c>
       <c r="I18" s="247">
         <f>H16+1.5*G18</f>
-        <v>53.125</v>
+        <v>6.0375000000000005</v>
       </c>
       <c r="O18" s="61">
         <f t="shared" si="3"/>
@@ -15491,7 +15484,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B19" s="489"/>
+      <c r="B19" s="484"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15543,7 +15536,7 @@
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>-13.333333333333334</v>
       </c>
-      <c r="K21" s="476"/>
+      <c r="K21" s="471"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -15566,7 +15559,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="487"/>
+      <c r="I22" s="482"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15599,14 +15592,14 @@
       <c r="D24" s="5"/>
       <c r="E24" s="57">
         <f>E18*B2/100</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="48">
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="491"/>
+      <c r="H24" s="486"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -15621,11 +15614,11 @@
       <c r="D25" s="5"/>
       <c r="E25" s="58">
         <f>E24 - INT(E24)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="491"/>
+      <c r="H25" s="486"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -15640,11 +15633,11 @@
       <c r="D26" s="5"/>
       <c r="E26" s="58">
         <f>E24-E25</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="491"/>
+      <c r="H26" s="486"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -15660,7 +15653,7 @@
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="491"/>
+      <c r="H27" s="486"/>
     </row>
     <row r="28" spans="2:18" ht="15.75">
       <c r="B28" s="3"/>
@@ -15669,7 +15662,7 @@
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="491"/>
+      <c r="H28" s="486"/>
     </row>
     <row r="29" spans="2:18" ht="15.75">
       <c r="B29" s="3"/>
@@ -15678,7 +15671,7 @@
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="491"/>
+      <c r="H29" s="486"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1">
       <c r="B30" s="3"/>
@@ -15686,7 +15679,7 @@
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="491"/>
+      <c r="H30" s="486"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="3"/>
@@ -15694,12 +15687,12 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="491"/>
+      <c r="H31" s="486"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="3"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="492"/>
+      <c r="H32" s="487"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="3"/>
@@ -15802,7 +15795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -15860,10 +15853,10 @@
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1">
       <c r="A2" s="66"/>
-      <c r="B2" s="510">
+      <c r="B2" s="505">
         <v>0</v>
       </c>
-      <c r="C2" s="510">
+      <c r="C2" s="505">
         <v>0.28000000000000003</v>
       </c>
       <c r="D2" s="433">
@@ -15914,10 +15907,10 @@
       <c r="T2" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="507">
+      <c r="V2" s="502">
         <v>10</v>
       </c>
-      <c r="W2" s="511" t="s">
+      <c r="W2" s="506" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -15927,10 +15920,10 @@
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="510">
+      <c r="B3" s="505">
         <v>1</v>
       </c>
-      <c r="C3" s="510">
+      <c r="C3" s="505">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -15973,10 +15966,10 @@
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="507">
+      <c r="V3" s="502">
         <v>10</v>
       </c>
-      <c r="W3" s="512" t="s">
+      <c r="W3" s="507" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -15986,10 +15979,10 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="66"/>
-      <c r="B4" s="510">
+      <c r="B4" s="505">
         <v>2</v>
       </c>
-      <c r="C4" s="510">
+      <c r="C4" s="505">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16025,17 +16018,17 @@
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="507">
+      <c r="V4" s="502">
         <v>9</v>
       </c>
       <c r="W4" s="284"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1">
       <c r="A5" s="66"/>
-      <c r="B5" s="510">
+      <c r="B5" s="505">
         <v>3</v>
       </c>
-      <c r="C5" s="510">
+      <c r="C5" s="505">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16076,16 +16069,16 @@
       <c r="R5" s="251"/>
       <c r="S5" s="429"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="507">
+      <c r="V5" s="502">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" thickBot="1">
       <c r="A6" s="66"/>
-      <c r="B6" s="510">
+      <c r="B6" s="505">
         <v>5</v>
       </c>
-      <c r="C6" s="510">
+      <c r="C6" s="505">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16115,7 +16108,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.10156460410175912</v>
       </c>
-      <c r="M6" s="505">
+      <c r="M6" s="500">
         <f>1-L6+K6</f>
         <v>0.94500615986258107</v>
       </c>
@@ -16129,24 +16122,24 @@
       </c>
       <c r="P6" s="257"/>
       <c r="Q6" s="430"/>
-      <c r="R6" s="514" t="s">
+      <c r="R6" s="509" t="s">
         <v>171</v>
       </c>
       <c r="S6" s="431">
         <v>1000</v>
       </c>
-      <c r="T6" s="513">
+      <c r="T6" s="508">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="507">
+      <c r="V6" s="502">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1">
       <c r="A7" s="66"/>
-      <c r="B7" s="510"/>
-      <c r="C7" s="510"/>
+      <c r="B7" s="505"/>
+      <c r="C7" s="505"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16175,20 +16168,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="506" t="s">
+      <c r="N7" s="501" t="s">
         <v>170</v>
       </c>
       <c r="O7" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="V7" s="507">
+      <c r="V7" s="502">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" thickBot="1">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="502"/>
+      <c r="C8" s="497"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16197,7 +16190,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="486">
+      <c r="F8" s="481">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
@@ -16209,7 +16202,7 @@
       <c r="J8" s="76">
         <v>9</v>
       </c>
-      <c r="K8" s="504">
+      <c r="K8" s="499">
         <f>J5*J6</f>
         <v>14.72</v>
       </c>
@@ -16229,7 +16222,7 @@
         <f>1-L6</f>
         <v>0.89843539589824084</v>
       </c>
-      <c r="V8" s="507">
+      <c r="V8" s="502">
         <v>7</v>
       </c>
     </row>
@@ -16256,10 +16249,10 @@
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="503"/>
+      <c r="N9" s="498"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="501"/>
-      <c r="V9" s="507">
+      <c r="T9" s="496"/>
+      <c r="V9" s="502">
         <v>6</v>
       </c>
     </row>
@@ -16285,7 +16278,7 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="507">
+      <c r="V10" s="502">
         <v>6</v>
       </c>
     </row>
@@ -16304,7 +16297,7 @@
       <c r="F11" s="424" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="465"/>
+      <c r="G11" s="460"/>
       <c r="H11" s="262"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
@@ -16325,7 +16318,7 @@
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="507">
+      <c r="V11" s="502">
         <v>5</v>
       </c>
     </row>
@@ -16335,11 +16328,11 @@
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="463">
+      <c r="F12" s="458">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="464" t="s">
+      <c r="G12" s="459" t="s">
         <v>166</v>
       </c>
       <c r="H12" s="262"/>
@@ -16366,7 +16359,7 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="507">
+      <c r="V12" s="502">
         <v>5</v>
       </c>
     </row>
@@ -16375,11 +16368,11 @@
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="458"/>
-      <c r="F13" s="507">
+      <c r="E13" s="453"/>
+      <c r="F13" s="502">
         <v>12</v>
       </c>
-      <c r="G13" s="508">
+      <c r="G13" s="503">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
@@ -16395,20 +16388,20 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="507">
+      <c r="V13" s="502">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="481"/>
+      <c r="C14" s="476"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="458"/>
-      <c r="F14" s="507">
+      <c r="E14" s="453"/>
+      <c r="F14" s="502">
         <v>33</v>
       </c>
-      <c r="G14" s="509">
+      <c r="G14" s="504">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
@@ -16424,20 +16417,20 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="507">
+      <c r="V14" s="502">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.5" thickBot="1">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="483"/>
+      <c r="C15" s="478"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="459"/>
-      <c r="F15" s="507">
+      <c r="E15" s="454"/>
+      <c r="F15" s="502">
         <v>29</v>
       </c>
-      <c r="G15" s="509">
+      <c r="G15" s="504">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
@@ -16457,20 +16450,20 @@
         <v>174</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="507">
+      <c r="V15" s="502">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="482"/>
+      <c r="C16" s="477"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="507">
+      <c r="F16" s="502">
         <v>11</v>
       </c>
-      <c r="G16" s="509">
+      <c r="G16" s="504">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
@@ -16483,14 +16476,14 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="516" t="s">
+      <c r="M16" s="511" t="s">
         <v>176</v>
       </c>
-      <c r="N16" s="517" t="s">
+      <c r="N16" s="512" t="s">
         <v>175</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="507">
+      <c r="V16" s="502">
         <v>5</v>
       </c>
     </row>
@@ -16500,10 +16493,10 @@
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="484">
+      <c r="F17" s="479">
         <v>6</v>
       </c>
-      <c r="G17" s="460">
+      <c r="G17" s="455">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
@@ -16531,7 +16524,7 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="507">
+      <c r="V17" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16539,10 +16532,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="484">
+      <c r="F18" s="479">
         <v>2</v>
       </c>
-      <c r="G18" s="460">
+      <c r="G18" s="455">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -16558,7 +16551,7 @@
       </c>
       <c r="M18" s="257"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="507">
+      <c r="V18" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16566,15 +16559,15 @@
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="485">
+      <c r="F19" s="480">
         <v>3</v>
       </c>
-      <c r="G19" s="460">
+      <c r="G19" s="455">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H19" s="263"/>
-      <c r="I19" s="515" t="s">
+      <c r="I19" s="510" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
@@ -16585,7 +16578,7 @@
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="507">
+      <c r="V19" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16593,10 +16586,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="485">
+      <c r="F20" s="480">
         <v>1</v>
       </c>
-      <c r="G20" s="460">
+      <c r="G20" s="455">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16611,7 +16604,7 @@
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="507">
+      <c r="V20" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16619,10 +16612,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="485">
+      <c r="F21" s="480">
         <v>1</v>
       </c>
-      <c r="G21" s="460">
+      <c r="G21" s="455">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16638,7 +16631,7 @@
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="507">
+      <c r="V21" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16646,16 +16639,16 @@
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="485">
+      <c r="F22" s="480">
         <v>2</v>
       </c>
-      <c r="G22" s="460">
+      <c r="G22" s="455">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H22" s="263"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="507">
+      <c r="V22" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16663,16 +16656,16 @@
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="485"/>
-      <c r="G23" s="460" t="str">
+      <c r="F23" s="480"/>
+      <c r="G23" s="455" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" s="263"/>
-      <c r="J23" s="522"/>
-      <c r="K23" s="522"/>
+      <c r="J23" s="517"/>
+      <c r="K23" s="517"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="507">
+      <c r="V23" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16680,8 +16673,8 @@
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="485"/>
-      <c r="G24" s="460" t="str">
+      <c r="F24" s="480"/>
+      <c r="G24" s="455" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16702,7 +16695,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="507">
+      <c r="V24" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16730,7 +16723,7 @@
         <f>1-L25</f>
         <v>3.0109248427834245E-13</v>
       </c>
-      <c r="V25" s="507">
+      <c r="V25" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16751,7 +16744,7 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="507">
+      <c r="V26" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16771,7 +16764,7 @@
         <f>J26/SQRT(J27)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V27" s="507">
+      <c r="V27" s="502">
         <v>4</v>
       </c>
     </row>
@@ -16781,7 +16774,7 @@
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="H28" s="263"/>
-      <c r="V28" s="507">
+      <c r="V28" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16791,7 +16784,7 @@
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
       <c r="H29" s="263"/>
-      <c r="V29" s="507">
+      <c r="V29" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16800,7 +16793,7 @@
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="507">
+      <c r="V30" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16809,7 +16802,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="507">
+      <c r="V31" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16818,7 +16811,7 @@
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="507">
+      <c r="V32" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16827,7 +16820,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="507">
+      <c r="V33" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16836,7 +16829,7 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="507">
+      <c r="V34" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16845,7 +16838,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="507">
+      <c r="V35" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16854,7 +16847,7 @@
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="507">
+      <c r="V36" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16863,7 +16856,7 @@
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="507">
+      <c r="V37" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16872,7 +16865,7 @@
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="507">
+      <c r="V38" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16881,7 +16874,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="507">
+      <c r="V39" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16890,7 +16883,7 @@
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="507">
+      <c r="V40" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16899,7 +16892,7 @@
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="507">
+      <c r="V41" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16908,7 +16901,7 @@
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="507">
+      <c r="V42" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16917,7 +16910,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="507">
+      <c r="V43" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16926,7 +16919,7 @@
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="507">
+      <c r="V44" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16935,7 +16928,7 @@
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="507">
+      <c r="V45" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16944,7 +16937,7 @@
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="507">
+      <c r="V46" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16953,7 +16946,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="507">
+      <c r="V47" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16962,7 +16955,7 @@
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="507">
+      <c r="V48" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16971,7 +16964,7 @@
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="507">
+      <c r="V49" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16980,7 +16973,7 @@
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="507">
+      <c r="V50" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16989,7 +16982,7 @@
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="507">
+      <c r="V51" s="502">
         <v>3</v>
       </c>
     </row>
@@ -16998,7 +16991,7 @@
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="507">
+      <c r="V52" s="502">
         <v>3</v>
       </c>
     </row>
@@ -17007,7 +17000,7 @@
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="507">
+      <c r="V53" s="502">
         <v>3</v>
       </c>
     </row>
@@ -17016,7 +17009,7 @@
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="507">
+      <c r="V54" s="502">
         <v>3</v>
       </c>
     </row>
@@ -17025,237 +17018,237 @@
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="507">
+      <c r="V55" s="502">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:22">
-      <c r="V56" s="507">
+      <c r="V56" s="502">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="3:22">
-      <c r="V57" s="507">
+      <c r="V57" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="3:22">
-      <c r="V58" s="507">
+      <c r="V58" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:22">
-      <c r="V59" s="507">
+      <c r="V59" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:22">
-      <c r="V60" s="507">
+      <c r="V60" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="3:22">
-      <c r="V61" s="507">
+      <c r="V61" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="3:22">
-      <c r="V62" s="507">
+      <c r="V62" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:22">
-      <c r="V63" s="507">
+      <c r="V63" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:22">
-      <c r="V64" s="507">
+      <c r="V64" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="22:22">
-      <c r="V65" s="507">
+      <c r="V65" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="22:22">
-      <c r="V66" s="507">
+      <c r="V66" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="22:22">
-      <c r="V67" s="507">
+      <c r="V67" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="22:22">
-      <c r="V68" s="507">
+      <c r="V68" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="22:22">
-      <c r="V69" s="507">
+      <c r="V69" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="22:22">
-      <c r="V70" s="507">
+      <c r="V70" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="22:22">
-      <c r="V71" s="507">
+      <c r="V71" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="22:22">
-      <c r="V72" s="507">
+      <c r="V72" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="22:22">
-      <c r="V73" s="507">
+      <c r="V73" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="22:22">
-      <c r="V74" s="507">
+      <c r="V74" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="22:22">
-      <c r="V75" s="507">
+      <c r="V75" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="22:22">
-      <c r="V76" s="507">
+      <c r="V76" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="22:22">
-      <c r="V77" s="507">
+      <c r="V77" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="22:22">
-      <c r="V78" s="507">
+      <c r="V78" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="22:22">
-      <c r="V79" s="507">
+      <c r="V79" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="22:22">
-      <c r="V80" s="507">
+      <c r="V80" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="22:22">
-      <c r="V81" s="507">
+      <c r="V81" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="22:22">
-      <c r="V82" s="507">
+      <c r="V82" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="22:22">
-      <c r="V83" s="507">
+      <c r="V83" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="22:22">
-      <c r="V84" s="507">
+      <c r="V84" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="22:22">
-      <c r="V85" s="507">
+      <c r="V85" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="22:22">
-      <c r="V86" s="507">
+      <c r="V86" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="22:22">
-      <c r="V87" s="507">
+      <c r="V87" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="22:22">
-      <c r="V88" s="507">
+      <c r="V88" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="22:22">
-      <c r="V89" s="507">
+      <c r="V89" s="502">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="22:22">
-      <c r="V90" s="507">
+      <c r="V90" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="22:22">
-      <c r="V91" s="507">
+      <c r="V91" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="22:22">
-      <c r="V92" s="507">
+      <c r="V92" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="22:22">
-      <c r="V93" s="507">
+      <c r="V93" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="22:22">
-      <c r="V94" s="507">
+      <c r="V94" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="22:22">
-      <c r="V95" s="507">
+      <c r="V95" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="22:22">
-      <c r="V96" s="507">
+      <c r="V96" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="22:22">
-      <c r="V97" s="507">
+      <c r="V97" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="22:22">
-      <c r="V98" s="507">
+      <c r="V98" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="22:22">
-      <c r="V99" s="507">
+      <c r="V99" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="22:22">
-      <c r="V100" s="507">
+      <c r="V100" s="502">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="22:22">
-      <c r="V101" s="507">
+      <c r="V101" s="502">
         <v>1</v>
       </c>
     </row>
@@ -17279,7 +17272,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17325,46 +17318,45 @@
         <v>56</v>
       </c>
       <c r="L1" s="355">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N1" s="304"/>
       <c r="U1" s="339"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A2" s="438">
-        <v>35</v>
-      </c>
-      <c r="B2" s="439">
-        <f>1/38</f>
-        <v>2.6315789473684209E-2</v>
+      <c r="A2" s="551">
+        <v>0</v>
+      </c>
+      <c r="B2" s="551">
+        <v>0.46200000000000002</v>
       </c>
       <c r="C2" s="106">
         <f>(A2-$F$2)^2 *B2</f>
-        <v>32.333867910774167</v>
+        <v>0.86586238199999976</v>
       </c>
       <c r="D2" s="85">
         <f>A2*B2</f>
-        <v>0.92105263157894735</v>
+        <v>0</v>
       </c>
       <c r="E2" s="102" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="351">
         <f>SUM(D2:D6)</f>
-        <v>-5.2631578947368474E-2</v>
+        <v>1.3689999999999998</v>
       </c>
       <c r="G2" s="358" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="359">
-        <v>3</v>
+        <v>70.7</v>
       </c>
       <c r="I2" s="100" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="124">
         <f>H2</f>
-        <v>3</v>
+        <v>70.7</v>
       </c>
       <c r="K2" s="360"/>
       <c r="L2" s="346"/>
@@ -17377,41 +17369,39 @@
       <c r="X2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A3" s="440">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="441">
-        <f>1-B2</f>
-        <v>0.97368421052631582</v>
+      <c r="A3" s="551">
+        <v>1</v>
+      </c>
+      <c r="B3" s="551">
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C3" s="106">
         <f t="shared" ref="C3:C4" si="0">(A3-$F$2)^2 *B3</f>
-        <v>0.87388832191281518</v>
+        <v>1.0075913999999988E-2</v>
       </c>
       <c r="D3" s="85">
-        <f t="shared" ref="D3:D4" si="1">A3*B3</f>
-        <v>-0.97368421052631582</v>
+        <f t="shared" ref="D3:D6" si="1">A3*B3</f>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E3" s="103" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="352">
         <f>SUM(C2:C6)</f>
-        <v>33.207756232686982</v>
+        <v>0.9738859019999998</v>
       </c>
       <c r="G3" s="361" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="362">
-        <f>SQRT(3)</f>
-        <v>1.7320508075688772</v>
+        <v>2.1</v>
       </c>
       <c r="I3" s="100" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="121">
         <f>H3/SQRT(H4)</f>
-        <v>0.19999999999999996</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="316"/>
@@ -17420,12 +17410,12 @@
         <v>102</v>
       </c>
       <c r="P3" s="74">
-        <v>0.48699999999999999</v>
+        <v>177.8</v>
       </c>
       <c r="Q3" s="160"/>
       <c r="R3" s="296">
         <f>(P3+P4)/2</f>
-        <v>0.65999999999999992</v>
+        <v>179.4</v>
       </c>
       <c r="U3" s="340"/>
       <c r="V3" s="94"/>
@@ -17437,52 +17427,56 @@
       <c r="Z3" s="126"/>
     </row>
     <row r="4" spans="1:27" ht="18" thickBot="1">
-      <c r="A4" s="440"/>
-      <c r="B4" s="441"/>
+      <c r="A4" s="551">
+        <v>2</v>
+      </c>
+      <c r="B4" s="551">
+        <v>0.246</v>
+      </c>
       <c r="C4" s="106">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7947606000000062E-2</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="353">
         <f>SQRT(F3)</f>
-        <v>5.7626171339667343</v>
+        <v>0.98685657620547873</v>
       </c>
       <c r="G4" s="363" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="289">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="I4" s="185"/>
-      <c r="J4" s="443">
+      <c r="J4" s="438">
         <f>SQRT(H6*(1-H6)/H4)</f>
-        <v>4.6188021535170057E-2</v>
+        <v>7.4833147735478833E-2</v>
       </c>
       <c r="K4" s="287"/>
       <c r="L4" s="274">
         <f>H6</f>
-        <v>0.8</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N4" s="331"/>
       <c r="O4" s="293" t="s">
         <v>103</v>
       </c>
       <c r="P4" s="74">
-        <v>0.83299999999999996</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="295" t="s">
         <v>119</v>
       </c>
       <c r="R4" s="271">
         <f>(P4-P3)/2</f>
-        <v>0.17299999999999999</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="U4" s="340"/>
       <c r="V4" s="342" t="s">
@@ -17506,13 +17500,20 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="18" thickBot="1">
-      <c r="A5" s="440"/>
-      <c r="B5" s="441"/>
+      <c r="A5" s="551">
+        <v>3</v>
+      </c>
+      <c r="B5" s="551">
+        <v>6.9000000000000006E-2</v>
+      </c>
       <c r="C5" s="106"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="444">
+      <c r="D5" s="85">
+        <f t="shared" si="1"/>
+        <v>0.20700000000000002</v>
+      </c>
+      <c r="E5" s="439">
         <f>A2*B2+A3*B3</f>
-        <v>-5.2631578947368474E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F5" s="218"/>
       <c r="G5" s="363" t="s">
@@ -17526,28 +17527,28 @@
       </c>
       <c r="J5" s="288">
         <f>H4*H6*(1-H6)</f>
-        <v>11.999999999999996</v>
+        <v>7.2576000000000009</v>
       </c>
       <c r="K5" s="283" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="182">
         <f>H4/H5</f>
-        <v>3.7499999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="N5" s="332"/>
       <c r="O5" s="294" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="74">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="283" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="297">
         <f>P5*R3</f>
-        <v>1319.9999999999998</v>
+        <v>44850</v>
       </c>
       <c r="U5" s="340"/>
       <c r="V5" s="329" t="s">
@@ -17564,31 +17565,38 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A6" s="442"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="551">
+        <v>4</v>
+      </c>
+      <c r="B6" s="551">
+        <v>0.14899999999999999</v>
+      </c>
       <c r="C6" s="106"/>
-      <c r="D6" s="85"/>
+      <c r="D6" s="85">
+        <f t="shared" si="1"/>
+        <v>0.59599999999999997</v>
+      </c>
       <c r="E6" s="284"/>
       <c r="F6" s="218"/>
       <c r="G6" s="363" t="s">
         <v>115</v>
       </c>
       <c r="H6" s="289">
-        <v>0.8</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I6" s="168" t="s">
         <v>160</v>
       </c>
       <c r="J6" s="381">
         <f>ROUND(H8/H6, 0)</f>
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="K6" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="381">
+      <c r="L6" s="124">
         <f>ROUND(10/(H6*(1-H6)),0)</f>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N6" s="332"/>
       <c r="O6" s="66"/>
@@ -17618,14 +17626,14 @@
         <v>111</v>
       </c>
       <c r="H7" s="302">
-        <v>4.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="I7" s="283" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="274">
         <f>H7*SQRT(H4)</f>
-        <v>0.39837168574084181</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="316"/>
@@ -17639,7 +17647,7 @@
       </c>
       <c r="R7" s="300">
         <f>P7*(1-P7)* ((_xlfn.NORM.S.INV(1- (100-L1)/200))/P8)^2</f>
-        <v>800.30392097794254</v>
+        <v>563.65488626987712</v>
       </c>
       <c r="U7" s="340"/>
       <c r="V7" s="127" t="s">
@@ -17648,11 +17656,11 @@
       <c r="W7" s="235">
         <v>15</v>
       </c>
-      <c r="X7" s="527" t="s">
+      <c r="X7" s="522" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="528"/>
-      <c r="Z7" s="529"/>
+      <c r="Y7" s="523"/>
+      <c r="Z7" s="524"/>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="280"/>
@@ -17668,7 +17676,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="289">
-        <v>3.3</v>
+        <v>71.7</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>43</v>
@@ -17694,7 +17702,7 @@
       </c>
       <c r="R8" s="300">
         <f>0.25* ((_xlfn.NORM.S.INV(1- (100-L$1)/200))/P8)^2</f>
-        <v>1067.0718946372567</v>
+        <v>751.53984835983624</v>
       </c>
       <c r="U8" s="340"/>
       <c r="V8" s="281" t="s">
@@ -17730,19 +17738,19 @@
       </c>
       <c r="I9" s="277">
         <f>ROUND((H8-H2)/H3,2)</f>
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="J9" s="278">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
-        <v>0.56875488493203918</v>
+        <v>0.68303065805932717</v>
       </c>
       <c r="K9" s="278">
         <f>1-J9</f>
-        <v>0.43124511506796082</v>
+        <v>0.31696934194067283</v>
       </c>
       <c r="L9" s="279">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
-        <v>0.43124511506796082</v>
+        <v>0.3169693416828796</v>
       </c>
       <c r="N9" s="332"/>
       <c r="O9" s="94"/>
@@ -17823,19 +17831,19 @@
       <c r="D11" s="85"/>
       <c r="I11" s="356">
         <f>ROUND((H8-H2)/H7, 2)</f>
-        <v>6.52</v>
+        <v>2.86</v>
       </c>
       <c r="J11" s="357">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
-        <v>0.99999999996484634</v>
+        <v>0.99788179495959539</v>
       </c>
       <c r="K11" s="357">
         <f>1-J11</f>
-        <v>3.5153657762521107E-11</v>
+        <v>2.1182050404046082E-3</v>
       </c>
       <c r="L11" s="156">
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
-        <v>3.5153657762521107E-11</v>
+        <v>2.1182050404046082E-3</v>
       </c>
       <c r="N11" s="332"/>
       <c r="O11" s="308" t="s">
@@ -17869,13 +17877,13 @@
       <c r="C12" s="313"/>
       <c r="D12" s="85"/>
       <c r="N12" s="332"/>
-      <c r="O12" s="523" t="s">
+      <c r="O12" s="518" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="524"/>
+      <c r="P12" s="519"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
-        <v>2.0210753903062715</v>
+        <v>1.6838510133356521</v>
       </c>
       <c r="R12" s="75"/>
       <c r="S12" s="29"/>
@@ -17894,7 +17902,7 @@
       <c r="D13" s="85"/>
       <c r="G13" s="128"/>
       <c r="H13" s="144">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
       <c r="I13" s="200"/>
       <c r="J13" s="190"/>
@@ -17918,7 +17926,9 @@
       <c r="C14" s="313"/>
       <c r="D14" s="85"/>
       <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
+      <c r="H14" s="91" t="s">
+        <v>178</v>
+      </c>
       <c r="I14" s="158" t="s">
         <v>138</v>
       </c>
@@ -17939,7 +17949,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="319">
-        <v>67.5</v>
+        <v>0.627</v>
       </c>
       <c r="Q14" s="70" t="s">
         <v>59</v>
@@ -17958,42 +17968,42 @@
       <c r="H15" s="97"/>
       <c r="I15" s="117">
         <f xml:space="preserve"> ROUND( (H13-H6) / SQRT(H6*(1-H6)/H4), 2)</f>
-        <v>0.87</v>
+        <v>-0.53</v>
       </c>
       <c r="J15" s="96">
         <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
-        <v>0.80784979789630373</v>
+        <v>0.29805596539487639</v>
       </c>
       <c r="K15" s="121">
         <f>1-J15</f>
-        <v>0.19215020210369627</v>
+        <v>0.70194403460512356</v>
       </c>
       <c r="L15" s="121">
         <f>2*J15</f>
-        <v>1.6156995957926075</v>
+        <v>0.59611193078975278</v>
       </c>
       <c r="M15" s="149">
         <f>2*K15</f>
-        <v>0.38430040420739253</v>
+        <v>1.4038880692102471</v>
       </c>
       <c r="N15" s="332"/>
       <c r="O15" s="169" t="s">
         <v>125</v>
       </c>
       <c r="P15" s="235">
-        <v>3.6</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="Q15" s="121">
         <f xml:space="preserve"> TINV(1-L$1/100, P16 -1 )* P15 / SQRT(P16)</f>
-        <v>1.9183045910037968</v>
+        <v>0.61398371794110274</v>
       </c>
       <c r="R15" s="117">
         <f>P14-Q15</f>
-        <v>65.581695408996197</v>
+        <v>1.3016282058897266E-2</v>
       </c>
       <c r="S15" s="117">
         <f>P14+Q15</f>
-        <v>69.418304591003803</v>
+        <v>1.2409837179411027</v>
       </c>
       <c r="T15" s="123"/>
       <c r="U15" s="340"/>
@@ -18008,7 +18018,7 @@
         <v>60</v>
       </c>
       <c r="P16" s="235">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="168" t="s">
         <v>72</v>
@@ -18037,7 +18047,7 @@
       </c>
       <c r="Q17" s="189">
         <f>((_xlfn.NORM.S.INV(1- (100-L1)/200))*P15/P17)^2</f>
-        <v>3.1115816447622398</v>
+        <v>7.0130391873607159E-2</v>
       </c>
       <c r="R17" s="123"/>
       <c r="S17" s="111"/>
@@ -18053,7 +18063,7 @@
       <c r="H18" s="91"/>
       <c r="I18" s="114">
         <f>-_xlfn.NORM.S.INV( (1-L1/100)/2)</f>
-        <v>1.9599639845400536</v>
+        <v>1.6448536269514726</v>
       </c>
       <c r="J18" s="218"/>
       <c r="K18" s="218"/>
@@ -18093,8 +18103,8 @@
       <c r="B20" s="316"/>
       <c r="C20" s="313"/>
       <c r="D20" s="85"/>
-      <c r="G20" s="445"/>
-      <c r="H20" s="446"/>
+      <c r="G20" s="440"/>
+      <c r="H20" s="441"/>
       <c r="I20" s="70" t="s">
         <v>44</v>
       </c>
@@ -18116,11 +18126,11 @@
       </c>
       <c r="Q20" s="138">
         <f>_xlfn.CHISQ.INV((1-L1/100)/2,P20-1)</f>
-        <v>6.2621377950432535</v>
+        <v>7.2609439276700316</v>
       </c>
       <c r="R20" s="138">
         <f>_xlfn.CHISQ.INV.RT((1-L1/100)/2,P20-1)</f>
-        <v>27.488392863442979</v>
+        <v>24.99579013972863</v>
       </c>
       <c r="U20" s="340"/>
     </row>
@@ -18172,8 +18182,8 @@
       <c r="C22" s="313"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="525">
-        <v>2.9399999999999999E-2</v>
+      <c r="H22" s="520">
+        <v>0.5</v>
       </c>
       <c r="I22" s="70" t="s">
         <v>43</v>
@@ -18195,11 +18205,11 @@
       <c r="P22" s="69"/>
       <c r="Q22" s="138">
         <f>(P20-1)*P21/R20</f>
-        <v>1.2550751937877682</v>
+        <v>1.3802324234257854</v>
       </c>
       <c r="R22" s="138">
         <f>(P20-1)*P21/Q20</f>
-        <v>5.5093006780061922</v>
+        <v>4.7514483438616395</v>
       </c>
       <c r="U22" s="340"/>
     </row>
@@ -18211,26 +18221,26 @@
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="526"/>
+      <c r="H23" s="521"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
-        <v>-1.8896857578022153</v>
+        <v>0</v>
       </c>
       <c r="J23" s="121">
         <f>_xlfn.NORM.S.INV(H22/2)</f>
-        <v>-2.1780810922893403</v>
+        <v>-0.67448975019608193</v>
       </c>
       <c r="K23" s="202">
         <f>-TINV(2*H22,H24)</f>
-        <v>-2.0175492882337003</v>
+        <v>0</v>
       </c>
       <c r="L23" s="323">
         <f>TINV(2*H22,H24)</f>
-        <v>2.0175492882337003</v>
+        <v>0</v>
       </c>
       <c r="M23" s="89">
         <f>TINV(H22,H24)</f>
-        <v>2.3660751777643623</v>
+        <v>0.68919507515393985</v>
       </c>
       <c r="N23" s="332"/>
       <c r="O23" s="152" t="s">
@@ -18241,11 +18251,11 @@
       </c>
       <c r="Q23" s="138">
         <f>SQRT((P20-1)*(P23^2)/R20)</f>
-        <v>2.0683736017015146</v>
+        <v>2.1690533097923015</v>
       </c>
       <c r="R23" s="138">
         <f>SQRT((P20-1)*(P23^2)/Q20)</f>
-        <v>4.3335354236049</v>
+        <v>4.0244554055486947</v>
       </c>
       <c r="U23" s="340"/>
     </row>
@@ -18258,7 +18268,7 @@
         <v>122</v>
       </c>
       <c r="H24" s="69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="140" t="s">
         <v>66</v>
@@ -18273,11 +18283,11 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="138">
         <f>Q23^2</f>
-        <v>4.2781693562156962</v>
+        <v>4.7047922607209376</v>
       </c>
       <c r="R24" s="138">
         <f>R23^2</f>
-        <v>18.779529267638498</v>
+        <v>16.196241311250109</v>
       </c>
       <c r="U24" s="340"/>
     </row>
@@ -18288,15 +18298,15 @@
       <c r="D25" s="85"/>
       <c r="K25" s="121">
         <f>IF(J29 &gt;=10,  _xlfn.NORM.S.DIST(K27,TRUE), _xlfn.BINOM.DIST(H28, H26, H27, TRUE))</f>
-        <v>0.91528746138612238</v>
+        <v>1.8283286635241601E-6</v>
       </c>
       <c r="L25" s="121">
         <f>1-K25</f>
-        <v>8.4712538613877619E-2</v>
+        <v>0.99999817167133642</v>
       </c>
       <c r="M25" s="121">
         <f>2*L25</f>
-        <v>0.16942507722775524</v>
+        <v>1.9999963433426728</v>
       </c>
       <c r="N25" s="332"/>
       <c r="P25" s="8"/>
@@ -18312,7 +18322,7 @@
         <v>35</v>
       </c>
       <c r="H26" s="144">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="I26" s="70" t="s">
         <v>32</v>
@@ -18334,7 +18344,7 @@
         <v>68</v>
       </c>
       <c r="P26" s="144">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="113" t="s">
         <v>90</v>
@@ -18355,50 +18365,50 @@
         <v>40</v>
       </c>
       <c r="H27" s="131">
-        <v>8.2000000000000003E-2</v>
+        <v>0.27</v>
       </c>
       <c r="I27" s="124">
         <f>H26*H27</f>
-        <v>1.0660000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="J27" s="321">
         <f>SQRT(H26*H27*(1-H27))</f>
-        <v>0.98923606889356808</v>
+        <v>7.0196153740785538</v>
       </c>
       <c r="K27" s="130">
         <f>ROUND((H28 - I27)/J27,2)</f>
-        <v>0.94</v>
+        <v>-4.63</v>
       </c>
       <c r="L27" s="121">
         <f>_xlfn.NORM.S.DIST(K27,TRUE)</f>
-        <v>0.82639121966137541</v>
+        <v>1.8283286635241601E-6</v>
       </c>
       <c r="M27" s="149">
         <f>1-L27</f>
-        <v>0.17360878033862459</v>
+        <v>0.99999817167133642</v>
       </c>
       <c r="N27" s="332"/>
       <c r="O27" s="330" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="91">
-        <v>2.1</v>
+        <v>2580</v>
       </c>
       <c r="Q27" s="121">
         <f xml:space="preserve"> (P28 - P29) * SQRT(P26) / P27</f>
-        <v>-0.82478609884232246</v>
+        <v>9.3474418604651159</v>
       </c>
       <c r="R27" s="121">
         <f>2*(_xlfn.T.DIST(Q27, P26-1, TRUE))</f>
-        <v>0.42701688461349119</v>
+        <v>1.9999999999978002</v>
       </c>
       <c r="S27" s="130">
         <f>P28-Q29*P27/SQRT(P26)</f>
-        <v>14.965723656605658</v>
+        <v>2843.8230819998867</v>
       </c>
       <c r="T27" s="130">
         <f>P28+Q29*P27/SQRT(P26)</f>
-        <v>17.634276343394344</v>
+        <v>4080.1769180001133</v>
       </c>
       <c r="U27" s="340"/>
     </row>
@@ -18411,20 +18421,20 @@
         <v>39</v>
       </c>
       <c r="H28" s="91">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I28" s="126"/>
       <c r="J28" s="298" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="555"/>
+      <c r="K28" s="550"/>
       <c r="M28" s="191" t="s">
         <v>107</v>
       </c>
       <c r="N28" s="332"/>
       <c r="O28" s="94"/>
       <c r="P28" s="99">
-        <v>16.3</v>
+        <v>3462</v>
       </c>
       <c r="Q28" s="70"/>
       <c r="R28" s="70" t="s">
@@ -18448,19 +18458,19 @@
       </c>
       <c r="I29" s="138">
         <f xml:space="preserve"> H28/H26</f>
-        <v>0.15384615384615385</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J29" s="117">
         <f>H26*I29*(1-I29)</f>
-        <v>1.6923076923076923</v>
-      </c>
-      <c r="K29" s="553">
+        <v>30.099999999999998</v>
+      </c>
+      <c r="K29" s="548">
         <f>(H28+2)/(H26+4)</f>
-        <v>0.23529411764705882</v>
+        <v>0.14566929133858267</v>
       </c>
       <c r="M29" s="121">
         <f xml:space="preserve"> M27 - 1 + _xlfn.NORM.S.DIST(ROUND((H29 - I27)/J27,2),TRUE)</f>
-        <v>0.1736087602419375</v>
+        <v>-1.8283286635760373E-6</v>
       </c>
       <c r="N29" s="332"/>
       <c r="O29" s="177"/>
@@ -18469,15 +18479,15 @@
       </c>
       <c r="Q29" s="121">
         <f>TINV((100-L1)/100, P26-1)</f>
-        <v>2.2009851600916384</v>
+        <v>1.6772241961243386</v>
       </c>
       <c r="R29" s="121">
         <f>1-_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
-        <v>0.78649155769325441</v>
+        <v>1.0998979504961426E-12</v>
       </c>
       <c r="S29" s="121">
         <f>_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
-        <v>0.21350844230674559</v>
+        <v>0.9999999999989001</v>
       </c>
       <c r="U29" s="340"/>
     </row>
@@ -18512,15 +18522,15 @@
     <row r="31" spans="1:21" ht="20.25" thickBot="1">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J31" s="116">
         <f>1-I31</f>
-        <v>0.97499999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="K31" s="112">
         <f>_xlfn.NORM.S.INV(J31)</f>
-        <v>1.9599639845400536</v>
+        <v>1.6448536269514715</v>
       </c>
       <c r="N31" s="332"/>
       <c r="O31" s="147" t="s">
@@ -18549,7 +18559,7 @@
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="554" t="s">
+      <c r="L32" s="549" t="s">
         <v>177</v>
       </c>
       <c r="M32" s="153" t="s">
@@ -18583,23 +18593,23 @@
     <row r="33" spans="9:21" ht="16.5" thickBot="1">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
-        <v>0.19613016918857804</v>
+        <v>3.6096949005315529E-2</v>
       </c>
       <c r="J33" s="114">
         <f>I29-I33</f>
-        <v>-4.228401534242418E-2</v>
+        <v>0.10390305099468448</v>
       </c>
       <c r="K33" s="114">
         <f>I29+I33</f>
-        <v>0.34997632303473192</v>
+        <v>0.17609694900531553</v>
       </c>
       <c r="L33" s="202">
         <f>K29-K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>3.3654260647468931E-2</v>
+        <v>0.10926040368200646</v>
       </c>
       <c r="M33" s="89">
         <f>K29+K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>0.43693397464664874</v>
+        <v>0.18207817899515888</v>
       </c>
       <c r="N33" s="333"/>
       <c r="U33" s="340"/>
@@ -19478,8 +19488,8 @@
       <c r="F1" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="530"/>
-      <c r="H1" s="531"/>
+      <c r="G1" s="525"/>
+      <c r="H1" s="526"/>
       <c r="I1" s="195"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
@@ -19491,7 +19501,7 @@
       <c r="R1" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="448">
+      <c r="S1" s="443">
         <f>SUM(S4:S18)</f>
         <v>100</v>
       </c>
@@ -19560,8 +19570,8 @@
       <c r="AD2" s="75"/>
     </row>
     <row r="3" spans="1:34" ht="17.25" thickBot="1">
-      <c r="A3" s="478"/>
-      <c r="B3" s="478"/>
+      <c r="A3" s="473"/>
+      <c r="B3" s="473"/>
       <c r="C3" s="369" t="s">
         <v>10</v>
       </c>
@@ -19621,10 +19631,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="471">
+      <c r="A4" s="466">
         <v>9.1</v>
       </c>
-      <c r="B4" s="471">
+      <c r="B4" s="466">
         <v>12.9</v>
       </c>
       <c r="C4" s="368">
@@ -19642,7 +19652,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="468"/>
+      <c r="H4" s="463"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
@@ -19693,10 +19703,10 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A5" s="471">
+      <c r="A5" s="466">
         <v>9</v>
       </c>
-      <c r="B5" s="471">
+      <c r="B5" s="466">
         <v>13.8</v>
       </c>
       <c r="C5" s="368">
@@ -19761,10 +19771,10 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A6" s="471">
+      <c r="A6" s="466">
         <v>12.7</v>
       </c>
-      <c r="B6" s="471">
+      <c r="B6" s="466">
         <v>14</v>
       </c>
       <c r="C6" s="368">
@@ -19826,10 +19836,10 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="471">
+      <c r="A7" s="466">
         <v>11.8</v>
       </c>
-      <c r="B7" s="471">
+      <c r="B7" s="466">
         <v>11.3</v>
       </c>
       <c r="C7" s="368">
@@ -19890,7 +19900,7 @@
         <f>1-W7</f>
         <v>5.9757505160639268E-2</v>
       </c>
-      <c r="Y7" s="474">
+      <c r="Y7" s="469">
         <f>2*W7</f>
         <v>1.8804849896787215</v>
       </c>
@@ -19913,10 +19923,10 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="471">
+      <c r="A8" s="466">
         <v>11.5</v>
       </c>
-      <c r="B8" s="471">
+      <c r="B8" s="466">
         <v>7.7</v>
       </c>
       <c r="C8" s="368">
@@ -20003,10 +20013,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A9" s="471">
+      <c r="A9" s="466">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B9" s="471">
+      <c r="B9" s="466">
         <v>8.9</v>
       </c>
       <c r="C9" s="368">
@@ -20072,10 +20082,10 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A10" s="471">
+      <c r="A10" s="466">
         <v>13.5</v>
       </c>
-      <c r="B10" s="471">
+      <c r="B10" s="466">
         <v>13.2</v>
       </c>
       <c r="C10" s="368">
@@ -20094,7 +20104,7 @@
         <f>E8-E10</f>
         <v>-2.9583706743009408</v>
       </c>
-      <c r="G10" s="467">
+      <c r="G10" s="462">
         <f>E8+E10</f>
         <v>3.4833706743009403</v>
       </c>
@@ -20158,10 +20168,10 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A11" s="471">
+      <c r="A11" s="466">
         <v>15.4</v>
       </c>
-      <c r="B11" s="471">
+      <c r="B11" s="466">
         <v>8.3000000000000007</v>
       </c>
       <c r="C11" s="368">
@@ -20219,7 +20229,7 @@
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="449" t="s">
+      <c r="X11" s="444" t="s">
         <v>163</v>
       </c>
       <c r="Y11" s="3"/>
@@ -20239,8 +20249,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A12" s="469"/>
-      <c r="B12" s="470"/>
+      <c r="A12" s="464"/>
+      <c r="B12" s="465"/>
       <c r="C12" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20272,8 +20282,8 @@
       <c r="M12" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="532"/>
-      <c r="O12" s="533"/>
+      <c r="N12" s="527"/>
+      <c r="O12" s="528"/>
       <c r="P12" s="70" t="s">
         <v>161</v>
       </c>
@@ -20297,7 +20307,7 @@
       <c r="W12" s="419">
         <v>769</v>
       </c>
-      <c r="X12" s="451">
+      <c r="X12" s="446">
         <f>W12*W13</f>
         <v>107.66000000000001</v>
       </c>
@@ -20318,8 +20328,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A13" s="466"/>
-      <c r="B13" s="466"/>
+      <c r="A13" s="461"/>
+      <c r="B13" s="461"/>
       <c r="C13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20360,7 +20370,7 @@
         <f>M8-N8+L13</f>
         <v>0.10210740849765884</v>
       </c>
-      <c r="P13" s="447">
+      <c r="P13" s="442">
         <f>2*M11</f>
         <v>1.3640922981855359</v>
       </c>
@@ -20381,10 +20391,10 @@
       <c r="V13" s="418" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="450">
+      <c r="W13" s="445">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X13" s="453" t="s">
+      <c r="X13" s="448" t="s">
         <v>164</v>
       </c>
       <c r="Y13" s="3"/>
@@ -20404,8 +20414,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A14" s="466"/>
-      <c r="B14" s="466"/>
+      <c r="A14" s="461"/>
+      <c r="B14" s="461"/>
       <c r="C14" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20463,7 +20473,7 @@
       <c r="W14" s="421">
         <v>30</v>
       </c>
-      <c r="X14" s="452">
+      <c r="X14" s="447">
         <f>W12-X12</f>
         <v>661.34</v>
       </c>
@@ -20484,8 +20494,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="18" thickBot="1">
-      <c r="A15" s="466"/>
-      <c r="B15" s="466"/>
+      <c r="A15" s="461"/>
+      <c r="B15" s="461"/>
       <c r="C15" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20496,10 +20506,10 @@
       </c>
       <c r="E15" s="211"/>
       <c r="F15" s="211"/>
-      <c r="G15" s="534" t="s">
+      <c r="G15" s="529" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="535"/>
+      <c r="H15" s="530"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
@@ -20790,12 +20800,12 @@
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="472">
+      <c r="F20" s="467">
         <f>E3</f>
         <v>11.525</v>
       </c>
-      <c r="G20" s="537"/>
-      <c r="H20" s="538"/>
+      <c r="G20" s="532"/>
+      <c r="H20" s="533"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.84676339285714164</v>
@@ -20858,7 +20868,7 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="473">
+      <c r="F21" s="468">
         <f>E5</f>
         <v>2.3310022369297374</v>
       </c>
@@ -20931,10 +20941,10 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="536" t="s">
+      <c r="G22" s="531" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="536"/>
+      <c r="H22" s="531"/>
       <c r="I22" s="196"/>
       <c r="J22" s="230" t="s">
         <v>68</v>
@@ -20984,7 +20994,7 @@
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="472">
+      <c r="F23" s="467">
         <f>F3</f>
         <v>11.262500000000001</v>
       </c>
@@ -21037,7 +21047,7 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="473">
+      <c r="F24" s="468">
         <f>F5</f>
         <v>2.6027114981989712</v>
       </c>
@@ -21346,7 +21356,7 @@
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="196"/>
-      <c r="J30" s="454"/>
+      <c r="J30" s="449"/>
       <c r="K30" s="175"/>
       <c r="L30" s="381"/>
       <c r="O30" s="75"/>
@@ -22117,8 +22127,8 @@
       <c r="L2" s="436"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="478"/>
-      <c r="B3" s="478"/>
+      <c r="A3" s="473"/>
+      <c r="B3" s="473"/>
       <c r="C3" s="207"/>
       <c r="D3" s="205" t="s">
         <v>92</v>
@@ -22141,20 +22151,20 @@
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="499">
+      <c r="A4" s="494">
         <v>-5</v>
       </c>
-      <c r="B4" s="499">
+      <c r="B4" s="494">
         <v>-10</v>
       </c>
       <c r="C4" s="207">
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="546" t="s">
+      <c r="D4" s="541" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="547"/>
+      <c r="E4" s="542"/>
       <c r="G4" s="94"/>
       <c r="H4" s="204"/>
       <c r="I4" s="30"/>
@@ -22170,10 +22180,10 @@
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A5" s="499">
+      <c r="A5" s="494">
         <v>-3</v>
       </c>
-      <c r="B5" s="499">
+      <c r="B5" s="494">
         <v>-8</v>
       </c>
       <c r="C5" s="207">
@@ -22201,10 +22211,10 @@
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A6" s="499">
+      <c r="A6" s="494">
         <v>4</v>
       </c>
-      <c r="B6" s="499">
+      <c r="B6" s="494">
         <v>9</v>
       </c>
       <c r="C6" s="207">
@@ -22237,10 +22247,10 @@
       <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="499">
+      <c r="A7" s="494">
         <v>1</v>
       </c>
-      <c r="B7" s="499">
+      <c r="B7" s="494">
         <v>1</v>
       </c>
       <c r="C7" s="207">
@@ -22270,10 +22280,10 @@
       <c r="M7" s="204"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="499">
+      <c r="A8" s="494">
         <v>-1</v>
       </c>
-      <c r="B8" s="499">
+      <c r="B8" s="494">
         <v>-2</v>
       </c>
       <c r="C8" s="207">
@@ -22296,20 +22306,20 @@
       <c r="M8" s="132"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="499">
+      <c r="A9" s="494">
         <v>-2</v>
       </c>
-      <c r="B9" s="499">
+      <c r="B9" s="494">
         <v>-6</v>
       </c>
       <c r="C9" s="434">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="542" t="s">
+      <c r="D9" s="537" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="543"/>
+      <c r="E9" s="538"/>
       <c r="F9" s="70" t="s">
         <v>165</v>
       </c>
@@ -22327,21 +22337,21 @@
       <c r="M9" s="132"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="499">
+      <c r="A10" s="494">
         <v>0</v>
       </c>
-      <c r="B10" s="499">
+      <c r="B10" s="494">
         <v>-1</v>
       </c>
       <c r="C10" s="434">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="548">
+      <c r="D10" s="543">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="549"/>
+      <c r="E10" s="544"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -22360,10 +22370,10 @@
       <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="499">
+      <c r="A11" s="494">
         <v>2</v>
       </c>
-      <c r="B11" s="499">
+      <c r="B11" s="494">
         <v>3</v>
       </c>
       <c r="C11" s="207">
@@ -22385,10 +22395,10 @@
       <c r="M11" s="132"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="499">
+      <c r="A12" s="494">
         <v>3</v>
       </c>
-      <c r="B12" s="499">
+      <c r="B12" s="494">
         <v>6</v>
       </c>
       <c r="C12" s="207">
@@ -22421,10 +22431,10 @@
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="499">
+      <c r="A13" s="494">
         <v>-4</v>
       </c>
-      <c r="B13" s="499">
+      <c r="B13" s="494">
         <v>-8</v>
       </c>
       <c r="C13" s="207">
@@ -22450,8 +22460,8 @@
       <c r="M13" s="132"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="498"/>
-      <c r="B14" s="498"/>
+      <c r="A14" s="493"/>
+      <c r="B14" s="493"/>
       <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22471,16 +22481,16 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="498"/>
-      <c r="B15" s="498"/>
+      <c r="A15" s="493"/>
+      <c r="B15" s="493"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="550" t="s">
+      <c r="D15" s="545" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="551"/>
+      <c r="E15" s="546"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="437">
@@ -22494,8 +22504,8 @@
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="498"/>
-      <c r="B16" s="498"/>
+      <c r="A16" s="493"/>
+      <c r="B16" s="493"/>
       <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22520,16 +22530,16 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="498"/>
-      <c r="B17" s="498"/>
+      <c r="A17" s="493"/>
+      <c r="B17" s="493"/>
       <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="455">
+      <c r="D17" s="450">
         <v>2.097</v>
       </c>
-      <c r="E17" s="455">
+      <c r="E17" s="450">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -22549,8 +22559,8 @@
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="498"/>
-      <c r="B18" s="498"/>
+      <c r="A18" s="493"/>
+      <c r="B18" s="493"/>
       <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22566,7 +22576,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="500">
+      <c r="L18" s="495">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22576,11 +22586,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="493">
+      <c r="K19" s="488">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="493">
+      <c r="L19" s="488">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
@@ -22590,17 +22600,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="540" t="s">
+      <c r="D20" s="535" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="541"/>
-      <c r="F20" s="539"/>
-      <c r="G20" s="539"/>
-      <c r="K20" s="493">
+      <c r="E20" s="536"/>
+      <c r="F20" s="534"/>
+      <c r="G20" s="534"/>
+      <c r="K20" s="488">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="493">
+      <c r="L20" s="488">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
@@ -22616,13 +22626,13 @@
       <c r="E21" s="431">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="494"/>
-      <c r="G21" s="494"/>
-      <c r="K21" s="493">
+      <c r="F21" s="489"/>
+      <c r="G21" s="489"/>
+      <c r="K21" s="488">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="493">
+      <c r="L21" s="488">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
@@ -22632,17 +22642,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="542" t="s">
+      <c r="D22" s="537" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="543"/>
-      <c r="F22" s="495"/>
-      <c r="G22" s="495"/>
-      <c r="K22" s="493">
+      <c r="E22" s="538"/>
+      <c r="F22" s="490"/>
+      <c r="G22" s="490"/>
+      <c r="K22" s="488">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="493">
+      <c r="L22" s="488">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
@@ -22652,18 +22662,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="544">
+      <c r="D23" s="539">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="545"/>
-      <c r="F23" s="496"/>
-      <c r="G23" s="497"/>
-      <c r="K23" s="493">
+      <c r="E23" s="540"/>
+      <c r="F23" s="491"/>
+      <c r="G23" s="492"/>
+      <c r="K23" s="488">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="493">
+      <c r="L23" s="488">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
@@ -22673,11 +22683,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="493">
+      <c r="K24" s="488">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="493">
+      <c r="L24" s="488">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
@@ -22687,11 +22697,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="493">
+      <c r="K25" s="488">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="493">
+      <c r="L25" s="488">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
@@ -22701,11 +22711,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="493">
+      <c r="K26" s="488">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="493">
+      <c r="L26" s="488">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
@@ -22715,11 +22725,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="493">
+      <c r="K27" s="488">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="493">
+      <c r="L27" s="488">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
@@ -22729,11 +22739,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="493">
+      <c r="K28" s="488">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="493">
+      <c r="L28" s="488">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
@@ -22743,11 +22753,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="493">
+      <c r="K29" s="488">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="493">
+      <c r="L29" s="488">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22757,11 +22767,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="493">
+      <c r="K30" s="488">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="493">
+      <c r="L30" s="488">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22771,16 +22781,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="493"/>
-      <c r="L31" s="493"/>
+      <c r="K31" s="488"/>
+      <c r="L31" s="488"/>
     </row>
     <row r="32" spans="1:13">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="493"/>
-      <c r="L32" s="493"/>
+      <c r="K32" s="488"/>
+      <c r="L32" s="488"/>
     </row>
     <row r="33" spans="3:12" ht="15.75" thickBot="1">
       <c r="C33" s="217">
@@ -23279,10 +23289,10 @@
     </row>
     <row r="20" spans="2:12" ht="15.75">
       <c r="B20" s="28"/>
-      <c r="K20" s="552" t="s">
+      <c r="K20" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="552"/>
+      <c r="L20" s="547"/>
     </row>
     <row r="21" spans="2:12" ht="15.75">
       <c r="B21" s="28"/>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="179">
   <si>
     <t>Mean</t>
   </si>
@@ -2336,7 +2336,50 @@
     <t>Lower (AC)</t>
   </si>
   <si>
-    <t>.</t>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-Tail</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3815,7 +3858,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="552">
+  <cellXfs count="551">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -4549,9 +4592,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="52" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4620,9 +4660,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4771,9 +4808,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5105,6 +5139,18 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5210,14 +5256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5407,11 +5445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79604968"/>
-        <c:axId val="79605360"/>
+        <c:axId val="158500256"/>
+        <c:axId val="284782456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79604968"/>
+        <c:axId val="158500256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5468,12 +5506,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79605360"/>
+        <c:crossAx val="284782456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79605360"/>
+        <c:axId val="284782456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,7 +5568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79604968"/>
+        <c:crossAx val="158500256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5670,11 +5708,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="79606536"/>
-        <c:axId val="79606928"/>
+        <c:axId val="284782840"/>
+        <c:axId val="285410136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79606536"/>
+        <c:axId val="284782840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5767,7 +5805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79606928"/>
+        <c:crossAx val="285410136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5775,7 +5813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79606928"/>
+        <c:axId val="285410136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5884,7 +5922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79606536"/>
+        <c:crossAx val="284782840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6461,11 +6499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="79608104"/>
-        <c:axId val="223769760"/>
+        <c:axId val="285278880"/>
+        <c:axId val="285245040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79608104"/>
+        <c:axId val="285278880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6561,7 +6599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223769760"/>
+        <c:crossAx val="285245040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6569,7 +6607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223769760"/>
+        <c:axId val="285245040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6673,7 +6711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79608104"/>
+        <c:crossAx val="285278880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6898,11 +6936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="223772504"/>
-        <c:axId val="223772896"/>
+        <c:axId val="285769872"/>
+        <c:axId val="285244504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223772504"/>
+        <c:axId val="285769872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6998,7 +7036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223772896"/>
+        <c:crossAx val="285244504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7006,7 +7044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223772896"/>
+        <c:axId val="285244504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7111,7 +7149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223772504"/>
+        <c:crossAx val="285769872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7312,11 +7350,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="224694696"/>
-        <c:axId val="224695088"/>
+        <c:axId val="121214528"/>
+        <c:axId val="121214920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="224694696"/>
+        <c:axId val="121214528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7409,7 +7447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224695088"/>
+        <c:crossAx val="121214920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7417,7 +7455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224695088"/>
+        <c:axId val="121214920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7518,7 +7556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224694696"/>
+        <c:crossAx val="121214528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14840,14 +14878,14 @@
         <f>COUNT(B5:B60)</f>
         <v>12</v>
       </c>
-      <c r="E2" s="513" t="s">
+      <c r="E2" s="516" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="514"/>
-      <c r="G2" s="515" t="s">
+      <c r="F2" s="517"/>
+      <c r="G2" s="518" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="516"/>
+      <c r="H2" s="519"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -14890,8 +14928,8 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
@@ -14909,10 +14947,10 @@
         <f>MEDIAN(C5:C60)</f>
         <v>67</v>
       </c>
-      <c r="J4" s="424" t="s">
+      <c r="J4" s="421" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="460"/>
+      <c r="K4" s="457"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -14920,8 +14958,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="475"/>
-      <c r="P4" s="475"/>
+      <c r="O4" s="472"/>
+      <c r="P4" s="472"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -14933,7 +14971,7 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B5" s="485">
+      <c r="B5" s="482">
         <v>5.05</v>
       </c>
       <c r="C5" s="3">
@@ -14952,11 +14990,11 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="470">
+      <c r="J5" s="467">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="459" t="s">
+      <c r="K5" s="456" t="s">
         <v>166</v>
       </c>
       <c r="M5">
@@ -14969,7 +15007,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="474">
+      <c r="P5" s="471">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -14986,7 +15024,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B6" s="485">
+      <c r="B6" s="482">
         <v>5.0199999999999996</v>
       </c>
       <c r="C6" s="3">
@@ -15009,11 +15047,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="452">
+      <c r="J6" s="449">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="457">
+      <c r="K6" s="454">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -15024,7 +15062,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="474">
+      <c r="P6" s="471">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -15042,7 +15080,7 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="485">
+      <c r="B7" s="482">
         <v>5.43</v>
       </c>
       <c r="C7" s="3">
@@ -15061,11 +15099,11 @@
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="451">
+      <c r="J7" s="448">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="457">
+      <c r="K7" s="454">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15073,7 +15111,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="474">
+      <c r="P7" s="471">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15086,12 +15124,12 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B8" s="485">
+      <c r="B8" s="482">
         <v>5.72</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="483">
+      <c r="E8" s="480">
         <f>_xlfn.STDEV.P(B5:B60)</f>
         <v>0.39561046357356239</v>
       </c>
@@ -15099,7 +15137,7 @@
         <f>E8^2</f>
         <v>0.15650763888888894</v>
       </c>
-      <c r="G8" s="483">
+      <c r="G8" s="480">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15108,11 +15146,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="451">
+      <c r="J8" s="448">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="457">
+      <c r="K8" s="454">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15122,7 +15160,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="474">
+      <c r="P8" s="471">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15135,7 +15173,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75">
-      <c r="B9" s="485">
+      <c r="B9" s="482">
         <v>4.68</v>
       </c>
       <c r="C9" s="3"/>
@@ -15147,11 +15185,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="451">
+      <c r="J9" s="448">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="457">
+      <c r="K9" s="454">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15159,7 +15197,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="474">
+      <c r="P9" s="471">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15176,7 +15214,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B10" s="485">
+      <c r="B10" s="482">
         <v>4.76</v>
       </c>
       <c r="C10" s="3"/>
@@ -15190,8 +15228,8 @@
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="451"/>
-      <c r="K10" s="457" t="str">
+      <c r="J10" s="448"/>
+      <c r="K10" s="454" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15199,7 +15237,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="474"/>
+      <c r="P10" s="471"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15214,7 +15252,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="18.75">
-      <c r="B11" s="485">
+      <c r="B11" s="482">
         <v>4.38</v>
       </c>
       <c r="C11" s="3"/>
@@ -15227,8 +15265,8 @@
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="451"/>
-      <c r="K11" s="457" t="str">
+      <c r="J11" s="448"/>
+      <c r="K11" s="454" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15236,7 +15274,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="474"/>
+      <c r="P11" s="471"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15251,7 +15289,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75">
-      <c r="B12" s="485">
+      <c r="B12" s="482">
         <v>4.74</v>
       </c>
       <c r="C12" s="3"/>
@@ -15265,8 +15303,8 @@
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="451"/>
-      <c r="K12" s="457" t="str">
+      <c r="J12" s="448"/>
+      <c r="K12" s="454" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15285,7 +15323,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="15.75">
-      <c r="B13" s="485">
+      <c r="B13" s="482">
         <v>4.5599999999999996</v>
       </c>
       <c r="C13" s="3"/>
@@ -15294,8 +15332,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="456"/>
-      <c r="K13" s="457" t="str">
+      <c r="J13" s="453"/>
+      <c r="K13" s="454" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15314,13 +15352,13 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B14" s="485">
+      <c r="B14" s="482">
         <v>4.8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="456"/>
-      <c r="K14" s="457" t="str">
+      <c r="J14" s="453"/>
+      <c r="K14" s="454" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15339,7 +15377,7 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="485">
+      <c r="B15" s="482">
         <v>5.19</v>
       </c>
       <c r="C15" s="3"/>
@@ -15374,7 +15412,7 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B16" s="485">
+      <c r="B16" s="482">
         <v>5.54</v>
       </c>
       <c r="C16" s="3"/>
@@ -15414,7 +15452,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B17" s="485"/>
+      <c r="B17" s="482"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="254" t="s">
@@ -15447,7 +15485,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B18" s="485"/>
+      <c r="B18" s="482"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="255">
@@ -15484,7 +15522,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B19" s="484"/>
+      <c r="B19" s="481"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15536,7 +15574,7 @@
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>-13.333333333333334</v>
       </c>
-      <c r="K21" s="471"/>
+      <c r="K21" s="468"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -15559,7 +15597,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="482"/>
+      <c r="I22" s="479"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15599,7 +15637,7 @@
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="486"/>
+      <c r="H24" s="483"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -15618,7 +15656,7 @@
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="486"/>
+      <c r="H25" s="483"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -15637,7 +15675,7 @@
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="486"/>
+      <c r="H26" s="483"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -15653,7 +15691,7 @@
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="486"/>
+      <c r="H27" s="483"/>
     </row>
     <row r="28" spans="2:18" ht="15.75">
       <c r="B28" s="3"/>
@@ -15662,7 +15700,7 @@
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="486"/>
+      <c r="H28" s="483"/>
     </row>
     <row r="29" spans="2:18" ht="15.75">
       <c r="B29" s="3"/>
@@ -15671,7 +15709,7 @@
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="486"/>
+      <c r="H29" s="483"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1">
       <c r="B30" s="3"/>
@@ -15679,7 +15717,7 @@
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="486"/>
+      <c r="H30" s="483"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="3"/>
@@ -15687,12 +15725,12 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="486"/>
+      <c r="H31" s="483"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="3"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="487"/>
+      <c r="H32" s="484"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="3"/>
@@ -15795,8 +15833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15853,13 +15891,13 @@
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1">
       <c r="A2" s="66"/>
-      <c r="B2" s="505">
+      <c r="B2" s="502">
         <v>0</v>
       </c>
-      <c r="C2" s="505">
+      <c r="C2" s="502">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D2" s="433">
+      <c r="D2" s="430">
         <f>(B2-$G$2)^2 *C2</f>
         <v>0.90720000000000034</v>
       </c>
@@ -15895,7 +15933,7 @@
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
-      <c r="Q2" s="424" t="s">
+      <c r="Q2" s="421" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="70" t="s">
@@ -15907,10 +15945,10 @@
       <c r="T2" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="502">
+      <c r="V2" s="499">
         <v>10</v>
       </c>
-      <c r="W2" s="506" t="s">
+      <c r="W2" s="503" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -15920,10 +15958,10 @@
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="505">
+      <c r="B3" s="502">
         <v>1</v>
       </c>
-      <c r="C3" s="505">
+      <c r="C3" s="502">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -15953,23 +15991,23 @@
       <c r="M3" s="94"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
-      <c r="Q3" s="425">
+      <c r="Q3" s="422">
         <v>1</v>
       </c>
-      <c r="R3" s="426">
+      <c r="R3" s="423">
         <v>38</v>
       </c>
-      <c r="S3" s="427">
+      <c r="S3" s="424">
         <v>245</v>
       </c>
-      <c r="T3" s="432">
+      <c r="T3" s="429">
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="502">
+      <c r="V3" s="499">
         <v>10</v>
       </c>
-      <c r="W3" s="507" t="s">
+      <c r="W3" s="504" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -15979,10 +16017,10 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="66"/>
-      <c r="B4" s="505">
+      <c r="B4" s="502">
         <v>2</v>
       </c>
-      <c r="C4" s="505">
+      <c r="C4" s="502">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16008,27 +16046,27 @@
       <c r="M4" s="95"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
-      <c r="Q4" s="428">
+      <c r="Q4" s="425">
         <v>37</v>
       </c>
       <c r="R4" s="251">
         <v>38</v>
       </c>
-      <c r="S4" s="429">
+      <c r="S4" s="426">
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="502">
+      <c r="V4" s="499">
         <v>9</v>
       </c>
       <c r="W4" s="284"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1">
       <c r="A5" s="66"/>
-      <c r="B5" s="505">
+      <c r="B5" s="502">
         <v>3</v>
       </c>
-      <c r="C5" s="505">
+      <c r="C5" s="502">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16048,7 +16086,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="76">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K5" s="70" t="s">
         <v>31</v>
@@ -16065,20 +16103,20 @@
       <c r="O5" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="428"/>
+      <c r="Q5" s="425"/>
       <c r="R5" s="251"/>
-      <c r="S5" s="429"/>
+      <c r="S5" s="426"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="502">
+      <c r="V5" s="499">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" thickBot="1">
       <c r="A6" s="66"/>
-      <c r="B6" s="505">
+      <c r="B6" s="502">
         <v>5</v>
       </c>
-      <c r="C6" s="505">
+      <c r="C6" s="502">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16098,48 +16136,48 @@
         <v>40</v>
       </c>
       <c r="J6" s="273">
-        <v>0.23</v>
+        <v>0.63</v>
       </c>
       <c r="K6" s="116">
         <f>_xlfn.BINOM.DIST(J7, J5, J6, FALSE)</f>
-        <v>4.657076396434022E-2</v>
+        <v>7.1168482378450151E-2</v>
       </c>
       <c r="L6" s="176">
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
-        <v>0.10156460410175912</v>
-      </c>
-      <c r="M6" s="500">
+        <v>0.88051957581093498</v>
+      </c>
+      <c r="M6" s="497">
         <f>1-L6+K6</f>
-        <v>0.94500615986258107</v>
+        <v>0.19064890656751515</v>
       </c>
       <c r="N6" s="89">
         <f>1-M6</f>
-        <v>5.4993840137418926E-2</v>
+        <v>0.80935109343248479</v>
       </c>
       <c r="O6" s="89">
         <f>_xlfn.BINOM.DIST(J8,J5, J6, TRUE)-N6</f>
-        <v>-8.3266726846886741E-17</v>
+        <v>0.15418936294109509</v>
       </c>
       <c r="P6" s="257"/>
-      <c r="Q6" s="430"/>
-      <c r="R6" s="509" t="s">
+      <c r="Q6" s="427"/>
+      <c r="R6" s="506" t="s">
         <v>171</v>
       </c>
-      <c r="S6" s="431">
+      <c r="S6" s="428">
         <v>1000</v>
       </c>
-      <c r="T6" s="508">
+      <c r="T6" s="505">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="502">
+      <c r="V6" s="499">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1">
       <c r="A7" s="66"/>
-      <c r="B7" s="505"/>
-      <c r="C7" s="505"/>
+      <c r="B7" s="502"/>
+      <c r="C7" s="502"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16157,7 +16195,7 @@
         <v>39</v>
       </c>
       <c r="J7" s="76">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K7" s="70" t="s">
         <v>41</v>
@@ -16168,20 +16206,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="501" t="s">
+      <c r="N7" s="498" t="s">
         <v>170</v>
       </c>
       <c r="O7" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="V7" s="502">
+      <c r="V7" s="499">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" thickBot="1">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="497"/>
+      <c r="C8" s="494"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16190,7 +16228,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="481">
+      <c r="F8" s="478">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
@@ -16200,29 +16238,29 @@
         <v>106</v>
       </c>
       <c r="J8" s="76">
-        <v>9</v>
-      </c>
-      <c r="K8" s="499">
+        <v>37</v>
+      </c>
+      <c r="K8" s="496">
         <f>J5*J6</f>
-        <v>14.72</v>
-      </c>
-      <c r="L8" s="323">
+        <v>31.5</v>
+      </c>
+      <c r="L8" s="321">
         <f>SQRT(J5*J6*(1-J6))</f>
-        <v>3.3666600660001302</v>
+        <v>3.4139420030223127</v>
       </c>
       <c r="M8" s="117">
         <f>ROUND((J7 - K8)/L8, 2)</f>
-        <v>-1.4</v>
+        <v>1.03</v>
       </c>
       <c r="N8" s="189">
         <f>J7/J6</f>
-        <v>43.478260869565219</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="O8" s="121">
         <f>1-L6</f>
-        <v>0.89843539589824084</v>
-      </c>
-      <c r="V8" s="502">
+        <v>0.11948042418906502</v>
+      </c>
+      <c r="V8" s="499">
         <v>7</v>
       </c>
     </row>
@@ -16249,10 +16287,10 @@
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="498"/>
+      <c r="N9" s="495"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="496"/>
-      <c r="V9" s="502">
+      <c r="T9" s="493"/>
+      <c r="V9" s="499">
         <v>6</v>
       </c>
     </row>
@@ -16278,7 +16316,7 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="502">
+      <c r="V10" s="499">
         <v>6</v>
       </c>
     </row>
@@ -16294,10 +16332,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="424" t="s">
+      <c r="F11" s="421" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="460"/>
+      <c r="G11" s="457"/>
       <c r="H11" s="262"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
@@ -16318,7 +16356,7 @@
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="502">
+      <c r="V11" s="499">
         <v>5</v>
       </c>
     </row>
@@ -16328,11 +16366,11 @@
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="458">
+      <c r="F12" s="455">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="459" t="s">
+      <c r="G12" s="456" t="s">
         <v>166</v>
       </c>
       <c r="H12" s="262"/>
@@ -16359,7 +16397,7 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="502">
+      <c r="V12" s="499">
         <v>5</v>
       </c>
     </row>
@@ -16368,11 +16406,11 @@
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="453"/>
-      <c r="F13" s="502">
+      <c r="E13" s="450"/>
+      <c r="F13" s="499">
         <v>12</v>
       </c>
-      <c r="G13" s="503">
+      <c r="G13" s="500">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
@@ -16388,20 +16426,20 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="502">
+      <c r="V13" s="499">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="476"/>
+      <c r="C14" s="473"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="453"/>
-      <c r="F14" s="502">
+      <c r="E14" s="450"/>
+      <c r="F14" s="499">
         <v>33</v>
       </c>
-      <c r="G14" s="504">
+      <c r="G14" s="501">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
@@ -16417,20 +16455,20 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="502">
+      <c r="V14" s="499">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.5" thickBot="1">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="478"/>
+      <c r="C15" s="475"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="454"/>
-      <c r="F15" s="502">
+      <c r="E15" s="451"/>
+      <c r="F15" s="499">
         <v>29</v>
       </c>
-      <c r="G15" s="504">
+      <c r="G15" s="501">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
@@ -16450,20 +16488,20 @@
         <v>174</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="502">
+      <c r="V15" s="499">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="477"/>
+      <c r="C16" s="474"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="502">
+      <c r="F16" s="499">
         <v>11</v>
       </c>
-      <c r="G16" s="504">
+      <c r="G16" s="501">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
@@ -16476,14 +16514,14 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="511" t="s">
+      <c r="M16" s="508" t="s">
         <v>176</v>
       </c>
-      <c r="N16" s="512" t="s">
+      <c r="N16" s="509" t="s">
         <v>175</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="502">
+      <c r="V16" s="499">
         <v>5</v>
       </c>
     </row>
@@ -16493,10 +16531,10 @@
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="479">
+      <c r="F17" s="476">
         <v>6</v>
       </c>
-      <c r="G17" s="455">
+      <c r="G17" s="452">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
@@ -16524,7 +16562,7 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="502">
+      <c r="V17" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16532,10 +16570,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="479">
+      <c r="F18" s="476">
         <v>2</v>
       </c>
-      <c r="G18" s="455">
+      <c r="G18" s="452">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -16551,7 +16589,7 @@
       </c>
       <c r="M18" s="257"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="502">
+      <c r="V18" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16559,26 +16597,26 @@
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="480">
+      <c r="F19" s="477">
         <v>3</v>
       </c>
-      <c r="G19" s="455">
+      <c r="G19" s="452">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H19" s="263"/>
-      <c r="I19" s="510" t="s">
+      <c r="I19" s="507" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
         <v>0.11</v>
       </c>
-      <c r="K19" s="343">
+      <c r="K19" s="341">
         <f>_xlfn.NORM.S.INV(J19)</f>
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="502">
+      <c r="V19" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16586,10 +16624,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="480">
+      <c r="F20" s="477">
         <v>1</v>
       </c>
-      <c r="G20" s="455">
+      <c r="G20" s="452">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16604,7 +16642,7 @@
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="502">
+      <c r="V20" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16612,10 +16650,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="480">
+      <c r="F21" s="477">
         <v>1</v>
       </c>
-      <c r="G21" s="455">
+      <c r="G21" s="452">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16631,7 +16669,7 @@
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="502">
+      <c r="V21" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16639,16 +16677,16 @@
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="480">
+      <c r="F22" s="477">
         <v>2</v>
       </c>
-      <c r="G22" s="455">
+      <c r="G22" s="452">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H22" s="263"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="502">
+      <c r="V22" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16656,16 +16694,16 @@
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="480"/>
-      <c r="G23" s="455" t="str">
+      <c r="F23" s="477"/>
+      <c r="G23" s="452" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" s="263"/>
-      <c r="J23" s="517"/>
-      <c r="K23" s="517"/>
+      <c r="J23" s="520"/>
+      <c r="K23" s="520"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="502">
+      <c r="V23" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16673,8 +16711,8 @@
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="480"/>
-      <c r="G24" s="455" t="str">
+      <c r="F24" s="477"/>
+      <c r="G24" s="452" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16695,7 +16733,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="502">
+      <c r="V24" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16723,7 +16761,7 @@
         <f>1-L25</f>
         <v>3.0109248427834245E-13</v>
       </c>
-      <c r="V25" s="502">
+      <c r="V25" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16744,7 +16782,7 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="502">
+      <c r="V26" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16764,7 +16802,7 @@
         <f>J26/SQRT(J27)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V27" s="502">
+      <c r="V27" s="499">
         <v>4</v>
       </c>
     </row>
@@ -16774,7 +16812,7 @@
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="H28" s="263"/>
-      <c r="V28" s="502">
+      <c r="V28" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16784,7 +16822,7 @@
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
       <c r="H29" s="263"/>
-      <c r="V29" s="502">
+      <c r="V29" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16793,7 +16831,7 @@
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="502">
+      <c r="V30" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16802,7 +16840,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="502">
+      <c r="V31" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16811,7 +16849,7 @@
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="502">
+      <c r="V32" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16820,7 +16858,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="502">
+      <c r="V33" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16829,7 +16867,7 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="502">
+      <c r="V34" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16838,7 +16876,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="502">
+      <c r="V35" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16847,7 +16885,7 @@
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="502">
+      <c r="V36" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16856,7 +16894,7 @@
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="502">
+      <c r="V37" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16865,7 +16903,7 @@
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="502">
+      <c r="V38" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16874,7 +16912,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="502">
+      <c r="V39" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16883,7 +16921,7 @@
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="502">
+      <c r="V40" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16892,7 +16930,7 @@
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="502">
+      <c r="V41" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16901,7 +16939,7 @@
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="502">
+      <c r="V42" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16910,7 +16948,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="502">
+      <c r="V43" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16919,7 +16957,7 @@
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="502">
+      <c r="V44" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16928,7 +16966,7 @@
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="502">
+      <c r="V45" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16937,7 +16975,7 @@
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="502">
+      <c r="V46" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16946,7 +16984,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="502">
+      <c r="V47" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16955,7 +16993,7 @@
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="502">
+      <c r="V48" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16964,7 +17002,7 @@
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="502">
+      <c r="V49" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16973,7 +17011,7 @@
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="502">
+      <c r="V50" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16982,7 +17020,7 @@
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="502">
+      <c r="V51" s="499">
         <v>3</v>
       </c>
     </row>
@@ -16991,7 +17029,7 @@
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="502">
+      <c r="V52" s="499">
         <v>3</v>
       </c>
     </row>
@@ -17000,7 +17038,7 @@
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="502">
+      <c r="V53" s="499">
         <v>3</v>
       </c>
     </row>
@@ -17009,7 +17047,7 @@
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="502">
+      <c r="V54" s="499">
         <v>3</v>
       </c>
     </row>
@@ -17018,237 +17056,237 @@
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="502">
+      <c r="V55" s="499">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:22">
-      <c r="V56" s="502">
+      <c r="V56" s="499">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="3:22">
-      <c r="V57" s="502">
+      <c r="V57" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="3:22">
-      <c r="V58" s="502">
+      <c r="V58" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:22">
-      <c r="V59" s="502">
+      <c r="V59" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:22">
-      <c r="V60" s="502">
+      <c r="V60" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="3:22">
-      <c r="V61" s="502">
+      <c r="V61" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="3:22">
-      <c r="V62" s="502">
+      <c r="V62" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:22">
-      <c r="V63" s="502">
+      <c r="V63" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:22">
-      <c r="V64" s="502">
+      <c r="V64" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="22:22">
-      <c r="V65" s="502">
+      <c r="V65" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="22:22">
-      <c r="V66" s="502">
+      <c r="V66" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="22:22">
-      <c r="V67" s="502">
+      <c r="V67" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="22:22">
-      <c r="V68" s="502">
+      <c r="V68" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="22:22">
-      <c r="V69" s="502">
+      <c r="V69" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="22:22">
-      <c r="V70" s="502">
+      <c r="V70" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="22:22">
-      <c r="V71" s="502">
+      <c r="V71" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="22:22">
-      <c r="V72" s="502">
+      <c r="V72" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="22:22">
-      <c r="V73" s="502">
+      <c r="V73" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="22:22">
-      <c r="V74" s="502">
+      <c r="V74" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="22:22">
-      <c r="V75" s="502">
+      <c r="V75" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="22:22">
-      <c r="V76" s="502">
+      <c r="V76" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="22:22">
-      <c r="V77" s="502">
+      <c r="V77" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="22:22">
-      <c r="V78" s="502">
+      <c r="V78" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="22:22">
-      <c r="V79" s="502">
+      <c r="V79" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="22:22">
-      <c r="V80" s="502">
+      <c r="V80" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="22:22">
-      <c r="V81" s="502">
+      <c r="V81" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="22:22">
-      <c r="V82" s="502">
+      <c r="V82" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="22:22">
-      <c r="V83" s="502">
+      <c r="V83" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="22:22">
-      <c r="V84" s="502">
+      <c r="V84" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="22:22">
-      <c r="V85" s="502">
+      <c r="V85" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="22:22">
-      <c r="V86" s="502">
+      <c r="V86" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="22:22">
-      <c r="V87" s="502">
+      <c r="V87" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="22:22">
-      <c r="V88" s="502">
+      <c r="V88" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="22:22">
-      <c r="V89" s="502">
+      <c r="V89" s="499">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="22:22">
-      <c r="V90" s="502">
+      <c r="V90" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="22:22">
-      <c r="V91" s="502">
+      <c r="V91" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="22:22">
-      <c r="V92" s="502">
+      <c r="V92" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="22:22">
-      <c r="V93" s="502">
+      <c r="V93" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="22:22">
-      <c r="V94" s="502">
+      <c r="V94" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="22:22">
-      <c r="V95" s="502">
+      <c r="V95" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="22:22">
-      <c r="V96" s="502">
+      <c r="V96" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="22:22">
-      <c r="V97" s="502">
+      <c r="V97" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="22:22">
-      <c r="V98" s="502">
+      <c r="V98" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="22:22">
-      <c r="V99" s="502">
+      <c r="V99" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="22:22">
-      <c r="V100" s="502">
+      <c r="V100" s="499">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="22:22">
-      <c r="V101" s="502">
+      <c r="V101" s="499">
         <v>1</v>
       </c>
     </row>
@@ -17271,8 +17309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+    <sheetView topLeftCell="J7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17314,20 +17352,20 @@
       <c r="D1" s="84"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
-      <c r="K1" s="354" t="s">
+      <c r="K1" s="352" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="355">
-        <v>90</v>
-      </c>
-      <c r="N1" s="304"/>
-      <c r="U1" s="339"/>
+      <c r="L1" s="353">
+        <v>99</v>
+      </c>
+      <c r="N1" s="303"/>
+      <c r="U1" s="337"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A2" s="551">
+      <c r="A2" s="513">
         <v>0</v>
       </c>
-      <c r="B2" s="551">
+      <c r="B2" s="513">
         <v>0.46200000000000002</v>
       </c>
       <c r="C2" s="106">
@@ -17341,38 +17379,38 @@
       <c r="E2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="351">
+      <c r="F2" s="349">
         <f>SUM(D2:D6)</f>
         <v>1.3689999999999998</v>
       </c>
-      <c r="G2" s="358" t="s">
+      <c r="G2" s="356" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="359">
-        <v>70.7</v>
+      <c r="H2" s="357">
+        <v>0.36</v>
       </c>
       <c r="I2" s="100" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="124">
         <f>H2</f>
-        <v>70.7</v>
-      </c>
-      <c r="K2" s="360"/>
-      <c r="L2" s="346"/>
-      <c r="N2" s="305"/>
+        <v>0.36</v>
+      </c>
+      <c r="K2" s="358"/>
+      <c r="L2" s="344"/>
+      <c r="N2" s="304"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
-      <c r="U2" s="340"/>
+      <c r="U2" s="338"/>
       <c r="X2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A3" s="551">
+      <c r="A3" s="513">
         <v>1</v>
       </c>
-      <c r="B3" s="551">
+      <c r="B3" s="513">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C3" s="106">
@@ -17386,14 +17424,14 @@
       <c r="E3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="352">
+      <c r="F3" s="350">
         <f>SUM(C2:C6)</f>
         <v>0.9738859019999998</v>
       </c>
-      <c r="G3" s="361" t="s">
+      <c r="G3" s="359" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="362">
+      <c r="H3" s="360">
         <v>2.1</v>
       </c>
       <c r="I3" s="100" t="s">
@@ -17401,23 +17439,23 @@
       </c>
       <c r="J3" s="121">
         <f>H3/SQRT(H4)</f>
-        <v>0.35000000000000003</v>
+        <v>9.391485505499117E-2</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="316"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="293" t="s">
+      <c r="L3" s="314"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="292" t="s">
         <v>102</v>
       </c>
       <c r="P3" s="74">
-        <v>177.8</v>
+        <v>0.155</v>
       </c>
       <c r="Q3" s="160"/>
-      <c r="R3" s="296">
+      <c r="R3" s="295">
         <f>(P3+P4)/2</f>
-        <v>179.4</v>
-      </c>
-      <c r="U3" s="340"/>
+        <v>0.26</v>
+      </c>
+      <c r="U3" s="338"/>
       <c r="V3" s="94"/>
       <c r="W3" s="76">
         <v>0.05</v>
@@ -17427,10 +17465,10 @@
       <c r="Z3" s="126"/>
     </row>
     <row r="4" spans="1:27" ht="18" thickBot="1">
-      <c r="A4" s="551">
+      <c r="A4" s="513">
         <v>2</v>
       </c>
-      <c r="B4" s="551">
+      <c r="B4" s="513">
         <v>0.246</v>
       </c>
       <c r="C4" s="106">
@@ -17444,48 +17482,48 @@
       <c r="E4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="353">
+      <c r="F4" s="351">
         <f>SQRT(F3)</f>
         <v>0.98685657620547873</v>
       </c>
-      <c r="G4" s="363" t="s">
+      <c r="G4" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="289">
-        <v>36</v>
+      <c r="H4" s="288">
+        <v>500</v>
       </c>
       <c r="I4" s="185"/>
-      <c r="J4" s="438">
+      <c r="J4" s="435">
         <f>SQRT(H6*(1-H6)/H4)</f>
-        <v>7.4833147735478833E-2</v>
-      </c>
-      <c r="K4" s="287"/>
+        <v>1.8525657883055057E-2</v>
+      </c>
+      <c r="K4" s="286"/>
       <c r="L4" s="274">
         <f>H6</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N4" s="331"/>
-      <c r="O4" s="293" t="s">
+        <v>0.78</v>
+      </c>
+      <c r="N4" s="329"/>
+      <c r="O4" s="292" t="s">
         <v>103</v>
       </c>
       <c r="P4" s="74">
-        <v>181</v>
-      </c>
-      <c r="Q4" s="295" t="s">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="Q4" s="294" t="s">
         <v>119</v>
       </c>
       <c r="R4" s="271">
         <f>(P4-P3)/2</f>
-        <v>1.5999999999999943</v>
-      </c>
-      <c r="U4" s="340"/>
-      <c r="V4" s="342" t="s">
+        <v>0.105</v>
+      </c>
+      <c r="U4" s="338"/>
+      <c r="V4" s="340" t="s">
         <v>122</v>
       </c>
       <c r="W4" s="76">
         <v>40</v>
       </c>
-      <c r="X4" s="306">
+      <c r="X4" s="305">
         <f>_xlfn.CHISQ.INV(W3,W4)</f>
         <v>26.509303196693114</v>
       </c>
@@ -17500,10 +17538,10 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="18" thickBot="1">
-      <c r="A5" s="551">
+      <c r="A5" s="513">
         <v>3</v>
       </c>
-      <c r="B5" s="551">
+      <c r="B5" s="513">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C5" s="106"/>
@@ -17511,47 +17549,47 @@
         <f t="shared" si="1"/>
         <v>0.20700000000000002</v>
       </c>
-      <c r="E5" s="439">
+      <c r="E5" s="436">
         <f>A2*B2+A3*B3</f>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="F5" s="218"/>
-      <c r="G5" s="363" t="s">
+      <c r="G5" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="289">
+      <c r="H5" s="288">
         <v>20000</v>
       </c>
-      <c r="I5" s="286" t="s">
+      <c r="I5" s="285" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="288">
+      <c r="J5" s="287">
         <f>H4*H6*(1-H6)</f>
-        <v>7.2576000000000009</v>
+        <v>85.799999999999983</v>
       </c>
       <c r="K5" s="283" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="182">
         <f>H4/H5</f>
-        <v>1.8E-3</v>
-      </c>
-      <c r="N5" s="332"/>
-      <c r="O5" s="294" t="s">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N5" s="330"/>
+      <c r="O5" s="293" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="74">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="Q5" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="297">
+      <c r="R5" s="296">
         <f>P5*R3</f>
-        <v>44850</v>
-      </c>
-      <c r="U5" s="340"/>
-      <c r="V5" s="329" t="s">
+        <v>390</v>
+      </c>
+      <c r="U5" s="338"/>
+      <c r="V5" s="327" t="s">
         <v>125</v>
       </c>
       <c r="W5" s="235">
@@ -17565,10 +17603,10 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A6" s="551">
+      <c r="A6" s="513">
         <v>4</v>
       </c>
-      <c r="B6" s="551">
+      <c r="B6" s="513">
         <v>0.14899999999999999</v>
       </c>
       <c r="C6" s="106"/>
@@ -17578,105 +17616,105 @@
       </c>
       <c r="E6" s="284"/>
       <c r="F6" s="218"/>
-      <c r="G6" s="363" t="s">
+      <c r="G6" s="361" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="289">
-        <v>0.28000000000000003</v>
+      <c r="H6" s="288">
+        <v>0.78</v>
       </c>
       <c r="I6" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="381">
+      <c r="J6" s="378">
         <f>ROUND(H8/H6, 0)</f>
-        <v>256</v>
+        <v>487</v>
       </c>
       <c r="K6" s="168" t="s">
         <v>159</v>
       </c>
       <c r="L6" s="124">
         <f>ROUND(10/(H6*(1-H6)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="N6" s="332"/>
+        <v>58</v>
+      </c>
+      <c r="N6" s="330"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
-      <c r="U6" s="340"/>
+      <c r="U6" s="338"/>
       <c r="V6" s="68"/>
       <c r="W6" s="235"/>
-      <c r="X6" s="343">
+      <c r="X6" s="341">
         <f>(W7-1)*W5^2 / W8^2</f>
         <v>45.992187499999993</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A7" s="310"/>
-      <c r="B7" s="314" t="s">
+      <c r="A7" s="309"/>
+      <c r="B7" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="313"/>
+      <c r="C7" s="311"/>
       <c r="D7" s="85"/>
       <c r="E7" s="153" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="66"/>
-      <c r="G7" s="361" t="s">
+      <c r="G7" s="359" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="302">
-        <v>0.35</v>
+      <c r="H7" s="301">
+        <v>81</v>
       </c>
       <c r="I7" s="283" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="274">
         <f>H7*SQRT(H4)</f>
-        <v>2.0999999999999996</v>
+        <v>1811.2150617748298</v>
       </c>
       <c r="K7" s="29"/>
-      <c r="L7" s="316"/>
-      <c r="N7" s="332"/>
+      <c r="L7" s="314"/>
+      <c r="N7" s="330"/>
       <c r="O7" s="178"/>
       <c r="P7" s="144">
-        <v>0.25</v>
-      </c>
-      <c r="Q7" s="299" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q7" s="298" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="300">
+      <c r="R7" s="299">
         <f>P7*(1-P7)* ((_xlfn.NORM.S.INV(1- (100-L1)/200))/P8)^2</f>
-        <v>563.65488626987712</v>
-      </c>
-      <c r="U7" s="340"/>
+        <v>1816.4872472129184</v>
+      </c>
+      <c r="U7" s="338"/>
       <c r="V7" s="127" t="s">
         <v>60</v>
       </c>
       <c r="W7" s="235">
         <v>15</v>
       </c>
-      <c r="X7" s="522" t="s">
+      <c r="X7" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="523"/>
-      <c r="Z7" s="524"/>
+      <c r="Y7" s="526"/>
+      <c r="Z7" s="527"/>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="280"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="313"/>
+      <c r="B8" s="310"/>
+      <c r="C8" s="311"/>
       <c r="D8" s="85"/>
       <c r="E8" s="155">
         <f>IF(B9="","",AVERAGE(B9:B30))</f>
-        <v>5.8</v>
+        <v>0.15580000000000002</v>
       </c>
       <c r="F8" s="66"/>
-      <c r="G8" s="361" t="s">
+      <c r="G8" s="359" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="289">
-        <v>71.7</v>
+      <c r="H8" s="288">
+        <v>380</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>43</v>
@@ -17690,69 +17728,69 @@
       <c r="L8" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="332"/>
-      <c r="O8" s="328" t="s">
+      <c r="N8" s="330"/>
+      <c r="O8" s="326" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="97">
         <v>0.03</v>
       </c>
-      <c r="Q8" s="301" t="s">
+      <c r="Q8" s="300" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="300">
+      <c r="R8" s="299">
         <f>0.25* ((_xlfn.NORM.S.INV(1- (100-L$1)/200))/P8)^2</f>
-        <v>751.53984835983624</v>
-      </c>
-      <c r="U8" s="340"/>
+        <v>1843.0268336170034</v>
+      </c>
+      <c r="U8" s="338"/>
       <c r="V8" s="281" t="s">
         <v>42</v>
       </c>
       <c r="W8" s="74">
         <v>1.6</v>
       </c>
-      <c r="X8" s="344" t="s">
+      <c r="X8" s="342" t="s">
         <v>134</v>
       </c>
-      <c r="Y8" s="347" t="s">
+      <c r="Y8" s="345" t="s">
         <v>133</v>
       </c>
-      <c r="Z8" s="349"/>
+      <c r="Z8" s="347"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" thickBot="1">
       <c r="A9" s="280"/>
-      <c r="B9" s="285">
-        <v>7</v>
-      </c>
-      <c r="C9" s="313"/>
+      <c r="B9" s="514">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C9" s="311"/>
       <c r="D9" s="85"/>
       <c r="E9" s="153" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="364" t="s">
+      <c r="G9" s="362" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="290">
+      <c r="H9" s="289">
         <v>83.75</v>
       </c>
       <c r="I9" s="277">
         <f>ROUND((H8-H2)/H3,2)</f>
-        <v>0.48</v>
+        <v>180.78</v>
       </c>
       <c r="J9" s="278">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
-        <v>0.68303065805932717</v>
+        <v>1</v>
       </c>
       <c r="K9" s="278">
         <f>1-J9</f>
-        <v>0.31696934194067283</v>
+        <v>0</v>
       </c>
       <c r="L9" s="279">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
-        <v>0.3169693416828796</v>
-      </c>
-      <c r="N9" s="332"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="330"/>
       <c r="O9" s="94"/>
       <c r="P9" s="76">
         <v>0.01</v>
@@ -17761,12 +17799,12 @@
         <v>67</v>
       </c>
       <c r="R9" s="140"/>
-      <c r="U9" s="340"/>
+      <c r="U9" s="338"/>
       <c r="X9" s="186">
         <f>CHIDIST(X6,W7-1)</f>
         <v>2.8119835991838909E-5</v>
       </c>
-      <c r="Y9" s="348">
+      <c r="Y9" s="346">
         <f>1-X9</f>
         <v>0.99997188016400818</v>
       </c>
@@ -17777,16 +17815,16 @@
     </row>
     <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
       <c r="A10" s="280"/>
-      <c r="B10" s="285">
-        <v>9</v>
-      </c>
-      <c r="C10" s="313"/>
+      <c r="B10" s="514">
+        <v>0.185</v>
+      </c>
+      <c r="C10" s="311"/>
       <c r="D10" s="85"/>
-      <c r="E10" s="350">
+      <c r="E10" s="348">
         <f>_xlfn.STDEV.S(B9:B30)</f>
-        <v>2.3874672772626648</v>
-      </c>
-      <c r="G10" s="365"/>
+        <v>9.4021037834920523E-2</v>
+      </c>
+      <c r="G10" s="363"/>
       <c r="H10" s="282" t="s">
         <v>112</v>
       </c>
@@ -17802,8 +17840,8 @@
       <c r="L10" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="332"/>
-      <c r="O10" s="308" t="s">
+      <c r="N10" s="330"/>
+      <c r="O10" s="307" t="s">
         <v>122</v>
       </c>
       <c r="P10" s="69">
@@ -17815,7 +17853,7 @@
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="340"/>
+      <c r="U10" s="338"/>
       <c r="W10" s="91">
         <v>10.8</v>
       </c>
@@ -17824,42 +17862,42 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" thickBot="1">
       <c r="A11" s="280"/>
-      <c r="B11" s="285">
-        <v>3</v>
-      </c>
-      <c r="C11" s="313"/>
+      <c r="B11" s="514">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C11" s="311"/>
       <c r="D11" s="85"/>
-      <c r="I11" s="356">
+      <c r="I11" s="354">
         <f>ROUND((H8-H2)/H7, 2)</f>
-        <v>2.86</v>
-      </c>
-      <c r="J11" s="357">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J11" s="355">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
-        <v>0.99788179495959539</v>
-      </c>
-      <c r="K11" s="357">
+        <v>0.99999863397475541</v>
+      </c>
+      <c r="K11" s="355">
         <f>1-J11</f>
-        <v>2.1182050404046082E-3</v>
+        <v>1.3660252445868437E-6</v>
       </c>
       <c r="L11" s="156">
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
-        <v>2.1182050404046082E-3</v>
-      </c>
-      <c r="N11" s="332"/>
-      <c r="O11" s="308" t="s">
+        <v>1.3660252445868437E-6</v>
+      </c>
+      <c r="N11" s="330"/>
+      <c r="O11" s="307" t="s">
         <v>115</v>
       </c>
       <c r="P11" s="69">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="306">
+      <c r="Q11" s="305">
         <f>TINV(2*P11, P10)</f>
         <v>0.85069979579045529</v>
       </c>
       <c r="R11" s="167"/>
       <c r="S11" s="111"/>
       <c r="T11" s="111"/>
-      <c r="U11" s="340"/>
+      <c r="U11" s="338"/>
       <c r="W11" s="91">
         <v>9</v>
       </c>
@@ -17871,38 +17909,38 @@
     </row>
     <row r="12" spans="1:27" ht="16.5" thickBot="1">
       <c r="A12" s="280"/>
-      <c r="B12" s="285">
-        <v>4</v>
-      </c>
-      <c r="C12" s="313"/>
+      <c r="B12" s="514">
+        <v>0.126</v>
+      </c>
+      <c r="C12" s="311"/>
       <c r="D12" s="85"/>
-      <c r="N12" s="332"/>
-      <c r="O12" s="518" t="s">
+      <c r="N12" s="330"/>
+      <c r="O12" s="521" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="519"/>
+      <c r="P12" s="522"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
-        <v>1.6838510133356521</v>
+        <v>2.7044592674331618</v>
       </c>
       <c r="R12" s="75"/>
       <c r="S12" s="29"/>
       <c r="T12" s="111"/>
-      <c r="U12" s="340"/>
+      <c r="U12" s="338"/>
       <c r="W12" s="132"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" thickBot="1">
       <c r="A13" s="280"/>
-      <c r="B13" s="285">
-        <v>6</v>
-      </c>
-      <c r="C13" s="313"/>
+      <c r="B13" s="514">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C13" s="311"/>
       <c r="D13" s="85"/>
       <c r="G13" s="128"/>
       <c r="H13" s="144">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="I13" s="200"/>
       <c r="J13" s="190"/>
@@ -17910,25 +17948,25 @@
       <c r="L13" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="303" t="s">
+      <c r="M13" s="302" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="332"/>
-      <c r="O13" s="307"/>
+      <c r="N13" s="330"/>
+      <c r="O13" s="306"/>
       <c r="P13" s="74"/>
       <c r="Q13" s="111"/>
       <c r="R13" s="66"/>
-      <c r="U13" s="340"/>
+      <c r="U13" s="338"/>
     </row>
     <row r="14" spans="1:27" ht="18" thickBot="1">
-      <c r="A14" s="315"/>
-      <c r="B14" s="312"/>
-      <c r="C14" s="313"/>
+      <c r="A14" s="313"/>
+      <c r="B14" s="514">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C14" s="311"/>
       <c r="D14" s="85"/>
       <c r="G14" s="90"/>
-      <c r="H14" s="91" t="s">
-        <v>178</v>
-      </c>
+      <c r="H14" s="91"/>
       <c r="I14" s="158" t="s">
         <v>138</v>
       </c>
@@ -17944,12 +17982,12 @@
       <c r="M14" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="332"/>
+      <c r="N14" s="330"/>
       <c r="O14" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="319">
-        <v>0.627</v>
+      <c r="P14" s="317">
+        <v>4.97</v>
       </c>
       <c r="Q14" s="70" t="s">
         <v>59</v>
@@ -17957,68 +17995,72 @@
       <c r="R14" s="160"/>
       <c r="S14" s="160"/>
       <c r="T14" s="29"/>
-      <c r="U14" s="340"/>
+      <c r="U14" s="338"/>
     </row>
     <row r="15" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A15" s="315"/>
-      <c r="B15" s="312"/>
-      <c r="C15" s="313"/>
+      <c r="A15" s="313"/>
+      <c r="B15" s="514">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C15" s="311"/>
       <c r="D15" s="85"/>
       <c r="G15" s="199"/>
       <c r="H15" s="97"/>
       <c r="I15" s="117">
         <f xml:space="preserve"> ROUND( (H13-H6) / SQRT(H6*(1-H6)/H4), 2)</f>
-        <v>-0.53</v>
+        <v>3.24</v>
       </c>
       <c r="J15" s="96">
         <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
-        <v>0.29805596539487639</v>
+        <v>0.99940235150206558</v>
       </c>
       <c r="K15" s="121">
         <f>1-J15</f>
-        <v>0.70194403460512356</v>
+        <v>5.976484979344221E-4</v>
       </c>
       <c r="L15" s="121">
         <f>2*J15</f>
-        <v>0.59611193078975278</v>
+        <v>1.9988047030041312</v>
       </c>
       <c r="M15" s="149">
         <f>2*K15</f>
-        <v>1.4038880692102471</v>
-      </c>
-      <c r="N15" s="332"/>
+        <v>1.1952969958688442E-3</v>
+      </c>
+      <c r="N15" s="330"/>
       <c r="O15" s="169" t="s">
         <v>125</v>
       </c>
       <c r="P15" s="235">
-        <v>0.64400000000000002</v>
+        <v>16.3</v>
       </c>
       <c r="Q15" s="121">
         <f xml:space="preserve"> TINV(1-L$1/100, P16 -1 )* P15 / SQRT(P16)</f>
-        <v>0.61398371794110274</v>
+        <v>14.614076556549602</v>
       </c>
       <c r="R15" s="117">
         <f>P14-Q15</f>
-        <v>1.3016282058897266E-2</v>
+        <v>-9.6440765565496029</v>
       </c>
       <c r="S15" s="117">
         <f>P14+Q15</f>
-        <v>1.2409837179411027</v>
+        <v>19.584076556549601</v>
       </c>
       <c r="T15" s="123"/>
-      <c r="U15" s="340"/>
+      <c r="U15" s="338"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="315"/>
-      <c r="B16" s="312"/>
-      <c r="C16" s="313"/>
+      <c r="A16" s="313"/>
+      <c r="B16" s="514">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C16" s="311"/>
       <c r="D16" s="85"/>
-      <c r="N16" s="332"/>
-      <c r="O16" s="309" t="s">
+      <c r="N16" s="330"/>
+      <c r="O16" s="308" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="235">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="168" t="s">
         <v>72</v>
@@ -18026,60 +18068,64 @@
       <c r="R16" s="117"/>
       <c r="S16" s="117"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="340"/>
+      <c r="U16" s="338"/>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="315"/>
-      <c r="B17" s="312"/>
-      <c r="C17" s="313"/>
+      <c r="A17" s="313"/>
+      <c r="B17" s="514">
+        <v>0.121</v>
+      </c>
+      <c r="C17" s="311"/>
       <c r="D17" s="85"/>
       <c r="G17" s="94"/>
       <c r="H17" s="91"/>
       <c r="I17" s="70"/>
       <c r="J17" s="111"/>
       <c r="K17" s="111"/>
-      <c r="N17" s="332"/>
-      <c r="O17" s="334" t="s">
+      <c r="N17" s="330"/>
+      <c r="O17" s="332" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="335">
-        <v>4</v>
+      <c r="P17" s="333">
+        <v>2</v>
       </c>
       <c r="Q17" s="189">
         <f>((_xlfn.NORM.S.INV(1- (100-L1)/200))*P15/P17)^2</f>
-        <v>7.0130391873607159E-2</v>
+        <v>440.70641948133141</v>
       </c>
       <c r="R17" s="123"/>
       <c r="S17" s="111"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="340"/>
+      <c r="U17" s="338"/>
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A18" s="315"/>
-      <c r="B18" s="312"/>
-      <c r="C18" s="313"/>
+      <c r="A18" s="313"/>
+      <c r="B18" s="514">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C18" s="311"/>
       <c r="D18" s="85"/>
       <c r="G18" s="94"/>
       <c r="H18" s="91"/>
       <c r="I18" s="114">
         <f>-_xlfn.NORM.S.INV( (1-L1/100)/2)</f>
-        <v>1.6448536269514726</v>
+        <v>2.5758293035488999</v>
       </c>
       <c r="J18" s="218"/>
       <c r="K18" s="218"/>
-      <c r="N18" s="332"/>
-      <c r="O18" s="336"/>
-      <c r="P18" s="338"/>
+      <c r="N18" s="330"/>
+      <c r="O18" s="334"/>
+      <c r="P18" s="336"/>
       <c r="Q18" s="177"/>
       <c r="R18" s="177"/>
-      <c r="S18" s="337"/>
-      <c r="T18" s="337"/>
-      <c r="U18" s="340"/>
+      <c r="S18" s="335"/>
+      <c r="T18" s="335"/>
+      <c r="U18" s="338"/>
     </row>
     <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="315"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="313"/>
+      <c r="A19" s="313"/>
+      <c r="B19" s="514"/>
+      <c r="C19" s="311"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
       <c r="H19" s="75"/>
@@ -18091,20 +18137,20 @@
       <c r="L19" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="332"/>
+      <c r="N19" s="330"/>
       <c r="O19" s="68"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="114"/>
       <c r="R19" s="114"/>
-      <c r="U19" s="340"/>
+      <c r="U19" s="338"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A20" s="315"/>
-      <c r="B20" s="316"/>
-      <c r="C20" s="313"/>
+      <c r="A20" s="313"/>
+      <c r="B20" s="514"/>
+      <c r="C20" s="311"/>
       <c r="D20" s="85"/>
-      <c r="G20" s="440"/>
-      <c r="H20" s="441"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="438"/>
       <c r="I20" s="70" t="s">
         <v>44</v>
       </c>
@@ -18117,7 +18163,7 @@
       <c r="L20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="332"/>
+      <c r="N20" s="330"/>
       <c r="O20" s="127" t="s">
         <v>60</v>
       </c>
@@ -18126,42 +18172,42 @@
       </c>
       <c r="Q20" s="138">
         <f>_xlfn.CHISQ.INV((1-L1/100)/2,P20-1)</f>
-        <v>7.2609439276700316</v>
+        <v>4.6009155717273398</v>
       </c>
       <c r="R20" s="138">
         <f>_xlfn.CHISQ.INV.RT((1-L1/100)/2,P20-1)</f>
-        <v>24.99579013972863</v>
-      </c>
-      <c r="U20" s="340"/>
+        <v>32.80132064579184</v>
+      </c>
+      <c r="U20" s="338"/>
     </row>
     <row r="21" spans="1:21" ht="21" thickBot="1">
-      <c r="A21" s="315"/>
-      <c r="B21" s="316"/>
-      <c r="C21" s="313"/>
+      <c r="A21" s="313"/>
+      <c r="B21" s="314"/>
+      <c r="C21" s="311"/>
       <c r="D21" s="85"/>
-      <c r="G21" s="291" t="s">
+      <c r="G21" s="290" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="292">
-        <v>-0.28000000000000003</v>
+      <c r="H21" s="291">
+        <v>-0.5</v>
       </c>
       <c r="I21" s="121">
         <f>_xlfn.NORM.S.DIST(H21,TRUE)</f>
-        <v>0.38973875244420275</v>
+        <v>0.30853753872598688</v>
       </c>
       <c r="J21" s="121">
         <f>1-I21</f>
-        <v>0.61026124755579725</v>
-      </c>
-      <c r="K21" s="324">
+        <v>0.69146246127401312</v>
+      </c>
+      <c r="K21" s="322">
         <f>2*I21</f>
-        <v>0.7794775048884055</v>
-      </c>
-      <c r="L21" s="324">
+        <v>0.61707507745197376</v>
+      </c>
+      <c r="L21" s="322">
         <f>2*J21</f>
-        <v>1.2205224951115945</v>
-      </c>
-      <c r="N21" s="332"/>
+        <v>1.3829249225480262</v>
+      </c>
+      <c r="N21" s="330"/>
       <c r="O21" s="68" t="s">
         <v>127</v>
       </c>
@@ -18174,16 +18220,16 @@
       <c r="R21" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="U21" s="340"/>
+      <c r="U21" s="338"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A22" s="315"/>
-      <c r="B22" s="316"/>
-      <c r="C22" s="313"/>
+      <c r="A22" s="313"/>
+      <c r="B22" s="314"/>
+      <c r="C22" s="311"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="520">
-        <v>0.5</v>
+      <c r="H22" s="523">
+        <v>0.05</v>
       </c>
       <c r="I22" s="70" t="s">
         <v>43</v>
@@ -18191,58 +18237,58 @@
       <c r="J22" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="325" t="s">
+      <c r="K22" s="323" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="326" t="s">
+      <c r="L22" s="324" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="327" t="s">
+      <c r="M22" s="325" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="332"/>
+      <c r="N22" s="330"/>
       <c r="O22" s="66"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="138">
         <f>(P20-1)*P21/R20</f>
-        <v>1.3802324234257854</v>
+        <v>1.0517869195741083</v>
       </c>
       <c r="R22" s="138">
         <f>(P20-1)*P21/Q20</f>
-        <v>4.7514483438616395</v>
-      </c>
-      <c r="U22" s="340"/>
+        <v>7.4985075170695925</v>
+      </c>
+      <c r="U22" s="338"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A23" s="315"/>
-      <c r="B23" s="316"/>
-      <c r="C23" s="313"/>
+      <c r="A23" s="313"/>
+      <c r="B23" s="314"/>
+      <c r="C23" s="311"/>
       <c r="D23" s="85"/>
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="521"/>
+      <c r="H23" s="524"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
-        <v>0</v>
+        <v>-1.6448536269514726</v>
       </c>
       <c r="J23" s="121">
         <f>_xlfn.NORM.S.INV(H22/2)</f>
-        <v>-0.67448975019608193</v>
+        <v>-1.9599639845400538</v>
       </c>
       <c r="K23" s="202">
         <f>-TINV(2*H22,H24)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="323">
+        <v>-1.650996151677472</v>
+      </c>
+      <c r="L23" s="321">
         <f>TINV(2*H22,H24)</f>
-        <v>0</v>
+        <v>1.650996151677472</v>
       </c>
       <c r="M23" s="89">
         <f>TINV(H22,H24)</f>
-        <v>0.68919507515393985</v>
-      </c>
-      <c r="N23" s="332"/>
+        <v>1.9695368676403495</v>
+      </c>
+      <c r="N23" s="330"/>
       <c r="O23" s="152" t="s">
         <v>128</v>
       </c>
@@ -18251,24 +18297,24 @@
       </c>
       <c r="Q23" s="138">
         <f>SQRT((P20-1)*(P23^2)/R20)</f>
-        <v>2.1690533097923015</v>
+        <v>1.8934681142722354</v>
       </c>
       <c r="R23" s="138">
         <f>SQRT((P20-1)*(P23^2)/Q20)</f>
-        <v>4.0244554055486947</v>
-      </c>
-      <c r="U23" s="340"/>
+        <v>5.0557027178453167</v>
+      </c>
+      <c r="U23" s="338"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="315"/>
-      <c r="B24" s="316"/>
-      <c r="C24" s="313"/>
+      <c r="A24" s="313"/>
+      <c r="B24" s="314"/>
+      <c r="C24" s="311"/>
       <c r="D24" s="85"/>
-      <c r="G24" s="308" t="s">
+      <c r="G24" s="307" t="s">
         <v>122</v>
       </c>
       <c r="H24" s="69">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="K24" s="140" t="s">
         <v>66</v>
@@ -18279,50 +18325,50 @@
       <c r="M24" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="N24" s="332"/>
+      <c r="N24" s="330"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="138">
         <f>Q23^2</f>
-        <v>4.7047922607209376</v>
+        <v>3.5852214997656549</v>
       </c>
       <c r="R24" s="138">
         <f>R23^2</f>
-        <v>16.196241311250109</v>
-      </c>
-      <c r="U24" s="340"/>
+        <v>25.560129971228523</v>
+      </c>
+      <c r="U24" s="338"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A25" s="315"/>
-      <c r="B25" s="316"/>
-      <c r="C25" s="313"/>
+      <c r="A25" s="313"/>
+      <c r="B25" s="314"/>
+      <c r="C25" s="311"/>
       <c r="D25" s="85"/>
       <c r="K25" s="121">
         <f>IF(J29 &gt;=10,  _xlfn.NORM.S.DIST(K27,TRUE), _xlfn.BINOM.DIST(H28, H26, H27, TRUE))</f>
-        <v>1.8283286635241601E-6</v>
+        <v>0.99560351165187866</v>
       </c>
       <c r="L25" s="121">
         <f>1-K25</f>
-        <v>0.99999817167133642</v>
+        <v>4.3964883481213413E-3</v>
       </c>
       <c r="M25" s="121">
         <f>2*L25</f>
-        <v>1.9999963433426728</v>
-      </c>
-      <c r="N25" s="332"/>
+        <v>8.7929766962426825E-3</v>
+      </c>
+      <c r="N25" s="330"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="320"/>
-      <c r="U25" s="340"/>
+      <c r="Q25" s="318"/>
+      <c r="U25" s="338"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" thickBot="1">
-      <c r="A26" s="315"/>
-      <c r="B26" s="316"/>
-      <c r="C26" s="313"/>
+      <c r="A26" s="313"/>
+      <c r="B26" s="314"/>
+      <c r="C26" s="311"/>
       <c r="D26" s="85"/>
       <c r="G26" s="128" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="144">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="I26" s="70" t="s">
         <v>32</v>
@@ -18339,12 +18385,12 @@
       <c r="M26" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="332"/>
+      <c r="N26" s="330"/>
       <c r="O26" s="230" t="s">
         <v>68</v>
       </c>
       <c r="P26" s="144">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="113" t="s">
         <v>90</v>
@@ -18352,89 +18398,92 @@
       <c r="R26" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="345"/>
-      <c r="T26" s="346"/>
-      <c r="U26" s="340"/>
+      <c r="S26" s="343"/>
+      <c r="T26" s="344"/>
+      <c r="U26" s="338"/>
     </row>
     <row r="27" spans="1:21" ht="20.25" thickBot="1">
-      <c r="A27" s="315"/>
-      <c r="B27" s="316"/>
-      <c r="C27" s="313"/>
+      <c r="A27" s="313"/>
+      <c r="B27" s="314"/>
+      <c r="C27" s="311"/>
       <c r="D27" s="85"/>
       <c r="G27" s="90" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="131">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="I27" s="124">
         <f>H26*H27</f>
-        <v>67.5</v>
-      </c>
-      <c r="J27" s="321">
+        <v>860</v>
+      </c>
+      <c r="J27" s="319">
         <f>SQRT(H26*H27*(1-H27))</f>
-        <v>7.0196153740785538</v>
+        <v>22.140460699813815</v>
       </c>
       <c r="K27" s="130">
         <f>ROUND((H28 - I27)/J27,2)</f>
-        <v>-4.63</v>
+        <v>2.62</v>
       </c>
       <c r="L27" s="121">
         <f>_xlfn.NORM.S.DIST(K27,TRUE)</f>
-        <v>1.8283286635241601E-6</v>
+        <v>0.99560351165187866</v>
       </c>
       <c r="M27" s="149">
         <f>1-L27</f>
-        <v>0.99999817167133642</v>
-      </c>
-      <c r="N27" s="332"/>
-      <c r="O27" s="330" t="s">
+        <v>4.3964883481213413E-3</v>
+      </c>
+      <c r="N27" s="330"/>
+      <c r="O27" s="328" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="91">
-        <v>2580</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Q27" s="121">
         <f xml:space="preserve"> (P28 - P29) * SQRT(P26) / P27</f>
-        <v>9.3474418604651159</v>
+        <v>1.2110850613410817</v>
       </c>
       <c r="R27" s="121">
         <f>2*(_xlfn.T.DIST(Q27, P26-1, TRUE))</f>
-        <v>1.9999999999978002</v>
+        <v>1.7432966580060829</v>
       </c>
       <c r="S27" s="130">
         <f>P28-Q29*P27/SQRT(P26)</f>
-        <v>2843.8230819998867</v>
+        <v>5.9397306075458928E-2</v>
       </c>
       <c r="T27" s="130">
         <f>P28+Q29*P27/SQRT(P26)</f>
-        <v>4080.1769180001133</v>
-      </c>
-      <c r="U27" s="340"/>
+        <v>0.25260269392454104</v>
+      </c>
+      <c r="U27" s="338"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A28" s="315"/>
-      <c r="B28" s="316"/>
-      <c r="C28" s="313"/>
+      <c r="A28" s="313"/>
+      <c r="B28" s="314"/>
+      <c r="C28" s="311"/>
       <c r="D28" s="85"/>
       <c r="G28" s="90" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="91">
-        <v>35</v>
+        <v>918</v>
       </c>
       <c r="I28" s="126"/>
-      <c r="J28" s="298" t="s">
+      <c r="J28" s="297" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="550"/>
+      <c r="K28" s="512"/>
+      <c r="L28" s="70" t="s">
+        <v>178</v>
+      </c>
       <c r="M28" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="N28" s="332"/>
+      <c r="N28" s="330"/>
       <c r="O28" s="94"/>
       <c r="P28" s="99">
-        <v>3462</v>
+        <v>0.156</v>
       </c>
       <c r="Q28" s="70"/>
       <c r="R28" s="70" t="s">
@@ -18443,58 +18492,62 @@
       <c r="S28" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="U28" s="340"/>
+      <c r="U28" s="338"/>
     </row>
     <row r="29" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A29" s="315"/>
-      <c r="B29" s="316"/>
-      <c r="C29" s="313"/>
+      <c r="A29" s="313"/>
+      <c r="B29" s="314"/>
+      <c r="C29" s="311"/>
       <c r="D29" s="85"/>
-      <c r="G29" s="364" t="s">
+      <c r="G29" s="362" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="97">
-        <v>6.5</v>
+        <v>38</v>
       </c>
       <c r="I29" s="138">
         <f xml:space="preserve"> H28/H26</f>
-        <v>0.14000000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J29" s="117">
         <f>H26*I29*(1-I29)</f>
-        <v>30.099999999999998</v>
-      </c>
-      <c r="K29" s="548">
+        <v>496.63799999999992</v>
+      </c>
+      <c r="K29" s="510">
         <f>(H28+2)/(H26+4)</f>
-        <v>0.14566929133858267</v>
+        <v>0.45908183632734528</v>
+      </c>
+      <c r="L29" s="515">
+        <f>L27*2</f>
+        <v>1.9912070233037573</v>
       </c>
       <c r="M29" s="121">
         <f xml:space="preserve"> M27 - 1 + _xlfn.NORM.S.DIST(ROUND((H29 - I27)/J27,2),TRUE)</f>
-        <v>-1.8283286635760373E-6</v>
-      </c>
-      <c r="N29" s="332"/>
+        <v>-0.99560351165187866</v>
+      </c>
+      <c r="N29" s="330"/>
       <c r="O29" s="177"/>
       <c r="P29" s="97">
-        <v>16.8</v>
+        <v>0.12</v>
       </c>
       <c r="Q29" s="121">
         <f>TINV((100-L1)/100, P26-1)</f>
-        <v>1.6772241961243386</v>
+        <v>3.2498355415921263</v>
       </c>
       <c r="R29" s="121">
         <f>1-_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
-        <v>1.0998979504961426E-12</v>
+        <v>0.12835167099695854</v>
       </c>
       <c r="S29" s="121">
         <f>_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
-        <v>0.9999999999989001</v>
-      </c>
-      <c r="U29" s="340"/>
+        <v>0.87164832900304146</v>
+      </c>
+      <c r="U29" s="338"/>
     </row>
     <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A30" s="317"/>
-      <c r="B30" s="318"/>
-      <c r="C30" s="313"/>
+      <c r="A30" s="315"/>
+      <c r="B30" s="316"/>
+      <c r="C30" s="311"/>
       <c r="D30" s="85"/>
       <c r="I30" s="128" t="s">
         <v>70</v>
@@ -18506,33 +18559,33 @@
         <v>58</v>
       </c>
       <c r="M30" s="257"/>
-      <c r="N30" s="332"/>
+      <c r="N30" s="330"/>
       <c r="O30" s="145"/>
       <c r="P30" s="123"/>
       <c r="Q30" s="94"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="322" t="s">
+      <c r="S30" s="320" t="s">
         <v>66</v>
       </c>
       <c r="T30" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="U30" s="340"/>
+      <c r="U30" s="338"/>
     </row>
     <row r="31" spans="1:21" ht="20.25" thickBot="1">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J31" s="116">
         <f>1-I31</f>
-        <v>0.95</v>
+        <v>0.995</v>
       </c>
       <c r="K31" s="112">
         <f>_xlfn.NORM.S.INV(J31)</f>
-        <v>1.6448536269514715</v>
-      </c>
-      <c r="N31" s="332"/>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="N31" s="330"/>
       <c r="O31" s="147" t="s">
         <v>61</v>
       </c>
@@ -18551,7 +18604,7 @@
       <c r="T31" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="340"/>
+      <c r="U31" s="338"/>
     </row>
     <row r="32" spans="1:21" ht="20.25" thickBot="1">
       <c r="I32" s="113" t="s">
@@ -18559,13 +18612,13 @@
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="549" t="s">
+      <c r="L32" s="511" t="s">
         <v>177</v>
       </c>
       <c r="M32" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="332"/>
+      <c r="N32" s="330"/>
       <c r="O32" s="148" t="s">
         <v>52</v>
       </c>
@@ -18588,34 +18641,34 @@
         <f>2*R32</f>
         <v>1.0231309026183606</v>
       </c>
-      <c r="U32" s="340"/>
+      <c r="U32" s="338"/>
     </row>
     <row r="33" spans="9:21" ht="16.5" thickBot="1">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
-        <v>3.6096949005315529E-2</v>
+        <v>2.8701662748602093E-2</v>
       </c>
       <c r="J33" s="114">
         <f>I29-I33</f>
-        <v>0.10390305099468448</v>
+        <v>0.43029833725139793</v>
       </c>
       <c r="K33" s="114">
         <f>I29+I33</f>
-        <v>0.17609694900531553</v>
+        <v>0.4877016627486021</v>
       </c>
       <c r="L33" s="202">
         <f>K29-K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>0.10926040368200646</v>
+        <v>0.43040844521990729</v>
       </c>
       <c r="M33" s="89">
         <f>K29+K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>0.18207817899515888</v>
-      </c>
-      <c r="N33" s="333"/>
-      <c r="U33" s="340"/>
+        <v>0.48775522743478328</v>
+      </c>
+      <c r="N33" s="331"/>
+      <c r="U33" s="338"/>
     </row>
     <row r="34" spans="9:21" ht="16.5" thickBot="1">
-      <c r="U34" s="341"/>
+      <c r="U34" s="339"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19436,8 +19489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -19455,7 +19508,7 @@
     <col min="13" max="14" width="9.7109375" style="132" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="29" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="17" width="1.28515625" style="389" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" style="386" customWidth="1"/>
     <col min="18" max="18" width="7.28515625" style="29" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" style="29" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" style="29" customWidth="1"/>
@@ -19482,14 +19535,14 @@
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="151"/>
-      <c r="E1" s="374" t="s">
+      <c r="E1" s="371" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="375" t="s">
+      <c r="F1" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="525"/>
-      <c r="H1" s="526"/>
+      <c r="G1" s="528"/>
+      <c r="H1" s="529"/>
       <c r="I1" s="195"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
@@ -19501,7 +19554,7 @@
       <c r="R1" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="443">
+      <c r="S1" s="440">
         <f>SUM(S4:S18)</f>
         <v>100</v>
       </c>
@@ -19532,10 +19585,10 @@
       <c r="F2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="380" t="s">
+      <c r="G2" s="377" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="380" t="s">
+      <c r="H2" s="377" t="s">
         <v>146</v>
       </c>
       <c r="I2" s="154"/>
@@ -19543,22 +19596,22 @@
         <v>56</v>
       </c>
       <c r="K2" s="197">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L2" s="111"/>
       <c r="M2" s="111"/>
       <c r="N2" s="94"/>
       <c r="O2" s="75"/>
       <c r="P2" s="75"/>
-      <c r="Q2" s="391"/>
-      <c r="R2" s="390" t="s">
+      <c r="Q2" s="388"/>
+      <c r="R2" s="387" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="32">
         <v>100</v>
       </c>
       <c r="T2" s="132"/>
-      <c r="U2" s="400"/>
+      <c r="U2" s="397"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -19570,9 +19623,9 @@
       <c r="AD2" s="75"/>
     </row>
     <row r="3" spans="1:34" ht="17.25" thickBot="1">
-      <c r="A3" s="473"/>
-      <c r="B3" s="473"/>
-      <c r="C3" s="369" t="s">
+      <c r="A3" s="470"/>
+      <c r="B3" s="470"/>
+      <c r="C3" s="367" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="154"/>
@@ -19602,19 +19655,19 @@
       <c r="N3" s="123"/>
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
-      <c r="Q3" s="391"/>
-      <c r="R3" s="369" t="s">
+      <c r="Q3" s="388"/>
+      <c r="R3" s="367" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="369" t="s">
+      <c r="S3" s="367" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="387" t="s">
+      <c r="T3" s="384" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="400"/>
-      <c r="V3" s="408"/>
-      <c r="W3" s="409"/>
+      <c r="U3" s="397"/>
+      <c r="V3" s="405"/>
+      <c r="W3" s="406"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -19631,13 +19684,13 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="466">
+      <c r="A4" s="463">
         <v>9.1</v>
       </c>
-      <c r="B4" s="466">
+      <c r="B4" s="463">
         <v>12.9</v>
       </c>
-      <c r="C4" s="368">
+      <c r="C4" s="366">
         <f>A4-B4</f>
         <v>-3.8000000000000007</v>
       </c>
@@ -19652,13 +19705,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="463"/>
+      <c r="H4" s="460"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
-      <c r="Q4" s="391">
+      <c r="Q4" s="388">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
         <v>22.502717391304348</v>
       </c>
@@ -19669,21 +19722,21 @@
       <c r="S4" s="175">
         <v>23</v>
       </c>
-      <c r="T4" s="381">
+      <c r="T4" s="378">
         <f>S$2*R4</f>
         <v>25</v>
       </c>
-      <c r="U4" s="400">
+      <c r="U4" s="397">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
         <v>0.16</v>
       </c>
-      <c r="V4" s="410">
+      <c r="V4" s="407">
         <f>SUM(Q4:Q15)</f>
         <v>98.010040218939679</v>
       </c>
-      <c r="W4" s="411">
+      <c r="W4" s="408">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
-        <v>7.8147279032511792</v>
+        <v>11.344866730144371</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -19703,13 +19756,13 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A5" s="466">
+      <c r="A5" s="463">
         <v>9</v>
       </c>
-      <c r="B5" s="466">
+      <c r="B5" s="463">
         <v>13.8</v>
       </c>
-      <c r="C5" s="368">
+      <c r="C5" s="366">
         <f t="shared" ref="C5:C15" si="0">A5-B5</f>
         <v>-4.8000000000000007</v>
       </c>
@@ -19733,7 +19786,7 @@
       <c r="L5" s="123"/>
       <c r="O5" s="75"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="391">
+      <c r="Q5" s="388">
         <f t="shared" ref="Q5:Q23" si="2">IF(S5=0,0, (R5-S5)^2 / S5)</f>
         <v>23.502604166666668</v>
       </c>
@@ -19743,11 +19796,11 @@
       <c r="S5" s="175">
         <v>24</v>
       </c>
-      <c r="T5" s="381">
+      <c r="T5" s="378">
         <f t="shared" ref="T5:T15" si="3">S$2*R5</f>
         <v>25</v>
       </c>
-      <c r="U5" s="400">
+      <c r="U5" s="397">
         <f t="shared" ref="U5:U17" si="4">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
         <v>0.04</v>
       </c>
@@ -19771,13 +19824,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A6" s="466">
+      <c r="A6" s="463">
         <v>12.7</v>
       </c>
-      <c r="B6" s="466">
+      <c r="B6" s="463">
         <v>14</v>
       </c>
-      <c r="C6" s="368">
+      <c r="C6" s="366">
         <f t="shared" si="0"/>
         <v>-1.3000000000000007</v>
       </c>
@@ -19794,7 +19847,7 @@
         <v>141</v>
       </c>
       <c r="P6" s="140"/>
-      <c r="Q6" s="391">
+      <c r="Q6" s="388">
         <f t="shared" si="2"/>
         <v>25.502403846153847</v>
       </c>
@@ -19804,18 +19857,18 @@
       <c r="S6" s="175">
         <v>26</v>
       </c>
-      <c r="T6" s="381">
+      <c r="T6" s="378">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U6" s="400">
+      <c r="U6" s="397">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="V6" s="412" t="s">
+      <c r="V6" s="409" t="s">
         <v>149</v>
       </c>
-      <c r="W6" s="380" t="s">
+      <c r="W6" s="377" t="s">
         <v>146</v>
       </c>
       <c r="X6" s="3"/>
@@ -19836,13 +19889,13 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="466">
+      <c r="A7" s="463">
         <v>11.8</v>
       </c>
-      <c r="B7" s="466">
+      <c r="B7" s="463">
         <v>11.3</v>
       </c>
-      <c r="C7" s="368">
+      <c r="C7" s="366">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -19859,7 +19912,7 @@
         <v>76</v>
       </c>
       <c r="K7" s="144">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="L7" s="100" t="s">
         <v>40</v>
@@ -19869,8 +19922,10 @@
       <c r="O7" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="373"/>
-      <c r="Q7" s="391">
+      <c r="P7" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="388">
         <f t="shared" si="2"/>
         <v>26.502314814814813</v>
       </c>
@@ -19880,15 +19935,15 @@
       <c r="S7" s="175">
         <v>27</v>
       </c>
-      <c r="T7" s="381">
+      <c r="T7" s="378">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U7" s="400">
+      <c r="U7" s="397">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
-      <c r="V7" s="413">
+      <c r="V7" s="410">
         <f>SUM(U4:U17)</f>
         <v>0.4</v>
       </c>
@@ -19896,11 +19951,11 @@
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
         <v>0.94024249483936073</v>
       </c>
-      <c r="X7" s="417">
+      <c r="X7" s="414">
         <f>1-W7</f>
         <v>5.9757505160639268E-2</v>
       </c>
-      <c r="Y7" s="469">
+      <c r="Y7" s="466">
         <f>2*W7</f>
         <v>1.8804849896787215</v>
       </c>
@@ -19923,13 +19978,13 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="466">
+      <c r="A8" s="463">
         <v>11.5</v>
       </c>
-      <c r="B8" s="466">
+      <c r="B8" s="463">
         <v>7.7</v>
       </c>
-      <c r="C8" s="368">
+      <c r="C8" s="366">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
@@ -19955,40 +20010,43 @@
         <v>75</v>
       </c>
       <c r="K8" s="91">
-        <v>253</v>
+        <v>556</v>
       </c>
       <c r="L8" s="138">
         <f xml:space="preserve"> (K7+K10) / (K8+K11)</f>
-        <v>0.45534150612959717</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="M8" s="138">
         <f>K7/K8</f>
-        <v>0.466403162055336</v>
+        <v>0.33812949640287771</v>
       </c>
       <c r="N8" s="179">
         <f>K10/K11</f>
-        <v>0.44654088050314467</v>
+        <v>0.36967632027257241</v>
       </c>
       <c r="O8" s="138">
         <f>(ABS(K7-K10)-1)/SQRT(K7+K10)</f>
-        <v>1.4263994477758974</v>
-      </c>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="391">
+        <v>1.3913311859998692</v>
+      </c>
+      <c r="P8" s="121">
+        <f>SQRT(  M8*(1-M8)/K8 + N8*(1-N8)/K11 )</f>
+        <v>2.8274982810400445E-2</v>
+      </c>
+      <c r="Q8" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="175"/>
       <c r="S8" s="175"/>
-      <c r="T8" s="381">
+      <c r="T8" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="400">
+      <c r="U8" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="414" t="s">
+      <c r="V8" s="411" t="s">
         <v>150</v>
       </c>
       <c r="W8" s="3"/>
@@ -20013,13 +20071,13 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A9" s="466">
+      <c r="A9" s="463">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B9" s="466">
+      <c r="B9" s="463">
         <v>8.9</v>
       </c>
-      <c r="C9" s="368">
+      <c r="C9" s="366">
         <f t="shared" si="0"/>
         <v>0.29999999999999893</v>
       </c>
@@ -20045,21 +20103,21 @@
       <c r="P9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="391">
+      <c r="Q9" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="175"/>
       <c r="S9" s="175"/>
-      <c r="T9" s="381">
+      <c r="T9" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9" s="400">
+      <c r="U9" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9" s="415">
+      <c r="V9" s="412">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
         <v>25</v>
       </c>
@@ -20082,13 +20140,13 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A10" s="466">
+      <c r="A10" s="463">
         <v>13.5</v>
       </c>
-      <c r="B10" s="466">
+      <c r="B10" s="463">
         <v>13.2</v>
       </c>
-      <c r="C10" s="368">
+      <c r="C10" s="366">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
@@ -20098,26 +20156,26 @@
       </c>
       <c r="E10" s="171">
         <f xml:space="preserve"> H10* F8 /SQRT(A1)</f>
-        <v>3.2208706743009405</v>
+        <v>4.7666698504212173</v>
       </c>
       <c r="F10" s="189">
         <f>E8-E10</f>
-        <v>-2.9583706743009408</v>
-      </c>
-      <c r="G10" s="462">
+        <v>-4.504169850421218</v>
+      </c>
+      <c r="G10" s="459">
         <f>E8+E10</f>
-        <v>3.4833706743009403</v>
+        <v>5.0291698504212166</v>
       </c>
       <c r="H10" s="184">
         <f>TINV(1-K2/100, A$1- 1)</f>
-        <v>2.3646242515927849</v>
+        <v>3.4994832973504928</v>
       </c>
       <c r="I10" s="154"/>
       <c r="J10" s="145" t="s">
         <v>77</v>
       </c>
       <c r="K10" s="91">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="L10" s="70" t="s">
         <v>79</v>
@@ -20134,17 +20192,17 @@
       <c r="P10" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="391">
+      <c r="Q10" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="175"/>
       <c r="S10" s="175"/>
-      <c r="T10" s="381">
+      <c r="T10" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" s="400">
+      <c r="U10" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20168,13 +20226,13 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A11" s="466">
+      <c r="A11" s="463">
         <v>15.4</v>
       </c>
-      <c r="B11" s="466">
+      <c r="B11" s="463">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C11" s="368">
+      <c r="C11" s="366">
         <f t="shared" si="0"/>
         <v>7.1</v>
       </c>
@@ -20184,52 +20242,52 @@
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="123"/>
-      <c r="G11" s="384"/>
-      <c r="H11" s="385"/>
+      <c r="G11" s="381"/>
+      <c r="H11" s="382"/>
       <c r="I11" s="154"/>
       <c r="J11" s="145" t="s">
         <v>74</v>
       </c>
       <c r="K11" s="91">
-        <v>318</v>
+        <v>587</v>
       </c>
       <c r="L11" s="138">
         <f>(M8-N8 ) / (SQRT(L8*(1-L8)) * SQRT(1/K8+1/K11))</f>
-        <v>0.47342821818183928</v>
+        <v>-1.1144985560956782</v>
       </c>
       <c r="M11" s="96">
         <f>_xlfn.NORM.S.DIST(L11,TRUE)</f>
-        <v>0.68204614909276795</v>
+        <v>0.13253268177649927</v>
       </c>
       <c r="N11" s="121">
         <f>1-M11</f>
-        <v>0.31795385090723205</v>
+        <v>0.86746731822350076</v>
       </c>
       <c r="O11" s="121">
         <f>2*M11</f>
-        <v>1.3640922981855359</v>
+        <v>0.26506536355299853</v>
       </c>
       <c r="P11" s="149">
         <f>2*N11</f>
-        <v>0.6359077018144641</v>
-      </c>
-      <c r="Q11" s="391">
+        <v>1.7349346364470015</v>
+      </c>
+      <c r="Q11" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="175"/>
       <c r="S11" s="175"/>
-      <c r="T11" s="381">
+      <c r="T11" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11" s="400">
+      <c r="U11" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="444" t="s">
+      <c r="X11" s="441" t="s">
         <v>163</v>
       </c>
       <c r="Y11" s="3"/>
@@ -20249,9 +20307,9 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A12" s="464"/>
-      <c r="B12" s="465"/>
-      <c r="C12" s="368">
+      <c r="A12" s="461"/>
+      <c r="B12" s="462"/>
+      <c r="C12" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20259,20 +20317,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="372" t="s">
+      <c r="E12" s="370" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="228">
         <f>E$5^2/A$1</f>
         <v>0.67919642857142992</v>
       </c>
-      <c r="G12" s="386">
+      <c r="G12" s="383">
         <f xml:space="preserve"> E3-G3 -H14</f>
-        <v>8.7235800832978736</v>
+        <v>7.7883044486114947</v>
       </c>
       <c r="H12" s="238">
         <f>E3-G3+H14</f>
-        <v>12.621113360175711</v>
+        <v>13.55638899486209</v>
       </c>
       <c r="I12" s="154"/>
       <c r="J12" s="221"/>
@@ -20282,32 +20340,32 @@
       <c r="M12" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="527"/>
-      <c r="O12" s="528"/>
+      <c r="N12" s="530"/>
+      <c r="O12" s="531"/>
       <c r="P12" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="391">
+      <c r="Q12" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="175"/>
       <c r="S12" s="175"/>
-      <c r="T12" s="381">
+      <c r="T12" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12" s="400">
+      <c r="U12" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="418" t="s">
+      <c r="V12" s="415" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="419">
+      <c r="W12" s="416">
         <v>769</v>
       </c>
-      <c r="X12" s="446">
+      <c r="X12" s="443">
         <f>W12*W13</f>
         <v>107.66000000000001</v>
       </c>
@@ -20328,9 +20386,9 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A13" s="461"/>
-      <c r="B13" s="461"/>
-      <c r="C13" s="368">
+      <c r="A13" s="458"/>
+      <c r="B13" s="458"/>
+      <c r="C13" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20356,45 +20414,45 @@
       <c r="K13" s="131"/>
       <c r="L13" s="86">
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
-        <v>8.2245126945467512E-2</v>
-      </c>
-      <c r="M13" s="366">
+        <v>7.2831529280370899E-2</v>
+      </c>
+      <c r="M13" s="364">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
-        <v>1.9599639845400536</v>
+        <v>2.5758293035488999</v>
       </c>
       <c r="N13" s="186">
         <f>M8-N8-L13</f>
-        <v>-6.2382845393276182E-2</v>
+        <v>-0.10437835315006561</v>
       </c>
       <c r="O13" s="187">
         <f>M8-N8+L13</f>
-        <v>0.10210740849765884</v>
-      </c>
-      <c r="P13" s="442">
+        <v>4.1284705410676192E-2</v>
+      </c>
+      <c r="P13" s="439">
         <f>2*M11</f>
-        <v>1.3640922981855359</v>
-      </c>
-      <c r="Q13" s="391">
+        <v>0.26506536355299853</v>
+      </c>
+      <c r="Q13" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
-      <c r="T13" s="381">
+      <c r="T13" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U13" s="400">
+      <c r="U13" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="418" t="s">
+      <c r="V13" s="415" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="445">
+      <c r="W13" s="442">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X13" s="448" t="s">
+      <c r="X13" s="445" t="s">
         <v>164</v>
       </c>
       <c r="Y13" s="3"/>
@@ -20414,9 +20472,9 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A14" s="461"/>
-      <c r="B14" s="461"/>
-      <c r="C14" s="368">
+      <c r="A14" s="458"/>
+      <c r="B14" s="458"/>
+      <c r="C14" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20433,17 +20491,17 @@
       </c>
       <c r="G14" s="121">
         <f>TINV(1-K2/100, F14)</f>
-        <v>2.3646242515927849</v>
+        <v>3.4994832973504928</v>
       </c>
       <c r="H14" s="121">
         <f xml:space="preserve"> G14 * SQRT( E5^2 /A1 + G5^2/B1)</f>
-        <v>1.9487666384389182</v>
+        <v>2.8840422731252975</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="367">
+      <c r="K14" s="365">
         <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="70" t="s">
@@ -20453,27 +20511,27 @@
       <c r="N14" s="94"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
-      <c r="Q14" s="391">
+      <c r="Q14" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
-      <c r="T14" s="381">
+      <c r="T14" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14" s="400">
+      <c r="U14" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="420" t="s">
+      <c r="V14" s="417" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="421">
+      <c r="W14" s="418">
         <v>30</v>
       </c>
-      <c r="X14" s="447">
+      <c r="X14" s="444">
         <f>W12-X12</f>
         <v>661.34</v>
       </c>
@@ -20494,43 +20552,43 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="18" thickBot="1">
-      <c r="A15" s="461"/>
-      <c r="B15" s="461"/>
-      <c r="C15" s="368">
+      <c r="A15" s="458"/>
+      <c r="B15" s="458"/>
+      <c r="C15" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="379">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="211"/>
       <c r="F15" s="211"/>
-      <c r="G15" s="529" t="s">
+      <c r="G15" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="530"/>
+      <c r="H15" s="533"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
         <f xml:space="preserve"> (M8-N8-K14) /SQRT(M8*(1-M8)/K8 + N8*(1-N8)/K11)</f>
-        <v>-2.8629732859266332</v>
+        <v>-6.0670885291075862</v>
       </c>
       <c r="M15" s="138"/>
       <c r="N15" s="218"/>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
-      <c r="Q15" s="391">
+      <c r="Q15" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="396"/>
-      <c r="S15" s="396"/>
-      <c r="T15" s="381">
+      <c r="R15" s="393"/>
+      <c r="S15" s="393"/>
+      <c r="T15" s="378">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U15" s="400">
+      <c r="U15" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20556,12 +20614,12 @@
       <c r="A16" s="175"/>
       <c r="B16" s="175"/>
       <c r="C16" s="175"/>
-      <c r="D16" s="382">
+      <c r="D16" s="379">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="383"/>
-      <c r="F16" s="383"/>
+      <c r="E16" s="380"/>
+      <c r="F16" s="380"/>
       <c r="G16" s="191" t="s">
         <v>73</v>
       </c>
@@ -20581,19 +20639,19 @@
       <c r="N16" s="222"/>
       <c r="O16" s="223"/>
       <c r="P16" s="223"/>
-      <c r="Q16" s="391">
+      <c r="Q16" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="397"/>
-      <c r="S16" s="397"/>
-      <c r="T16" s="381"/>
-      <c r="U16" s="400">
+      <c r="R16" s="394"/>
+      <c r="S16" s="394"/>
+      <c r="T16" s="378"/>
+      <c r="U16" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V16" s="223"/>
-      <c r="W16" s="380" t="s">
+      <c r="W16" s="377" t="s">
         <v>146</v>
       </c>
       <c r="X16" s="121">
@@ -20627,11 +20685,11 @@
       <c r="F17" s="75"/>
       <c r="G17" s="192">
         <f xml:space="preserve"> (I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1))</f>
-        <v>13.833193466531478</v>
+        <v>7.3594552790136998</v>
       </c>
       <c r="H17" s="121">
         <f>TINV(1-K2/100, G17)</f>
-        <v>2.1603686564627917</v>
+        <v>3.4994832973504928</v>
       </c>
       <c r="I17" s="154"/>
       <c r="J17" s="145"/>
@@ -20640,28 +20698,28 @@
       </c>
       <c r="L17" s="189">
         <f>(K16*(1-K16) + K17*(1-K17)) * (M13/K18)^2</f>
-        <v>1369.2922649239993</v>
+        <v>2365.016265541346</v>
       </c>
       <c r="M17" s="189">
         <f xml:space="preserve"> 0.5* (M13/K18)^2</f>
-        <v>2134.1437892745134</v>
+        <v>3686.0536672340068</v>
       </c>
       <c r="N17" s="223"/>
       <c r="O17" s="223"/>
       <c r="P17" s="223"/>
-      <c r="Q17" s="391">
+      <c r="Q17" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="397"/>
-      <c r="S17" s="397"/>
-      <c r="T17" s="381"/>
-      <c r="U17" s="400">
+      <c r="R17" s="394"/>
+      <c r="S17" s="394"/>
+      <c r="T17" s="378"/>
+      <c r="U17" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V17" s="223"/>
-      <c r="W17" s="380" t="s">
+      <c r="W17" s="377" t="s">
         <v>153</v>
       </c>
       <c r="X17" s="218">
@@ -20708,14 +20766,14 @@
       <c r="N18" s="225"/>
       <c r="O18" s="226"/>
       <c r="P18" s="226"/>
-      <c r="Q18" s="391">
+      <c r="Q18" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="398"/>
-      <c r="S18" s="398"/>
+      <c r="R18" s="395"/>
+      <c r="S18" s="395"/>
       <c r="T18" s="226"/>
-      <c r="U18" s="401"/>
+      <c r="U18" s="398"/>
       <c r="V18" s="226"/>
       <c r="W18" s="226"/>
       <c r="X18" s="226"/>
@@ -20743,19 +20801,19 @@
         <v>83</v>
       </c>
       <c r="F19" s="91">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="G19" s="114">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>0.21249942456754972</v>
+        <v>119.9165334279582</v>
       </c>
       <c r="H19" s="121">
         <f xml:space="preserve"> H17 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>2.6686979198911263</v>
+        <v>3.2607973542915532</v>
       </c>
       <c r="I19" s="154">
         <f>F21^2 /F19</f>
-        <v>0.67919642857142992</v>
+        <v>2.1476566911349564E-2</v>
       </c>
       <c r="J19" s="145"/>
       <c r="K19" s="123"/>
@@ -20768,17 +20826,17 @@
         <v>67</v>
       </c>
       <c r="P19" s="222"/>
-      <c r="Q19" s="391">
+      <c r="Q19" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="399"/>
-      <c r="S19" s="399"/>
+      <c r="R19" s="396"/>
+      <c r="S19" s="396"/>
       <c r="T19" s="222"/>
-      <c r="U19" s="402"/>
+      <c r="U19" s="399"/>
       <c r="V19" s="222"/>
       <c r="W19" s="222"/>
-      <c r="X19" s="422"/>
+      <c r="X19" s="419"/>
       <c r="Y19" s="222"/>
       <c r="Z19" s="222"/>
       <c r="AA19" s="3"/>
@@ -20800,12 +20858,11 @@
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="467">
-        <f>E3</f>
-        <v>11.525</v>
-      </c>
-      <c r="G20" s="532"/>
-      <c r="H20" s="533"/>
+      <c r="F20" s="464">
+        <v>123</v>
+      </c>
+      <c r="G20" s="535"/>
+      <c r="H20" s="536"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.84676339285714164</v>
@@ -20829,23 +20886,23 @@
         <v>65</v>
       </c>
       <c r="P20" s="157"/>
-      <c r="Q20" s="391">
+      <c r="Q20" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="322"/>
-      <c r="S20" s="322"/>
+      <c r="R20" s="320"/>
+      <c r="S20" s="320"/>
       <c r="T20" s="157"/>
-      <c r="U20" s="403"/>
+      <c r="U20" s="400"/>
       <c r="V20" s="157"/>
-      <c r="W20" s="397" t="s">
+      <c r="W20" s="394" t="s">
         <v>152</v>
       </c>
-      <c r="X20" s="416">
+      <c r="X20" s="413">
         <f>(W14/W12-W13)/SQRT(W13*(1-W13)/W12)</f>
         <v>-8.070881536847379</v>
       </c>
-      <c r="Y20" s="423"/>
+      <c r="Y20" s="420"/>
       <c r="Z20" s="157"/>
       <c r="AA20" s="157"/>
       <c r="AB20" s="157"/>
@@ -20868,17 +20925,17 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="468">
+      <c r="F21" s="465">
         <f>E5</f>
         <v>2.3310022369297374</v>
       </c>
       <c r="G21" s="139">
         <f xml:space="preserve"> F20- F23 -H19</f>
-        <v>-2.406197919891127</v>
+        <v>108.47670264570844</v>
       </c>
       <c r="H21" s="139">
         <f xml:space="preserve">  F20- F23 + H19</f>
-        <v>2.9311979198911255</v>
+        <v>114.99829735429155</v>
       </c>
       <c r="I21" s="196"/>
       <c r="J21" s="148" t="s">
@@ -20904,14 +20961,14 @@
         <v>5.8457278969697296E-2</v>
       </c>
       <c r="P21" s="94"/>
-      <c r="Q21" s="391">
+      <c r="Q21" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="94"/>
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
-      <c r="U21" s="404"/>
+      <c r="U21" s="401"/>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
       <c r="X21" s="94"/>
@@ -20941,10 +20998,10 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="531" t="s">
+      <c r="G22" s="534" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="531"/>
+      <c r="H22" s="534"/>
       <c r="I22" s="196"/>
       <c r="J22" s="230" t="s">
         <v>68</v>
@@ -20957,19 +21014,19 @@
       </c>
       <c r="M22" s="121">
         <f xml:space="preserve"> TINV(1-K2/100, K22 -1)</f>
-        <v>2.2009851600916384</v>
+        <v>3.10580651553928</v>
       </c>
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
-      <c r="Q22" s="391">
+      <c r="Q22" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="111"/>
       <c r="S22" s="111"/>
       <c r="T22" s="111"/>
-      <c r="U22" s="405"/>
+      <c r="U22" s="402"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -20994,7 +21051,7 @@
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="467">
+      <c r="F23" s="464">
         <f>F3</f>
         <v>11.262500000000001</v>
       </c>
@@ -21013,14 +21070,14 @@
       <c r="M23" s="241"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
-      <c r="Q23" s="391">
+      <c r="Q23" s="388">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="396"/>
-      <c r="S23" s="396"/>
+      <c r="R23" s="393"/>
+      <c r="S23" s="393"/>
       <c r="T23" s="75"/>
-      <c r="U23" s="406"/>
+      <c r="U23" s="403"/>
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
@@ -21047,17 +21104,17 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="468">
+      <c r="F24" s="465">
         <f>F5</f>
         <v>2.6027114981989712</v>
       </c>
       <c r="G24" s="192">
         <f xml:space="preserve"> IF(F19=F22,F19-1,(I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1)))</f>
-        <v>7</v>
+        <v>7.3594552790136998</v>
       </c>
       <c r="H24" s="149">
         <f>TINV(1-K2/100, G24)</f>
-        <v>2.3646242515927849</v>
+        <v>3.4994832973504928</v>
       </c>
       <c r="I24" s="196"/>
       <c r="J24" s="148"/>
@@ -21066,20 +21123,20 @@
       </c>
       <c r="L24" s="238">
         <f>K23 - M22* K24 /SQRT(K22)</f>
-        <v>1.2754388401805083</v>
+        <v>0.5150873094407431</v>
       </c>
       <c r="M24" s="138">
         <f xml:space="preserve">  K23 + M22* K24 /SQRT(K22)</f>
-        <v>4.9745611598194914</v>
+        <v>5.7349126905592573</v>
       </c>
       <c r="N24" s="166"/>
       <c r="O24" s="157"/>
       <c r="P24" s="157"/>
-      <c r="Q24" s="392"/>
+      <c r="Q24" s="389"/>
       <c r="R24" s="157"/>
       <c r="S24" s="157"/>
       <c r="T24" s="157"/>
-      <c r="U24" s="403"/>
+      <c r="U24" s="400"/>
       <c r="V24" s="157"/>
       <c r="W24" s="157"/>
       <c r="X24" s="157"/>
@@ -21119,11 +21176,11 @@
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
-      <c r="Q25" s="393"/>
+      <c r="Q25" s="390"/>
       <c r="R25" s="94"/>
       <c r="S25" s="94"/>
       <c r="T25" s="94"/>
-      <c r="U25" s="404"/>
+      <c r="U25" s="401"/>
       <c r="V25" s="94"/>
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
@@ -21151,11 +21208,11 @@
       <c r="F26" s="91"/>
       <c r="G26" s="114">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>0.21249942456754972</v>
+        <v>119.9165334279582</v>
       </c>
       <c r="H26" s="149">
         <f xml:space="preserve"> H24 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>2.9210143383037286</v>
+        <v>3.2607973542915532</v>
       </c>
       <c r="I26" s="196"/>
       <c r="J26" s="150"/>
@@ -21175,11 +21232,11 @@
         <v>26</v>
       </c>
       <c r="P26" s="111"/>
-      <c r="Q26" s="394"/>
+      <c r="Q26" s="391"/>
       <c r="R26" s="111"/>
       <c r="S26" s="111"/>
       <c r="T26" s="111"/>
-      <c r="U26" s="405"/>
+      <c r="U26" s="402"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -21209,32 +21266,32 @@
       <c r="H27" s="233"/>
       <c r="I27" s="196"/>
       <c r="J27" s="94"/>
-      <c r="K27" s="376">
+      <c r="K27" s="373">
         <f>MIN(C4:C28)</f>
         <v>-4.8000000000000007</v>
       </c>
-      <c r="L27" s="377">
+      <c r="L27" s="374">
         <f>QUARTILE(C4:C27, 1)</f>
         <v>-0.32500000000000018</v>
       </c>
-      <c r="M27" s="377">
+      <c r="M27" s="374">
         <f>QUARTILE(C4:C15, 2)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="377">
+      <c r="N27" s="374">
         <f>QUARTILE(C4:C15, 3)</f>
         <v>0.35000000000000053</v>
       </c>
-      <c r="O27" s="378">
+      <c r="O27" s="375">
         <f>MAX(C4:C24)</f>
         <v>7.1</v>
       </c>
       <c r="P27" s="75"/>
-      <c r="Q27" s="395"/>
+      <c r="Q27" s="392"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
       <c r="T27" s="75"/>
-      <c r="U27" s="407"/>
+      <c r="U27" s="404"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
@@ -21262,11 +21319,11 @@
       <c r="F28" s="99"/>
       <c r="G28" s="139">
         <f xml:space="preserve"> F20- F23 -H26</f>
-        <v>-2.6585143383037293</v>
+        <v>108.47670264570844</v>
       </c>
       <c r="H28" s="229">
         <f xml:space="preserve">  F20- F23 + H26</f>
-        <v>3.1835143383037279</v>
+        <v>114.99829735429155</v>
       </c>
       <c r="I28" s="196"/>
       <c r="J28" s="94"/>
@@ -21274,7 +21331,7 @@
       <c r="M28" s="75"/>
       <c r="O28" s="75"/>
       <c r="P28" s="75"/>
-      <c r="Q28" s="388"/>
+      <c r="Q28" s="385"/>
       <c r="R28" s="75"/>
       <c r="S28" s="75"/>
       <c r="T28" s="75"/>
@@ -21302,13 +21359,13 @@
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
       <c r="D29" s="154"/>
-      <c r="E29" s="370" t="s">
+      <c r="E29" s="368" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="371" t="s">
+      <c r="F29" s="369" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="379" t="s">
+      <c r="G29" s="376" t="s">
         <v>145</v>
       </c>
       <c r="H29" s="157"/>
@@ -21317,7 +21374,7 @@
       <c r="K29" s="175"/>
       <c r="O29" s="75"/>
       <c r="P29" s="75"/>
-      <c r="Q29" s="388"/>
+      <c r="Q29" s="385"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
       <c r="T29" s="75"/>
@@ -21356,12 +21413,12 @@
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="196"/>
-      <c r="J30" s="449"/>
+      <c r="J30" s="446"/>
       <c r="K30" s="175"/>
-      <c r="L30" s="381"/>
+      <c r="L30" s="378"/>
       <c r="O30" s="75"/>
       <c r="P30" s="75"/>
-      <c r="Q30" s="388"/>
+      <c r="Q30" s="385"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
       <c r="T30" s="75"/>
@@ -21393,24 +21450,24 @@
       <c r="D31" s="154"/>
       <c r="E31" s="121">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G17-1, TRUE)</f>
-        <v>0.58235785295049602</v>
+        <v>0.99999999998866229</v>
       </c>
       <c r="F31" s="121">
         <f>1-_xlfn.T.DIST(G19, G17-1, TRUE)</f>
-        <v>0.41764214704950398</v>
+        <v>1.1337708549774561E-11</v>
       </c>
       <c r="G31" s="121">
         <f xml:space="preserve">  IF(G19&gt;0, 2*(1-_xlfn.T.DIST(G19,G17, TRUE)), 2*(_xlfn.T.DIST(G19,G17, TRUE)))</f>
-        <v>0.83501316929174241</v>
+        <v>7.3963057900527929E-13</v>
       </c>
       <c r="H31" s="121"/>
       <c r="I31" s="196"/>
       <c r="J31" s="175"/>
       <c r="K31" s="175"/>
-      <c r="L31" s="381"/>
+      <c r="L31" s="378"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
-      <c r="Q31" s="388"/>
+      <c r="Q31" s="385"/>
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="75"/>
@@ -21442,24 +21499,24 @@
       <c r="D32" s="154"/>
       <c r="E32" s="121">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G24-1, TRUE)</f>
-        <v>0.58062356953387306</v>
+        <v>0.99999999998866229</v>
       </c>
       <c r="F32" s="121">
         <f>1-_xlfn.T.DIST(G19, G24-1, TRUE)</f>
-        <v>0.41937643046612694</v>
+        <v>1.1337708549774561E-11</v>
       </c>
       <c r="G32" s="121">
         <f xml:space="preserve"> IF(G26&gt;0, 2*(1-_xlfn.T.DIST(G26,G24, TRUE)), 2*(_xlfn.T.DIST(G26,G24, TRUE)))</f>
-        <v>0.8377729102773297</v>
+        <v>7.3963057900527929E-13</v>
       </c>
       <c r="H32" s="121"/>
       <c r="I32" s="196"/>
       <c r="J32" s="175"/>
       <c r="K32" s="175"/>
-      <c r="L32" s="381"/>
+      <c r="L32" s="378"/>
       <c r="O32" s="75"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="388"/>
+      <c r="Q32" s="385"/>
       <c r="R32" s="75"/>
       <c r="S32" s="75"/>
       <c r="T32" s="75"/>
@@ -21492,7 +21549,7 @@
       <c r="I33" s="196"/>
       <c r="J33" s="175"/>
       <c r="K33" s="175"/>
-      <c r="L33" s="381"/>
+      <c r="L33" s="378"/>
       <c r="AG33" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -21510,7 +21567,7 @@
       <c r="I34" s="196"/>
       <c r="J34" s="175"/>
       <c r="K34" s="175"/>
-      <c r="L34" s="381"/>
+      <c r="L34" s="378"/>
       <c r="AG34" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -21526,7 +21583,7 @@
       <c r="C35" s="243"/>
       <c r="D35" s="154"/>
       <c r="I35" s="196"/>
-      <c r="L35" s="381"/>
+      <c r="L35" s="378"/>
       <c r="AG35" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -22079,7 +22136,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="11" max="12" width="0.85546875" style="435" customWidth="1"/>
+    <col min="11" max="12" width="0.85546875" style="432" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1">
@@ -22104,8 +22161,8 @@
       <c r="H1" s="197">
         <v>95</v>
       </c>
-      <c r="K1" s="436"/>
-      <c r="L1" s="436"/>
+      <c r="K1" s="433"/>
+      <c r="L1" s="433"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
       <c r="A2" s="152" t="s">
@@ -22123,12 +22180,12 @@
         <f>D2^2</f>
         <v>0.97941619215917286</v>
       </c>
-      <c r="K2" s="436"/>
-      <c r="L2" s="436"/>
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="473"/>
-      <c r="B3" s="473"/>
+      <c r="A3" s="470"/>
+      <c r="B3" s="470"/>
       <c r="C3" s="207"/>
       <c r="D3" s="205" t="s">
         <v>92</v>
@@ -22146,44 +22203,44 @@
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="437"/>
-      <c r="L3" s="437"/>
+      <c r="K3" s="434"/>
+      <c r="L3" s="434"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="494">
+      <c r="A4" s="491">
         <v>-5</v>
       </c>
-      <c r="B4" s="494">
+      <c r="B4" s="491">
         <v>-10</v>
       </c>
       <c r="C4" s="207">
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="541" t="s">
+      <c r="D4" s="544" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="542"/>
+      <c r="E4" s="545"/>
       <c r="G4" s="94"/>
       <c r="H4" s="204"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="437">
+      <c r="K4" s="434">
         <f>IF( A4="",0, A4*E$6+D$6)</f>
         <v>-11.036363636363637</v>
       </c>
-      <c r="L4" s="437">
+      <c r="L4" s="434">
         <f>(K4-B4)^2</f>
         <v>1.0740495867768609</v>
       </c>
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A5" s="494">
+      <c r="A5" s="491">
         <v>-3</v>
       </c>
-      <c r="B5" s="494">
+      <c r="B5" s="491">
         <v>-8</v>
       </c>
       <c r="C5" s="207">
@@ -22200,21 +22257,21 @@
       <c r="G5" s="29"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="437">
+      <c r="K5" s="434">
         <f t="shared" ref="K5:K18" si="1">IF( A5="",0, A5*E$6+D$6)</f>
         <v>-6.8424242424242427</v>
       </c>
-      <c r="L5" s="437">
+      <c r="L5" s="434">
         <f t="shared" ref="L5:L18" si="2">(K5-B5)^2</f>
         <v>1.3399816345270883</v>
       </c>
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A6" s="494">
+      <c r="A6" s="491">
         <v>4</v>
       </c>
-      <c r="B6" s="494">
+      <c r="B6" s="491">
         <v>9</v>
       </c>
       <c r="C6" s="207">
@@ -22236,21 +22293,21 @@
       <c r="G6" s="123"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="437">
+      <c r="K6" s="434">
         <f t="shared" si="1"/>
         <v>7.8363636363636369</v>
       </c>
-      <c r="L6" s="437">
+      <c r="L6" s="434">
         <f t="shared" si="2"/>
         <v>1.3540495867768583</v>
       </c>
       <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="494">
+      <c r="A7" s="491">
         <v>1</v>
       </c>
-      <c r="B7" s="494">
+      <c r="B7" s="491">
         <v>1</v>
       </c>
       <c r="C7" s="207">
@@ -22269,21 +22326,21 @@
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="94"/>
-      <c r="K7" s="437">
+      <c r="K7" s="434">
         <f t="shared" si="1"/>
         <v>1.5454545454545456</v>
       </c>
-      <c r="L7" s="437">
+      <c r="L7" s="434">
         <f t="shared" si="2"/>
         <v>0.29752066115702497</v>
       </c>
       <c r="M7" s="204"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="494">
+      <c r="A8" s="491">
         <v>-1</v>
       </c>
-      <c r="B8" s="494">
+      <c r="B8" s="491">
         <v>-2</v>
       </c>
       <c r="C8" s="207">
@@ -22295,63 +22352,63 @@
       <c r="F8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="437">
+      <c r="K8" s="434">
         <f t="shared" si="1"/>
         <v>-2.6484848484848484</v>
       </c>
-      <c r="L8" s="437">
+      <c r="L8" s="434">
         <f t="shared" si="2"/>
         <v>0.42053259871441684</v>
       </c>
       <c r="M8" s="132"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="494">
+      <c r="A9" s="491">
         <v>-2</v>
       </c>
-      <c r="B9" s="494">
+      <c r="B9" s="491">
         <v>-6</v>
       </c>
-      <c r="C9" s="434">
+      <c r="C9" s="431">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="537" t="s">
+      <c r="D9" s="540" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="538"/>
+      <c r="E9" s="541"/>
       <c r="F9" s="70" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="218"/>
       <c r="I9" s="30"/>
       <c r="J9" s="132"/>
-      <c r="K9" s="437">
+      <c r="K9" s="434">
         <f t="shared" si="1"/>
         <v>-4.745454545454546</v>
       </c>
-      <c r="L9" s="437">
+      <c r="L9" s="434">
         <f t="shared" si="2"/>
         <v>1.5738842975206597</v>
       </c>
       <c r="M9" s="132"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="494">
+      <c r="A10" s="491">
         <v>0</v>
       </c>
-      <c r="B10" s="494">
+      <c r="B10" s="491">
         <v>-1</v>
       </c>
-      <c r="C10" s="434">
+      <c r="C10" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="543">
+      <c r="D10" s="546">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="544"/>
+      <c r="E10" s="547"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -22359,21 +22416,21 @@
       <c r="G10" s="29"/>
       <c r="I10" s="30"/>
       <c r="J10" s="132"/>
-      <c r="K10" s="437">
+      <c r="K10" s="434">
         <f t="shared" si="1"/>
         <v>-0.55151515151515151</v>
       </c>
-      <c r="L10" s="437">
+      <c r="L10" s="434">
         <f t="shared" si="2"/>
         <v>0.2011386593204775</v>
       </c>
       <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="494">
+      <c r="A11" s="491">
         <v>2</v>
       </c>
-      <c r="B11" s="494">
+      <c r="B11" s="491">
         <v>3</v>
       </c>
       <c r="C11" s="207">
@@ -22384,21 +22441,21 @@
       <c r="E11" s="214"/>
       <c r="I11" s="30"/>
       <c r="J11" s="132"/>
-      <c r="K11" s="437">
+      <c r="K11" s="434">
         <f t="shared" si="1"/>
         <v>3.6424242424242426</v>
       </c>
-      <c r="L11" s="437">
+      <c r="L11" s="434">
         <f t="shared" si="2"/>
         <v>0.41270890725436199</v>
       </c>
       <c r="M11" s="132"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="494">
+      <c r="A12" s="491">
         <v>3</v>
       </c>
-      <c r="B12" s="494">
+      <c r="B12" s="491">
         <v>6</v>
       </c>
       <c r="C12" s="207">
@@ -22420,21 +22477,21 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="437">
+      <c r="K12" s="434">
         <f t="shared" si="1"/>
         <v>5.7393939393939393</v>
       </c>
-      <c r="L12" s="437">
+      <c r="L12" s="434">
         <f t="shared" si="2"/>
         <v>6.7915518824609805E-2</v>
       </c>
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="494">
+      <c r="A13" s="491">
         <v>-4</v>
       </c>
-      <c r="B13" s="494">
+      <c r="B13" s="491">
         <v>-8</v>
       </c>
       <c r="C13" s="207">
@@ -22449,19 +22506,19 @@
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="132"/>
-      <c r="K13" s="437">
+      <c r="K13" s="434">
         <f t="shared" si="1"/>
         <v>-8.9393939393939394</v>
       </c>
-      <c r="L13" s="437">
+      <c r="L13" s="434">
         <f t="shared" si="2"/>
         <v>0.88246097337006435</v>
       </c>
       <c r="M13" s="132"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="493"/>
-      <c r="B14" s="493"/>
+      <c r="A14" s="490"/>
+      <c r="B14" s="490"/>
       <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22470,42 +22527,42 @@
       <c r="E14" s="76"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="437">
+      <c r="K14" s="434">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="437">
+      <c r="L14" s="434">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="493"/>
-      <c r="B15" s="493"/>
+      <c r="A15" s="490"/>
+      <c r="B15" s="490"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="545" t="s">
+      <c r="D15" s="548" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="546"/>
+      <c r="E15" s="549"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
-      <c r="K15" s="437">
+      <c r="K15" s="434">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="437">
+      <c r="L15" s="434">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="493"/>
-      <c r="B16" s="493"/>
+      <c r="A16" s="490"/>
+      <c r="B16" s="490"/>
       <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22519,27 +22576,27 @@
       <c r="F16" s="210"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="437">
+      <c r="K16" s="434">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="437">
+      <c r="L16" s="434">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="493"/>
-      <c r="B17" s="493"/>
+      <c r="A17" s="490"/>
+      <c r="B17" s="490"/>
       <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="450">
+      <c r="D17" s="447">
         <v>2.097</v>
       </c>
-      <c r="E17" s="450">
+      <c r="E17" s="447">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -22548,19 +22605,19 @@
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="437">
+      <c r="K17" s="434">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="437">
+      <c r="L17" s="434">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="493"/>
-      <c r="B18" s="493"/>
+      <c r="A18" s="490"/>
+      <c r="B18" s="490"/>
       <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22572,11 +22629,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="121"/>
-      <c r="K18" s="437">
+      <c r="K18" s="434">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="495">
+      <c r="L18" s="492">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22586,94 +22643,94 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="488">
+      <c r="K19" s="485">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="488">
+      <c r="L19" s="485">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C20" s="434">
+      <c r="C20" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="535" t="s">
+      <c r="D20" s="538" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="536"/>
-      <c r="F20" s="534"/>
-      <c r="G20" s="534"/>
-      <c r="K20" s="488">
+      <c r="E20" s="539"/>
+      <c r="F20" s="537"/>
+      <c r="G20" s="537"/>
+      <c r="K20" s="485">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="488">
+      <c r="L20" s="485">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C21" s="434">
+      <c r="C21" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="430">
+      <c r="D21" s="427">
         <v>2.097</v>
       </c>
-      <c r="E21" s="431">
+      <c r="E21" s="428">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="489"/>
-      <c r="G21" s="489"/>
-      <c r="K21" s="488">
+      <c r="F21" s="486"/>
+      <c r="G21" s="486"/>
+      <c r="K21" s="485">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="488">
+      <c r="L21" s="485">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
-      <c r="C22" s="434">
+      <c r="C22" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="537" t="s">
+      <c r="D22" s="540" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="538"/>
-      <c r="F22" s="490"/>
-      <c r="G22" s="490"/>
-      <c r="K22" s="488">
+      <c r="E22" s="541"/>
+      <c r="F22" s="487"/>
+      <c r="G22" s="487"/>
+      <c r="K22" s="485">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="488">
+      <c r="L22" s="485">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C23" s="434">
+      <c r="C23" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="539">
+      <c r="D23" s="542">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="540"/>
-      <c r="F23" s="491"/>
-      <c r="G23" s="492"/>
-      <c r="K23" s="488">
+      <c r="E23" s="543"/>
+      <c r="F23" s="488"/>
+      <c r="G23" s="489"/>
+      <c r="K23" s="485">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="488">
+      <c r="L23" s="485">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
@@ -22683,11 +22740,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="488">
+      <c r="K24" s="485">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="488">
+      <c r="L24" s="485">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
@@ -22697,11 +22754,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="488">
+      <c r="K25" s="485">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="488">
+      <c r="L25" s="485">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
@@ -22711,11 +22768,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="488">
+      <c r="K26" s="485">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="488">
+      <c r="L26" s="485">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
@@ -22725,11 +22782,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="488">
+      <c r="K27" s="485">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="488">
+      <c r="L27" s="485">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
@@ -22739,11 +22796,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="488">
+      <c r="K28" s="485">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="488">
+      <c r="L28" s="485">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
@@ -22753,11 +22810,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="488">
+      <c r="K29" s="485">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="488">
+      <c r="L29" s="485">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22767,11 +22824,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="488">
+      <c r="K30" s="485">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="488">
+      <c r="L30" s="485">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -22781,24 +22838,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="488"/>
-      <c r="L31" s="488"/>
+      <c r="K31" s="485"/>
+      <c r="L31" s="485"/>
     </row>
     <row r="32" spans="1:13">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="488"/>
-      <c r="L32" s="488"/>
+      <c r="K32" s="485"/>
+      <c r="L32" s="485"/>
     </row>
     <row r="33" spans="3:12" ht="15.75" thickBot="1">
       <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="436"/>
-      <c r="L33" s="436"/>
+      <c r="K33" s="433"/>
+      <c r="L33" s="433"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -23289,10 +23346,10 @@
     </row>
     <row r="20" spans="2:12" ht="15.75">
       <c r="B20" s="28"/>
-      <c r="K20" s="547" t="s">
+      <c r="K20" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="547"/>
+      <c r="L20" s="550"/>
     </row>
     <row r="21" spans="2:12" ht="15.75">
       <c r="B21" s="28"/>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="179">
   <si>
     <t>Mean</t>
   </si>
@@ -2399,7 +2399,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="83">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3858,7 +3858,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="551">
+  <cellXfs count="553">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -5011,9 +5011,6 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="73" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5148,6 +5145,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5255,6 +5255,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -14119,6 +14125,188 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12350" name="Object 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12350"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12351" name="Object 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12351"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12352" name="Object 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12352"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -14847,7 +15035,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="3" width="7.28515625" customWidth="1"/>
@@ -14865,7 +15053,7 @@
     <col min="17" max="18" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I1" s="12"/>
       <c r="J1" s="108"/>
       <c r="K1" s="108"/>
@@ -14873,7 +15061,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="2:20" ht="16.5" thickBot="1">
+    <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23">
         <f>COUNT(B5:B60)</f>
         <v>12</v>
@@ -14894,7 +15082,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="2:20" ht="18" thickBot="1">
+    <row r="3" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -14927,9 +15115,9 @@
       </c>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B4" s="469"/>
-      <c r="C4" s="469"/>
+    <row r="4" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="468"/>
+      <c r="C4" s="468"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
@@ -14950,7 +15138,7 @@
       <c r="J4" s="421" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="457"/>
+      <c r="K4" s="456"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -14958,8 +15146,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="472"/>
-      <c r="P4" s="472"/>
+      <c r="O4" s="471"/>
+      <c r="P4" s="471"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -14970,8 +15158,8 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B5" s="482">
+    <row r="5" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="481">
         <v>5.05</v>
       </c>
       <c r="C5" s="3">
@@ -14990,11 +15178,11 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="467">
+      <c r="J5" s="466">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="456" t="s">
+      <c r="K5" s="455" t="s">
         <v>166</v>
       </c>
       <c r="M5">
@@ -15007,7 +15195,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="471">
+      <c r="P5" s="470">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -15023,8 +15211,8 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B6" s="482">
+    <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="481">
         <v>5.0199999999999996</v>
       </c>
       <c r="C6" s="3">
@@ -15047,11 +15235,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="449">
+      <c r="J6" s="448">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="454">
+      <c r="K6" s="453">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -15062,7 +15250,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="471">
+      <c r="P6" s="470">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -15079,8 +15267,8 @@
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="482">
+    <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="481">
         <v>5.43</v>
       </c>
       <c r="C7" s="3">
@@ -15099,11 +15287,11 @@
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="448">
+      <c r="J7" s="447">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="454">
+      <c r="K7" s="453">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15111,7 +15299,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="471">
+      <c r="P7" s="470">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15123,13 +15311,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B8" s="482">
+    <row r="8" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="481">
         <v>5.72</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="480">
+      <c r="E8" s="479">
         <f>_xlfn.STDEV.P(B5:B60)</f>
         <v>0.39561046357356239</v>
       </c>
@@ -15137,7 +15325,7 @@
         <f>E8^2</f>
         <v>0.15650763888888894</v>
       </c>
-      <c r="G8" s="480">
+      <c r="G8" s="479">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15146,11 +15334,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="448">
+      <c r="J8" s="447">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="454">
+      <c r="K8" s="453">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15160,7 +15348,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="471">
+      <c r="P8" s="470">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15172,8 +15360,8 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75">
-      <c r="B9" s="482">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="481">
         <v>4.68</v>
       </c>
       <c r="C9" s="3"/>
@@ -15185,11 +15373,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="448">
+      <c r="J9" s="447">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="454">
+      <c r="K9" s="453">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15197,7 +15385,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="471">
+      <c r="P9" s="470">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15213,8 +15401,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B10" s="482">
+    <row r="10" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="481">
         <v>4.76</v>
       </c>
       <c r="C10" s="3"/>
@@ -15228,8 +15416,8 @@
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="448"/>
-      <c r="K10" s="454" t="str">
+      <c r="J10" s="447"/>
+      <c r="K10" s="453" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15237,7 +15425,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="471"/>
+      <c r="P10" s="470"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15251,8 +15439,8 @@
         <v>1051.5</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75">
-      <c r="B11" s="482">
+    <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="481">
         <v>4.38</v>
       </c>
       <c r="C11" s="3"/>
@@ -15265,8 +15453,8 @@
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="448"/>
-      <c r="K11" s="454" t="str">
+      <c r="J11" s="447"/>
+      <c r="K11" s="453" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15274,7 +15462,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="471"/>
+      <c r="P11" s="470"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15288,8 +15476,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.75">
-      <c r="B12" s="482">
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="481">
         <v>4.74</v>
       </c>
       <c r="C12" s="3"/>
@@ -15303,8 +15491,8 @@
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="448"/>
-      <c r="K12" s="454" t="str">
+      <c r="J12" s="447"/>
+      <c r="K12" s="453" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15322,8 +15510,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75">
-      <c r="B13" s="482">
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="481">
         <v>4.5599999999999996</v>
       </c>
       <c r="C13" s="3"/>
@@ -15332,8 +15520,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="453"/>
-      <c r="K13" s="454" t="str">
+      <c r="J13" s="452"/>
+      <c r="K13" s="453" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15351,14 +15539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B14" s="482">
+    <row r="14" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="481">
         <v>4.8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="453"/>
-      <c r="K14" s="454" t="str">
+      <c r="J14" s="452"/>
+      <c r="K14" s="453" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15376,8 +15564,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="482">
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="481">
         <v>5.19</v>
       </c>
       <c r="C15" s="3"/>
@@ -15411,8 +15599,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B16" s="482">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="481">
         <v>5.54</v>
       </c>
       <c r="C16" s="3"/>
@@ -15451,8 +15639,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B17" s="482"/>
+    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="481"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="254" t="s">
@@ -15484,8 +15672,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B18" s="482"/>
+    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="481"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="255">
@@ -15521,8 +15709,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B19" s="481"/>
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="480"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15536,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16.5" thickBot="1">
+    <row r="20" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
@@ -15560,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="15.75">
+    <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
@@ -15574,7 +15762,7 @@
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>-13.333333333333334</v>
       </c>
-      <c r="K21" s="468"/>
+      <c r="K21" s="467"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -15586,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75">
+    <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
@@ -15597,7 +15785,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="479"/>
+      <c r="I22" s="478"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15609,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
@@ -15624,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="18.75">
+    <row r="24" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
@@ -15637,7 +15825,7 @@
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="483"/>
+      <c r="H24" s="482"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -15646,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15.75">
+    <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
@@ -15656,7 +15844,7 @@
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="483"/>
+      <c r="H25" s="482"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -15665,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="16.5" thickBot="1">
+    <row r="26" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -15675,7 +15863,7 @@
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="483"/>
+      <c r="H26" s="482"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -15684,133 +15872,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1">
+    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="483"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.75">
+      <c r="H27" s="482"/>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="483"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75">
+      <c r="H28" s="482"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="483"/>
-    </row>
-    <row r="30" spans="2:18" ht="16.5" thickBot="1">
+      <c r="H29" s="482"/>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="D30" s="6"/>
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="483"/>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="H30" s="482"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="D31" s="5"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="483"/>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="H31" s="482"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="484"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="H32" s="483"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="15.75" thickBot="1">
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:6" ht="15.75">
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="E42" s="46"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:6" ht="15.75">
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="E43" s="46"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75">
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="E44" s="46"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:6" ht="15.75">
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="E45" s="46"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:6" ht="15.75">
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="E46" s="46"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75">
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="E47" s="46"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
   </sheetData>
@@ -15833,11 +16021,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -15859,7 +16047,7 @@
     <col min="21" max="21" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickBot="1">
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66"/>
       <c r="B1" s="70" t="s">
         <v>30</v>
@@ -15889,12 +16077,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.5" thickBot="1">
+    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
-      <c r="B2" s="502">
+      <c r="B2" s="501">
         <v>0</v>
       </c>
-      <c r="C2" s="502">
+      <c r="C2" s="501">
         <v>0.28000000000000003</v>
       </c>
       <c r="D2" s="430">
@@ -15945,10 +16133,10 @@
       <c r="T2" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="499">
+      <c r="V2" s="498">
         <v>10</v>
       </c>
-      <c r="W2" s="503" t="s">
+      <c r="W2" s="502" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -15956,12 +16144,12 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1">
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="502">
+      <c r="B3" s="501">
         <v>1</v>
       </c>
-      <c r="C3" s="502">
+      <c r="C3" s="501">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -16004,10 +16192,10 @@
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="499">
+      <c r="V3" s="498">
         <v>10</v>
       </c>
-      <c r="W3" s="504" t="s">
+      <c r="W3" s="503" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -16015,12 +16203,12 @@
         <v>1.8537158968576135</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" thickBot="1">
+    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
-      <c r="B4" s="502">
+      <c r="B4" s="501">
         <v>2</v>
       </c>
-      <c r="C4" s="502">
+      <c r="C4" s="501">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16056,17 +16244,17 @@
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="499">
+      <c r="V4" s="498">
         <v>9</v>
       </c>
       <c r="W4" s="284"/>
     </row>
-    <row r="5" spans="1:24" ht="16.5" thickBot="1">
+    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
-      <c r="B5" s="502">
+      <c r="B5" s="501">
         <v>3</v>
       </c>
-      <c r="C5" s="502">
+      <c r="C5" s="501">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16107,16 +16295,16 @@
       <c r="R5" s="251"/>
       <c r="S5" s="426"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="499">
+      <c r="V5" s="498">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16.5" thickBot="1">
+    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
-      <c r="B6" s="502">
+      <c r="B6" s="501">
         <v>5</v>
       </c>
-      <c r="C6" s="502">
+      <c r="C6" s="501">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16146,7 +16334,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.88051957581093498</v>
       </c>
-      <c r="M6" s="497">
+      <c r="M6" s="496">
         <f>1-L6+K6</f>
         <v>0.19064890656751515</v>
       </c>
@@ -16160,24 +16348,24 @@
       </c>
       <c r="P6" s="257"/>
       <c r="Q6" s="427"/>
-      <c r="R6" s="506" t="s">
+      <c r="R6" s="505" t="s">
         <v>171</v>
       </c>
       <c r="S6" s="428">
         <v>1000</v>
       </c>
-      <c r="T6" s="505">
+      <c r="T6" s="504">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="499">
+      <c r="V6" s="498">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" thickBot="1">
+    <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
-      <c r="B7" s="502"/>
-      <c r="C7" s="502"/>
+      <c r="B7" s="501"/>
+      <c r="C7" s="501"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16206,20 +16394,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="498" t="s">
+      <c r="N7" s="497" t="s">
         <v>170</v>
       </c>
       <c r="O7" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="V7" s="499">
+      <c r="V7" s="498">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16.5" thickBot="1">
+    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="494"/>
+      <c r="C8" s="493"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16228,7 +16416,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="478">
+      <c r="F8" s="477">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
@@ -16240,7 +16428,7 @@
       <c r="J8" s="76">
         <v>37</v>
       </c>
-      <c r="K8" s="496">
+      <c r="K8" s="495">
         <f>J5*J6</f>
         <v>31.5</v>
       </c>
@@ -16260,11 +16448,11 @@
         <f>1-L6</f>
         <v>0.11948042418906502</v>
       </c>
-      <c r="V8" s="499">
+      <c r="V8" s="498">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="77"/>
       <c r="C9" s="131"/>
@@ -16287,14 +16475,14 @@
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="495"/>
+      <c r="N9" s="494"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="493"/>
-      <c r="V9" s="499">
+      <c r="T9" s="492"/>
+      <c r="V9" s="498">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.5" thickBot="1">
+    <row r="10" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" s="77"/>
       <c r="C10" s="91"/>
@@ -16316,11 +16504,11 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="499">
+      <c r="V10" s="498">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16.5" thickBot="1">
+    <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="78"/>
       <c r="C11" s="97"/>
@@ -16335,7 +16523,7 @@
       <c r="F11" s="421" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="457"/>
+      <c r="G11" s="456"/>
       <c r="H11" s="262"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
@@ -16356,21 +16544,21 @@
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="499">
+      <c r="V11" s="498">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.5" thickBot="1">
+    <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="455">
+      <c r="F12" s="454">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="456" t="s">
+      <c r="G12" s="455" t="s">
         <v>166</v>
       </c>
       <c r="H12" s="262"/>
@@ -16397,20 +16585,20 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="499">
+      <c r="V12" s="498">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="450"/>
-      <c r="F13" s="499">
+      <c r="E13" s="449"/>
+      <c r="F13" s="498">
         <v>12</v>
       </c>
-      <c r="G13" s="500">
+      <c r="G13" s="499">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
@@ -16426,20 +16614,20 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="499">
+      <c r="V13" s="498">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="473"/>
+      <c r="C14" s="472"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="450"/>
-      <c r="F14" s="499">
+      <c r="E14" s="449"/>
+      <c r="F14" s="498">
         <v>33</v>
       </c>
-      <c r="G14" s="501">
+      <c r="G14" s="500">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
@@ -16455,20 +16643,20 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="499">
+      <c r="V14" s="498">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.5" thickBot="1">
+    <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="475"/>
+      <c r="C15" s="474"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="451"/>
-      <c r="F15" s="499">
+      <c r="E15" s="450"/>
+      <c r="F15" s="498">
         <v>29</v>
       </c>
-      <c r="G15" s="501">
+      <c r="G15" s="500">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
@@ -16488,20 +16676,20 @@
         <v>174</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="499">
+      <c r="V15" s="498">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.5" thickBot="1">
+    <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="474"/>
+      <c r="C16" s="473"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="499">
+      <c r="F16" s="498">
         <v>11</v>
       </c>
-      <c r="G16" s="501">
+      <c r="G16" s="500">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
@@ -16514,27 +16702,27 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="508" t="s">
+      <c r="M16" s="507" t="s">
         <v>176</v>
       </c>
-      <c r="N16" s="509" t="s">
+      <c r="N16" s="508" t="s">
         <v>175</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="499">
+      <c r="V16" s="498">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" thickBot="1">
+    <row r="17" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66"/>
       <c r="B17" s="66"/>
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="476">
+      <c r="F17" s="475">
         <v>6</v>
       </c>
-      <c r="G17" s="452">
+      <c r="G17" s="451">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
@@ -16562,18 +16750,18 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="499">
+      <c r="V17" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.25" thickBot="1">
+    <row r="18" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="476">
+      <c r="F18" s="475">
         <v>2</v>
       </c>
-      <c r="G18" s="452">
+      <c r="G18" s="451">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -16589,23 +16777,23 @@
       </c>
       <c r="M18" s="257"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="499">
+      <c r="V18" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" thickBot="1">
+    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="477">
+      <c r="F19" s="476">
         <v>3</v>
       </c>
-      <c r="G19" s="452">
+      <c r="G19" s="451">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H19" s="263"/>
-      <c r="I19" s="507" t="s">
+      <c r="I19" s="506" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
@@ -16616,18 +16804,18 @@
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="499">
+      <c r="V19" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" customHeight="1">
+    <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="477">
+      <c r="F20" s="476">
         <v>1</v>
       </c>
-      <c r="G20" s="452">
+      <c r="G20" s="451">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16642,18 +16830,18 @@
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="499">
+      <c r="V20" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" thickBot="1">
+    <row r="21" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="477">
+      <c r="F21" s="476">
         <v>1</v>
       </c>
-      <c r="G21" s="452">
+      <c r="G21" s="451">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16669,33 +16857,33 @@
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="499">
+      <c r="V21" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="477">
+      <c r="F22" s="476">
         <v>2</v>
       </c>
-      <c r="G22" s="452">
+      <c r="G22" s="451">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H22" s="263"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="499">
+      <c r="V22" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="477"/>
-      <c r="G23" s="452" t="str">
+      <c r="F23" s="476"/>
+      <c r="G23" s="451" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16703,16 +16891,16 @@
       <c r="J23" s="520"/>
       <c r="K23" s="520"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="499">
+      <c r="V23" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" thickBot="1">
+    <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="477"/>
-      <c r="G24" s="452" t="str">
+      <c r="F24" s="476"/>
+      <c r="G24" s="451" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16721,7 +16909,7 @@
         <v>39</v>
       </c>
       <c r="J24" s="76">
-        <v>76.400000000000006</v>
+        <v>1.21</v>
       </c>
       <c r="K24" s="70" t="s">
         <v>43</v>
@@ -16733,11 +16921,11 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="499">
+      <c r="V24" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" thickBot="1">
+    <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="29"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
@@ -16747,25 +16935,25 @@
         <v>41</v>
       </c>
       <c r="J25" s="76">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K25" s="266">
         <f xml:space="preserve"> (J24-J25)/K27</f>
-        <v>7.2000000000000171</v>
+        <v>2.7306357613906034</v>
       </c>
       <c r="L25" s="267">
         <f xml:space="preserve">  _xlfn.NORM.S.DIST(K25,TRUE)</f>
-        <v>0.99999999999969891</v>
+        <v>0.99683938542026707</v>
       </c>
       <c r="M25" s="96">
         <f>1-L25</f>
-        <v>3.0109248427834245E-13</v>
-      </c>
-      <c r="V25" s="499">
+        <v>3.1606145797329344E-3</v>
+      </c>
+      <c r="V25" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" thickBot="1">
+    <row r="26" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="29"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
@@ -16775,18 +16963,18 @@
         <v>42</v>
       </c>
       <c r="J26" s="76">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="K26" s="100" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="499">
+      <c r="V26" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18" thickBot="1">
+    <row r="27" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="29"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
@@ -16796,497 +16984,497 @@
         <v>52</v>
       </c>
       <c r="J27" s="99">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K27" s="130">
         <f>J26/SQRT(J27)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="V27" s="499">
+        <v>0.44312024954356982</v>
+      </c>
+      <c r="V27" s="498">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="H28" s="263"/>
-      <c r="V28" s="499">
+      <c r="V28" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
       <c r="H29" s="263"/>
-      <c r="V29" s="499">
+      <c r="V29" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C30" s="29"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="499">
+      <c r="V30" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C31" s="29"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="499">
+      <c r="V31" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C32" s="29"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="499">
+      <c r="V32" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C33" s="29"/>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="499">
+      <c r="V33" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:22">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C34" s="29"/>
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="499">
+      <c r="V34" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="29"/>
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="499">
+      <c r="V35" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:22">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" s="29"/>
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="499">
+      <c r="V36" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="29"/>
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="499">
+      <c r="V37" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C38" s="29"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="499">
+      <c r="V38" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:22">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C39" s="29"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="499">
+      <c r="V39" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="499">
+      <c r="V40" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:22">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="499">
+      <c r="V41" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:22">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="499">
+      <c r="V42" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:22">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C43" s="29"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="499">
+      <c r="V43" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:22">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C44" s="29"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="499">
+      <c r="V44" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:22">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C45" s="29"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="499">
+      <c r="V45" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:22">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C46" s="29"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="499">
+      <c r="V46" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="3:22">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C47" s="29"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="499">
+      <c r="V47" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:22">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C48" s="29"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="499">
+      <c r="V48" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:22">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C49" s="29"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="499">
+      <c r="V49" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:22">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C50" s="29"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="499">
+      <c r="V50" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:22">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C51" s="29"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="499">
+      <c r="V51" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="3:22">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C52" s="29"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="499">
+      <c r="V52" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:22">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C53" s="29"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="499">
+      <c r="V53" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:22">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C54" s="29"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="499">
+      <c r="V54" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:22">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C55" s="29"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="499">
+      <c r="V55" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:22">
-      <c r="V56" s="499">
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V56" s="498">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:22">
-      <c r="V57" s="499">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V57" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:22">
-      <c r="V58" s="499">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V58" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:22">
-      <c r="V59" s="499">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V59" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:22">
-      <c r="V60" s="499">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V60" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="3:22">
-      <c r="V61" s="499">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V61" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="3:22">
-      <c r="V62" s="499">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V62" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="3:22">
-      <c r="V63" s="499">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V63" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="3:22">
-      <c r="V64" s="499">
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V64" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="22:22">
-      <c r="V65" s="499">
+    <row r="65" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V65" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="22:22">
-      <c r="V66" s="499">
+    <row r="66" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V66" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="22:22">
-      <c r="V67" s="499">
+    <row r="67" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V67" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="22:22">
-      <c r="V68" s="499">
+    <row r="68" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V68" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="22:22">
-      <c r="V69" s="499">
+    <row r="69" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V69" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="22:22">
-      <c r="V70" s="499">
+    <row r="70" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V70" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="22:22">
-      <c r="V71" s="499">
+    <row r="71" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V71" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="22:22">
-      <c r="V72" s="499">
+    <row r="72" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V72" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="22:22">
-      <c r="V73" s="499">
+    <row r="73" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V73" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="22:22">
-      <c r="V74" s="499">
+    <row r="74" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V74" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="22:22">
-      <c r="V75" s="499">
+    <row r="75" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V75" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="22:22">
-      <c r="V76" s="499">
+    <row r="76" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V76" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="22:22">
-      <c r="V77" s="499">
+    <row r="77" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V77" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="22:22">
-      <c r="V78" s="499">
+    <row r="78" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V78" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="22:22">
-      <c r="V79" s="499">
+    <row r="79" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V79" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="22:22">
-      <c r="V80" s="499">
+    <row r="80" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V80" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="22:22">
-      <c r="V81" s="499">
+    <row r="81" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V81" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="22:22">
-      <c r="V82" s="499">
+    <row r="82" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V82" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="22:22">
-      <c r="V83" s="499">
+    <row r="83" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V83" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="22:22">
-      <c r="V84" s="499">
+    <row r="84" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V84" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="22:22">
-      <c r="V85" s="499">
+    <row r="85" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V85" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="22:22">
-      <c r="V86" s="499">
+    <row r="86" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V86" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="22:22">
-      <c r="V87" s="499">
+    <row r="87" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V87" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="22:22">
-      <c r="V88" s="499">
+    <row r="88" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V88" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="22:22">
-      <c r="V89" s="499">
+    <row r="89" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V89" s="498">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="22:22">
-      <c r="V90" s="499">
+    <row r="90" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V90" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="22:22">
-      <c r="V91" s="499">
+    <row r="91" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V91" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="22:22">
-      <c r="V92" s="499">
+    <row r="92" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V92" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="22:22">
-      <c r="V93" s="499">
+    <row r="93" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V93" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="22:22">
-      <c r="V94" s="499">
+    <row r="94" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V94" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="22:22">
-      <c r="V95" s="499">
+    <row r="95" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V95" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="22:22">
-      <c r="V96" s="499">
+    <row r="96" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V96" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="22:22">
-      <c r="V97" s="499">
+    <row r="97" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V97" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="22:22">
-      <c r="V98" s="499">
+    <row r="98" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V98" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="22:22">
-      <c r="V99" s="499">
+    <row r="99" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V99" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="22:22">
-      <c r="V100" s="499">
+    <row r="100" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V100" s="498">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="22:22">
-      <c r="V101" s="499">
+    <row r="101" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V101" s="498">
         <v>1</v>
       </c>
     </row>
@@ -17309,11 +17497,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27:T27"/>
+    <sheetView topLeftCell="C7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
@@ -17341,7 +17529,7 @@
     <col min="27" max="27" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>30</v>
       </c>
@@ -17356,16 +17544,16 @@
         <v>56</v>
       </c>
       <c r="L1" s="353">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N1" s="303"/>
       <c r="U1" s="337"/>
     </row>
-    <row r="2" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A2" s="513">
+    <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="512">
         <v>0</v>
       </c>
-      <c r="B2" s="513">
+      <c r="B2" s="512">
         <v>0.46200000000000002</v>
       </c>
       <c r="C2" s="106">
@@ -17387,14 +17575,14 @@
         <v>41</v>
       </c>
       <c r="H2" s="357">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="I2" s="100" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="124">
         <f>H2</f>
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K2" s="358"/>
       <c r="L2" s="344"/>
@@ -17406,11 +17594,11 @@
       <c r="U2" s="338"/>
       <c r="X2" s="140"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A3" s="513">
+    <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="512">
         <v>1</v>
       </c>
-      <c r="B3" s="513">
+      <c r="B3" s="512">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C3" s="106">
@@ -17432,14 +17620,14 @@
         <v>42</v>
       </c>
       <c r="H3" s="360">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="I3" s="100" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="121">
         <f>H3/SQRT(H4)</f>
-        <v>9.391485505499117E-2</v>
+        <v>0.44312024954356982</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="314"/>
@@ -17464,11 +17652,11 @@
       <c r="Y3" s="121"/>
       <c r="Z3" s="126"/>
     </row>
-    <row r="4" spans="1:27" ht="18" thickBot="1">
-      <c r="A4" s="513">
+    <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="512">
         <v>2</v>
       </c>
-      <c r="B4" s="513">
+      <c r="B4" s="512">
         <v>0.246</v>
       </c>
       <c r="C4" s="106">
@@ -17490,12 +17678,12 @@
         <v>52</v>
       </c>
       <c r="H4" s="288">
-        <v>500</v>
+        <v>18</v>
       </c>
       <c r="I4" s="185"/>
       <c r="J4" s="435">
         <f>SQRT(H6*(1-H6)/H4)</f>
-        <v>1.8525657883055057E-2</v>
+        <v>9.7638790105845391E-2</v>
       </c>
       <c r="K4" s="286"/>
       <c r="L4" s="274">
@@ -17537,11 +17725,11 @@
       </c>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="18" thickBot="1">
-      <c r="A5" s="513">
+    <row r="5" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="512">
         <v>3</v>
       </c>
-      <c r="B5" s="513">
+      <c r="B5" s="512">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C5" s="106"/>
@@ -17565,14 +17753,14 @@
       </c>
       <c r="J5" s="287">
         <f>H4*H6*(1-H6)</f>
-        <v>85.799999999999983</v>
+        <v>3.0888</v>
       </c>
       <c r="K5" s="283" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="182">
         <f>H4/H5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N5" s="330"/>
       <c r="O5" s="293" t="s">
@@ -17602,11 +17790,11 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A6" s="513">
+    <row r="6" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="512">
         <v>4</v>
       </c>
-      <c r="B6" s="513">
+      <c r="B6" s="512">
         <v>0.14899999999999999</v>
       </c>
       <c r="C6" s="106"/>
@@ -17627,7 +17815,7 @@
       </c>
       <c r="J6" s="378">
         <f>ROUND(H8/H6, 0)</f>
-        <v>487</v>
+        <v>2</v>
       </c>
       <c r="K6" s="168" t="s">
         <v>159</v>
@@ -17649,7 +17837,7 @@
         <v>45.992187499999993</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1">
+    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="309"/>
       <c r="B7" s="312" t="s">
         <v>124</v>
@@ -17671,7 +17859,7 @@
       </c>
       <c r="J7" s="274">
         <f>H7*SQRT(H4)</f>
-        <v>1811.2150617748298</v>
+        <v>343.65389565666209</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="314"/>
@@ -17685,7 +17873,7 @@
       </c>
       <c r="R7" s="299">
         <f>P7*(1-P7)* ((_xlfn.NORM.S.INV(1- (100-L1)/200))/P8)^2</f>
-        <v>1816.4872472129184</v>
+        <v>740.71767454345456</v>
       </c>
       <c r="U7" s="338"/>
       <c r="V7" s="127" t="s">
@@ -17700,7 +17888,7 @@
       <c r="Y7" s="526"/>
       <c r="Z7" s="527"/>
     </row>
-    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
+    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="280"/>
       <c r="B8" s="310"/>
       <c r="C8" s="311"/>
@@ -17714,7 +17902,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="288">
-        <v>380</v>
+        <v>1.21</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>43</v>
@@ -17740,7 +17928,7 @@
       </c>
       <c r="R8" s="299">
         <f>0.25* ((_xlfn.NORM.S.INV(1- (100-L$1)/200))/P8)^2</f>
-        <v>1843.0268336170034</v>
+        <v>751.53984835983624</v>
       </c>
       <c r="U8" s="338"/>
       <c r="V8" s="281" t="s">
@@ -17757,9 +17945,9 @@
       </c>
       <c r="Z8" s="347"/>
     </row>
-    <row r="9" spans="1:27" ht="16.5" thickBot="1">
+    <row r="9" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="280"/>
-      <c r="B9" s="514">
+      <c r="B9" s="513">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C9" s="311"/>
@@ -17776,19 +17964,19 @@
       </c>
       <c r="I9" s="277">
         <f>ROUND((H8-H2)/H3,2)</f>
-        <v>180.78</v>
+        <v>0.64</v>
       </c>
       <c r="J9" s="278">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
-        <v>1</v>
+        <v>0.74008809504644812</v>
       </c>
       <c r="K9" s="278">
         <f>1-J9</f>
-        <v>0</v>
+        <v>0.25991190495355188</v>
       </c>
       <c r="L9" s="279">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
-        <v>0</v>
+        <v>0.25991190495355188</v>
       </c>
       <c r="N9" s="330"/>
       <c r="O9" s="94"/>
@@ -17813,9 +18001,9 @@
         <v>5.6239671983677817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+    <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="280"/>
-      <c r="B10" s="514">
+      <c r="B10" s="513">
         <v>0.185</v>
       </c>
       <c r="C10" s="311"/>
@@ -17860,28 +18048,28 @@
       <c r="X10" s="159"/>
       <c r="Y10" s="94"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" thickBot="1">
+    <row r="11" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="280"/>
-      <c r="B11" s="514">
+      <c r="B11" s="513">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C11" s="311"/>
       <c r="D11" s="85"/>
       <c r="I11" s="354">
         <f>ROUND((H8-H2)/H7, 2)</f>
-        <v>4.6900000000000004</v>
+        <v>0.01</v>
       </c>
       <c r="J11" s="355">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
-        <v>0.99999863397475541</v>
+        <v>0.5039893563146316</v>
       </c>
       <c r="K11" s="355">
         <f>1-J11</f>
-        <v>1.3660252445868437E-6</v>
+        <v>0.4960106436853684</v>
       </c>
       <c r="L11" s="156">
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
-        <v>1.3660252445868437E-6</v>
+        <v>0.4960106436853684</v>
       </c>
       <c r="N11" s="330"/>
       <c r="O11" s="307" t="s">
@@ -17907,9 +18095,9 @@
       </c>
       <c r="Y11" s="111"/>
     </row>
-    <row r="12" spans="1:27" ht="16.5" thickBot="1">
+    <row r="12" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="280"/>
-      <c r="B12" s="514">
+      <c r="B12" s="513">
         <v>0.126</v>
       </c>
       <c r="C12" s="311"/>
@@ -17921,7 +18109,7 @@
       <c r="P12" s="522"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
-        <v>2.7044592674331618</v>
+        <v>1.6838510133356521</v>
       </c>
       <c r="R12" s="75"/>
       <c r="S12" s="29"/>
@@ -17931,9 +18119,9 @@
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" thickBot="1">
+    <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="280"/>
-      <c r="B13" s="514">
+      <c r="B13" s="513">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C13" s="311"/>
@@ -17958,9 +18146,9 @@
       <c r="R13" s="66"/>
       <c r="U13" s="338"/>
     </row>
-    <row r="14" spans="1:27" ht="18" thickBot="1">
+    <row r="14" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="313"/>
-      <c r="B14" s="514">
+      <c r="B14" s="513">
         <v>0.24399999999999999</v>
       </c>
       <c r="C14" s="311"/>
@@ -17997,9 +18185,9 @@
       <c r="T14" s="29"/>
       <c r="U14" s="338"/>
     </row>
-    <row r="15" spans="1:27" ht="16.5" thickBot="1">
+    <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="313"/>
-      <c r="B15" s="514">
+      <c r="B15" s="513">
         <v>0.25600000000000001</v>
       </c>
       <c r="C15" s="311"/>
@@ -18008,23 +18196,23 @@
       <c r="H15" s="97"/>
       <c r="I15" s="117">
         <f xml:space="preserve"> ROUND( (H13-H6) / SQRT(H6*(1-H6)/H4), 2)</f>
-        <v>3.24</v>
+        <v>0.61</v>
       </c>
       <c r="J15" s="96">
         <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
-        <v>0.99940235150206558</v>
+        <v>0.72906909621699434</v>
       </c>
       <c r="K15" s="121">
         <f>1-J15</f>
-        <v>5.976484979344221E-4</v>
+        <v>0.27093090378300566</v>
       </c>
       <c r="L15" s="121">
         <f>2*J15</f>
-        <v>1.9988047030041312</v>
+        <v>1.4581381924339887</v>
       </c>
       <c r="M15" s="149">
         <f>2*K15</f>
-        <v>1.1952969958688442E-3</v>
+        <v>0.54186180756601132</v>
       </c>
       <c r="N15" s="330"/>
       <c r="O15" s="169" t="s">
@@ -18035,22 +18223,22 @@
       </c>
       <c r="Q15" s="121">
         <f xml:space="preserve"> TINV(1-L$1/100, P16 -1 )* P15 / SQRT(P16)</f>
-        <v>14.614076556549602</v>
+        <v>8.4503648556255868</v>
       </c>
       <c r="R15" s="117">
         <f>P14-Q15</f>
-        <v>-9.6440765565496029</v>
+        <v>-3.4803648556255871</v>
       </c>
       <c r="S15" s="117">
         <f>P14+Q15</f>
-        <v>19.584076556549601</v>
+        <v>13.420364855625586</v>
       </c>
       <c r="T15" s="123"/>
       <c r="U15" s="338"/>
     </row>
-    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="313"/>
-      <c r="B16" s="514">
+      <c r="B16" s="513">
         <v>0.33200000000000002</v>
       </c>
       <c r="C16" s="311"/>
@@ -18070,9 +18258,9 @@
       <c r="T16" s="29"/>
       <c r="U16" s="338"/>
     </row>
-    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="313"/>
-      <c r="B17" s="514">
+      <c r="B17" s="513">
         <v>0.121</v>
       </c>
       <c r="C17" s="311"/>
@@ -18091,16 +18279,16 @@
       </c>
       <c r="Q17" s="189">
         <f>((_xlfn.NORM.S.INV(1- (100-L1)/200))*P15/P17)^2</f>
-        <v>440.70641948133141</v>
+        <v>179.7089600796524</v>
       </c>
       <c r="R17" s="123"/>
       <c r="S17" s="111"/>
       <c r="T17" s="29"/>
       <c r="U17" s="338"/>
     </row>
-    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="313"/>
-      <c r="B18" s="514">
+      <c r="B18" s="513">
         <v>9.4E-2</v>
       </c>
       <c r="C18" s="311"/>
@@ -18109,7 +18297,7 @@
       <c r="H18" s="91"/>
       <c r="I18" s="114">
         <f>-_xlfn.NORM.S.INV( (1-L1/100)/2)</f>
-        <v>2.5758293035488999</v>
+        <v>1.6448536269514726</v>
       </c>
       <c r="J18" s="218"/>
       <c r="K18" s="218"/>
@@ -18122,9 +18310,9 @@
       <c r="T18" s="335"/>
       <c r="U18" s="338"/>
     </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="313"/>
-      <c r="B19" s="514"/>
+      <c r="B19" s="513"/>
       <c r="C19" s="311"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
@@ -18144,9 +18332,9 @@
       <c r="R19" s="114"/>
       <c r="U19" s="338"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" thickBot="1">
+    <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="313"/>
-      <c r="B20" s="514"/>
+      <c r="B20" s="513"/>
       <c r="C20" s="311"/>
       <c r="D20" s="85"/>
       <c r="G20" s="437"/>
@@ -18172,15 +18360,15 @@
       </c>
       <c r="Q20" s="138">
         <f>_xlfn.CHISQ.INV((1-L1/100)/2,P20-1)</f>
-        <v>4.6009155717273398</v>
+        <v>7.2609439276700316</v>
       </c>
       <c r="R20" s="138">
         <f>_xlfn.CHISQ.INV.RT((1-L1/100)/2,P20-1)</f>
-        <v>32.80132064579184</v>
+        <v>24.99579013972863</v>
       </c>
       <c r="U20" s="338"/>
     </row>
-    <row r="21" spans="1:21" ht="21" thickBot="1">
+    <row r="21" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="313"/>
       <c r="B21" s="314"/>
       <c r="C21" s="311"/>
@@ -18222,14 +18410,14 @@
       </c>
       <c r="U21" s="338"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" thickBot="1">
+    <row r="22" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="313"/>
       <c r="B22" s="314"/>
       <c r="C22" s="311"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
       <c r="H22" s="523">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I22" s="70" t="s">
         <v>43</v>
@@ -18251,15 +18439,15 @@
       <c r="P22" s="69"/>
       <c r="Q22" s="138">
         <f>(P20-1)*P21/R20</f>
-        <v>1.0517869195741083</v>
+        <v>1.3802324234257854</v>
       </c>
       <c r="R22" s="138">
         <f>(P20-1)*P21/Q20</f>
-        <v>7.4985075170695925</v>
+        <v>4.7514483438616395</v>
       </c>
       <c r="U22" s="338"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" thickBot="1">
+    <row r="23" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="313"/>
       <c r="B23" s="314"/>
       <c r="C23" s="311"/>
@@ -18270,23 +18458,23 @@
       <c r="H23" s="524"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
-        <v>-1.6448536269514726</v>
+        <v>-1.2815515655446006</v>
       </c>
       <c r="J23" s="121">
         <f>_xlfn.NORM.S.INV(H22/2)</f>
-        <v>-1.9599639845400538</v>
+        <v>-1.6448536269514726</v>
       </c>
       <c r="K23" s="202">
         <f>-TINV(2*H22,H24)</f>
-        <v>-1.650996151677472</v>
+        <v>-1.3333793897216262</v>
       </c>
       <c r="L23" s="321">
         <f>TINV(2*H22,H24)</f>
-        <v>1.650996151677472</v>
+        <v>1.3333793897216262</v>
       </c>
       <c r="M23" s="89">
         <f>TINV(H22,H24)</f>
-        <v>1.9695368676403495</v>
+        <v>1.7396067260750732</v>
       </c>
       <c r="N23" s="330"/>
       <c r="O23" s="152" t="s">
@@ -18297,15 +18485,15 @@
       </c>
       <c r="Q23" s="138">
         <f>SQRT((P20-1)*(P23^2)/R20)</f>
-        <v>1.8934681142722354</v>
+        <v>2.1690533097923015</v>
       </c>
       <c r="R23" s="138">
         <f>SQRT((P20-1)*(P23^2)/Q20)</f>
-        <v>5.0557027178453167</v>
+        <v>4.0244554055486947</v>
       </c>
       <c r="U23" s="338"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="313"/>
       <c r="B24" s="314"/>
       <c r="C24" s="311"/>
@@ -18314,7 +18502,7 @@
         <v>122</v>
       </c>
       <c r="H24" s="69">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="K24" s="140" t="s">
         <v>66</v>
@@ -18329,15 +18517,15 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="138">
         <f>Q23^2</f>
-        <v>3.5852214997656549</v>
+        <v>4.7047922607209376</v>
       </c>
       <c r="R24" s="138">
         <f>R23^2</f>
-        <v>25.560129971228523</v>
+        <v>16.196241311250109</v>
       </c>
       <c r="U24" s="338"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" thickBot="1">
+    <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="313"/>
       <c r="B25" s="314"/>
       <c r="C25" s="311"/>
@@ -18359,7 +18547,7 @@
       <c r="Q25" s="318"/>
       <c r="U25" s="338"/>
     </row>
-    <row r="26" spans="1:21" ht="20.25" thickBot="1">
+    <row r="26" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="313"/>
       <c r="B26" s="314"/>
       <c r="C26" s="311"/>
@@ -18390,7 +18578,7 @@
         <v>68</v>
       </c>
       <c r="P26" s="144">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="113" t="s">
         <v>90</v>
@@ -18402,7 +18590,7 @@
       <c r="T26" s="344"/>
       <c r="U26" s="338"/>
     </row>
-    <row r="27" spans="1:21" ht="20.25" thickBot="1">
+    <row r="27" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="313"/>
       <c r="B27" s="314"/>
       <c r="C27" s="311"/>
@@ -18438,27 +18626,27 @@
         <v>69</v>
       </c>
       <c r="P27" s="91">
-        <v>9.4E-2</v>
+        <v>1.88</v>
       </c>
       <c r="Q27" s="121">
         <f xml:space="preserve"> (P28 - P29) * SQRT(P26) / P27</f>
-        <v>1.2110850613410817</v>
+        <v>2.7306357613906038</v>
       </c>
       <c r="R27" s="121">
         <f>2*(_xlfn.T.DIST(Q27, P26-1, TRUE))</f>
-        <v>1.7432966580060829</v>
+        <v>1.9857662335219557</v>
       </c>
       <c r="S27" s="130">
         <f>P28-Q29*P27/SQRT(P26)</f>
-        <v>5.9397306075458928E-2</v>
+        <v>0.43914503343394107</v>
       </c>
       <c r="T27" s="130">
         <f>P28+Q29*P27/SQRT(P26)</f>
-        <v>0.25260269392454104</v>
+        <v>1.9808549665660589</v>
       </c>
       <c r="U27" s="338"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1">
+    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="313"/>
       <c r="B28" s="314"/>
       <c r="C28" s="311"/>
@@ -18473,7 +18661,7 @@
       <c r="J28" s="297" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="512"/>
+      <c r="K28" s="511"/>
       <c r="L28" s="70" t="s">
         <v>178</v>
       </c>
@@ -18483,7 +18671,7 @@
       <c r="N28" s="330"/>
       <c r="O28" s="94"/>
       <c r="P28" s="99">
-        <v>0.156</v>
+        <v>1.21</v>
       </c>
       <c r="Q28" s="70"/>
       <c r="R28" s="70" t="s">
@@ -18494,7 +18682,7 @@
       </c>
       <c r="U28" s="338"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" thickBot="1">
+    <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="313"/>
       <c r="B29" s="314"/>
       <c r="C29" s="311"/>
@@ -18513,7 +18701,7 @@
         <f>H26*I29*(1-I29)</f>
         <v>496.63799999999992</v>
       </c>
-      <c r="K29" s="510">
+      <c r="K29" s="509">
         <f>(H28+2)/(H26+4)</f>
         <v>0.45908183632734528</v>
       </c>
@@ -18528,23 +18716,23 @@
       <c r="N29" s="330"/>
       <c r="O29" s="177"/>
       <c r="P29" s="97">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="121">
         <f>TINV((100-L1)/100, P26-1)</f>
-        <v>3.2498355415921263</v>
+        <v>1.7396067260750732</v>
       </c>
       <c r="R29" s="121">
         <f>1-_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
-        <v>0.12835167099695854</v>
+        <v>7.1168832390221537E-3</v>
       </c>
       <c r="S29" s="121">
         <f>_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
-        <v>0.87164832900304146</v>
+        <v>0.99288311676097785</v>
       </c>
       <c r="U29" s="338"/>
     </row>
-    <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="315"/>
       <c r="B30" s="316"/>
       <c r="C30" s="311"/>
@@ -18572,25 +18760,25 @@
       </c>
       <c r="U30" s="338"/>
     </row>
-    <row r="31" spans="1:21" ht="20.25" thickBot="1">
+    <row r="31" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="J31" s="116">
         <f>1-I31</f>
-        <v>0.995</v>
+        <v>0.95</v>
       </c>
       <c r="K31" s="112">
         <f>_xlfn.NORM.S.INV(J31)</f>
-        <v>2.5758293035488999</v>
+        <v>1.6448536269514715</v>
       </c>
       <c r="N31" s="330"/>
       <c r="O31" s="147" t="s">
         <v>61</v>
       </c>
       <c r="P31" s="141">
-        <v>2.9399999999999999E-2</v>
+        <v>2.73</v>
       </c>
       <c r="Q31" s="70" t="s">
         <v>65</v>
@@ -18606,13 +18794,13 @@
       </c>
       <c r="U31" s="338"/>
     </row>
-    <row r="32" spans="1:21" ht="20.25" thickBot="1">
+    <row r="32" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I32" s="113" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="511" t="s">
+      <c r="L32" s="510" t="s">
         <v>177</v>
       </c>
       <c r="M32" s="153" t="s">
@@ -18623,51 +18811,51 @@
         <v>52</v>
       </c>
       <c r="P32" s="142">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="121">
         <f xml:space="preserve"> 1 -_xlfn.T.DIST(P31, P32-1, TRUE)</f>
-        <v>0.4884345486908197</v>
+        <v>7.126358926695775E-3</v>
       </c>
       <c r="R32" s="121">
         <f>_xlfn.T.DIST(P31, P32-1, TRUE)</f>
-        <v>0.5115654513091803</v>
+        <v>0.99287364107330423</v>
       </c>
       <c r="S32" s="121">
         <f>2*Q32</f>
-        <v>0.97686909738163941</v>
+        <v>1.425271785339155E-2</v>
       </c>
       <c r="T32" s="149">
         <f>2*R32</f>
-        <v>1.0231309026183606</v>
+        <v>1.9857472821466085</v>
       </c>
       <c r="U32" s="338"/>
     </row>
-    <row r="33" spans="9:21" ht="16.5" thickBot="1">
+    <row r="33" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
-        <v>2.8701662748602093E-2</v>
+        <v>1.8328091075962033E-2</v>
       </c>
       <c r="J33" s="114">
         <f>I29-I33</f>
-        <v>0.43029833725139793</v>
+        <v>0.44067190892403796</v>
       </c>
       <c r="K33" s="114">
         <f>I29+I33</f>
-        <v>0.4877016627486021</v>
+        <v>0.47732809107596208</v>
       </c>
       <c r="L33" s="202">
         <f>K29-K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>0.43040844521990729</v>
+        <v>0.44077179874252281</v>
       </c>
       <c r="M33" s="89">
         <f>K29+K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>0.48775522743478328</v>
+        <v>0.47739187391216775</v>
       </c>
       <c r="N33" s="331"/>
       <c r="U33" s="338"/>
     </row>
-    <row r="34" spans="9:21" ht="16.5" thickBot="1">
+    <row r="34" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U34" s="339"/>
     </row>
   </sheetData>
@@ -19489,11 +19677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="1.140625" customWidth="1"/>
@@ -19524,7 +19712,7 @@
     <col min="33" max="34" width="0.85546875" style="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.25" thickBot="1">
+    <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="164">
         <f>COUNT(A4:A39)</f>
         <v>8</v>
@@ -19570,7 +19758,7 @@
       <c r="AC1" s="75"/>
       <c r="AD1" s="75"/>
     </row>
-    <row r="2" spans="1:34" ht="20.25" thickBot="1">
+    <row r="2" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
@@ -19596,7 +19784,7 @@
         <v>56</v>
       </c>
       <c r="K2" s="197">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L2" s="111"/>
       <c r="M2" s="111"/>
@@ -19622,28 +19810,28 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="75"/>
     </row>
-    <row r="3" spans="1:34" ht="17.25" thickBot="1">
-      <c r="A3" s="470"/>
-      <c r="B3" s="470"/>
+    <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="469"/>
+      <c r="B3" s="469"/>
       <c r="C3" s="367" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="154"/>
       <c r="E3" s="155">
         <f>IF(A4="","",AVERAGE(A4:A39))</f>
-        <v>11.525</v>
+        <v>46.687500000000007</v>
       </c>
       <c r="F3" s="155">
         <f>IF(B4="","",AVERAGE(B4:B39))</f>
-        <v>11.262500000000001</v>
+        <v>49.612499999999997</v>
       </c>
       <c r="G3" s="155">
         <f xml:space="preserve"> IF(G8&gt;0, 2*(1-_xlfn.T.DIST(G8,A1- 1, TRUE)), 2*(_xlfn.T.DIST(G8,A1- 1, TRUE)))</f>
-        <v>0.85265327826320769</v>
+        <v>1.7827690227152934E-3</v>
       </c>
       <c r="H3" s="183">
         <f>_xlfn.T.DIST(G8,A1- 1, TRUE)</f>
-        <v>0.57367336086839615</v>
+        <v>8.9138451135764671E-4</v>
       </c>
       <c r="I3" s="154"/>
       <c r="J3" s="125"/>
@@ -19683,20 +19871,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="463">
-        <v>9.1</v>
-      </c>
-      <c r="B4" s="463">
-        <v>12.9</v>
+    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="462">
+        <v>49.5</v>
+      </c>
+      <c r="B4" s="462">
+        <v>54.4</v>
       </c>
       <c r="C4" s="366">
         <f>A4-B4</f>
-        <v>-3.8000000000000007</v>
+        <v>-4.8999999999999986</v>
       </c>
       <c r="D4" s="154">
         <f>IF(B4=0,0, C4^2 / B4)</f>
-        <v>1.1193798449612407</v>
+        <v>0.44136029411764682</v>
       </c>
       <c r="E4" s="153" t="s">
         <v>2</v>
@@ -19705,7 +19893,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="460"/>
+      <c r="H4" s="459"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
@@ -19736,7 +19924,7 @@
       </c>
       <c r="W4" s="408">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
-        <v>11.344866730144371</v>
+        <v>6.2513886311703235</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -19748,35 +19936,35 @@
       <c r="AF4" s="133"/>
       <c r="AG4" s="134">
         <f>$A4-$B4</f>
-        <v>-3.8000000000000007</v>
+        <v>-4.8999999999999986</v>
       </c>
       <c r="AH4" s="134">
         <f>IF(A4="",0, (AG4-$E$8)^2)</f>
-        <v>16.50390625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A5" s="463">
-        <v>9</v>
-      </c>
-      <c r="B5" s="463">
-        <v>13.8</v>
+        <v>3.9006249999999918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="462">
+        <v>43.9</v>
+      </c>
+      <c r="B5" s="462">
+        <v>45.2</v>
       </c>
       <c r="C5" s="366">
         <f t="shared" ref="C5:C15" si="0">A5-B5</f>
-        <v>-4.8000000000000007</v>
+        <v>-1.3000000000000043</v>
       </c>
       <c r="D5" s="154">
         <f t="shared" ref="D5:D17" si="1">IF(B5=0,0, C5^2 / B5)</f>
-        <v>1.6695652173913047</v>
+        <v>3.7389380530973695E-2</v>
       </c>
       <c r="E5" s="156">
         <f>_xlfn.STDEV.S(A4:A39)</f>
-        <v>2.3310022369297374</v>
+        <v>2.7041964742652431</v>
       </c>
       <c r="F5" s="156">
         <f>_xlfn.STDEV.S(B4:B39)</f>
-        <v>2.6027114981989712</v>
+        <v>3.4273844671577591</v>
       </c>
       <c r="G5" s="155"/>
       <c r="H5" s="183"/>
@@ -19816,27 +20004,27 @@
       <c r="AF5" s="133"/>
       <c r="AG5" s="134">
         <f t="shared" ref="AG5:AG36" si="5">$A5-$B5</f>
-        <v>-4.8000000000000007</v>
+        <v>-1.3000000000000043</v>
       </c>
       <c r="AH5" s="134">
         <f t="shared" ref="AH5:AH11" si="6">IF(A5="",0, (AG5-$E$8)^2)</f>
-        <v>25.62890625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A6" s="463">
-        <v>12.7</v>
-      </c>
-      <c r="B6" s="463">
-        <v>14</v>
+        <v>2.6406249999999885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="462">
+        <v>49.9</v>
+      </c>
+      <c r="B6" s="462">
+        <v>52.3</v>
       </c>
       <c r="C6" s="366">
         <f t="shared" si="0"/>
-        <v>-1.3000000000000007</v>
+        <v>-2.3999999999999986</v>
       </c>
       <c r="D6" s="154">
         <f t="shared" si="1"/>
-        <v>0.12071428571428586</v>
+        <v>0.11013384321223697</v>
       </c>
       <c r="E6" s="125"/>
       <c r="F6" s="91"/>
@@ -19881,27 +20069,27 @@
       <c r="AF6" s="133"/>
       <c r="AG6" s="134">
         <f t="shared" si="5"/>
-        <v>-1.3000000000000007</v>
+        <v>-2.3999999999999986</v>
       </c>
       <c r="AH6" s="134">
         <f t="shared" si="6"/>
-        <v>2.4414062500000013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="463">
-        <v>11.8</v>
-      </c>
-      <c r="B7" s="463">
-        <v>11.3</v>
+        <v>0.27562500000000223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="462">
+        <v>45</v>
+      </c>
+      <c r="B7" s="462">
+        <v>50.4</v>
       </c>
       <c r="C7" s="366">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-5.3999999999999986</v>
       </c>
       <c r="D7" s="154">
         <f t="shared" si="1"/>
-        <v>2.2123893805309734E-2</v>
+        <v>0.57857142857142829</v>
       </c>
       <c r="E7" s="170"/>
       <c r="F7" s="66"/>
@@ -19955,7 +20143,7 @@
         <f>1-W7</f>
         <v>5.9757505160639268E-2</v>
       </c>
-      <c r="Y7" s="466">
+      <c r="Y7" s="465">
         <f>2*W7</f>
         <v>1.8804849896787215</v>
       </c>
@@ -19966,43 +20154,43 @@
       <c r="AD7" s="3"/>
       <c r="AF7" s="135">
         <f>SUM(A4:A39)</f>
-        <v>92.2</v>
+        <v>373.50000000000006</v>
       </c>
       <c r="AG7" s="134">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>-5.3999999999999986</v>
       </c>
       <c r="AH7" s="134">
         <f t="shared" si="6"/>
-        <v>5.6406250000000178E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="463">
-        <v>11.5</v>
-      </c>
-      <c r="B8" s="463">
-        <v>7.7</v>
+        <v>6.1256249999999897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="462">
+        <v>46.9</v>
+      </c>
+      <c r="B8" s="462">
+        <v>47.2</v>
       </c>
       <c r="C8" s="366">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>-0.30000000000000426</v>
       </c>
       <c r="D8" s="154">
         <f t="shared" si="1"/>
-        <v>1.8753246753246753</v>
+        <v>1.9067796610170034E-3</v>
       </c>
       <c r="E8" s="172">
         <f xml:space="preserve"> SUM(AG4:AG39)/A1</f>
-        <v>0.26249999999999962</v>
+        <v>-2.9250000000000007</v>
       </c>
       <c r="F8" s="171">
         <f>SQRT(SUM(AH4:AH39) /(A1-1))</f>
-        <v>3.8526197024140045</v>
+        <v>1.6934748722248985</v>
       </c>
       <c r="G8" s="171">
         <f>E8*SQRT(A1)/F8</f>
-        <v>0.19271617174689112</v>
+        <v>-4.8853097707988375</v>
       </c>
       <c r="H8" s="183"/>
       <c r="I8" s="154"/>
@@ -20059,31 +20247,31 @@
       <c r="AD8" s="3"/>
       <c r="AF8" s="135">
         <f>SUM(B4:B39)</f>
-        <v>90.100000000000009</v>
+        <v>396.9</v>
       </c>
       <c r="AG8" s="134">
         <f t="shared" si="5"/>
-        <v>3.8</v>
+        <v>-0.30000000000000426</v>
       </c>
       <c r="AH8" s="134">
         <f t="shared" si="6"/>
-        <v>12.51390625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A9" s="463">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B9" s="463">
-        <v>8.9</v>
+        <v>6.8906249999999813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="462">
+        <v>49.5</v>
+      </c>
+      <c r="B9" s="462">
+        <v>52.9</v>
       </c>
       <c r="C9" s="366">
         <f t="shared" si="0"/>
-        <v>0.29999999999999893</v>
+        <v>-3.3999999999999986</v>
       </c>
       <c r="D9" s="154">
         <f t="shared" si="1"/>
-        <v>1.0112359550561726E-2</v>
+        <v>0.21852551984877108</v>
       </c>
       <c r="E9" s="219" t="s">
         <v>78</v>
@@ -20132,43 +20320,43 @@
       <c r="AF9" s="133"/>
       <c r="AG9" s="134">
         <f t="shared" si="5"/>
-        <v>0.29999999999999893</v>
+        <v>-3.3999999999999986</v>
       </c>
       <c r="AH9" s="134">
         <f t="shared" si="6"/>
-        <v>1.4062499999999483E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A10" s="463">
-        <v>13.5</v>
-      </c>
-      <c r="B10" s="463">
-        <v>13.2</v>
+        <v>0.22562499999999797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="462">
+        <v>43</v>
+      </c>
+      <c r="B10" s="462">
+        <v>45.8</v>
       </c>
       <c r="C10" s="366">
         <f t="shared" si="0"/>
-        <v>0.30000000000000071</v>
+        <v>-2.7999999999999972</v>
       </c>
       <c r="D10" s="154">
         <f t="shared" si="1"/>
-        <v>6.8181818181818508E-3</v>
+        <v>0.1711790393013097</v>
       </c>
       <c r="E10" s="171">
         <f xml:space="preserve"> H10* F8 /SQRT(A1)</f>
-        <v>4.7666698504212173</v>
+        <v>1.1343482153399074</v>
       </c>
       <c r="F10" s="189">
         <f>E8-E10</f>
-        <v>-4.504169850421218</v>
-      </c>
-      <c r="G10" s="459">
+        <v>-4.0593482153399076</v>
+      </c>
+      <c r="G10" s="458">
         <f>E8+E10</f>
-        <v>5.0291698504212166</v>
+        <v>-1.7906517846600933</v>
       </c>
       <c r="H10" s="184">
         <f>TINV(1-K2/100, A$1- 1)</f>
-        <v>3.4994832973504928</v>
+        <v>1.8945786050900073</v>
       </c>
       <c r="I10" s="154"/>
       <c r="J10" s="145" t="s">
@@ -20218,27 +20406,27 @@
       <c r="AF10" s="133"/>
       <c r="AG10" s="134">
         <f t="shared" si="5"/>
-        <v>0.30000000000000071</v>
+        <v>-2.7999999999999972</v>
       </c>
       <c r="AH10" s="134">
         <f t="shared" si="6"/>
-        <v>1.4062500000000817E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A11" s="463">
-        <v>15.4</v>
-      </c>
-      <c r="B11" s="463">
-        <v>8.3000000000000007</v>
+        <v>1.5625000000000888E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="462">
+        <v>45.8</v>
+      </c>
+      <c r="B11" s="462">
+        <v>48.7</v>
       </c>
       <c r="C11" s="366">
         <f t="shared" si="0"/>
-        <v>7.1</v>
+        <v>-2.9000000000000057</v>
       </c>
       <c r="D11" s="154">
         <f t="shared" si="1"/>
-        <v>6.073493975903614</v>
+        <v>0.17268993839835795</v>
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="123"/>
@@ -20299,16 +20487,16 @@
       <c r="AF11" s="133"/>
       <c r="AG11" s="134">
         <f t="shared" si="5"/>
-        <v>7.1</v>
+        <v>-2.9000000000000057</v>
       </c>
       <c r="AH11" s="134">
         <f t="shared" si="6"/>
-        <v>46.751406250000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A12" s="461"/>
-      <c r="B12" s="462"/>
+        <v>6.249999999997513E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="460"/>
+      <c r="B12" s="461"/>
       <c r="C12" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20322,15 +20510,15 @@
       </c>
       <c r="F12" s="228">
         <f>E$5^2/A$1</f>
-        <v>0.67919642857142992</v>
+        <v>0.9140848214285715</v>
       </c>
       <c r="G12" s="383">
         <f xml:space="preserve"> E3-G3 -H14</f>
-        <v>7.7883044486114947</v>
+        <v>44.874352625087894</v>
       </c>
       <c r="H12" s="238">
         <f>E3-G3+H14</f>
-        <v>13.55638899486209</v>
+        <v>48.497081836866684</v>
       </c>
       <c r="I12" s="154"/>
       <c r="J12" s="221"/>
@@ -20385,9 +20573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A13" s="458"/>
-      <c r="B13" s="458"/>
+    <row r="13" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="457"/>
+      <c r="B13" s="457"/>
       <c r="C13" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20414,19 +20602,19 @@
       <c r="K13" s="131"/>
       <c r="L13" s="86">
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
-        <v>7.2831529280370899E-2</v>
+        <v>4.6508208027677682E-2</v>
       </c>
       <c r="M13" s="364">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
-        <v>2.5758293035488999</v>
+        <v>1.6448536269514715</v>
       </c>
       <c r="N13" s="186">
         <f>M8-N8-L13</f>
-        <v>-0.10437835315006561</v>
+        <v>-7.8055031897372396E-2</v>
       </c>
       <c r="O13" s="187">
         <f>M8-N8+L13</f>
-        <v>4.1284705410676192E-2</v>
+        <v>1.4961384157982975E-2</v>
       </c>
       <c r="P13" s="439">
         <f>2*M11</f>
@@ -20471,9 +20659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A14" s="458"/>
-      <c r="B14" s="458"/>
+    <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="457"/>
+      <c r="B14" s="457"/>
       <c r="C14" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20491,11 +20679,11 @@
       </c>
       <c r="G14" s="121">
         <f>TINV(1-K2/100, F14)</f>
-        <v>3.4994832973504928</v>
+        <v>1.8945786050900073</v>
       </c>
       <c r="H14" s="121">
         <f xml:space="preserve"> G14 * SQRT( E5^2 /A1 + G5^2/B1)</f>
-        <v>2.8840422731252975</v>
+        <v>1.811364605889396</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="231" t="s">
@@ -20551,9 +20739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="18" thickBot="1">
-      <c r="A15" s="458"/>
-      <c r="B15" s="458"/>
+    <row r="15" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="457"/>
+      <c r="B15" s="457"/>
       <c r="C15" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20610,7 +20798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="20.25" thickBot="1">
+    <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="175"/>
       <c r="B16" s="175"/>
       <c r="C16" s="175"/>
@@ -20628,7 +20816,7 @@
       </c>
       <c r="I16" s="154"/>
       <c r="K16" s="91">
-        <v>0.215</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="L16" s="188" t="s">
         <v>68</v>
@@ -20673,7 +20861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="19.5" thickBot="1">
+    <row r="17" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="175"/>
       <c r="B17" s="175"/>
       <c r="C17" s="175"/>
@@ -20685,24 +20873,24 @@
       <c r="F17" s="75"/>
       <c r="G17" s="192">
         <f xml:space="preserve"> (I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1))</f>
-        <v>7.3594552790136998</v>
+        <v>8.93153749779942</v>
       </c>
       <c r="H17" s="121">
         <f>TINV(1-K2/100, G17)</f>
-        <v>3.4994832973504928</v>
+        <v>1.8595480375308981</v>
       </c>
       <c r="I17" s="154"/>
       <c r="J17" s="145"/>
       <c r="K17" s="91">
-        <v>0.187</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="L17" s="189">
         <f>(K16*(1-K16) + K17*(1-K17)) * (M13/K18)^2</f>
-        <v>2365.016265541346</v>
+        <v>2237.0718411601551</v>
       </c>
       <c r="M17" s="189">
         <f xml:space="preserve"> 0.5* (M13/K18)^2</f>
-        <v>3686.0536672340068</v>
+        <v>3381.9293176192637</v>
       </c>
       <c r="N17" s="223"/>
       <c r="O17" s="223"/>
@@ -20741,7 +20929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="175"/>
       <c r="B18" s="175"/>
       <c r="C18" s="175"/>
@@ -20759,7 +20947,7 @@
         <v>81</v>
       </c>
       <c r="K18" s="91">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L18" s="165"/>
       <c r="M18" s="165"/>
@@ -20792,7 +20980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="20.25" thickBot="1">
+    <row r="19" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="175"/>
       <c r="B19" s="175"/>
       <c r="C19" s="175"/>
@@ -20801,19 +20989,19 @@
         <v>83</v>
       </c>
       <c r="F19" s="91">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="G19" s="114">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>119.9165334279582</v>
+        <v>-37.514261419746745</v>
       </c>
       <c r="H19" s="121">
         <f xml:space="preserve"> H17 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>3.2607973542915532</v>
+        <v>2.3992681844246988</v>
       </c>
       <c r="I19" s="154">
         <f>F21^2 /F19</f>
-        <v>2.1476566911349564E-2</v>
+        <v>0.19635555555555553</v>
       </c>
       <c r="J19" s="145"/>
       <c r="K19" s="123"/>
@@ -20852,20 +21040,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="20.25" thickBot="1">
+    <row r="20" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="175"/>
       <c r="B20" s="175"/>
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="464">
-        <v>123</v>
+      <c r="F20" s="463">
+        <v>1.21</v>
       </c>
       <c r="G20" s="535"/>
       <c r="H20" s="536"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
-        <v>0.84676339285714164</v>
+        <v>1.4683705357142847</v>
       </c>
       <c r="J20" s="147" t="s">
         <v>61</v>
@@ -20917,7 +21105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="20.25" thickBot="1">
+    <row r="21" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="175"/>
       <c r="B21" s="175"/>
       <c r="C21" s="175"/>
@@ -20925,17 +21113,16 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="465">
-        <f>E5</f>
-        <v>2.3310022369297374</v>
+      <c r="F21" s="464">
+        <v>1.88</v>
       </c>
       <c r="G21" s="139">
         <f xml:space="preserve"> F20- F23 -H19</f>
-        <v>108.47670264570844</v>
+        <v>-50.801768184424695</v>
       </c>
       <c r="H21" s="139">
         <f xml:space="preserve">  F20- F23 + H19</f>
-        <v>114.99829735429155</v>
+        <v>-46.003231815575298</v>
       </c>
       <c r="I21" s="196"/>
       <c r="J21" s="148" t="s">
@@ -20987,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="20.25" thickBot="1">
+    <row r="22" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="175"/>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
@@ -21014,7 +21201,7 @@
       </c>
       <c r="M22" s="121">
         <f xml:space="preserve"> TINV(1-K2/100, K22 -1)</f>
-        <v>3.10580651553928</v>
+        <v>1.7958848187040437</v>
       </c>
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
@@ -21045,15 +21232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="175"/>
       <c r="B23" s="175"/>
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="464">
+      <c r="F23" s="463">
         <f>F3</f>
-        <v>11.262500000000001</v>
+        <v>49.612499999999997</v>
       </c>
       <c r="G23" s="191" t="s">
         <v>73</v>
@@ -21096,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="20.25" thickBot="1">
+    <row r="24" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="175"/>
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
@@ -21104,17 +21291,17 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="465">
+      <c r="F24" s="464">
         <f>F5</f>
-        <v>2.6027114981989712</v>
+        <v>3.4273844671577591</v>
       </c>
       <c r="G24" s="192">
         <f xml:space="preserve"> IF(F19=F22,F19-1,(I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1)))</f>
-        <v>7.3594552790136998</v>
+        <v>8.93153749779942</v>
       </c>
       <c r="H24" s="149">
         <f>TINV(1-K2/100, G24)</f>
-        <v>3.4994832973504928</v>
+        <v>1.8595480375308981</v>
       </c>
       <c r="I24" s="196"/>
       <c r="J24" s="148"/>
@@ -21123,11 +21310,11 @@
       </c>
       <c r="L24" s="238">
         <f>K23 - M22* K24 /SQRT(K22)</f>
-        <v>0.5150873094407431</v>
+        <v>1.6158581536977861</v>
       </c>
       <c r="M24" s="138">
         <f xml:space="preserve">  K23 + M22* K24 /SQRT(K22)</f>
-        <v>5.7349126905592573</v>
+        <v>4.6341418463022137</v>
       </c>
       <c r="N24" s="166"/>
       <c r="O24" s="157"/>
@@ -21155,7 +21342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="20.25" thickBot="1">
+    <row r="25" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="175"/>
       <c r="B25" s="175"/>
       <c r="C25" s="175"/>
@@ -21199,7 +21386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="20.25" thickBot="1">
+    <row r="26" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="175"/>
       <c r="B26" s="175"/>
       <c r="C26" s="175"/>
@@ -21208,11 +21395,11 @@
       <c r="F26" s="91"/>
       <c r="G26" s="114">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>119.9165334279582</v>
+        <v>-37.514261419746745</v>
       </c>
       <c r="H26" s="149">
         <f xml:space="preserve"> H24 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>3.2607973542915532</v>
+        <v>2.3992681844246988</v>
       </c>
       <c r="I26" s="196"/>
       <c r="J26" s="150"/>
@@ -21255,7 +21442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="20.25" thickBot="1">
+    <row r="27" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="175"/>
       <c r="B27" s="175"/>
       <c r="C27" s="175"/>
@@ -21268,23 +21455,23 @@
       <c r="J27" s="94"/>
       <c r="K27" s="373">
         <f>MIN(C4:C28)</f>
-        <v>-4.8000000000000007</v>
+        <v>-5.3999999999999986</v>
       </c>
       <c r="L27" s="374">
         <f>QUARTILE(C4:C27, 1)</f>
-        <v>-0.32500000000000018</v>
+        <v>-3.0250000000000039</v>
       </c>
       <c r="M27" s="374">
         <f>QUARTILE(C4:C15, 2)</f>
-        <v>0</v>
+        <v>-1.8500000000000014</v>
       </c>
       <c r="N27" s="374">
         <f>QUARTILE(C4:C15, 3)</f>
-        <v>0.35000000000000053</v>
+        <v>0</v>
       </c>
       <c r="O27" s="375">
         <f>MAX(C4:C24)</f>
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="75"/>
       <c r="Q27" s="392"/>
@@ -21310,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="16.5" thickBot="1">
+    <row r="28" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="175"/>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
@@ -21319,18 +21506,23 @@
       <c r="F28" s="99"/>
       <c r="G28" s="139">
         <f xml:space="preserve"> F20- F23 -H26</f>
-        <v>108.47670264570844</v>
+        <v>-50.801768184424695</v>
       </c>
       <c r="H28" s="229">
         <f xml:space="preserve">  F20- F23 + H26</f>
-        <v>114.99829735429155</v>
+        <v>-46.003231815575298</v>
       </c>
       <c r="I28" s="196"/>
       <c r="J28" s="94"/>
       <c r="L28" s="111"/>
-      <c r="M28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="320" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="157" t="s">
+        <v>67</v>
+      </c>
       <c r="Q28" s="385"/>
       <c r="R28" s="75"/>
       <c r="S28" s="75"/>
@@ -21354,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="20.25" thickBot="1">
+    <row r="29" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="175"/>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
@@ -21370,10 +21562,27 @@
       </c>
       <c r="H29" s="157"/>
       <c r="I29" s="196"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="175"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
+      <c r="J29" s="230" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="144">
+        <v>15</v>
+      </c>
+      <c r="L29" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="70" t="s">
+        <v>65</v>
+      </c>
       <c r="Q29" s="385"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
@@ -21397,7 +21606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="16.5" thickBot="1">
+    <row r="30" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="175"/>
       <c r="B30" s="175"/>
       <c r="C30" s="175"/>
@@ -21413,11 +21622,32 @@
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="196"/>
-      <c r="J30" s="446"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="378"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
+      <c r="J30" s="328" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="91">
+        <v>1.74</v>
+      </c>
+      <c r="L30" s="121">
+        <f xml:space="preserve"> (K31 - K32) * SQRT(K29) / K30</f>
+        <v>2.3371451227113722</v>
+      </c>
+      <c r="M30" s="149">
+        <f>1 -_xlfn.T.DIST(L30, K29-1, TRUE)</f>
+        <v>1.7402655637874465E-2</v>
+      </c>
+      <c r="N30" s="121">
+        <f>1-M30</f>
+        <v>0.98259734436212554</v>
+      </c>
+      <c r="O30" s="552">
+        <f>2*M30</f>
+        <v>3.4805311275748929E-2</v>
+      </c>
+      <c r="P30" s="551">
+        <f>2*N30</f>
+        <v>1.9651946887242511</v>
+      </c>
       <c r="Q30" s="385"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
@@ -21441,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="16.5" thickBot="1">
+    <row r="31" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="175"/>
       <c r="B31" s="175"/>
       <c r="C31" s="99" t="s">
@@ -21450,21 +21680,23 @@
       <c r="D31" s="154"/>
       <c r="E31" s="121">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G17-1, TRUE)</f>
-        <v>0.99999999998866229</v>
+        <v>1.2435583584811514E-9</v>
       </c>
       <c r="F31" s="121">
         <f>1-_xlfn.T.DIST(G19, G17-1, TRUE)</f>
-        <v>1.1337708549774561E-11</v>
+        <v>0.99999999875644163</v>
       </c>
       <c r="G31" s="121">
         <f xml:space="preserve">  IF(G19&gt;0, 2*(1-_xlfn.T.DIST(G19,G17, TRUE)), 2*(_xlfn.T.DIST(G19,G17, TRUE)))</f>
-        <v>7.3963057900527929E-13</v>
+        <v>2.7975894134362282E-10</v>
       </c>
       <c r="H31" s="121"/>
       <c r="I31" s="196"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="378"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="514">
+        <v>1.05</v>
+      </c>
+      <c r="L31" s="70"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
       <c r="Q31" s="385"/>
@@ -21490,7 +21722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="16.5" thickBot="1">
+    <row r="32" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="175"/>
       <c r="B32" s="175"/>
       <c r="C32" s="163" t="s">
@@ -21499,21 +21731,26 @@
       <c r="D32" s="154"/>
       <c r="E32" s="121">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G24-1, TRUE)</f>
-        <v>0.99999999998866229</v>
+        <v>1.2435583584811514E-9</v>
       </c>
       <c r="F32" s="121">
         <f>1-_xlfn.T.DIST(G19, G24-1, TRUE)</f>
-        <v>1.1337708549774561E-11</v>
+        <v>0.99999999875644163</v>
       </c>
       <c r="G32" s="121">
         <f xml:space="preserve"> IF(G26&gt;0, 2*(1-_xlfn.T.DIST(G26,G24, TRUE)), 2*(_xlfn.T.DIST(G26,G24, TRUE)))</f>
-        <v>7.3963057900527929E-13</v>
+        <v>2.7975894134362282E-10</v>
       </c>
       <c r="H32" s="121"/>
       <c r="I32" s="196"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="378"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="97">
+        <v>0</v>
+      </c>
+      <c r="L32" s="121">
+        <f>TINV((100-K2)/100, K29-1)</f>
+        <v>1.7613101357748921</v>
+      </c>
       <c r="O32" s="75"/>
       <c r="P32" s="75"/>
       <c r="Q32" s="385"/>
@@ -21539,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="175"/>
       <c r="B33" s="175"/>
       <c r="C33" s="175"/>
@@ -21559,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="175"/>
       <c r="B34" s="175"/>
       <c r="C34" s="175"/>
@@ -21577,7 +21814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="243"/>
       <c r="B35" s="243"/>
       <c r="C35" s="243"/>
@@ -21593,7 +21830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG36" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -22116,6 +22353,81 @@
         <oleObject progId="Equation.DSMT4" shapeId="12349" r:id="rId36"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="12350" r:id="rId37">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId38">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="12350" r:id="rId37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="12351" r:id="rId39">
+          <objectPr defaultSize="0" r:id="rId40">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="12351" r:id="rId39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="12352" r:id="rId41">
+          <objectPr defaultSize="0" r:id="rId42">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="12352" r:id="rId41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
@@ -22128,7 +22440,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="0.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -22139,7 +22451,7 @@
     <col min="11" max="12" width="0.85546875" style="432" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="164">
         <f>COUNT(A4:A25)</f>
         <v>10</v>
@@ -22164,7 +22476,7 @@
       <c r="K1" s="433"/>
       <c r="L1" s="433"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
@@ -22183,9 +22495,9 @@
       <c r="K2" s="433"/>
       <c r="L2" s="433"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="470"/>
-      <c r="B3" s="470"/>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="469"/>
+      <c r="B3" s="469"/>
       <c r="C3" s="207"/>
       <c r="D3" s="205" t="s">
         <v>92</v>
@@ -22207,11 +22519,11 @@
       <c r="L3" s="434"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="491">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="490">
         <v>-5</v>
       </c>
-      <c r="B4" s="491">
+      <c r="B4" s="490">
         <v>-10</v>
       </c>
       <c r="C4" s="207">
@@ -22236,11 +22548,11 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A5" s="491">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="490">
         <v>-3</v>
       </c>
-      <c r="B5" s="491">
+      <c r="B5" s="490">
         <v>-8</v>
       </c>
       <c r="C5" s="207">
@@ -22267,11 +22579,11 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A6" s="491">
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="490">
         <v>4</v>
       </c>
-      <c r="B6" s="491">
+      <c r="B6" s="490">
         <v>9</v>
       </c>
       <c r="C6" s="207">
@@ -22303,11 +22615,11 @@
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="491">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="490">
         <v>1</v>
       </c>
-      <c r="B7" s="491">
+      <c r="B7" s="490">
         <v>1</v>
       </c>
       <c r="C7" s="207">
@@ -22336,11 +22648,11 @@
       </c>
       <c r="M7" s="204"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="491">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="490">
         <v>-1</v>
       </c>
-      <c r="B8" s="491">
+      <c r="B8" s="490">
         <v>-2</v>
       </c>
       <c r="C8" s="207">
@@ -22362,11 +22674,11 @@
       </c>
       <c r="M8" s="132"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="491">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="490">
         <v>-2</v>
       </c>
-      <c r="B9" s="491">
+      <c r="B9" s="490">
         <v>-6</v>
       </c>
       <c r="C9" s="431">
@@ -22393,11 +22705,11 @@
       </c>
       <c r="M9" s="132"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="491">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="490">
         <v>0</v>
       </c>
-      <c r="B10" s="491">
+      <c r="B10" s="490">
         <v>-1</v>
       </c>
       <c r="C10" s="431">
@@ -22426,11 +22738,11 @@
       </c>
       <c r="M10" s="132"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="491">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="490">
         <v>2</v>
       </c>
-      <c r="B11" s="491">
+      <c r="B11" s="490">
         <v>3</v>
       </c>
       <c r="C11" s="207">
@@ -22451,11 +22763,11 @@
       </c>
       <c r="M11" s="132"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="491">
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="490">
         <v>3</v>
       </c>
-      <c r="B12" s="491">
+      <c r="B12" s="490">
         <v>6</v>
       </c>
       <c r="C12" s="207">
@@ -22487,11 +22799,11 @@
       </c>
       <c r="M12" s="132"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="491">
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="490">
         <v>-4</v>
       </c>
-      <c r="B13" s="491">
+      <c r="B13" s="490">
         <v>-8</v>
       </c>
       <c r="C13" s="207">
@@ -22516,9 +22828,9 @@
       </c>
       <c r="M13" s="132"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="490"/>
-      <c r="B14" s="490"/>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="489"/>
+      <c r="B14" s="489"/>
       <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22537,9 +22849,9 @@
       </c>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="490"/>
-      <c r="B15" s="490"/>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="489"/>
+      <c r="B15" s="489"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22560,9 +22872,9 @@
       </c>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="490"/>
-      <c r="B16" s="490"/>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="489"/>
+      <c r="B16" s="489"/>
       <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22586,17 +22898,17 @@
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="490"/>
-      <c r="B17" s="490"/>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="489"/>
+      <c r="B17" s="489"/>
       <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="447">
+      <c r="D17" s="446">
         <v>2.097</v>
       </c>
-      <c r="E17" s="447">
+      <c r="E17" s="446">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -22615,9 +22927,9 @@
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="490"/>
-      <c r="B18" s="490"/>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="489"/>
+      <c r="B18" s="489"/>
       <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22633,26 +22945,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="492">
+      <c r="L18" s="491">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="485">
+      <c r="K19" s="484">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="485">
+      <c r="L19" s="484">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22663,16 +22975,16 @@
       <c r="E20" s="539"/>
       <c r="F20" s="537"/>
       <c r="G20" s="537"/>
-      <c r="K20" s="485">
+      <c r="K20" s="484">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="485">
+      <c r="L20" s="484">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22683,18 +22995,18 @@
       <c r="E21" s="428">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="486"/>
-      <c r="G21" s="486"/>
-      <c r="K21" s="485">
+      <c r="F21" s="485"/>
+      <c r="G21" s="485"/>
+      <c r="K21" s="484">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="485">
+      <c r="L21" s="484">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22703,18 +23015,18 @@
         <v>158</v>
       </c>
       <c r="E22" s="541"/>
-      <c r="F22" s="487"/>
-      <c r="G22" s="487"/>
-      <c r="K22" s="485">
+      <c r="F22" s="486"/>
+      <c r="G22" s="486"/>
+      <c r="K22" s="484">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="485">
+      <c r="L22" s="484">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22724,132 +23036,132 @@
         <v>7.624242500000002</v>
       </c>
       <c r="E23" s="543"/>
-      <c r="F23" s="488"/>
-      <c r="G23" s="489"/>
-      <c r="K23" s="485">
+      <c r="F23" s="487"/>
+      <c r="G23" s="488"/>
+      <c r="K23" s="484">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="485">
+      <c r="L23" s="484">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="485">
+      <c r="K24" s="484">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="485">
+      <c r="L24" s="484">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="485">
+      <c r="K25" s="484">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="485">
+      <c r="L25" s="484">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="485">
+      <c r="K26" s="484">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="485">
+      <c r="L26" s="484">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="485">
+      <c r="K27" s="484">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="485">
+      <c r="L27" s="484">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="485">
+      <c r="K28" s="484">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="485">
+      <c r="L28" s="484">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="485">
+      <c r="K29" s="484">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="485">
+      <c r="L29" s="484">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="485">
+      <c r="K30" s="484">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="485">
+      <c r="L30" s="484">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="485"/>
-      <c r="L31" s="485"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="K31" s="484"/>
+      <c r="L31" s="484"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="485"/>
-      <c r="L32" s="485"/>
-    </row>
-    <row r="33" spans="3:12" ht="15.75" thickBot="1">
+      <c r="K32" s="484"/>
+      <c r="L32" s="484"/>
+    </row>
+    <row r="33" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22936,9 +23248,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" ht="19.5" thickBot="1">
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
@@ -22946,7 +23258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
@@ -22962,7 +23274,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -22978,7 +23290,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
@@ -22994,7 +23306,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>23</v>
       </c>
@@ -23010,7 +23322,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
       <c r="C8" s="16">
@@ -23022,7 +23334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="16">
@@ -23034,7 +23346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23044,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23054,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23064,7 +23376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23074,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -23085,31 +23397,31 @@
       <c r="C14" s="16"/>
       <c r="D14" s="45"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
       <c r="D15" s="45"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
       <c r="D20" s="45"/>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
       <c r="D21" s="45"/>
     </row>
@@ -23127,7 +23439,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="8" width="5.7109375" customWidth="1"/>
@@ -23135,7 +23447,7 @@
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="279" customHeight="1">
+    <row r="1" spans="2:13" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="str">
         <f>REPT("*",COUNTIF(A2:A58,A1))</f>
         <v/>
@@ -23165,7 +23477,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="18.75">
+    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="27">
         <v>0</v>
       </c>
@@ -23188,7 +23500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1">
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" s="30">
         <v>670</v>
       </c>
@@ -23199,7 +23511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="16.5" thickBot="1">
+    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K4" s="31">
         <v>675</v>
       </c>
@@ -23210,7 +23522,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="16.5" thickBot="1">
+    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K5" s="33">
         <v>685</v>
       </c>
@@ -23221,7 +23533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="16.5" thickBot="1">
+    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="33">
         <v>695</v>
       </c>
@@ -23232,7 +23544,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" thickBot="1">
+    <row r="7" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="33">
         <v>705</v>
       </c>
@@ -23243,7 +23555,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16.5" thickBot="1">
+    <row r="8" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -23262,7 +23574,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16.5" thickBot="1">
+    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -23281,7 +23593,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="16.5" thickBot="1">
+    <row r="10" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -23300,7 +23612,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15.75">
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -23319,7 +23631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15.75">
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -23329,29 +23641,29 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75">
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75">
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="K20" s="550" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="550"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="K21" s="39" t="s">
         <v>14</v>
@@ -23360,7 +23672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30">
+    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="29"/>
       <c r="K22" s="39" t="s">
         <v>16</v>
@@ -23369,7 +23681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="30">
+    <row r="23" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="K23" s="39" t="s">
         <v>17</v>
       </c>
@@ -23377,7 +23689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="30">
+    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="K24" s="39" t="s">
         <v>18</v>
       </c>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="179">
   <si>
     <t>Mean</t>
   </si>
@@ -1982,29 +1982,10 @@
     <t>Exp</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> / freq</t>
-    </r>
-  </si>
-  <si>
     <t>E Count</t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>z=</t>
   </si>
   <si>
     <t>P-Val. Z</t>
@@ -2104,9 +2085,6 @@
       </rPr>
       <t xml:space="preserve"> = </t>
     </r>
-  </si>
-  <si>
-    <t>P-2tail</t>
   </si>
   <si>
     <r>
@@ -2381,6 +2359,68 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>P-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    / freq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2399,7 +2439,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2996,8 +3036,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3082,8 +3128,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -3849,6 +3901,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3858,7 +3936,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="553">
+  <cellXfs count="566">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -4847,9 +4925,6 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4920,12 +4995,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="72" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4996,14 +5065,8 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5030,24 +5093,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5151,6 +5204,16 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5256,11 +5319,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5451,11 +5570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158500256"/>
-        <c:axId val="284782456"/>
+        <c:axId val="160374336"/>
+        <c:axId val="160621424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158500256"/>
+        <c:axId val="160374336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5512,12 +5631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284782456"/>
+        <c:crossAx val="160621424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284782456"/>
+        <c:axId val="160621424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5574,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158500256"/>
+        <c:crossAx val="160374336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5714,11 +5833,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="284782840"/>
-        <c:axId val="285410136"/>
+        <c:axId val="119319128"/>
+        <c:axId val="281562480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="284782840"/>
+        <c:axId val="119319128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,7 +5930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285410136"/>
+        <c:crossAx val="281562480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5819,7 +5938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285410136"/>
+        <c:axId val="281562480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5928,7 +6047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284782840"/>
+        <c:crossAx val="119319128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6505,11 +6624,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="285278880"/>
-        <c:axId val="285245040"/>
+        <c:axId val="280966744"/>
+        <c:axId val="280967128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285278880"/>
+        <c:axId val="280966744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6605,7 +6724,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285245040"/>
+        <c:crossAx val="280967128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6613,7 +6732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285245040"/>
+        <c:axId val="280967128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6717,7 +6836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285278880"/>
+        <c:crossAx val="280966744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6942,11 +7061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="285769872"/>
-        <c:axId val="285244504"/>
+        <c:axId val="281543624"/>
+        <c:axId val="281544008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285769872"/>
+        <c:axId val="281543624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7042,7 +7161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285244504"/>
+        <c:crossAx val="281544008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7050,7 +7169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285244504"/>
+        <c:axId val="281544008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7155,7 +7274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285769872"/>
+        <c:crossAx val="281543624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7356,11 +7475,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="121214528"/>
-        <c:axId val="121214920"/>
+        <c:axId val="159093664"/>
+        <c:axId val="159093272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121214528"/>
+        <c:axId val="159093664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7453,7 +7572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121214920"/>
+        <c:crossAx val="159093272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7461,7 +7580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121214920"/>
+        <c:axId val="159093272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7562,7 +7681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121214528"/>
+        <c:crossAx val="159093664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13479,7 +13598,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>218209</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13538,7 +13657,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>466725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>199159</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14071,13 +14190,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>83993</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>10391</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>226868</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -14269,6 +14388,65 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12352"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12353" name="Object 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12353"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15066,14 +15244,14 @@
         <f>COUNT(B5:B60)</f>
         <v>12</v>
       </c>
-      <c r="E2" s="516" t="s">
+      <c r="E2" s="509" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="517"/>
-      <c r="G2" s="518" t="s">
+      <c r="F2" s="510"/>
+      <c r="G2" s="511" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="519"/>
+      <c r="H2" s="512"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -15116,8 +15294,8 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
+      <c r="B4" s="457"/>
+      <c r="C4" s="457"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
@@ -15135,10 +15313,10 @@
         <f>MEDIAN(C5:C60)</f>
         <v>67</v>
       </c>
-      <c r="J4" s="421" t="s">
+      <c r="J4" s="418" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="456"/>
+      <c r="K4" s="451"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -15146,8 +15324,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="471"/>
-      <c r="P4" s="471"/>
+      <c r="O4" s="460"/>
+      <c r="P4" s="460"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -15159,7 +15337,7 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="481">
+      <c r="B5" s="470">
         <v>5.05</v>
       </c>
       <c r="C5" s="3">
@@ -15178,12 +15356,12 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="466">
+      <c r="J5" s="455">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="455" t="s">
-        <v>166</v>
+      <c r="K5" s="450" t="s">
+        <v>163</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -15195,7 +15373,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="470">
+      <c r="P5" s="459">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -15212,7 +15390,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="481">
+      <c r="B6" s="470">
         <v>5.0199999999999996</v>
       </c>
       <c r="C6" s="3">
@@ -15235,11 +15413,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="448">
+      <c r="J6" s="443">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="453">
+      <c r="K6" s="448">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -15250,7 +15428,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="470">
+      <c r="P6" s="459">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -15268,7 +15446,7 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="481">
+      <c r="B7" s="470">
         <v>5.43</v>
       </c>
       <c r="C7" s="3">
@@ -15276,22 +15454,22 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="447">
+      <c r="J7" s="442">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="453">
+      <c r="K7" s="448">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15299,7 +15477,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="470">
+      <c r="P7" s="459">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15312,12 +15490,12 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="481">
+      <c r="B8" s="470">
         <v>5.72</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="479">
+      <c r="E8" s="468">
         <f>_xlfn.STDEV.P(B5:B60)</f>
         <v>0.39561046357356239</v>
       </c>
@@ -15325,7 +15503,7 @@
         <f>E8^2</f>
         <v>0.15650763888888894</v>
       </c>
-      <c r="G8" s="479">
+      <c r="G8" s="468">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15334,11 +15512,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="447">
+      <c r="J8" s="442">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="453">
+      <c r="K8" s="448">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15348,7 +15526,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="470">
+      <c r="P8" s="459">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15361,7 +15539,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="481">
+      <c r="B9" s="470">
         <v>4.68</v>
       </c>
       <c r="C9" s="3"/>
@@ -15373,11 +15551,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="447">
+      <c r="J9" s="442">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="453">
+      <c r="K9" s="448">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15385,7 +15563,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="470">
+      <c r="P9" s="459">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15402,7 +15580,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="481">
+      <c r="B10" s="470">
         <v>4.76</v>
       </c>
       <c r="C10" s="3"/>
@@ -15416,8 +15594,8 @@
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="447"/>
-      <c r="K10" s="453" t="str">
+      <c r="J10" s="442"/>
+      <c r="K10" s="448" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15425,7 +15603,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="470"/>
+      <c r="P10" s="459"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15440,7 +15618,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="481">
+      <c r="B11" s="470">
         <v>4.38</v>
       </c>
       <c r="C11" s="3"/>
@@ -15453,8 +15631,8 @@
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="453" t="str">
+      <c r="J11" s="442"/>
+      <c r="K11" s="448" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15462,7 +15640,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="470"/>
+      <c r="P11" s="459"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15477,7 +15655,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="481">
+      <c r="B12" s="470">
         <v>4.74</v>
       </c>
       <c r="C12" s="3"/>
@@ -15491,8 +15669,8 @@
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="447"/>
-      <c r="K12" s="453" t="str">
+      <c r="J12" s="442"/>
+      <c r="K12" s="448" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15511,7 +15689,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="481">
+      <c r="B13" s="470">
         <v>4.5599999999999996</v>
       </c>
       <c r="C13" s="3"/>
@@ -15520,8 +15698,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="452"/>
-      <c r="K13" s="453" t="str">
+      <c r="J13" s="447"/>
+      <c r="K13" s="448" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15540,13 +15718,13 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="481">
+      <c r="B14" s="470">
         <v>4.8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="452"/>
-      <c r="K14" s="453" t="str">
+      <c r="J14" s="447"/>
+      <c r="K14" s="448" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15565,7 +15743,7 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="481">
+      <c r="B15" s="470">
         <v>5.19</v>
       </c>
       <c r="C15" s="3"/>
@@ -15600,7 +15778,7 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="481">
+      <c r="B16" s="470">
         <v>5.54</v>
       </c>
       <c r="C16" s="3"/>
@@ -15640,7 +15818,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="481"/>
+      <c r="B17" s="470"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="254" t="s">
@@ -15673,7 +15851,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="481"/>
+      <c r="B18" s="470"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="255">
@@ -15710,7 +15888,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="480"/>
+      <c r="B19" s="469"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15762,7 +15940,7 @@
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>-13.333333333333334</v>
       </c>
-      <c r="K21" s="467"/>
+      <c r="K21" s="456"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -15785,7 +15963,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="478"/>
+      <c r="I22" s="467"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15825,7 +16003,7 @@
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="482"/>
+      <c r="H24" s="471"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -15844,7 +16022,7 @@
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="482"/>
+      <c r="H25" s="471"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -15863,7 +16041,7 @@
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="482"/>
+      <c r="H26" s="471"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -15879,7 +16057,7 @@
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="482"/>
+      <c r="H27" s="471"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
@@ -15888,7 +16066,7 @@
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="482"/>
+      <c r="H28" s="471"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
@@ -15897,7 +16075,7 @@
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="482"/>
+      <c r="H29" s="471"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
@@ -15905,7 +16083,7 @@
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="482"/>
+      <c r="H30" s="471"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
@@ -15913,12 +16091,12 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="482"/>
+      <c r="H31" s="471"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="483"/>
+      <c r="H32" s="472"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
@@ -16079,13 +16257,13 @@
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
-      <c r="B2" s="501">
+      <c r="B2" s="490">
         <v>0</v>
       </c>
-      <c r="C2" s="501">
+      <c r="C2" s="490">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D2" s="430">
+      <c r="D2" s="427">
         <f>(B2-$G$2)^2 *C2</f>
         <v>0.90720000000000034</v>
       </c>
@@ -16121,22 +16299,22 @@
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
-      <c r="Q2" s="421" t="s">
+      <c r="Q2" s="418" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S2" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T2" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="V2" s="498">
+        <v>153</v>
+      </c>
+      <c r="V2" s="487">
         <v>10</v>
       </c>
-      <c r="W2" s="502" t="s">
+      <c r="W2" s="491" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -16146,10 +16324,10 @@
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="501">
+      <c r="B3" s="490">
         <v>1</v>
       </c>
-      <c r="C3" s="501">
+      <c r="C3" s="490">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -16179,23 +16357,23 @@
       <c r="M3" s="94"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
-      <c r="Q3" s="422">
+      <c r="Q3" s="419">
         <v>1</v>
       </c>
-      <c r="R3" s="423">
+      <c r="R3" s="420">
         <v>38</v>
       </c>
-      <c r="S3" s="424">
+      <c r="S3" s="421">
         <v>245</v>
       </c>
-      <c r="T3" s="429">
+      <c r="T3" s="426">
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="498">
+      <c r="V3" s="487">
         <v>10</v>
       </c>
-      <c r="W3" s="503" t="s">
+      <c r="W3" s="492" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -16205,10 +16383,10 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
-      <c r="B4" s="501">
+      <c r="B4" s="490">
         <v>2</v>
       </c>
-      <c r="C4" s="501">
+      <c r="C4" s="490">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16234,27 +16412,27 @@
       <c r="M4" s="95"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
-      <c r="Q4" s="425">
+      <c r="Q4" s="422">
         <v>37</v>
       </c>
       <c r="R4" s="251">
         <v>38</v>
       </c>
-      <c r="S4" s="426">
+      <c r="S4" s="423">
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="498">
+      <c r="V4" s="487">
         <v>9</v>
       </c>
       <c r="W4" s="284"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
-      <c r="B5" s="501">
+      <c r="B5" s="490">
         <v>3</v>
       </c>
-      <c r="C5" s="501">
+      <c r="C5" s="490">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16291,20 +16469,20 @@
       <c r="O5" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="425"/>
+      <c r="Q5" s="422"/>
       <c r="R5" s="251"/>
-      <c r="S5" s="426"/>
+      <c r="S5" s="423"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="498">
+      <c r="V5" s="487">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
-      <c r="B6" s="501">
+      <c r="B6" s="490">
         <v>5</v>
       </c>
-      <c r="C6" s="501">
+      <c r="C6" s="490">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16334,7 +16512,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.88051957581093498</v>
       </c>
-      <c r="M6" s="496">
+      <c r="M6" s="485">
         <f>1-L6+K6</f>
         <v>0.19064890656751515</v>
       </c>
@@ -16347,25 +16525,25 @@
         <v>0.15418936294109509</v>
       </c>
       <c r="P6" s="257"/>
-      <c r="Q6" s="427"/>
-      <c r="R6" s="505" t="s">
-        <v>171</v>
-      </c>
-      <c r="S6" s="428">
+      <c r="Q6" s="424"/>
+      <c r="R6" s="494" t="s">
+        <v>168</v>
+      </c>
+      <c r="S6" s="425">
         <v>1000</v>
       </c>
-      <c r="T6" s="504">
+      <c r="T6" s="493">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="498">
+      <c r="V6" s="487">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
-      <c r="B7" s="501"/>
-      <c r="C7" s="501"/>
+      <c r="B7" s="490"/>
+      <c r="C7" s="490"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16394,20 +16572,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="497" t="s">
-        <v>170</v>
+      <c r="N7" s="486" t="s">
+        <v>167</v>
       </c>
       <c r="O7" s="198" t="s">
-        <v>169</v>
-      </c>
-      <c r="V7" s="498">
+        <v>166</v>
+      </c>
+      <c r="V7" s="487">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="493"/>
+      <c r="C8" s="482"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16416,7 +16594,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="477">
+      <c r="F8" s="466">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
@@ -16428,7 +16606,7 @@
       <c r="J8" s="76">
         <v>37</v>
       </c>
-      <c r="K8" s="495">
+      <c r="K8" s="484">
         <f>J5*J6</f>
         <v>31.5</v>
       </c>
@@ -16448,7 +16626,7 @@
         <f>1-L6</f>
         <v>0.11948042418906502</v>
       </c>
-      <c r="V8" s="498">
+      <c r="V8" s="487">
         <v>7</v>
       </c>
     </row>
@@ -16475,10 +16653,10 @@
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="494"/>
+      <c r="N9" s="483"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="492"/>
-      <c r="V9" s="498">
+      <c r="T9" s="481"/>
+      <c r="V9" s="487">
         <v>6</v>
       </c>
     </row>
@@ -16504,7 +16682,7 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="498">
+      <c r="V10" s="487">
         <v>6</v>
       </c>
     </row>
@@ -16520,10 +16698,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="421" t="s">
+      <c r="F11" s="418" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="456"/>
+      <c r="G11" s="451"/>
       <c r="H11" s="262"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
@@ -16544,7 +16722,7 @@
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="498">
+      <c r="V11" s="487">
         <v>5</v>
       </c>
     </row>
@@ -16554,12 +16732,12 @@
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="454">
+      <c r="F12" s="449">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="455" t="s">
-        <v>166</v>
+      <c r="G12" s="450" t="s">
+        <v>163</v>
       </c>
       <c r="H12" s="262"/>
       <c r="I12" s="67" t="s">
@@ -16585,7 +16763,7 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="498">
+      <c r="V12" s="487">
         <v>5</v>
       </c>
     </row>
@@ -16594,11 +16772,11 @@
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="449"/>
-      <c r="F13" s="498">
+      <c r="E13" s="444"/>
+      <c r="F13" s="487">
         <v>12</v>
       </c>
-      <c r="G13" s="499">
+      <c r="G13" s="488">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
@@ -16614,20 +16792,20 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="498">
+      <c r="V13" s="487">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="472"/>
+      <c r="C14" s="461"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="449"/>
-      <c r="F14" s="498">
+      <c r="E14" s="444"/>
+      <c r="F14" s="487">
         <v>33</v>
       </c>
-      <c r="G14" s="500">
+      <c r="G14" s="489">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
@@ -16643,20 +16821,20 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="498">
+      <c r="V14" s="487">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="474"/>
+      <c r="C15" s="463"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="450"/>
-      <c r="F15" s="498">
+      <c r="E15" s="445"/>
+      <c r="F15" s="487">
         <v>29</v>
       </c>
-      <c r="G15" s="500">
+      <c r="G15" s="489">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
@@ -16664,32 +16842,32 @@
       <c r="I15" s="67"/>
       <c r="J15" s="76"/>
       <c r="K15" s="157" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L15" s="157" t="s">
         <v>67</v>
       </c>
       <c r="M15" s="157" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N15" s="162" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="498">
+      <c r="V15" s="487">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="473"/>
+      <c r="C16" s="462"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="498">
+      <c r="F16" s="487">
         <v>11</v>
       </c>
-      <c r="G16" s="500">
+      <c r="G16" s="489">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
@@ -16702,14 +16880,14 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="507" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="508" t="s">
-        <v>175</v>
+      <c r="M16" s="496" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16" s="497" t="s">
+        <v>172</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="498">
+      <c r="V16" s="487">
         <v>5</v>
       </c>
     </row>
@@ -16719,10 +16897,10 @@
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="475">
+      <c r="F17" s="464">
         <v>6</v>
       </c>
-      <c r="G17" s="451">
+      <c r="G17" s="446">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
@@ -16750,7 +16928,7 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="498">
+      <c r="V17" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16758,16 +16936,16 @@
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="475">
+      <c r="F18" s="464">
         <v>2</v>
       </c>
-      <c r="G18" s="451">
+      <c r="G18" s="446">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H18" s="263"/>
       <c r="I18" s="212" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J18" s="213">
         <v>1.4</v>
@@ -16777,7 +16955,7 @@
       </c>
       <c r="M18" s="257"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="498">
+      <c r="V18" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16785,15 +16963,15 @@
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="476">
+      <c r="F19" s="465">
         <v>3</v>
       </c>
-      <c r="G19" s="451">
+      <c r="G19" s="446">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H19" s="263"/>
-      <c r="I19" s="506" t="s">
+      <c r="I19" s="495" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
@@ -16804,7 +16982,7 @@
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="498">
+      <c r="V19" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16812,10 +16990,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="476">
+      <c r="F20" s="465">
         <v>1</v>
       </c>
-      <c r="G20" s="451">
+      <c r="G20" s="446">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16830,7 +17008,7 @@
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="498">
+      <c r="V20" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16838,10 +17016,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="476">
+      <c r="F21" s="465">
         <v>1</v>
       </c>
-      <c r="G21" s="451">
+      <c r="G21" s="446">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -16857,7 +17035,7 @@
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="498">
+      <c r="V21" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16865,16 +17043,16 @@
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="476">
+      <c r="F22" s="465">
         <v>2</v>
       </c>
-      <c r="G22" s="451">
+      <c r="G22" s="446">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H22" s="263"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="498">
+      <c r="V22" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16882,16 +17060,16 @@
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="476"/>
-      <c r="G23" s="451" t="str">
+      <c r="F23" s="465"/>
+      <c r="G23" s="446" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" s="263"/>
-      <c r="J23" s="520"/>
-      <c r="K23" s="520"/>
+      <c r="J23" s="513"/>
+      <c r="K23" s="513"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="498">
+      <c r="V23" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16899,8 +17077,8 @@
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="476"/>
-      <c r="G24" s="451" t="str">
+      <c r="F24" s="465"/>
+      <c r="G24" s="446" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -16921,7 +17099,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="498">
+      <c r="V24" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16949,7 +17127,7 @@
         <f>1-L25</f>
         <v>3.1606145797329344E-3</v>
       </c>
-      <c r="V25" s="498">
+      <c r="V25" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16970,7 +17148,7 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="498">
+      <c r="V26" s="487">
         <v>4</v>
       </c>
     </row>
@@ -16990,7 +17168,7 @@
         <f>J26/SQRT(J27)</f>
         <v>0.44312024954356982</v>
       </c>
-      <c r="V27" s="498">
+      <c r="V27" s="487">
         <v>4</v>
       </c>
     </row>
@@ -17000,7 +17178,7 @@
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="H28" s="263"/>
-      <c r="V28" s="498">
+      <c r="V28" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17010,7 +17188,7 @@
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
       <c r="H29" s="263"/>
-      <c r="V29" s="498">
+      <c r="V29" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17019,7 +17197,7 @@
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="498">
+      <c r="V30" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17028,7 +17206,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="498">
+      <c r="V31" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17037,7 +17215,7 @@
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="498">
+      <c r="V32" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17046,7 +17224,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="498">
+      <c r="V33" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17055,7 +17233,7 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="498">
+      <c r="V34" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17064,7 +17242,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="498">
+      <c r="V35" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17073,7 +17251,7 @@
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="498">
+      <c r="V36" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17082,7 +17260,7 @@
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="498">
+      <c r="V37" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17091,7 +17269,7 @@
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="498">
+      <c r="V38" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17100,7 +17278,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="498">
+      <c r="V39" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17109,7 +17287,7 @@
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="498">
+      <c r="V40" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17118,7 +17296,7 @@
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="498">
+      <c r="V41" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17127,7 +17305,7 @@
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="498">
+      <c r="V42" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17136,7 +17314,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="498">
+      <c r="V43" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17145,7 +17323,7 @@
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="498">
+      <c r="V44" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17154,7 +17332,7 @@
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="498">
+      <c r="V45" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17163,7 +17341,7 @@
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="498">
+      <c r="V46" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17172,7 +17350,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="498">
+      <c r="V47" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17181,7 +17359,7 @@
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="498">
+      <c r="V48" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17190,7 +17368,7 @@
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="498">
+      <c r="V49" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17199,7 +17377,7 @@
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="498">
+      <c r="V50" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17208,7 +17386,7 @@
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="498">
+      <c r="V51" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17217,7 +17395,7 @@
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="498">
+      <c r="V52" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17226,7 +17404,7 @@
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="498">
+      <c r="V53" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17235,7 +17413,7 @@
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="498">
+      <c r="V54" s="487">
         <v>3</v>
       </c>
     </row>
@@ -17244,237 +17422,237 @@
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="498">
+      <c r="V55" s="487">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V56" s="498">
+      <c r="V56" s="487">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V57" s="498">
+      <c r="V57" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V58" s="498">
+      <c r="V58" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V59" s="498">
+      <c r="V59" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V60" s="498">
+      <c r="V60" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V61" s="498">
+      <c r="V61" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V62" s="498">
+      <c r="V62" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V63" s="498">
+      <c r="V63" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V64" s="498">
+      <c r="V64" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V65" s="498">
+      <c r="V65" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V66" s="498">
+      <c r="V66" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V67" s="498">
+      <c r="V67" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V68" s="498">
+      <c r="V68" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V69" s="498">
+      <c r="V69" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V70" s="498">
+      <c r="V70" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V71" s="498">
+      <c r="V71" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V72" s="498">
+      <c r="V72" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V73" s="498">
+      <c r="V73" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V74" s="498">
+      <c r="V74" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V75" s="498">
+      <c r="V75" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V76" s="498">
+      <c r="V76" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V77" s="498">
+      <c r="V77" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V78" s="498">
+      <c r="V78" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V79" s="498">
+      <c r="V79" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V80" s="498">
+      <c r="V80" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V81" s="498">
+      <c r="V81" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V82" s="498">
+      <c r="V82" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V83" s="498">
+      <c r="V83" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V84" s="498">
+      <c r="V84" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V85" s="498">
+      <c r="V85" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V86" s="498">
+      <c r="V86" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V87" s="498">
+      <c r="V87" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V88" s="498">
+      <c r="V88" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V89" s="498">
+      <c r="V89" s="487">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V90" s="498">
+      <c r="V90" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V91" s="498">
+      <c r="V91" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V92" s="498">
+      <c r="V92" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V93" s="498">
+      <c r="V93" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V94" s="498">
+      <c r="V94" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V95" s="498">
+      <c r="V95" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V96" s="498">
+      <c r="V96" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V97" s="498">
+      <c r="V97" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V98" s="498">
+      <c r="V98" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V99" s="498">
+      <c r="V99" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V100" s="498">
+      <c r="V100" s="487">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V101" s="498">
+      <c r="V101" s="487">
         <v>1</v>
       </c>
     </row>
@@ -17497,8 +17675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+    <sheetView topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17544,16 +17722,16 @@
         <v>56</v>
       </c>
       <c r="L1" s="353">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N1" s="303"/>
       <c r="U1" s="337"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512">
+      <c r="A2" s="501">
         <v>0</v>
       </c>
-      <c r="B2" s="512">
+      <c r="B2" s="501">
         <v>0.46200000000000002</v>
       </c>
       <c r="C2" s="106">
@@ -17595,10 +17773,10 @@
       <c r="X2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="512">
+      <c r="A3" s="501">
         <v>1</v>
       </c>
-      <c r="B3" s="512">
+      <c r="B3" s="501">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C3" s="106">
@@ -17646,17 +17824,17 @@
       <c r="U3" s="338"/>
       <c r="V3" s="94"/>
       <c r="W3" s="76">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="X3" s="121"/>
       <c r="Y3" s="121"/>
       <c r="Z3" s="126"/>
     </row>
     <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="512">
+      <c r="A4" s="501">
         <v>2</v>
       </c>
-      <c r="B4" s="512">
+      <c r="B4" s="501">
         <v>0.246</v>
       </c>
       <c r="C4" s="106">
@@ -17681,7 +17859,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="185"/>
-      <c r="J4" s="435">
+      <c r="J4" s="432">
         <f>SQRT(H6*(1-H6)/H4)</f>
         <v>9.7638790105845391E-2</v>
       </c>
@@ -17709,27 +17887,27 @@
         <v>122</v>
       </c>
       <c r="W4" s="76">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="X4" s="305">
         <f>_xlfn.CHISQ.INV(W3,W4)</f>
-        <v>26.509303196693114</v>
+        <v>211.44423601108178</v>
       </c>
       <c r="Y4" s="121">
         <f>_xlfn.CHISQ.INV.RT(W3,W4)</f>
-        <v>55.75847927888703</v>
+        <v>267.41211401110633</v>
       </c>
       <c r="Z4" s="121">
         <f>_xlfn.CHISQ.INV.RT(1-W3 / 2,W4)</f>
-        <v>24.433039170807891</v>
+        <v>204.21060815427191</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="512">
+      <c r="A5" s="501">
         <v>3</v>
       </c>
-      <c r="B5" s="512">
+      <c r="B5" s="501">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C5" s="106"/>
@@ -17737,7 +17915,7 @@
         <f t="shared" si="1"/>
         <v>0.20700000000000002</v>
       </c>
-      <c r="E5" s="436">
+      <c r="E5" s="433">
         <f>A2*B2+A3*B3</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -17786,15 +17964,15 @@
       <c r="X5" s="159"/>
       <c r="Z5" s="121">
         <f>_xlfn.CHISQ.INV.RT(W3/ 2,W4)</f>
-        <v>59.341707143171199</v>
+        <v>276.06241732878874</v>
       </c>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="512">
+      <c r="A6" s="501">
         <v>4</v>
       </c>
-      <c r="B6" s="512">
+      <c r="B6" s="501">
         <v>0.14899999999999999</v>
       </c>
       <c r="C6" s="106"/>
@@ -17811,14 +17989,14 @@
         <v>0.78</v>
       </c>
       <c r="I6" s="168" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J6" s="378">
         <f>ROUND(H8/H6, 0)</f>
         <v>2</v>
       </c>
       <c r="K6" s="168" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L6" s="124">
         <f>ROUND(10/(H6*(1-H6)),0)</f>
@@ -17873,7 +18051,7 @@
       </c>
       <c r="R7" s="299">
         <f>P7*(1-P7)* ((_xlfn.NORM.S.INV(1- (100-L1)/200))/P8)^2</f>
-        <v>740.71767454345456</v>
+        <v>1051.7060593544802</v>
       </c>
       <c r="U7" s="338"/>
       <c r="V7" s="127" t="s">
@@ -17882,11 +18060,11 @@
       <c r="W7" s="235">
         <v>15</v>
       </c>
-      <c r="X7" s="525" t="s">
+      <c r="X7" s="518" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="526"/>
-      <c r="Z7" s="527"/>
+      <c r="Y7" s="519"/>
+      <c r="Z7" s="520"/>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="280"/>
@@ -17928,7 +18106,7 @@
       </c>
       <c r="R8" s="299">
         <f>0.25* ((_xlfn.NORM.S.INV(1- (100-L$1)/200))/P8)^2</f>
-        <v>751.53984835983624</v>
+        <v>1067.0718946372567</v>
       </c>
       <c r="U8" s="338"/>
       <c r="V8" s="281" t="s">
@@ -17947,7 +18125,7 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="280"/>
-      <c r="B9" s="513">
+      <c r="B9" s="502">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C9" s="311"/>
@@ -18003,7 +18181,7 @@
     </row>
     <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="280"/>
-      <c r="B10" s="513">
+      <c r="B10" s="502">
         <v>0.185</v>
       </c>
       <c r="C10" s="311"/>
@@ -18050,7 +18228,7 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="280"/>
-      <c r="B11" s="513">
+      <c r="B11" s="502">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C11" s="311"/>
@@ -18097,19 +18275,19 @@
     </row>
     <row r="12" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="280"/>
-      <c r="B12" s="513">
+      <c r="B12" s="502">
         <v>0.126</v>
       </c>
       <c r="C12" s="311"/>
       <c r="D12" s="85"/>
       <c r="N12" s="330"/>
-      <c r="O12" s="521" t="s">
+      <c r="O12" s="514" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="522"/>
+      <c r="P12" s="515"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
-        <v>1.6838510133356521</v>
+        <v>2.0210753903062715</v>
       </c>
       <c r="R12" s="75"/>
       <c r="S12" s="29"/>
@@ -18121,7 +18299,7 @@
     </row>
     <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="280"/>
-      <c r="B13" s="513">
+      <c r="B13" s="502">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C13" s="311"/>
@@ -18148,7 +18326,7 @@
     </row>
     <row r="14" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="313"/>
-      <c r="B14" s="513">
+      <c r="B14" s="502">
         <v>0.24399999999999999</v>
       </c>
       <c r="C14" s="311"/>
@@ -18187,7 +18365,7 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="313"/>
-      <c r="B15" s="513">
+      <c r="B15" s="502">
         <v>0.25600000000000001</v>
       </c>
       <c r="C15" s="311"/>
@@ -18223,22 +18401,22 @@
       </c>
       <c r="Q15" s="121">
         <f xml:space="preserve"> TINV(1-L$1/100, P16 -1 )* P15 / SQRT(P16)</f>
-        <v>8.4503648556255868</v>
+        <v>10.356525903489425</v>
       </c>
       <c r="R15" s="117">
         <f>P14-Q15</f>
-        <v>-3.4803648556255871</v>
+        <v>-5.3865259034894253</v>
       </c>
       <c r="S15" s="117">
         <f>P14+Q15</f>
-        <v>13.420364855625586</v>
+        <v>15.326525903489426</v>
       </c>
       <c r="T15" s="123"/>
       <c r="U15" s="338"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="313"/>
-      <c r="B16" s="513">
+      <c r="B16" s="502">
         <v>0.33200000000000002</v>
       </c>
       <c r="C16" s="311"/>
@@ -18260,7 +18438,7 @@
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="313"/>
-      <c r="B17" s="513">
+      <c r="B17" s="502">
         <v>0.121</v>
       </c>
       <c r="C17" s="311"/>
@@ -18279,7 +18457,7 @@
       </c>
       <c r="Q17" s="189">
         <f>((_xlfn.NORM.S.INV(1- (100-L1)/200))*P15/P17)^2</f>
-        <v>179.7089600796524</v>
+        <v>255.15929851755541</v>
       </c>
       <c r="R17" s="123"/>
       <c r="S17" s="111"/>
@@ -18288,7 +18466,7 @@
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="313"/>
-      <c r="B18" s="513">
+      <c r="B18" s="502">
         <v>9.4E-2</v>
       </c>
       <c r="C18" s="311"/>
@@ -18297,7 +18475,7 @@
       <c r="H18" s="91"/>
       <c r="I18" s="114">
         <f>-_xlfn.NORM.S.INV( (1-L1/100)/2)</f>
-        <v>1.6448536269514726</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="J18" s="218"/>
       <c r="K18" s="218"/>
@@ -18312,7 +18490,7 @@
     </row>
     <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="313"/>
-      <c r="B19" s="513"/>
+      <c r="B19" s="502"/>
       <c r="C19" s="311"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
@@ -18334,11 +18512,11 @@
     </row>
     <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="313"/>
-      <c r="B20" s="513"/>
+      <c r="B20" s="502"/>
       <c r="C20" s="311"/>
       <c r="D20" s="85"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="438"/>
+      <c r="G20" s="434"/>
+      <c r="H20" s="435"/>
       <c r="I20" s="70" t="s">
         <v>44</v>
       </c>
@@ -18360,11 +18538,11 @@
       </c>
       <c r="Q20" s="138">
         <f>_xlfn.CHISQ.INV((1-L1/100)/2,P20-1)</f>
-        <v>7.2609439276700316</v>
+        <v>6.2621377950432535</v>
       </c>
       <c r="R20" s="138">
         <f>_xlfn.CHISQ.INV.RT((1-L1/100)/2,P20-1)</f>
-        <v>24.99579013972863</v>
+        <v>27.488392863442979</v>
       </c>
       <c r="U20" s="338"/>
     </row>
@@ -18416,8 +18594,8 @@
       <c r="C22" s="311"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="523">
-        <v>0.1</v>
+      <c r="H22" s="516">
+        <v>0.05</v>
       </c>
       <c r="I22" s="70" t="s">
         <v>43</v>
@@ -18439,11 +18617,11 @@
       <c r="P22" s="69"/>
       <c r="Q22" s="138">
         <f>(P20-1)*P21/R20</f>
-        <v>1.3802324234257854</v>
+        <v>1.2550751937877682</v>
       </c>
       <c r="R22" s="138">
         <f>(P20-1)*P21/Q20</f>
-        <v>4.7514483438616395</v>
+        <v>5.5093006780061922</v>
       </c>
       <c r="U22" s="338"/>
     </row>
@@ -18455,26 +18633,26 @@
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="524"/>
+      <c r="H23" s="517"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
-        <v>-1.2815515655446006</v>
+        <v>-1.6448536269514726</v>
       </c>
       <c r="J23" s="121">
         <f>_xlfn.NORM.S.INV(H22/2)</f>
-        <v>-1.6448536269514726</v>
+        <v>-1.9599639845400538</v>
       </c>
       <c r="K23" s="202">
         <f>-TINV(2*H22,H24)</f>
-        <v>-1.3333793897216262</v>
+        <v>-2.3533634348018233</v>
       </c>
       <c r="L23" s="321">
         <f>TINV(2*H22,H24)</f>
-        <v>1.3333793897216262</v>
+        <v>2.3533634348018233</v>
       </c>
       <c r="M23" s="89">
         <f>TINV(H22,H24)</f>
-        <v>1.7396067260750732</v>
+        <v>3.1824463052837091</v>
       </c>
       <c r="N23" s="330"/>
       <c r="O23" s="152" t="s">
@@ -18485,11 +18663,11 @@
       </c>
       <c r="Q23" s="138">
         <f>SQRT((P20-1)*(P23^2)/R20)</f>
-        <v>2.1690533097923015</v>
+        <v>2.0683736017015146</v>
       </c>
       <c r="R23" s="138">
         <f>SQRT((P20-1)*(P23^2)/Q20)</f>
-        <v>4.0244554055486947</v>
+        <v>4.3335354236049</v>
       </c>
       <c r="U23" s="338"/>
     </row>
@@ -18502,7 +18680,7 @@
         <v>122</v>
       </c>
       <c r="H24" s="69">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K24" s="140" t="s">
         <v>66</v>
@@ -18517,11 +18695,11 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="138">
         <f>Q23^2</f>
-        <v>4.7047922607209376</v>
+        <v>4.2781693562156962</v>
       </c>
       <c r="R24" s="138">
         <f>R23^2</f>
-        <v>16.196241311250109</v>
+        <v>18.779529267638498</v>
       </c>
       <c r="U24" s="338"/>
     </row>
@@ -18638,11 +18816,11 @@
       </c>
       <c r="S27" s="130">
         <f>P28-Q29*P27/SQRT(P26)</f>
-        <v>0.43914503343394107</v>
+        <v>0.27509799465958962</v>
       </c>
       <c r="T27" s="130">
         <f>P28+Q29*P27/SQRT(P26)</f>
-        <v>1.9808549665660589</v>
+        <v>2.1449020053404104</v>
       </c>
       <c r="U27" s="338"/>
     </row>
@@ -18661,9 +18839,9 @@
       <c r="J28" s="297" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="511"/>
+      <c r="K28" s="500"/>
       <c r="L28" s="70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M28" s="191" t="s">
         <v>107</v>
@@ -18701,11 +18879,11 @@
         <f>H26*I29*(1-I29)</f>
         <v>496.63799999999992</v>
       </c>
-      <c r="K29" s="509">
+      <c r="K29" s="498">
         <f>(H28+2)/(H26+4)</f>
         <v>0.45908183632734528</v>
       </c>
-      <c r="L29" s="515">
+      <c r="L29" s="504">
         <f>L27*2</f>
         <v>1.9912070233037573</v>
       </c>
@@ -18720,7 +18898,7 @@
       </c>
       <c r="Q29" s="121">
         <f>TINV((100-L1)/100, P26-1)</f>
-        <v>1.7396067260750732</v>
+        <v>2.109815577833317</v>
       </c>
       <c r="R29" s="121">
         <f>1-_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
@@ -18763,15 +18941,15 @@
     <row r="31" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J31" s="116">
         <f>1-I31</f>
-        <v>0.95</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="K31" s="112">
         <f>_xlfn.NORM.S.INV(J31)</f>
-        <v>1.6448536269514715</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="N31" s="330"/>
       <c r="O31" s="147" t="s">
@@ -18800,8 +18978,8 @@
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="510" t="s">
-        <v>177</v>
+      <c r="L32" s="499" t="s">
+        <v>174</v>
       </c>
       <c r="M32" s="153" t="s">
         <v>103</v>
@@ -18834,23 +19012,23 @@
     <row r="33" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
-        <v>1.8328091075962033E-2</v>
+        <v>2.183926753460317E-2</v>
       </c>
       <c r="J33" s="114">
         <f>I29-I33</f>
-        <v>0.44067190892403796</v>
+        <v>0.43716073246539683</v>
       </c>
       <c r="K33" s="114">
         <f>I29+I33</f>
-        <v>0.47732809107596208</v>
+        <v>0.48083926753460321</v>
       </c>
       <c r="L33" s="202">
         <f>K29-K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>0.44077179874252281</v>
+        <v>0.43726408085427082</v>
       </c>
       <c r="M33" s="89">
         <f>K29+K31*SQRT(K29*(1-K29)/(H26+4))</f>
-        <v>0.47739187391216775</v>
+        <v>0.48089959180041975</v>
       </c>
       <c r="N33" s="331"/>
       <c r="U33" s="338"/>
@@ -19677,8 +19855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA12:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19690,23 +19868,26 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="1.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="91" customWidth="1"/>
+    <col min="10" max="10" width="12" style="91" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="91" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="132" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" style="132" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="29" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="17" width="1.28515625" style="386" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" style="385" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="29" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" style="29" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="29" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="29" customWidth="1"/>
     <col min="21" max="21" width="1" style="29" customWidth="1"/>
     <col min="22" max="22" width="10.28515625" style="29" customWidth="1"/>
     <col min="23" max="23" width="9.42578125" style="29" customWidth="1"/>
     <col min="24" max="24" width="10.7109375" style="29" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="29" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" style="29"/>
-    <col min="30" max="30" width="6.140625" style="29" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" style="29" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="29"/>
+    <col min="27" max="27" width="11.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.42578125" style="29" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" style="29" customWidth="1"/>
+    <col min="30" max="30" width="1.5703125" style="29" customWidth="1"/>
     <col min="31" max="31" width="2.42578125" customWidth="1"/>
     <col min="32" max="32" width="1" style="109" customWidth="1"/>
     <col min="33" max="34" width="0.85546875" style="109" customWidth="1"/>
@@ -19729,8 +19910,8 @@
       <c r="F1" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="528"/>
-      <c r="H1" s="529"/>
+      <c r="G1" s="521"/>
+      <c r="H1" s="522"/>
       <c r="I1" s="195"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
@@ -19740,11 +19921,11 @@
       <c r="P1" s="75"/>
       <c r="Q1" s="195"/>
       <c r="R1" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="440">
+        <v>159</v>
+      </c>
+      <c r="S1" s="437">
         <f>SUM(S4:S18)</f>
-        <v>100</v>
+        <v>577</v>
       </c>
       <c r="T1" s="75"/>
       <c r="U1" s="151"/>
@@ -19791,15 +19972,15 @@
       <c r="N2" s="94"/>
       <c r="O2" s="75"/>
       <c r="P2" s="75"/>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="387" t="s">
+      <c r="Q2" s="387"/>
+      <c r="R2" s="386" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="32">
-        <v>100</v>
+        <v>570</v>
       </c>
       <c r="T2" s="132"/>
-      <c r="U2" s="397"/>
+      <c r="U2" s="396"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -19811,27 +19992,27 @@
       <c r="AD2" s="75"/>
     </row>
     <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="469"/>
-      <c r="B3" s="469"/>
+      <c r="A3" s="458"/>
+      <c r="B3" s="458"/>
       <c r="C3" s="367" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="154"/>
       <c r="E3" s="155">
         <f>IF(A4="","",AVERAGE(A4:A39))</f>
-        <v>46.687500000000007</v>
+        <v>72.125</v>
       </c>
       <c r="F3" s="155">
         <f>IF(B4="","",AVERAGE(B4:B39))</f>
-        <v>49.612499999999997</v>
+        <v>72.337500000000006</v>
       </c>
       <c r="G3" s="155">
         <f xml:space="preserve"> IF(G8&gt;0, 2*(1-_xlfn.T.DIST(G8,A1- 1, TRUE)), 2*(_xlfn.T.DIST(G8,A1- 1, TRUE)))</f>
-        <v>1.7827690227152934E-3</v>
+        <v>0.99507542388801351</v>
       </c>
       <c r="H3" s="183">
         <f>_xlfn.T.DIST(G8,A1- 1, TRUE)</f>
-        <v>8.9138451135764671E-4</v>
+        <v>0.49753771194400676</v>
       </c>
       <c r="I3" s="154"/>
       <c r="J3" s="125"/>
@@ -19843,25 +20024,31 @@
       <c r="N3" s="123"/>
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
-      <c r="Q3" s="388"/>
-      <c r="R3" s="367" t="s">
+      <c r="Q3" s="387"/>
+      <c r="R3" s="559" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="367" t="s">
-        <v>151</v>
-      </c>
-      <c r="T3" s="384" t="s">
+      <c r="S3" s="561" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="560" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="397"/>
-      <c r="V3" s="405"/>
-      <c r="W3" s="406"/>
+      <c r="U3" s="396"/>
+      <c r="V3" s="404"/>
+      <c r="W3" s="405"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
+      <c r="Z3" s="551" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA3" s="552" t="s">
+        <v>147</v>
+      </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="AC3" s="562" t="s">
+        <v>30</v>
+      </c>
       <c r="AD3" s="75"/>
       <c r="AF3" s="133"/>
       <c r="AG3" s="122" t="s">
@@ -19872,19 +20059,19 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="462">
-        <v>49.5</v>
-      </c>
-      <c r="B4" s="462">
-        <v>54.4</v>
+      <c r="A4" s="508">
+        <v>220</v>
+      </c>
+      <c r="B4" s="508">
+        <v>73.3</v>
       </c>
       <c r="C4" s="366">
         <f>A4-B4</f>
-        <v>-4.8999999999999986</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="D4" s="154">
         <f>IF(B4=0,0, C4^2 / B4)</f>
-        <v>0.44136029411764682</v>
+        <v>293.60013642564797</v>
       </c>
       <c r="E4" s="153" t="s">
         <v>2</v>
@@ -19893,78 +20080,88 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="459"/>
+      <c r="H4" s="452"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
-      <c r="Q4" s="388">
+      <c r="Q4" s="387">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
-        <v>22.502717391304348</v>
+        <v>219.23809581021777</v>
       </c>
       <c r="R4" s="175">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="S4" s="175">
-        <v>23</v>
+        <f>S4/S$1</f>
+        <v>0.38128249566724437</v>
+      </c>
+      <c r="S4" s="558">
+        <v>220</v>
       </c>
       <c r="T4" s="378">
         <f>S$2*R4</f>
-        <v>25</v>
-      </c>
-      <c r="U4" s="397">
+        <v>217.33102253032928</v>
+      </c>
+      <c r="U4" s="396">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
-        <v>0.16</v>
-      </c>
-      <c r="V4" s="407">
+        <v>3.2776916294201985E-2</v>
+      </c>
+      <c r="V4" s="406">
         <f>SUM(Q4:Q15)</f>
-        <v>98.010040218939679</v>
-      </c>
-      <c r="W4" s="408">
+        <v>575.00173310225318</v>
+      </c>
+      <c r="W4" s="407">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
-        <v>6.2513886311703235</v>
+        <v>12.01703662378053</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="Z4" s="549">
+        <v>1.6</v>
+      </c>
+      <c r="AA4" s="550">
+        <f>Z4/S$1</f>
+        <v>2.7729636048526864E-3</v>
+      </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="75"/>
+      <c r="AC4" s="564">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="563">
+        <f>AC4*R4</f>
+        <v>0</v>
+      </c>
       <c r="AF4" s="133"/>
       <c r="AG4" s="134">
         <f>$A4-$B4</f>
-        <v>-4.8999999999999986</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="AH4" s="134">
         <f>IF(A4="",0, (AG4-$E$8)^2)</f>
-        <v>3.9006249999999918</v>
+        <v>21583.282656249998</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="462">
-        <v>43.9</v>
-      </c>
-      <c r="B5" s="462">
-        <v>45.2</v>
+      <c r="A5" s="508">
+        <v>214</v>
+      </c>
+      <c r="B5" s="508">
+        <v>76.8</v>
       </c>
       <c r="C5" s="366">
-        <f t="shared" ref="C5:C15" si="0">A5-B5</f>
-        <v>-1.3000000000000043</v>
+        <f t="shared" ref="C5:C16" si="0">A5-B5</f>
+        <v>137.19999999999999</v>
       </c>
       <c r="D5" s="154">
         <f t="shared" ref="D5:D17" si="1">IF(B5=0,0, C5^2 / B5)</f>
-        <v>3.7389380530973695E-2</v>
+        <v>245.1020833333333</v>
       </c>
       <c r="E5" s="156">
         <f>_xlfn.STDEV.S(A4:A39)</f>
-        <v>2.7041964742652431</v>
+        <v>95.372109579867669</v>
       </c>
       <c r="F5" s="156">
         <f>_xlfn.STDEV.S(B4:B39)</f>
-        <v>3.4273844671577591</v>
+        <v>2.4634108177774277</v>
       </c>
       <c r="G5" s="155"/>
       <c r="H5" s="183"/>
@@ -19974,57 +20171,68 @@
       <c r="L5" s="123"/>
       <c r="O5" s="75"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="388">
+      <c r="Q5" s="387">
         <f t="shared" ref="Q5:Q23" si="2">IF(S5=0,0, (R5-S5)^2 / S5)</f>
-        <v>23.502604166666668</v>
+        <v>213.25887501539367</v>
       </c>
       <c r="R5" s="175">
-        <v>0.25</v>
-      </c>
-      <c r="S5" s="175">
-        <v>24</v>
+        <f t="shared" ref="R5:R11" si="3">S5/S$1</f>
+        <v>0.37088388214904677</v>
+      </c>
+      <c r="S5" s="558">
+        <v>214</v>
       </c>
       <c r="T5" s="378">
-        <f t="shared" ref="T5:T15" si="3">S$2*R5</f>
-        <v>25</v>
-      </c>
-      <c r="U5" s="397">
-        <f t="shared" ref="U5:U17" si="4">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
-        <v>0.04</v>
+        <f t="shared" ref="T5:T15" si="4">S$2*R5</f>
+        <v>211.40381282495667</v>
+      </c>
+      <c r="U5" s="396">
+        <f t="shared" ref="U5:U17" si="5">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
+        <v>3.1883000395268896E-2</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
+      <c r="Z5" s="546">
+        <v>25.5</v>
+      </c>
+      <c r="AA5" s="548">
+        <f t="shared" ref="AA5:AA14" si="6">Z5/S$1</f>
+        <v>4.419410745233969E-2</v>
+      </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="75"/>
+      <c r="AC5" s="564">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="563">
+        <f t="shared" ref="AD5:AD14" si="7">AC5*R5</f>
+        <v>0.37088388214904677</v>
+      </c>
       <c r="AF5" s="133"/>
       <c r="AG5" s="134">
-        <f t="shared" ref="AG5:AG36" si="5">$A5-$B5</f>
-        <v>-1.3000000000000043</v>
+        <f t="shared" ref="AG5:AG36" si="8">$A5-$B5</f>
+        <v>137.19999999999999</v>
       </c>
       <c r="AH5" s="134">
-        <f t="shared" ref="AH5:AH11" si="6">IF(A5="",0, (AG5-$E$8)^2)</f>
-        <v>2.6406249999999885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="462">
-        <v>49.9</v>
-      </c>
-      <c r="B6" s="462">
-        <v>52.3</v>
+        <f t="shared" ref="AH5:AH11" si="9">IF(A5="",0, (AG5-$E$8)^2)</f>
+        <v>18882.19515625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="508">
+        <v>99</v>
+      </c>
+      <c r="B6" s="508">
+        <v>69.8</v>
       </c>
       <c r="C6" s="366">
         <f t="shared" si="0"/>
-        <v>-2.3999999999999986</v>
+        <v>29.200000000000003</v>
       </c>
       <c r="D6" s="154">
         <f t="shared" si="1"/>
-        <v>0.11013384321223697</v>
+        <v>12.21547277936963</v>
       </c>
       <c r="E6" s="125"/>
       <c r="F6" s="91"/>
@@ -20035,61 +20243,72 @@
         <v>141</v>
       </c>
       <c r="P6" s="140"/>
-      <c r="Q6" s="388">
+      <c r="Q6" s="387">
         <f t="shared" si="2"/>
-        <v>25.502403846153847</v>
+        <v>98.657143114598014</v>
       </c>
       <c r="R6" s="175">
-        <v>0.25</v>
-      </c>
-      <c r="S6" s="175">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>0.17157712305025996</v>
+      </c>
+      <c r="S6" s="558">
+        <v>99</v>
       </c>
       <c r="T6" s="378">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="U6" s="397">
         <f t="shared" si="4"/>
-        <v>0.04</v>
-      </c>
-      <c r="V6" s="409" t="s">
-        <v>149</v>
+        <v>97.798960138648184</v>
+      </c>
+      <c r="U6" s="396">
+        <f t="shared" si="5"/>
+        <v>1.4749612332390683E-2</v>
+      </c>
+      <c r="V6" s="408" t="s">
+        <v>177</v>
       </c>
       <c r="W6" s="377" t="s">
         <v>146</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+      <c r="Z6" s="546">
+        <v>153.1</v>
+      </c>
+      <c r="AA6" s="548">
+        <f t="shared" si="6"/>
+        <v>0.26533795493934142</v>
+      </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="162"/>
+      <c r="AC6" s="564">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="563">
+        <f t="shared" si="7"/>
+        <v>0.34315424610051992</v>
+      </c>
       <c r="AF6" s="133"/>
       <c r="AG6" s="134">
-        <f t="shared" si="5"/>
-        <v>-2.3999999999999986</v>
+        <f t="shared" si="8"/>
+        <v>29.200000000000003</v>
       </c>
       <c r="AH6" s="134">
-        <f t="shared" si="6"/>
-        <v>0.27562500000000223</v>
+        <f t="shared" si="9"/>
+        <v>865.09515625000051</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="462">
-        <v>45</v>
-      </c>
-      <c r="B7" s="462">
-        <v>50.4</v>
+      <c r="A7" s="508">
+        <v>35</v>
+      </c>
+      <c r="B7" s="508">
+        <v>73</v>
       </c>
       <c r="C7" s="366">
         <f t="shared" si="0"/>
-        <v>-5.3999999999999986</v>
+        <v>-38</v>
       </c>
       <c r="D7" s="154">
         <f t="shared" si="1"/>
-        <v>0.57857142857142829</v>
+        <v>19.780821917808218</v>
       </c>
       <c r="E7" s="170"/>
       <c r="F7" s="66"/>
@@ -20100,7 +20319,7 @@
         <v>76</v>
       </c>
       <c r="K7" s="144">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L7" s="100" t="s">
         <v>40</v>
@@ -20113,84 +20332,95 @@
       <c r="P7" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="388">
+      <c r="Q7" s="387">
         <f t="shared" si="2"/>
-        <v>26.502314814814813</v>
+        <v>34.87878796980737</v>
       </c>
       <c r="R7" s="175">
-        <v>0.25</v>
-      </c>
-      <c r="S7" s="175">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>6.0658578856152515E-2</v>
+      </c>
+      <c r="S7" s="558">
+        <v>35</v>
       </c>
       <c r="T7" s="378">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="U7" s="397">
         <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="V7" s="410">
+        <v>34.575389948006936</v>
+      </c>
+      <c r="U7" s="396">
+        <f t="shared" si="5"/>
+        <v>5.2145094104410821E-3</v>
+      </c>
+      <c r="V7" s="409">
         <f>SUM(U4:U17)</f>
-        <v>0.4</v>
+        <v>8.59649122807018E-2</v>
       </c>
       <c r="W7" s="139">
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
-        <v>0.94024249483936073</v>
-      </c>
-      <c r="X7" s="414">
+        <v>0.99999863110898124</v>
+      </c>
+      <c r="X7" s="544">
         <f>1-W7</f>
-        <v>5.9757505160639268E-2</v>
-      </c>
-      <c r="Y7" s="465">
+        <v>1.3688910187603653E-6</v>
+      </c>
+      <c r="Y7" s="545">
         <f>2*W7</f>
-        <v>1.8804849896787215</v>
-      </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
+        <v>1.9999972622179625</v>
+      </c>
+      <c r="Z7" s="546">
+        <v>408.4</v>
+      </c>
+      <c r="AA7" s="548">
+        <f t="shared" si="6"/>
+        <v>0.70779896013864818</v>
+      </c>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
+      <c r="AC7" s="564">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="563">
+        <f t="shared" si="7"/>
+        <v>0.18197573656845756</v>
+      </c>
       <c r="AF7" s="135">
         <f>SUM(A4:A39)</f>
-        <v>373.50000000000006</v>
+        <v>577</v>
       </c>
       <c r="AG7" s="134">
-        <f t="shared" si="5"/>
-        <v>-5.3999999999999986</v>
+        <f t="shared" si="8"/>
+        <v>-38</v>
       </c>
       <c r="AH7" s="134">
-        <f t="shared" si="6"/>
-        <v>6.1256249999999897</v>
+        <f t="shared" si="9"/>
+        <v>1427.8951562499997</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="462">
-        <v>46.9</v>
-      </c>
-      <c r="B8" s="462">
-        <v>47.2</v>
+      <c r="A8" s="508">
+        <v>8</v>
+      </c>
+      <c r="B8" s="508">
+        <v>73.8</v>
       </c>
       <c r="C8" s="366">
         <f t="shared" si="0"/>
-        <v>-0.30000000000000426</v>
+        <v>-65.8</v>
       </c>
       <c r="D8" s="154">
         <f t="shared" si="1"/>
-        <v>1.9067796610170034E-3</v>
+        <v>58.667208672086716</v>
       </c>
       <c r="E8" s="172">
         <f xml:space="preserve"> SUM(AG4:AG39)/A1</f>
-        <v>-2.9250000000000007</v>
+        <v>-0.21250000000000746</v>
       </c>
       <c r="F8" s="171">
         <f>SQRT(SUM(AH4:AH39) /(A1-1))</f>
-        <v>1.6934748722248985</v>
+        <v>93.975094534973152</v>
       </c>
       <c r="G8" s="171">
         <f>E8*SQRT(A1)/F8</f>
-        <v>-4.8853097707988375</v>
+        <v>-6.3957452448734397E-3</v>
       </c>
       <c r="H8" s="183"/>
       <c r="I8" s="154"/>
@@ -20198,80 +20428,97 @@
         <v>75</v>
       </c>
       <c r="K8" s="91">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="L8" s="138">
         <f xml:space="preserve"> (K7+K10) / (K8+K11)</f>
-        <v>0.3543307086614173</v>
-      </c>
-      <c r="M8" s="138">
+        <v>0.352112676056338</v>
+      </c>
+      <c r="M8" s="121">
         <f>K7/K8</f>
-        <v>0.33812949640287771</v>
-      </c>
-      <c r="N8" s="179">
+        <v>0.33450704225352113</v>
+      </c>
+      <c r="N8" s="96">
         <f>K10/K11</f>
-        <v>0.36967632027257241</v>
+        <v>0.36971830985915494</v>
       </c>
       <c r="O8" s="138">
         <f>(ABS(K7-K10)-1)/SQRT(K7+K10)</f>
-        <v>1.3913311859998692</v>
+        <v>0.95</v>
       </c>
       <c r="P8" s="121">
         <f>SQRT(  M8*(1-M8)/K8 + N8*(1-N8)/K11 )</f>
-        <v>2.8274982810400445E-2</v>
-      </c>
-      <c r="Q8" s="388">
+        <v>2.8322798577803274E-2</v>
+      </c>
+      <c r="Q8" s="387">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
+        <v>7.9722943930988288</v>
+      </c>
+      <c r="R8" s="175">
+        <f t="shared" si="3"/>
+        <v>1.3864818024263431E-2</v>
+      </c>
+      <c r="S8" s="558">
+        <v>8</v>
+      </c>
       <c r="T8" s="378">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="397">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="411" t="s">
-        <v>150</v>
-      </c>
-      <c r="W8" s="3"/>
+        <v>7.9029462738301559</v>
+      </c>
+      <c r="U8" s="396">
+        <f t="shared" si="5"/>
+        <v>1.1918878652437E-3</v>
+      </c>
+      <c r="V8" s="410" t="s">
+        <v>149</v>
+      </c>
+      <c r="W8" s="367" t="s">
+        <v>32</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+      <c r="Z8" s="546">
+        <v>408.4</v>
+      </c>
+      <c r="AA8" s="548">
+        <f t="shared" si="6"/>
+        <v>0.70779896013864818</v>
+      </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="AC8" s="564">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="563">
+        <f t="shared" si="7"/>
+        <v>5.5459272097053723E-2</v>
+      </c>
       <c r="AF8" s="135">
         <f>SUM(B4:B39)</f>
-        <v>396.9</v>
+        <v>578.70000000000005</v>
       </c>
       <c r="AG8" s="134">
-        <f t="shared" si="5"/>
-        <v>-0.30000000000000426</v>
+        <f t="shared" si="8"/>
+        <v>-65.8</v>
       </c>
       <c r="AH8" s="134">
-        <f t="shared" si="6"/>
-        <v>6.8906249999999813</v>
+        <f t="shared" si="9"/>
+        <v>4301.7201562499986</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="462">
-        <v>49.5</v>
-      </c>
-      <c r="B9" s="462">
-        <v>52.9</v>
+      <c r="A9" s="508">
+        <v>0</v>
+      </c>
+      <c r="B9" s="508">
+        <v>71.3</v>
       </c>
       <c r="C9" s="366">
         <f t="shared" si="0"/>
-        <v>-3.3999999999999986</v>
+        <v>-71.3</v>
       </c>
       <c r="D9" s="154">
         <f t="shared" si="1"/>
-        <v>0.21852551984877108</v>
+        <v>71.3</v>
       </c>
       <c r="E9" s="219" t="s">
         <v>78</v>
@@ -20291,68 +20538,84 @@
       <c r="P9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="388">
+      <c r="Q9" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="378">
+      <c r="R9" s="175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9" s="397">
+      <c r="S9" s="558">
+        <v>0</v>
+      </c>
+      <c r="T9" s="378">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9" s="412">
+      <c r="U9" s="396">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="411">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
-        <v>25</v>
-      </c>
-      <c r="W9" s="3"/>
+        <v>72.125</v>
+      </c>
+      <c r="W9" s="565">
+        <f>SUM(AD4:AD14)</f>
+        <v>0.96360485268630847</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
+      <c r="Z9" s="546"/>
+      <c r="AA9" s="548">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
+      <c r="AC9" s="564">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="563">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AF9" s="133"/>
       <c r="AG9" s="134">
-        <f t="shared" si="5"/>
-        <v>-3.3999999999999986</v>
+        <f t="shared" si="8"/>
+        <v>-71.3</v>
       </c>
       <c r="AH9" s="134">
-        <f t="shared" si="6"/>
-        <v>0.22562499999999797</v>
+        <f t="shared" si="9"/>
+        <v>5053.4326562499991</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="462">
-        <v>43</v>
-      </c>
-      <c r="B10" s="462">
-        <v>45.8</v>
+      <c r="A10" s="508">
+        <v>0</v>
+      </c>
+      <c r="B10" s="508">
+        <v>71.7</v>
       </c>
       <c r="C10" s="366">
         <f t="shared" si="0"/>
-        <v>-2.7999999999999972</v>
+        <v>-71.7</v>
       </c>
       <c r="D10" s="154">
         <f t="shared" si="1"/>
-        <v>0.1711790393013097</v>
+        <v>71.7</v>
       </c>
       <c r="E10" s="171">
         <f xml:space="preserve"> H10* F8 /SQRT(A1)</f>
-        <v>1.1343482153399074</v>
-      </c>
-      <c r="F10" s="189">
+        <v>62.947778275619442</v>
+      </c>
+      <c r="F10" s="130">
         <f>E8-E10</f>
-        <v>-4.0593482153399076</v>
-      </c>
-      <c r="G10" s="458">
+        <v>-63.160278275619447</v>
+      </c>
+      <c r="G10" s="507">
         <f>E8+E10</f>
-        <v>-1.7906517846600933</v>
+        <v>62.735278275619436</v>
       </c>
       <c r="H10" s="184">
         <f>TINV(1-K2/100, A$1- 1)</f>
@@ -20363,7 +20626,7 @@
         <v>77</v>
       </c>
       <c r="K10" s="91">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L10" s="70" t="s">
         <v>79</v>
@@ -20380,53 +20643,66 @@
       <c r="P10" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="388">
+      <c r="Q10" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="378">
+      <c r="R10" s="175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" s="397">
+      <c r="S10" s="558">
+        <v>0</v>
+      </c>
+      <c r="T10" s="378">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="396">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
+      <c r="Z10" s="546"/>
+      <c r="AA10" s="548">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
+      <c r="AC10" s="564">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="563">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AF10" s="133"/>
       <c r="AG10" s="134">
-        <f t="shared" si="5"/>
-        <v>-2.7999999999999972</v>
+        <f t="shared" si="8"/>
+        <v>-71.7</v>
       </c>
       <c r="AH10" s="134">
-        <f t="shared" si="6"/>
-        <v>1.5625000000000888E-2</v>
+        <f t="shared" si="9"/>
+        <v>5110.4626562499998</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="462">
-        <v>45.8</v>
-      </c>
-      <c r="B11" s="462">
-        <v>48.7</v>
+      <c r="A11" s="508">
+        <v>1</v>
+      </c>
+      <c r="B11" s="508">
+        <v>69</v>
       </c>
       <c r="C11" s="366">
         <f t="shared" si="0"/>
-        <v>-2.9000000000000057</v>
+        <v>-68</v>
       </c>
       <c r="D11" s="154">
         <f t="shared" si="1"/>
-        <v>0.17268993839835795</v>
+        <v>67.014492753623188</v>
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="123"/>
@@ -20437,66 +20713,79 @@
         <v>74</v>
       </c>
       <c r="K11" s="91">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="L11" s="138">
         <f>(M8-N8 ) / (SQRT(L8*(1-L8)) * SQRT(1/K8+1/K11))</f>
-        <v>-1.1144985560956782</v>
+        <v>-1.2423680054112654</v>
       </c>
       <c r="M11" s="96">
         <f>_xlfn.NORM.S.DIST(L11,TRUE)</f>
-        <v>0.13253268177649927</v>
+        <v>0.10705040732847498</v>
       </c>
       <c r="N11" s="121">
         <f>1-M11</f>
-        <v>0.86746731822350076</v>
+        <v>0.89294959267152496</v>
       </c>
       <c r="O11" s="121">
         <f>2*M11</f>
-        <v>0.26506536355299853</v>
+        <v>0.21410081465694997</v>
       </c>
       <c r="P11" s="149">
         <f>2*N11</f>
-        <v>1.7349346364470015</v>
-      </c>
-      <c r="Q11" s="388">
+        <v>1.7858991853430499</v>
+      </c>
+      <c r="Q11" s="387">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="175"/>
-      <c r="S11" s="175"/>
+        <v>0.9965367991373536</v>
+      </c>
+      <c r="R11" s="175">
+        <f t="shared" si="3"/>
+        <v>1.7331022530329288E-3</v>
+      </c>
+      <c r="S11" s="558">
+        <v>1</v>
+      </c>
       <c r="T11" s="378">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="397">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.98786828422876949</v>
+      </c>
+      <c r="U11" s="396">
+        <f t="shared" si="5"/>
+        <v>1.489859831554625E-4</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="441" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
+      <c r="X11" s="553" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y11" s="556"/>
+      <c r="Z11" s="546"/>
+      <c r="AA11" s="548">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
+      <c r="AC11" s="564">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="563">
+        <f t="shared" si="7"/>
+        <v>1.2131715771230503E-2</v>
+      </c>
       <c r="AF11" s="133"/>
       <c r="AG11" s="134">
-        <f t="shared" si="5"/>
-        <v>-2.9000000000000057</v>
+        <f t="shared" si="8"/>
+        <v>-68</v>
       </c>
       <c r="AH11" s="134">
-        <f t="shared" si="6"/>
-        <v>6.249999999997513E-4</v>
+        <f t="shared" si="9"/>
+        <v>4595.1451562499997</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="460"/>
-      <c r="B12" s="461"/>
+      <c r="A12" s="508"/>
+      <c r="B12" s="508"/>
       <c r="C12" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20510,15 +20799,15 @@
       </c>
       <c r="F12" s="228">
         <f>E$5^2/A$1</f>
-        <v>0.9140848214285715</v>
+        <v>1136.9799107142858</v>
       </c>
       <c r="G12" s="383">
         <f xml:space="preserve"> E3-G3 -H14</f>
-        <v>44.874352625087894</v>
+        <v>5.6075708179702701</v>
       </c>
       <c r="H12" s="238">
         <f>E3-G3+H14</f>
-        <v>48.497081836866684</v>
+        <v>136.65227833425371</v>
       </c>
       <c r="I12" s="154"/>
       <c r="J12" s="221"/>
@@ -20528,54 +20817,65 @@
       <c r="M12" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="530"/>
-      <c r="O12" s="531"/>
+      <c r="N12" s="523"/>
+      <c r="O12" s="524"/>
       <c r="P12" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q12" s="388">
+        <v>176</v>
+      </c>
+      <c r="Q12" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="175"/>
       <c r="S12" s="175"/>
       <c r="T12" s="378">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="415" t="s">
+      <c r="U12" s="396">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="412" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="416">
-        <v>769</v>
-      </c>
-      <c r="X12" s="443">
+      <c r="W12" s="413">
+        <v>240</v>
+      </c>
+      <c r="X12" s="554">
         <f>W12*W13</f>
-        <v>107.66000000000001</v>
-      </c>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+        <v>24.240000000000002</v>
+      </c>
+      <c r="Y12" s="555">
+        <f>( (W14-X12)^2)/X12 + ((W12-W14-X14)^2)/X14</f>
+        <v>0.64875898045866787</v>
+      </c>
+      <c r="Z12" s="546"/>
+      <c r="AA12" s="548">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
+      <c r="AC12" s="564">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="563">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AF12" s="133"/>
       <c r="AG12" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH12" s="134">
-        <f t="shared" ref="AH12:AH35" si="7">IF(A12="",0, (AG12-$E$8)^2)</f>
+        <f t="shared" ref="AH12:AH35" si="10">IF(A12="",0, (AG12-$E$8)^2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="457"/>
-      <c r="B13" s="457"/>
+      <c r="A13" s="508"/>
+      <c r="B13" s="508"/>
       <c r="C13" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20602,7 +20902,7 @@
       <c r="K13" s="131"/>
       <c r="L13" s="86">
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
-        <v>4.6508208027677682E-2</v>
+        <v>4.6586857966115697E-2</v>
       </c>
       <c r="M13" s="364">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
@@ -20610,58 +20910,66 @@
       </c>
       <c r="N13" s="186">
         <f>M8-N8-L13</f>
-        <v>-7.8055031897372396E-2</v>
+        <v>-8.1798125571749508E-2</v>
       </c>
       <c r="O13" s="187">
         <f>M8-N8+L13</f>
-        <v>1.4961384157982975E-2</v>
-      </c>
-      <c r="P13" s="439">
+        <v>1.1375590360481885E-2</v>
+      </c>
+      <c r="P13" s="436">
         <f>2*M11</f>
-        <v>0.26506536355299853</v>
-      </c>
-      <c r="Q13" s="388">
+        <v>0.21410081465694997</v>
+      </c>
+      <c r="Q13" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
       <c r="T13" s="378">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="415" t="s">
+      <c r="U13" s="396">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="412" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="442">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X13" s="445" t="s">
-        <v>164</v>
+      <c r="W13" s="438">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="X13" s="440" t="s">
+        <v>161</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
+      <c r="Z13" s="546"/>
+      <c r="AA13" s="548">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
+      <c r="AC13" s="564">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="563">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AF13" s="136"/>
       <c r="AG13" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH13" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="457"/>
-      <c r="B14" s="457"/>
+      <c r="A14" s="508"/>
+      <c r="B14" s="508"/>
       <c r="C14" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20675,15 +20983,15 @@
       </c>
       <c r="F14" s="174">
         <f>(F12+F13)^2 / ((F12^2/(A1-1)) + F13^2/(B1-1))</f>
-        <v>7</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="G14" s="121">
         <f>TINV(1-K2/100, F14)</f>
-        <v>1.8945786050900073</v>
+        <v>1.9431802805153033</v>
       </c>
       <c r="H14" s="121">
         <f xml:space="preserve"> G14 * SQRT( E5^2 /A1 + G5^2/B1)</f>
-        <v>1.811364605889396</v>
+        <v>65.522353758141719</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="231" t="s">
@@ -20699,49 +21007,57 @@
       <c r="N14" s="94"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
-      <c r="Q14" s="388">
+      <c r="Q14" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
       <c r="T14" s="378">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="397">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="417" t="s">
+      <c r="U14" s="396">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="414" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="418">
-        <v>30</v>
-      </c>
-      <c r="X14" s="444">
+      <c r="W14" s="415">
+        <v>28</v>
+      </c>
+      <c r="X14" s="439">
         <f>W12-X12</f>
-        <v>661.34</v>
+        <v>215.76</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
+      <c r="Z14" s="547"/>
+      <c r="AA14" s="548">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="75"/>
+      <c r="AC14" s="564">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="563">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AF14" s="137"/>
       <c r="AG14" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH14" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="457"/>
-      <c r="B15" s="457"/>
+      <c r="A15" s="508"/>
+      <c r="B15" s="508"/>
       <c r="C15" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20752,32 +21068,32 @@
       </c>
       <c r="E15" s="211"/>
       <c r="F15" s="211"/>
-      <c r="G15" s="532" t="s">
+      <c r="G15" s="525" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="533"/>
+      <c r="H15" s="526"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
         <f xml:space="preserve"> (M8-N8-K14) /SQRT(M8*(1-M8)/K8 + N8*(1-N8)/K11)</f>
-        <v>-6.0670885291075862</v>
+        <v>-6.1862272234265658</v>
       </c>
       <c r="M15" s="138"/>
       <c r="N15" s="218"/>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
-      <c r="Q15" s="388">
+      <c r="Q15" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="393"/>
-      <c r="S15" s="393"/>
+      <c r="R15" s="392"/>
+      <c r="S15" s="392"/>
       <c r="T15" s="378">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U15" s="397">
-        <f t="shared" si="4"/>
+      <c r="U15" s="396">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V15" s="75"/>
@@ -20790,18 +21106,21 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="75"/>
       <c r="AG15" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH15" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="175"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="175"/>
+      <c r="A16" s="508"/>
+      <c r="B16" s="508"/>
+      <c r="C16" s="366">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D16" s="379">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20816,7 +21135,7 @@
       </c>
       <c r="I16" s="154"/>
       <c r="K16" s="91">
-        <v>0.22500000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="L16" s="188" t="s">
         <v>68</v>
@@ -20827,15 +21146,15 @@
       <c r="N16" s="222"/>
       <c r="O16" s="223"/>
       <c r="P16" s="223"/>
-      <c r="Q16" s="388">
+      <c r="Q16" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="394"/>
-      <c r="S16" s="394"/>
+      <c r="R16" s="393"/>
+      <c r="S16" s="393"/>
       <c r="T16" s="378"/>
-      <c r="U16" s="397">
-        <f t="shared" si="4"/>
+      <c r="U16" s="396">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V16" s="223"/>
@@ -20844,7 +21163,7 @@
       </c>
       <c r="X16" s="121">
         <f>CHIDIST( (W14-X12)^2 / X12 + (W12-W14-X14)^2 / X14,1)</f>
-        <v>6.9792408532011301E-16</v>
+        <v>0.42055672611606526</v>
       </c>
       <c r="Y16" s="223"/>
       <c r="Z16" s="3"/>
@@ -20853,11 +21172,11 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="224"/>
       <c r="AG16" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH16" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -20873,46 +21192,46 @@
       <c r="F17" s="75"/>
       <c r="G17" s="192">
         <f xml:space="preserve"> (I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1))</f>
-        <v>8.93153749779942</v>
+        <v>10.795191609867645</v>
       </c>
       <c r="H17" s="121">
         <f>TINV(1-K2/100, G17)</f>
-        <v>1.8595480375308981</v>
+        <v>1.812461122811676</v>
       </c>
       <c r="I17" s="154"/>
       <c r="J17" s="145"/>
       <c r="K17" s="91">
-        <v>0.19400000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="L17" s="189">
         <f>(K16*(1-K16) + K17*(1-K17)) * (M13/K18)^2</f>
-        <v>2237.0718411601551</v>
+        <v>556.36457397086269</v>
       </c>
       <c r="M17" s="189">
         <f xml:space="preserve"> 0.5* (M13/K18)^2</f>
-        <v>3381.9293176192637</v>
+        <v>845.48232940481591</v>
       </c>
       <c r="N17" s="223"/>
       <c r="O17" s="223"/>
       <c r="P17" s="223"/>
-      <c r="Q17" s="388">
+      <c r="Q17" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="394"/>
-      <c r="S17" s="394"/>
+      <c r="R17" s="393"/>
+      <c r="S17" s="393"/>
       <c r="T17" s="378"/>
-      <c r="U17" s="397">
-        <f t="shared" si="4"/>
+      <c r="U17" s="396">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="223"/>
       <c r="W17" s="377" t="s">
-        <v>153</v>
-      </c>
-      <c r="X17" s="218">
+        <v>151</v>
+      </c>
+      <c r="X17" s="138">
         <f>1-_xlfn.NORM.S.DIST(X20,TRUE)</f>
-        <v>0.99999999999999967</v>
+        <v>0.21027836305803249</v>
       </c>
       <c r="Y17" s="223"/>
       <c r="Z17" s="223"/>
@@ -20921,11 +21240,11 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="223"/>
       <c r="AG17" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH17" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -20947,21 +21266,21 @@
         <v>81</v>
       </c>
       <c r="K18" s="91">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L18" s="165"/>
       <c r="M18" s="165"/>
       <c r="N18" s="225"/>
       <c r="O18" s="226"/>
       <c r="P18" s="226"/>
-      <c r="Q18" s="388">
+      <c r="Q18" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="395"/>
-      <c r="S18" s="395"/>
+      <c r="R18" s="394"/>
+      <c r="S18" s="394"/>
       <c r="T18" s="226"/>
-      <c r="U18" s="398"/>
+      <c r="U18" s="397"/>
       <c r="V18" s="226"/>
       <c r="W18" s="226"/>
       <c r="X18" s="226"/>
@@ -20972,11 +21291,11 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="226"/>
       <c r="AG18" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH18" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -20993,11 +21312,11 @@
       </c>
       <c r="G19" s="114">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>-37.514261419746745</v>
+        <v>-72.78762305540566</v>
       </c>
       <c r="H19" s="121">
         <f xml:space="preserve"> H17 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>2.3992681844246988</v>
+        <v>1.7711229341100652</v>
       </c>
       <c r="I19" s="154">
         <f>F21^2 /F19</f>
@@ -21014,17 +21333,17 @@
         <v>67</v>
       </c>
       <c r="P19" s="222"/>
-      <c r="Q19" s="388">
+      <c r="Q19" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="396"/>
-      <c r="S19" s="396"/>
+      <c r="R19" s="395"/>
+      <c r="S19" s="395"/>
       <c r="T19" s="222"/>
-      <c r="U19" s="399"/>
+      <c r="U19" s="398"/>
       <c r="V19" s="222"/>
       <c r="W19" s="222"/>
-      <c r="X19" s="419"/>
+      <c r="X19" s="416"/>
       <c r="Y19" s="222"/>
       <c r="Z19" s="222"/>
       <c r="AA19" s="3"/>
@@ -21032,11 +21351,11 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="222"/>
       <c r="AG19" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH19" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21046,14 +21365,14 @@
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="463">
+      <c r="F20" s="453">
         <v>1.21</v>
       </c>
-      <c r="G20" s="535"/>
-      <c r="H20" s="536"/>
+      <c r="G20" s="528"/>
+      <c r="H20" s="529"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
-        <v>1.4683705357142847</v>
+        <v>0.75854910714285684</v>
       </c>
       <c r="J20" s="147" t="s">
         <v>61</v>
@@ -21074,34 +21393,34 @@
         <v>65</v>
       </c>
       <c r="P20" s="157"/>
-      <c r="Q20" s="388">
+      <c r="Q20" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R20" s="320"/>
       <c r="S20" s="320"/>
       <c r="T20" s="157"/>
-      <c r="U20" s="400"/>
+      <c r="U20" s="399"/>
       <c r="V20" s="157"/>
-      <c r="W20" s="394" t="s">
-        <v>152</v>
-      </c>
-      <c r="X20" s="413">
+      <c r="W20" s="557" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" s="130">
         <f>(W14/W12-W13)/SQRT(W13*(1-W13)/W12)</f>
-        <v>-8.070881536847379</v>
-      </c>
-      <c r="Y20" s="420"/>
+        <v>0.80545575946706616</v>
+      </c>
+      <c r="Y20" s="417"/>
       <c r="Z20" s="157"/>
       <c r="AA20" s="157"/>
       <c r="AB20" s="157"/>
       <c r="AC20" s="157"/>
       <c r="AD20" s="75"/>
       <c r="AG20" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH20" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21113,16 +21432,16 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="464">
+      <c r="F21" s="454">
         <v>1.88</v>
       </c>
       <c r="G21" s="139">
         <f xml:space="preserve"> F20- F23 -H19</f>
-        <v>-50.801768184424695</v>
+        <v>-72.89862293411008</v>
       </c>
       <c r="H21" s="139">
         <f xml:space="preserve">  F20- F23 + H19</f>
-        <v>-46.003231815575298</v>
+        <v>-69.356377065889944</v>
       </c>
       <c r="I21" s="196"/>
       <c r="J21" s="148" t="s">
@@ -21148,14 +21467,14 @@
         <v>5.8457278969697296E-2</v>
       </c>
       <c r="P21" s="94"/>
-      <c r="Q21" s="388">
+      <c r="Q21" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="94"/>
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
-      <c r="U21" s="401"/>
+      <c r="U21" s="400"/>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
       <c r="X21" s="94"/>
@@ -21166,11 +21485,11 @@
       <c r="AC21" s="94"/>
       <c r="AD21" s="75"/>
       <c r="AG21" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH21" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21185,10 +21504,10 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="534" t="s">
+      <c r="G22" s="527" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="534"/>
+      <c r="H22" s="527"/>
       <c r="I22" s="196"/>
       <c r="J22" s="230" t="s">
         <v>68</v>
@@ -21206,14 +21525,14 @@
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
-      <c r="Q22" s="388">
+      <c r="Q22" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="111"/>
       <c r="S22" s="111"/>
       <c r="T22" s="111"/>
-      <c r="U22" s="402"/>
+      <c r="U22" s="401"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -21224,11 +21543,11 @@
       <c r="AC22" s="111"/>
       <c r="AD22" s="75"/>
       <c r="AG22" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH22" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21238,9 +21557,9 @@
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="463">
+      <c r="F23" s="453">
         <f>F3</f>
-        <v>49.612499999999997</v>
+        <v>72.337500000000006</v>
       </c>
       <c r="G23" s="191" t="s">
         <v>73</v>
@@ -21257,14 +21576,14 @@
       <c r="M23" s="241"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
-      <c r="Q23" s="388">
+      <c r="Q23" s="387">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="393"/>
-      <c r="S23" s="393"/>
+      <c r="R23" s="392"/>
+      <c r="S23" s="392"/>
       <c r="T23" s="75"/>
-      <c r="U23" s="403"/>
+      <c r="U23" s="402"/>
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
@@ -21275,11 +21594,11 @@
       <c r="AC23" s="75"/>
       <c r="AD23" s="75"/>
       <c r="AG23" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH23" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21291,17 +21610,17 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="464">
+      <c r="F24" s="454">
         <f>F5</f>
-        <v>3.4273844671577591</v>
+        <v>2.4634108177774277</v>
       </c>
       <c r="G24" s="192">
         <f xml:space="preserve"> IF(F19=F22,F19-1,(I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1)))</f>
-        <v>8.93153749779942</v>
+        <v>10.795191609867645</v>
       </c>
       <c r="H24" s="149">
         <f>TINV(1-K2/100, G24)</f>
-        <v>1.8595480375308981</v>
+        <v>1.812461122811676</v>
       </c>
       <c r="I24" s="196"/>
       <c r="J24" s="148"/>
@@ -21319,11 +21638,11 @@
       <c r="N24" s="166"/>
       <c r="O24" s="157"/>
       <c r="P24" s="157"/>
-      <c r="Q24" s="389"/>
+      <c r="Q24" s="388"/>
       <c r="R24" s="157"/>
       <c r="S24" s="157"/>
       <c r="T24" s="157"/>
-      <c r="U24" s="400"/>
+      <c r="U24" s="399"/>
       <c r="V24" s="157"/>
       <c r="W24" s="157"/>
       <c r="X24" s="157"/>
@@ -21334,11 +21653,11 @@
       <c r="AC24" s="157"/>
       <c r="AD24" s="75"/>
       <c r="AG24" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH24" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21363,11 +21682,11 @@
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
-      <c r="Q25" s="390"/>
+      <c r="Q25" s="389"/>
       <c r="R25" s="94"/>
       <c r="S25" s="94"/>
       <c r="T25" s="94"/>
-      <c r="U25" s="401"/>
+      <c r="U25" s="400"/>
       <c r="V25" s="94"/>
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
@@ -21378,11 +21697,11 @@
       <c r="AC25" s="94"/>
       <c r="AD25" s="75"/>
       <c r="AG25" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH25" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21395,11 +21714,11 @@
       <c r="F26" s="91"/>
       <c r="G26" s="114">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>-37.514261419746745</v>
+        <v>-72.78762305540566</v>
       </c>
       <c r="H26" s="149">
         <f xml:space="preserve"> H24 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>2.3992681844246988</v>
+        <v>1.7711229341100652</v>
       </c>
       <c r="I26" s="196"/>
       <c r="J26" s="150"/>
@@ -21419,11 +21738,11 @@
         <v>26</v>
       </c>
       <c r="P26" s="111"/>
-      <c r="Q26" s="391"/>
+      <c r="Q26" s="390"/>
       <c r="R26" s="111"/>
       <c r="S26" s="111"/>
       <c r="T26" s="111"/>
-      <c r="U26" s="402"/>
+      <c r="U26" s="401"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -21434,11 +21753,11 @@
       <c r="AC26" s="111"/>
       <c r="AD26" s="75"/>
       <c r="AG26" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH26" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21455,30 +21774,30 @@
       <c r="J27" s="94"/>
       <c r="K27" s="373">
         <f>MIN(C4:C28)</f>
-        <v>-5.3999999999999986</v>
+        <v>-71.7</v>
       </c>
       <c r="L27" s="374">
         <f>QUARTILE(C4:C27, 1)</f>
-        <v>-3.0250000000000039</v>
+        <v>-65.8</v>
       </c>
       <c r="M27" s="374">
         <f>QUARTILE(C4:C15, 2)</f>
-        <v>-1.8500000000000014</v>
+        <v>0</v>
       </c>
       <c r="N27" s="374">
         <f>QUARTILE(C4:C15, 3)</f>
-        <v>0</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="O27" s="375">
         <f>MAX(C4:C24)</f>
-        <v>0</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="P27" s="75"/>
-      <c r="Q27" s="392"/>
+      <c r="Q27" s="391"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
       <c r="T27" s="75"/>
-      <c r="U27" s="404"/>
+      <c r="U27" s="403"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
@@ -21489,11 +21808,11 @@
       <c r="AC27" s="75"/>
       <c r="AD27" s="75"/>
       <c r="AG27" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH27" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21506,11 +21825,11 @@
       <c r="F28" s="99"/>
       <c r="G28" s="139">
         <f xml:space="preserve"> F20- F23 -H26</f>
-        <v>-50.801768184424695</v>
+        <v>-72.89862293411008</v>
       </c>
       <c r="H28" s="229">
         <f xml:space="preserve">  F20- F23 + H26</f>
-        <v>-46.003231815575298</v>
+        <v>-69.356377065889944</v>
       </c>
       <c r="I28" s="196"/>
       <c r="J28" s="94"/>
@@ -21523,7 +21842,7 @@
       <c r="P28" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q28" s="385"/>
+      <c r="Q28" s="384"/>
       <c r="R28" s="75"/>
       <c r="S28" s="75"/>
       <c r="T28" s="75"/>
@@ -21538,11 +21857,11 @@
       <c r="AC28" s="75"/>
       <c r="AD28" s="75"/>
       <c r="AG28" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH28" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21566,7 +21885,7 @@
         <v>68</v>
       </c>
       <c r="K29" s="144">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" s="113" t="s">
         <v>90</v>
@@ -21583,7 +21902,7 @@
       <c r="P29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="Q29" s="385"/>
+      <c r="Q29" s="384"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
       <c r="T29" s="75"/>
@@ -21598,11 +21917,11 @@
       <c r="AC29" s="75"/>
       <c r="AD29" s="75"/>
       <c r="AG29" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH29" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21626,29 +21945,29 @@
         <v>69</v>
       </c>
       <c r="K30" s="91">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="L30" s="121">
         <f xml:space="preserve"> (K31 - K32) * SQRT(K29) / K30</f>
-        <v>2.3371451227113722</v>
+        <v>2.1855670103092786</v>
       </c>
       <c r="M30" s="149">
         <f>1 -_xlfn.T.DIST(L30, K29-1, TRUE)</f>
-        <v>1.7402655637874465E-2</v>
+        <v>2.2560132653120513E-2</v>
       </c>
       <c r="N30" s="121">
         <f>1-M30</f>
-        <v>0.98259734436212554</v>
-      </c>
-      <c r="O30" s="552">
+        <v>0.97743986734687949</v>
+      </c>
+      <c r="O30" s="506">
         <f>2*M30</f>
-        <v>3.4805311275748929E-2</v>
-      </c>
-      <c r="P30" s="551">
+        <v>4.5120265306241025E-2</v>
+      </c>
+      <c r="P30" s="505">
         <f>2*N30</f>
-        <v>1.9651946887242511</v>
-      </c>
-      <c r="Q30" s="385"/>
+        <v>1.954879734693759</v>
+      </c>
+      <c r="Q30" s="384"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
       <c r="T30" s="75"/>
@@ -21663,11 +21982,11 @@
       <c r="AC30" s="75"/>
       <c r="AD30" s="75"/>
       <c r="AG30" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH30" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21680,26 +21999,26 @@
       <c r="D31" s="154"/>
       <c r="E31" s="121">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G17-1, TRUE)</f>
-        <v>1.2435583584811514E-9</v>
+        <v>4.4086684428417113E-14</v>
       </c>
       <c r="F31" s="121">
         <f>1-_xlfn.T.DIST(G19, G17-1, TRUE)</f>
-        <v>0.99999999875644163</v>
+        <v>0.99999999999995592</v>
       </c>
       <c r="G31" s="121">
         <f xml:space="preserve">  IF(G19&gt;0, 2*(1-_xlfn.T.DIST(G19,G17, TRUE)), 2*(_xlfn.T.DIST(G19,G17, TRUE)))</f>
-        <v>2.7975894134362282E-10</v>
+        <v>5.8448265524949578E-15</v>
       </c>
       <c r="H31" s="121"/>
       <c r="I31" s="196"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="514">
-        <v>1.05</v>
+      <c r="K31" s="503">
+        <v>1.06</v>
       </c>
       <c r="L31" s="70"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
-      <c r="Q31" s="385"/>
+      <c r="Q31" s="384"/>
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="75"/>
@@ -21714,11 +22033,11 @@
       <c r="AC31" s="75"/>
       <c r="AD31" s="75"/>
       <c r="AG31" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH31" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21731,15 +22050,15 @@
       <c r="D32" s="154"/>
       <c r="E32" s="121">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G24-1, TRUE)</f>
-        <v>1.2435583584811514E-9</v>
+        <v>4.4086684428417113E-14</v>
       </c>
       <c r="F32" s="121">
         <f>1-_xlfn.T.DIST(G19, G24-1, TRUE)</f>
-        <v>0.99999999875644163</v>
+        <v>0.99999999999995592</v>
       </c>
       <c r="G32" s="121">
         <f xml:space="preserve"> IF(G26&gt;0, 2*(1-_xlfn.T.DIST(G26,G24, TRUE)), 2*(_xlfn.T.DIST(G26,G24, TRUE)))</f>
-        <v>2.7975894134362282E-10</v>
+        <v>5.8448265524949578E-15</v>
       </c>
       <c r="H32" s="121"/>
       <c r="I32" s="196"/>
@@ -21749,11 +22068,11 @@
       </c>
       <c r="L32" s="121">
         <f>TINV((100-K2)/100, K29-1)</f>
-        <v>1.7613101357748921</v>
+        <v>1.7530503556925723</v>
       </c>
       <c r="O32" s="75"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="385"/>
+      <c r="Q32" s="384"/>
       <c r="R32" s="75"/>
       <c r="S32" s="75"/>
       <c r="T32" s="75"/>
@@ -21768,11 +22087,11 @@
       <c r="AC32" s="75"/>
       <c r="AD32" s="75"/>
       <c r="AG32" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH32" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21788,11 +22107,11 @@
       <c r="K33" s="175"/>
       <c r="L33" s="378"/>
       <c r="AG33" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH33" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21806,11 +22125,11 @@
       <c r="K34" s="175"/>
       <c r="L34" s="378"/>
       <c r="AG34" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH34" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21822,21 +22141,21 @@
       <c r="I35" s="196"/>
       <c r="L35" s="378"/>
       <c r="AG35" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH35" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG36" s="134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH36" s="134">
-        <f t="shared" ref="AH36" si="8">IF(A36="",0, (AG36-$E$8)^2)</f>
+        <f t="shared" ref="AH36" si="11">IF(A36="",0, (AG36-$E$8)^2)</f>
         <v>0</v>
       </c>
     </row>
@@ -22093,7 +22412,7 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22335,13 +22654,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
@@ -22428,6 +22747,31 @@
         <oleObject progId="Equation.DSMT4" shapeId="12352" r:id="rId41"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="12353" r:id="rId43">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="12353" r:id="rId43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
@@ -22448,7 +22792,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="11" max="12" width="0.85546875" style="432" customWidth="1"/>
+    <col min="11" max="12" width="0.85546875" style="429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22473,8 +22817,8 @@
       <c r="H1" s="197">
         <v>95</v>
       </c>
-      <c r="K1" s="433"/>
-      <c r="L1" s="433"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
@@ -22492,12 +22836,12 @@
         <f>D2^2</f>
         <v>0.97941619215917286</v>
       </c>
-      <c r="K2" s="433"/>
-      <c r="L2" s="433"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="430"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="469"/>
-      <c r="B3" s="469"/>
+      <c r="A3" s="458"/>
+      <c r="B3" s="458"/>
       <c r="C3" s="207"/>
       <c r="D3" s="205" t="s">
         <v>92</v>
@@ -22515,44 +22859,44 @@
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="434"/>
-      <c r="L3" s="434"/>
+      <c r="K3" s="431"/>
+      <c r="L3" s="431"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="490">
+      <c r="A4" s="479">
         <v>-5</v>
       </c>
-      <c r="B4" s="490">
+      <c r="B4" s="479">
         <v>-10</v>
       </c>
       <c r="C4" s="207">
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="544" t="s">
+      <c r="D4" s="537" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="545"/>
+      <c r="E4" s="538"/>
       <c r="G4" s="94"/>
       <c r="H4" s="204"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="434">
+      <c r="K4" s="431">
         <f>IF( A4="",0, A4*E$6+D$6)</f>
         <v>-11.036363636363637</v>
       </c>
-      <c r="L4" s="434">
+      <c r="L4" s="431">
         <f>(K4-B4)^2</f>
         <v>1.0740495867768609</v>
       </c>
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="490">
+      <c r="A5" s="479">
         <v>-3</v>
       </c>
-      <c r="B5" s="490">
+      <c r="B5" s="479">
         <v>-8</v>
       </c>
       <c r="C5" s="207">
@@ -22569,21 +22913,21 @@
       <c r="G5" s="29"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="434">
+      <c r="K5" s="431">
         <f t="shared" ref="K5:K18" si="1">IF( A5="",0, A5*E$6+D$6)</f>
         <v>-6.8424242424242427</v>
       </c>
-      <c r="L5" s="434">
+      <c r="L5" s="431">
         <f t="shared" ref="L5:L18" si="2">(K5-B5)^2</f>
         <v>1.3399816345270883</v>
       </c>
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="490">
+      <c r="A6" s="479">
         <v>4</v>
       </c>
-      <c r="B6" s="490">
+      <c r="B6" s="479">
         <v>9</v>
       </c>
       <c r="C6" s="207">
@@ -22605,21 +22949,21 @@
       <c r="G6" s="123"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="434">
+      <c r="K6" s="431">
         <f t="shared" si="1"/>
         <v>7.8363636363636369</v>
       </c>
-      <c r="L6" s="434">
+      <c r="L6" s="431">
         <f t="shared" si="2"/>
         <v>1.3540495867768583</v>
       </c>
       <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="490">
+      <c r="A7" s="479">
         <v>1</v>
       </c>
-      <c r="B7" s="490">
+      <c r="B7" s="479">
         <v>1</v>
       </c>
       <c r="C7" s="207">
@@ -22638,21 +22982,21 @@
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="94"/>
-      <c r="K7" s="434">
+      <c r="K7" s="431">
         <f t="shared" si="1"/>
         <v>1.5454545454545456</v>
       </c>
-      <c r="L7" s="434">
+      <c r="L7" s="431">
         <f t="shared" si="2"/>
         <v>0.29752066115702497</v>
       </c>
       <c r="M7" s="204"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="490">
+      <c r="A8" s="479">
         <v>-1</v>
       </c>
-      <c r="B8" s="490">
+      <c r="B8" s="479">
         <v>-2</v>
       </c>
       <c r="C8" s="207">
@@ -22664,63 +23008,63 @@
       <c r="F8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="434">
+      <c r="K8" s="431">
         <f t="shared" si="1"/>
         <v>-2.6484848484848484</v>
       </c>
-      <c r="L8" s="434">
+      <c r="L8" s="431">
         <f t="shared" si="2"/>
         <v>0.42053259871441684</v>
       </c>
       <c r="M8" s="132"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="490">
+      <c r="A9" s="479">
         <v>-2</v>
       </c>
-      <c r="B9" s="490">
+      <c r="B9" s="479">
         <v>-6</v>
       </c>
-      <c r="C9" s="431">
+      <c r="C9" s="428">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="540" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="541"/>
+      <c r="D9" s="533" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="534"/>
       <c r="F9" s="70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G9" s="218"/>
       <c r="I9" s="30"/>
       <c r="J9" s="132"/>
-      <c r="K9" s="434">
+      <c r="K9" s="431">
         <f t="shared" si="1"/>
         <v>-4.745454545454546</v>
       </c>
-      <c r="L9" s="434">
+      <c r="L9" s="431">
         <f t="shared" si="2"/>
         <v>1.5738842975206597</v>
       </c>
       <c r="M9" s="132"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="490">
+      <c r="A10" s="479">
         <v>0</v>
       </c>
-      <c r="B10" s="490">
+      <c r="B10" s="479">
         <v>-1</v>
       </c>
-      <c r="C10" s="431">
+      <c r="C10" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="546">
+      <c r="D10" s="539">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="547"/>
+      <c r="E10" s="540"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -22728,21 +23072,21 @@
       <c r="G10" s="29"/>
       <c r="I10" s="30"/>
       <c r="J10" s="132"/>
-      <c r="K10" s="434">
+      <c r="K10" s="431">
         <f t="shared" si="1"/>
         <v>-0.55151515151515151</v>
       </c>
-      <c r="L10" s="434">
+      <c r="L10" s="431">
         <f t="shared" si="2"/>
         <v>0.2011386593204775</v>
       </c>
       <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="490">
+      <c r="A11" s="479">
         <v>2</v>
       </c>
-      <c r="B11" s="490">
+      <c r="B11" s="479">
         <v>3</v>
       </c>
       <c r="C11" s="207">
@@ -22753,21 +23097,21 @@
       <c r="E11" s="214"/>
       <c r="I11" s="30"/>
       <c r="J11" s="132"/>
-      <c r="K11" s="434">
+      <c r="K11" s="431">
         <f t="shared" si="1"/>
         <v>3.6424242424242426</v>
       </c>
-      <c r="L11" s="434">
+      <c r="L11" s="431">
         <f t="shared" si="2"/>
         <v>0.41270890725436199</v>
       </c>
       <c r="M11" s="132"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="490">
+      <c r="A12" s="479">
         <v>3</v>
       </c>
-      <c r="B12" s="490">
+      <c r="B12" s="479">
         <v>6</v>
       </c>
       <c r="C12" s="207">
@@ -22789,21 +23133,21 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="434">
+      <c r="K12" s="431">
         <f t="shared" si="1"/>
         <v>5.7393939393939393</v>
       </c>
-      <c r="L12" s="434">
+      <c r="L12" s="431">
         <f t="shared" si="2"/>
         <v>6.7915518824609805E-2</v>
       </c>
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="490">
+      <c r="A13" s="479">
         <v>-4</v>
       </c>
-      <c r="B13" s="490">
+      <c r="B13" s="479">
         <v>-8</v>
       </c>
       <c r="C13" s="207">
@@ -22818,19 +23162,19 @@
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="132"/>
-      <c r="K13" s="434">
+      <c r="K13" s="431">
         <f t="shared" si="1"/>
         <v>-8.9393939393939394</v>
       </c>
-      <c r="L13" s="434">
+      <c r="L13" s="431">
         <f t="shared" si="2"/>
         <v>0.88246097337006435</v>
       </c>
       <c r="M13" s="132"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="489"/>
-      <c r="B14" s="489"/>
+      <c r="A14" s="478"/>
+      <c r="B14" s="478"/>
       <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22839,42 +23183,42 @@
       <c r="E14" s="76"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="434">
+      <c r="K14" s="431">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="434">
+      <c r="L14" s="431">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="489"/>
-      <c r="B15" s="489"/>
+      <c r="A15" s="478"/>
+      <c r="B15" s="478"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="548" t="s">
+      <c r="D15" s="541" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="549"/>
+      <c r="E15" s="542"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
-      <c r="K15" s="434">
+      <c r="K15" s="431">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="434">
+      <c r="L15" s="431">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="489"/>
-      <c r="B16" s="489"/>
+      <c r="A16" s="478"/>
+      <c r="B16" s="478"/>
       <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22888,27 +23232,27 @@
       <c r="F16" s="210"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="434">
+      <c r="K16" s="431">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="434">
+      <c r="L16" s="431">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="489"/>
-      <c r="B17" s="489"/>
+      <c r="A17" s="478"/>
+      <c r="B17" s="478"/>
       <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="446">
+      <c r="D17" s="441">
         <v>2.097</v>
       </c>
-      <c r="E17" s="446">
+      <c r="E17" s="441">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -22917,19 +23261,19 @@
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="434">
+      <c r="K17" s="431">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="434">
+      <c r="L17" s="431">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="489"/>
-      <c r="B18" s="489"/>
+      <c r="A18" s="478"/>
+      <c r="B18" s="478"/>
       <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22941,11 +23285,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="121"/>
-      <c r="K18" s="434">
+      <c r="K18" s="431">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="491">
+      <c r="L18" s="480">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22955,94 +23299,94 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="484">
+      <c r="K19" s="473">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="484">
+      <c r="L19" s="473">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="431">
+      <c r="C20" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="538" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="539"/>
-      <c r="F20" s="537"/>
-      <c r="G20" s="537"/>
-      <c r="K20" s="484">
+      <c r="D20" s="531" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="532"/>
+      <c r="F20" s="530"/>
+      <c r="G20" s="530"/>
+      <c r="K20" s="473">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="484">
+      <c r="L20" s="473">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="431">
+      <c r="C21" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="427">
+      <c r="D21" s="424">
         <v>2.097</v>
       </c>
-      <c r="E21" s="428">
+      <c r="E21" s="425">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="485"/>
-      <c r="G21" s="485"/>
-      <c r="K21" s="484">
+      <c r="F21" s="474"/>
+      <c r="G21" s="474"/>
+      <c r="K21" s="473">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="484">
+      <c r="L21" s="473">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="431">
+      <c r="C22" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="540" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="541"/>
-      <c r="F22" s="486"/>
-      <c r="G22" s="486"/>
-      <c r="K22" s="484">
+      <c r="D22" s="533" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="534"/>
+      <c r="F22" s="475"/>
+      <c r="G22" s="475"/>
+      <c r="K22" s="473">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="484">
+      <c r="L22" s="473">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="431">
+      <c r="C23" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="542">
+      <c r="D23" s="535">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="543"/>
-      <c r="F23" s="487"/>
-      <c r="G23" s="488"/>
-      <c r="K23" s="484">
+      <c r="E23" s="536"/>
+      <c r="F23" s="476"/>
+      <c r="G23" s="477"/>
+      <c r="K23" s="473">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="484">
+      <c r="L23" s="473">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
@@ -23052,11 +23396,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="484">
+      <c r="K24" s="473">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="484">
+      <c r="L24" s="473">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
@@ -23066,11 +23410,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="484">
+      <c r="K25" s="473">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="484">
+      <c r="L25" s="473">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
@@ -23080,11 +23424,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="484">
+      <c r="K26" s="473">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="484">
+      <c r="L26" s="473">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
@@ -23094,11 +23438,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="484">
+      <c r="K27" s="473">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="484">
+      <c r="L27" s="473">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
@@ -23108,11 +23452,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="484">
+      <c r="K28" s="473">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="484">
+      <c r="L28" s="473">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
@@ -23122,11 +23466,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="484">
+      <c r="K29" s="473">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="484">
+      <c r="L29" s="473">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -23136,11 +23480,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="484">
+      <c r="K30" s="473">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="484">
+      <c r="L30" s="473">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -23150,24 +23494,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="484"/>
-      <c r="L31" s="484"/>
+      <c r="K31" s="473"/>
+      <c r="L31" s="473"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="484"/>
-      <c r="L32" s="484"/>
+      <c r="K32" s="473"/>
+      <c r="L32" s="473"/>
     </row>
     <row r="33" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="433"/>
-      <c r="L33" s="433"/>
+      <c r="K33" s="430"/>
+      <c r="L33" s="430"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -23658,10 +24002,10 @@
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="K20" s="550" t="s">
+      <c r="K20" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="550"/>
+      <c r="L20" s="543"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -3936,7 +3936,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="566">
+  <cellXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -5126,12 +5126,9 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5214,111 +5211,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5381,6 +5273,112 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5570,11 +5568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160374336"/>
-        <c:axId val="160621424"/>
+        <c:axId val="125150728"/>
+        <c:axId val="125153472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160374336"/>
+        <c:axId val="125150728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5631,12 +5629,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160621424"/>
+        <c:crossAx val="125153472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160621424"/>
+        <c:axId val="125153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,7 +5691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160374336"/>
+        <c:crossAx val="125150728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5833,11 +5831,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="119319128"/>
-        <c:axId val="281562480"/>
+        <c:axId val="125155432"/>
+        <c:axId val="125155824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119319128"/>
+        <c:axId val="125155432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5930,7 +5928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281562480"/>
+        <c:crossAx val="125155824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5938,7 +5936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281562480"/>
+        <c:axId val="125155824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6047,7 +6045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119319128"/>
+        <c:crossAx val="125155432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6624,11 +6622,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="280966744"/>
-        <c:axId val="280967128"/>
+        <c:axId val="290460680"/>
+        <c:axId val="290461072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280966744"/>
+        <c:axId val="290460680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6724,7 +6722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280967128"/>
+        <c:crossAx val="290461072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6732,7 +6730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280967128"/>
+        <c:axId val="290461072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6836,7 +6834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280966744"/>
+        <c:crossAx val="290460680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7061,11 +7059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="281543624"/>
-        <c:axId val="281544008"/>
+        <c:axId val="290463816"/>
+        <c:axId val="290464208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="281543624"/>
+        <c:axId val="290463816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7161,7 +7159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281544008"/>
+        <c:crossAx val="290464208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7169,7 +7167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281544008"/>
+        <c:axId val="290464208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7274,7 +7272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281543624"/>
+        <c:crossAx val="290463816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7475,11 +7473,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="159093664"/>
-        <c:axId val="159093272"/>
+        <c:axId val="290608048"/>
+        <c:axId val="290608440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159093664"/>
+        <c:axId val="290608048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7572,7 +7570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159093272"/>
+        <c:crossAx val="290608440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7580,7 +7578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159093272"/>
+        <c:axId val="290608440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7681,7 +7679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159093664"/>
+        <c:crossAx val="290608048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13598,7 +13596,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>218209</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13657,7 +13655,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>466725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>199159</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14190,13 +14188,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>83993</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>10391</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>226868</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -15209,8 +15207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15242,16 +15240,16 @@
     <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23">
         <f>COUNT(B5:B60)</f>
-        <v>12</v>
-      </c>
-      <c r="E2" s="509" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="528" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="510"/>
-      <c r="G2" s="511" t="s">
+      <c r="F2" s="529"/>
+      <c r="G2" s="530" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="512"/>
+      <c r="H2" s="531"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -15299,11 +15297,11 @@
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
-        <v>4.9891666666666667</v>
+        <v>38.979166666666664</v>
       </c>
       <c r="F4" s="19">
         <f>MEDIAN(B5:B60)</f>
-        <v>4.91</v>
+        <v>38.6</v>
       </c>
       <c r="G4" s="20">
         <f>IF(C5="","",AVERAGE(C5:C60))</f>
@@ -15337,8 +15335,8 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="470">
-        <v>5.05</v>
+      <c r="B5" s="563">
+        <v>32.5</v>
       </c>
       <c r="C5" s="3">
         <v>79</v>
@@ -15390,8 +15388,8 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="470">
-        <v>5.0199999999999996</v>
+      <c r="B6" s="563">
+        <v>34.5</v>
       </c>
       <c r="C6" s="3">
         <v>65</v>
@@ -15399,11 +15397,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="20">
         <f>_xlfn.STDEV.S(B5:B60)</f>
-        <v>0.41320165302259632</v>
+        <v>3.5130785665129594</v>
       </c>
       <c r="F6" s="21">
         <f>E6^2</f>
-        <v>0.17073560606060609</v>
+        <v>12.34172101449275</v>
       </c>
       <c r="G6" s="20">
         <f>_xlfn.STDEV.S(C5:C60)</f>
@@ -15446,8 +15444,8 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="470">
-        <v>5.43</v>
+      <c r="B7" s="563">
+        <v>34.700000000000003</v>
       </c>
       <c r="C7" s="3">
         <v>67</v>
@@ -15490,20 +15488,20 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="470">
-        <v>5.72</v>
+      <c r="B8" s="563">
+        <v>35.200000000000003</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="468">
+      <c r="E8" s="467">
         <f>_xlfn.STDEV.P(B5:B60)</f>
-        <v>0.39561046357356239</v>
+        <v>3.4391107337346507</v>
       </c>
       <c r="F8" s="21">
         <f>E8^2</f>
-        <v>0.15650763888888894</v>
-      </c>
-      <c r="G8" s="468">
+        <v>11.827482638888888</v>
+      </c>
+      <c r="G8" s="467">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15539,8 +15537,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="470">
-        <v>4.68</v>
+      <c r="B9" s="563">
+        <v>36.1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -15580,14 +15578,14 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="470">
-        <v>4.76</v>
+      <c r="B10" s="563">
+        <v>36.4</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="64">
         <f>E6/E4</f>
-        <v>8.2819773446987738E-2</v>
+        <v>9.0127082411877099E-2</v>
       </c>
       <c r="G10" s="65">
         <f>G6/G4</f>
@@ -15618,8 +15616,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="470">
-        <v>4.38</v>
+      <c r="B11" s="563">
+        <v>37.4</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
@@ -15627,7 +15625,7 @@
         <v>108</v>
       </c>
       <c r="F11" s="245">
-        <v>60</v>
+        <v>49.1</v>
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
@@ -15655,8 +15653,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="470">
-        <v>4.74</v>
+      <c r="B12" s="563">
+        <v>37.700000000000003</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
@@ -15665,7 +15663,7 @@
       </c>
       <c r="F12" s="246">
         <f>(F11-E4)/(E6)</f>
-        <v>133.13313954802842</v>
+        <v>2.8809015061052725</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
@@ -15689,8 +15687,8 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="470">
-        <v>4.5599999999999996</v>
+      <c r="B13" s="563">
+        <v>37.9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
@@ -15718,8 +15716,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="470">
-        <v>4.8</v>
+      <c r="B14" s="563">
+        <v>38.1</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
@@ -15743,8 +15741,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="470">
-        <v>5.19</v>
+      <c r="B15" s="563">
+        <v>38.200000000000003</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
@@ -15778,30 +15776,30 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="470">
-        <v>5.54</v>
+      <c r="B16" s="563">
+        <v>38.5</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="253">
         <f>MIN(B5:B60)</f>
-        <v>4.38</v>
+        <v>32.5</v>
       </c>
       <c r="F16" s="55">
         <f>QUARTILE($B$5:$B$60, 1)</f>
-        <v>4.7249999999999996</v>
+        <v>37.15</v>
       </c>
       <c r="G16" s="55">
         <f>QUARTILE($B$5:$B$60, 2)</f>
-        <v>4.91</v>
+        <v>38.6</v>
       </c>
       <c r="H16" s="55">
-        <f>QUARTILE($B$5:$B$60, 3)</f>
-        <v>5.25</v>
+        <f>(_xlfn.QUARTILE.EXC($B$5:$B$60, 3) + QUARTILE($B$5:$B$60, 3)) /2</f>
+        <v>40.9</v>
       </c>
       <c r="I16" s="249">
         <f>MAX(B5:B60)</f>
-        <v>5.72</v>
+        <v>49.1</v>
       </c>
       <c r="O16" s="61">
         <f t="shared" si="3"/>
@@ -15818,7 +15816,9 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="470"/>
+      <c r="B17" s="563">
+        <v>38.700000000000003</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="254" t="s">
@@ -15851,7 +15851,9 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="470"/>
+      <c r="B18" s="563">
+        <v>38.9</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="255">
@@ -15859,19 +15861,19 @@
       </c>
       <c r="F18" s="59">
         <f xml:space="preserve">  INDEX(B5:B260, $E$26) + (INDEX(B5:B60, 1+ $E$26) -INDEX(B5:B60, $E$26))*E25</f>
-        <v>4.5599999999999996</v>
+        <v>40.5</v>
       </c>
       <c r="G18" s="248">
-        <f>H16-F16</f>
-        <v>0.52500000000000036</v>
+        <f xml:space="preserve"> QUARTILE($B$5:$B$60, 3)-F16</f>
+        <v>3.5500000000000043</v>
       </c>
       <c r="H18" s="247">
         <f>F16-1.5*G18</f>
-        <v>3.9374999999999991</v>
+        <v>31.824999999999992</v>
       </c>
       <c r="I18" s="247">
-        <f>H16+1.5*G18</f>
-        <v>6.0375000000000005</v>
+        <f>QUARTILE($B$5:$B$60, 3)+1.5*G18</f>
+        <v>46.025000000000006</v>
       </c>
       <c r="O18" s="61">
         <f t="shared" si="3"/>
@@ -15888,7 +15890,9 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="469"/>
+      <c r="B19" s="563">
+        <v>39.4</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15903,14 +15907,16 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
+      <c r="B20" s="563">
+        <v>39.700000000000003</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
       <c r="E20" s="256" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="251">
-        <v>55</v>
+        <v>0.9</v>
       </c>
       <c r="G20" s="220" t="s">
         <v>43</v>
@@ -15927,18 +15933,20 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+      <c r="B21" s="563">
+        <v>40.4</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="256" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="251">
-        <v>95</v>
+        <v>0.84</v>
       </c>
       <c r="G21" s="250">
         <f xml:space="preserve"> (F20-F21)/F22</f>
-        <v>-13.333333333333334</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="K21" s="456"/>
       <c r="O21" s="61"/>
@@ -15953,17 +15961,19 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
+      <c r="B22" s="563">
+        <v>40.5</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
       <c r="E22" s="256" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="251">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="467"/>
+      <c r="I22" s="16"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15976,7 +15986,9 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
+      <c r="B23" s="563">
+        <v>41.3</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="O23" s="56"/>
@@ -15990,20 +16002,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
+    <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="563">
+        <v>41.6</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="57">
         <f>E18*B2/100</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="48">
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="471"/>
+      <c r="H24" s="468"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -16013,7 +16027,9 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+      <c r="B25" s="563">
+        <v>42.1</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="58">
@@ -16022,7 +16038,7 @@
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="471"/>
+      <c r="H25" s="468"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -16032,16 +16048,18 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
+      <c r="B26" s="563">
+        <v>42.8</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="58">
         <f>E24-E25</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="471"/>
+      <c r="H26" s="468"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -16051,136 +16069,140 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="B27" s="563">
+        <v>43.8</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="471"/>
+      <c r="H27" s="468"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="563">
+        <v>49.1</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="471"/>
+      <c r="H28" s="468"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
+      <c r="B29" s="484"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="471"/>
+      <c r="H29" s="468"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
+      <c r="B30" s="484"/>
       <c r="D30" s="6"/>
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="471"/>
+      <c r="H30" s="468"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+      <c r="B31" s="484"/>
       <c r="D31" s="5"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="471"/>
+      <c r="H31" s="468"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+      <c r="B32" s="484"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="472"/>
+      <c r="H32" s="469"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
+      <c r="B33" s="484"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
+      <c r="B34" s="484"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
+      <c r="B35" s="484"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
+      <c r="B36" s="484"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
+      <c r="B37" s="484"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="B38" s="484"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
+      <c r="B39" s="484"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
+      <c r="B40" s="484"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
+      <c r="B41" s="484"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
+      <c r="B42" s="484"/>
       <c r="E42" s="46"/>
       <c r="F42" s="43"/>
     </row>
     <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
+      <c r="B43" s="484"/>
       <c r="E43" s="46"/>
       <c r="F43" s="43"/>
     </row>
     <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+      <c r="B44" s="484"/>
       <c r="E44" s="46"/>
       <c r="F44" s="43"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
+      <c r="B45" s="484"/>
       <c r="E45" s="46"/>
       <c r="F45" s="43"/>
     </row>
     <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
+      <c r="B46" s="484"/>
       <c r="E46" s="46"/>
       <c r="F46" s="43"/>
     </row>
     <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
+      <c r="B47" s="484"/>
       <c r="E47" s="46"/>
       <c r="F47" s="43"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
+      <c r="B48" s="484"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
+      <c r="B49" s="484"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
+      <c r="B50" s="484"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
+      <c r="B51" s="484"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
+      <c r="B52" s="484"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
+      <c r="B53" s="484"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
+      <c r="B54" s="484"/>
     </row>
   </sheetData>
-  <sortState ref="B5:B19">
+  <sortState ref="B5:B28">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="2">
@@ -16257,10 +16279,10 @@
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
-      <c r="B2" s="490">
+      <c r="B2" s="487">
         <v>0</v>
       </c>
-      <c r="C2" s="490">
+      <c r="C2" s="487">
         <v>0.28000000000000003</v>
       </c>
       <c r="D2" s="427">
@@ -16311,10 +16333,10 @@
       <c r="T2" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="V2" s="487">
+      <c r="V2" s="484">
         <v>10</v>
       </c>
-      <c r="W2" s="491" t="s">
+      <c r="W2" s="488" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -16324,10 +16346,10 @@
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="490">
+      <c r="B3" s="487">
         <v>1</v>
       </c>
-      <c r="C3" s="490">
+      <c r="C3" s="487">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -16370,10 +16392,10 @@
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="487">
+      <c r="V3" s="484">
         <v>10</v>
       </c>
-      <c r="W3" s="492" t="s">
+      <c r="W3" s="489" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -16383,10 +16405,10 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
-      <c r="B4" s="490">
+      <c r="B4" s="487">
         <v>2</v>
       </c>
-      <c r="C4" s="490">
+      <c r="C4" s="487">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16422,17 +16444,17 @@
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="487">
+      <c r="V4" s="484">
         <v>9</v>
       </c>
       <c r="W4" s="284"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
-      <c r="B5" s="490">
+      <c r="B5" s="487">
         <v>3</v>
       </c>
-      <c r="C5" s="490">
+      <c r="C5" s="487">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16473,16 +16495,16 @@
       <c r="R5" s="251"/>
       <c r="S5" s="423"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="487">
+      <c r="V5" s="484">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
-      <c r="B6" s="490">
+      <c r="B6" s="487">
         <v>5</v>
       </c>
-      <c r="C6" s="490">
+      <c r="C6" s="487">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16512,7 +16534,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.88051957581093498</v>
       </c>
-      <c r="M6" s="485">
+      <c r="M6" s="482">
         <f>1-L6+K6</f>
         <v>0.19064890656751515</v>
       </c>
@@ -16526,24 +16548,24 @@
       </c>
       <c r="P6" s="257"/>
       <c r="Q6" s="424"/>
-      <c r="R6" s="494" t="s">
+      <c r="R6" s="491" t="s">
         <v>168</v>
       </c>
       <c r="S6" s="425">
         <v>1000</v>
       </c>
-      <c r="T6" s="493">
+      <c r="T6" s="490">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="487">
+      <c r="V6" s="484">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
-      <c r="B7" s="490"/>
-      <c r="C7" s="490"/>
+      <c r="B7" s="487"/>
+      <c r="C7" s="487"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16572,20 +16594,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="486" t="s">
+      <c r="N7" s="483" t="s">
         <v>167</v>
       </c>
       <c r="O7" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="V7" s="487">
+      <c r="V7" s="484">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="482"/>
+      <c r="C8" s="479"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16606,7 +16628,7 @@
       <c r="J8" s="76">
         <v>37</v>
       </c>
-      <c r="K8" s="484">
+      <c r="K8" s="481">
         <f>J5*J6</f>
         <v>31.5</v>
       </c>
@@ -16626,7 +16648,7 @@
         <f>1-L6</f>
         <v>0.11948042418906502</v>
       </c>
-      <c r="V8" s="487">
+      <c r="V8" s="484">
         <v>7</v>
       </c>
     </row>
@@ -16653,10 +16675,10 @@
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="483"/>
+      <c r="N9" s="480"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="481"/>
-      <c r="V9" s="487">
+      <c r="T9" s="478"/>
+      <c r="V9" s="484">
         <v>6</v>
       </c>
     </row>
@@ -16682,7 +16704,7 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="487">
+      <c r="V10" s="484">
         <v>6</v>
       </c>
     </row>
@@ -16722,7 +16744,7 @@
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="487">
+      <c r="V11" s="484">
         <v>5</v>
       </c>
     </row>
@@ -16763,7 +16785,7 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="487">
+      <c r="V12" s="484">
         <v>5</v>
       </c>
     </row>
@@ -16773,10 +16795,10 @@
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
       <c r="E13" s="444"/>
-      <c r="F13" s="487">
+      <c r="F13" s="484">
         <v>12</v>
       </c>
-      <c r="G13" s="488">
+      <c r="G13" s="485">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
@@ -16792,7 +16814,7 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="487">
+      <c r="V13" s="484">
         <v>5</v>
       </c>
     </row>
@@ -16802,10 +16824,10 @@
       <c r="C14" s="461"/>
       <c r="D14" s="106"/>
       <c r="E14" s="444"/>
-      <c r="F14" s="487">
+      <c r="F14" s="484">
         <v>33</v>
       </c>
-      <c r="G14" s="489">
+      <c r="G14" s="486">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
@@ -16821,7 +16843,7 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="487">
+      <c r="V14" s="484">
         <v>5</v>
       </c>
     </row>
@@ -16831,10 +16853,10 @@
       <c r="C15" s="463"/>
       <c r="D15" s="107"/>
       <c r="E15" s="445"/>
-      <c r="F15" s="487">
+      <c r="F15" s="484">
         <v>29</v>
       </c>
-      <c r="G15" s="489">
+      <c r="G15" s="486">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
@@ -16854,7 +16876,7 @@
         <v>171</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="487">
+      <c r="V15" s="484">
         <v>5</v>
       </c>
     </row>
@@ -16864,10 +16886,10 @@
       <c r="C16" s="462"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="487">
+      <c r="F16" s="484">
         <v>11</v>
       </c>
-      <c r="G16" s="489">
+      <c r="G16" s="486">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
@@ -16880,14 +16902,14 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="496" t="s">
+      <c r="M16" s="493" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="497" t="s">
+      <c r="N16" s="494" t="s">
         <v>172</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="487">
+      <c r="V16" s="484">
         <v>5</v>
       </c>
     </row>
@@ -16928,7 +16950,7 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="487">
+      <c r="V17" s="484">
         <v>4</v>
       </c>
     </row>
@@ -16955,7 +16977,7 @@
       </c>
       <c r="M18" s="257"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="487">
+      <c r="V18" s="484">
         <v>4</v>
       </c>
     </row>
@@ -16971,7 +16993,7 @@
         <v>0.03</v>
       </c>
       <c r="H19" s="263"/>
-      <c r="I19" s="495" t="s">
+      <c r="I19" s="492" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
@@ -16982,7 +17004,7 @@
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="487">
+      <c r="V19" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17008,7 +17030,7 @@
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="487">
+      <c r="V20" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17035,7 +17057,7 @@
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="487">
+      <c r="V21" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17052,7 +17074,7 @@
       </c>
       <c r="H22" s="263"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="487">
+      <c r="V22" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17066,10 +17088,10 @@
         <v/>
       </c>
       <c r="H23" s="263"/>
-      <c r="J23" s="513"/>
-      <c r="K23" s="513"/>
+      <c r="J23" s="532"/>
+      <c r="K23" s="532"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="487">
+      <c r="V23" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17099,7 +17121,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="487">
+      <c r="V24" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17127,7 +17149,7 @@
         <f>1-L25</f>
         <v>3.1606145797329344E-3</v>
       </c>
-      <c r="V25" s="487">
+      <c r="V25" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17148,7 +17170,7 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="487">
+      <c r="V26" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17168,7 +17190,7 @@
         <f>J26/SQRT(J27)</f>
         <v>0.44312024954356982</v>
       </c>
-      <c r="V27" s="487">
+      <c r="V27" s="484">
         <v>4</v>
       </c>
     </row>
@@ -17178,7 +17200,7 @@
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="H28" s="263"/>
-      <c r="V28" s="487">
+      <c r="V28" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17188,7 +17210,7 @@
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
       <c r="H29" s="263"/>
-      <c r="V29" s="487">
+      <c r="V29" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17197,7 +17219,7 @@
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="487">
+      <c r="V30" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17206,7 +17228,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="487">
+      <c r="V31" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17215,7 +17237,7 @@
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="487">
+      <c r="V32" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17224,7 +17246,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="487">
+      <c r="V33" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17233,7 +17255,7 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="487">
+      <c r="V34" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17242,7 +17264,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="487">
+      <c r="V35" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17251,7 +17273,7 @@
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="487">
+      <c r="V36" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17260,7 +17282,7 @@
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="487">
+      <c r="V37" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17269,7 +17291,7 @@
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="487">
+      <c r="V38" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17278,7 +17300,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="487">
+      <c r="V39" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17287,7 +17309,7 @@
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="487">
+      <c r="V40" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17296,7 +17318,7 @@
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="487">
+      <c r="V41" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17305,7 +17327,7 @@
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="487">
+      <c r="V42" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17314,7 +17336,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="487">
+      <c r="V43" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17323,7 +17345,7 @@
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="487">
+      <c r="V44" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17332,7 +17354,7 @@
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="487">
+      <c r="V45" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17341,7 +17363,7 @@
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="487">
+      <c r="V46" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17350,7 +17372,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="487">
+      <c r="V47" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17359,7 +17381,7 @@
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="487">
+      <c r="V48" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17368,7 +17390,7 @@
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="487">
+      <c r="V49" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17377,7 +17399,7 @@
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="487">
+      <c r="V50" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17386,7 +17408,7 @@
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="487">
+      <c r="V51" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17395,7 +17417,7 @@
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="487">
+      <c r="V52" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17404,7 +17426,7 @@
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="487">
+      <c r="V53" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17413,7 +17435,7 @@
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="487">
+      <c r="V54" s="484">
         <v>3</v>
       </c>
     </row>
@@ -17422,237 +17444,237 @@
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="487">
+      <c r="V55" s="484">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V56" s="487">
+      <c r="V56" s="484">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V57" s="487">
+      <c r="V57" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V58" s="487">
+      <c r="V58" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V59" s="487">
+      <c r="V59" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V60" s="487">
+      <c r="V60" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V61" s="487">
+      <c r="V61" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V62" s="487">
+      <c r="V62" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V63" s="487">
+      <c r="V63" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V64" s="487">
+      <c r="V64" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V65" s="487">
+      <c r="V65" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V66" s="487">
+      <c r="V66" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V67" s="487">
+      <c r="V67" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V68" s="487">
+      <c r="V68" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V69" s="487">
+      <c r="V69" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V70" s="487">
+      <c r="V70" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V71" s="487">
+      <c r="V71" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V72" s="487">
+      <c r="V72" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V73" s="487">
+      <c r="V73" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V74" s="487">
+      <c r="V74" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V75" s="487">
+      <c r="V75" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V76" s="487">
+      <c r="V76" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V77" s="487">
+      <c r="V77" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V78" s="487">
+      <c r="V78" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V79" s="487">
+      <c r="V79" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V80" s="487">
+      <c r="V80" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V81" s="487">
+      <c r="V81" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V82" s="487">
+      <c r="V82" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V83" s="487">
+      <c r="V83" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V84" s="487">
+      <c r="V84" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V85" s="487">
+      <c r="V85" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V86" s="487">
+      <c r="V86" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V87" s="487">
+      <c r="V87" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V88" s="487">
+      <c r="V88" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V89" s="487">
+      <c r="V89" s="484">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V90" s="487">
+      <c r="V90" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V91" s="487">
+      <c r="V91" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V92" s="487">
+      <c r="V92" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V93" s="487">
+      <c r="V93" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V94" s="487">
+      <c r="V94" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V95" s="487">
+      <c r="V95" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V96" s="487">
+      <c r="V96" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V97" s="487">
+      <c r="V97" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V98" s="487">
+      <c r="V98" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V99" s="487">
+      <c r="V99" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V100" s="487">
+      <c r="V100" s="484">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V101" s="487">
+      <c r="V101" s="484">
         <v>1</v>
       </c>
     </row>
@@ -17728,10 +17750,10 @@
       <c r="U1" s="337"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="501">
+      <c r="A2" s="498">
         <v>0</v>
       </c>
-      <c r="B2" s="501">
+      <c r="B2" s="498">
         <v>0.46200000000000002</v>
       </c>
       <c r="C2" s="106">
@@ -17773,10 +17795,10 @@
       <c r="X2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="501">
+      <c r="A3" s="498">
         <v>1</v>
       </c>
-      <c r="B3" s="501">
+      <c r="B3" s="498">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C3" s="106">
@@ -17831,10 +17853,10 @@
       <c r="Z3" s="126"/>
     </row>
     <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="501">
+      <c r="A4" s="498">
         <v>2</v>
       </c>
-      <c r="B4" s="501">
+      <c r="B4" s="498">
         <v>0.246</v>
       </c>
       <c r="C4" s="106">
@@ -17904,10 +17926,10 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="501">
+      <c r="A5" s="498">
         <v>3</v>
       </c>
-      <c r="B5" s="501">
+      <c r="B5" s="498">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C5" s="106"/>
@@ -17969,10 +17991,10 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="501">
+      <c r="A6" s="498">
         <v>4</v>
       </c>
-      <c r="B6" s="501">
+      <c r="B6" s="498">
         <v>0.14899999999999999</v>
       </c>
       <c r="C6" s="106"/>
@@ -18060,11 +18082,11 @@
       <c r="W7" s="235">
         <v>15</v>
       </c>
-      <c r="X7" s="518" t="s">
+      <c r="X7" s="537" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="519"/>
-      <c r="Z7" s="520"/>
+      <c r="Y7" s="538"/>
+      <c r="Z7" s="539"/>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="280"/>
@@ -18125,7 +18147,7 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="280"/>
-      <c r="B9" s="502">
+      <c r="B9" s="499">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C9" s="311"/>
@@ -18181,7 +18203,7 @@
     </row>
     <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="280"/>
-      <c r="B10" s="502">
+      <c r="B10" s="499">
         <v>0.185</v>
       </c>
       <c r="C10" s="311"/>
@@ -18228,7 +18250,7 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="280"/>
-      <c r="B11" s="502">
+      <c r="B11" s="499">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C11" s="311"/>
@@ -18275,16 +18297,16 @@
     </row>
     <row r="12" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="280"/>
-      <c r="B12" s="502">
+      <c r="B12" s="499">
         <v>0.126</v>
       </c>
       <c r="C12" s="311"/>
       <c r="D12" s="85"/>
       <c r="N12" s="330"/>
-      <c r="O12" s="514" t="s">
+      <c r="O12" s="533" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="515"/>
+      <c r="P12" s="534"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
         <v>2.0210753903062715</v>
@@ -18299,7 +18321,7 @@
     </row>
     <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="280"/>
-      <c r="B13" s="502">
+      <c r="B13" s="499">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C13" s="311"/>
@@ -18326,7 +18348,7 @@
     </row>
     <row r="14" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="313"/>
-      <c r="B14" s="502">
+      <c r="B14" s="499">
         <v>0.24399999999999999</v>
       </c>
       <c r="C14" s="311"/>
@@ -18365,7 +18387,7 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="313"/>
-      <c r="B15" s="502">
+      <c r="B15" s="499">
         <v>0.25600000000000001</v>
       </c>
       <c r="C15" s="311"/>
@@ -18416,7 +18438,7 @@
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="313"/>
-      <c r="B16" s="502">
+      <c r="B16" s="499">
         <v>0.33200000000000002</v>
       </c>
       <c r="C16" s="311"/>
@@ -18438,7 +18460,7 @@
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="313"/>
-      <c r="B17" s="502">
+      <c r="B17" s="499">
         <v>0.121</v>
       </c>
       <c r="C17" s="311"/>
@@ -18466,7 +18488,7 @@
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="313"/>
-      <c r="B18" s="502">
+      <c r="B18" s="499">
         <v>9.4E-2</v>
       </c>
       <c r="C18" s="311"/>
@@ -18490,7 +18512,7 @@
     </row>
     <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="313"/>
-      <c r="B19" s="502"/>
+      <c r="B19" s="499"/>
       <c r="C19" s="311"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
@@ -18512,7 +18534,7 @@
     </row>
     <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="313"/>
-      <c r="B20" s="502"/>
+      <c r="B20" s="499"/>
       <c r="C20" s="311"/>
       <c r="D20" s="85"/>
       <c r="G20" s="434"/>
@@ -18594,7 +18616,7 @@
       <c r="C22" s="311"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="516">
+      <c r="H22" s="535">
         <v>0.05</v>
       </c>
       <c r="I22" s="70" t="s">
@@ -18633,7 +18655,7 @@
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="517"/>
+      <c r="H23" s="536"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
         <v>-1.6448536269514726</v>
@@ -18839,7 +18861,7 @@
       <c r="J28" s="297" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="500"/>
+      <c r="K28" s="497"/>
       <c r="L28" s="70" t="s">
         <v>175</v>
       </c>
@@ -18879,11 +18901,11 @@
         <f>H26*I29*(1-I29)</f>
         <v>496.63799999999992</v>
       </c>
-      <c r="K29" s="498">
+      <c r="K29" s="495">
         <f>(H28+2)/(H26+4)</f>
         <v>0.45908183632734528</v>
       </c>
-      <c r="L29" s="504">
+      <c r="L29" s="501">
         <f>L27*2</f>
         <v>1.9912070233037573</v>
       </c>
@@ -18978,7 +19000,7 @@
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="499" t="s">
+      <c r="L32" s="496" t="s">
         <v>174</v>
       </c>
       <c r="M32" s="153" t="s">
@@ -19855,8 +19877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA12:AA13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19910,8 +19932,8 @@
       <c r="F1" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="521"/>
-      <c r="H1" s="522"/>
+      <c r="G1" s="540"/>
+      <c r="H1" s="541"/>
       <c r="I1" s="195"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
@@ -19925,7 +19947,7 @@
       </c>
       <c r="S1" s="437">
         <f>SUM(S4:S18)</f>
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T1" s="75"/>
       <c r="U1" s="151"/>
@@ -19977,7 +19999,7 @@
         <v>52</v>
       </c>
       <c r="S2" s="32">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="T2" s="132"/>
       <c r="U2" s="396"/>
@@ -20025,13 +20047,13 @@
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
       <c r="Q3" s="387"/>
-      <c r="R3" s="559" t="s">
+      <c r="R3" s="521" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="561" t="s">
+      <c r="S3" s="523" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="560" t="s">
+      <c r="T3" s="522" t="s">
         <v>148</v>
       </c>
       <c r="U3" s="396"/>
@@ -20039,14 +20061,14 @@
       <c r="W3" s="405"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="551" t="s">
+      <c r="Z3" s="513" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="552" t="s">
+      <c r="AA3" s="514" t="s">
         <v>147</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="562" t="s">
+      <c r="AC3" s="524" t="s">
         <v>30</v>
       </c>
       <c r="AD3" s="75"/>
@@ -20059,10 +20081,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="508">
+      <c r="A4" s="505">
         <v>220</v>
       </c>
-      <c r="B4" s="508">
+      <c r="B4" s="505">
         <v>73.3</v>
       </c>
       <c r="C4" s="366">
@@ -20088,45 +20110,45 @@
       <c r="P4" s="75"/>
       <c r="Q4" s="387">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
-        <v>219.23809581021777</v>
+        <v>219.23677420910491</v>
       </c>
       <c r="R4" s="175">
         <f>S4/S$1</f>
-        <v>0.38128249566724437</v>
-      </c>
-      <c r="S4" s="558">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="S4" s="520">
         <v>220</v>
       </c>
       <c r="T4" s="378">
         <f>S$2*R4</f>
-        <v>217.33102253032928</v>
+        <v>220</v>
       </c>
       <c r="U4" s="396">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
-        <v>3.2776916294201985E-2</v>
+        <v>95.338888888888874</v>
       </c>
       <c r="V4" s="406">
         <f>SUM(Q4:Q15)</f>
-        <v>575.00173310225318</v>
+        <v>574.0017361111112</v>
       </c>
       <c r="W4" s="407">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
-        <v>12.01703662378053</v>
+        <v>7.7794403397348582</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="549">
+      <c r="Z4" s="511">
         <v>1.6</v>
       </c>
-      <c r="AA4" s="550">
+      <c r="AA4" s="512">
         <f>Z4/S$1</f>
-        <v>2.7729636048526864E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="564">
+      <c r="AC4" s="526">
         <v>0</v>
       </c>
-      <c r="AD4" s="563">
+      <c r="AD4" s="525">
         <f>AC4*R4</f>
         <v>0</v>
       </c>
@@ -20141,10 +20163,10 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="508">
+      <c r="A5" s="505">
         <v>214</v>
       </c>
-      <c r="B5" s="508">
+      <c r="B5" s="505">
         <v>76.8</v>
       </c>
       <c r="C5" s="366">
@@ -20173,41 +20195,41 @@
       <c r="P5" s="75"/>
       <c r="Q5" s="387">
         <f t="shared" ref="Q5:Q23" si="2">IF(S5=0,0, (R5-S5)^2 / S5)</f>
-        <v>213.25887501539367</v>
+        <v>213.25758945794755</v>
       </c>
       <c r="R5" s="175">
-        <f t="shared" ref="R5:R11" si="3">S5/S$1</f>
-        <v>0.37088388214904677</v>
-      </c>
-      <c r="S5" s="558">
+        <f t="shared" ref="R5:R8" si="3">S5/S$1</f>
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="S5" s="520">
         <v>214</v>
       </c>
       <c r="T5" s="378">
         <f t="shared" ref="T5:T15" si="4">S$2*R5</f>
-        <v>211.40381282495667</v>
+        <v>214</v>
       </c>
       <c r="U5" s="396">
         <f t="shared" ref="U5:U17" si="5">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
-        <v>3.1883000395268896E-2</v>
+        <v>84.734722222222203</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="546">
+      <c r="Z5" s="508">
         <v>25.5</v>
       </c>
-      <c r="AA5" s="548">
+      <c r="AA5" s="510">
         <f t="shared" ref="AA5:AA14" si="6">Z5/S$1</f>
-        <v>4.419410745233969E-2</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="564">
+      <c r="AC5" s="526">
         <v>1</v>
       </c>
-      <c r="AD5" s="563">
+      <c r="AD5" s="525">
         <f t="shared" ref="AD5:AD14" si="7">AC5*R5</f>
-        <v>0.37088388214904677</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="AF5" s="133"/>
       <c r="AG5" s="134">
@@ -20220,10 +20242,10 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="508">
+      <c r="A6" s="505">
         <v>99</v>
       </c>
-      <c r="B6" s="508">
+      <c r="B6" s="505">
         <v>69.8</v>
       </c>
       <c r="C6" s="366">
@@ -20245,22 +20267,22 @@
       <c r="P6" s="140"/>
       <c r="Q6" s="387">
         <f t="shared" si="2"/>
-        <v>98.657143114598014</v>
+        <v>98.656548394097229</v>
       </c>
       <c r="R6" s="175">
         <f t="shared" si="3"/>
-        <v>0.17157712305025996</v>
-      </c>
-      <c r="S6" s="558">
+        <v>0.171875</v>
+      </c>
+      <c r="S6" s="520">
         <v>99</v>
       </c>
       <c r="T6" s="378">
         <f t="shared" si="4"/>
-        <v>97.798960138648184</v>
+        <v>99</v>
       </c>
       <c r="U6" s="396">
         <f t="shared" si="5"/>
-        <v>1.4749612332390683E-2</v>
+        <v>2.2781250000000011</v>
       </c>
       <c r="V6" s="408" t="s">
         <v>177</v>
@@ -20270,20 +20292,20 @@
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="546">
+      <c r="Z6" s="508">
         <v>153.1</v>
       </c>
-      <c r="AA6" s="548">
+      <c r="AA6" s="510">
         <f t="shared" si="6"/>
-        <v>0.26533795493934142</v>
+        <v>0.26579861111111108</v>
       </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="564">
+      <c r="AC6" s="526">
         <v>2</v>
       </c>
-      <c r="AD6" s="563">
+      <c r="AD6" s="525">
         <f t="shared" si="7"/>
-        <v>0.34315424610051992</v>
+        <v>0.34375</v>
       </c>
       <c r="AF6" s="133"/>
       <c r="AG6" s="134">
@@ -20296,10 +20318,10 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="508">
+      <c r="A7" s="505">
         <v>35</v>
       </c>
-      <c r="B7" s="508">
+      <c r="B7" s="505">
         <v>73</v>
       </c>
       <c r="C7" s="366">
@@ -20334,53 +20356,53 @@
       </c>
       <c r="Q7" s="387">
         <f t="shared" si="2"/>
-        <v>34.87878796980737</v>
+        <v>34.878577715084887</v>
       </c>
       <c r="R7" s="175">
         <f t="shared" si="3"/>
-        <v>6.0658578856152515E-2</v>
-      </c>
-      <c r="S7" s="558">
+        <v>6.0763888888888888E-2</v>
+      </c>
+      <c r="S7" s="520">
         <v>35</v>
       </c>
       <c r="T7" s="378">
         <f t="shared" si="4"/>
-        <v>34.575389948006936</v>
+        <v>35</v>
       </c>
       <c r="U7" s="396">
         <f t="shared" si="5"/>
-        <v>5.2145094104410821E-3</v>
+        <v>55.83368055555556</v>
       </c>
       <c r="V7" s="409">
         <f>SUM(U4:U17)</f>
-        <v>8.59649122807018E-2</v>
+        <v>337.94097222222217</v>
       </c>
       <c r="W7" s="139">
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
-        <v>0.99999863110898124</v>
-      </c>
-      <c r="X7" s="544">
+        <v>7.0375872786408058E-72</v>
+      </c>
+      <c r="X7" s="506">
         <f>1-W7</f>
-        <v>1.3688910187603653E-6</v>
-      </c>
-      <c r="Y7" s="545">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="507">
         <f>2*W7</f>
-        <v>1.9999972622179625</v>
-      </c>
-      <c r="Z7" s="546">
+        <v>1.4075174557281612E-71</v>
+      </c>
+      <c r="Z7" s="508">
         <v>408.4</v>
       </c>
-      <c r="AA7" s="548">
+      <c r="AA7" s="510">
         <f t="shared" si="6"/>
-        <v>0.70779896013864818</v>
+        <v>0.7090277777777777</v>
       </c>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="564">
+      <c r="AC7" s="526">
         <v>3</v>
       </c>
-      <c r="AD7" s="563">
+      <c r="AD7" s="525">
         <f t="shared" si="7"/>
-        <v>0.18197573656845756</v>
+        <v>0.18229166666666666</v>
       </c>
       <c r="AF7" s="135">
         <f>SUM(A4:A39)</f>
@@ -20396,10 +20418,10 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="508">
+      <c r="A8" s="505">
         <v>8</v>
       </c>
-      <c r="B8" s="508">
+      <c r="B8" s="505">
         <v>73.8</v>
       </c>
       <c r="C8" s="366">
@@ -20452,22 +20474,22 @@
       </c>
       <c r="Q8" s="387">
         <f t="shared" si="2"/>
-        <v>7.9722943930988288</v>
+        <v>7.9722463348765427</v>
       </c>
       <c r="R8" s="175">
         <f t="shared" si="3"/>
-        <v>1.3864818024263431E-2</v>
-      </c>
-      <c r="S8" s="558">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="S8" s="520">
         <v>8</v>
       </c>
       <c r="T8" s="378">
         <f t="shared" si="4"/>
-        <v>7.9029462738301559</v>
+        <v>8</v>
       </c>
       <c r="U8" s="396">
         <f t="shared" si="5"/>
-        <v>1.1918878652437E-3</v>
+        <v>99.75555555555556</v>
       </c>
       <c r="V8" s="410" t="s">
         <v>149</v>
@@ -20477,20 +20499,20 @@
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="546">
+      <c r="Z8" s="508">
         <v>408.4</v>
       </c>
-      <c r="AA8" s="548">
+      <c r="AA8" s="510">
         <f t="shared" si="6"/>
-        <v>0.70779896013864818</v>
+        <v>0.7090277777777777</v>
       </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="564">
+      <c r="AC8" s="526">
         <v>4</v>
       </c>
-      <c r="AD8" s="563">
+      <c r="AD8" s="525">
         <f t="shared" si="7"/>
-        <v>5.5459272097053723E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="AF8" s="135">
         <f>SUM(B4:B39)</f>
@@ -20506,10 +20528,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="508">
+      <c r="A9" s="505">
         <v>0</v>
       </c>
-      <c r="B9" s="508">
+      <c r="B9" s="505">
         <v>71.3</v>
       </c>
       <c r="C9" s="366">
@@ -20542,13 +20564,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="175">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="558">
-        <v>0</v>
-      </c>
+      <c r="R9" s="175"/>
+      <c r="S9" s="520"/>
       <c r="T9" s="378">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -20559,24 +20576,24 @@
       </c>
       <c r="V9" s="411">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
-        <v>72.125</v>
-      </c>
-      <c r="W9" s="565">
+        <v>115.2</v>
+      </c>
+      <c r="W9" s="527">
         <f>SUM(AD4:AD14)</f>
-        <v>0.96360485268630847</v>
+        <v>0.953125</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="546"/>
-      <c r="AA9" s="548">
+      <c r="Z9" s="508"/>
+      <c r="AA9" s="510">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="564">
+      <c r="AC9" s="526">
         <v>5</v>
       </c>
-      <c r="AD9" s="563">
+      <c r="AD9" s="525">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20591,10 +20608,10 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="508">
+      <c r="A10" s="505">
         <v>0</v>
       </c>
-      <c r="B10" s="508">
+      <c r="B10" s="505">
         <v>71.7</v>
       </c>
       <c r="C10" s="366">
@@ -20613,7 +20630,7 @@
         <f>E8-E10</f>
         <v>-63.160278275619447</v>
       </c>
-      <c r="G10" s="507">
+      <c r="G10" s="504">
         <f>E8+E10</f>
         <v>62.735278275619436</v>
       </c>
@@ -20647,13 +20664,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="175">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="558">
-        <v>0</v>
-      </c>
+      <c r="R10" s="175"/>
+      <c r="S10" s="520"/>
       <c r="T10" s="378">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -20666,16 +20678,16 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="546"/>
-      <c r="AA10" s="548">
+      <c r="Z10" s="508"/>
+      <c r="AA10" s="510">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="564">
+      <c r="AC10" s="526">
         <v>6</v>
       </c>
-      <c r="AD10" s="563">
+      <c r="AD10" s="525">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20690,10 +20702,10 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="508">
+      <c r="A11" s="505">
         <v>1</v>
       </c>
-      <c r="B11" s="508">
+      <c r="B11" s="505">
         <v>69</v>
       </c>
       <c r="C11" s="366">
@@ -20737,41 +20749,36 @@
       </c>
       <c r="Q11" s="387">
         <f t="shared" si="2"/>
-        <v>0.9965367991373536</v>
-      </c>
-      <c r="R11" s="175">
-        <f t="shared" si="3"/>
-        <v>1.7331022530329288E-3</v>
-      </c>
-      <c r="S11" s="558">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R11" s="175"/>
+      <c r="S11" s="520"/>
       <c r="T11" s="378">
         <f t="shared" si="4"/>
-        <v>0.98786828422876949</v>
+        <v>0</v>
       </c>
       <c r="U11" s="396">
         <f t="shared" si="5"/>
-        <v>1.489859831554625E-4</v>
+        <v>0</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="553" t="s">
+      <c r="X11" s="515" t="s">
         <v>160</v>
       </c>
-      <c r="Y11" s="556"/>
-      <c r="Z11" s="546"/>
-      <c r="AA11" s="548">
+      <c r="Y11" s="518"/>
+      <c r="Z11" s="508"/>
+      <c r="AA11" s="510">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="564">
+      <c r="AC11" s="526">
         <v>7</v>
       </c>
-      <c r="AD11" s="563">
+      <c r="AD11" s="525">
         <f t="shared" si="7"/>
-        <v>1.2131715771230503E-2</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="133"/>
       <c r="AG11" s="134">
@@ -20784,8 +20791,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="508"/>
-      <c r="B12" s="508"/>
+      <c r="A12" s="505"/>
+      <c r="B12" s="505"/>
       <c r="C12" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20817,8 +20824,8 @@
       <c r="M12" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="523"/>
-      <c r="O12" s="524"/>
+      <c r="N12" s="542"/>
+      <c r="O12" s="543"/>
       <c r="P12" s="70" t="s">
         <v>176</v>
       </c>
@@ -20842,24 +20849,24 @@
       <c r="W12" s="413">
         <v>240</v>
       </c>
-      <c r="X12" s="554">
+      <c r="X12" s="516">
         <f>W12*W13</f>
         <v>24.240000000000002</v>
       </c>
-      <c r="Y12" s="555">
+      <c r="Y12" s="517">
         <f>( (W14-X12)^2)/X12 + ((W12-W14-X14)^2)/X14</f>
         <v>0.64875898045866787</v>
       </c>
-      <c r="Z12" s="546"/>
-      <c r="AA12" s="548">
+      <c r="Z12" s="508"/>
+      <c r="AA12" s="510">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="564">
+      <c r="AC12" s="526">
         <v>8</v>
       </c>
-      <c r="AD12" s="563">
+      <c r="AD12" s="525">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20874,8 +20881,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="508"/>
-      <c r="B13" s="508"/>
+      <c r="A13" s="505"/>
+      <c r="B13" s="505"/>
       <c r="C13" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20944,16 +20951,16 @@
         <v>161</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="546"/>
-      <c r="AA13" s="548">
+      <c r="Z13" s="508"/>
+      <c r="AA13" s="510">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="564">
+      <c r="AC13" s="526">
         <v>9</v>
       </c>
-      <c r="AD13" s="563">
+      <c r="AD13" s="525">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20968,8 +20975,8 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="508"/>
-      <c r="B14" s="508"/>
+      <c r="A14" s="505"/>
+      <c r="B14" s="505"/>
       <c r="C14" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21032,16 +21039,16 @@
         <v>215.76</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="547"/>
-      <c r="AA14" s="548">
+      <c r="Z14" s="509"/>
+      <c r="AA14" s="510">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="564">
+      <c r="AC14" s="526">
         <v>10</v>
       </c>
-      <c r="AD14" s="563">
+      <c r="AD14" s="525">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -21056,8 +21063,8 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="508"/>
-      <c r="B15" s="508"/>
+      <c r="A15" s="505"/>
+      <c r="B15" s="505"/>
       <c r="C15" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21068,10 +21075,10 @@
       </c>
       <c r="E15" s="211"/>
       <c r="F15" s="211"/>
-      <c r="G15" s="525" t="s">
+      <c r="G15" s="544" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="526"/>
+      <c r="H15" s="545"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
@@ -21115,8 +21122,8 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="508"/>
-      <c r="B16" s="508"/>
+      <c r="A16" s="505"/>
+      <c r="B16" s="505"/>
       <c r="C16" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21368,8 +21375,8 @@
       <c r="F20" s="453">
         <v>1.21</v>
       </c>
-      <c r="G20" s="528"/>
-      <c r="H20" s="529"/>
+      <c r="G20" s="547"/>
+      <c r="H20" s="548"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.75854910714285684</v>
@@ -21402,7 +21409,7 @@
       <c r="T20" s="157"/>
       <c r="U20" s="399"/>
       <c r="V20" s="157"/>
-      <c r="W20" s="557" t="s">
+      <c r="W20" s="519" t="s">
         <v>178</v>
       </c>
       <c r="X20" s="130">
@@ -21504,10 +21511,10 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="527" t="s">
+      <c r="G22" s="546" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="527"/>
+      <c r="H22" s="546"/>
       <c r="I22" s="196"/>
       <c r="J22" s="230" t="s">
         <v>68</v>
@@ -21959,11 +21966,11 @@
         <f>1-M30</f>
         <v>0.97743986734687949</v>
       </c>
-      <c r="O30" s="506">
+      <c r="O30" s="503">
         <f>2*M30</f>
         <v>4.5120265306241025E-2</v>
       </c>
-      <c r="P30" s="505">
+      <c r="P30" s="502">
         <f>2*N30</f>
         <v>1.954879734693759</v>
       </c>
@@ -22012,7 +22019,7 @@
       <c r="H31" s="121"/>
       <c r="I31" s="196"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="503">
+      <c r="K31" s="500">
         <v>1.06</v>
       </c>
       <c r="L31" s="70"/>
@@ -22864,20 +22871,20 @@
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="479">
+      <c r="A4" s="476">
         <v>-5</v>
       </c>
-      <c r="B4" s="479">
+      <c r="B4" s="476">
         <v>-10</v>
       </c>
       <c r="C4" s="207">
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="537" t="s">
+      <c r="D4" s="556" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="538"/>
+      <c r="E4" s="557"/>
       <c r="G4" s="94"/>
       <c r="H4" s="204"/>
       <c r="I4" s="30"/>
@@ -22893,10 +22900,10 @@
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="479">
+      <c r="A5" s="476">
         <v>-3</v>
       </c>
-      <c r="B5" s="479">
+      <c r="B5" s="476">
         <v>-8</v>
       </c>
       <c r="C5" s="207">
@@ -22924,10 +22931,10 @@
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="479">
+      <c r="A6" s="476">
         <v>4</v>
       </c>
-      <c r="B6" s="479">
+      <c r="B6" s="476">
         <v>9</v>
       </c>
       <c r="C6" s="207">
@@ -22960,10 +22967,10 @@
       <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="479">
+      <c r="A7" s="476">
         <v>1</v>
       </c>
-      <c r="B7" s="479">
+      <c r="B7" s="476">
         <v>1</v>
       </c>
       <c r="C7" s="207">
@@ -22993,10 +23000,10 @@
       <c r="M7" s="204"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="479">
+      <c r="A8" s="476">
         <v>-1</v>
       </c>
-      <c r="B8" s="479">
+      <c r="B8" s="476">
         <v>-2</v>
       </c>
       <c r="C8" s="207">
@@ -23019,20 +23026,20 @@
       <c r="M8" s="132"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="479">
+      <c r="A9" s="476">
         <v>-2</v>
       </c>
-      <c r="B9" s="479">
+      <c r="B9" s="476">
         <v>-6</v>
       </c>
       <c r="C9" s="428">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="533" t="s">
+      <c r="D9" s="552" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="534"/>
+      <c r="E9" s="553"/>
       <c r="F9" s="70" t="s">
         <v>162</v>
       </c>
@@ -23050,21 +23057,21 @@
       <c r="M9" s="132"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="479">
+      <c r="A10" s="476">
         <v>0</v>
       </c>
-      <c r="B10" s="479">
+      <c r="B10" s="476">
         <v>-1</v>
       </c>
       <c r="C10" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="539">
+      <c r="D10" s="558">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="540"/>
+      <c r="E10" s="559"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -23083,10 +23090,10 @@
       <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="479">
+      <c r="A11" s="476">
         <v>2</v>
       </c>
-      <c r="B11" s="479">
+      <c r="B11" s="476">
         <v>3</v>
       </c>
       <c r="C11" s="207">
@@ -23108,10 +23115,10 @@
       <c r="M11" s="132"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="479">
+      <c r="A12" s="476">
         <v>3</v>
       </c>
-      <c r="B12" s="479">
+      <c r="B12" s="476">
         <v>6</v>
       </c>
       <c r="C12" s="207">
@@ -23144,10 +23151,10 @@
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="479">
+      <c r="A13" s="476">
         <v>-4</v>
       </c>
-      <c r="B13" s="479">
+      <c r="B13" s="476">
         <v>-8</v>
       </c>
       <c r="C13" s="207">
@@ -23173,8 +23180,8 @@
       <c r="M13" s="132"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="478"/>
-      <c r="B14" s="478"/>
+      <c r="A14" s="475"/>
+      <c r="B14" s="475"/>
       <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23194,16 +23201,16 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="478"/>
-      <c r="B15" s="478"/>
+      <c r="A15" s="475"/>
+      <c r="B15" s="475"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="541" t="s">
+      <c r="D15" s="560" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="542"/>
+      <c r="E15" s="561"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="431">
@@ -23217,8 +23224,8 @@
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="478"/>
-      <c r="B16" s="478"/>
+      <c r="A16" s="475"/>
+      <c r="B16" s="475"/>
       <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23243,8 +23250,8 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="478"/>
-      <c r="B17" s="478"/>
+      <c r="A17" s="475"/>
+      <c r="B17" s="475"/>
       <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23272,8 +23279,8 @@
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="478"/>
-      <c r="B18" s="478"/>
+      <c r="A18" s="475"/>
+      <c r="B18" s="475"/>
       <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23289,7 +23296,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="480">
+      <c r="L18" s="477">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23299,11 +23306,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="473">
+      <c r="K19" s="470">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="473">
+      <c r="L19" s="470">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
@@ -23313,17 +23320,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="531" t="s">
+      <c r="D20" s="550" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="532"/>
-      <c r="F20" s="530"/>
-      <c r="G20" s="530"/>
-      <c r="K20" s="473">
+      <c r="E20" s="551"/>
+      <c r="F20" s="549"/>
+      <c r="G20" s="549"/>
+      <c r="K20" s="470">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="473">
+      <c r="L20" s="470">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
@@ -23339,13 +23346,13 @@
       <c r="E21" s="425">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="474"/>
-      <c r="G21" s="474"/>
-      <c r="K21" s="473">
+      <c r="F21" s="471"/>
+      <c r="G21" s="471"/>
+      <c r="K21" s="470">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="473">
+      <c r="L21" s="470">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
@@ -23355,17 +23362,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="533" t="s">
+      <c r="D22" s="552" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="534"/>
-      <c r="F22" s="475"/>
-      <c r="G22" s="475"/>
-      <c r="K22" s="473">
+      <c r="E22" s="553"/>
+      <c r="F22" s="472"/>
+      <c r="G22" s="472"/>
+      <c r="K22" s="470">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="473">
+      <c r="L22" s="470">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
@@ -23375,18 +23382,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="535">
+      <c r="D23" s="554">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="536"/>
-      <c r="F23" s="476"/>
-      <c r="G23" s="477"/>
-      <c r="K23" s="473">
+      <c r="E23" s="555"/>
+      <c r="F23" s="473"/>
+      <c r="G23" s="474"/>
+      <c r="K23" s="470">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="473">
+      <c r="L23" s="470">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
@@ -23396,11 +23403,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="473">
+      <c r="K24" s="470">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="473">
+      <c r="L24" s="470">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
@@ -23410,11 +23417,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="473">
+      <c r="K25" s="470">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="473">
+      <c r="L25" s="470">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
@@ -23424,11 +23431,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="473">
+      <c r="K26" s="470">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="473">
+      <c r="L26" s="470">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
@@ -23438,11 +23445,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="473">
+      <c r="K27" s="470">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="473">
+      <c r="L27" s="470">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
@@ -23452,11 +23459,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="473">
+      <c r="K28" s="470">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="473">
+      <c r="L28" s="470">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
@@ -23466,11 +23473,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="473">
+      <c r="K29" s="470">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="473">
+      <c r="L29" s="470">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -23480,11 +23487,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="473">
+      <c r="K30" s="470">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="473">
+      <c r="L30" s="470">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -23494,16 +23501,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="473"/>
-      <c r="L31" s="473"/>
+      <c r="K31" s="470"/>
+      <c r="L31" s="470"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="473"/>
-      <c r="L32" s="473"/>
+      <c r="K32" s="470"/>
+      <c r="L32" s="470"/>
     </row>
     <row r="33" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="217">
@@ -24002,10 +24009,10 @@
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="K20" s="543" t="s">
+      <c r="K20" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="543"/>
+      <c r="L20" s="562"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -2439,7 +2439,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="84" x14ac:knownFonts="1">
+  <fonts count="85">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3041,6 +3041,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3936,7 +3943,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="564">
+  <cellXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -5273,6 +5280,7 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5378,7 +5386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5568,11 +5576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125150728"/>
-        <c:axId val="125153472"/>
+        <c:axId val="210127072"/>
+        <c:axId val="210127464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125150728"/>
+        <c:axId val="210127072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5629,12 +5637,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125153472"/>
+        <c:crossAx val="210127464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125153472"/>
+        <c:axId val="210127464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5691,7 +5699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125150728"/>
+        <c:crossAx val="210127072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5831,11 +5839,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="125155432"/>
-        <c:axId val="125155824"/>
+        <c:axId val="157336512"/>
+        <c:axId val="157336120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125155432"/>
+        <c:axId val="157336512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5928,7 +5936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125155824"/>
+        <c:crossAx val="157336120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5936,7 +5944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125155824"/>
+        <c:axId val="157336120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6045,7 +6053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125155432"/>
+        <c:crossAx val="157336512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6622,11 +6630,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="290460680"/>
-        <c:axId val="290461072"/>
+        <c:axId val="209412824"/>
+        <c:axId val="209413216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290460680"/>
+        <c:axId val="209412824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6722,7 +6730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290461072"/>
+        <c:crossAx val="209413216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6730,7 +6738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290461072"/>
+        <c:axId val="209413216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6834,7 +6842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290460680"/>
+        <c:crossAx val="209412824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7059,11 +7067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="290463816"/>
-        <c:axId val="290464208"/>
+        <c:axId val="214039168"/>
+        <c:axId val="214039560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290463816"/>
+        <c:axId val="214039168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7159,7 +7167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290464208"/>
+        <c:crossAx val="214039560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7167,7 +7175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290464208"/>
+        <c:axId val="214039560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7272,7 +7280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290463816"/>
+        <c:crossAx val="214039168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7473,11 +7481,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="290608048"/>
-        <c:axId val="290608440"/>
+        <c:axId val="214040344"/>
+        <c:axId val="214040736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290608048"/>
+        <c:axId val="214040344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7570,7 +7578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290608440"/>
+        <c:crossAx val="214040736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7578,7 +7586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290608440"/>
+        <c:axId val="214040736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7679,7 +7687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290608048"/>
+        <c:crossAx val="214040344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15208,10 +15216,10 @@
   <dimension ref="B1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="3" width="7.28515625" customWidth="1"/>
@@ -15229,7 +15237,7 @@
     <col min="17" max="18" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1">
       <c r="I1" s="12"/>
       <c r="J1" s="108"/>
       <c r="K1" s="108"/>
@@ -15237,19 +15245,19 @@
       <c r="M1" s="12"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="16.5" thickBot="1">
       <c r="B2" s="23">
         <f>COUNT(B5:B60)</f>
-        <v>24</v>
-      </c>
-      <c r="E2" s="528" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="529" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="529"/>
-      <c r="G2" s="530" t="s">
+      <c r="F2" s="530"/>
+      <c r="G2" s="531" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="531"/>
+      <c r="H2" s="532"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -15258,7 +15266,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="18" thickBot="1">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -15291,17 +15299,17 @@
       </c>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="16.5" thickBot="1">
       <c r="B4" s="457"/>
       <c r="C4" s="457"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
-        <v>38.979166666666664</v>
+        <v>298.7</v>
       </c>
       <c r="F4" s="19">
         <f>MEDIAN(B5:B60)</f>
-        <v>38.6</v>
+        <v>265</v>
       </c>
       <c r="G4" s="20">
         <f>IF(C5="","",AVERAGE(C5:C60))</f>
@@ -15334,9 +15342,9 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="563">
-        <v>32.5</v>
+    <row r="5" spans="2:20" ht="16.5" thickBot="1">
+      <c r="B5" s="528">
+        <v>147</v>
       </c>
       <c r="C5" s="3">
         <v>79</v>
@@ -15387,9 +15395,9 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="563">
-        <v>34.5</v>
+    <row r="6" spans="2:20" ht="16.5" thickBot="1">
+      <c r="B6" s="528">
+        <v>150</v>
       </c>
       <c r="C6" s="3">
         <v>65</v>
@@ -15397,11 +15405,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="20">
         <f>_xlfn.STDEV.S(B5:B60)</f>
-        <v>3.5130785665129594</v>
+        <v>146.52572773710727</v>
       </c>
       <c r="F6" s="21">
         <f>E6^2</f>
-        <v>12.34172101449275</v>
+        <v>21469.788888888888</v>
       </c>
       <c r="G6" s="20">
         <f>_xlfn.STDEV.S(C5:C60)</f>
@@ -15443,9 +15451,9 @@
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="563">
-        <v>34.700000000000003</v>
+    <row r="7" spans="2:20" ht="15.75">
+      <c r="B7" s="528">
+        <v>180</v>
       </c>
       <c r="C7" s="3">
         <v>67</v>
@@ -15487,19 +15495,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="563">
-        <v>35.200000000000003</v>
+    <row r="8" spans="2:20" ht="16.5" thickBot="1">
+      <c r="B8" s="528">
+        <v>189</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="467">
         <f>_xlfn.STDEV.P(B5:B60)</f>
-        <v>3.4391107337346507</v>
+        <v>139.00651063889057</v>
       </c>
       <c r="F8" s="21">
         <f>E8^2</f>
-        <v>11.827482638888888</v>
+        <v>19322.809999999998</v>
       </c>
       <c r="G8" s="467">
         <f>_xlfn.STDEV.P(C5:C60)</f>
@@ -15536,9 +15544,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="563">
-        <v>36.1</v>
+    <row r="9" spans="2:20" ht="15.75">
+      <c r="B9" s="528">
+        <v>210</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -15577,15 +15585,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="563">
-        <v>36.4</v>
+    <row r="10" spans="2:20" ht="16.5" thickBot="1">
+      <c r="B10" s="528">
+        <v>320</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="64">
         <f>E6/E4</f>
-        <v>9.0127082411877099E-2</v>
+        <v>0.49054478653199624</v>
       </c>
       <c r="G10" s="65">
         <f>G6/G4</f>
@@ -15615,9 +15623,9 @@
         <v>1051.5</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="563">
-        <v>37.4</v>
+    <row r="11" spans="2:20" ht="18.75">
+      <c r="B11" s="528">
+        <v>375</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
@@ -15652,9 +15660,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="563">
-        <v>37.700000000000003</v>
+    <row r="12" spans="2:20" ht="15.75">
+      <c r="B12" s="528">
+        <v>407</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
@@ -15663,7 +15671,7 @@
       </c>
       <c r="F12" s="246">
         <f>(F11-E4)/(E6)</f>
-        <v>2.8809015061052725</v>
+        <v>-1.7034551123187456</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
@@ -15686,9 +15694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="563">
-        <v>37.9</v>
+    <row r="13" spans="2:20" ht="15.75">
+      <c r="B13" s="528">
+        <v>429</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
@@ -15715,9 +15723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="563">
-        <v>38.1</v>
+    <row r="14" spans="2:20" ht="16.5" thickBot="1">
+      <c r="B14" s="528">
+        <v>580</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
@@ -15740,10 +15748,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="563">
-        <v>38.200000000000003</v>
-      </c>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B15" s="528"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="252" t="s">
@@ -15775,31 +15781,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="563">
-        <v>38.5</v>
-      </c>
+    <row r="16" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B16" s="528"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="253">
         <f>MIN(B5:B60)</f>
-        <v>32.5</v>
+        <v>147</v>
       </c>
       <c r="F16" s="55">
-        <f>QUARTILE($B$5:$B$60, 1)</f>
-        <v>37.15</v>
+        <f>IF(ISEVEN(ROUNDDOWN(COUNT(B5:B60)/2,0)),AVERAGE(SMALL(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2),SMALL(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2+1)),SMALL(B5:B60,ROUNDUP(ROUNDDOWN(COUNT(B5:B60)/2,0)/2,0)))</f>
+        <v>180</v>
       </c>
       <c r="G16" s="55">
         <f>QUARTILE($B$5:$B$60, 2)</f>
-        <v>38.6</v>
+        <v>265</v>
       </c>
       <c r="H16" s="55">
-        <f>(_xlfn.QUARTILE.EXC($B$5:$B$60, 3) + QUARTILE($B$5:$B$60, 3)) /2</f>
-        <v>40.9</v>
+        <f>IF(ISEVEN(ROUNDDOWN(COUNT(B5:B60)/2,0)),AVERAGE(LARGE(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2),LARGE(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2+1)),LARGE(B5:B60,ROUNDUP(ROUNDDOWN(COUNT(B5:B60)/2,0)/2,0)))</f>
+        <v>407</v>
       </c>
       <c r="I16" s="249">
         <f>MAX(B5:B60)</f>
-        <v>49.1</v>
+        <v>580</v>
       </c>
       <c r="O16" s="61">
         <f t="shared" si="3"/>
@@ -15815,10 +15819,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="563">
-        <v>38.700000000000003</v>
-      </c>
+    <row r="17" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B17" s="528"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="254" t="s">
@@ -15850,10 +15852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="563">
-        <v>38.9</v>
-      </c>
+    <row r="18" spans="2:18" ht="16.5" thickBot="1">
+      <c r="B18" s="528"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="255">
@@ -15861,19 +15861,19 @@
       </c>
       <c r="F18" s="59">
         <f xml:space="preserve">  INDEX(B5:B260, $E$26) + (INDEX(B5:B60, 1+ $E$26) -INDEX(B5:B60, $E$26))*E25</f>
-        <v>40.5</v>
+        <v>391</v>
       </c>
       <c r="G18" s="248">
-        <f xml:space="preserve"> QUARTILE($B$5:$B$60, 3)-F16</f>
-        <v>3.5500000000000043</v>
+        <f>H16-F16</f>
+        <v>227</v>
       </c>
       <c r="H18" s="247">
         <f>F16-1.5*G18</f>
-        <v>31.824999999999992</v>
+        <v>-160.5</v>
       </c>
       <c r="I18" s="247">
         <f>QUARTILE($B$5:$B$60, 3)+1.5*G18</f>
-        <v>46.025000000000006</v>
+        <v>739.5</v>
       </c>
       <c r="O18" s="61">
         <f t="shared" si="3"/>
@@ -15889,10 +15889,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="563">
-        <v>39.4</v>
-      </c>
+    <row r="19" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B19" s="528"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15906,10 +15904,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="563">
-        <v>39.700000000000003</v>
-      </c>
+    <row r="20" spans="2:18" ht="16.5" thickBot="1">
+      <c r="B20" s="528"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
       <c r="E20" s="256" t="s">
@@ -15921,6 +15917,7 @@
       <c r="G20" s="220" t="s">
         <v>43</v>
       </c>
+      <c r="J20"/>
       <c r="O20" s="61"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="12">
@@ -15932,10 +15929,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="563">
-        <v>40.4</v>
-      </c>
+    <row r="21" spans="2:18" ht="15.75">
+      <c r="B21" s="528"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="256" t="s">
@@ -15948,6 +15943,7 @@
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>1.0000000000000009</v>
       </c>
+      <c r="J21"/>
       <c r="K21" s="456"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
@@ -15960,10 +15956,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="563">
-        <v>40.5</v>
-      </c>
+    <row r="22" spans="2:18" ht="15.75">
+      <c r="B22" s="528"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
       <c r="E22" s="256" t="s">
@@ -15973,7 +15967,7 @@
         <v>0.06</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="564"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15985,10 +15979,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="563">
-        <v>41.3</v>
-      </c>
+    <row r="23" spans="2:18">
+      <c r="B23" s="528"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="O23" s="56"/>
@@ -16002,15 +15994,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="563">
-        <v>41.6</v>
-      </c>
+    <row r="24" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B24" s="484"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="57">
         <f>E18*B2/100</f>
-        <v>18</v>
+        <v>7.5</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="48">
@@ -16026,15 +16016,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="563">
-        <v>42.1</v>
-      </c>
+    <row r="25" spans="2:18" ht="15.75">
+      <c r="B25" s="528"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="58">
         <f>E24 - INT(E24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
@@ -16047,15 +16035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="563">
-        <v>42.8</v>
-      </c>
+    <row r="26" spans="2:18" ht="16.5" thickBot="1">
+      <c r="B26" s="528"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="58">
         <f>E24-E25</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
@@ -16068,10 +16054,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="563">
-        <v>43.8</v>
-      </c>
+    <row r="27" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B27" s="528"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="46"/>
@@ -16079,10 +16063,8 @@
       <c r="G27" s="50"/>
       <c r="H27" s="468"/>
     </row>
-    <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="563">
-        <v>49.1</v>
-      </c>
+    <row r="28" spans="2:18" ht="15.75">
+      <c r="B28" s="528"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="46"/>
@@ -16090,8 +16072,8 @@
       <c r="G28" s="50"/>
       <c r="H28" s="468"/>
     </row>
-    <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="484"/>
+    <row r="29" spans="2:18" ht="15.75">
+      <c r="B29" s="528"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="46"/>
@@ -16099,7 +16081,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="468"/>
     </row>
-    <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" ht="16.5" thickBot="1">
       <c r="B30" s="484"/>
       <c r="D30" s="6"/>
       <c r="E30" s="46"/>
@@ -16107,7 +16089,7 @@
       <c r="G30" s="50"/>
       <c r="H30" s="468"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18">
       <c r="B31" s="484"/>
       <c r="D31" s="5"/>
       <c r="E31" s="29"/>
@@ -16115,94 +16097,94 @@
       <c r="G31" s="29"/>
       <c r="H31" s="468"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18">
       <c r="B32" s="484"/>
       <c r="D32" s="5"/>
       <c r="H32" s="469"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="484"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="484"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="15.75" thickBot="1">
       <c r="B35" s="484"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="484"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="484"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="484"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="484"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="484"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="484"/>
     </row>
-    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="15.75">
       <c r="B42" s="484"/>
       <c r="E42" s="46"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="15.75">
       <c r="B43" s="484"/>
       <c r="E43" s="46"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="15.75">
       <c r="B44" s="484"/>
       <c r="E44" s="46"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="15.75">
       <c r="B45" s="484"/>
       <c r="E45" s="46"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="15.75">
       <c r="B46" s="484"/>
       <c r="E46" s="46"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="15.75">
       <c r="B47" s="484"/>
       <c r="E47" s="46"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="484"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="484"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="484"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="484"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="484"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="484"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="484"/>
     </row>
   </sheetData>
-  <sortState ref="B5:B28">
+  <sortState ref="B5:B14">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="2">
@@ -16225,7 +16207,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -16247,7 +16229,7 @@
     <col min="21" max="21" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="16.5" thickBot="1">
       <c r="A1" s="66"/>
       <c r="B1" s="70" t="s">
         <v>30</v>
@@ -16277,7 +16259,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="16.5" thickBot="1">
       <c r="A2" s="66"/>
       <c r="B2" s="487">
         <v>0</v>
@@ -16344,7 +16326,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="16.5" thickBot="1">
       <c r="A3" s="66"/>
       <c r="B3" s="487">
         <v>1</v>
@@ -16403,7 +16385,7 @@
         <v>1.8537158968576135</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="66"/>
       <c r="B4" s="487">
         <v>2</v>
@@ -16449,7 +16431,7 @@
       </c>
       <c r="W4" s="284"/>
     </row>
-    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="16.5" thickBot="1">
       <c r="A5" s="66"/>
       <c r="B5" s="487">
         <v>3</v>
@@ -16499,7 +16481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="16.5" thickBot="1">
       <c r="A6" s="66"/>
       <c r="B6" s="487">
         <v>5</v>
@@ -16562,7 +16544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="18" thickBot="1">
       <c r="A7" s="66"/>
       <c r="B7" s="487"/>
       <c r="C7" s="487"/>
@@ -16604,7 +16586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="16.5" thickBot="1">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
       <c r="C8" s="479"/>
@@ -16652,7 +16634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75">
       <c r="A9" s="66"/>
       <c r="B9" s="77"/>
       <c r="C9" s="131"/>
@@ -16682,7 +16664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="16.5" thickBot="1">
       <c r="A10" s="66"/>
       <c r="B10" s="77"/>
       <c r="C10" s="91"/>
@@ -16708,7 +16690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="16.5" thickBot="1">
       <c r="A11" s="66"/>
       <c r="B11" s="78"/>
       <c r="C11" s="97"/>
@@ -16748,7 +16730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="16.5" thickBot="1">
       <c r="A12" s="66"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
@@ -16789,7 +16771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75">
       <c r="A13" s="66"/>
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
@@ -16818,7 +16800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
       <c r="C14" s="461"/>
@@ -16847,7 +16829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="16.5" thickBot="1">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
       <c r="C15" s="463"/>
@@ -16880,7 +16862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="16.5" thickBot="1">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
       <c r="C16" s="462"/>
@@ -16913,7 +16895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="16.5" thickBot="1">
       <c r="A17" s="66"/>
       <c r="B17" s="66"/>
       <c r="C17" s="75"/>
@@ -16954,7 +16936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="20.25" thickBot="1">
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
@@ -16981,7 +16963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="16.5" thickBot="1">
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
@@ -17008,7 +16990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="16.5" customHeight="1">
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
@@ -17034,7 +17016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="16.5" thickBot="1">
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
@@ -17061,7 +17043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
@@ -17078,7 +17060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1">
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
@@ -17088,14 +17070,14 @@
         <v/>
       </c>
       <c r="H23" s="263"/>
-      <c r="J23" s="532"/>
-      <c r="K23" s="532"/>
+      <c r="J23" s="533"/>
+      <c r="K23" s="533"/>
       <c r="O23" s="66"/>
       <c r="V23" s="484">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="16.5" thickBot="1">
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
@@ -17125,7 +17107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="16.5" thickBot="1">
       <c r="C25" s="29"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
@@ -17153,7 +17135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="16.5" thickBot="1">
       <c r="C26" s="29"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
@@ -17174,7 +17156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="18" thickBot="1">
       <c r="C27" s="29"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
@@ -17194,7 +17176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="C28" s="29"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
@@ -17204,7 +17186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="C29" s="29"/>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
@@ -17214,7 +17196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="C30" s="29"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
@@ -17223,7 +17205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="C31" s="29"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
@@ -17232,7 +17214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="C32" s="29"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
@@ -17241,7 +17223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22">
       <c r="C33" s="29"/>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
@@ -17250,7 +17232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22">
       <c r="C34" s="29"/>
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
@@ -17259,7 +17241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22">
       <c r="C35" s="29"/>
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
@@ -17268,7 +17250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22">
       <c r="C36" s="29"/>
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
@@ -17277,7 +17259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22">
       <c r="C37" s="29"/>
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
@@ -17286,7 +17268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:22">
       <c r="C38" s="29"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
@@ -17295,7 +17277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:22">
       <c r="C39" s="29"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
@@ -17304,7 +17286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:22">
       <c r="C40" s="29"/>
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
@@ -17313,7 +17295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:22">
       <c r="C41" s="29"/>
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
@@ -17322,7 +17304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:22">
       <c r="C42" s="29"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
@@ -17331,7 +17313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22">
       <c r="C43" s="29"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -17340,7 +17322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:22">
       <c r="C44" s="29"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -17349,7 +17331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:22">
       <c r="C45" s="29"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
@@ -17358,7 +17340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:22">
       <c r="C46" s="29"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
@@ -17367,7 +17349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:22">
       <c r="C47" s="29"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
@@ -17376,7 +17358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:22">
       <c r="C48" s="29"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
@@ -17385,7 +17367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:22">
       <c r="C49" s="29"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
@@ -17394,7 +17376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:22">
       <c r="C50" s="29"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -17403,7 +17385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:22">
       <c r="C51" s="29"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -17412,7 +17394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:22">
       <c r="C52" s="29"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -17421,7 +17403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:22">
       <c r="C53" s="29"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -17430,7 +17412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:22">
       <c r="C54" s="29"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -17439,7 +17421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:22">
       <c r="C55" s="29"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -17448,232 +17430,232 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:22">
       <c r="V56" s="484">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:22">
       <c r="V57" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:22">
       <c r="V58" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:22">
       <c r="V59" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:22">
       <c r="V60" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:22">
       <c r="V61" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:22">
       <c r="V62" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:22">
       <c r="V63" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:22">
       <c r="V64" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="22:22">
       <c r="V65" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="22:22">
       <c r="V66" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="22:22">
       <c r="V67" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="22:22">
       <c r="V68" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="22:22">
       <c r="V69" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="22:22">
       <c r="V70" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="22:22">
       <c r="V71" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="22:22">
       <c r="V72" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="22:22">
       <c r="V73" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="22:22">
       <c r="V74" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="22:22">
       <c r="V75" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="22:22">
       <c r="V76" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="22:22">
       <c r="V77" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="22:22">
       <c r="V78" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="22:22">
       <c r="V79" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="22:22">
       <c r="V80" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="22:22">
       <c r="V81" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="22:22">
       <c r="V82" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="22:22">
       <c r="V83" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="22:22">
       <c r="V84" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="22:22">
       <c r="V85" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="22:22">
       <c r="V86" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="22:22">
       <c r="V87" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="22:22">
       <c r="V88" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="22:22">
       <c r="V89" s="484">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="22:22">
       <c r="V90" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="22:22">
       <c r="V91" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="22:22">
       <c r="V92" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="22:22">
       <c r="V93" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="22:22">
       <c r="V94" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="22:22">
       <c r="V95" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="22:22">
       <c r="V96" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="22:22">
       <c r="V97" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="22:22">
       <c r="V98" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="22:22">
       <c r="V99" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="22:22">
       <c r="V100" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="22:22">
       <c r="V101" s="484">
         <v>1</v>
       </c>
@@ -17701,7 +17683,7 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
@@ -17729,7 +17711,7 @@
     <col min="27" max="27" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
       <c r="A1" s="70" t="s">
         <v>30</v>
       </c>
@@ -17749,7 +17731,7 @@
       <c r="N1" s="303"/>
       <c r="U1" s="337"/>
     </row>
-    <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="16.5" thickBot="1">
       <c r="A2" s="498">
         <v>0</v>
       </c>
@@ -17794,7 +17776,7 @@
       <c r="U2" s="338"/>
       <c r="X2" s="140"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="16.5" thickBot="1">
       <c r="A3" s="498">
         <v>1</v>
       </c>
@@ -17852,7 +17834,7 @@
       <c r="Y3" s="121"/>
       <c r="Z3" s="126"/>
     </row>
-    <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="18" thickBot="1">
       <c r="A4" s="498">
         <v>2</v>
       </c>
@@ -17925,7 +17907,7 @@
       </c>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="18" thickBot="1">
       <c r="A5" s="498">
         <v>3</v>
       </c>
@@ -17990,7 +17972,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="20.25" thickBot="1">
       <c r="A6" s="498">
         <v>4</v>
       </c>
@@ -18037,7 +18019,7 @@
         <v>45.992187499999993</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="20.25" thickBot="1">
       <c r="A7" s="309"/>
       <c r="B7" s="312" t="s">
         <v>124</v>
@@ -18082,13 +18064,13 @@
       <c r="W7" s="235">
         <v>15</v>
       </c>
-      <c r="X7" s="537" t="s">
+      <c r="X7" s="538" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="538"/>
-      <c r="Z7" s="539"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y7" s="539"/>
+      <c r="Z7" s="540"/>
+    </row>
+    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="280"/>
       <c r="B8" s="310"/>
       <c r="C8" s="311"/>
@@ -18145,7 +18127,7 @@
       </c>
       <c r="Z8" s="347"/>
     </row>
-    <row r="9" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="16.5" thickBot="1">
       <c r="A9" s="280"/>
       <c r="B9" s="499">
         <v>6.5000000000000002E-2</v>
@@ -18201,7 +18183,7 @@
         <v>5.6239671983677817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
       <c r="A10" s="280"/>
       <c r="B10" s="499">
         <v>0.185</v>
@@ -18248,7 +18230,7 @@
       <c r="X10" s="159"/>
       <c r="Y10" s="94"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="16.5" thickBot="1">
       <c r="A11" s="280"/>
       <c r="B11" s="499">
         <v>7.3999999999999996E-2</v>
@@ -18295,7 +18277,7 @@
       </c>
       <c r="Y11" s="111"/>
     </row>
-    <row r="12" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="16.5" thickBot="1">
       <c r="A12" s="280"/>
       <c r="B12" s="499">
         <v>0.126</v>
@@ -18303,10 +18285,10 @@
       <c r="C12" s="311"/>
       <c r="D12" s="85"/>
       <c r="N12" s="330"/>
-      <c r="O12" s="533" t="s">
+      <c r="O12" s="534" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="534"/>
+      <c r="P12" s="535"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
         <v>2.0210753903062715</v>
@@ -18319,7 +18301,7 @@
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="16.5" thickBot="1">
       <c r="A13" s="280"/>
       <c r="B13" s="499">
         <v>6.0999999999999999E-2</v>
@@ -18346,7 +18328,7 @@
       <c r="R13" s="66"/>
       <c r="U13" s="338"/>
     </row>
-    <row r="14" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="18" thickBot="1">
       <c r="A14" s="313"/>
       <c r="B14" s="499">
         <v>0.24399999999999999</v>
@@ -18385,7 +18367,7 @@
       <c r="T14" s="29"/>
       <c r="U14" s="338"/>
     </row>
-    <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="16.5" thickBot="1">
       <c r="A15" s="313"/>
       <c r="B15" s="499">
         <v>0.25600000000000001</v>
@@ -18436,7 +18418,7 @@
       <c r="T15" s="123"/>
       <c r="U15" s="338"/>
     </row>
-    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="313"/>
       <c r="B16" s="499">
         <v>0.33200000000000002</v>
@@ -18458,7 +18440,7 @@
       <c r="T16" s="29"/>
       <c r="U16" s="338"/>
     </row>
-    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="313"/>
       <c r="B17" s="499">
         <v>0.121</v>
@@ -18486,7 +18468,7 @@
       <c r="T17" s="29"/>
       <c r="U17" s="338"/>
     </row>
-    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="A18" s="313"/>
       <c r="B18" s="499">
         <v>9.4E-2</v>
@@ -18510,7 +18492,7 @@
       <c r="T18" s="335"/>
       <c r="U18" s="338"/>
     </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="313"/>
       <c r="B19" s="499"/>
       <c r="C19" s="311"/>
@@ -18532,7 +18514,7 @@
       <c r="R19" s="114"/>
       <c r="U19" s="338"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="16.5" thickBot="1">
       <c r="A20" s="313"/>
       <c r="B20" s="499"/>
       <c r="C20" s="311"/>
@@ -18568,7 +18550,7 @@
       </c>
       <c r="U20" s="338"/>
     </row>
-    <row r="21" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="21" thickBot="1">
       <c r="A21" s="313"/>
       <c r="B21" s="314"/>
       <c r="C21" s="311"/>
@@ -18610,13 +18592,13 @@
       </c>
       <c r="U21" s="338"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16.5" thickBot="1">
       <c r="A22" s="313"/>
       <c r="B22" s="314"/>
       <c r="C22" s="311"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="535">
+      <c r="H22" s="536">
         <v>0.05</v>
       </c>
       <c r="I22" s="70" t="s">
@@ -18647,7 +18629,7 @@
       </c>
       <c r="U22" s="338"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="16.5" thickBot="1">
       <c r="A23" s="313"/>
       <c r="B23" s="314"/>
       <c r="C23" s="311"/>
@@ -18655,7 +18637,7 @@
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="536"/>
+      <c r="H23" s="537"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
         <v>-1.6448536269514726</v>
@@ -18693,7 +18675,7 @@
       </c>
       <c r="U23" s="338"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="313"/>
       <c r="B24" s="314"/>
       <c r="C24" s="311"/>
@@ -18725,7 +18707,7 @@
       </c>
       <c r="U24" s="338"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="16.5" thickBot="1">
       <c r="A25" s="313"/>
       <c r="B25" s="314"/>
       <c r="C25" s="311"/>
@@ -18747,7 +18729,7 @@
       <c r="Q25" s="318"/>
       <c r="U25" s="338"/>
     </row>
-    <row r="26" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" ht="20.25" thickBot="1">
       <c r="A26" s="313"/>
       <c r="B26" s="314"/>
       <c r="C26" s="311"/>
@@ -18790,7 +18772,7 @@
       <c r="T26" s="344"/>
       <c r="U26" s="338"/>
     </row>
-    <row r="27" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" ht="20.25" thickBot="1">
       <c r="A27" s="313"/>
       <c r="B27" s="314"/>
       <c r="C27" s="311"/>
@@ -18846,7 +18828,7 @@
       </c>
       <c r="U27" s="338"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="16.5" thickBot="1">
       <c r="A28" s="313"/>
       <c r="B28" s="314"/>
       <c r="C28" s="311"/>
@@ -18882,7 +18864,7 @@
       </c>
       <c r="U28" s="338"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="16.5" thickBot="1">
       <c r="A29" s="313"/>
       <c r="B29" s="314"/>
       <c r="C29" s="311"/>
@@ -18932,7 +18914,7 @@
       </c>
       <c r="U29" s="338"/>
     </row>
-    <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1">
       <c r="A30" s="315"/>
       <c r="B30" s="316"/>
       <c r="C30" s="311"/>
@@ -18960,7 +18942,7 @@
       </c>
       <c r="U30" s="338"/>
     </row>
-    <row r="31" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="20.25" thickBot="1">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
         <v>2.5000000000000001E-2</v>
@@ -18994,7 +18976,7 @@
       </c>
       <c r="U31" s="338"/>
     </row>
-    <row r="32" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="20.25" thickBot="1">
       <c r="I32" s="113" t="s">
         <v>59</v>
       </c>
@@ -19031,7 +19013,7 @@
       </c>
       <c r="U32" s="338"/>
     </row>
-    <row r="33" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:21" ht="16.5" thickBot="1">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
         <v>2.183926753460317E-2</v>
@@ -19055,7 +19037,7 @@
       <c r="N33" s="331"/>
       <c r="U33" s="338"/>
     </row>
-    <row r="34" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:21" ht="16.5" thickBot="1">
       <c r="U34" s="339"/>
     </row>
   </sheetData>
@@ -19881,7 +19863,7 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="1.140625" customWidth="1"/>
@@ -19915,7 +19897,7 @@
     <col min="33" max="34" width="0.85546875" style="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="20.25" thickBot="1">
       <c r="A1" s="164">
         <f>COUNT(A4:A39)</f>
         <v>8</v>
@@ -19932,8 +19914,8 @@
       <c r="F1" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="540"/>
-      <c r="H1" s="541"/>
+      <c r="G1" s="541"/>
+      <c r="H1" s="542"/>
       <c r="I1" s="195"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
@@ -19961,7 +19943,7 @@
       <c r="AC1" s="75"/>
       <c r="AD1" s="75"/>
     </row>
-    <row r="2" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="20.25" thickBot="1">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
@@ -20013,7 +19995,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="75"/>
     </row>
-    <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="17.25" thickBot="1">
       <c r="A3" s="458"/>
       <c r="B3" s="458"/>
       <c r="C3" s="367" t="s">
@@ -20080,7 +20062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="505">
         <v>220</v>
       </c>
@@ -20162,7 +20144,7 @@
         <v>21583.282656249998</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="16.5" thickBot="1">
       <c r="A5" s="505">
         <v>214</v>
       </c>
@@ -20241,7 +20223,7 @@
         <v>18882.19515625</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="505">
         <v>99</v>
       </c>
@@ -20317,7 +20299,7 @@
         <v>865.09515625000051</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="505">
         <v>35</v>
       </c>
@@ -20417,7 +20399,7 @@
         <v>1427.8951562499997</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="505">
         <v>8</v>
       </c>
@@ -20527,7 +20509,7 @@
         <v>4301.7201562499986</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="19.5" thickBot="1">
       <c r="A9" s="505">
         <v>0</v>
       </c>
@@ -20607,7 +20589,7 @@
         <v>5053.4326562499991</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="20.25" thickBot="1">
       <c r="A10" s="505">
         <v>0</v>
       </c>
@@ -20701,7 +20683,7 @@
         <v>5110.4626562499998</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="20.25" thickBot="1">
       <c r="A11" s="505">
         <v>1</v>
       </c>
@@ -20790,7 +20772,7 @@
         <v>4595.1451562499997</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="20.25" thickBot="1">
       <c r="A12" s="505"/>
       <c r="B12" s="505"/>
       <c r="C12" s="366">
@@ -20824,8 +20806,8 @@
       <c r="M12" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="542"/>
-      <c r="O12" s="543"/>
+      <c r="N12" s="543"/>
+      <c r="O12" s="544"/>
       <c r="P12" s="70" t="s">
         <v>176</v>
       </c>
@@ -20880,7 +20862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" ht="20.25" thickBot="1">
       <c r="A13" s="505"/>
       <c r="B13" s="505"/>
       <c r="C13" s="366">
@@ -20974,7 +20956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="20.25" thickBot="1">
       <c r="A14" s="505"/>
       <c r="B14" s="505"/>
       <c r="C14" s="366">
@@ -21062,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" ht="18" thickBot="1">
       <c r="A15" s="505"/>
       <c r="B15" s="505"/>
       <c r="C15" s="366">
@@ -21075,10 +21057,10 @@
       </c>
       <c r="E15" s="211"/>
       <c r="F15" s="211"/>
-      <c r="G15" s="544" t="s">
+      <c r="G15" s="545" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="545"/>
+      <c r="H15" s="546"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
@@ -21121,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="20.25" thickBot="1">
       <c r="A16" s="505"/>
       <c r="B16" s="505"/>
       <c r="C16" s="366">
@@ -21187,7 +21169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" ht="19.5" thickBot="1">
       <c r="A17" s="175"/>
       <c r="B17" s="175"/>
       <c r="C17" s="175"/>
@@ -21255,7 +21237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1">
       <c r="A18" s="175"/>
       <c r="B18" s="175"/>
       <c r="C18" s="175"/>
@@ -21306,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" ht="20.25" thickBot="1">
       <c r="A19" s="175"/>
       <c r="B19" s="175"/>
       <c r="C19" s="175"/>
@@ -21366,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" ht="20.25" thickBot="1">
       <c r="A20" s="175"/>
       <c r="B20" s="175"/>
       <c r="C20" s="175"/>
@@ -21375,8 +21357,8 @@
       <c r="F20" s="453">
         <v>1.21</v>
       </c>
-      <c r="G20" s="547"/>
-      <c r="H20" s="548"/>
+      <c r="G20" s="548"/>
+      <c r="H20" s="549"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.75854910714285684</v>
@@ -21431,7 +21413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" ht="20.25" thickBot="1">
       <c r="A21" s="175"/>
       <c r="B21" s="175"/>
       <c r="C21" s="175"/>
@@ -21500,7 +21482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="20.25" thickBot="1">
       <c r="A22" s="175"/>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
@@ -21511,10 +21493,10 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="546" t="s">
+      <c r="G22" s="547" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="546"/>
+      <c r="H22" s="547"/>
       <c r="I22" s="196"/>
       <c r="J22" s="230" t="s">
         <v>68</v>
@@ -21558,7 +21540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1">
       <c r="A23" s="175"/>
       <c r="B23" s="175"/>
       <c r="C23" s="175"/>
@@ -21609,7 +21591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" ht="20.25" thickBot="1">
       <c r="A24" s="175"/>
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
@@ -21668,7 +21650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" ht="20.25" thickBot="1">
       <c r="A25" s="175"/>
       <c r="B25" s="175"/>
       <c r="C25" s="175"/>
@@ -21712,7 +21694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="20.25" thickBot="1">
       <c r="A26" s="175"/>
       <c r="B26" s="175"/>
       <c r="C26" s="175"/>
@@ -21768,7 +21750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="20.25" thickBot="1">
       <c r="A27" s="175"/>
       <c r="B27" s="175"/>
       <c r="C27" s="175"/>
@@ -21823,7 +21805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="16.5" thickBot="1">
       <c r="A28" s="175"/>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
@@ -21872,7 +21854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" ht="20.25" thickBot="1">
       <c r="A29" s="175"/>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
@@ -21932,7 +21914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" ht="20.25" thickBot="1">
       <c r="A30" s="175"/>
       <c r="B30" s="175"/>
       <c r="C30" s="175"/>
@@ -21997,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="16.5" thickBot="1">
       <c r="A31" s="175"/>
       <c r="B31" s="175"/>
       <c r="C31" s="99" t="s">
@@ -22048,7 +22030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="16.5" thickBot="1">
       <c r="A32" s="175"/>
       <c r="B32" s="175"/>
       <c r="C32" s="163" t="s">
@@ -22102,7 +22084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34">
       <c r="A33" s="175"/>
       <c r="B33" s="175"/>
       <c r="C33" s="175"/>
@@ -22122,7 +22104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34">
       <c r="A34" s="175"/>
       <c r="B34" s="175"/>
       <c r="C34" s="175"/>
@@ -22140,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34">
       <c r="A35" s="243"/>
       <c r="B35" s="243"/>
       <c r="C35" s="243"/>
@@ -22156,7 +22138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34">
       <c r="AG36" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22791,7 +22773,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="0.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -22802,7 +22784,7 @@
     <col min="11" max="12" width="0.85546875" style="429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1">
       <c r="A1" s="164">
         <f>COUNT(A4:A25)</f>
         <v>10</v>
@@ -22827,7 +22809,7 @@
       <c r="K1" s="430"/>
       <c r="L1" s="430"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
@@ -22846,7 +22828,7 @@
       <c r="K2" s="430"/>
       <c r="L2" s="430"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="458"/>
       <c r="B3" s="458"/>
       <c r="C3" s="207"/>
@@ -22870,7 +22852,7 @@
       <c r="L3" s="431"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="476">
         <v>-5</v>
       </c>
@@ -22881,10 +22863,10 @@
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="556" t="s">
+      <c r="D4" s="557" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="557"/>
+      <c r="E4" s="558"/>
       <c r="G4" s="94"/>
       <c r="H4" s="204"/>
       <c r="I4" s="30"/>
@@ -22899,7 +22881,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="A5" s="476">
         <v>-3</v>
       </c>
@@ -22930,7 +22912,7 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" thickBot="1">
       <c r="A6" s="476">
         <v>4</v>
       </c>
@@ -22966,7 +22948,7 @@
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1">
       <c r="A7" s="476">
         <v>1</v>
       </c>
@@ -22999,7 +22981,7 @@
       </c>
       <c r="M7" s="204"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1">
       <c r="A8" s="476">
         <v>-1</v>
       </c>
@@ -23025,7 +23007,7 @@
       </c>
       <c r="M8" s="132"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1">
       <c r="A9" s="476">
         <v>-2</v>
       </c>
@@ -23036,10 +23018,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="552" t="s">
+      <c r="D9" s="553" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="553"/>
+      <c r="E9" s="554"/>
       <c r="F9" s="70" t="s">
         <v>162</v>
       </c>
@@ -23056,7 +23038,7 @@
       </c>
       <c r="M9" s="132"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1">
       <c r="A10" s="476">
         <v>0</v>
       </c>
@@ -23067,11 +23049,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="558">
+      <c r="D10" s="559">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="559"/>
+      <c r="E10" s="560"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -23089,7 +23071,7 @@
       </c>
       <c r="M10" s="132"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1">
       <c r="A11" s="476">
         <v>2</v>
       </c>
@@ -23114,7 +23096,7 @@
       </c>
       <c r="M11" s="132"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" thickBot="1">
       <c r="A12" s="476">
         <v>3</v>
       </c>
@@ -23150,7 +23132,7 @@
       </c>
       <c r="M12" s="132"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16.5" thickBot="1">
       <c r="A13" s="476">
         <v>-4</v>
       </c>
@@ -23179,7 +23161,7 @@
       </c>
       <c r="M13" s="132"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.5" thickBot="1">
       <c r="A14" s="475"/>
       <c r="B14" s="475"/>
       <c r="C14" s="207">
@@ -23200,17 +23182,17 @@
       </c>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" thickBot="1">
       <c r="A15" s="475"/>
       <c r="B15" s="475"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="560" t="s">
+      <c r="D15" s="561" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="561"/>
+      <c r="E15" s="562"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="431">
@@ -23223,7 +23205,7 @@
       </c>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="475"/>
       <c r="B16" s="475"/>
       <c r="C16" s="207">
@@ -23249,7 +23231,7 @@
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="A17" s="475"/>
       <c r="B17" s="475"/>
       <c r="C17" s="207">
@@ -23278,7 +23260,7 @@
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.5" thickBot="1">
       <c r="A18" s="475"/>
       <c r="B18" s="475"/>
       <c r="C18" s="207">
@@ -23301,7 +23283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="C19" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23315,17 +23297,17 @@
         <v>1.0743322500000003</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="C20" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="550" t="s">
+      <c r="D20" s="551" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="551"/>
-      <c r="F20" s="549"/>
-      <c r="G20" s="549"/>
+      <c r="E20" s="552"/>
+      <c r="F20" s="550"/>
+      <c r="G20" s="550"/>
       <c r="K20" s="470">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
@@ -23335,7 +23317,7 @@
         <v>1.3398062499999994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="C21" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23357,15 +23339,15 @@
         <v>1.35373225</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="18" customHeight="1">
       <c r="C22" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="552" t="s">
+      <c r="D22" s="553" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="553"/>
+      <c r="E22" s="554"/>
       <c r="F22" s="472"/>
       <c r="G22" s="472"/>
       <c r="K22" s="470">
@@ -23377,16 +23359,16 @@
         <v>0.29757025000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="C23" s="428">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="554">
+      <c r="D23" s="555">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="555"/>
+      <c r="E23" s="556"/>
       <c r="F23" s="473"/>
       <c r="G23" s="474"/>
       <c r="K23" s="470">
@@ -23398,7 +23380,7 @@
         <v>0.42055224999999979</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="C24" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23412,7 +23394,7 @@
         <v>1.5737702500000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="C25" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23426,7 +23408,7 @@
         <v>0.20115225</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="C26" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23440,7 +23422,7 @@
         <v>0.4128062500000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="C27" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23454,7 +23436,7 @@
         <v>6.7860249999999747E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="C28" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23468,7 +23450,7 @@
         <v>0.88266025000000126</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="C29" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23482,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="C30" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23496,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="C31" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23504,7 +23486,7 @@
       <c r="K31" s="470"/>
       <c r="L31" s="470"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23512,7 +23494,7 @@
       <c r="K32" s="470"/>
       <c r="L32" s="470"/>
     </row>
-    <row r="33" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" ht="15.75" thickBot="1">
       <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23599,9 +23581,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="19.5" thickBot="1">
       <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
@@ -23609,7 +23591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
@@ -23625,7 +23607,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -23641,7 +23623,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1">
       <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
@@ -23657,7 +23639,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>23</v>
       </c>
@@ -23673,7 +23655,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
       <c r="C8" s="16">
@@ -23685,7 +23667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="16">
@@ -23697,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23707,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23717,7 +23699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23727,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23737,7 +23719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -23748,31 +23730,31 @@
       <c r="C14" s="16"/>
       <c r="D14" s="45"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" s="16"/>
       <c r="D15" s="45"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="C16" s="16"/>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="16"/>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" s="16"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" s="16"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" s="16"/>
       <c r="D20" s="45"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21" s="16"/>
       <c r="D21" s="45"/>
     </row>
@@ -23790,7 +23772,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="8" width="5.7109375" customWidth="1"/>
@@ -23798,7 +23780,7 @@
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="279" customHeight="1">
       <c r="B1" s="26" t="str">
         <f>REPT("*",COUNTIF(A2:A58,A1))</f>
         <v/>
@@ -23828,7 +23810,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="18.75">
       <c r="B2" s="27">
         <v>0</v>
       </c>
@@ -23851,7 +23833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" thickBot="1">
       <c r="K3" s="30">
         <v>670</v>
       </c>
@@ -23862,7 +23844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" thickBot="1">
       <c r="K4" s="31">
         <v>675</v>
       </c>
@@ -23873,7 +23855,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" thickBot="1">
       <c r="K5" s="33">
         <v>685</v>
       </c>
@@ -23884,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" thickBot="1">
       <c r="K6" s="33">
         <v>695</v>
       </c>
@@ -23895,7 +23877,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" thickBot="1">
       <c r="K7" s="33">
         <v>705</v>
       </c>
@@ -23906,7 +23888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" thickBot="1">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -23925,7 +23907,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" thickBot="1">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -23944,7 +23926,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" thickBot="1">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -23963,7 +23945,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -23982,7 +23964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -23992,29 +23974,29 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="28"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="15.75">
       <c r="B16" s="28"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75">
       <c r="B17" s="28"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75">
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75">
       <c r="B19" s="28"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.75">
       <c r="B20" s="28"/>
-      <c r="K20" s="562" t="s">
+      <c r="K20" s="563" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="562"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L20" s="563"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75">
       <c r="B21" s="28"/>
       <c r="K21" s="39" t="s">
         <v>14</v>
@@ -24023,7 +24005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="30">
       <c r="B22" s="29"/>
       <c r="K22" s="39" t="s">
         <v>16</v>
@@ -24032,7 +24014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="30">
       <c r="K23" s="39" t="s">
         <v>17</v>
       </c>
@@ -24040,7 +24022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="30">
       <c r="K24" s="39" t="s">
         <v>18</v>
       </c>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -2439,7 +2439,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="85">
+  <fonts count="84">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2852,13 +2852,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3937,11 +3930,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4574,7 +4567,6 @@
     <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4604,7 +4596,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4614,7 +4606,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="60" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4647,10 +4639,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4700,7 +4692,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4718,7 +4710,7 @@
     <xf numFmtId="168" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="60" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4910,7 +4902,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4940,26 +4932,26 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="69" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5001,19 +4993,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="72" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="71" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="73" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="72" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="73" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="72" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -5072,20 +5064,20 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="72" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5095,7 +5087,7 @@
     <xf numFmtId="165" fontId="24" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5112,14 +5104,14 @@
     <xf numFmtId="0" fontId="43" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5128,8 +5120,8 @@
     <xf numFmtId="173" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5139,7 +5131,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5149,8 +5141,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="27" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5173,7 +5165,7 @@
     <xf numFmtId="164" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5200,8 +5192,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5217,7 +5209,7 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5257,14 +5249,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5273,14 +5265,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5386,7 +5379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5576,11 +5569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210127072"/>
-        <c:axId val="210127464"/>
+        <c:axId val="283055824"/>
+        <c:axId val="283062352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210127072"/>
+        <c:axId val="283055824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5637,12 +5630,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210127464"/>
+        <c:crossAx val="283062352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210127464"/>
+        <c:axId val="283062352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5699,7 +5692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210127072"/>
+        <c:crossAx val="283055824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5839,11 +5832,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157336512"/>
-        <c:axId val="157336120"/>
+        <c:axId val="282729096"/>
+        <c:axId val="282729480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157336512"/>
+        <c:axId val="282729096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5936,7 +5929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157336120"/>
+        <c:crossAx val="282729480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5944,7 +5937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157336120"/>
+        <c:axId val="282729480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6053,7 +6046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157336512"/>
+        <c:crossAx val="282729096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6630,11 +6623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="209412824"/>
-        <c:axId val="209413216"/>
+        <c:axId val="282313504"/>
+        <c:axId val="282313888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209412824"/>
+        <c:axId val="282313504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6730,7 +6723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209413216"/>
+        <c:crossAx val="282313888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6738,7 +6731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209413216"/>
+        <c:axId val="282313888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,7 +6835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209412824"/>
+        <c:crossAx val="282313504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7067,11 +7060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="214039168"/>
-        <c:axId val="214039560"/>
+        <c:axId val="282307480"/>
+        <c:axId val="282307864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214039168"/>
+        <c:axId val="282307480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7167,7 +7160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214039560"/>
+        <c:crossAx val="282307864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7175,7 +7168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214039560"/>
+        <c:axId val="282307864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -7280,7 +7273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214039168"/>
+        <c:crossAx val="282307480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7481,11 +7474,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="214040344"/>
-        <c:axId val="214040736"/>
+        <c:axId val="282489264"/>
+        <c:axId val="283371096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214040344"/>
+        <c:axId val="282489264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7578,7 +7571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214040736"/>
+        <c:crossAx val="283371096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7586,7 +7579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214040736"/>
+        <c:axId val="283371096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,7 +7680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214040344"/>
+        <c:crossAx val="282489264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15216,7 +15209,7 @@
   <dimension ref="B1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15300,8 +15293,8 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B4" s="457"/>
-      <c r="C4" s="457"/>
+      <c r="B4" s="456"/>
+      <c r="C4" s="456"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
@@ -15319,10 +15312,10 @@
         <f>MEDIAN(C5:C60)</f>
         <v>67</v>
       </c>
-      <c r="J4" s="418" t="s">
+      <c r="J4" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="451"/>
+      <c r="K4" s="450"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -15330,8 +15323,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="460"/>
-      <c r="P4" s="460"/>
+      <c r="O4" s="459"/>
+      <c r="P4" s="459"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -15343,7 +15336,7 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B5" s="528">
+      <c r="B5" s="527">
         <v>147</v>
       </c>
       <c r="C5" s="3">
@@ -15362,11 +15355,11 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="455">
+      <c r="J5" s="454">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="450" t="s">
+      <c r="K5" s="449" t="s">
         <v>163</v>
       </c>
       <c r="M5">
@@ -15379,7 +15372,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="459">
+      <c r="P5" s="458">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -15396,7 +15389,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B6" s="528">
+      <c r="B6" s="527">
         <v>150</v>
       </c>
       <c r="C6" s="3">
@@ -15419,11 +15412,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="443">
+      <c r="J6" s="442">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="448">
+      <c r="K6" s="447">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -15434,7 +15427,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="459">
+      <c r="P6" s="458">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -15452,7 +15445,7 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="528">
+      <c r="B7" s="527">
         <v>180</v>
       </c>
       <c r="C7" s="3">
@@ -15471,11 +15464,11 @@
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="442">
+      <c r="J7" s="441">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="448">
+      <c r="K7" s="447">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15483,7 +15476,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="459">
+      <c r="P7" s="458">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15496,12 +15489,12 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B8" s="528">
+      <c r="B8" s="527">
         <v>189</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="467">
+      <c r="E8" s="466">
         <f>_xlfn.STDEV.P(B5:B60)</f>
         <v>139.00651063889057</v>
       </c>
@@ -15509,7 +15502,7 @@
         <f>E8^2</f>
         <v>19322.809999999998</v>
       </c>
-      <c r="G8" s="467">
+      <c r="G8" s="466">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15518,11 +15511,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="442">
+      <c r="J8" s="441">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="448">
+      <c r="K8" s="447">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15532,7 +15525,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="459">
+      <c r="P8" s="458">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15545,7 +15538,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75">
-      <c r="B9" s="528">
+      <c r="B9" s="527">
         <v>210</v>
       </c>
       <c r="C9" s="3"/>
@@ -15557,11 +15550,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="442">
+      <c r="J9" s="441">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="448">
+      <c r="K9" s="447">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15569,7 +15562,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="459">
+      <c r="P9" s="458">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15586,7 +15579,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B10" s="528">
+      <c r="B10" s="527">
         <v>320</v>
       </c>
       <c r="C10" s="3"/>
@@ -15600,8 +15593,8 @@
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="442"/>
-      <c r="K10" s="448" t="str">
+      <c r="J10" s="441"/>
+      <c r="K10" s="447" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15609,7 +15602,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="459"/>
+      <c r="P10" s="458"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15624,12 +15617,12 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="18.75">
-      <c r="B11" s="528">
+      <c r="B11" s="527">
         <v>375</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="258" t="s">
+      <c r="E11" s="257" t="s">
         <v>108</v>
       </c>
       <c r="F11" s="245">
@@ -15637,8 +15630,8 @@
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="442"/>
-      <c r="K11" s="448" t="str">
+      <c r="J11" s="441"/>
+      <c r="K11" s="447" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15646,7 +15639,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="459"/>
+      <c r="P11" s="458"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15661,7 +15654,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75">
-      <c r="B12" s="528">
+      <c r="B12" s="527">
         <v>407</v>
       </c>
       <c r="C12" s="3"/>
@@ -15669,14 +15662,14 @@
       <c r="E12" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="246">
+      <c r="F12" s="564">
         <f>(F11-E4)/(E6)</f>
         <v>-1.7034551123187456</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="442"/>
-      <c r="K12" s="448" t="str">
+      <c r="J12" s="441"/>
+      <c r="K12" s="447" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15695,7 +15688,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="15.75">
-      <c r="B13" s="528">
+      <c r="B13" s="527">
         <v>429</v>
       </c>
       <c r="C13" s="3"/>
@@ -15704,8 +15697,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="447"/>
-      <c r="K13" s="448" t="str">
+      <c r="J13" s="446"/>
+      <c r="K13" s="447" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15724,13 +15717,13 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B14" s="528">
+      <c r="B14" s="527">
         <v>580</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="447"/>
-      <c r="K14" s="448" t="str">
+      <c r="J14" s="446"/>
+      <c r="K14" s="447" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15749,10 +15742,10 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="528"/>
+      <c r="B15" s="527"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="252" t="s">
+      <c r="E15" s="251" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="54" t="s">
@@ -15782,10 +15775,10 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B16" s="528"/>
+      <c r="B16" s="527"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="253">
+      <c r="E16" s="252">
         <f>MIN(B5:B60)</f>
         <v>147</v>
       </c>
@@ -15801,7 +15794,7 @@
         <f>IF(ISEVEN(ROUNDDOWN(COUNT(B5:B60)/2,0)),AVERAGE(LARGE(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2),LARGE(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2+1)),LARGE(B5:B60,ROUNDUP(ROUNDDOWN(COUNT(B5:B60)/2,0)/2,0)))</f>
         <v>407</v>
       </c>
-      <c r="I16" s="249">
+      <c r="I16" s="248">
         <f>MAX(B5:B60)</f>
         <v>580</v>
       </c>
@@ -15820,10 +15813,10 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B17" s="528"/>
+      <c r="B17" s="527"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="254" t="s">
+      <c r="E17" s="253" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="54" t="s">
@@ -15853,27 +15846,27 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B18" s="528"/>
+      <c r="B18" s="527"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="255">
+      <c r="E18" s="254">
         <v>75</v>
       </c>
       <c r="F18" s="59">
         <f xml:space="preserve">  INDEX(B5:B260, $E$26) + (INDEX(B5:B60, 1+ $E$26) -INDEX(B5:B60, $E$26))*E25</f>
         <v>391</v>
       </c>
-      <c r="G18" s="248">
+      <c r="G18" s="247">
         <f>H16-F16</f>
         <v>227</v>
       </c>
-      <c r="H18" s="247">
+      <c r="H18" s="246">
         <f>F16-1.5*G18</f>
         <v>-160.5</v>
       </c>
-      <c r="I18" s="247">
-        <f>QUARTILE($B$5:$B$60, 3)+1.5*G18</f>
-        <v>739.5</v>
+      <c r="I18" s="246">
+        <f>H16+1.5*G18</f>
+        <v>747.5</v>
       </c>
       <c r="O18" s="61">
         <f t="shared" si="3"/>
@@ -15890,7 +15883,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B19" s="528"/>
+      <c r="B19" s="527"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15905,13 +15898,13 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B20" s="528"/>
+      <c r="B20" s="527"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="256" t="s">
+      <c r="E20" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="251">
+      <c r="F20" s="250">
         <v>0.9</v>
       </c>
       <c r="G20" s="220" t="s">
@@ -15930,21 +15923,21 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75">
-      <c r="B21" s="528"/>
+      <c r="B21" s="527"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="256" t="s">
+      <c r="E21" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="251">
+      <c r="F21" s="250">
         <v>0.84</v>
       </c>
-      <c r="G21" s="250">
+      <c r="G21" s="249">
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>1.0000000000000009</v>
       </c>
       <c r="J21"/>
-      <c r="K21" s="456"/>
+      <c r="K21" s="455"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -15957,17 +15950,17 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75">
-      <c r="B22" s="528"/>
+      <c r="B22" s="527"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="256" t="s">
+      <c r="E22" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="251">
+      <c r="F22" s="250">
         <v>0.06</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="564"/>
+      <c r="I22" s="528"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15980,7 +15973,7 @@
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="528"/>
+      <c r="B23" s="527"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="O23" s="56"/>
@@ -15995,7 +15988,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="484"/>
+      <c r="B24" s="483"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="57">
@@ -16007,7 +16000,7 @@
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="468"/>
+      <c r="H24" s="467"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -16017,7 +16010,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15.75">
-      <c r="B25" s="528"/>
+      <c r="B25" s="527"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="58">
@@ -16026,7 +16019,7 @@
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="468"/>
+      <c r="H25" s="467"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -16036,7 +16029,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B26" s="528"/>
+      <c r="B26" s="527"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="58">
@@ -16045,7 +16038,7 @@
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="468"/>
+      <c r="H26" s="467"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -16055,133 +16048,133 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="528"/>
+      <c r="B27" s="527"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="468"/>
+      <c r="H27" s="467"/>
     </row>
     <row r="28" spans="2:18" ht="15.75">
-      <c r="B28" s="528"/>
+      <c r="B28" s="527"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="468"/>
+      <c r="H28" s="467"/>
     </row>
     <row r="29" spans="2:18" ht="15.75">
-      <c r="B29" s="528"/>
+      <c r="B29" s="527"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="468"/>
+      <c r="H29" s="467"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B30" s="484"/>
+      <c r="B30" s="483"/>
       <c r="D30" s="6"/>
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="468"/>
+      <c r="H30" s="467"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="484"/>
+      <c r="B31" s="483"/>
       <c r="D31" s="5"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="468"/>
+      <c r="H31" s="467"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="484"/>
+      <c r="B32" s="483"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="469"/>
+      <c r="H32" s="468"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="484"/>
+      <c r="B33" s="483"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="484"/>
+      <c r="B34" s="483"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B35" s="484"/>
+      <c r="B35" s="483"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="484"/>
+      <c r="B36" s="483"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="484"/>
+      <c r="B37" s="483"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="484"/>
+      <c r="B38" s="483"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="484"/>
+      <c r="B39" s="483"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="484"/>
+      <c r="B40" s="483"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="484"/>
+      <c r="B41" s="483"/>
     </row>
     <row r="42" spans="2:6" ht="15.75">
-      <c r="B42" s="484"/>
+      <c r="B42" s="483"/>
       <c r="E42" s="46"/>
       <c r="F42" s="43"/>
     </row>
     <row r="43" spans="2:6" ht="15.75">
-      <c r="B43" s="484"/>
+      <c r="B43" s="483"/>
       <c r="E43" s="46"/>
       <c r="F43" s="43"/>
     </row>
     <row r="44" spans="2:6" ht="15.75">
-      <c r="B44" s="484"/>
+      <c r="B44" s="483"/>
       <c r="E44" s="46"/>
       <c r="F44" s="43"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
-      <c r="B45" s="484"/>
+      <c r="B45" s="483"/>
       <c r="E45" s="46"/>
       <c r="F45" s="43"/>
     </row>
     <row r="46" spans="2:6" ht="15.75">
-      <c r="B46" s="484"/>
+      <c r="B46" s="483"/>
       <c r="E46" s="46"/>
       <c r="F46" s="43"/>
     </row>
     <row r="47" spans="2:6" ht="15.75">
-      <c r="B47" s="484"/>
+      <c r="B47" s="483"/>
       <c r="E47" s="46"/>
       <c r="F47" s="43"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="484"/>
+      <c r="B48" s="483"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="484"/>
+      <c r="B49" s="483"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="484"/>
+      <c r="B50" s="483"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="484"/>
+      <c r="B51" s="483"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="484"/>
+      <c r="B52" s="483"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="484"/>
+      <c r="B53" s="483"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="484"/>
+      <c r="B54" s="483"/>
     </row>
   </sheetData>
   <sortState ref="B5:B14">
@@ -16244,13 +16237,13 @@
       <c r="H1" s="66"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
-      <c r="K1" s="259" t="s">
+      <c r="K1" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="260" t="s">
+      <c r="L1" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="261" t="s">
+      <c r="M1" s="260" t="s">
         <v>38</v>
       </c>
       <c r="N1" s="66"/>
@@ -16261,13 +16254,13 @@
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1">
       <c r="A2" s="66"/>
-      <c r="B2" s="487">
+      <c r="B2" s="486">
         <v>0</v>
       </c>
-      <c r="C2" s="487">
+      <c r="C2" s="486">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D2" s="427">
+      <c r="D2" s="426">
         <f>(B2-$G$2)^2 *C2</f>
         <v>0.90720000000000034</v>
       </c>
@@ -16282,28 +16275,28 @@
         <f>SUM(E2:E12)</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="H2" s="262"/>
+      <c r="H2" s="261"/>
       <c r="I2" s="68" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="76">
         <v>3</v>
       </c>
-      <c r="K2" s="268">
+      <c r="K2" s="267">
         <f>PERMUT(J3,J2)</f>
         <v>120</v>
       </c>
-      <c r="L2" s="269">
+      <c r="L2" s="268">
         <f>COMBIN(J3,J2)</f>
         <v>20</v>
       </c>
-      <c r="M2" s="270">
+      <c r="M2" s="269">
         <f>FACT(J3)</f>
         <v>720</v>
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
-      <c r="Q2" s="418" t="s">
+      <c r="Q2" s="417" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="70" t="s">
@@ -16315,10 +16308,10 @@
       <c r="T2" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="V2" s="484">
+      <c r="V2" s="483">
         <v>10</v>
       </c>
-      <c r="W2" s="488" t="s">
+      <c r="W2" s="487" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -16328,10 +16321,10 @@
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="487">
+      <c r="B3" s="486">
         <v>1</v>
       </c>
-      <c r="C3" s="487">
+      <c r="C3" s="486">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -16349,7 +16342,7 @@
         <f>SUM(D2:D11)</f>
         <v>2.2400000000000002</v>
       </c>
-      <c r="H3" s="262"/>
+      <c r="H3" s="261"/>
       <c r="I3" s="68" t="s">
         <v>35</v>
       </c>
@@ -16361,23 +16354,23 @@
       <c r="M3" s="94"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
-      <c r="Q3" s="419">
+      <c r="Q3" s="418">
         <v>1</v>
       </c>
-      <c r="R3" s="420">
+      <c r="R3" s="419">
         <v>38</v>
       </c>
-      <c r="S3" s="421">
+      <c r="S3" s="420">
         <v>245</v>
       </c>
-      <c r="T3" s="426">
+      <c r="T3" s="425">
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="484">
+      <c r="V3" s="483">
         <v>10</v>
       </c>
-      <c r="W3" s="489" t="s">
+      <c r="W3" s="488" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -16387,10 +16380,10 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="66"/>
-      <c r="B4" s="487">
+      <c r="B4" s="486">
         <v>2</v>
       </c>
-      <c r="C4" s="487">
+      <c r="C4" s="486">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16408,7 +16401,7 @@
         <f>SQRT(G3)</f>
         <v>1.4966629547095767</v>
       </c>
-      <c r="H4" s="262"/>
+      <c r="H4" s="261"/>
       <c r="I4" s="67"/>
       <c r="J4" s="76"/>
       <c r="K4" s="95"/>
@@ -16416,27 +16409,27 @@
       <c r="M4" s="95"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
-      <c r="Q4" s="422">
+      <c r="Q4" s="421">
         <v>37</v>
       </c>
-      <c r="R4" s="251">
+      <c r="R4" s="250">
         <v>38</v>
       </c>
-      <c r="S4" s="423">
+      <c r="S4" s="422">
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="484">
+      <c r="V4" s="483">
         <v>9</v>
       </c>
-      <c r="W4" s="284"/>
+      <c r="W4" s="283"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" thickBot="1">
       <c r="A5" s="66"/>
-      <c r="B5" s="487">
+      <c r="B5" s="486">
         <v>3</v>
       </c>
-      <c r="C5" s="487">
+      <c r="C5" s="486">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16451,7 +16444,7 @@
       <c r="G5" s="66">
         <v>6</v>
       </c>
-      <c r="H5" s="262"/>
+      <c r="H5" s="261"/>
       <c r="I5" s="68" t="s">
         <v>35</v>
       </c>
@@ -16473,20 +16466,20 @@
       <c r="O5" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="422"/>
-      <c r="R5" s="251"/>
-      <c r="S5" s="423"/>
+      <c r="Q5" s="421"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="422"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="484">
+      <c r="V5" s="483">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" thickBot="1">
       <c r="A6" s="66"/>
-      <c r="B6" s="487">
+      <c r="B6" s="486">
         <v>5</v>
       </c>
-      <c r="C6" s="487">
+      <c r="C6" s="486">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16501,11 +16494,11 @@
       <c r="G6" s="66">
         <v>2</v>
       </c>
-      <c r="H6" s="262"/>
+      <c r="H6" s="261"/>
       <c r="I6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="273">
+      <c r="J6" s="272">
         <v>0.63</v>
       </c>
       <c r="K6" s="116">
@@ -16516,7 +16509,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.88051957581093498</v>
       </c>
-      <c r="M6" s="482">
+      <c r="M6" s="481">
         <f>1-L6+K6</f>
         <v>0.19064890656751515</v>
       </c>
@@ -16528,26 +16521,26 @@
         <f>_xlfn.BINOM.DIST(J8,J5, J6, TRUE)-N6</f>
         <v>0.15418936294109509</v>
       </c>
-      <c r="P6" s="257"/>
-      <c r="Q6" s="424"/>
-      <c r="R6" s="491" t="s">
+      <c r="P6" s="256"/>
+      <c r="Q6" s="423"/>
+      <c r="R6" s="490" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="425">
+      <c r="S6" s="424">
         <v>1000</v>
       </c>
-      <c r="T6" s="490">
+      <c r="T6" s="489">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="484">
+      <c r="V6" s="483">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1">
       <c r="A7" s="66"/>
-      <c r="B7" s="487"/>
-      <c r="C7" s="487"/>
+      <c r="B7" s="486"/>
+      <c r="C7" s="486"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16560,7 +16553,7 @@
       <c r="G7" s="66">
         <v>4</v>
       </c>
-      <c r="H7" s="262"/>
+      <c r="H7" s="261"/>
       <c r="I7" s="67" t="s">
         <v>39</v>
       </c>
@@ -16576,20 +16569,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="483" t="s">
+      <c r="N7" s="482" t="s">
         <v>167</v>
       </c>
       <c r="O7" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="V7" s="484">
+      <c r="V7" s="483">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" thickBot="1">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="479"/>
+      <c r="C8" s="478"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16598,23 +16591,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="466">
+      <c r="F8" s="465">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G8" s="66"/>
-      <c r="H8" s="262"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="67" t="s">
         <v>106</v>
       </c>
       <c r="J8" s="76">
         <v>37</v>
       </c>
-      <c r="K8" s="481">
+      <c r="K8" s="480">
         <f>J5*J6</f>
         <v>31.5</v>
       </c>
-      <c r="L8" s="321">
+      <c r="L8" s="320">
         <f>SQRT(J5*J6*(1-J6))</f>
         <v>3.4139420030223127</v>
       </c>
@@ -16630,7 +16623,7 @@
         <f>1-L6</f>
         <v>0.11948042418906502</v>
       </c>
-      <c r="V8" s="484">
+      <c r="V8" s="483">
         <v>7</v>
       </c>
     </row>
@@ -16651,16 +16644,16 @@
         <v>-9.76</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="262"/>
+      <c r="H9" s="261"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="480"/>
+      <c r="N9" s="479"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="478"/>
-      <c r="V9" s="484">
+      <c r="T9" s="477"/>
+      <c r="V9" s="483">
         <v>6</v>
       </c>
     </row>
@@ -16678,7 +16671,7 @@
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
-      <c r="H10" s="262"/>
+      <c r="H10" s="261"/>
       <c r="I10" s="68"/>
       <c r="J10" s="76"/>
       <c r="K10" s="94"/>
@@ -16686,7 +16679,7 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="484">
+      <c r="V10" s="483">
         <v>6</v>
       </c>
     </row>
@@ -16702,11 +16695,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="418" t="s">
+      <c r="F11" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="451"/>
-      <c r="H11" s="262"/>
+      <c r="G11" s="450"/>
+      <c r="H11" s="261"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
       </c>
@@ -16726,7 +16719,7 @@
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="484">
+      <c r="V11" s="483">
         <v>5</v>
       </c>
     </row>
@@ -16736,29 +16729,29 @@
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="449">
+      <c r="F12" s="448">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="450" t="s">
+      <c r="G12" s="449" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="262"/>
+      <c r="H12" s="261"/>
       <c r="I12" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="76">
         <v>57</v>
       </c>
-      <c r="K12" s="266">
+      <c r="K12" s="265">
         <f xml:space="preserve"> (J11-J12)/J13</f>
         <v>0.25</v>
       </c>
-      <c r="L12" s="267">
+      <c r="L12" s="266">
         <f xml:space="preserve"> _xlfn.NORM.DIST(J11,J12,J13, TRUE)</f>
         <v>0.5987063256829237</v>
       </c>
-      <c r="M12" s="267">
+      <c r="M12" s="266">
         <f>1-L12</f>
         <v>0.4012936743170763</v>
       </c>
@@ -16767,7 +16760,7 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="484">
+      <c r="V12" s="483">
         <v>5</v>
       </c>
     </row>
@@ -16776,15 +16769,15 @@
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="444"/>
-      <c r="F13" s="484">
+      <c r="E13" s="443"/>
+      <c r="F13" s="483">
         <v>12</v>
       </c>
-      <c r="G13" s="485">
+      <c r="G13" s="484">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
-      <c r="H13" s="262"/>
+      <c r="H13" s="261"/>
       <c r="I13" s="67" t="s">
         <v>42</v>
       </c>
@@ -16796,24 +16789,24 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="484">
+      <c r="V13" s="483">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="461"/>
+      <c r="C14" s="460"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="444"/>
-      <c r="F14" s="484">
+      <c r="E14" s="443"/>
+      <c r="F14" s="483">
         <v>33</v>
       </c>
-      <c r="G14" s="486">
+      <c r="G14" s="485">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
-      <c r="H14" s="262"/>
+      <c r="H14" s="261"/>
       <c r="I14" s="67" t="s">
         <v>106</v>
       </c>
@@ -16825,24 +16818,24 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="484">
+      <c r="V14" s="483">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.5" thickBot="1">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="463"/>
+      <c r="C15" s="462"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="445"/>
-      <c r="F15" s="484">
+      <c r="E15" s="444"/>
+      <c r="F15" s="483">
         <v>29</v>
       </c>
-      <c r="G15" s="486">
+      <c r="G15" s="485">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H15" s="262"/>
+      <c r="H15" s="261"/>
       <c r="I15" s="67"/>
       <c r="J15" s="76"/>
       <c r="K15" s="157" t="s">
@@ -16858,24 +16851,24 @@
         <v>171</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="484">
+      <c r="V15" s="483">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="462"/>
+      <c r="C16" s="461"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="484">
+      <c r="F16" s="483">
         <v>11</v>
       </c>
-      <c r="G16" s="486">
+      <c r="G16" s="485">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
-      <c r="H16" s="262"/>
+      <c r="H16" s="261"/>
       <c r="I16" s="87"/>
       <c r="J16" s="88"/>
       <c r="K16" s="70" t="s">
@@ -16884,14 +16877,14 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="493" t="s">
+      <c r="M16" s="492" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="494" t="s">
+      <c r="N16" s="493" t="s">
         <v>172</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="484">
+      <c r="V16" s="483">
         <v>5</v>
       </c>
     </row>
@@ -16901,14 +16894,14 @@
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="464">
+      <c r="F17" s="463">
         <v>6</v>
       </c>
-      <c r="G17" s="446">
+      <c r="G17" s="445">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="H17" s="262"/>
+      <c r="H17" s="261"/>
       <c r="I17" s="90" t="s">
         <v>50</v>
       </c>
@@ -16932,7 +16925,7 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="484">
+      <c r="V17" s="483">
         <v>4</v>
       </c>
     </row>
@@ -16940,26 +16933,26 @@
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="464">
+      <c r="F18" s="463">
         <v>2</v>
       </c>
-      <c r="G18" s="446">
+      <c r="G18" s="445">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H18" s="263"/>
+      <c r="H18" s="262"/>
       <c r="I18" s="212" t="s">
         <v>169</v>
       </c>
       <c r="J18" s="213">
         <v>1.4</v>
       </c>
-      <c r="K18" s="272" t="s">
+      <c r="K18" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="257"/>
+      <c r="M18" s="256"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="484">
+      <c r="V18" s="483">
         <v>4</v>
       </c>
     </row>
@@ -16967,26 +16960,26 @@
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="465">
+      <c r="F19" s="464">
         <v>3</v>
       </c>
-      <c r="G19" s="446">
+      <c r="G19" s="445">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="H19" s="263"/>
-      <c r="I19" s="492" t="s">
+      <c r="H19" s="262"/>
+      <c r="I19" s="491" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
         <v>0.11</v>
       </c>
-      <c r="K19" s="341">
+      <c r="K19" s="340">
         <f>_xlfn.NORM.S.INV(J19)</f>
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="484">
+      <c r="V19" s="483">
         <v>4</v>
       </c>
     </row>
@@ -16994,25 +16987,25 @@
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="465">
+      <c r="F20" s="464">
         <v>1</v>
       </c>
-      <c r="G20" s="446">
+      <c r="G20" s="445">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="H20" s="263"/>
+      <c r="H20" s="262"/>
       <c r="I20" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J20" s="76">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K20" s="264" t="s">
+      <c r="K20" s="263" t="s">
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="484">
+      <c r="V20" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17020,26 +17013,26 @@
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="465">
+      <c r="F21" s="464">
         <v>1</v>
       </c>
-      <c r="G21" s="446">
+      <c r="G21" s="445">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="H21" s="263"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="67" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="76">
         <v>1.31</v>
       </c>
-      <c r="K21" s="265">
+      <c r="K21" s="264">
         <f>K19*J21+J20</f>
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="484">
+      <c r="V21" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17047,16 +17040,16 @@
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="465">
+      <c r="F22" s="464">
         <v>2</v>
       </c>
-      <c r="G22" s="446">
+      <c r="G22" s="445">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H22" s="263"/>
+      <c r="H22" s="262"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="484">
+      <c r="V22" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17064,16 +17057,16 @@
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="465"/>
-      <c r="G23" s="446" t="str">
+      <c r="F23" s="464"/>
+      <c r="G23" s="445" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H23" s="263"/>
+      <c r="H23" s="262"/>
       <c r="J23" s="533"/>
       <c r="K23" s="533"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="484">
+      <c r="V23" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17081,12 +17074,12 @@
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="465"/>
-      <c r="G24" s="446" t="str">
+      <c r="F24" s="464"/>
+      <c r="G24" s="445" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" s="263"/>
+      <c r="H24" s="262"/>
       <c r="I24" s="67" t="s">
         <v>39</v>
       </c>
@@ -17103,7 +17096,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="484">
+      <c r="V24" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17112,18 +17105,18 @@
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
       <c r="F25" s="81"/>
-      <c r="H25" s="263"/>
+      <c r="H25" s="262"/>
       <c r="I25" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="76">
         <v>0</v>
       </c>
-      <c r="K25" s="266">
+      <c r="K25" s="265">
         <f xml:space="preserve"> (J24-J25)/K27</f>
         <v>2.7306357613906034</v>
       </c>
-      <c r="L25" s="267">
+      <c r="L25" s="266">
         <f xml:space="preserve">  _xlfn.NORM.S.DIST(K25,TRUE)</f>
         <v>0.99683938542026707</v>
       </c>
@@ -17131,7 +17124,7 @@
         <f>1-L25</f>
         <v>3.1606145797329344E-3</v>
       </c>
-      <c r="V25" s="484">
+      <c r="V25" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17140,7 +17133,7 @@
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
-      <c r="H26" s="263"/>
+      <c r="H26" s="262"/>
       <c r="I26" s="67" t="s">
         <v>42</v>
       </c>
@@ -17152,7 +17145,7 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="484">
+      <c r="V26" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17161,7 +17154,7 @@
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
-      <c r="H27" s="263"/>
+      <c r="H27" s="262"/>
       <c r="I27" s="98" t="s">
         <v>52</v>
       </c>
@@ -17172,7 +17165,7 @@
         <f>J26/SQRT(J27)</f>
         <v>0.44312024954356982</v>
       </c>
-      <c r="V27" s="484">
+      <c r="V27" s="483">
         <v>4</v>
       </c>
     </row>
@@ -17181,8 +17174,8 @@
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
-      <c r="H28" s="263"/>
-      <c r="V28" s="484">
+      <c r="H28" s="262"/>
+      <c r="V28" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17191,8 +17184,8 @@
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
-      <c r="H29" s="263"/>
-      <c r="V29" s="484">
+      <c r="H29" s="262"/>
+      <c r="V29" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17201,7 +17194,7 @@
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="484">
+      <c r="V30" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17210,7 +17203,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="484">
+      <c r="V31" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17219,7 +17212,7 @@
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="484">
+      <c r="V32" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17228,7 +17221,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="484">
+      <c r="V33" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17237,7 +17230,7 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="484">
+      <c r="V34" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17246,7 +17239,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="484">
+      <c r="V35" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17255,7 +17248,7 @@
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="484">
+      <c r="V36" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17264,7 +17257,7 @@
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="484">
+      <c r="V37" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17273,7 +17266,7 @@
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="484">
+      <c r="V38" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17282,7 +17275,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="484">
+      <c r="V39" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17291,7 +17284,7 @@
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="484">
+      <c r="V40" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17300,7 +17293,7 @@
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="484">
+      <c r="V41" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17309,7 +17302,7 @@
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="484">
+      <c r="V42" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17318,7 +17311,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="484">
+      <c r="V43" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17327,7 +17320,7 @@
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="484">
+      <c r="V44" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17336,7 +17329,7 @@
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="484">
+      <c r="V45" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17345,7 +17338,7 @@
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="484">
+      <c r="V46" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17354,7 +17347,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="484">
+      <c r="V47" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17363,7 +17356,7 @@
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="484">
+      <c r="V48" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17372,7 +17365,7 @@
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="484">
+      <c r="V49" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17381,7 +17374,7 @@
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="484">
+      <c r="V50" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17390,7 +17383,7 @@
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="484">
+      <c r="V51" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17399,7 +17392,7 @@
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="484">
+      <c r="V52" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17408,7 +17401,7 @@
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="484">
+      <c r="V53" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17417,7 +17410,7 @@
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="484">
+      <c r="V54" s="483">
         <v>3</v>
       </c>
     </row>
@@ -17426,237 +17419,237 @@
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="484">
+      <c r="V55" s="483">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:22">
-      <c r="V56" s="484">
+      <c r="V56" s="483">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="3:22">
-      <c r="V57" s="484">
+      <c r="V57" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="3:22">
-      <c r="V58" s="484">
+      <c r="V58" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:22">
-      <c r="V59" s="484">
+      <c r="V59" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:22">
-      <c r="V60" s="484">
+      <c r="V60" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="3:22">
-      <c r="V61" s="484">
+      <c r="V61" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="3:22">
-      <c r="V62" s="484">
+      <c r="V62" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:22">
-      <c r="V63" s="484">
+      <c r="V63" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:22">
-      <c r="V64" s="484">
+      <c r="V64" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="22:22">
-      <c r="V65" s="484">
+      <c r="V65" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="22:22">
-      <c r="V66" s="484">
+      <c r="V66" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="22:22">
-      <c r="V67" s="484">
+      <c r="V67" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="22:22">
-      <c r="V68" s="484">
+      <c r="V68" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="22:22">
-      <c r="V69" s="484">
+      <c r="V69" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="22:22">
-      <c r="V70" s="484">
+      <c r="V70" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="22:22">
-      <c r="V71" s="484">
+      <c r="V71" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="22:22">
-      <c r="V72" s="484">
+      <c r="V72" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="22:22">
-      <c r="V73" s="484">
+      <c r="V73" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="22:22">
-      <c r="V74" s="484">
+      <c r="V74" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="22:22">
-      <c r="V75" s="484">
+      <c r="V75" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="22:22">
-      <c r="V76" s="484">
+      <c r="V76" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="22:22">
-      <c r="V77" s="484">
+      <c r="V77" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="22:22">
-      <c r="V78" s="484">
+      <c r="V78" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="22:22">
-      <c r="V79" s="484">
+      <c r="V79" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="22:22">
-      <c r="V80" s="484">
+      <c r="V80" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="22:22">
-      <c r="V81" s="484">
+      <c r="V81" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="22:22">
-      <c r="V82" s="484">
+      <c r="V82" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="22:22">
-      <c r="V83" s="484">
+      <c r="V83" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="22:22">
-      <c r="V84" s="484">
+      <c r="V84" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="22:22">
-      <c r="V85" s="484">
+      <c r="V85" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="22:22">
-      <c r="V86" s="484">
+      <c r="V86" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="22:22">
-      <c r="V87" s="484">
+      <c r="V87" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="22:22">
-      <c r="V88" s="484">
+      <c r="V88" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="22:22">
-      <c r="V89" s="484">
+      <c r="V89" s="483">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="22:22">
-      <c r="V90" s="484">
+      <c r="V90" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="22:22">
-      <c r="V91" s="484">
+      <c r="V91" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="22:22">
-      <c r="V92" s="484">
+      <c r="V92" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="22:22">
-      <c r="V93" s="484">
+      <c r="V93" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="22:22">
-      <c r="V94" s="484">
+      <c r="V94" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="22:22">
-      <c r="V95" s="484">
+      <c r="V95" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="22:22">
-      <c r="V96" s="484">
+      <c r="V96" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="22:22">
-      <c r="V97" s="484">
+      <c r="V97" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="22:22">
-      <c r="V98" s="484">
+      <c r="V98" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="22:22">
-      <c r="V99" s="484">
+      <c r="V99" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="22:22">
-      <c r="V100" s="484">
+      <c r="V100" s="483">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="22:22">
-      <c r="V101" s="484">
+      <c r="V101" s="483">
         <v>1</v>
       </c>
     </row>
@@ -17722,20 +17715,20 @@
       <c r="D1" s="84"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
-      <c r="K1" s="352" t="s">
+      <c r="K1" s="351" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="353">
+      <c r="L1" s="352">
         <v>95</v>
       </c>
-      <c r="N1" s="303"/>
-      <c r="U1" s="337"/>
+      <c r="N1" s="302"/>
+      <c r="U1" s="336"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A2" s="498">
+      <c r="A2" s="497">
         <v>0</v>
       </c>
-      <c r="B2" s="498">
+      <c r="B2" s="497">
         <v>0.46200000000000002</v>
       </c>
       <c r="C2" s="106">
@@ -17749,14 +17742,14 @@
       <c r="E2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="349">
+      <c r="F2" s="348">
         <f>SUM(D2:D6)</f>
         <v>1.3689999999999998</v>
       </c>
-      <c r="G2" s="356" t="s">
+      <c r="G2" s="355" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="357">
+      <c r="H2" s="356">
         <v>0</v>
       </c>
       <c r="I2" s="100" t="s">
@@ -17766,21 +17759,21 @@
         <f>H2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="358"/>
-      <c r="L2" s="344"/>
-      <c r="N2" s="304"/>
+      <c r="K2" s="357"/>
+      <c r="L2" s="343"/>
+      <c r="N2" s="303"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
-      <c r="U2" s="338"/>
+      <c r="U2" s="337"/>
       <c r="X2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A3" s="498">
+      <c r="A3" s="497">
         <v>1</v>
       </c>
-      <c r="B3" s="498">
+      <c r="B3" s="497">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C3" s="106">
@@ -17794,14 +17787,14 @@
       <c r="E3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="350">
+      <c r="F3" s="349">
         <f>SUM(C2:C6)</f>
         <v>0.9738859019999998</v>
       </c>
-      <c r="G3" s="359" t="s">
+      <c r="G3" s="358" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="360">
+      <c r="H3" s="359">
         <v>1.88</v>
       </c>
       <c r="I3" s="100" t="s">
@@ -17812,20 +17805,20 @@
         <v>0.44312024954356982</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="314"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="292" t="s">
+      <c r="L3" s="313"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="291" t="s">
         <v>102</v>
       </c>
       <c r="P3" s="74">
         <v>0.155</v>
       </c>
       <c r="Q3" s="160"/>
-      <c r="R3" s="295">
+      <c r="R3" s="294">
         <f>(P3+P4)/2</f>
         <v>0.26</v>
       </c>
-      <c r="U3" s="338"/>
+      <c r="U3" s="337"/>
       <c r="V3" s="94"/>
       <c r="W3" s="76">
         <v>0.1</v>
@@ -17835,10 +17828,10 @@
       <c r="Z3" s="126"/>
     </row>
     <row r="4" spans="1:27" ht="18" thickBot="1">
-      <c r="A4" s="498">
+      <c r="A4" s="497">
         <v>2</v>
       </c>
-      <c r="B4" s="498">
+      <c r="B4" s="497">
         <v>0.246</v>
       </c>
       <c r="C4" s="106">
@@ -17852,48 +17845,48 @@
       <c r="E4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="351">
+      <c r="F4" s="350">
         <f>SQRT(F3)</f>
         <v>0.98685657620547873</v>
       </c>
-      <c r="G4" s="361" t="s">
+      <c r="G4" s="360" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="288">
+      <c r="H4" s="287">
         <v>18</v>
       </c>
       <c r="I4" s="185"/>
-      <c r="J4" s="432">
+      <c r="J4" s="431">
         <f>SQRT(H6*(1-H6)/H4)</f>
         <v>9.7638790105845391E-2</v>
       </c>
-      <c r="K4" s="286"/>
-      <c r="L4" s="274">
+      <c r="K4" s="285"/>
+      <c r="L4" s="273">
         <f>H6</f>
         <v>0.78</v>
       </c>
-      <c r="N4" s="329"/>
-      <c r="O4" s="292" t="s">
+      <c r="N4" s="328"/>
+      <c r="O4" s="291" t="s">
         <v>103</v>
       </c>
       <c r="P4" s="74">
         <v>0.36499999999999999</v>
       </c>
-      <c r="Q4" s="294" t="s">
+      <c r="Q4" s="293" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="271">
+      <c r="R4" s="270">
         <f>(P4-P3)/2</f>
         <v>0.105</v>
       </c>
-      <c r="U4" s="338"/>
-      <c r="V4" s="340" t="s">
+      <c r="U4" s="337"/>
+      <c r="V4" s="339" t="s">
         <v>122</v>
       </c>
       <c r="W4" s="76">
         <v>239</v>
       </c>
-      <c r="X4" s="305">
+      <c r="X4" s="304">
         <f>_xlfn.CHISQ.INV(W3,W4)</f>
         <v>211.44423601108178</v>
       </c>
@@ -17908,10 +17901,10 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="18" thickBot="1">
-      <c r="A5" s="498">
+      <c r="A5" s="497">
         <v>3</v>
       </c>
-      <c r="B5" s="498">
+      <c r="B5" s="497">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C5" s="106"/>
@@ -17919,47 +17912,47 @@
         <f t="shared" si="1"/>
         <v>0.20700000000000002</v>
       </c>
-      <c r="E5" s="433">
+      <c r="E5" s="432">
         <f>A2*B2+A3*B3</f>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="F5" s="218"/>
-      <c r="G5" s="361" t="s">
+      <c r="G5" s="360" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="288">
+      <c r="H5" s="287">
         <v>20000</v>
       </c>
-      <c r="I5" s="285" t="s">
+      <c r="I5" s="284" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="287">
+      <c r="J5" s="286">
         <f>H4*H6*(1-H6)</f>
         <v>3.0888</v>
       </c>
-      <c r="K5" s="283" t="s">
+      <c r="K5" s="282" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="182">
         <f>H4/H5</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N5" s="330"/>
-      <c r="O5" s="293" t="s">
+      <c r="N5" s="329"/>
+      <c r="O5" s="292" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="74">
         <v>1500</v>
       </c>
-      <c r="Q5" s="283" t="s">
+      <c r="Q5" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="296">
+      <c r="R5" s="295">
         <f>P5*R3</f>
         <v>390</v>
       </c>
-      <c r="U5" s="338"/>
-      <c r="V5" s="327" t="s">
+      <c r="U5" s="337"/>
+      <c r="V5" s="326" t="s">
         <v>125</v>
       </c>
       <c r="W5" s="235">
@@ -17973,10 +17966,10 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A6" s="498">
+      <c r="A6" s="497">
         <v>4</v>
       </c>
-      <c r="B6" s="498">
+      <c r="B6" s="497">
         <v>0.14899999999999999</v>
       </c>
       <c r="C6" s="106"/>
@@ -17984,18 +17977,18 @@
         <f t="shared" si="1"/>
         <v>0.59599999999999997</v>
       </c>
-      <c r="E6" s="284"/>
+      <c r="E6" s="283"/>
       <c r="F6" s="218"/>
-      <c r="G6" s="361" t="s">
+      <c r="G6" s="360" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="288">
+      <c r="H6" s="287">
         <v>0.78</v>
       </c>
       <c r="I6" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="378">
+      <c r="J6" s="377">
         <f>ROUND(H8/H6, 0)</f>
         <v>2</v>
       </c>
@@ -18006,58 +17999,58 @@
         <f>ROUND(10/(H6*(1-H6)),0)</f>
         <v>58</v>
       </c>
-      <c r="N6" s="330"/>
+      <c r="N6" s="329"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
-      <c r="U6" s="338"/>
+      <c r="U6" s="337"/>
       <c r="V6" s="68"/>
       <c r="W6" s="235"/>
-      <c r="X6" s="341">
+      <c r="X6" s="340">
         <f>(W7-1)*W5^2 / W8^2</f>
         <v>45.992187499999993</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A7" s="309"/>
-      <c r="B7" s="312" t="s">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="311"/>
+      <c r="C7" s="310"/>
       <c r="D7" s="85"/>
       <c r="E7" s="153" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="66"/>
-      <c r="G7" s="359" t="s">
+      <c r="G7" s="358" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="301">
+      <c r="H7" s="300">
         <v>81</v>
       </c>
-      <c r="I7" s="283" t="s">
+      <c r="I7" s="282" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="274">
+      <c r="J7" s="273">
         <f>H7*SQRT(H4)</f>
         <v>343.65389565666209</v>
       </c>
       <c r="K7" s="29"/>
-      <c r="L7" s="314"/>
-      <c r="N7" s="330"/>
+      <c r="L7" s="313"/>
+      <c r="N7" s="329"/>
       <c r="O7" s="178"/>
       <c r="P7" s="144">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q7" s="298" t="s">
+      <c r="Q7" s="297" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="299">
+      <c r="R7" s="298">
         <f>P7*(1-P7)* ((_xlfn.NORM.S.INV(1- (100-L1)/200))/P8)^2</f>
         <v>1051.7060593544802</v>
       </c>
-      <c r="U7" s="338"/>
+      <c r="U7" s="337"/>
       <c r="V7" s="127" t="s">
         <v>60</v>
       </c>
@@ -18071,19 +18064,19 @@
       <c r="Z7" s="540"/>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A8" s="280"/>
-      <c r="B8" s="310"/>
-      <c r="C8" s="311"/>
+      <c r="A8" s="279"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="310"/>
       <c r="D8" s="85"/>
       <c r="E8" s="155">
         <f>IF(B9="","",AVERAGE(B9:B30))</f>
         <v>0.15580000000000002</v>
       </c>
       <c r="F8" s="66"/>
-      <c r="G8" s="359" t="s">
+      <c r="G8" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="288">
+      <c r="H8" s="287">
         <v>1.21</v>
       </c>
       <c r="I8" s="70" t="s">
@@ -18098,69 +18091,69 @@
       <c r="L8" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="330"/>
-      <c r="O8" s="326" t="s">
+      <c r="N8" s="329"/>
+      <c r="O8" s="325" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="97">
         <v>0.03</v>
       </c>
-      <c r="Q8" s="300" t="s">
+      <c r="Q8" s="299" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="299">
+      <c r="R8" s="298">
         <f>0.25* ((_xlfn.NORM.S.INV(1- (100-L$1)/200))/P8)^2</f>
         <v>1067.0718946372567</v>
       </c>
-      <c r="U8" s="338"/>
-      <c r="V8" s="281" t="s">
+      <c r="U8" s="337"/>
+      <c r="V8" s="280" t="s">
         <v>42</v>
       </c>
       <c r="W8" s="74">
         <v>1.6</v>
       </c>
-      <c r="X8" s="342" t="s">
+      <c r="X8" s="341" t="s">
         <v>134</v>
       </c>
-      <c r="Y8" s="345" t="s">
+      <c r="Y8" s="344" t="s">
         <v>133</v>
       </c>
-      <c r="Z8" s="347"/>
+      <c r="Z8" s="346"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A9" s="280"/>
-      <c r="B9" s="499">
+      <c r="A9" s="279"/>
+      <c r="B9" s="498">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C9" s="311"/>
+      <c r="C9" s="310"/>
       <c r="D9" s="85"/>
       <c r="E9" s="153" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="362" t="s">
+      <c r="G9" s="361" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="289">
+      <c r="H9" s="288">
         <v>83.75</v>
       </c>
-      <c r="I9" s="277">
+      <c r="I9" s="276">
         <f>ROUND((H8-H2)/H3,2)</f>
         <v>0.64</v>
       </c>
-      <c r="J9" s="278">
+      <c r="J9" s="277">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
         <v>0.74008809504644812</v>
       </c>
-      <c r="K9" s="278">
+      <c r="K9" s="277">
         <f>1-J9</f>
         <v>0.25991190495355188</v>
       </c>
-      <c r="L9" s="279">
+      <c r="L9" s="278">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
         <v>0.25991190495355188</v>
       </c>
-      <c r="N9" s="330"/>
+      <c r="N9" s="329"/>
       <c r="O9" s="94"/>
       <c r="P9" s="76">
         <v>0.01</v>
@@ -18169,12 +18162,12 @@
         <v>67</v>
       </c>
       <c r="R9" s="140"/>
-      <c r="U9" s="338"/>
+      <c r="U9" s="337"/>
       <c r="X9" s="186">
         <f>CHIDIST(X6,W7-1)</f>
         <v>2.8119835991838909E-5</v>
       </c>
-      <c r="Y9" s="346">
+      <c r="Y9" s="345">
         <f>1-X9</f>
         <v>0.99997188016400818</v>
       </c>
@@ -18184,34 +18177,34 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A10" s="280"/>
-      <c r="B10" s="499">
+      <c r="A10" s="279"/>
+      <c r="B10" s="498">
         <v>0.185</v>
       </c>
-      <c r="C10" s="311"/>
+      <c r="C10" s="310"/>
       <c r="D10" s="85"/>
-      <c r="E10" s="348">
+      <c r="E10" s="347">
         <f>_xlfn.STDEV.S(B9:B30)</f>
         <v>9.4021037834920523E-2</v>
       </c>
-      <c r="G10" s="363"/>
-      <c r="H10" s="282" t="s">
+      <c r="G10" s="362"/>
+      <c r="H10" s="281" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="275" t="s">
+      <c r="I10" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="275" t="s">
+      <c r="J10" s="274" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="275" t="s">
+      <c r="K10" s="274" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="276" t="s">
+      <c r="L10" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="330"/>
-      <c r="O10" s="307" t="s">
+      <c r="N10" s="329"/>
+      <c r="O10" s="306" t="s">
         <v>122</v>
       </c>
       <c r="P10" s="69">
@@ -18223,7 +18216,7 @@
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="338"/>
+      <c r="U10" s="337"/>
       <c r="W10" s="91">
         <v>10.8</v>
       </c>
@@ -18231,21 +18224,21 @@
       <c r="Y10" s="94"/>
     </row>
     <row r="11" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A11" s="280"/>
-      <c r="B11" s="499">
+      <c r="A11" s="279"/>
+      <c r="B11" s="498">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C11" s="311"/>
+      <c r="C11" s="310"/>
       <c r="D11" s="85"/>
-      <c r="I11" s="354">
+      <c r="I11" s="353">
         <f>ROUND((H8-H2)/H7, 2)</f>
         <v>0.01</v>
       </c>
-      <c r="J11" s="355">
+      <c r="J11" s="354">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
         <v>0.5039893563146316</v>
       </c>
-      <c r="K11" s="355">
+      <c r="K11" s="354">
         <f>1-J11</f>
         <v>0.4960106436853684</v>
       </c>
@@ -18253,21 +18246,21 @@
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
         <v>0.4960106436853684</v>
       </c>
-      <c r="N11" s="330"/>
-      <c r="O11" s="307" t="s">
+      <c r="N11" s="329"/>
+      <c r="O11" s="306" t="s">
         <v>115</v>
       </c>
       <c r="P11" s="69">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="305">
+      <c r="Q11" s="304">
         <f>TINV(2*P11, P10)</f>
         <v>0.85069979579045529</v>
       </c>
       <c r="R11" s="167"/>
       <c r="S11" s="111"/>
       <c r="T11" s="111"/>
-      <c r="U11" s="338"/>
+      <c r="U11" s="337"/>
       <c r="W11" s="91">
         <v>9</v>
       </c>
@@ -18278,13 +18271,13 @@
       <c r="Y11" s="111"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A12" s="280"/>
-      <c r="B12" s="499">
+      <c r="A12" s="279"/>
+      <c r="B12" s="498">
         <v>0.126</v>
       </c>
-      <c r="C12" s="311"/>
+      <c r="C12" s="310"/>
       <c r="D12" s="85"/>
-      <c r="N12" s="330"/>
+      <c r="N12" s="329"/>
       <c r="O12" s="534" t="s">
         <v>126</v>
       </c>
@@ -18296,17 +18289,17 @@
       <c r="R12" s="75"/>
       <c r="S12" s="29"/>
       <c r="T12" s="111"/>
-      <c r="U12" s="338"/>
+      <c r="U12" s="337"/>
       <c r="W12" s="132"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A13" s="280"/>
-      <c r="B13" s="499">
+      <c r="A13" s="279"/>
+      <c r="B13" s="498">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="C13" s="311"/>
+      <c r="C13" s="310"/>
       <c r="D13" s="85"/>
       <c r="G13" s="128"/>
       <c r="H13" s="144">
@@ -18318,22 +18311,22 @@
       <c r="L13" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="302" t="s">
+      <c r="M13" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="330"/>
-      <c r="O13" s="306"/>
+      <c r="N13" s="329"/>
+      <c r="O13" s="305"/>
       <c r="P13" s="74"/>
       <c r="Q13" s="111"/>
       <c r="R13" s="66"/>
-      <c r="U13" s="338"/>
+      <c r="U13" s="337"/>
     </row>
     <row r="14" spans="1:27" ht="18" thickBot="1">
-      <c r="A14" s="313"/>
-      <c r="B14" s="499">
+      <c r="A14" s="312"/>
+      <c r="B14" s="498">
         <v>0.24399999999999999</v>
       </c>
-      <c r="C14" s="311"/>
+      <c r="C14" s="310"/>
       <c r="D14" s="85"/>
       <c r="G14" s="90"/>
       <c r="H14" s="91"/>
@@ -18352,11 +18345,11 @@
       <c r="M14" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="330"/>
+      <c r="N14" s="329"/>
       <c r="O14" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="317">
+      <c r="P14" s="316">
         <v>4.97</v>
       </c>
       <c r="Q14" s="70" t="s">
@@ -18365,14 +18358,14 @@
       <c r="R14" s="160"/>
       <c r="S14" s="160"/>
       <c r="T14" s="29"/>
-      <c r="U14" s="338"/>
+      <c r="U14" s="337"/>
     </row>
     <row r="15" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A15" s="313"/>
-      <c r="B15" s="499">
+      <c r="A15" s="312"/>
+      <c r="B15" s="498">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C15" s="311"/>
+      <c r="C15" s="310"/>
       <c r="D15" s="85"/>
       <c r="G15" s="199"/>
       <c r="H15" s="97"/>
@@ -18396,7 +18389,7 @@
         <f>2*K15</f>
         <v>0.54186180756601132</v>
       </c>
-      <c r="N15" s="330"/>
+      <c r="N15" s="329"/>
       <c r="O15" s="169" t="s">
         <v>125</v>
       </c>
@@ -18416,17 +18409,17 @@
         <v>15.326525903489426</v>
       </c>
       <c r="T15" s="123"/>
-      <c r="U15" s="338"/>
+      <c r="U15" s="337"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="313"/>
-      <c r="B16" s="499">
+      <c r="A16" s="312"/>
+      <c r="B16" s="498">
         <v>0.33200000000000002</v>
       </c>
-      <c r="C16" s="311"/>
+      <c r="C16" s="310"/>
       <c r="D16" s="85"/>
-      <c r="N16" s="330"/>
-      <c r="O16" s="308" t="s">
+      <c r="N16" s="329"/>
+      <c r="O16" s="307" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="235">
@@ -18438,25 +18431,25 @@
       <c r="R16" s="117"/>
       <c r="S16" s="117"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="338"/>
+      <c r="U16" s="337"/>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="313"/>
-      <c r="B17" s="499">
+      <c r="A17" s="312"/>
+      <c r="B17" s="498">
         <v>0.121</v>
       </c>
-      <c r="C17" s="311"/>
+      <c r="C17" s="310"/>
       <c r="D17" s="85"/>
       <c r="G17" s="94"/>
       <c r="H17" s="91"/>
       <c r="I17" s="70"/>
       <c r="J17" s="111"/>
       <c r="K17" s="111"/>
-      <c r="N17" s="330"/>
-      <c r="O17" s="332" t="s">
+      <c r="N17" s="329"/>
+      <c r="O17" s="331" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="333">
+      <c r="P17" s="332">
         <v>2</v>
       </c>
       <c r="Q17" s="189">
@@ -18466,14 +18459,14 @@
       <c r="R17" s="123"/>
       <c r="S17" s="111"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="338"/>
+      <c r="U17" s="337"/>
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A18" s="313"/>
-      <c r="B18" s="499">
+      <c r="A18" s="312"/>
+      <c r="B18" s="498">
         <v>9.4E-2</v>
       </c>
-      <c r="C18" s="311"/>
+      <c r="C18" s="310"/>
       <c r="D18" s="85"/>
       <c r="G18" s="94"/>
       <c r="H18" s="91"/>
@@ -18483,19 +18476,19 @@
       </c>
       <c r="J18" s="218"/>
       <c r="K18" s="218"/>
-      <c r="N18" s="330"/>
-      <c r="O18" s="334"/>
-      <c r="P18" s="336"/>
+      <c r="N18" s="329"/>
+      <c r="O18" s="333"/>
+      <c r="P18" s="335"/>
       <c r="Q18" s="177"/>
       <c r="R18" s="177"/>
-      <c r="S18" s="335"/>
-      <c r="T18" s="335"/>
-      <c r="U18" s="338"/>
+      <c r="S18" s="334"/>
+      <c r="T18" s="334"/>
+      <c r="U18" s="337"/>
     </row>
     <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="313"/>
-      <c r="B19" s="499"/>
-      <c r="C19" s="311"/>
+      <c r="A19" s="312"/>
+      <c r="B19" s="498"/>
+      <c r="C19" s="310"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
       <c r="H19" s="75"/>
@@ -18507,20 +18500,20 @@
       <c r="L19" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="330"/>
+      <c r="N19" s="329"/>
       <c r="O19" s="68"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="114"/>
       <c r="R19" s="114"/>
-      <c r="U19" s="338"/>
+      <c r="U19" s="337"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A20" s="313"/>
-      <c r="B20" s="499"/>
-      <c r="C20" s="311"/>
+      <c r="A20" s="312"/>
+      <c r="B20" s="498"/>
+      <c r="C20" s="310"/>
       <c r="D20" s="85"/>
-      <c r="G20" s="434"/>
-      <c r="H20" s="435"/>
+      <c r="G20" s="433"/>
+      <c r="H20" s="434"/>
       <c r="I20" s="70" t="s">
         <v>44</v>
       </c>
@@ -18533,7 +18526,7 @@
       <c r="L20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="330"/>
+      <c r="N20" s="329"/>
       <c r="O20" s="127" t="s">
         <v>60</v>
       </c>
@@ -18548,17 +18541,17 @@
         <f>_xlfn.CHISQ.INV.RT((1-L1/100)/2,P20-1)</f>
         <v>27.488392863442979</v>
       </c>
-      <c r="U20" s="338"/>
+      <c r="U20" s="337"/>
     </row>
     <row r="21" spans="1:21" ht="21" thickBot="1">
-      <c r="A21" s="313"/>
-      <c r="B21" s="314"/>
-      <c r="C21" s="311"/>
+      <c r="A21" s="312"/>
+      <c r="B21" s="313"/>
+      <c r="C21" s="310"/>
       <c r="D21" s="85"/>
-      <c r="G21" s="290" t="s">
+      <c r="G21" s="289" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="291">
+      <c r="H21" s="290">
         <v>-0.5</v>
       </c>
       <c r="I21" s="121">
@@ -18569,15 +18562,15 @@
         <f>1-I21</f>
         <v>0.69146246127401312</v>
       </c>
-      <c r="K21" s="322">
+      <c r="K21" s="321">
         <f>2*I21</f>
         <v>0.61707507745197376</v>
       </c>
-      <c r="L21" s="322">
+      <c r="L21" s="321">
         <f>2*J21</f>
         <v>1.3829249225480262</v>
       </c>
-      <c r="N21" s="330"/>
+      <c r="N21" s="329"/>
       <c r="O21" s="68" t="s">
         <v>127</v>
       </c>
@@ -18590,12 +18583,12 @@
       <c r="R21" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="U21" s="338"/>
+      <c r="U21" s="337"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A22" s="313"/>
-      <c r="B22" s="314"/>
-      <c r="C22" s="311"/>
+      <c r="A22" s="312"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="310"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
       <c r="H22" s="536">
@@ -18607,16 +18600,16 @@
       <c r="J22" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="323" t="s">
+      <c r="K22" s="322" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="324" t="s">
+      <c r="L22" s="323" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="325" t="s">
+      <c r="M22" s="324" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="330"/>
+      <c r="N22" s="329"/>
       <c r="O22" s="66"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="138">
@@ -18627,12 +18620,12 @@
         <f>(P20-1)*P21/Q20</f>
         <v>5.5093006780061922</v>
       </c>
-      <c r="U22" s="338"/>
+      <c r="U22" s="337"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A23" s="313"/>
-      <c r="B23" s="314"/>
-      <c r="C23" s="311"/>
+      <c r="A23" s="312"/>
+      <c r="B23" s="313"/>
+      <c r="C23" s="310"/>
       <c r="D23" s="85"/>
       <c r="G23" s="93" t="s">
         <v>44</v>
@@ -18650,7 +18643,7 @@
         <f>-TINV(2*H22,H24)</f>
         <v>-2.3533634348018233</v>
       </c>
-      <c r="L23" s="321">
+      <c r="L23" s="320">
         <f>TINV(2*H22,H24)</f>
         <v>2.3533634348018233</v>
       </c>
@@ -18658,7 +18651,7 @@
         <f>TINV(H22,H24)</f>
         <v>3.1824463052837091</v>
       </c>
-      <c r="N23" s="330"/>
+      <c r="N23" s="329"/>
       <c r="O23" s="152" t="s">
         <v>128</v>
       </c>
@@ -18673,14 +18666,14 @@
         <f>SQRT((P20-1)*(P23^2)/Q20)</f>
         <v>4.3335354236049</v>
       </c>
-      <c r="U23" s="338"/>
+      <c r="U23" s="337"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="313"/>
-      <c r="B24" s="314"/>
-      <c r="C24" s="311"/>
+      <c r="A24" s="312"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="310"/>
       <c r="D24" s="85"/>
-      <c r="G24" s="307" t="s">
+      <c r="G24" s="306" t="s">
         <v>122</v>
       </c>
       <c r="H24" s="69">
@@ -18695,7 +18688,7 @@
       <c r="M24" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="N24" s="330"/>
+      <c r="N24" s="329"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="138">
         <f>Q23^2</f>
@@ -18705,12 +18698,12 @@
         <f>R23^2</f>
         <v>18.779529267638498</v>
       </c>
-      <c r="U24" s="338"/>
+      <c r="U24" s="337"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A25" s="313"/>
-      <c r="B25" s="314"/>
-      <c r="C25" s="311"/>
+      <c r="A25" s="312"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="310"/>
       <c r="D25" s="85"/>
       <c r="K25" s="121">
         <f>IF(J29 &gt;=10,  _xlfn.NORM.S.DIST(K27,TRUE), _xlfn.BINOM.DIST(H28, H26, H27, TRUE))</f>
@@ -18724,15 +18717,15 @@
         <f>2*L25</f>
         <v>8.7929766962426825E-3</v>
       </c>
-      <c r="N25" s="330"/>
+      <c r="N25" s="329"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="318"/>
-      <c r="U25" s="338"/>
+      <c r="Q25" s="317"/>
+      <c r="U25" s="337"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" thickBot="1">
-      <c r="A26" s="313"/>
-      <c r="B26" s="314"/>
-      <c r="C26" s="311"/>
+      <c r="A26" s="312"/>
+      <c r="B26" s="313"/>
+      <c r="C26" s="310"/>
       <c r="D26" s="85"/>
       <c r="G26" s="128" t="s">
         <v>35</v>
@@ -18755,7 +18748,7 @@
       <c r="M26" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="330"/>
+      <c r="N26" s="329"/>
       <c r="O26" s="230" t="s">
         <v>68</v>
       </c>
@@ -18768,14 +18761,14 @@
       <c r="R26" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="343"/>
-      <c r="T26" s="344"/>
-      <c r="U26" s="338"/>
+      <c r="S26" s="342"/>
+      <c r="T26" s="343"/>
+      <c r="U26" s="337"/>
     </row>
     <row r="27" spans="1:21" ht="20.25" thickBot="1">
-      <c r="A27" s="313"/>
-      <c r="B27" s="314"/>
-      <c r="C27" s="311"/>
+      <c r="A27" s="312"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="310"/>
       <c r="D27" s="85"/>
       <c r="G27" s="90" t="s">
         <v>40</v>
@@ -18787,7 +18780,7 @@
         <f>H26*H27</f>
         <v>860</v>
       </c>
-      <c r="J27" s="319">
+      <c r="J27" s="318">
         <f>SQRT(H26*H27*(1-H27))</f>
         <v>22.140460699813815</v>
       </c>
@@ -18803,8 +18796,8 @@
         <f>1-L27</f>
         <v>4.3964883481213413E-3</v>
       </c>
-      <c r="N27" s="330"/>
-      <c r="O27" s="328" t="s">
+      <c r="N27" s="329"/>
+      <c r="O27" s="327" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="91">
@@ -18826,12 +18819,12 @@
         <f>P28+Q29*P27/SQRT(P26)</f>
         <v>2.1449020053404104</v>
       </c>
-      <c r="U27" s="338"/>
+      <c r="U27" s="337"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A28" s="313"/>
-      <c r="B28" s="314"/>
-      <c r="C28" s="311"/>
+      <c r="A28" s="312"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="310"/>
       <c r="D28" s="85"/>
       <c r="G28" s="90" t="s">
         <v>39</v>
@@ -18840,17 +18833,17 @@
         <v>918</v>
       </c>
       <c r="I28" s="126"/>
-      <c r="J28" s="297" t="s">
+      <c r="J28" s="296" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="497"/>
+      <c r="K28" s="496"/>
       <c r="L28" s="70" t="s">
         <v>175</v>
       </c>
       <c r="M28" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="N28" s="330"/>
+      <c r="N28" s="329"/>
       <c r="O28" s="94"/>
       <c r="P28" s="99">
         <v>1.21</v>
@@ -18862,14 +18855,14 @@
       <c r="S28" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="U28" s="338"/>
+      <c r="U28" s="337"/>
     </row>
     <row r="29" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A29" s="313"/>
-      <c r="B29" s="314"/>
-      <c r="C29" s="311"/>
+      <c r="A29" s="312"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="310"/>
       <c r="D29" s="85"/>
-      <c r="G29" s="362" t="s">
+      <c r="G29" s="361" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="97">
@@ -18883,11 +18876,11 @@
         <f>H26*I29*(1-I29)</f>
         <v>496.63799999999992</v>
       </c>
-      <c r="K29" s="495">
+      <c r="K29" s="494">
         <f>(H28+2)/(H26+4)</f>
         <v>0.45908183632734528</v>
       </c>
-      <c r="L29" s="501">
+      <c r="L29" s="500">
         <f>L27*2</f>
         <v>1.9912070233037573</v>
       </c>
@@ -18895,7 +18888,7 @@
         <f xml:space="preserve"> M27 - 1 + _xlfn.NORM.S.DIST(ROUND((H29 - I27)/J27,2),TRUE)</f>
         <v>-0.99560351165187866</v>
       </c>
-      <c r="N29" s="330"/>
+      <c r="N29" s="329"/>
       <c r="O29" s="177"/>
       <c r="P29" s="97">
         <v>0</v>
@@ -18912,12 +18905,12 @@
         <f>_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
         <v>0.99288311676097785</v>
       </c>
-      <c r="U29" s="338"/>
+      <c r="U29" s="337"/>
     </row>
     <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A30" s="315"/>
-      <c r="B30" s="316"/>
-      <c r="C30" s="311"/>
+      <c r="A30" s="314"/>
+      <c r="B30" s="315"/>
+      <c r="C30" s="310"/>
       <c r="D30" s="85"/>
       <c r="I30" s="128" t="s">
         <v>70</v>
@@ -18928,19 +18921,19 @@
       <c r="K30" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="257"/>
-      <c r="N30" s="330"/>
+      <c r="M30" s="256"/>
+      <c r="N30" s="329"/>
       <c r="O30" s="145"/>
       <c r="P30" s="123"/>
       <c r="Q30" s="94"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="320" t="s">
+      <c r="S30" s="319" t="s">
         <v>66</v>
       </c>
       <c r="T30" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="U30" s="338"/>
+      <c r="U30" s="337"/>
     </row>
     <row r="31" spans="1:21" ht="20.25" thickBot="1">
       <c r="I31" s="129">
@@ -18955,7 +18948,7 @@
         <f>_xlfn.NORM.S.INV(J31)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="N31" s="330"/>
+      <c r="N31" s="329"/>
       <c r="O31" s="147" t="s">
         <v>61</v>
       </c>
@@ -18974,7 +18967,7 @@
       <c r="T31" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="338"/>
+      <c r="U31" s="337"/>
     </row>
     <row r="32" spans="1:21" ht="20.25" thickBot="1">
       <c r="I32" s="113" t="s">
@@ -18982,13 +18975,13 @@
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="496" t="s">
+      <c r="L32" s="495" t="s">
         <v>174</v>
       </c>
       <c r="M32" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="330"/>
+      <c r="N32" s="329"/>
       <c r="O32" s="148" t="s">
         <v>52</v>
       </c>
@@ -19011,7 +19004,7 @@
         <f>2*R32</f>
         <v>1.9857472821466085</v>
       </c>
-      <c r="U32" s="338"/>
+      <c r="U32" s="337"/>
     </row>
     <row r="33" spans="9:21" ht="16.5" thickBot="1">
       <c r="I33" s="114">
@@ -19034,11 +19027,11 @@
         <f>K29+K31*SQRT(K29*(1-K29)/(H26+4))</f>
         <v>0.48089959180041975</v>
       </c>
-      <c r="N33" s="331"/>
-      <c r="U33" s="338"/>
+      <c r="N33" s="330"/>
+      <c r="U33" s="337"/>
     </row>
     <row r="34" spans="9:21" ht="16.5" thickBot="1">
-      <c r="U34" s="339"/>
+      <c r="U34" s="338"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19878,7 +19871,7 @@
     <col min="13" max="14" width="9.7109375" style="132" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="29" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="17" width="1.28515625" style="385" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" style="384" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="29" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" style="29" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" style="29" customWidth="1"/>
@@ -19908,10 +19901,10 @@
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="151"/>
-      <c r="E1" s="371" t="s">
+      <c r="E1" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="372" t="s">
+      <c r="F1" s="371" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="541"/>
@@ -19927,7 +19920,7 @@
       <c r="R1" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="437">
+      <c r="S1" s="436">
         <f>SUM(S4:S18)</f>
         <v>576</v>
       </c>
@@ -19958,10 +19951,10 @@
       <c r="F2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="377" t="s">
+      <c r="G2" s="376" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="377" t="s">
+      <c r="H2" s="376" t="s">
         <v>146</v>
       </c>
       <c r="I2" s="154"/>
@@ -19976,15 +19969,15 @@
       <c r="N2" s="94"/>
       <c r="O2" s="75"/>
       <c r="P2" s="75"/>
-      <c r="Q2" s="387"/>
-      <c r="R2" s="386" t="s">
+      <c r="Q2" s="386"/>
+      <c r="R2" s="385" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="32">
         <v>576</v>
       </c>
       <c r="T2" s="132"/>
-      <c r="U2" s="396"/>
+      <c r="U2" s="395"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -19996,9 +19989,9 @@
       <c r="AD2" s="75"/>
     </row>
     <row r="3" spans="1:34" ht="17.25" thickBot="1">
-      <c r="A3" s="458"/>
-      <c r="B3" s="458"/>
-      <c r="C3" s="367" t="s">
+      <c r="A3" s="457"/>
+      <c r="B3" s="457"/>
+      <c r="C3" s="366" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="154"/>
@@ -20028,29 +20021,29 @@
       <c r="N3" s="123"/>
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
-      <c r="Q3" s="387"/>
-      <c r="R3" s="521" t="s">
+      <c r="Q3" s="386"/>
+      <c r="R3" s="520" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="523" t="s">
+      <c r="S3" s="522" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="522" t="s">
+      <c r="T3" s="521" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="396"/>
-      <c r="V3" s="404"/>
-      <c r="W3" s="405"/>
+      <c r="U3" s="395"/>
+      <c r="V3" s="403"/>
+      <c r="W3" s="404"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="513" t="s">
+      <c r="Z3" s="512" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="514" t="s">
+      <c r="AA3" s="513" t="s">
         <v>147</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="524" t="s">
+      <c r="AC3" s="523" t="s">
         <v>30</v>
       </c>
       <c r="AD3" s="75"/>
@@ -20063,13 +20056,13 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="505">
+      <c r="A4" s="504">
         <v>220</v>
       </c>
-      <c r="B4" s="505">
+      <c r="B4" s="504">
         <v>73.3</v>
       </c>
-      <c r="C4" s="366">
+      <c r="C4" s="365">
         <f>A4-B4</f>
         <v>146.69999999999999</v>
       </c>
@@ -20084,13 +20077,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="452"/>
+      <c r="H4" s="451"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
-      <c r="Q4" s="387">
+      <c r="Q4" s="386">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
         <v>219.23677420910491</v>
       </c>
@@ -20098,39 +20091,39 @@
         <f>S4/S$1</f>
         <v>0.38194444444444442</v>
       </c>
-      <c r="S4" s="520">
+      <c r="S4" s="519">
         <v>220</v>
       </c>
-      <c r="T4" s="378">
+      <c r="T4" s="377">
         <f>S$2*R4</f>
         <v>220</v>
       </c>
-      <c r="U4" s="396">
+      <c r="U4" s="395">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
         <v>95.338888888888874</v>
       </c>
-      <c r="V4" s="406">
+      <c r="V4" s="405">
         <f>SUM(Q4:Q15)</f>
         <v>574.0017361111112</v>
       </c>
-      <c r="W4" s="407">
+      <c r="W4" s="406">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
         <v>7.7794403397348582</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="511">
+      <c r="Z4" s="510">
         <v>1.6</v>
       </c>
-      <c r="AA4" s="512">
+      <c r="AA4" s="511">
         <f>Z4/S$1</f>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="526">
+      <c r="AC4" s="525">
         <v>0</v>
       </c>
-      <c r="AD4" s="525">
+      <c r="AD4" s="524">
         <f>AC4*R4</f>
         <v>0</v>
       </c>
@@ -20145,13 +20138,13 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A5" s="505">
+      <c r="A5" s="504">
         <v>214</v>
       </c>
-      <c r="B5" s="505">
+      <c r="B5" s="504">
         <v>76.8</v>
       </c>
-      <c r="C5" s="366">
+      <c r="C5" s="365">
         <f t="shared" ref="C5:C16" si="0">A5-B5</f>
         <v>137.19999999999999</v>
       </c>
@@ -20175,7 +20168,7 @@
       <c r="L5" s="123"/>
       <c r="O5" s="75"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="387">
+      <c r="Q5" s="386">
         <f t="shared" ref="Q5:Q23" si="2">IF(S5=0,0, (R5-S5)^2 / S5)</f>
         <v>213.25758945794755</v>
       </c>
@@ -20183,14 +20176,14 @@
         <f t="shared" ref="R5:R8" si="3">S5/S$1</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="S5" s="520">
+      <c r="S5" s="519">
         <v>214</v>
       </c>
-      <c r="T5" s="378">
+      <c r="T5" s="377">
         <f t="shared" ref="T5:T15" si="4">S$2*R5</f>
         <v>214</v>
       </c>
-      <c r="U5" s="396">
+      <c r="U5" s="395">
         <f t="shared" ref="U5:U17" si="5">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
         <v>84.734722222222203</v>
       </c>
@@ -20198,18 +20191,18 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="508">
+      <c r="Z5" s="507">
         <v>25.5</v>
       </c>
-      <c r="AA5" s="510">
+      <c r="AA5" s="509">
         <f t="shared" ref="AA5:AA14" si="6">Z5/S$1</f>
         <v>4.4270833333333336E-2</v>
       </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="526">
+      <c r="AC5" s="525">
         <v>1</v>
       </c>
-      <c r="AD5" s="525">
+      <c r="AD5" s="524">
         <f t="shared" ref="AD5:AD14" si="7">AC5*R5</f>
         <v>0.37152777777777779</v>
       </c>
@@ -20224,13 +20217,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="505">
+      <c r="A6" s="504">
         <v>99</v>
       </c>
-      <c r="B6" s="505">
+      <c r="B6" s="504">
         <v>69.8</v>
       </c>
-      <c r="C6" s="366">
+      <c r="C6" s="365">
         <f t="shared" si="0"/>
         <v>29.200000000000003</v>
       </c>
@@ -20247,7 +20240,7 @@
         <v>141</v>
       </c>
       <c r="P6" s="140"/>
-      <c r="Q6" s="387">
+      <c r="Q6" s="386">
         <f t="shared" si="2"/>
         <v>98.656548394097229</v>
       </c>
@@ -20255,37 +20248,37 @@
         <f t="shared" si="3"/>
         <v>0.171875</v>
       </c>
-      <c r="S6" s="520">
+      <c r="S6" s="519">
         <v>99</v>
       </c>
-      <c r="T6" s="378">
+      <c r="T6" s="377">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="U6" s="396">
+      <c r="U6" s="395">
         <f t="shared" si="5"/>
         <v>2.2781250000000011</v>
       </c>
-      <c r="V6" s="408" t="s">
+      <c r="V6" s="407" t="s">
         <v>177</v>
       </c>
-      <c r="W6" s="377" t="s">
+      <c r="W6" s="376" t="s">
         <v>146</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="508">
+      <c r="Z6" s="507">
         <v>153.1</v>
       </c>
-      <c r="AA6" s="510">
+      <c r="AA6" s="509">
         <f t="shared" si="6"/>
         <v>0.26579861111111108</v>
       </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="526">
+      <c r="AC6" s="525">
         <v>2</v>
       </c>
-      <c r="AD6" s="525">
+      <c r="AD6" s="524">
         <f t="shared" si="7"/>
         <v>0.34375</v>
       </c>
@@ -20300,13 +20293,13 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="505">
+      <c r="A7" s="504">
         <v>35</v>
       </c>
-      <c r="B7" s="505">
+      <c r="B7" s="504">
         <v>73</v>
       </c>
-      <c r="C7" s="366">
+      <c r="C7" s="365">
         <f t="shared" si="0"/>
         <v>-38</v>
       </c>
@@ -20333,10 +20326,10 @@
       <c r="O7" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="261" t="s">
+      <c r="P7" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="387">
+      <c r="Q7" s="386">
         <f t="shared" si="2"/>
         <v>34.878577715084887</v>
       </c>
@@ -20344,18 +20337,18 @@
         <f t="shared" si="3"/>
         <v>6.0763888888888888E-2</v>
       </c>
-      <c r="S7" s="520">
+      <c r="S7" s="519">
         <v>35</v>
       </c>
-      <c r="T7" s="378">
+      <c r="T7" s="377">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="U7" s="396">
+      <c r="U7" s="395">
         <f t="shared" si="5"/>
         <v>55.83368055555556</v>
       </c>
-      <c r="V7" s="409">
+      <c r="V7" s="408">
         <f>SUM(U4:U17)</f>
         <v>337.94097222222217</v>
       </c>
@@ -20363,26 +20356,26 @@
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
         <v>7.0375872786408058E-72</v>
       </c>
-      <c r="X7" s="506">
+      <c r="X7" s="505">
         <f>1-W7</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="507">
+      <c r="Y7" s="506">
         <f>2*W7</f>
         <v>1.4075174557281612E-71</v>
       </c>
-      <c r="Z7" s="508">
+      <c r="Z7" s="507">
         <v>408.4</v>
       </c>
-      <c r="AA7" s="510">
+      <c r="AA7" s="509">
         <f t="shared" si="6"/>
         <v>0.7090277777777777</v>
       </c>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="526">
+      <c r="AC7" s="525">
         <v>3</v>
       </c>
-      <c r="AD7" s="525">
+      <c r="AD7" s="524">
         <f t="shared" si="7"/>
         <v>0.18229166666666666</v>
       </c>
@@ -20400,13 +20393,13 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="505">
+      <c r="A8" s="504">
         <v>8</v>
       </c>
-      <c r="B8" s="505">
+      <c r="B8" s="504">
         <v>73.8</v>
       </c>
-      <c r="C8" s="366">
+      <c r="C8" s="365">
         <f t="shared" si="0"/>
         <v>-65.8</v>
       </c>
@@ -20454,7 +20447,7 @@
         <f>SQRT(  M8*(1-M8)/K8 + N8*(1-N8)/K11 )</f>
         <v>2.8322798577803274E-2</v>
       </c>
-      <c r="Q8" s="387">
+      <c r="Q8" s="386">
         <f t="shared" si="2"/>
         <v>7.9722463348765427</v>
       </c>
@@ -20462,37 +20455,37 @@
         <f t="shared" si="3"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="S8" s="520">
+      <c r="S8" s="519">
         <v>8</v>
       </c>
-      <c r="T8" s="378">
+      <c r="T8" s="377">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="U8" s="396">
+      <c r="U8" s="395">
         <f t="shared" si="5"/>
         <v>99.75555555555556</v>
       </c>
-      <c r="V8" s="410" t="s">
+      <c r="V8" s="409" t="s">
         <v>149</v>
       </c>
-      <c r="W8" s="367" t="s">
+      <c r="W8" s="366" t="s">
         <v>32</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="508">
+      <c r="Z8" s="507">
         <v>408.4</v>
       </c>
-      <c r="AA8" s="510">
+      <c r="AA8" s="509">
         <f t="shared" si="6"/>
         <v>0.7090277777777777</v>
       </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="526">
+      <c r="AC8" s="525">
         <v>4</v>
       </c>
-      <c r="AD8" s="525">
+      <c r="AD8" s="524">
         <f t="shared" si="7"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -20510,13 +20503,13 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A9" s="505">
+      <c r="A9" s="504">
         <v>0</v>
       </c>
-      <c r="B9" s="505">
+      <c r="B9" s="504">
         <v>71.3</v>
       </c>
-      <c r="C9" s="366">
+      <c r="C9" s="365">
         <f t="shared" si="0"/>
         <v>-71.3</v>
       </c>
@@ -20542,40 +20535,40 @@
       <c r="P9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="387">
+      <c r="Q9" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="175"/>
-      <c r="S9" s="520"/>
-      <c r="T9" s="378">
+      <c r="S9" s="519"/>
+      <c r="T9" s="377">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U9" s="396">
+      <c r="U9" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V9" s="411">
+      <c r="V9" s="410">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
         <v>115.2</v>
       </c>
-      <c r="W9" s="527">
+      <c r="W9" s="526">
         <f>SUM(AD4:AD14)</f>
         <v>0.953125</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="508"/>
-      <c r="AA9" s="510">
+      <c r="Z9" s="507"/>
+      <c r="AA9" s="509">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="526">
+      <c r="AC9" s="525">
         <v>5</v>
       </c>
-      <c r="AD9" s="525">
+      <c r="AD9" s="524">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20590,13 +20583,13 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A10" s="505">
+      <c r="A10" s="504">
         <v>0</v>
       </c>
-      <c r="B10" s="505">
+      <c r="B10" s="504">
         <v>71.7</v>
       </c>
-      <c r="C10" s="366">
+      <c r="C10" s="365">
         <f t="shared" si="0"/>
         <v>-71.7</v>
       </c>
@@ -20612,7 +20605,7 @@
         <f>E8-E10</f>
         <v>-63.160278275619447</v>
       </c>
-      <c r="G10" s="504">
+      <c r="G10" s="503">
         <f>E8+E10</f>
         <v>62.735278275619436</v>
       </c>
@@ -20642,17 +20635,17 @@
       <c r="P10" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="387">
+      <c r="Q10" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="175"/>
-      <c r="S10" s="520"/>
-      <c r="T10" s="378">
+      <c r="S10" s="519"/>
+      <c r="T10" s="377">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U10" s="396">
+      <c r="U10" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -20660,16 +20653,16 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="508"/>
-      <c r="AA10" s="510">
+      <c r="Z10" s="507"/>
+      <c r="AA10" s="509">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="526">
+      <c r="AC10" s="525">
         <v>6</v>
       </c>
-      <c r="AD10" s="525">
+      <c r="AD10" s="524">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20684,13 +20677,13 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A11" s="505">
+      <c r="A11" s="504">
         <v>1</v>
       </c>
-      <c r="B11" s="505">
+      <c r="B11" s="504">
         <v>69</v>
       </c>
-      <c r="C11" s="366">
+      <c r="C11" s="365">
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
@@ -20700,8 +20693,8 @@
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="123"/>
-      <c r="G11" s="381"/>
-      <c r="H11" s="382"/>
+      <c r="G11" s="380"/>
+      <c r="H11" s="381"/>
       <c r="I11" s="154"/>
       <c r="J11" s="145" t="s">
         <v>74</v>
@@ -20729,36 +20722,36 @@
         <f>2*N11</f>
         <v>1.7858991853430499</v>
       </c>
-      <c r="Q11" s="387">
+      <c r="Q11" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="175"/>
-      <c r="S11" s="520"/>
-      <c r="T11" s="378">
+      <c r="S11" s="519"/>
+      <c r="T11" s="377">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U11" s="396">
+      <c r="U11" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="515" t="s">
+      <c r="X11" s="514" t="s">
         <v>160</v>
       </c>
-      <c r="Y11" s="518"/>
-      <c r="Z11" s="508"/>
-      <c r="AA11" s="510">
+      <c r="Y11" s="517"/>
+      <c r="Z11" s="507"/>
+      <c r="AA11" s="509">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="526">
+      <c r="AC11" s="525">
         <v>7</v>
       </c>
-      <c r="AD11" s="525">
+      <c r="AD11" s="524">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20773,9 +20766,9 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A12" s="505"/>
-      <c r="B12" s="505"/>
-      <c r="C12" s="366">
+      <c r="A12" s="504"/>
+      <c r="B12" s="504"/>
+      <c r="C12" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20783,14 +20776,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="370" t="s">
+      <c r="E12" s="369" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="228">
         <f>E$5^2/A$1</f>
         <v>1136.9799107142858</v>
       </c>
-      <c r="G12" s="383">
+      <c r="G12" s="382">
         <f xml:space="preserve"> E3-G3 -H14</f>
         <v>5.6075708179702701</v>
       </c>
@@ -20811,44 +20804,44 @@
       <c r="P12" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="Q12" s="387">
+      <c r="Q12" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="175"/>
       <c r="S12" s="175"/>
-      <c r="T12" s="378">
+      <c r="T12" s="377">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U12" s="396">
+      <c r="U12" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V12" s="412" t="s">
+      <c r="V12" s="411" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="413">
+      <c r="W12" s="412">
         <v>240</v>
       </c>
-      <c r="X12" s="516">
+      <c r="X12" s="515">
         <f>W12*W13</f>
         <v>24.240000000000002</v>
       </c>
-      <c r="Y12" s="517">
+      <c r="Y12" s="516">
         <f>( (W14-X12)^2)/X12 + ((W12-W14-X14)^2)/X14</f>
         <v>0.64875898045866787</v>
       </c>
-      <c r="Z12" s="508"/>
-      <c r="AA12" s="510">
+      <c r="Z12" s="507"/>
+      <c r="AA12" s="509">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="526">
+      <c r="AC12" s="525">
         <v>8</v>
       </c>
-      <c r="AD12" s="525">
+      <c r="AD12" s="524">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20863,9 +20856,9 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A13" s="505"/>
-      <c r="B13" s="505"/>
-      <c r="C13" s="366">
+      <c r="A13" s="504"/>
+      <c r="B13" s="504"/>
+      <c r="C13" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20893,7 +20886,7 @@
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
         <v>4.6586857966115697E-2</v>
       </c>
-      <c r="M13" s="364">
+      <c r="M13" s="363">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
         <v>1.6448536269514715</v>
       </c>
@@ -20905,44 +20898,44 @@
         <f>M8-N8+L13</f>
         <v>1.1375590360481885E-2</v>
       </c>
-      <c r="P13" s="436">
+      <c r="P13" s="435">
         <f>2*M11</f>
         <v>0.21410081465694997</v>
       </c>
-      <c r="Q13" s="387">
+      <c r="Q13" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
-      <c r="T13" s="378">
+      <c r="T13" s="377">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U13" s="396">
+      <c r="U13" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V13" s="412" t="s">
+      <c r="V13" s="411" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="438">
+      <c r="W13" s="437">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X13" s="440" t="s">
+      <c r="X13" s="439" t="s">
         <v>161</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="508"/>
-      <c r="AA13" s="510">
+      <c r="Z13" s="507"/>
+      <c r="AA13" s="509">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="526">
+      <c r="AC13" s="525">
         <v>9</v>
       </c>
-      <c r="AD13" s="525">
+      <c r="AD13" s="524">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20957,9 +20950,9 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A14" s="505"/>
-      <c r="B14" s="505"/>
-      <c r="C14" s="366">
+      <c r="A14" s="504"/>
+      <c r="B14" s="504"/>
+      <c r="C14" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20986,7 +20979,7 @@
       <c r="J14" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="365">
+      <c r="K14" s="364">
         <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="70" t="s">
@@ -20996,41 +20989,41 @@
       <c r="N14" s="94"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
-      <c r="Q14" s="387">
+      <c r="Q14" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
-      <c r="T14" s="378">
+      <c r="T14" s="377">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U14" s="396">
+      <c r="U14" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V14" s="414" t="s">
+      <c r="V14" s="413" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="415">
+      <c r="W14" s="414">
         <v>28</v>
       </c>
-      <c r="X14" s="439">
+      <c r="X14" s="438">
         <f>W12-X12</f>
         <v>215.76</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="509"/>
-      <c r="AA14" s="510">
+      <c r="Z14" s="508"/>
+      <c r="AA14" s="509">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="526">
+      <c r="AC14" s="525">
         <v>10</v>
       </c>
-      <c r="AD14" s="525">
+      <c r="AD14" s="524">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -21045,13 +21038,13 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="18" thickBot="1">
-      <c r="A15" s="505"/>
-      <c r="B15" s="505"/>
-      <c r="C15" s="366">
+      <c r="A15" s="504"/>
+      <c r="B15" s="504"/>
+      <c r="C15" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="379">
+      <c r="D15" s="378">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21071,17 +21064,17 @@
       <c r="N15" s="218"/>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
-      <c r="Q15" s="387">
+      <c r="Q15" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="392"/>
-      <c r="S15" s="392"/>
-      <c r="T15" s="378">
+      <c r="R15" s="391"/>
+      <c r="S15" s="391"/>
+      <c r="T15" s="377">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U15" s="396">
+      <c r="U15" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -21104,18 +21097,18 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A16" s="505"/>
-      <c r="B16" s="505"/>
-      <c r="C16" s="366">
+      <c r="A16" s="504"/>
+      <c r="B16" s="504"/>
+      <c r="C16" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="379">
+      <c r="D16" s="378">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="379"/>
       <c r="G16" s="191" t="s">
         <v>73</v>
       </c>
@@ -21135,19 +21128,19 @@
       <c r="N16" s="222"/>
       <c r="O16" s="223"/>
       <c r="P16" s="223"/>
-      <c r="Q16" s="387">
+      <c r="Q16" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="393"/>
-      <c r="S16" s="393"/>
-      <c r="T16" s="378"/>
-      <c r="U16" s="396">
+      <c r="R16" s="392"/>
+      <c r="S16" s="392"/>
+      <c r="T16" s="377"/>
+      <c r="U16" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V16" s="223"/>
-      <c r="W16" s="377" t="s">
+      <c r="W16" s="376" t="s">
         <v>146</v>
       </c>
       <c r="X16" s="121">
@@ -21203,19 +21196,19 @@
       <c r="N17" s="223"/>
       <c r="O17" s="223"/>
       <c r="P17" s="223"/>
-      <c r="Q17" s="387">
+      <c r="Q17" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="393"/>
-      <c r="S17" s="393"/>
-      <c r="T17" s="378"/>
-      <c r="U17" s="396">
+      <c r="R17" s="392"/>
+      <c r="S17" s="392"/>
+      <c r="T17" s="377"/>
+      <c r="U17" s="395">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="223"/>
-      <c r="W17" s="377" t="s">
+      <c r="W17" s="376" t="s">
         <v>151</v>
       </c>
       <c r="X17" s="138">
@@ -21262,14 +21255,14 @@
       <c r="N18" s="225"/>
       <c r="O18" s="226"/>
       <c r="P18" s="226"/>
-      <c r="Q18" s="387">
+      <c r="Q18" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="394"/>
-      <c r="S18" s="394"/>
+      <c r="R18" s="393"/>
+      <c r="S18" s="393"/>
       <c r="T18" s="226"/>
-      <c r="U18" s="397"/>
+      <c r="U18" s="396"/>
       <c r="V18" s="226"/>
       <c r="W18" s="226"/>
       <c r="X18" s="226"/>
@@ -21322,17 +21315,17 @@
         <v>67</v>
       </c>
       <c r="P19" s="222"/>
-      <c r="Q19" s="387">
+      <c r="Q19" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="395"/>
-      <c r="S19" s="395"/>
+      <c r="R19" s="394"/>
+      <c r="S19" s="394"/>
       <c r="T19" s="222"/>
-      <c r="U19" s="398"/>
+      <c r="U19" s="397"/>
       <c r="V19" s="222"/>
       <c r="W19" s="222"/>
-      <c r="X19" s="416"/>
+      <c r="X19" s="415"/>
       <c r="Y19" s="222"/>
       <c r="Z19" s="222"/>
       <c r="AA19" s="3"/>
@@ -21354,7 +21347,7 @@
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="453">
+      <c r="F20" s="452">
         <v>1.21</v>
       </c>
       <c r="G20" s="548"/>
@@ -21382,23 +21375,23 @@
         <v>65</v>
       </c>
       <c r="P20" s="157"/>
-      <c r="Q20" s="387">
+      <c r="Q20" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="320"/>
-      <c r="S20" s="320"/>
+      <c r="R20" s="319"/>
+      <c r="S20" s="319"/>
       <c r="T20" s="157"/>
-      <c r="U20" s="399"/>
+      <c r="U20" s="398"/>
       <c r="V20" s="157"/>
-      <c r="W20" s="519" t="s">
+      <c r="W20" s="518" t="s">
         <v>178</v>
       </c>
       <c r="X20" s="130">
         <f>(W14/W12-W13)/SQRT(W13*(1-W13)/W12)</f>
         <v>0.80545575946706616</v>
       </c>
-      <c r="Y20" s="417"/>
+      <c r="Y20" s="416"/>
       <c r="Z20" s="157"/>
       <c r="AA20" s="157"/>
       <c r="AB20" s="157"/>
@@ -21421,7 +21414,7 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="454">
+      <c r="F21" s="453">
         <v>1.88</v>
       </c>
       <c r="G21" s="139">
@@ -21456,14 +21449,14 @@
         <v>5.8457278969697296E-2</v>
       </c>
       <c r="P21" s="94"/>
-      <c r="Q21" s="387">
+      <c r="Q21" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="94"/>
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
-      <c r="U21" s="400"/>
+      <c r="U21" s="399"/>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
       <c r="X21" s="94"/>
@@ -21514,14 +21507,14 @@
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
-      <c r="Q22" s="387">
+      <c r="Q22" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="111"/>
       <c r="S22" s="111"/>
       <c r="T22" s="111"/>
-      <c r="U22" s="401"/>
+      <c r="U22" s="400"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -21546,7 +21539,7 @@
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="453">
+      <c r="F23" s="452">
         <f>F3</f>
         <v>72.337500000000006</v>
       </c>
@@ -21565,14 +21558,14 @@
       <c r="M23" s="241"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
-      <c r="Q23" s="387">
+      <c r="Q23" s="386">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="392"/>
-      <c r="S23" s="392"/>
+      <c r="R23" s="391"/>
+      <c r="S23" s="391"/>
       <c r="T23" s="75"/>
-      <c r="U23" s="402"/>
+      <c r="U23" s="401"/>
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
@@ -21599,7 +21592,7 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="454">
+      <c r="F24" s="453">
         <f>F5</f>
         <v>2.4634108177774277</v>
       </c>
@@ -21627,11 +21620,11 @@
       <c r="N24" s="166"/>
       <c r="O24" s="157"/>
       <c r="P24" s="157"/>
-      <c r="Q24" s="388"/>
+      <c r="Q24" s="387"/>
       <c r="R24" s="157"/>
       <c r="S24" s="157"/>
       <c r="T24" s="157"/>
-      <c r="U24" s="399"/>
+      <c r="U24" s="398"/>
       <c r="V24" s="157"/>
       <c r="W24" s="157"/>
       <c r="X24" s="157"/>
@@ -21671,11 +21664,11 @@
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
-      <c r="Q25" s="389"/>
+      <c r="Q25" s="388"/>
       <c r="R25" s="94"/>
       <c r="S25" s="94"/>
       <c r="T25" s="94"/>
-      <c r="U25" s="400"/>
+      <c r="U25" s="399"/>
       <c r="V25" s="94"/>
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
@@ -21727,11 +21720,11 @@
         <v>26</v>
       </c>
       <c r="P26" s="111"/>
-      <c r="Q26" s="390"/>
+      <c r="Q26" s="389"/>
       <c r="R26" s="111"/>
       <c r="S26" s="111"/>
       <c r="T26" s="111"/>
-      <c r="U26" s="401"/>
+      <c r="U26" s="400"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -21761,32 +21754,32 @@
       <c r="H27" s="233"/>
       <c r="I27" s="196"/>
       <c r="J27" s="94"/>
-      <c r="K27" s="373">
+      <c r="K27" s="372">
         <f>MIN(C4:C28)</f>
         <v>-71.7</v>
       </c>
-      <c r="L27" s="374">
+      <c r="L27" s="373">
         <f>QUARTILE(C4:C27, 1)</f>
         <v>-65.8</v>
       </c>
-      <c r="M27" s="374">
+      <c r="M27" s="373">
         <f>QUARTILE(C4:C15, 2)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="374">
+      <c r="N27" s="373">
         <f>QUARTILE(C4:C15, 3)</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="O27" s="375">
+      <c r="O27" s="374">
         <f>MAX(C4:C24)</f>
         <v>146.69999999999999</v>
       </c>
       <c r="P27" s="75"/>
-      <c r="Q27" s="391"/>
+      <c r="Q27" s="390"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
       <c r="T27" s="75"/>
-      <c r="U27" s="403"/>
+      <c r="U27" s="402"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
@@ -21825,13 +21818,13 @@
       <c r="L28" s="111"/>
       <c r="M28" s="94"/>
       <c r="N28" s="75"/>
-      <c r="O28" s="320" t="s">
+      <c r="O28" s="319" t="s">
         <v>66</v>
       </c>
       <c r="P28" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q28" s="384"/>
+      <c r="Q28" s="383"/>
       <c r="R28" s="75"/>
       <c r="S28" s="75"/>
       <c r="T28" s="75"/>
@@ -21859,13 +21852,13 @@
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
       <c r="D29" s="154"/>
-      <c r="E29" s="368" t="s">
+      <c r="E29" s="367" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="369" t="s">
+      <c r="F29" s="368" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="376" t="s">
+      <c r="G29" s="375" t="s">
         <v>145</v>
       </c>
       <c r="H29" s="157"/>
@@ -21891,7 +21884,7 @@
       <c r="P29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="Q29" s="384"/>
+      <c r="Q29" s="383"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
       <c r="T29" s="75"/>
@@ -21930,7 +21923,7 @@
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="196"/>
-      <c r="J30" s="328" t="s">
+      <c r="J30" s="327" t="s">
         <v>69</v>
       </c>
       <c r="K30" s="91">
@@ -21948,15 +21941,15 @@
         <f>1-M30</f>
         <v>0.97743986734687949</v>
       </c>
-      <c r="O30" s="503">
+      <c r="O30" s="502">
         <f>2*M30</f>
         <v>4.5120265306241025E-2</v>
       </c>
-      <c r="P30" s="502">
+      <c r="P30" s="501">
         <f>2*N30</f>
         <v>1.954879734693759</v>
       </c>
-      <c r="Q30" s="384"/>
+      <c r="Q30" s="383"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
       <c r="T30" s="75"/>
@@ -22001,13 +21994,13 @@
       <c r="H31" s="121"/>
       <c r="I31" s="196"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="500">
+      <c r="K31" s="499">
         <v>1.06</v>
       </c>
       <c r="L31" s="70"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
-      <c r="Q31" s="384"/>
+      <c r="Q31" s="383"/>
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="75"/>
@@ -22061,7 +22054,7 @@
       </c>
       <c r="O32" s="75"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="384"/>
+      <c r="Q32" s="383"/>
       <c r="R32" s="75"/>
       <c r="S32" s="75"/>
       <c r="T32" s="75"/>
@@ -22094,7 +22087,7 @@
       <c r="I33" s="196"/>
       <c r="J33" s="175"/>
       <c r="K33" s="175"/>
-      <c r="L33" s="378"/>
+      <c r="L33" s="377"/>
       <c r="AG33" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22112,7 +22105,7 @@
       <c r="I34" s="196"/>
       <c r="J34" s="175"/>
       <c r="K34" s="175"/>
-      <c r="L34" s="378"/>
+      <c r="L34" s="377"/>
       <c r="AG34" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22128,7 +22121,7 @@
       <c r="C35" s="243"/>
       <c r="D35" s="154"/>
       <c r="I35" s="196"/>
-      <c r="L35" s="378"/>
+      <c r="L35" s="377"/>
       <c r="AG35" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22781,7 +22774,7 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="11" max="12" width="0.85546875" style="429" customWidth="1"/>
+    <col min="11" max="12" width="0.85546875" style="428" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1">
@@ -22806,8 +22799,8 @@
       <c r="H1" s="197">
         <v>95</v>
       </c>
-      <c r="K1" s="430"/>
-      <c r="L1" s="430"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
       <c r="A2" s="152" t="s">
@@ -22825,12 +22818,12 @@
         <f>D2^2</f>
         <v>0.97941619215917286</v>
       </c>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
+      <c r="K2" s="429"/>
+      <c r="L2" s="429"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="458"/>
-      <c r="B3" s="458"/>
+      <c r="A3" s="457"/>
+      <c r="B3" s="457"/>
       <c r="C3" s="207"/>
       <c r="D3" s="205" t="s">
         <v>92</v>
@@ -22848,15 +22841,15 @@
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="431"/>
-      <c r="L3" s="431"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="430"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="476">
+      <c r="A4" s="475">
         <v>-5</v>
       </c>
-      <c r="B4" s="476">
+      <c r="B4" s="475">
         <v>-10</v>
       </c>
       <c r="C4" s="207">
@@ -22871,21 +22864,21 @@
       <c r="H4" s="204"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="431">
+      <c r="K4" s="430">
         <f>IF( A4="",0, A4*E$6+D$6)</f>
         <v>-11.036363636363637</v>
       </c>
-      <c r="L4" s="431">
+      <c r="L4" s="430">
         <f>(K4-B4)^2</f>
         <v>1.0740495867768609</v>
       </c>
       <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A5" s="476">
+      <c r="A5" s="475">
         <v>-3</v>
       </c>
-      <c r="B5" s="476">
+      <c r="B5" s="475">
         <v>-8</v>
       </c>
       <c r="C5" s="207">
@@ -22902,21 +22895,21 @@
       <c r="G5" s="29"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="431">
+      <c r="K5" s="430">
         <f t="shared" ref="K5:K18" si="1">IF( A5="",0, A5*E$6+D$6)</f>
         <v>-6.8424242424242427</v>
       </c>
-      <c r="L5" s="431">
+      <c r="L5" s="430">
         <f t="shared" ref="L5:L18" si="2">(K5-B5)^2</f>
         <v>1.3399816345270883</v>
       </c>
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A6" s="476">
+      <c r="A6" s="475">
         <v>4</v>
       </c>
-      <c r="B6" s="476">
+      <c r="B6" s="475">
         <v>9</v>
       </c>
       <c r="C6" s="207">
@@ -22938,21 +22931,21 @@
       <c r="G6" s="123"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="431">
+      <c r="K6" s="430">
         <f t="shared" si="1"/>
         <v>7.8363636363636369</v>
       </c>
-      <c r="L6" s="431">
+      <c r="L6" s="430">
         <f t="shared" si="2"/>
         <v>1.3540495867768583</v>
       </c>
       <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="476">
+      <c r="A7" s="475">
         <v>1</v>
       </c>
-      <c r="B7" s="476">
+      <c r="B7" s="475">
         <v>1</v>
       </c>
       <c r="C7" s="207">
@@ -22971,21 +22964,21 @@
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="94"/>
-      <c r="K7" s="431">
+      <c r="K7" s="430">
         <f t="shared" si="1"/>
         <v>1.5454545454545456</v>
       </c>
-      <c r="L7" s="431">
+      <c r="L7" s="430">
         <f t="shared" si="2"/>
         <v>0.29752066115702497</v>
       </c>
       <c r="M7" s="204"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="476">
+      <c r="A8" s="475">
         <v>-1</v>
       </c>
-      <c r="B8" s="476">
+      <c r="B8" s="475">
         <v>-2</v>
       </c>
       <c r="C8" s="207">
@@ -22997,24 +22990,24 @@
       <c r="F8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="431">
+      <c r="K8" s="430">
         <f t="shared" si="1"/>
         <v>-2.6484848484848484</v>
       </c>
-      <c r="L8" s="431">
+      <c r="L8" s="430">
         <f t="shared" si="2"/>
         <v>0.42053259871441684</v>
       </c>
       <c r="M8" s="132"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="476">
+      <c r="A9" s="475">
         <v>-2</v>
       </c>
-      <c r="B9" s="476">
+      <c r="B9" s="475">
         <v>-6</v>
       </c>
-      <c r="C9" s="428">
+      <c r="C9" s="427">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -23028,24 +23021,24 @@
       <c r="G9" s="218"/>
       <c r="I9" s="30"/>
       <c r="J9" s="132"/>
-      <c r="K9" s="431">
+      <c r="K9" s="430">
         <f t="shared" si="1"/>
         <v>-4.745454545454546</v>
       </c>
-      <c r="L9" s="431">
+      <c r="L9" s="430">
         <f t="shared" si="2"/>
         <v>1.5738842975206597</v>
       </c>
       <c r="M9" s="132"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="476">
+      <c r="A10" s="475">
         <v>0</v>
       </c>
-      <c r="B10" s="476">
+      <c r="B10" s="475">
         <v>-1</v>
       </c>
-      <c r="C10" s="428">
+      <c r="C10" s="427">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23061,21 +23054,21 @@
       <c r="G10" s="29"/>
       <c r="I10" s="30"/>
       <c r="J10" s="132"/>
-      <c r="K10" s="431">
+      <c r="K10" s="430">
         <f t="shared" si="1"/>
         <v>-0.55151515151515151</v>
       </c>
-      <c r="L10" s="431">
+      <c r="L10" s="430">
         <f t="shared" si="2"/>
         <v>0.2011386593204775</v>
       </c>
       <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="476">
+      <c r="A11" s="475">
         <v>2</v>
       </c>
-      <c r="B11" s="476">
+      <c r="B11" s="475">
         <v>3</v>
       </c>
       <c r="C11" s="207">
@@ -23086,21 +23079,21 @@
       <c r="E11" s="214"/>
       <c r="I11" s="30"/>
       <c r="J11" s="132"/>
-      <c r="K11" s="431">
+      <c r="K11" s="430">
         <f t="shared" si="1"/>
         <v>3.6424242424242426</v>
       </c>
-      <c r="L11" s="431">
+      <c r="L11" s="430">
         <f t="shared" si="2"/>
         <v>0.41270890725436199</v>
       </c>
       <c r="M11" s="132"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="476">
+      <c r="A12" s="475">
         <v>3</v>
       </c>
-      <c r="B12" s="476">
+      <c r="B12" s="475">
         <v>6</v>
       </c>
       <c r="C12" s="207">
@@ -23122,21 +23115,21 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="431">
+      <c r="K12" s="430">
         <f t="shared" si="1"/>
         <v>5.7393939393939393</v>
       </c>
-      <c r="L12" s="431">
+      <c r="L12" s="430">
         <f t="shared" si="2"/>
         <v>6.7915518824609805E-2</v>
       </c>
       <c r="M12" s="132"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="476">
+      <c r="A13" s="475">
         <v>-4</v>
       </c>
-      <c r="B13" s="476">
+      <c r="B13" s="475">
         <v>-8</v>
       </c>
       <c r="C13" s="207">
@@ -23151,19 +23144,19 @@
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="132"/>
-      <c r="K13" s="431">
+      <c r="K13" s="430">
         <f t="shared" si="1"/>
         <v>-8.9393939393939394</v>
       </c>
-      <c r="L13" s="431">
+      <c r="L13" s="430">
         <f t="shared" si="2"/>
         <v>0.88246097337006435</v>
       </c>
       <c r="M13" s="132"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="475"/>
-      <c r="B14" s="475"/>
+      <c r="A14" s="474"/>
+      <c r="B14" s="474"/>
       <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23172,19 +23165,19 @@
       <c r="E14" s="76"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="431">
+      <c r="K14" s="430">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="431">
+      <c r="L14" s="430">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="475"/>
-      <c r="B15" s="475"/>
+      <c r="A15" s="474"/>
+      <c r="B15" s="474"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23195,19 +23188,19 @@
       <c r="E15" s="562"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
-      <c r="K15" s="431">
+      <c r="K15" s="430">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="431">
+      <c r="L15" s="430">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="475"/>
-      <c r="B16" s="475"/>
+      <c r="A16" s="474"/>
+      <c r="B16" s="474"/>
       <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23221,27 +23214,27 @@
       <c r="F16" s="210"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="431">
+      <c r="K16" s="430">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="431">
+      <c r="L16" s="430">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="475"/>
-      <c r="B17" s="475"/>
+      <c r="A17" s="474"/>
+      <c r="B17" s="474"/>
       <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="441">
+      <c r="D17" s="440">
         <v>2.097</v>
       </c>
-      <c r="E17" s="441">
+      <c r="E17" s="440">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -23250,19 +23243,19 @@
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="431">
+      <c r="K17" s="430">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="431">
+      <c r="L17" s="430">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="475"/>
-      <c r="B18" s="475"/>
+      <c r="A18" s="474"/>
+      <c r="B18" s="474"/>
       <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23274,11 +23267,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="121"/>
-      <c r="K18" s="431">
+      <c r="K18" s="430">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="477">
+      <c r="L18" s="476">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23288,17 +23281,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="470">
+      <c r="K19" s="469">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="470">
+      <c r="L19" s="469">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C20" s="428">
+      <c r="C20" s="427">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23308,39 +23301,39 @@
       <c r="E20" s="552"/>
       <c r="F20" s="550"/>
       <c r="G20" s="550"/>
-      <c r="K20" s="470">
+      <c r="K20" s="469">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="470">
+      <c r="L20" s="469">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C21" s="428">
+      <c r="C21" s="427">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="424">
+      <c r="D21" s="423">
         <v>2.097</v>
       </c>
-      <c r="E21" s="425">
+      <c r="E21" s="424">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="471"/>
-      <c r="G21" s="471"/>
-      <c r="K21" s="470">
+      <c r="F21" s="470"/>
+      <c r="G21" s="470"/>
+      <c r="K21" s="469">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="470">
+      <c r="L21" s="469">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
-      <c r="C22" s="428">
+      <c r="C22" s="427">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23348,19 +23341,19 @@
         <v>156</v>
       </c>
       <c r="E22" s="554"/>
-      <c r="F22" s="472"/>
-      <c r="G22" s="472"/>
-      <c r="K22" s="470">
+      <c r="F22" s="471"/>
+      <c r="G22" s="471"/>
+      <c r="K22" s="469">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="470">
+      <c r="L22" s="469">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C23" s="428">
+      <c r="C23" s="427">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23369,13 +23362,13 @@
         <v>7.624242500000002</v>
       </c>
       <c r="E23" s="556"/>
-      <c r="F23" s="473"/>
-      <c r="G23" s="474"/>
-      <c r="K23" s="470">
+      <c r="F23" s="472"/>
+      <c r="G23" s="473"/>
+      <c r="K23" s="469">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="470">
+      <c r="L23" s="469">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
@@ -23385,11 +23378,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="470">
+      <c r="K24" s="469">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="470">
+      <c r="L24" s="469">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
@@ -23399,11 +23392,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="470">
+      <c r="K25" s="469">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="470">
+      <c r="L25" s="469">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
@@ -23413,11 +23406,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="470">
+      <c r="K26" s="469">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="470">
+      <c r="L26" s="469">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
@@ -23427,11 +23420,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="470">
+      <c r="K27" s="469">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="470">
+      <c r="L27" s="469">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
@@ -23441,11 +23434,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="470">
+      <c r="K28" s="469">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="470">
+      <c r="L28" s="469">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
@@ -23455,11 +23448,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="470">
+      <c r="K29" s="469">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="470">
+      <c r="L29" s="469">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -23469,11 +23462,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="470">
+      <c r="K30" s="469">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="470">
+      <c r="L30" s="469">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -23483,24 +23476,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="470"/>
-      <c r="L31" s="470"/>
+      <c r="K31" s="469"/>
+      <c r="L31" s="469"/>
     </row>
     <row r="32" spans="1:13">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="470"/>
-      <c r="L32" s="470"/>
+      <c r="K32" s="469"/>
+      <c r="L32" s="469"/>
     </row>
     <row r="33" spans="3:12" ht="15.75" thickBot="1">
       <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="430"/>
-      <c r="L33" s="430"/>
+      <c r="K33" s="429"/>
+      <c r="L33" s="429"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Lectures\Math 1342\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Math\fredmath\Statistic\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="12045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Graphs" sheetId="5" r:id="rId6"/>
     <sheet name="dot" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2425,7 +2425,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2439,7 +2439,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="84">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3936,7 +3936,7 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -4856,9 +4856,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5192,7 +5189,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5274,6 +5270,7 @@
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5379,7 +5376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5408,7 +5405,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5555,7 +5552,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE1E-4E80-AD16-755D93056D06}"/>
             </c:ext>
@@ -5742,7 +5739,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5816,7 +5813,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F73F-46C3-B7F3-A8759BD7430C}"/>
             </c:ext>
@@ -6096,7 +6093,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6135,7 +6132,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-118C-4A35-A5E3-850465ECD9FF}"/>
               </c:ext>
@@ -6159,7 +6156,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-118C-4A35-A5E3-850465ECD9FF}"/>
               </c:ext>
@@ -6183,7 +6180,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-118C-4A35-A5E3-850465ECD9FF}"/>
               </c:ext>
@@ -6207,7 +6204,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-118C-4A35-A5E3-850465ECD9FF}"/>
               </c:ext>
@@ -6280,7 +6277,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -6325,7 +6322,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-118C-4A35-A5E3-850465ECD9FF}"/>
             </c:ext>
@@ -6448,7 +6445,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6608,7 +6605,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D33D-449F-B6B4-67BDFB6FC1DD}"/>
             </c:ext>
@@ -6885,7 +6882,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7045,7 +7042,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F09-4B08-8FB5-3467E66CF6E9}"/>
             </c:ext>
@@ -7323,7 +7320,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7458,7 +7455,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E8FE-433C-8ACA-95D6BF04678A}"/>
             </c:ext>
@@ -11150,6 +11147,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16385"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11213,6 +11213,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16386"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11278,6 +11281,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16391"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11342,6 +11348,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16392"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11400,6 +11409,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16393"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11465,6 +11477,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16398"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11529,6 +11544,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16399"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11580,6 +11598,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16400"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11630,6 +11651,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16404"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11690,6 +11714,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16405"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11748,6 +11775,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16406"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11813,6 +11843,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16407"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11871,6 +11904,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16408"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11936,6 +11972,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16409"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11987,6 +12026,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16410"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12037,6 +12079,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16411"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12102,6 +12147,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16412"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12160,6 +12208,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16415"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12220,6 +12271,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16419"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12278,6 +12332,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16420"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12338,6 +12395,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16421"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12396,6 +12456,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16422"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12456,6 +12519,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16423"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12514,6 +12580,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16424"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12574,6 +12643,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16425"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12625,6 +12697,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16426"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12675,6 +12750,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16427"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12735,6 +12813,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16428"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12793,6 +12874,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16429"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12858,6 +12942,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16430"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12922,6 +13009,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16431"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F400000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12980,6 +13070,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16435"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13050,6 +13143,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12308"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13113,6 +13209,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12309"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13178,6 +13277,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12310"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13241,6 +13343,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12311"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13306,6 +13411,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12312"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13370,6 +13478,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12316"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13428,6 +13539,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12318"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13488,6 +13602,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12319"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13546,6 +13663,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12322"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13606,6 +13726,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12334"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13664,6 +13787,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12335"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13724,6 +13850,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12336"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13782,6 +13911,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12337"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13847,6 +13979,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12341"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13905,6 +14040,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12342"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13965,6 +14103,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12343"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14023,6 +14164,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12344"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14088,6 +14232,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12347"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14146,6 +14293,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12348"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14206,6 +14356,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12349"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14264,6 +14417,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12350"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14329,6 +14485,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12351"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14387,6 +14546,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12352"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040300000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14447,6 +14609,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s12353"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041300000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14504,7 +14669,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14533,7 +14704,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14678,6 +14855,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s13316"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004340000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14737,6 +14917,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s13317"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005340000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14794,7 +14977,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14826,7 +15015,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14863,7 +15058,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14893,7 +15094,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvPr id="30" name="Chart 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14925,7 +15132,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15208,11 +15421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="3" width="7.28515625" customWidth="1"/>
@@ -15230,7 +15443,7 @@
     <col min="17" max="18" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I1" s="12"/>
       <c r="J1" s="108"/>
       <c r="K1" s="108"/>
@@ -15238,19 +15451,19 @@
       <c r="M1" s="12"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="2:20" ht="16.5" thickBot="1">
+    <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23">
         <f>COUNT(B5:B60)</f>
         <v>10</v>
       </c>
-      <c r="E2" s="529" t="s">
+      <c r="E2" s="528" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="530"/>
-      <c r="G2" s="531" t="s">
+      <c r="F2" s="529"/>
+      <c r="G2" s="530" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="532"/>
+      <c r="H2" s="531"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -15259,7 +15472,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="2:20" ht="18" thickBot="1">
+    <row r="3" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -15292,9 +15505,9 @@
       </c>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B4" s="456"/>
-      <c r="C4" s="456"/>
+    <row r="4" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="455"/>
+      <c r="C4" s="455"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
@@ -15312,10 +15525,10 @@
         <f>MEDIAN(C5:C60)</f>
         <v>67</v>
       </c>
-      <c r="J4" s="417" t="s">
+      <c r="J4" s="416" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="450"/>
+      <c r="K4" s="449"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -15323,8 +15536,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="459"/>
-      <c r="P4" s="459"/>
+      <c r="O4" s="458"/>
+      <c r="P4" s="458"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -15335,8 +15548,8 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B5" s="527">
+    <row r="5" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="525">
         <v>147</v>
       </c>
       <c r="C5" s="3">
@@ -15355,11 +15568,11 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="454">
+      <c r="J5" s="453">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="449" t="s">
+      <c r="K5" s="448" t="s">
         <v>163</v>
       </c>
       <c r="M5">
@@ -15372,7 +15585,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="458">
+      <c r="P5" s="457">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -15388,8 +15601,8 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B6" s="527">
+    <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="525">
         <v>150</v>
       </c>
       <c r="C6" s="3">
@@ -15412,11 +15625,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="442">
+      <c r="J6" s="441">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="447">
+      <c r="K6" s="446">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -15427,7 +15640,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="458">
+      <c r="P6" s="457">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -15444,8 +15657,8 @@
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="527">
+    <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="525">
         <v>180</v>
       </c>
       <c r="C7" s="3">
@@ -15464,11 +15677,11 @@
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="441">
+      <c r="J7" s="440">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="447">
+      <c r="K7" s="446">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15476,7 +15689,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="458">
+      <c r="P7" s="457">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15488,13 +15701,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B8" s="527">
+    <row r="8" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="525">
         <v>189</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="466">
+      <c r="E8" s="465">
         <f>_xlfn.STDEV.P(B5:B60)</f>
         <v>139.00651063889057</v>
       </c>
@@ -15502,7 +15715,7 @@
         <f>E8^2</f>
         <v>19322.809999999998</v>
       </c>
-      <c r="G8" s="466">
+      <c r="G8" s="465">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15511,11 +15724,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="441">
+      <c r="J8" s="440">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="447">
+      <c r="K8" s="446">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15525,7 +15738,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="458">
+      <c r="P8" s="457">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15537,8 +15750,8 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75">
-      <c r="B9" s="527">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="525">
         <v>210</v>
       </c>
       <c r="C9" s="3"/>
@@ -15550,11 +15763,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="441">
+      <c r="J9" s="440">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="447">
+      <c r="K9" s="446">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15562,7 +15775,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="458">
+      <c r="P9" s="457">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15578,8 +15791,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B10" s="527">
+    <row r="10" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="525">
         <v>320</v>
       </c>
       <c r="C10" s="3"/>
@@ -15593,8 +15806,8 @@
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="441"/>
-      <c r="K10" s="447" t="str">
+      <c r="J10" s="440"/>
+      <c r="K10" s="446" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15602,7 +15815,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="458"/>
+      <c r="P10" s="457"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15616,8 +15829,8 @@
         <v>1051.5</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75">
-      <c r="B11" s="527">
+    <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="525">
         <v>375</v>
       </c>
       <c r="C11" s="3"/>
@@ -15630,8 +15843,8 @@
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="441"/>
-      <c r="K11" s="447" t="str">
+      <c r="J11" s="440"/>
+      <c r="K11" s="446" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15639,7 +15852,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="458"/>
+      <c r="P11" s="457"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15653,8 +15866,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.75">
-      <c r="B12" s="527">
+    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="525">
         <v>407</v>
       </c>
       <c r="C12" s="3"/>
@@ -15662,14 +15875,14 @@
       <c r="E12" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="564">
+      <c r="F12" s="527">
         <f>(F11-E4)/(E6)</f>
         <v>-1.7034551123187456</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="441"/>
-      <c r="K12" s="447" t="str">
+      <c r="J12" s="440"/>
+      <c r="K12" s="446" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15687,8 +15900,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75">
-      <c r="B13" s="527">
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="525">
         <v>429</v>
       </c>
       <c r="C13" s="3"/>
@@ -15697,8 +15910,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="446"/>
-      <c r="K13" s="447" t="str">
+      <c r="J13" s="445"/>
+      <c r="K13" s="446" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15716,14 +15929,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B14" s="527">
+    <row r="14" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="525">
         <v>580</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="446"/>
-      <c r="K14" s="447" t="str">
+      <c r="J14" s="445"/>
+      <c r="K14" s="446" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15741,8 +15954,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="527"/>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="525"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="251" t="s">
@@ -15774,8 +15987,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B16" s="527"/>
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="525"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="252">
@@ -15812,8 +16025,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B17" s="527"/>
+    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="525"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="253" t="s">
@@ -15845,8 +16058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B18" s="527"/>
+    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="525"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="254">
@@ -15882,8 +16095,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B19" s="527"/>
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="525"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -15897,8 +16110,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B20" s="527"/>
+    <row r="20" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="525"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
       <c r="E20" s="255" t="s">
@@ -15922,8 +16135,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="15.75">
-      <c r="B21" s="527"/>
+    <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="525"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="255" t="s">
@@ -15937,7 +16150,7 @@
         <v>1.0000000000000009</v>
       </c>
       <c r="J21"/>
-      <c r="K21" s="455"/>
+      <c r="K21" s="454"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -15949,8 +16162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75">
-      <c r="B22" s="527"/>
+    <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="525"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
       <c r="E22" s="255" t="s">
@@ -15960,7 +16173,7 @@
         <v>0.06</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="528"/>
+      <c r="I22" s="526"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -15972,8 +16185,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="527"/>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="525"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="O23" s="56"/>
@@ -15987,8 +16200,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="483"/>
+    <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="482"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="57">
@@ -16000,7 +16213,7 @@
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="467"/>
+      <c r="H24" s="466"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -16009,8 +16222,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15.75">
-      <c r="B25" s="527"/>
+    <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="525"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="58">
@@ -16019,7 +16232,7 @@
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="467"/>
+      <c r="H25" s="466"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -16028,8 +16241,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B26" s="527"/>
+    <row r="26" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="525"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="58">
@@ -16038,7 +16251,7 @@
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="467"/>
+      <c r="H26" s="466"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -16047,134 +16260,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="527"/>
+    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="525"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="467"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.75">
-      <c r="B28" s="527"/>
+      <c r="H27" s="466"/>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="525"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="467"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75">
-      <c r="B29" s="527"/>
+      <c r="H28" s="466"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="525"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="467"/>
-    </row>
-    <row r="30" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B30" s="483"/>
+      <c r="H29" s="466"/>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="482"/>
       <c r="D30" s="6"/>
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="467"/>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="483"/>
+      <c r="H30" s="466"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="482"/>
       <c r="D31" s="5"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="467"/>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="B32" s="483"/>
+      <c r="H31" s="466"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="482"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="468"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="483"/>
+      <c r="H32" s="467"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="482"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="483"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="482"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B35" s="483"/>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="482"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="483"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="483"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="483"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="483"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="483"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="483"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75">
-      <c r="B42" s="483"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="482"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="482"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="482"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="482"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="482"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="482"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="482"/>
       <c r="E42" s="46"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:6" ht="15.75">
-      <c r="B43" s="483"/>
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="482"/>
       <c r="E43" s="46"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75">
-      <c r="B44" s="483"/>
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="482"/>
       <c r="E44" s="46"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:6" ht="15.75">
-      <c r="B45" s="483"/>
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="482"/>
       <c r="E45" s="46"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:6" ht="15.75">
-      <c r="B46" s="483"/>
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="482"/>
       <c r="E46" s="46"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75">
-      <c r="B47" s="483"/>
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="482"/>
       <c r="E47" s="46"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="483"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="483"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="483"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="483"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="483"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="483"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="483"/>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="482"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="482"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="482"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="482"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="482"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="482"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="482"/>
     </row>
   </sheetData>
   <sortState ref="B5:B14">
@@ -16200,7 +16413,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -16222,7 +16435,7 @@
     <col min="21" max="21" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickBot="1">
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66"/>
       <c r="B1" s="70" t="s">
         <v>30</v>
@@ -16252,15 +16465,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.5" thickBot="1">
+    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
-      <c r="B2" s="486">
+      <c r="B2" s="485">
         <v>0</v>
       </c>
-      <c r="C2" s="486">
+      <c r="C2" s="485">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D2" s="426">
+      <c r="D2" s="425">
         <f>(B2-$G$2)^2 *C2</f>
         <v>0.90720000000000034</v>
       </c>
@@ -16296,7 +16509,7 @@
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
-      <c r="Q2" s="417" t="s">
+      <c r="Q2" s="416" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="70" t="s">
@@ -16308,10 +16521,10 @@
       <c r="T2" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="V2" s="483">
+      <c r="V2" s="482">
         <v>10</v>
       </c>
-      <c r="W2" s="487" t="s">
+      <c r="W2" s="486" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -16319,12 +16532,12 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1">
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="486">
+      <c r="B3" s="485">
         <v>1</v>
       </c>
-      <c r="C3" s="486">
+      <c r="C3" s="485">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -16354,23 +16567,23 @@
       <c r="M3" s="94"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
-      <c r="Q3" s="418">
+      <c r="Q3" s="417">
         <v>1</v>
       </c>
-      <c r="R3" s="419">
+      <c r="R3" s="418">
         <v>38</v>
       </c>
-      <c r="S3" s="420">
+      <c r="S3" s="419">
         <v>245</v>
       </c>
-      <c r="T3" s="425">
+      <c r="T3" s="424">
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="483">
+      <c r="V3" s="482">
         <v>10</v>
       </c>
-      <c r="W3" s="488" t="s">
+      <c r="W3" s="487" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -16378,12 +16591,12 @@
         <v>1.8537158968576135</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" thickBot="1">
+    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
-      <c r="B4" s="486">
+      <c r="B4" s="485">
         <v>2</v>
       </c>
-      <c r="C4" s="486">
+      <c r="C4" s="485">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16409,27 +16622,27 @@
       <c r="M4" s="95"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
-      <c r="Q4" s="421">
+      <c r="Q4" s="420">
         <v>37</v>
       </c>
       <c r="R4" s="250">
         <v>38</v>
       </c>
-      <c r="S4" s="422">
+      <c r="S4" s="421">
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="483">
+      <c r="V4" s="482">
         <v>9</v>
       </c>
       <c r="W4" s="283"/>
     </row>
-    <row r="5" spans="1:24" ht="16.5" thickBot="1">
+    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
-      <c r="B5" s="486">
+      <c r="B5" s="485">
         <v>3</v>
       </c>
-      <c r="C5" s="486">
+      <c r="C5" s="485">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16466,20 +16679,20 @@
       <c r="O5" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="421"/>
+      <c r="Q5" s="420"/>
       <c r="R5" s="250"/>
-      <c r="S5" s="422"/>
+      <c r="S5" s="421"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="483">
+      <c r="V5" s="482">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16.5" thickBot="1">
+    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
-      <c r="B6" s="486">
+      <c r="B6" s="485">
         <v>5</v>
       </c>
-      <c r="C6" s="486">
+      <c r="C6" s="485">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16509,7 +16722,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.88051957581093498</v>
       </c>
-      <c r="M6" s="481">
+      <c r="M6" s="480">
         <f>1-L6+K6</f>
         <v>0.19064890656751515</v>
       </c>
@@ -16522,25 +16735,25 @@
         <v>0.15418936294109509</v>
       </c>
       <c r="P6" s="256"/>
-      <c r="Q6" s="423"/>
-      <c r="R6" s="490" t="s">
+      <c r="Q6" s="422"/>
+      <c r="R6" s="489" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="424">
+      <c r="S6" s="423">
         <v>1000</v>
       </c>
-      <c r="T6" s="489">
+      <c r="T6" s="488">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="483">
+      <c r="V6" s="482">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" thickBot="1">
+    <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
-      <c r="B7" s="486"/>
-      <c r="C7" s="486"/>
+      <c r="B7" s="485"/>
+      <c r="C7" s="485"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16569,20 +16782,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="482" t="s">
+      <c r="N7" s="481" t="s">
         <v>167</v>
       </c>
       <c r="O7" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="V7" s="483">
+      <c r="V7" s="482">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16.5" thickBot="1">
+    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="478"/>
+      <c r="C8" s="477"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16591,7 +16804,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="465">
+      <c r="F8" s="464">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
@@ -16603,7 +16816,7 @@
       <c r="J8" s="76">
         <v>37</v>
       </c>
-      <c r="K8" s="480">
+      <c r="K8" s="479">
         <f>J5*J6</f>
         <v>31.5</v>
       </c>
@@ -16623,11 +16836,11 @@
         <f>1-L6</f>
         <v>0.11948042418906502</v>
       </c>
-      <c r="V8" s="483">
+      <c r="V8" s="482">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="77"/>
       <c r="C9" s="131"/>
@@ -16650,14 +16863,14 @@
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="479"/>
+      <c r="N9" s="478"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="477"/>
-      <c r="V9" s="483">
+      <c r="T9" s="476"/>
+      <c r="V9" s="482">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.5" thickBot="1">
+    <row r="10" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" s="77"/>
       <c r="C10" s="91"/>
@@ -16679,11 +16892,11 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="483">
+      <c r="V10" s="482">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16.5" thickBot="1">
+    <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="78"/>
       <c r="C11" s="97"/>
@@ -16695,10 +16908,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="417" t="s">
+      <c r="F11" s="416" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="450"/>
+      <c r="G11" s="449"/>
       <c r="H11" s="261"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
@@ -16719,21 +16932,21 @@
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="483">
+      <c r="V11" s="482">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.5" thickBot="1">
+    <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="448">
+      <c r="F12" s="447">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="449" t="s">
+      <c r="G12" s="448" t="s">
         <v>163</v>
       </c>
       <c r="H12" s="261"/>
@@ -16760,20 +16973,20 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="483">
+      <c r="V12" s="482">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="443"/>
-      <c r="F13" s="483">
+      <c r="E13" s="442"/>
+      <c r="F13" s="482">
         <v>12</v>
       </c>
-      <c r="G13" s="484">
+      <c r="G13" s="483">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
@@ -16789,20 +17002,20 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="483">
+      <c r="V13" s="482">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="460"/>
+      <c r="C14" s="459"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="443"/>
-      <c r="F14" s="483">
+      <c r="E14" s="442"/>
+      <c r="F14" s="482">
         <v>33</v>
       </c>
-      <c r="G14" s="485">
+      <c r="G14" s="484">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
@@ -16818,20 +17031,20 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="483">
+      <c r="V14" s="482">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.5" thickBot="1">
+    <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="462"/>
+      <c r="C15" s="461"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="444"/>
-      <c r="F15" s="483">
+      <c r="E15" s="443"/>
+      <c r="F15" s="482">
         <v>29</v>
       </c>
-      <c r="G15" s="485">
+      <c r="G15" s="484">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
@@ -16851,20 +17064,20 @@
         <v>171</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="483">
+      <c r="V15" s="482">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.5" thickBot="1">
+    <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="461"/>
+      <c r="C16" s="460"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="483">
+      <c r="F16" s="482">
         <v>11</v>
       </c>
-      <c r="G16" s="485">
+      <c r="G16" s="484">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
@@ -16877,27 +17090,27 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="492" t="s">
+      <c r="M16" s="491" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="493" t="s">
+      <c r="N16" s="492" t="s">
         <v>172</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="483">
+      <c r="V16" s="482">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" thickBot="1">
+    <row r="17" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66"/>
       <c r="B17" s="66"/>
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="463">
+      <c r="F17" s="462">
         <v>6</v>
       </c>
-      <c r="G17" s="445">
+      <c r="G17" s="444">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
@@ -16925,18 +17138,18 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="483">
+      <c r="V17" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.25" thickBot="1">
+    <row r="18" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="463">
+      <c r="F18" s="462">
         <v>2</v>
       </c>
-      <c r="G18" s="445">
+      <c r="G18" s="444">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -16952,23 +17165,23 @@
       </c>
       <c r="M18" s="256"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="483">
+      <c r="V18" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" thickBot="1">
+    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="464">
+      <c r="F19" s="463">
         <v>3</v>
       </c>
-      <c r="G19" s="445">
+      <c r="G19" s="444">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H19" s="262"/>
-      <c r="I19" s="491" t="s">
+      <c r="I19" s="490" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
@@ -16979,18 +17192,18 @@
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="483">
+      <c r="V19" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" customHeight="1">
+    <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="464">
+      <c r="F20" s="463">
         <v>1</v>
       </c>
-      <c r="G20" s="445">
+      <c r="G20" s="444">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -17005,18 +17218,18 @@
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="483">
+      <c r="V20" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" thickBot="1">
+    <row r="21" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="464">
+      <c r="F21" s="463">
         <v>1</v>
       </c>
-      <c r="G21" s="445">
+      <c r="G21" s="444">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
@@ -17032,50 +17245,50 @@
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="483">
+      <c r="V21" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="464">
+      <c r="F22" s="463">
         <v>2</v>
       </c>
-      <c r="G22" s="445">
+      <c r="G22" s="444">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H22" s="262"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="483">
+      <c r="V22" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="464"/>
-      <c r="G23" s="445" t="str">
+      <c r="F23" s="463"/>
+      <c r="G23" s="444" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" s="262"/>
-      <c r="J23" s="533"/>
-      <c r="K23" s="533"/>
+      <c r="J23" s="532"/>
+      <c r="K23" s="532"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="483">
+      <c r="V23" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" thickBot="1">
+    <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="464"/>
-      <c r="G24" s="445" t="str">
+      <c r="F24" s="463"/>
+      <c r="G24" s="444" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -17096,11 +17309,11 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="483">
+      <c r="V24" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" thickBot="1">
+    <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="29"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
@@ -17124,11 +17337,11 @@
         <f>1-L25</f>
         <v>3.1606145797329344E-3</v>
       </c>
-      <c r="V25" s="483">
+      <c r="V25" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" thickBot="1">
+    <row r="26" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="29"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
@@ -17145,11 +17358,11 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="483">
+      <c r="V26" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18" thickBot="1">
+    <row r="27" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="29"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
@@ -17165,491 +17378,491 @@
         <f>J26/SQRT(J27)</f>
         <v>0.44312024954356982</v>
       </c>
-      <c r="V27" s="483">
+      <c r="V27" s="482">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="H28" s="262"/>
-      <c r="V28" s="483">
+      <c r="V28" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
       <c r="H29" s="262"/>
-      <c r="V29" s="483">
+      <c r="V29" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C30" s="29"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="483">
+      <c r="V30" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C31" s="29"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="483">
+      <c r="V31" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C32" s="29"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="483">
+      <c r="V32" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C33" s="29"/>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="483">
+      <c r="V33" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:22">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C34" s="29"/>
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="483">
+      <c r="V34" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="29"/>
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="483">
+      <c r="V35" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:22">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" s="29"/>
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="483">
+      <c r="V36" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="29"/>
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="483">
+      <c r="V37" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C38" s="29"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="483">
+      <c r="V38" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:22">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C39" s="29"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="483">
+      <c r="V39" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="483">
+      <c r="V40" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:22">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="483">
+      <c r="V41" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:22">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="483">
+      <c r="V42" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:22">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C43" s="29"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="483">
+      <c r="V43" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:22">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C44" s="29"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="483">
+      <c r="V44" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:22">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C45" s="29"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="483">
+      <c r="V45" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:22">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C46" s="29"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="483">
+      <c r="V46" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="3:22">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C47" s="29"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="483">
+      <c r="V47" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:22">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C48" s="29"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="483">
+      <c r="V48" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:22">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C49" s="29"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="483">
+      <c r="V49" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:22">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C50" s="29"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="483">
+      <c r="V50" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:22">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C51" s="29"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="483">
+      <c r="V51" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="3:22">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C52" s="29"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="483">
+      <c r="V52" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:22">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C53" s="29"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="483">
+      <c r="V53" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:22">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C54" s="29"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="483">
+      <c r="V54" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:22">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C55" s="29"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="483">
+      <c r="V55" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:22">
-      <c r="V56" s="483">
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V56" s="482">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:22">
-      <c r="V57" s="483">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V57" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:22">
-      <c r="V58" s="483">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V58" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:22">
-      <c r="V59" s="483">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V59" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:22">
-      <c r="V60" s="483">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V60" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="3:22">
-      <c r="V61" s="483">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V61" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="3:22">
-      <c r="V62" s="483">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V62" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="3:22">
-      <c r="V63" s="483">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V63" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="3:22">
-      <c r="V64" s="483">
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V64" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="22:22">
-      <c r="V65" s="483">
+    <row r="65" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V65" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="22:22">
-      <c r="V66" s="483">
+    <row r="66" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V66" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="22:22">
-      <c r="V67" s="483">
+    <row r="67" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V67" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="22:22">
-      <c r="V68" s="483">
+    <row r="68" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V68" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="22:22">
-      <c r="V69" s="483">
+    <row r="69" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V69" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="22:22">
-      <c r="V70" s="483">
+    <row r="70" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V70" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="22:22">
-      <c r="V71" s="483">
+    <row r="71" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V71" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="22:22">
-      <c r="V72" s="483">
+    <row r="72" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V72" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="22:22">
-      <c r="V73" s="483">
+    <row r="73" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V73" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="22:22">
-      <c r="V74" s="483">
+    <row r="74" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V74" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="22:22">
-      <c r="V75" s="483">
+    <row r="75" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V75" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="22:22">
-      <c r="V76" s="483">
+    <row r="76" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V76" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="22:22">
-      <c r="V77" s="483">
+    <row r="77" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V77" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="22:22">
-      <c r="V78" s="483">
+    <row r="78" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V78" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="22:22">
-      <c r="V79" s="483">
+    <row r="79" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V79" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="22:22">
-      <c r="V80" s="483">
+    <row r="80" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V80" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="22:22">
-      <c r="V81" s="483">
+    <row r="81" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V81" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="22:22">
-      <c r="V82" s="483">
+    <row r="82" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V82" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="22:22">
-      <c r="V83" s="483">
+    <row r="83" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V83" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="22:22">
-      <c r="V84" s="483">
+    <row r="84" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V84" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="22:22">
-      <c r="V85" s="483">
+    <row r="85" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V85" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="22:22">
-      <c r="V86" s="483">
+    <row r="86" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V86" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="22:22">
-      <c r="V87" s="483">
+    <row r="87" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V87" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="22:22">
-      <c r="V88" s="483">
+    <row r="88" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V88" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="22:22">
-      <c r="V89" s="483">
+    <row r="89" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V89" s="482">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="22:22">
-      <c r="V90" s="483">
+    <row r="90" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V90" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="22:22">
-      <c r="V91" s="483">
+    <row r="91" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V91" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="22:22">
-      <c r="V92" s="483">
+    <row r="92" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V92" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="22:22">
-      <c r="V93" s="483">
+    <row r="93" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V93" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="22:22">
-      <c r="V94" s="483">
+    <row r="94" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V94" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="22:22">
-      <c r="V95" s="483">
+    <row r="95" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V95" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="22:22">
-      <c r="V96" s="483">
+    <row r="96" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V96" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="22:22">
-      <c r="V97" s="483">
+    <row r="97" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V97" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="22:22">
-      <c r="V98" s="483">
+    <row r="98" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V98" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="22:22">
-      <c r="V99" s="483">
+    <row r="99" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V99" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="22:22">
-      <c r="V100" s="483">
+    <row r="100" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V100" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="22:22">
-      <c r="V101" s="483">
+    <row r="101" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V101" s="482">
         <v>1</v>
       </c>
     </row>
@@ -17672,15 +17885,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="4" width="0.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.140625" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
@@ -17704,7 +17918,7 @@
     <col min="27" max="27" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>30</v>
       </c>
@@ -17724,16 +17938,16 @@
       <c r="N1" s="302"/>
       <c r="U1" s="336"/>
     </row>
-    <row r="2" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A2" s="497">
+    <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="563">
         <v>0</v>
       </c>
-      <c r="B2" s="497">
-        <v>0.46200000000000002</v>
+      <c r="B2" s="563">
+        <v>0.38600000000000001</v>
       </c>
       <c r="C2" s="106">
         <f>(A2-$F$2)^2 *B2</f>
-        <v>0.86586238199999976</v>
+        <v>0.50782507399999999</v>
       </c>
       <c r="D2" s="85">
         <f>A2*B2</f>
@@ -17744,20 +17958,21 @@
       </c>
       <c r="F2" s="348">
         <f>SUM(D2:D6)</f>
-        <v>1.3689999999999998</v>
+        <v>1.147</v>
       </c>
       <c r="G2" s="355" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="356">
-        <v>0</v>
+        <f>F2</f>
+        <v>1.147</v>
       </c>
       <c r="I2" s="100" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="124">
         <f>H2</f>
-        <v>0</v>
+        <v>1.147</v>
       </c>
       <c r="K2" s="357"/>
       <c r="L2" s="343"/>
@@ -17769,40 +17984,41 @@
       <c r="U2" s="337"/>
       <c r="X2" s="140"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A3" s="497">
+    <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="563">
         <v>1</v>
       </c>
-      <c r="B3" s="497">
-        <v>7.3999999999999996E-2</v>
+      <c r="B3" s="563">
+        <v>0.307</v>
       </c>
       <c r="C3" s="106">
-        <f t="shared" ref="C3:C4" si="0">(A3-$F$2)^2 *B3</f>
-        <v>1.0075913999999988E-2</v>
+        <f t="shared" ref="C3:C6" si="0">(A3-$F$2)^2 *B3</f>
+        <v>6.6339630000000023E-3</v>
       </c>
       <c r="D3" s="85">
         <f t="shared" ref="D3:D6" si="1">A3*B3</f>
-        <v>7.3999999999999996E-2</v>
+        <v>0.307</v>
       </c>
       <c r="E3" s="103" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="349">
         <f>SUM(C2:C6)</f>
-        <v>0.9738859019999998</v>
+        <v>1.4933909999999999</v>
       </c>
       <c r="G3" s="358" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="359">
-        <v>1.88</v>
+      <c r="H3" s="459">
+        <f>F4</f>
+        <v>1.2220437799031587</v>
       </c>
       <c r="I3" s="100" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="121">
         <f>H3/SQRT(H4)</f>
-        <v>0.44312024954356982</v>
+        <v>0.54651459266885083</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="313"/>
@@ -17827,38 +18043,38 @@
       <c r="Y3" s="121"/>
       <c r="Z3" s="126"/>
     </row>
-    <row r="4" spans="1:27" ht="18" thickBot="1">
-      <c r="A4" s="497">
+    <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="563">
         <v>2</v>
       </c>
-      <c r="B4" s="497">
-        <v>0.246</v>
+      <c r="B4" s="563">
+        <v>0.153</v>
       </c>
       <c r="C4" s="106">
         <f t="shared" si="0"/>
-        <v>9.7947606000000062E-2</v>
+        <v>0.111324177</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>0.49199999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="350">
         <f>SQRT(F3)</f>
-        <v>0.98685657620547873</v>
-      </c>
-      <c r="G4" s="360" t="s">
+        <v>1.2220437799031587</v>
+      </c>
+      <c r="G4" s="359" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="287">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I4" s="185"/>
-      <c r="J4" s="431">
+      <c r="J4" s="430">
         <f>SQRT(H6*(1-H6)/H4)</f>
-        <v>9.7638790105845391E-2</v>
+        <v>0.18525657883055058</v>
       </c>
       <c r="K4" s="285"/>
       <c r="L4" s="273">
@@ -17900,24 +18116,27 @@
       </c>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="18" thickBot="1">
-      <c r="A5" s="497">
+    <row r="5" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="563">
         <v>3</v>
       </c>
-      <c r="B5" s="497">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C5" s="106"/>
+      <c r="B5" s="563">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C5" s="106">
+        <f t="shared" si="0"/>
+        <v>0.28155593800000001</v>
+      </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>0.20700000000000002</v>
-      </c>
-      <c r="E5" s="432">
+        <v>0.246</v>
+      </c>
+      <c r="E5" s="431">
         <f>A2*B2+A3*B3</f>
-        <v>7.3999999999999996E-2</v>
+        <v>0.307</v>
       </c>
       <c r="F5" s="218"/>
-      <c r="G5" s="360" t="s">
+      <c r="G5" s="359" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="287">
@@ -17928,14 +18147,14 @@
       </c>
       <c r="J5" s="286">
         <f>H4*H6*(1-H6)</f>
-        <v>3.0888</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="K5" s="282" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="182">
         <f>H4/H5</f>
-        <v>8.9999999999999998E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="N5" s="329"/>
       <c r="O5" s="292" t="s">
@@ -17965,21 +18184,24 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="20.25" thickBot="1">
-      <c r="A6" s="497">
+    <row r="6" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="563">
         <v>4</v>
       </c>
-      <c r="B6" s="497">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="C6" s="106"/>
+      <c r="B6" s="563">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C6" s="106">
+        <f t="shared" si="0"/>
+        <v>0.58605184799999988</v>
+      </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>0.59599999999999997</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="E6" s="283"/>
       <c r="F6" s="218"/>
-      <c r="G6" s="360" t="s">
+      <c r="G6" s="359" t="s">
         <v>115</v>
       </c>
       <c r="H6" s="287">
@@ -17988,7 +18210,7 @@
       <c r="I6" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="377">
+      <c r="J6" s="376">
         <f>ROUND(H8/H6, 0)</f>
         <v>2</v>
       </c>
@@ -18012,7 +18234,7 @@
         <v>45.992187499999993</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1">
+    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="308"/>
       <c r="B7" s="311" t="s">
         <v>124</v>
@@ -18034,7 +18256,7 @@
       </c>
       <c r="J7" s="273">
         <f>H7*SQRT(H4)</f>
-        <v>343.65389565666209</v>
+        <v>181.12150617748298</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="313"/>
@@ -18057,20 +18279,20 @@
       <c r="W7" s="235">
         <v>15</v>
       </c>
-      <c r="X7" s="538" t="s">
+      <c r="X7" s="537" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="539"/>
-      <c r="Z7" s="540"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
+      <c r="Y7" s="538"/>
+      <c r="Z7" s="539"/>
+    </row>
+    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="279"/>
       <c r="B8" s="309"/>
       <c r="C8" s="310"/>
       <c r="D8" s="85"/>
       <c r="E8" s="155">
         <f>IF(B9="","",AVERAGE(B9:B30))</f>
-        <v>0.15580000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="358" t="s">
@@ -18120,10 +18342,10 @@
       </c>
       <c r="Z8" s="346"/>
     </row>
-    <row r="9" spans="1:27" ht="16.5" thickBot="1">
+    <row r="9" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="279"/>
-      <c r="B9" s="498">
-        <v>6.5000000000000002E-2</v>
+      <c r="B9" s="563">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C9" s="310"/>
       <c r="D9" s="85"/>
@@ -18131,7 +18353,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="361" t="s">
+      <c r="G9" s="360" t="s">
         <v>106</v>
       </c>
       <c r="H9" s="288">
@@ -18139,19 +18361,19 @@
       </c>
       <c r="I9" s="276">
         <f>ROUND((H8-H2)/H3,2)</f>
-        <v>0.64</v>
+        <v>0.05</v>
       </c>
       <c r="J9" s="277">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
-        <v>0.74008809504644812</v>
+        <v>0.52055755747088472</v>
       </c>
       <c r="K9" s="277">
         <f>1-J9</f>
-        <v>0.25991190495355188</v>
+        <v>0.47944244252911528</v>
       </c>
       <c r="L9" s="278">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
-        <v>0.25991190495355188</v>
+        <v>0.47944244252911528</v>
       </c>
       <c r="N9" s="329"/>
       <c r="O9" s="94"/>
@@ -18176,18 +18398,18 @@
         <v>5.6239671983677817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
+    <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="279"/>
-      <c r="B10" s="498">
-        <v>0.185</v>
+      <c r="B10" s="563">
+        <v>0.108</v>
       </c>
       <c r="C10" s="310"/>
       <c r="D10" s="85"/>
       <c r="E10" s="347">
         <f>_xlfn.STDEV.S(B9:B30)</f>
-        <v>9.4021037834920523E-2</v>
-      </c>
-      <c r="G10" s="362"/>
+        <v>0.15598878164791208</v>
+      </c>
+      <c r="G10" s="361"/>
       <c r="H10" s="281" t="s">
         <v>112</v>
       </c>
@@ -18223,28 +18445,28 @@
       <c r="X10" s="159"/>
       <c r="Y10" s="94"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" thickBot="1">
+    <row r="11" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="279"/>
-      <c r="B11" s="498">
-        <v>7.3999999999999996E-2</v>
+      <c r="B11" s="563">
+        <v>0.115</v>
       </c>
       <c r="C11" s="310"/>
       <c r="D11" s="85"/>
       <c r="I11" s="353">
         <f>ROUND((H8-H2)/H7, 2)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J11" s="354">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
-        <v>0.5039893563146316</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="354">
         <f>1-J11</f>
-        <v>0.4960106436853684</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="156">
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
-        <v>0.4960106436853684</v>
+        <v>0.5</v>
       </c>
       <c r="N11" s="329"/>
       <c r="O11" s="306" t="s">
@@ -18270,18 +18492,18 @@
       </c>
       <c r="Y11" s="111"/>
     </row>
-    <row r="12" spans="1:27" ht="16.5" thickBot="1">
+    <row r="12" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="279"/>
-      <c r="B12" s="498">
-        <v>0.126</v>
+      <c r="B12" s="563">
+        <v>0.29199999999999998</v>
       </c>
       <c r="C12" s="310"/>
       <c r="D12" s="85"/>
       <c r="N12" s="329"/>
-      <c r="O12" s="534" t="s">
+      <c r="O12" s="533" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="535"/>
+      <c r="P12" s="534"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
         <v>2.0210753903062715</v>
@@ -18294,10 +18516,10 @@
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" thickBot="1">
+    <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="279"/>
-      <c r="B13" s="498">
-        <v>6.0999999999999999E-2</v>
+      <c r="B13" s="563">
+        <v>0.42899999999999999</v>
       </c>
       <c r="C13" s="310"/>
       <c r="D13" s="85"/>
@@ -18321,11 +18543,9 @@
       <c r="R13" s="66"/>
       <c r="U13" s="337"/>
     </row>
-    <row r="14" spans="1:27" ht="18" thickBot="1">
+    <row r="14" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="312"/>
-      <c r="B14" s="498">
-        <v>0.24399999999999999</v>
-      </c>
+      <c r="B14" s="496"/>
       <c r="C14" s="310"/>
       <c r="D14" s="85"/>
       <c r="G14" s="90"/>
@@ -18360,34 +18580,32 @@
       <c r="T14" s="29"/>
       <c r="U14" s="337"/>
     </row>
-    <row r="15" spans="1:27" ht="16.5" thickBot="1">
+    <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="312"/>
-      <c r="B15" s="498">
-        <v>0.25600000000000001</v>
-      </c>
+      <c r="B15" s="496"/>
       <c r="C15" s="310"/>
       <c r="D15" s="85"/>
       <c r="G15" s="199"/>
       <c r="H15" s="97"/>
       <c r="I15" s="117">
         <f xml:space="preserve"> ROUND( (H13-H6) / SQRT(H6*(1-H6)/H4), 2)</f>
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
       <c r="J15" s="96">
         <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
-        <v>0.72906909621699434</v>
+        <v>0.62551583472332006</v>
       </c>
       <c r="K15" s="121">
         <f>1-J15</f>
-        <v>0.27093090378300566</v>
+        <v>0.37448416527667994</v>
       </c>
       <c r="L15" s="121">
         <f>2*J15</f>
-        <v>1.4581381924339887</v>
+        <v>1.2510316694466401</v>
       </c>
       <c r="M15" s="149">
         <f>2*K15</f>
-        <v>0.54186180756601132</v>
+        <v>0.74896833055335987</v>
       </c>
       <c r="N15" s="329"/>
       <c r="O15" s="169" t="s">
@@ -18411,11 +18629,9 @@
       <c r="T15" s="123"/>
       <c r="U15" s="337"/>
     </row>
-    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="312"/>
-      <c r="B16" s="498">
-        <v>0.33200000000000002</v>
-      </c>
+      <c r="B16" s="496"/>
       <c r="C16" s="310"/>
       <c r="D16" s="85"/>
       <c r="N16" s="329"/>
@@ -18433,11 +18649,9 @@
       <c r="T16" s="29"/>
       <c r="U16" s="337"/>
     </row>
-    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="312"/>
-      <c r="B17" s="498">
-        <v>0.121</v>
-      </c>
+      <c r="B17" s="496"/>
       <c r="C17" s="310"/>
       <c r="D17" s="85"/>
       <c r="G17" s="94"/>
@@ -18461,11 +18675,9 @@
       <c r="T17" s="29"/>
       <c r="U17" s="337"/>
     </row>
-    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="312"/>
-      <c r="B18" s="498">
-        <v>9.4E-2</v>
-      </c>
+      <c r="B18" s="496"/>
       <c r="C18" s="310"/>
       <c r="D18" s="85"/>
       <c r="G18" s="94"/>
@@ -18485,9 +18697,9 @@
       <c r="T18" s="334"/>
       <c r="U18" s="337"/>
     </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="312"/>
-      <c r="B19" s="498"/>
+      <c r="B19" s="496"/>
       <c r="C19" s="310"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
@@ -18507,13 +18719,13 @@
       <c r="R19" s="114"/>
       <c r="U19" s="337"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" thickBot="1">
+    <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="312"/>
-      <c r="B20" s="498"/>
+      <c r="B20" s="496"/>
       <c r="C20" s="310"/>
       <c r="D20" s="85"/>
-      <c r="G20" s="433"/>
-      <c r="H20" s="434"/>
+      <c r="G20" s="432"/>
+      <c r="H20" s="433"/>
       <c r="I20" s="70" t="s">
         <v>44</v>
       </c>
@@ -18543,7 +18755,7 @@
       </c>
       <c r="U20" s="337"/>
     </row>
-    <row r="21" spans="1:21" ht="21" thickBot="1">
+    <row r="21" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="312"/>
       <c r="B21" s="313"/>
       <c r="C21" s="310"/>
@@ -18585,13 +18797,13 @@
       </c>
       <c r="U21" s="337"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" thickBot="1">
+    <row r="22" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="312"/>
       <c r="B22" s="313"/>
       <c r="C22" s="310"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="536">
+      <c r="H22" s="535">
         <v>0.05</v>
       </c>
       <c r="I22" s="70" t="s">
@@ -18622,7 +18834,7 @@
       </c>
       <c r="U22" s="337"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" thickBot="1">
+    <row r="23" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="312"/>
       <c r="B23" s="313"/>
       <c r="C23" s="310"/>
@@ -18630,7 +18842,7 @@
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="537"/>
+      <c r="H23" s="536"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
         <v>-1.6448536269514726</v>
@@ -18668,7 +18880,7 @@
       </c>
       <c r="U23" s="337"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="312"/>
       <c r="B24" s="313"/>
       <c r="C24" s="310"/>
@@ -18700,7 +18912,7 @@
       </c>
       <c r="U24" s="337"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" thickBot="1">
+    <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="312"/>
       <c r="B25" s="313"/>
       <c r="C25" s="310"/>
@@ -18722,7 +18934,7 @@
       <c r="Q25" s="317"/>
       <c r="U25" s="337"/>
     </row>
-    <row r="26" spans="1:21" ht="20.25" thickBot="1">
+    <row r="26" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="312"/>
       <c r="B26" s="313"/>
       <c r="C26" s="310"/>
@@ -18765,7 +18977,7 @@
       <c r="T26" s="343"/>
       <c r="U26" s="337"/>
     </row>
-    <row r="27" spans="1:21" ht="20.25" thickBot="1">
+    <row r="27" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="312"/>
       <c r="B27" s="313"/>
       <c r="C27" s="310"/>
@@ -18821,7 +19033,7 @@
       </c>
       <c r="U27" s="337"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1">
+    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="312"/>
       <c r="B28" s="313"/>
       <c r="C28" s="310"/>
@@ -18836,7 +19048,7 @@
       <c r="J28" s="296" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="496"/>
+      <c r="K28" s="495"/>
       <c r="L28" s="70" t="s">
         <v>175</v>
       </c>
@@ -18857,12 +19069,12 @@
       </c>
       <c r="U28" s="337"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" thickBot="1">
+    <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="312"/>
       <c r="B29" s="313"/>
       <c r="C29" s="310"/>
       <c r="D29" s="85"/>
-      <c r="G29" s="361" t="s">
+      <c r="G29" s="360" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="97">
@@ -18876,11 +19088,11 @@
         <f>H26*I29*(1-I29)</f>
         <v>496.63799999999992</v>
       </c>
-      <c r="K29" s="494">
+      <c r="K29" s="493">
         <f>(H28+2)/(H26+4)</f>
         <v>0.45908183632734528</v>
       </c>
-      <c r="L29" s="500">
+      <c r="L29" s="498">
         <f>L27*2</f>
         <v>1.9912070233037573</v>
       </c>
@@ -18907,7 +19119,7 @@
       </c>
       <c r="U29" s="337"/>
     </row>
-    <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="314"/>
       <c r="B30" s="315"/>
       <c r="C30" s="310"/>
@@ -18935,7 +19147,7 @@
       </c>
       <c r="U30" s="337"/>
     </row>
-    <row r="31" spans="1:21" ht="20.25" thickBot="1">
+    <row r="31" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
         <v>2.5000000000000001E-2</v>
@@ -18969,13 +19181,13 @@
       </c>
       <c r="U31" s="337"/>
     </row>
-    <row r="32" spans="1:21" ht="20.25" thickBot="1">
+    <row r="32" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I32" s="113" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="495" t="s">
+      <c r="L32" s="494" t="s">
         <v>174</v>
       </c>
       <c r="M32" s="153" t="s">
@@ -19006,7 +19218,7 @@
       </c>
       <c r="U32" s="337"/>
     </row>
-    <row r="33" spans="9:21" ht="16.5" thickBot="1">
+    <row r="33" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
         <v>2.183926753460317E-2</v>
@@ -19030,7 +19242,7 @@
       <c r="N33" s="330"/>
       <c r="U33" s="337"/>
     </row>
-    <row r="34" spans="9:21" ht="16.5" thickBot="1">
+    <row r="34" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U34" s="338"/>
     </row>
   </sheetData>
@@ -19856,7 +20068,7 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="1.140625" customWidth="1"/>
@@ -19871,7 +20083,7 @@
     <col min="13" max="14" width="9.7109375" style="132" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="29" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="17" width="1.28515625" style="384" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" style="383" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="29" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" style="29" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" style="29" customWidth="1"/>
@@ -19890,7 +20102,7 @@
     <col min="33" max="34" width="0.85546875" style="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.25" thickBot="1">
+    <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="164">
         <f>COUNT(A4:A39)</f>
         <v>8</v>
@@ -19901,14 +20113,14 @@
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="151"/>
-      <c r="E1" s="370" t="s">
+      <c r="E1" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="541"/>
-      <c r="H1" s="542"/>
+      <c r="G1" s="540"/>
+      <c r="H1" s="541"/>
       <c r="I1" s="195"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
@@ -19920,7 +20132,7 @@
       <c r="R1" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="436">
+      <c r="S1" s="435">
         <f>SUM(S4:S18)</f>
         <v>576</v>
       </c>
@@ -19936,7 +20148,7 @@
       <c r="AC1" s="75"/>
       <c r="AD1" s="75"/>
     </row>
-    <row r="2" spans="1:34" ht="20.25" thickBot="1">
+    <row r="2" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
@@ -19951,10 +20163,10 @@
       <c r="F2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="376" t="s">
+      <c r="G2" s="375" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="376" t="s">
+      <c r="H2" s="375" t="s">
         <v>146</v>
       </c>
       <c r="I2" s="154"/>
@@ -19969,15 +20181,15 @@
       <c r="N2" s="94"/>
       <c r="O2" s="75"/>
       <c r="P2" s="75"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="385" t="s">
+      <c r="Q2" s="385"/>
+      <c r="R2" s="384" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="32">
         <v>576</v>
       </c>
       <c r="T2" s="132"/>
-      <c r="U2" s="395"/>
+      <c r="U2" s="394"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -19988,10 +20200,10 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="75"/>
     </row>
-    <row r="3" spans="1:34" ht="17.25" thickBot="1">
-      <c r="A3" s="457"/>
-      <c r="B3" s="457"/>
-      <c r="C3" s="366" t="s">
+    <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="456"/>
+      <c r="B3" s="456"/>
+      <c r="C3" s="365" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="154"/>
@@ -20021,29 +20233,29 @@
       <c r="N3" s="123"/>
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="520" t="s">
+      <c r="Q3" s="385"/>
+      <c r="R3" s="518" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="522" t="s">
+      <c r="S3" s="520" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="521" t="s">
+      <c r="T3" s="519" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="395"/>
-      <c r="V3" s="403"/>
-      <c r="W3" s="404"/>
+      <c r="U3" s="394"/>
+      <c r="V3" s="402"/>
+      <c r="W3" s="403"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="512" t="s">
+      <c r="Z3" s="510" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="513" t="s">
+      <c r="AA3" s="511" t="s">
         <v>147</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="523" t="s">
+      <c r="AC3" s="521" t="s">
         <v>30</v>
       </c>
       <c r="AD3" s="75"/>
@@ -20055,14 +20267,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="504">
+    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="502">
         <v>220</v>
       </c>
-      <c r="B4" s="504">
+      <c r="B4" s="502">
         <v>73.3</v>
       </c>
-      <c r="C4" s="365">
+      <c r="C4" s="364">
         <f>A4-B4</f>
         <v>146.69999999999999</v>
       </c>
@@ -20077,13 +20289,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="451"/>
+      <c r="H4" s="450"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
-      <c r="Q4" s="386">
+      <c r="Q4" s="385">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
         <v>219.23677420910491</v>
       </c>
@@ -20091,39 +20303,39 @@
         <f>S4/S$1</f>
         <v>0.38194444444444442</v>
       </c>
-      <c r="S4" s="519">
+      <c r="S4" s="517">
         <v>220</v>
       </c>
-      <c r="T4" s="377">
+      <c r="T4" s="376">
         <f>S$2*R4</f>
         <v>220</v>
       </c>
-      <c r="U4" s="395">
+      <c r="U4" s="394">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
         <v>95.338888888888874</v>
       </c>
-      <c r="V4" s="405">
+      <c r="V4" s="404">
         <f>SUM(Q4:Q15)</f>
         <v>574.0017361111112</v>
       </c>
-      <c r="W4" s="406">
+      <c r="W4" s="405">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
         <v>7.7794403397348582</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="510">
+      <c r="Z4" s="508">
         <v>1.6</v>
       </c>
-      <c r="AA4" s="511">
+      <c r="AA4" s="509">
         <f>Z4/S$1</f>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="525">
+      <c r="AC4" s="523">
         <v>0</v>
       </c>
-      <c r="AD4" s="524">
+      <c r="AD4" s="522">
         <f>AC4*R4</f>
         <v>0</v>
       </c>
@@ -20137,14 +20349,14 @@
         <v>21583.282656249998</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="16.5" thickBot="1">
-      <c r="A5" s="504">
+    <row r="5" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="502">
         <v>214</v>
       </c>
-      <c r="B5" s="504">
+      <c r="B5" s="502">
         <v>76.8</v>
       </c>
-      <c r="C5" s="365">
+      <c r="C5" s="364">
         <f t="shared" ref="C5:C16" si="0">A5-B5</f>
         <v>137.19999999999999</v>
       </c>
@@ -20168,7 +20380,7 @@
       <c r="L5" s="123"/>
       <c r="O5" s="75"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="386">
+      <c r="Q5" s="385">
         <f t="shared" ref="Q5:Q23" si="2">IF(S5=0,0, (R5-S5)^2 / S5)</f>
         <v>213.25758945794755</v>
       </c>
@@ -20176,14 +20388,14 @@
         <f t="shared" ref="R5:R8" si="3">S5/S$1</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="S5" s="519">
+      <c r="S5" s="517">
         <v>214</v>
       </c>
-      <c r="T5" s="377">
+      <c r="T5" s="376">
         <f t="shared" ref="T5:T15" si="4">S$2*R5</f>
         <v>214</v>
       </c>
-      <c r="U5" s="395">
+      <c r="U5" s="394">
         <f t="shared" ref="U5:U17" si="5">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
         <v>84.734722222222203</v>
       </c>
@@ -20191,18 +20403,18 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="507">
+      <c r="Z5" s="505">
         <v>25.5</v>
       </c>
-      <c r="AA5" s="509">
+      <c r="AA5" s="507">
         <f t="shared" ref="AA5:AA14" si="6">Z5/S$1</f>
         <v>4.4270833333333336E-2</v>
       </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="525">
+      <c r="AC5" s="523">
         <v>1</v>
       </c>
-      <c r="AD5" s="524">
+      <c r="AD5" s="522">
         <f t="shared" ref="AD5:AD14" si="7">AC5*R5</f>
         <v>0.37152777777777779</v>
       </c>
@@ -20216,14 +20428,14 @@
         <v>18882.19515625</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="504">
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="502">
         <v>99</v>
       </c>
-      <c r="B6" s="504">
+      <c r="B6" s="502">
         <v>69.8</v>
       </c>
-      <c r="C6" s="365">
+      <c r="C6" s="364">
         <f t="shared" si="0"/>
         <v>29.200000000000003</v>
       </c>
@@ -20240,7 +20452,7 @@
         <v>141</v>
       </c>
       <c r="P6" s="140"/>
-      <c r="Q6" s="386">
+      <c r="Q6" s="385">
         <f t="shared" si="2"/>
         <v>98.656548394097229</v>
       </c>
@@ -20248,37 +20460,37 @@
         <f t="shared" si="3"/>
         <v>0.171875</v>
       </c>
-      <c r="S6" s="519">
+      <c r="S6" s="517">
         <v>99</v>
       </c>
-      <c r="T6" s="377">
+      <c r="T6" s="376">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="U6" s="395">
+      <c r="U6" s="394">
         <f t="shared" si="5"/>
         <v>2.2781250000000011</v>
       </c>
-      <c r="V6" s="407" t="s">
+      <c r="V6" s="406" t="s">
         <v>177</v>
       </c>
-      <c r="W6" s="376" t="s">
+      <c r="W6" s="375" t="s">
         <v>146</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="507">
+      <c r="Z6" s="505">
         <v>153.1</v>
       </c>
-      <c r="AA6" s="509">
+      <c r="AA6" s="507">
         <f t="shared" si="6"/>
         <v>0.26579861111111108</v>
       </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="525">
+      <c r="AC6" s="523">
         <v>2</v>
       </c>
-      <c r="AD6" s="524">
+      <c r="AD6" s="522">
         <f t="shared" si="7"/>
         <v>0.34375</v>
       </c>
@@ -20292,14 +20504,14 @@
         <v>865.09515625000051</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="504">
+    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="502">
         <v>35</v>
       </c>
-      <c r="B7" s="504">
+      <c r="B7" s="502">
         <v>73</v>
       </c>
-      <c r="C7" s="365">
+      <c r="C7" s="364">
         <f t="shared" si="0"/>
         <v>-38</v>
       </c>
@@ -20329,7 +20541,7 @@
       <c r="P7" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="386">
+      <c r="Q7" s="385">
         <f t="shared" si="2"/>
         <v>34.878577715084887</v>
       </c>
@@ -20337,18 +20549,18 @@
         <f t="shared" si="3"/>
         <v>6.0763888888888888E-2</v>
       </c>
-      <c r="S7" s="519">
+      <c r="S7" s="517">
         <v>35</v>
       </c>
-      <c r="T7" s="377">
+      <c r="T7" s="376">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="U7" s="395">
+      <c r="U7" s="394">
         <f t="shared" si="5"/>
         <v>55.83368055555556</v>
       </c>
-      <c r="V7" s="408">
+      <c r="V7" s="407">
         <f>SUM(U4:U17)</f>
         <v>337.94097222222217</v>
       </c>
@@ -20356,26 +20568,26 @@
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
         <v>7.0375872786408058E-72</v>
       </c>
-      <c r="X7" s="505">
+      <c r="X7" s="503">
         <f>1-W7</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="506">
+      <c r="Y7" s="504">
         <f>2*W7</f>
         <v>1.4075174557281612E-71</v>
       </c>
-      <c r="Z7" s="507">
+      <c r="Z7" s="505">
         <v>408.4</v>
       </c>
-      <c r="AA7" s="509">
+      <c r="AA7" s="507">
         <f t="shared" si="6"/>
         <v>0.7090277777777777</v>
       </c>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="525">
+      <c r="AC7" s="523">
         <v>3</v>
       </c>
-      <c r="AD7" s="524">
+      <c r="AD7" s="522">
         <f t="shared" si="7"/>
         <v>0.18229166666666666</v>
       </c>
@@ -20392,14 +20604,14 @@
         <v>1427.8951562499997</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="504">
+    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="502">
         <v>8</v>
       </c>
-      <c r="B8" s="504">
+      <c r="B8" s="502">
         <v>73.8</v>
       </c>
-      <c r="C8" s="365">
+      <c r="C8" s="364">
         <f t="shared" si="0"/>
         <v>-65.8</v>
       </c>
@@ -20447,7 +20659,7 @@
         <f>SQRT(  M8*(1-M8)/K8 + N8*(1-N8)/K11 )</f>
         <v>2.8322798577803274E-2</v>
       </c>
-      <c r="Q8" s="386">
+      <c r="Q8" s="385">
         <f t="shared" si="2"/>
         <v>7.9722463348765427</v>
       </c>
@@ -20455,37 +20667,37 @@
         <f t="shared" si="3"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="S8" s="519">
+      <c r="S8" s="517">
         <v>8</v>
       </c>
-      <c r="T8" s="377">
+      <c r="T8" s="376">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="U8" s="395">
+      <c r="U8" s="394">
         <f t="shared" si="5"/>
         <v>99.75555555555556</v>
       </c>
-      <c r="V8" s="409" t="s">
+      <c r="V8" s="408" t="s">
         <v>149</v>
       </c>
-      <c r="W8" s="366" t="s">
+      <c r="W8" s="365" t="s">
         <v>32</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="507">
+      <c r="Z8" s="505">
         <v>408.4</v>
       </c>
-      <c r="AA8" s="509">
+      <c r="AA8" s="507">
         <f t="shared" si="6"/>
         <v>0.7090277777777777</v>
       </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="525">
+      <c r="AC8" s="523">
         <v>4</v>
       </c>
-      <c r="AD8" s="524">
+      <c r="AD8" s="522">
         <f t="shared" si="7"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -20502,14 +20714,14 @@
         <v>4301.7201562499986</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A9" s="504">
+    <row r="9" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="502">
         <v>0</v>
       </c>
-      <c r="B9" s="504">
+      <c r="B9" s="502">
         <v>71.3</v>
       </c>
-      <c r="C9" s="365">
+      <c r="C9" s="364">
         <f t="shared" si="0"/>
         <v>-71.3</v>
       </c>
@@ -20535,40 +20747,40 @@
       <c r="P9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="386">
+      <c r="Q9" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="175"/>
-      <c r="S9" s="519"/>
-      <c r="T9" s="377">
+      <c r="S9" s="517"/>
+      <c r="T9" s="376">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U9" s="395">
+      <c r="U9" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V9" s="410">
+      <c r="V9" s="409">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
         <v>115.2</v>
       </c>
-      <c r="W9" s="526">
+      <c r="W9" s="524">
         <f>SUM(AD4:AD14)</f>
         <v>0.953125</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="507"/>
-      <c r="AA9" s="509">
+      <c r="Z9" s="505"/>
+      <c r="AA9" s="507">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="525">
+      <c r="AC9" s="523">
         <v>5</v>
       </c>
-      <c r="AD9" s="524">
+      <c r="AD9" s="522">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20582,14 +20794,14 @@
         <v>5053.4326562499991</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A10" s="504">
+    <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="502">
         <v>0</v>
       </c>
-      <c r="B10" s="504">
+      <c r="B10" s="502">
         <v>71.7</v>
       </c>
-      <c r="C10" s="365">
+      <c r="C10" s="364">
         <f t="shared" si="0"/>
         <v>-71.7</v>
       </c>
@@ -20605,7 +20817,7 @@
         <f>E8-E10</f>
         <v>-63.160278275619447</v>
       </c>
-      <c r="G10" s="503">
+      <c r="G10" s="501">
         <f>E8+E10</f>
         <v>62.735278275619436</v>
       </c>
@@ -20635,17 +20847,17 @@
       <c r="P10" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="386">
+      <c r="Q10" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="175"/>
-      <c r="S10" s="519"/>
-      <c r="T10" s="377">
+      <c r="S10" s="517"/>
+      <c r="T10" s="376">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U10" s="395">
+      <c r="U10" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -20653,16 +20865,16 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="507"/>
-      <c r="AA10" s="509">
+      <c r="Z10" s="505"/>
+      <c r="AA10" s="507">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="525">
+      <c r="AC10" s="523">
         <v>6</v>
       </c>
-      <c r="AD10" s="524">
+      <c r="AD10" s="522">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20676,14 +20888,14 @@
         <v>5110.4626562499998</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A11" s="504">
+    <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="502">
         <v>1</v>
       </c>
-      <c r="B11" s="504">
+      <c r="B11" s="502">
         <v>69</v>
       </c>
-      <c r="C11" s="365">
+      <c r="C11" s="364">
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
@@ -20693,8 +20905,8 @@
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="123"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="381"/>
+      <c r="G11" s="379"/>
+      <c r="H11" s="380"/>
       <c r="I11" s="154"/>
       <c r="J11" s="145" t="s">
         <v>74</v>
@@ -20722,36 +20934,36 @@
         <f>2*N11</f>
         <v>1.7858991853430499</v>
       </c>
-      <c r="Q11" s="386">
+      <c r="Q11" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="175"/>
-      <c r="S11" s="519"/>
-      <c r="T11" s="377">
+      <c r="S11" s="517"/>
+      <c r="T11" s="376">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U11" s="395">
+      <c r="U11" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="514" t="s">
+      <c r="X11" s="512" t="s">
         <v>160</v>
       </c>
-      <c r="Y11" s="517"/>
-      <c r="Z11" s="507"/>
-      <c r="AA11" s="509">
+      <c r="Y11" s="515"/>
+      <c r="Z11" s="505"/>
+      <c r="AA11" s="507">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="525">
+      <c r="AC11" s="523">
         <v>7</v>
       </c>
-      <c r="AD11" s="524">
+      <c r="AD11" s="522">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20765,10 +20977,10 @@
         <v>4595.1451562499997</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A12" s="504"/>
-      <c r="B12" s="504"/>
-      <c r="C12" s="365">
+    <row r="12" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="502"/>
+      <c r="B12" s="502"/>
+      <c r="C12" s="364">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20776,14 +20988,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="369" t="s">
+      <c r="E12" s="368" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="228">
         <f>E$5^2/A$1</f>
         <v>1136.9799107142858</v>
       </c>
-      <c r="G12" s="382">
+      <c r="G12" s="381">
         <f xml:space="preserve"> E3-G3 -H14</f>
         <v>5.6075708179702701</v>
       </c>
@@ -20799,49 +21011,49 @@
       <c r="M12" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="543"/>
-      <c r="O12" s="544"/>
+      <c r="N12" s="542"/>
+      <c r="O12" s="543"/>
       <c r="P12" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="Q12" s="386">
+      <c r="Q12" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="175"/>
       <c r="S12" s="175"/>
-      <c r="T12" s="377">
+      <c r="T12" s="376">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U12" s="395">
+      <c r="U12" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V12" s="411" t="s">
+      <c r="V12" s="410" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="412">
+      <c r="W12" s="411">
         <v>240</v>
       </c>
-      <c r="X12" s="515">
+      <c r="X12" s="513">
         <f>W12*W13</f>
         <v>24.240000000000002</v>
       </c>
-      <c r="Y12" s="516">
+      <c r="Y12" s="514">
         <f>( (W14-X12)^2)/X12 + ((W12-W14-X14)^2)/X14</f>
         <v>0.64875898045866787</v>
       </c>
-      <c r="Z12" s="507"/>
-      <c r="AA12" s="509">
+      <c r="Z12" s="505"/>
+      <c r="AA12" s="507">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="525">
+      <c r="AC12" s="523">
         <v>8</v>
       </c>
-      <c r="AD12" s="524">
+      <c r="AD12" s="522">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20855,10 +21067,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A13" s="504"/>
-      <c r="B13" s="504"/>
-      <c r="C13" s="365">
+    <row r="13" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="502"/>
+      <c r="B13" s="502"/>
+      <c r="C13" s="364">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20886,7 +21098,7 @@
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
         <v>4.6586857966115697E-2</v>
       </c>
-      <c r="M13" s="363">
+      <c r="M13" s="362">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
         <v>1.6448536269514715</v>
       </c>
@@ -20898,44 +21110,44 @@
         <f>M8-N8+L13</f>
         <v>1.1375590360481885E-2</v>
       </c>
-      <c r="P13" s="435">
+      <c r="P13" s="434">
         <f>2*M11</f>
         <v>0.21410081465694997</v>
       </c>
-      <c r="Q13" s="386">
+      <c r="Q13" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
-      <c r="T13" s="377">
+      <c r="T13" s="376">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U13" s="395">
+      <c r="U13" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V13" s="411" t="s">
+      <c r="V13" s="410" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="437">
+      <c r="W13" s="436">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X13" s="439" t="s">
+      <c r="X13" s="438" t="s">
         <v>161</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="507"/>
-      <c r="AA13" s="509">
+      <c r="Z13" s="505"/>
+      <c r="AA13" s="507">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="525">
+      <c r="AC13" s="523">
         <v>9</v>
       </c>
-      <c r="AD13" s="524">
+      <c r="AD13" s="522">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20949,10 +21161,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A14" s="504"/>
-      <c r="B14" s="504"/>
-      <c r="C14" s="365">
+    <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="502"/>
+      <c r="B14" s="502"/>
+      <c r="C14" s="364">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20979,7 +21191,7 @@
       <c r="J14" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="364">
+      <c r="K14" s="363">
         <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="70" t="s">
@@ -20989,41 +21201,41 @@
       <c r="N14" s="94"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
-      <c r="Q14" s="386">
+      <c r="Q14" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
-      <c r="T14" s="377">
+      <c r="T14" s="376">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U14" s="395">
+      <c r="U14" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V14" s="413" t="s">
+      <c r="V14" s="412" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="414">
+      <c r="W14" s="413">
         <v>28</v>
       </c>
-      <c r="X14" s="438">
+      <c r="X14" s="437">
         <f>W12-X12</f>
         <v>215.76</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="508"/>
-      <c r="AA14" s="509">
+      <c r="Z14" s="506"/>
+      <c r="AA14" s="507">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="525">
+      <c r="AC14" s="523">
         <v>10</v>
       </c>
-      <c r="AD14" s="524">
+      <c r="AD14" s="522">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -21037,23 +21249,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="18" thickBot="1">
-      <c r="A15" s="504"/>
-      <c r="B15" s="504"/>
-      <c r="C15" s="365">
+    <row r="15" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="502"/>
+      <c r="B15" s="502"/>
+      <c r="C15" s="364">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="378">
+      <c r="D15" s="377">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="211"/>
       <c r="F15" s="211"/>
-      <c r="G15" s="545" t="s">
+      <c r="G15" s="544" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="546"/>
+      <c r="H15" s="545"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
@@ -21064,17 +21276,17 @@
       <c r="N15" s="218"/>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
-      <c r="Q15" s="386">
+      <c r="Q15" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="391"/>
-      <c r="S15" s="391"/>
-      <c r="T15" s="377">
+      <c r="R15" s="390"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="376">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U15" s="395">
+      <c r="U15" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -21096,19 +21308,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="20.25" thickBot="1">
-      <c r="A16" s="504"/>
-      <c r="B16" s="504"/>
-      <c r="C16" s="365">
+    <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="502"/>
+      <c r="B16" s="502"/>
+      <c r="C16" s="364">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="378">
+      <c r="D16" s="377">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="379"/>
-      <c r="F16" s="379"/>
+      <c r="E16" s="378"/>
+      <c r="F16" s="378"/>
       <c r="G16" s="191" t="s">
         <v>73</v>
       </c>
@@ -21128,19 +21340,19 @@
       <c r="N16" s="222"/>
       <c r="O16" s="223"/>
       <c r="P16" s="223"/>
-      <c r="Q16" s="386">
+      <c r="Q16" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="392"/>
-      <c r="S16" s="392"/>
-      <c r="T16" s="377"/>
-      <c r="U16" s="395">
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="376"/>
+      <c r="U16" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V16" s="223"/>
-      <c r="W16" s="376" t="s">
+      <c r="W16" s="375" t="s">
         <v>146</v>
       </c>
       <c r="X16" s="121">
@@ -21162,7 +21374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="19.5" thickBot="1">
+    <row r="17" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="175"/>
       <c r="B17" s="175"/>
       <c r="C17" s="175"/>
@@ -21196,19 +21408,19 @@
       <c r="N17" s="223"/>
       <c r="O17" s="223"/>
       <c r="P17" s="223"/>
-      <c r="Q17" s="386">
+      <c r="Q17" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="392"/>
-      <c r="S17" s="392"/>
-      <c r="T17" s="377"/>
-      <c r="U17" s="395">
+      <c r="R17" s="391"/>
+      <c r="S17" s="391"/>
+      <c r="T17" s="376"/>
+      <c r="U17" s="394">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="223"/>
-      <c r="W17" s="376" t="s">
+      <c r="W17" s="375" t="s">
         <v>151</v>
       </c>
       <c r="X17" s="138">
@@ -21230,7 +21442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="175"/>
       <c r="B18" s="175"/>
       <c r="C18" s="175"/>
@@ -21255,14 +21467,14 @@
       <c r="N18" s="225"/>
       <c r="O18" s="226"/>
       <c r="P18" s="226"/>
-      <c r="Q18" s="386">
+      <c r="Q18" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="393"/>
-      <c r="S18" s="393"/>
+      <c r="R18" s="392"/>
+      <c r="S18" s="392"/>
       <c r="T18" s="226"/>
-      <c r="U18" s="396"/>
+      <c r="U18" s="395"/>
       <c r="V18" s="226"/>
       <c r="W18" s="226"/>
       <c r="X18" s="226"/>
@@ -21281,7 +21493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="20.25" thickBot="1">
+    <row r="19" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="175"/>
       <c r="B19" s="175"/>
       <c r="C19" s="175"/>
@@ -21315,17 +21527,17 @@
         <v>67</v>
       </c>
       <c r="P19" s="222"/>
-      <c r="Q19" s="386">
+      <c r="Q19" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="394"/>
-      <c r="S19" s="394"/>
+      <c r="R19" s="393"/>
+      <c r="S19" s="393"/>
       <c r="T19" s="222"/>
-      <c r="U19" s="397"/>
+      <c r="U19" s="396"/>
       <c r="V19" s="222"/>
       <c r="W19" s="222"/>
-      <c r="X19" s="415"/>
+      <c r="X19" s="414"/>
       <c r="Y19" s="222"/>
       <c r="Z19" s="222"/>
       <c r="AA19" s="3"/>
@@ -21341,17 +21553,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="20.25" thickBot="1">
+    <row r="20" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="175"/>
       <c r="B20" s="175"/>
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="452">
+      <c r="F20" s="451">
         <v>1.21</v>
       </c>
-      <c r="G20" s="548"/>
-      <c r="H20" s="549"/>
+      <c r="G20" s="547"/>
+      <c r="H20" s="548"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.75854910714285684</v>
@@ -21375,23 +21587,23 @@
         <v>65</v>
       </c>
       <c r="P20" s="157"/>
-      <c r="Q20" s="386">
+      <c r="Q20" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R20" s="319"/>
       <c r="S20" s="319"/>
       <c r="T20" s="157"/>
-      <c r="U20" s="398"/>
+      <c r="U20" s="397"/>
       <c r="V20" s="157"/>
-      <c r="W20" s="518" t="s">
+      <c r="W20" s="516" t="s">
         <v>178</v>
       </c>
       <c r="X20" s="130">
         <f>(W14/W12-W13)/SQRT(W13*(1-W13)/W12)</f>
         <v>0.80545575946706616</v>
       </c>
-      <c r="Y20" s="416"/>
+      <c r="Y20" s="415"/>
       <c r="Z20" s="157"/>
       <c r="AA20" s="157"/>
       <c r="AB20" s="157"/>
@@ -21406,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="20.25" thickBot="1">
+    <row r="21" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="175"/>
       <c r="B21" s="175"/>
       <c r="C21" s="175"/>
@@ -21414,7 +21626,7 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="453">
+      <c r="F21" s="452">
         <v>1.88</v>
       </c>
       <c r="G21" s="139">
@@ -21449,14 +21661,14 @@
         <v>5.8457278969697296E-2</v>
       </c>
       <c r="P21" s="94"/>
-      <c r="Q21" s="386">
+      <c r="Q21" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="94"/>
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
-      <c r="U21" s="399"/>
+      <c r="U21" s="398"/>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
       <c r="X21" s="94"/>
@@ -21475,7 +21687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="20.25" thickBot="1">
+    <row r="22" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="175"/>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
@@ -21486,10 +21698,10 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="547" t="s">
+      <c r="G22" s="546" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="547"/>
+      <c r="H22" s="546"/>
       <c r="I22" s="196"/>
       <c r="J22" s="230" t="s">
         <v>68</v>
@@ -21507,14 +21719,14 @@
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
-      <c r="Q22" s="386">
+      <c r="Q22" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="111"/>
       <c r="S22" s="111"/>
       <c r="T22" s="111"/>
-      <c r="U22" s="400"/>
+      <c r="U22" s="399"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -21533,13 +21745,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="175"/>
       <c r="B23" s="175"/>
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="452">
+      <c r="F23" s="451">
         <f>F3</f>
         <v>72.337500000000006</v>
       </c>
@@ -21558,14 +21770,14 @@
       <c r="M23" s="241"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
-      <c r="Q23" s="386">
+      <c r="Q23" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="391"/>
-      <c r="S23" s="391"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
       <c r="T23" s="75"/>
-      <c r="U23" s="401"/>
+      <c r="U23" s="400"/>
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
@@ -21584,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="20.25" thickBot="1">
+    <row r="24" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="175"/>
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
@@ -21592,7 +21804,7 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="453">
+      <c r="F24" s="452">
         <f>F5</f>
         <v>2.4634108177774277</v>
       </c>
@@ -21620,11 +21832,11 @@
       <c r="N24" s="166"/>
       <c r="O24" s="157"/>
       <c r="P24" s="157"/>
-      <c r="Q24" s="387"/>
+      <c r="Q24" s="386"/>
       <c r="R24" s="157"/>
       <c r="S24" s="157"/>
       <c r="T24" s="157"/>
-      <c r="U24" s="398"/>
+      <c r="U24" s="397"/>
       <c r="V24" s="157"/>
       <c r="W24" s="157"/>
       <c r="X24" s="157"/>
@@ -21643,7 +21855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="20.25" thickBot="1">
+    <row r="25" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="175"/>
       <c r="B25" s="175"/>
       <c r="C25" s="175"/>
@@ -21664,11 +21876,11 @@
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
-      <c r="Q25" s="388"/>
+      <c r="Q25" s="387"/>
       <c r="R25" s="94"/>
       <c r="S25" s="94"/>
       <c r="T25" s="94"/>
-      <c r="U25" s="399"/>
+      <c r="U25" s="398"/>
       <c r="V25" s="94"/>
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
@@ -21687,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="20.25" thickBot="1">
+    <row r="26" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="175"/>
       <c r="B26" s="175"/>
       <c r="C26" s="175"/>
@@ -21720,11 +21932,11 @@
         <v>26</v>
       </c>
       <c r="P26" s="111"/>
-      <c r="Q26" s="389"/>
+      <c r="Q26" s="388"/>
       <c r="R26" s="111"/>
       <c r="S26" s="111"/>
       <c r="T26" s="111"/>
-      <c r="U26" s="400"/>
+      <c r="U26" s="399"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -21743,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="20.25" thickBot="1">
+    <row r="27" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="175"/>
       <c r="B27" s="175"/>
       <c r="C27" s="175"/>
@@ -21754,32 +21966,32 @@
       <c r="H27" s="233"/>
       <c r="I27" s="196"/>
       <c r="J27" s="94"/>
-      <c r="K27" s="372">
+      <c r="K27" s="371">
         <f>MIN(C4:C28)</f>
         <v>-71.7</v>
       </c>
-      <c r="L27" s="373">
+      <c r="L27" s="372">
         <f>QUARTILE(C4:C27, 1)</f>
         <v>-65.8</v>
       </c>
-      <c r="M27" s="373">
+      <c r="M27" s="372">
         <f>QUARTILE(C4:C15, 2)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="373">
+      <c r="N27" s="372">
         <f>QUARTILE(C4:C15, 3)</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="O27" s="374">
+      <c r="O27" s="373">
         <f>MAX(C4:C24)</f>
         <v>146.69999999999999</v>
       </c>
       <c r="P27" s="75"/>
-      <c r="Q27" s="390"/>
+      <c r="Q27" s="389"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
       <c r="T27" s="75"/>
-      <c r="U27" s="402"/>
+      <c r="U27" s="401"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
@@ -21798,7 +22010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="16.5" thickBot="1">
+    <row r="28" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="175"/>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
@@ -21824,7 +22036,7 @@
       <c r="P28" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q28" s="383"/>
+      <c r="Q28" s="382"/>
       <c r="R28" s="75"/>
       <c r="S28" s="75"/>
       <c r="T28" s="75"/>
@@ -21847,18 +22059,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="20.25" thickBot="1">
+    <row r="29" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="175"/>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
       <c r="D29" s="154"/>
-      <c r="E29" s="367" t="s">
+      <c r="E29" s="366" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="368" t="s">
+      <c r="F29" s="367" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="375" t="s">
+      <c r="G29" s="374" t="s">
         <v>145</v>
       </c>
       <c r="H29" s="157"/>
@@ -21884,7 +22096,7 @@
       <c r="P29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="Q29" s="383"/>
+      <c r="Q29" s="382"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
       <c r="T29" s="75"/>
@@ -21907,7 +22119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="20.25" thickBot="1">
+    <row r="30" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="175"/>
       <c r="B30" s="175"/>
       <c r="C30" s="175"/>
@@ -21941,15 +22153,15 @@
         <f>1-M30</f>
         <v>0.97743986734687949</v>
       </c>
-      <c r="O30" s="502">
+      <c r="O30" s="500">
         <f>2*M30</f>
         <v>4.5120265306241025E-2</v>
       </c>
-      <c r="P30" s="501">
+      <c r="P30" s="499">
         <f>2*N30</f>
         <v>1.954879734693759</v>
       </c>
-      <c r="Q30" s="383"/>
+      <c r="Q30" s="382"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
       <c r="T30" s="75"/>
@@ -21972,7 +22184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="16.5" thickBot="1">
+    <row r="31" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="175"/>
       <c r="B31" s="175"/>
       <c r="C31" s="99" t="s">
@@ -21994,13 +22206,13 @@
       <c r="H31" s="121"/>
       <c r="I31" s="196"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="499">
+      <c r="K31" s="497">
         <v>1.06</v>
       </c>
       <c r="L31" s="70"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
-      <c r="Q31" s="383"/>
+      <c r="Q31" s="382"/>
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="75"/>
@@ -22023,7 +22235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="16.5" thickBot="1">
+    <row r="32" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="175"/>
       <c r="B32" s="175"/>
       <c r="C32" s="163" t="s">
@@ -22054,7 +22266,7 @@
       </c>
       <c r="O32" s="75"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="383"/>
+      <c r="Q32" s="382"/>
       <c r="R32" s="75"/>
       <c r="S32" s="75"/>
       <c r="T32" s="75"/>
@@ -22077,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="175"/>
       <c r="B33" s="175"/>
       <c r="C33" s="175"/>
@@ -22087,7 +22299,7 @@
       <c r="I33" s="196"/>
       <c r="J33" s="175"/>
       <c r="K33" s="175"/>
-      <c r="L33" s="377"/>
+      <c r="L33" s="376"/>
       <c r="AG33" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22097,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="175"/>
       <c r="B34" s="175"/>
       <c r="C34" s="175"/>
@@ -22105,7 +22317,7 @@
       <c r="I34" s="196"/>
       <c r="J34" s="175"/>
       <c r="K34" s="175"/>
-      <c r="L34" s="377"/>
+      <c r="L34" s="376"/>
       <c r="AG34" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22115,13 +22327,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="243"/>
       <c r="B35" s="243"/>
       <c r="C35" s="243"/>
       <c r="D35" s="154"/>
       <c r="I35" s="196"/>
-      <c r="L35" s="377"/>
+      <c r="L35" s="376"/>
       <c r="AG35" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22131,7 +22343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG36" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22766,7 +22978,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="0.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -22774,10 +22986,10 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="11" max="12" width="0.85546875" style="428" customWidth="1"/>
+    <col min="11" max="12" width="0.85546875" style="427" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="164">
         <f>COUNT(A4:A25)</f>
         <v>10</v>
@@ -22799,10 +23011,10 @@
       <c r="H1" s="197">
         <v>95</v>
       </c>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
+      <c r="K1" s="428"/>
+      <c r="L1" s="428"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
@@ -22818,12 +23030,12 @@
         <f>D2^2</f>
         <v>0.97941619215917286</v>
       </c>
-      <c r="K2" s="429"/>
-      <c r="L2" s="429"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="457"/>
-      <c r="B3" s="457"/>
+      <c r="K2" s="428"/>
+      <c r="L2" s="428"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="456"/>
+      <c r="B3" s="456"/>
       <c r="C3" s="207"/>
       <c r="D3" s="205" t="s">
         <v>92</v>
@@ -22841,44 +23053,44 @@
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="430"/>
-      <c r="L3" s="430"/>
+      <c r="K3" s="429"/>
+      <c r="L3" s="429"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="475">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="474">
         <v>-5</v>
       </c>
-      <c r="B4" s="475">
+      <c r="B4" s="474">
         <v>-10</v>
       </c>
       <c r="C4" s="207">
         <f>A4*B4</f>
         <v>50</v>
       </c>
-      <c r="D4" s="557" t="s">
+      <c r="D4" s="556" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="558"/>
+      <c r="E4" s="557"/>
       <c r="G4" s="94"/>
       <c r="H4" s="204"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="430">
+      <c r="K4" s="429">
         <f>IF( A4="",0, A4*E$6+D$6)</f>
         <v>-11.036363636363637</v>
       </c>
-      <c r="L4" s="430">
+      <c r="L4" s="429">
         <f>(K4-B4)^2</f>
         <v>1.0740495867768609</v>
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A5" s="475">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="474">
         <v>-3</v>
       </c>
-      <c r="B5" s="475">
+      <c r="B5" s="474">
         <v>-8</v>
       </c>
       <c r="C5" s="207">
@@ -22895,21 +23107,21 @@
       <c r="G5" s="29"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="430">
+      <c r="K5" s="429">
         <f t="shared" ref="K5:K18" si="1">IF( A5="",0, A5*E$6+D$6)</f>
         <v>-6.8424242424242427</v>
       </c>
-      <c r="L5" s="430">
+      <c r="L5" s="429">
         <f t="shared" ref="L5:L18" si="2">(K5-B5)^2</f>
         <v>1.3399816345270883</v>
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A6" s="475">
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="474">
         <v>4</v>
       </c>
-      <c r="B6" s="475">
+      <c r="B6" s="474">
         <v>9</v>
       </c>
       <c r="C6" s="207">
@@ -22931,21 +23143,21 @@
       <c r="G6" s="123"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="430">
+      <c r="K6" s="429">
         <f t="shared" si="1"/>
         <v>7.8363636363636369</v>
       </c>
-      <c r="L6" s="430">
+      <c r="L6" s="429">
         <f t="shared" si="2"/>
         <v>1.3540495867768583</v>
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="475">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="474">
         <v>1</v>
       </c>
-      <c r="B7" s="475">
+      <c r="B7" s="474">
         <v>1</v>
       </c>
       <c r="C7" s="207">
@@ -22964,21 +23176,21 @@
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="94"/>
-      <c r="K7" s="430">
+      <c r="K7" s="429">
         <f t="shared" si="1"/>
         <v>1.5454545454545456</v>
       </c>
-      <c r="L7" s="430">
+      <c r="L7" s="429">
         <f t="shared" si="2"/>
         <v>0.29752066115702497</v>
       </c>
       <c r="M7" s="204"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="475">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="474">
         <v>-1</v>
       </c>
-      <c r="B8" s="475">
+      <c r="B8" s="474">
         <v>-2</v>
       </c>
       <c r="C8" s="207">
@@ -22990,63 +23202,63 @@
       <c r="F8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="430">
+      <c r="K8" s="429">
         <f t="shared" si="1"/>
         <v>-2.6484848484848484</v>
       </c>
-      <c r="L8" s="430">
+      <c r="L8" s="429">
         <f t="shared" si="2"/>
         <v>0.42053259871441684</v>
       </c>
       <c r="M8" s="132"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="475">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="474">
         <v>-2</v>
       </c>
-      <c r="B9" s="475">
+      <c r="B9" s="474">
         <v>-6</v>
       </c>
-      <c r="C9" s="427">
+      <c r="C9" s="426">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="553" t="s">
+      <c r="D9" s="552" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="554"/>
+      <c r="E9" s="553"/>
       <c r="F9" s="70" t="s">
         <v>162</v>
       </c>
       <c r="G9" s="218"/>
       <c r="I9" s="30"/>
       <c r="J9" s="132"/>
-      <c r="K9" s="430">
+      <c r="K9" s="429">
         <f t="shared" si="1"/>
         <v>-4.745454545454546</v>
       </c>
-      <c r="L9" s="430">
+      <c r="L9" s="429">
         <f t="shared" si="2"/>
         <v>1.5738842975206597</v>
       </c>
       <c r="M9" s="132"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="475">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="474">
         <v>0</v>
       </c>
-      <c r="B10" s="475">
+      <c r="B10" s="474">
         <v>-1</v>
       </c>
-      <c r="C10" s="427">
+      <c r="C10" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="559">
+      <c r="D10" s="558">
         <f>SUM(L4:L17)</f>
         <v>7.6242424242424223</v>
       </c>
-      <c r="E10" s="560"/>
+      <c r="E10" s="559"/>
       <c r="F10" s="117">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
         <v>1.1636363636363631</v>
@@ -23054,21 +23266,21 @@
       <c r="G10" s="29"/>
       <c r="I10" s="30"/>
       <c r="J10" s="132"/>
-      <c r="K10" s="430">
+      <c r="K10" s="429">
         <f t="shared" si="1"/>
         <v>-0.55151515151515151</v>
       </c>
-      <c r="L10" s="430">
+      <c r="L10" s="429">
         <f t="shared" si="2"/>
         <v>0.2011386593204775</v>
       </c>
       <c r="M10" s="132"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="475">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="474">
         <v>2</v>
       </c>
-      <c r="B11" s="475">
+      <c r="B11" s="474">
         <v>3</v>
       </c>
       <c r="C11" s="207">
@@ -23079,21 +23291,21 @@
       <c r="E11" s="214"/>
       <c r="I11" s="30"/>
       <c r="J11" s="132"/>
-      <c r="K11" s="430">
+      <c r="K11" s="429">
         <f t="shared" si="1"/>
         <v>3.6424242424242426</v>
       </c>
-      <c r="L11" s="430">
+      <c r="L11" s="429">
         <f t="shared" si="2"/>
         <v>0.41270890725436199</v>
       </c>
       <c r="M11" s="132"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="475">
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="474">
         <v>3</v>
       </c>
-      <c r="B12" s="475">
+      <c r="B12" s="474">
         <v>6</v>
       </c>
       <c r="C12" s="207">
@@ -23115,21 +23327,21 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="430">
+      <c r="K12" s="429">
         <f t="shared" si="1"/>
         <v>5.7393939393939393</v>
       </c>
-      <c r="L12" s="430">
+      <c r="L12" s="429">
         <f t="shared" si="2"/>
         <v>6.7915518824609805E-2</v>
       </c>
       <c r="M12" s="132"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="475">
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="474">
         <v>-4</v>
       </c>
-      <c r="B13" s="475">
+      <c r="B13" s="474">
         <v>-8</v>
       </c>
       <c r="C13" s="207">
@@ -23144,19 +23356,19 @@
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="132"/>
-      <c r="K13" s="430">
+      <c r="K13" s="429">
         <f t="shared" si="1"/>
         <v>-8.9393939393939394</v>
       </c>
-      <c r="L13" s="430">
+      <c r="L13" s="429">
         <f t="shared" si="2"/>
         <v>0.88246097337006435</v>
       </c>
       <c r="M13" s="132"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="474"/>
-      <c r="B14" s="474"/>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="473"/>
+      <c r="B14" s="473"/>
       <c r="C14" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23165,42 +23377,42 @@
       <c r="E14" s="76"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="430">
+      <c r="K14" s="429">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="430">
+      <c r="L14" s="429">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="474"/>
-      <c r="B15" s="474"/>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="473"/>
+      <c r="B15" s="473"/>
       <c r="C15" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="561" t="s">
+      <c r="D15" s="560" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="562"/>
+      <c r="E15" s="561"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
-      <c r="K15" s="430">
+      <c r="K15" s="429">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="430">
+      <c r="L15" s="429">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="474"/>
-      <c r="B16" s="474"/>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="473"/>
+      <c r="B16" s="473"/>
       <c r="C16" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23214,27 +23426,27 @@
       <c r="F16" s="210"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="430">
+      <c r="K16" s="429">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="430">
+      <c r="L16" s="429">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A17" s="474"/>
-      <c r="B17" s="474"/>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="473"/>
+      <c r="B17" s="473"/>
       <c r="C17" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="440">
+      <c r="D17" s="439">
         <v>2.097</v>
       </c>
-      <c r="E17" s="440">
+      <c r="E17" s="439">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -23243,19 +23455,19 @@
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="430">
+      <c r="K17" s="429">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="430">
+      <c r="L17" s="429">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="474"/>
-      <c r="B18" s="474"/>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="473"/>
+      <c r="B18" s="473"/>
       <c r="C18" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23267,233 +23479,233 @@
         <v>3</v>
       </c>
       <c r="F18" s="121"/>
-      <c r="K18" s="430">
+      <c r="K18" s="429">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="476">
+      <c r="L18" s="475">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="469">
+      <c r="K19" s="468">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
         <v>-11.0365</v>
       </c>
-      <c r="L19" s="469">
+      <c r="L19" s="468">
         <f>(B4-K19)^2</f>
         <v>1.0743322500000003</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C20" s="427">
+    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="551" t="s">
+      <c r="D20" s="550" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="552"/>
-      <c r="F20" s="550"/>
-      <c r="G20" s="550"/>
-      <c r="K20" s="469">
+      <c r="E20" s="551"/>
+      <c r="F20" s="549"/>
+      <c r="G20" s="549"/>
+      <c r="K20" s="468">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
         <v>-6.8425000000000002</v>
       </c>
-      <c r="L20" s="469">
+      <c r="L20" s="468">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
         <v>1.3398062499999994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C21" s="427">
+    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="423">
+      <c r="D21" s="422">
         <v>2.097</v>
       </c>
-      <c r="E21" s="424">
+      <c r="E21" s="423">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="470"/>
-      <c r="G21" s="470"/>
-      <c r="K21" s="469">
+      <c r="F21" s="469"/>
+      <c r="G21" s="469"/>
+      <c r="K21" s="468">
         <f t="shared" si="3"/>
         <v>7.8365</v>
       </c>
-      <c r="L21" s="469">
+      <c r="L21" s="468">
         <f t="shared" si="4"/>
         <v>1.35373225</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1">
-      <c r="C22" s="427">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="553" t="s">
+      <c r="D22" s="552" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="554"/>
-      <c r="F22" s="471"/>
-      <c r="G22" s="471"/>
-      <c r="K22" s="469">
+      <c r="E22" s="553"/>
+      <c r="F22" s="470"/>
+      <c r="G22" s="470"/>
+      <c r="K22" s="468">
         <f t="shared" si="3"/>
         <v>1.5455000000000001</v>
       </c>
-      <c r="L22" s="469">
+      <c r="L22" s="468">
         <f t="shared" si="4"/>
         <v>0.29757025000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C23" s="427">
+    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="555">
+      <c r="D23" s="554">
         <f>SUM(L19:L30)</f>
         <v>7.624242500000002</v>
       </c>
-      <c r="E23" s="556"/>
-      <c r="F23" s="472"/>
-      <c r="G23" s="473"/>
-      <c r="K23" s="469">
+      <c r="E23" s="555"/>
+      <c r="F23" s="471"/>
+      <c r="G23" s="472"/>
+      <c r="K23" s="468">
         <f t="shared" si="3"/>
         <v>-2.6484999999999999</v>
       </c>
-      <c r="L23" s="469">
+      <c r="L23" s="468">
         <f t="shared" si="4"/>
         <v>0.42055224999999979</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="469">
+      <c r="K24" s="468">
         <f t="shared" si="3"/>
         <v>-4.7454999999999998</v>
       </c>
-      <c r="L24" s="469">
+      <c r="L24" s="468">
         <f t="shared" si="4"/>
         <v>1.5737702500000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="469">
+      <c r="K25" s="468">
         <f t="shared" si="3"/>
         <v>-0.55149999999999999</v>
       </c>
-      <c r="L25" s="469">
+      <c r="L25" s="468">
         <f t="shared" si="4"/>
         <v>0.20115225</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="469">
+      <c r="K26" s="468">
         <f t="shared" si="3"/>
         <v>3.6425000000000001</v>
       </c>
-      <c r="L26" s="469">
+      <c r="L26" s="468">
         <f t="shared" si="4"/>
         <v>0.4128062500000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="469">
+      <c r="K27" s="468">
         <f t="shared" si="3"/>
         <v>5.7395000000000005</v>
       </c>
-      <c r="L27" s="469">
+      <c r="L27" s="468">
         <f t="shared" si="4"/>
         <v>6.7860249999999747E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="469">
+      <c r="K28" s="468">
         <f t="shared" si="3"/>
         <v>-8.9395000000000007</v>
       </c>
-      <c r="L28" s="469">
+      <c r="L28" s="468">
         <f t="shared" si="4"/>
         <v>0.88266025000000126</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="469">
+      <c r="K29" s="468">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="469">
+      <c r="L29" s="468">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="469">
+      <c r="K30" s="468">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="469">
+      <c r="L30" s="468">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="469"/>
-      <c r="L31" s="469"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="K31" s="468"/>
+      <c r="L31" s="468"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="469"/>
-      <c r="L32" s="469"/>
-    </row>
-    <row r="33" spans="3:12" ht="15.75" thickBot="1">
+      <c r="K32" s="468"/>
+      <c r="L32" s="468"/>
+    </row>
+    <row r="33" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="429"/>
-      <c r="L33" s="429"/>
+      <c r="K33" s="428"/>
+      <c r="L33" s="428"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -23574,9 +23786,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" ht="19.5" thickBot="1">
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
@@ -23584,7 +23796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
@@ -23600,7 +23812,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -23616,7 +23828,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
@@ -23632,7 +23844,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>23</v>
       </c>
@@ -23648,7 +23860,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
       <c r="C8" s="16">
@@ -23660,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="16">
@@ -23672,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23682,7 +23894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23692,7 +23904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23702,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23712,7 +23924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -23723,31 +23935,31 @@
       <c r="C14" s="16"/>
       <c r="D14" s="45"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
       <c r="D15" s="45"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
       <c r="D20" s="45"/>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
       <c r="D21" s="45"/>
     </row>
@@ -23765,7 +23977,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="8" width="5.7109375" customWidth="1"/>
@@ -23773,7 +23985,7 @@
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="279" customHeight="1">
+    <row r="1" spans="2:13" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="str">
         <f>REPT("*",COUNTIF(A2:A58,A1))</f>
         <v/>
@@ -23803,7 +24015,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="18.75">
+    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="27">
         <v>0</v>
       </c>
@@ -23826,7 +24038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1">
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" s="30">
         <v>670</v>
       </c>
@@ -23837,7 +24049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="16.5" thickBot="1">
+    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K4" s="31">
         <v>675</v>
       </c>
@@ -23848,7 +24060,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="16.5" thickBot="1">
+    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K5" s="33">
         <v>685</v>
       </c>
@@ -23859,7 +24071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="16.5" thickBot="1">
+    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="33">
         <v>695</v>
       </c>
@@ -23870,7 +24082,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" thickBot="1">
+    <row r="7" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="33">
         <v>705</v>
       </c>
@@ -23881,7 +24093,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16.5" thickBot="1">
+    <row r="8" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -23900,7 +24112,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16.5" thickBot="1">
+    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -23919,7 +24131,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="16.5" thickBot="1">
+    <row r="10" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -23938,7 +24150,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15.75">
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -23957,7 +24169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15.75">
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -23967,29 +24179,29 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75">
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75">
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="K20" s="563" t="s">
+      <c r="K20" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="563"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75">
+      <c r="L20" s="562"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="K21" s="39" t="s">
         <v>14</v>
@@ -23998,7 +24210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30">
+    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="29"/>
       <c r="K22" s="39" t="s">
         <v>16</v>
@@ -24007,7 +24219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="30">
+    <row r="23" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="K23" s="39" t="s">
         <v>17</v>
       </c>
@@ -24015,7 +24227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="30">
+    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="K24" s="39" t="s">
         <v>18</v>
       </c>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Math\fredmath\Statistic\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fredmath\Statistic\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387AD107-4300-4D2F-9E2C-0287B6618B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="12045" activeTab="2"/>
+    <workbookView xWindow="234" yWindow="48" windowWidth="9504" windowHeight="11712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -20,10 +21,18 @@
     <sheet name="Graphs" sheetId="5" r:id="rId6"/>
     <sheet name="dot" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2425,7 +2434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2439,7 +2448,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="84" x14ac:knownFonts="1">
+  <fonts count="84">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4386,9 +4395,6 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5139,7 +5145,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="27" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5271,6 +5276,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5376,15 +5382,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 6" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5480,34 +5487,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>816932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>951545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>991305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>856472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4</c:v>
+                  <c:v>852244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5519,34 +5511,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-8</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11130,15 +11107,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>125730</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>506730</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11197,7 +11174,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>125730</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -11205,7 +11182,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11272,7 +11249,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11331,7 +11308,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>87630</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -11401,7 +11378,7 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>361950</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11460,13 +11437,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>49530</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
@@ -11527,9 +11504,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>125730</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
@@ -11581,7 +11558,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -11589,7 +11566,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11637,13 +11614,13 @@
           <xdr:col>17</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>506730</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11697,15 +11674,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>163830</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11767,7 +11744,7 @@
           <xdr:col>15</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11826,15 +11803,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>163830</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>316230</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11896,7 +11873,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11955,9 +11932,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>125730</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
@@ -12009,7 +11986,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -12017,7 +11994,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>220980</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12063,15 +12040,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12132,11 +12109,11 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>354330</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -12192,15 +12169,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>163830</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>316230</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12256,11 +12233,11 @@
           <xdr:col>23</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>373380</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -12316,15 +12293,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>163830</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>316230</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12380,13 +12357,13 @@
           <xdr:col>24</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>506730</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12440,15 +12417,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>163830</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12504,13 +12481,13 @@
           <xdr:col>25</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>506730</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12626,9 +12603,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>125730</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
@@ -12680,7 +12657,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>125730</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -12734,7 +12711,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>163830</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -12742,7 +12719,7 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12860,7 +12837,7 @@
           <xdr:col>21</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>163830</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
@@ -12927,13 +12904,13 @@
           <xdr:col>21</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12994,13 +12971,13 @@
           <xdr:col>23</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>373380</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13062,7 +13039,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13126,13 +13103,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>506730</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>125730</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -13195,7 +13172,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>49530</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
@@ -13268,7 +13245,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13327,13 +13304,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>144780</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>49530</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -13402,7 +13379,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>220980</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13467,7 +13444,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
@@ -13523,9 +13500,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -13585,13 +13562,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>449580</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -13647,9 +13624,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>506730</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
@@ -13711,13 +13688,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>220980</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13777,9 +13754,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>468630</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13833,13 +13810,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>373380</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -13895,9 +13872,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>544830</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -13968,7 +13945,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
@@ -14088,11 +14065,11 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>468630</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -14148,9 +14125,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>544830</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
@@ -14215,9 +14192,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>240030</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
@@ -14283,7 +14260,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
+          <xdr:colOff>430530</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -14339,15 +14316,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>87630</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14401,15 +14378,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14470,11 +14447,11 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>354330</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -14530,7 +14507,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>163830</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -14538,7 +14515,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14598,9 +14575,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
+          <xdr:colOff>430530</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>220980</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14838,13 +14815,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>201930</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>449580</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -14900,13 +14877,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>201930</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>449580</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -15418,32 +15395,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="3" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.41796875" customWidth="1"/>
+    <col min="2" max="3" width="7.26171875" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="109" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="109" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" customWidth="1"/>
+    <col min="6" max="6" width="9.578125" customWidth="1"/>
+    <col min="7" max="7" width="11.41796875" customWidth="1"/>
+    <col min="8" max="8" width="10.26171875" customWidth="1"/>
+    <col min="9" max="9" width="6.83984375" customWidth="1"/>
+    <col min="10" max="10" width="7.26171875" style="109" customWidth="1"/>
+    <col min="11" max="11" width="8.83984375" style="109" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="18" width="1.28515625" customWidth="1"/>
+    <col min="13" max="14" width="6.15625" customWidth="1"/>
+    <col min="15" max="16" width="6.68359375" customWidth="1"/>
+    <col min="17" max="18" width="1.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="14.7" thickBot="1">
       <c r="I1" s="12"/>
       <c r="J1" s="108"/>
       <c r="K1" s="108"/>
@@ -15451,19 +15428,19 @@
       <c r="M1" s="12"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="15.9" thickBot="1">
       <c r="B2" s="23">
         <f>COUNT(B5:B60)</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="528" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="527" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="529"/>
-      <c r="G2" s="530" t="s">
+      <c r="F2" s="528"/>
+      <c r="G2" s="529" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="531"/>
+      <c r="H2" s="530"/>
       <c r="I2" s="12"/>
       <c r="J2" s="108"/>
       <c r="K2" s="108"/>
@@ -15472,7 +15449,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="17.100000000000001" thickBot="1">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -15505,17 +15482,17 @@
       </c>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="455"/>
-      <c r="C4" s="455"/>
+    <row r="4" spans="2:20" ht="15.9" thickBot="1">
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
       <c r="D4" s="5"/>
       <c r="E4" s="20">
         <f>IF(B5="","",AVERAGE(B5:B60))</f>
-        <v>298.7</v>
+        <v>0.6074615384615385</v>
       </c>
       <c r="F4" s="19">
         <f>MEDIAN(B5:B60)</f>
-        <v>265</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="G4" s="20">
         <f>IF(C5="","",AVERAGE(C5:C60))</f>
@@ -15525,10 +15502,10 @@
         <f>MEDIAN(C5:C60)</f>
         <v>67</v>
       </c>
-      <c r="J4" s="416" t="s">
+      <c r="J4" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="449"/>
+      <c r="K4" s="448"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17" t="s">
         <v>7</v>
@@ -15536,8 +15513,8 @@
       <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="458"/>
-      <c r="P4" s="458"/>
+      <c r="O4" s="457"/>
+      <c r="P4" s="457"/>
       <c r="R4" s="5">
         <f>SUM(R5:R20)</f>
         <v>175</v>
@@ -15548,9 +15525,9 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="525">
-        <v>147</v>
+    <row r="5" spans="2:20" ht="15.9" thickBot="1">
+      <c r="B5" s="523">
+        <v>0.6</v>
       </c>
       <c r="C5" s="3">
         <v>79</v>
@@ -15568,11 +15545,11 @@
       <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="453">
+      <c r="J5" s="452">
         <f>SUM(J6:J16)</f>
         <v>87.95</v>
       </c>
-      <c r="K5" s="448" t="s">
+      <c r="K5" s="447" t="s">
         <v>163</v>
       </c>
       <c r="M5">
@@ -15585,7 +15562,7 @@
         <f>SUM(M5:N5)/2</f>
         <v>1.5</v>
       </c>
-      <c r="P5" s="457">
+      <c r="P5" s="456">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
@@ -15601,9 +15578,9 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="525">
-        <v>150</v>
+    <row r="6" spans="2:20" ht="15.6" thickBot="1">
+      <c r="B6" s="523">
+        <v>0.60799999999999998</v>
       </c>
       <c r="C6" s="3">
         <v>65</v>
@@ -15611,11 +15588,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="20">
         <f>_xlfn.STDEV.S(B5:B60)</f>
-        <v>146.52572773710727</v>
+        <v>4.1756313817071381E-3</v>
       </c>
       <c r="F6" s="21">
         <f>E6^2</f>
-        <v>21469.788888888888</v>
+        <v>1.7435897435897461E-5</v>
       </c>
       <c r="G6" s="20">
         <f>_xlfn.STDEV.S(C5:C60)</f>
@@ -15625,11 +15602,11 @@
         <f>G6^2</f>
         <v>57.33333333333335</v>
       </c>
-      <c r="J6" s="441">
+      <c r="J6" s="440">
         <f>0.15*100</f>
         <v>15</v>
       </c>
-      <c r="K6" s="446">
+      <c r="K6" s="445">
         <f>IF(J6="","",J6/J$5)</f>
         <v>0.17055144968732233</v>
       </c>
@@ -15640,7 +15617,7 @@
         <f>O5+M$6-M$5</f>
         <v>3.5</v>
       </c>
-      <c r="P6" s="457">
+      <c r="P6" s="456">
         <v>12</v>
       </c>
       <c r="Q6" s="12">
@@ -15657,9 +15634,9 @@
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="525">
-        <v>180</v>
+    <row r="7" spans="2:20" ht="15.6">
+      <c r="B7" s="523">
+        <v>0.61</v>
       </c>
       <c r="C7" s="3">
         <v>67</v>
@@ -15677,11 +15654,11 @@
       <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="440">
+      <c r="J7" s="439">
         <f>0.2*89</f>
         <v>17.8</v>
       </c>
-      <c r="K7" s="446">
+      <c r="K7" s="445">
         <f t="shared" ref="K7:K14" si="2">IF(J7="","",J7/J$5)</f>
         <v>0.20238772029562252</v>
       </c>
@@ -15689,7 +15666,7 @@
         <f t="shared" ref="O7:O18" si="3">O6+M$6-M$5</f>
         <v>5.5</v>
       </c>
-      <c r="P7" s="457">
+      <c r="P7" s="456">
         <v>8</v>
       </c>
       <c r="Q7" s="12">
@@ -15701,21 +15678,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="525">
-        <v>189</v>
+    <row r="8" spans="2:20" ht="15.6" thickBot="1">
+      <c r="B8" s="523">
+        <v>0.61199999999999999</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="465">
+      <c r="E8" s="464">
         <f>_xlfn.STDEV.P(B5:B60)</f>
-        <v>139.00651063889057</v>
+        <v>4.0118168647400951E-3</v>
       </c>
       <c r="F8" s="21">
         <f>E8^2</f>
-        <v>19322.809999999998</v>
-      </c>
-      <c r="G8" s="465">
+        <v>1.6094674556213047E-5</v>
+      </c>
+      <c r="G8" s="464">
         <f>_xlfn.STDEV.P(C5:C60)</f>
         <v>6.1824123303304699</v>
       </c>
@@ -15724,11 +15701,11 @@
         <v>38.222222222222229</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="440">
+      <c r="J8" s="439">
         <f>0.5*86</f>
         <v>43</v>
       </c>
-      <c r="K8" s="446">
+      <c r="K8" s="445">
         <f t="shared" si="2"/>
         <v>0.48891415577032404</v>
       </c>
@@ -15738,7 +15715,7 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="P8" s="457">
+      <c r="P8" s="456">
         <v>5</v>
       </c>
       <c r="Q8" s="12">
@@ -15750,9 +15727,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="525">
-        <v>210</v>
+    <row r="9" spans="2:20" ht="15.3">
+      <c r="B9" s="523">
+        <v>0.61</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -15763,11 +15740,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="J9" s="440">
+      <c r="J9" s="439">
         <f>0.15*81</f>
         <v>12.15</v>
       </c>
-      <c r="K9" s="446">
+      <c r="K9" s="445">
         <f t="shared" si="2"/>
         <v>0.1381466742467311</v>
       </c>
@@ -15775,7 +15752,7 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P9" s="457">
+      <c r="P9" s="456">
         <v>4</v>
       </c>
       <c r="Q9" s="12">
@@ -15791,23 +15768,23 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="525">
-        <v>320</v>
+    <row r="10" spans="2:20" ht="15.6" thickBot="1">
+      <c r="B10" s="523">
+        <v>0.60699999999999998</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="64">
         <f>E6/E4</f>
-        <v>0.49054478653199624</v>
+        <v>6.8739024898306685E-3</v>
       </c>
       <c r="G10" s="65">
         <f>G6/G4</f>
         <v>0.10765703025213791</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="J10" s="440"/>
-      <c r="K10" s="446" t="str">
+      <c r="J10" s="439"/>
+      <c r="K10" s="445" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15815,7 +15792,7 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="P10" s="457"/>
+      <c r="P10" s="456"/>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15829,22 +15806,22 @@
         <v>1051.5</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="525">
-        <v>375</v>
+    <row r="11" spans="2:20" ht="18.3">
+      <c r="B11" s="523">
+        <v>0.60899999999999999</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="257" t="s">
+      <c r="E11" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="245">
+      <c r="F11" s="244">
         <v>49.1</v>
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118"/>
-      <c r="J11" s="440"/>
-      <c r="K11" s="446" t="str">
+      <c r="J11" s="439"/>
+      <c r="K11" s="445" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15852,7 +15829,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="P11" s="457"/>
+      <c r="P11" s="456"/>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15866,23 +15843,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="525">
-        <v>407</v>
+    <row r="12" spans="2:20" ht="15.6">
+      <c r="B12" s="523">
+        <v>0.59899999999999998</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="244" t="s">
+      <c r="E12" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="527">
+      <c r="F12" s="525">
         <f>(F11-E4)/(E6)</f>
-        <v>-1.7034551123187456</v>
+        <v>11613.22301436318</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="119"/>
-      <c r="J12" s="440"/>
-      <c r="K12" s="446" t="str">
+      <c r="J12" s="439"/>
+      <c r="K12" s="445" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15900,9 +15877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="525">
-        <v>429</v>
+    <row r="13" spans="2:20" ht="15.3">
+      <c r="B13" s="523">
+        <v>0.60499999999999998</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
@@ -15910,8 +15887,8 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="120"/>
-      <c r="J13" s="445"/>
-      <c r="K13" s="446" t="str">
+      <c r="J13" s="444"/>
+      <c r="K13" s="445" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15929,14 +15906,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="525">
-        <v>580</v>
+    <row r="14" spans="2:20" ht="15.6" thickBot="1">
+      <c r="B14" s="523">
+        <v>0.61</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="J14" s="445"/>
-      <c r="K14" s="446" t="str">
+      <c r="J14" s="444"/>
+      <c r="K14" s="445" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -15954,11 +15931,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="525"/>
+    <row r="15" spans="2:20" ht="14.7" thickBot="1">
+      <c r="B15" s="523">
+        <v>0.60499999999999998</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="251" t="s">
+      <c r="E15" s="250" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="54" t="s">
@@ -15987,29 +15966,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="525"/>
+    <row r="16" spans="2:20" ht="14.7" thickBot="1">
+      <c r="B16" s="523">
+        <v>0.61199999999999999</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="252">
+      <c r="E16" s="251">
         <f>MIN(B5:B60)</f>
-        <v>147</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="F16" s="55">
         <f>IF(ISEVEN(ROUNDDOWN(COUNT(B5:B60)/2,0)),AVERAGE(SMALL(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2),SMALL(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2+1)),SMALL(B5:B60,ROUNDUP(ROUNDDOWN(COUNT(B5:B60)/2,0)/2,0)))</f>
-        <v>180</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="G16" s="55">
         <f>QUARTILE($B$5:$B$60, 2)</f>
-        <v>265</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="H16" s="55">
         <f>IF(ISEVEN(ROUNDDOWN(COUNT(B5:B60)/2,0)),AVERAGE(LARGE(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2),LARGE(B5:B60,ROUNDDOWN(COUNT(B5:B60)/2,0)/2+1)),LARGE(B5:B60,ROUNDUP(ROUNDDOWN(COUNT(B5:B60)/2,0)/2,0)))</f>
-        <v>407</v>
-      </c>
-      <c r="I16" s="248">
+        <v>0.61</v>
+      </c>
+      <c r="I16" s="247">
         <f>MAX(B5:B60)</f>
-        <v>580</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="O16" s="61">
         <f t="shared" si="3"/>
@@ -16025,11 +16006,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="525"/>
+    <row r="17" spans="2:18" ht="14.7" thickBot="1">
+      <c r="B17" s="523">
+        <v>0.61</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="253" t="s">
+      <c r="E17" s="252" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="54" t="s">
@@ -16058,28 +16041,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="525"/>
+    <row r="18" spans="2:18" ht="15.9" thickBot="1">
+      <c r="B18" s="523"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="254">
+      <c r="E18" s="253">
         <v>75</v>
       </c>
       <c r="F18" s="59">
         <f xml:space="preserve">  INDEX(B5:B260, $E$26) + (INDEX(B5:B60, 1+ $E$26) -INDEX(B5:B60, $E$26))*E25</f>
-        <v>391</v>
-      </c>
-      <c r="G18" s="247">
+        <v>0.60875000000000001</v>
+      </c>
+      <c r="G18" s="246">
         <f>H16-F16</f>
-        <v>227</v>
-      </c>
-      <c r="H18" s="246">
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="H18" s="245">
         <f>F16-1.5*G18</f>
-        <v>-160.5</v>
-      </c>
-      <c r="I18" s="246">
+        <v>0.59749999999999992</v>
+      </c>
+      <c r="I18" s="245">
         <f>H16+1.5*G18</f>
-        <v>747.5</v>
+        <v>0.61749999999999994</v>
       </c>
       <c r="O18" s="61">
         <f t="shared" si="3"/>
@@ -16095,8 +16078,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="525"/>
+    <row r="19" spans="2:18" ht="14.7" thickBot="1">
+      <c r="B19" s="523"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="O19" s="61"/>
@@ -16110,17 +16093,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="525"/>
+    <row r="20" spans="2:18" ht="15.6" thickBot="1">
+      <c r="B20" s="523"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="255" t="s">
+      <c r="E20" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="250">
+      <c r="F20" s="249">
         <v>0.9</v>
       </c>
-      <c r="G20" s="220" t="s">
+      <c r="G20" s="219" t="s">
         <v>43</v>
       </c>
       <c r="J20"/>
@@ -16135,22 +16118,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="525"/>
+    <row r="21" spans="2:18" ht="15.3">
+      <c r="B21" s="523"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="255" t="s">
+      <c r="E21" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="250">
+      <c r="F21" s="249">
         <v>0.84</v>
       </c>
-      <c r="G21" s="249">
+      <c r="G21" s="248">
         <f xml:space="preserve"> (F20-F21)/F22</f>
         <v>1.0000000000000009</v>
       </c>
       <c r="J21"/>
-      <c r="K21" s="454"/>
+      <c r="K21" s="453"/>
       <c r="O21" s="61"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="12">
@@ -16162,18 +16145,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="525"/>
+    <row r="22" spans="2:18" ht="15.3">
+      <c r="B22" s="523"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="255" t="s">
+      <c r="E22" s="254" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="250">
+      <c r="F22" s="249">
         <v>0.06</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="I22" s="526"/>
+      <c r="I22" s="524"/>
       <c r="O22" s="56"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="12">
@@ -16185,8 +16168,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="525"/>
+    <row r="23" spans="2:18">
+      <c r="B23" s="523"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="O23" s="56"/>
@@ -16200,20 +16183,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="482"/>
+    <row r="24" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B24" s="480"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="57">
         <f>E18*B2/100</f>
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="48">
         <f>529.1+1.5*256.3</f>
         <v>913.55000000000007</v>
       </c>
-      <c r="H24" s="466"/>
+      <c r="H24" s="465"/>
       <c r="O24" s="56"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="29"/>
@@ -16222,17 +16205,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="525"/>
+    <row r="25" spans="2:18" ht="15.3">
+      <c r="B25" s="523"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="58">
         <f>E24 - INT(E24)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="466"/>
+      <c r="H25" s="465"/>
       <c r="O25" s="56"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="29"/>
@@ -16241,17 +16224,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="525"/>
+    <row r="26" spans="2:18" ht="15.6" thickBot="1">
+      <c r="B26" s="523"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="58">
         <f>E24-E25</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="466"/>
+      <c r="H26" s="465"/>
       <c r="O26" s="56"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="29"/>
@@ -16260,137 +16243,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="525"/>
+    <row r="27" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B27" s="523"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="46"/>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="466"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="525"/>
+      <c r="H27" s="465"/>
+    </row>
+    <row r="28" spans="2:18" ht="15.3">
+      <c r="B28" s="523"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="46"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="466"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="525"/>
+      <c r="H28" s="465"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.3">
+      <c r="B29" s="523"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="466"/>
-    </row>
-    <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="482"/>
+      <c r="H29" s="465"/>
+    </row>
+    <row r="30" spans="2:18" ht="15.6" thickBot="1">
+      <c r="B30" s="480"/>
       <c r="D30" s="6"/>
       <c r="E30" s="46"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="466"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="482"/>
+      <c r="H30" s="465"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="480"/>
       <c r="D31" s="5"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="466"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="482"/>
+      <c r="H31" s="465"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="480"/>
       <c r="D32" s="5"/>
-      <c r="H32" s="467"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="482"/>
+      <c r="H32" s="466"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="480"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="482"/>
+    <row r="34" spans="2:6">
+      <c r="B34" s="480"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="482"/>
+    <row r="35" spans="2:6" ht="14.7" thickBot="1">
+      <c r="B35" s="480"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="482"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="482"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="482"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="482"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="482"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="482"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="482"/>
+    <row r="36" spans="2:6">
+      <c r="B36" s="480"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="480"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="480"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="480"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="480"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="480"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.3">
+      <c r="B42" s="480"/>
       <c r="E42" s="46"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="482"/>
+    <row r="43" spans="2:6" ht="15.3">
+      <c r="B43" s="480"/>
       <c r="E43" s="46"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="482"/>
+    <row r="44" spans="2:6" ht="15.3">
+      <c r="B44" s="480"/>
       <c r="E44" s="46"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="482"/>
+    <row r="45" spans="2:6" ht="15.3">
+      <c r="B45" s="480"/>
       <c r="E45" s="46"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="482"/>
+    <row r="46" spans="2:6" ht="15.3">
+      <c r="B46" s="480"/>
       <c r="E46" s="46"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="482"/>
+    <row r="47" spans="2:6" ht="15.3">
+      <c r="B47" s="480"/>
       <c r="E47" s="46"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="482"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="482"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="482"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="482"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="482"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="482"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="482"/>
+    <row r="48" spans="2:6">
+      <c r="B48" s="480"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="480"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="480"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="480"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="480"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="480"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="480"/>
     </row>
   </sheetData>
-  <sortState ref="B5:B14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B14">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="2">
@@ -16406,36 +16389,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.5703125" style="82" customWidth="1"/>
-    <col min="5" max="5" width="0.5703125" style="83" customWidth="1"/>
+    <col min="1" max="1" width="1.26171875" customWidth="1"/>
+    <col min="2" max="2" width="6.15625" customWidth="1"/>
+    <col min="3" max="3" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.578125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="0.578125" style="83" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="0.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.83984375" customWidth="1"/>
+    <col min="8" max="8" width="0.26171875" customWidth="1"/>
+    <col min="9" max="9" width="5.68359375" customWidth="1"/>
+    <col min="10" max="10" width="8.68359375" customWidth="1"/>
+    <col min="11" max="13" width="12.26171875" customWidth="1"/>
+    <col min="14" max="15" width="10.41796875" customWidth="1"/>
+    <col min="16" max="16" width="1.83984375" customWidth="1"/>
+    <col min="17" max="17" width="6.578125" customWidth="1"/>
+    <col min="18" max="18" width="8.578125" customWidth="1"/>
+    <col min="19" max="19" width="8.15625" customWidth="1"/>
+    <col min="20" max="20" width="9.68359375" customWidth="1"/>
+    <col min="21" max="21" width="4.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.3" thickBot="1">
       <c r="A1" s="66"/>
       <c r="B1" s="70" t="s">
         <v>30</v>
@@ -16450,13 +16433,13 @@
       <c r="H1" s="66"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
-      <c r="K1" s="258" t="s">
+      <c r="K1" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="259" t="s">
+      <c r="L1" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="260" t="s">
+      <c r="M1" s="259" t="s">
         <v>38</v>
       </c>
       <c r="N1" s="66"/>
@@ -16465,15 +16448,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.6" thickBot="1">
       <c r="A2" s="66"/>
-      <c r="B2" s="485">
+      <c r="B2" s="483">
         <v>0</v>
       </c>
-      <c r="C2" s="485">
+      <c r="C2" s="483">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D2" s="425">
+      <c r="D2" s="424">
         <f>(B2-$G$2)^2 *C2</f>
         <v>0.90720000000000034</v>
       </c>
@@ -16488,28 +16471,28 @@
         <f>SUM(E2:E12)</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="H2" s="261"/>
+      <c r="H2" s="260"/>
       <c r="I2" s="68" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="76">
         <v>3</v>
       </c>
-      <c r="K2" s="267">
+      <c r="K2" s="266">
         <f>PERMUT(J3,J2)</f>
         <v>120</v>
       </c>
-      <c r="L2" s="268">
+      <c r="L2" s="267">
         <f>COMBIN(J3,J2)</f>
         <v>20</v>
       </c>
-      <c r="M2" s="269">
+      <c r="M2" s="268">
         <f>FACT(J3)</f>
         <v>720</v>
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
-      <c r="Q2" s="416" t="s">
+      <c r="Q2" s="415" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="70" t="s">
@@ -16521,10 +16504,10 @@
       <c r="T2" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="V2" s="482">
+      <c r="V2" s="480">
         <v>10</v>
       </c>
-      <c r="W2" s="486" t="s">
+      <c r="W2" s="484" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="71">
@@ -16532,12 +16515,12 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.6" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="485">
+      <c r="B3" s="483">
         <v>1</v>
       </c>
-      <c r="C3" s="485">
+      <c r="C3" s="483">
         <v>0.16</v>
       </c>
       <c r="D3" s="106">
@@ -16555,7 +16538,7 @@
         <f>SUM(D2:D11)</f>
         <v>2.2400000000000002</v>
       </c>
-      <c r="H3" s="261"/>
+      <c r="H3" s="260"/>
       <c r="I3" s="68" t="s">
         <v>35</v>
       </c>
@@ -16567,23 +16550,23 @@
       <c r="M3" s="94"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
-      <c r="Q3" s="417">
+      <c r="Q3" s="416">
         <v>1</v>
       </c>
-      <c r="R3" s="418">
+      <c r="R3" s="417">
         <v>38</v>
       </c>
-      <c r="S3" s="419">
+      <c r="S3" s="418">
         <v>245</v>
       </c>
-      <c r="T3" s="424">
+      <c r="T3" s="423">
         <f>S3*Q3/R3+S4*Q4/R4 + IF(R5 =0,R5=1, S5*Q5/R5)</f>
         <v>-0.36842105263157876</v>
       </c>
-      <c r="V3" s="482">
+      <c r="V3" s="480">
         <v>10</v>
       </c>
-      <c r="W3" s="487" t="s">
+      <c r="W3" s="485" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="73">
@@ -16591,12 +16574,12 @@
         <v>1.8537158968576135</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.6" thickBot="1">
       <c r="A4" s="66"/>
-      <c r="B4" s="485">
+      <c r="B4" s="483">
         <v>2</v>
       </c>
-      <c r="C4" s="485">
+      <c r="C4" s="483">
         <v>0.2</v>
       </c>
       <c r="D4" s="106">
@@ -16614,7 +16597,7 @@
         <f>SQRT(G3)</f>
         <v>1.4966629547095767</v>
       </c>
-      <c r="H4" s="261"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="67"/>
       <c r="J4" s="76"/>
       <c r="K4" s="95"/>
@@ -16622,27 +16605,27 @@
       <c r="M4" s="95"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
-      <c r="Q4" s="420">
+      <c r="Q4" s="419">
         <v>37</v>
       </c>
-      <c r="R4" s="250">
+      <c r="R4" s="249">
         <v>38</v>
       </c>
-      <c r="S4" s="421">
+      <c r="S4" s="420">
         <v>-7</v>
       </c>
       <c r="T4" s="75"/>
-      <c r="V4" s="482">
+      <c r="V4" s="480">
         <v>9</v>
       </c>
-      <c r="W4" s="283"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="282"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.6" thickBot="1">
       <c r="A5" s="66"/>
-      <c r="B5" s="485">
+      <c r="B5" s="483">
         <v>3</v>
       </c>
-      <c r="C5" s="485">
+      <c r="C5" s="483">
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="106">
@@ -16657,7 +16640,7 @@
       <c r="G5" s="66">
         <v>6</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="260"/>
       <c r="I5" s="68" t="s">
         <v>35</v>
       </c>
@@ -16673,26 +16656,26 @@
       <c r="M5" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="198" t="s">
+      <c r="N5" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="198" t="s">
+      <c r="O5" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="420"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="421"/>
+      <c r="Q5" s="419"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="420"/>
       <c r="T5" s="75"/>
-      <c r="V5" s="482">
+      <c r="V5" s="480">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.6" thickBot="1">
       <c r="A6" s="66"/>
-      <c r="B6" s="485">
+      <c r="B6" s="483">
         <v>5</v>
       </c>
-      <c r="C6" s="485">
+      <c r="C6" s="483">
         <v>0.08</v>
       </c>
       <c r="D6" s="106">
@@ -16707,11 +16690,11 @@
       <c r="G6" s="66">
         <v>2</v>
       </c>
-      <c r="H6" s="261"/>
+      <c r="H6" s="260"/>
       <c r="I6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="272">
+      <c r="J6" s="271">
         <v>0.63</v>
       </c>
       <c r="K6" s="116">
@@ -16722,7 +16705,7 @@
         <f>_xlfn.BINOM.DIST(J7, J5, J6, TRUE)</f>
         <v>0.88051957581093498</v>
       </c>
-      <c r="M6" s="480">
+      <c r="M6" s="478">
         <f>1-L6+K6</f>
         <v>0.19064890656751515</v>
       </c>
@@ -16734,26 +16717,26 @@
         <f>_xlfn.BINOM.DIST(J8,J5, J6, TRUE)-N6</f>
         <v>0.15418936294109509</v>
       </c>
-      <c r="P6" s="256"/>
-      <c r="Q6" s="422"/>
-      <c r="R6" s="489" t="s">
+      <c r="P6" s="255"/>
+      <c r="Q6" s="421"/>
+      <c r="R6" s="487" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="423">
+      <c r="S6" s="422">
         <v>1000</v>
       </c>
-      <c r="T6" s="488">
+      <c r="T6" s="486">
         <f>T3*S6</f>
         <v>-368.42105263157873</v>
       </c>
-      <c r="V6" s="482">
+      <c r="V6" s="480">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="16.2" thickBot="1">
       <c r="A7" s="66"/>
-      <c r="B7" s="485"/>
-      <c r="C7" s="485"/>
+      <c r="B7" s="483"/>
+      <c r="C7" s="483"/>
       <c r="D7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16766,7 +16749,7 @@
       <c r="G7" s="66">
         <v>4</v>
       </c>
-      <c r="H7" s="261"/>
+      <c r="H7" s="260"/>
       <c r="I7" s="67" t="s">
         <v>39</v>
       </c>
@@ -16782,20 +16765,20 @@
       <c r="M7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="481" t="s">
+      <c r="N7" s="479" t="s">
         <v>167</v>
       </c>
-      <c r="O7" s="198" t="s">
+      <c r="O7" s="197" t="s">
         <v>166</v>
       </c>
-      <c r="V7" s="482">
+      <c r="V7" s="480">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.6" thickBot="1">
       <c r="A8" s="66"/>
       <c r="B8" s="77"/>
-      <c r="C8" s="477"/>
+      <c r="C8" s="475"/>
       <c r="D8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16804,23 +16787,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="464">
+      <c r="F8" s="463">
         <f>B2*C2+B3*C3+B4*C4</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G8" s="66"/>
-      <c r="H8" s="261"/>
+      <c r="H8" s="260"/>
       <c r="I8" s="67" t="s">
         <v>106</v>
       </c>
       <c r="J8" s="76">
         <v>37</v>
       </c>
-      <c r="K8" s="479">
+      <c r="K8" s="477">
         <f>J5*J6</f>
         <v>31.5</v>
       </c>
-      <c r="L8" s="320">
+      <c r="L8" s="319">
         <f>SQRT(J5*J6*(1-J6))</f>
         <v>3.4139420030223127</v>
       </c>
@@ -16828,7 +16811,7 @@
         <f>ROUND((J7 - K8)/L8, 2)</f>
         <v>1.03</v>
       </c>
-      <c r="N8" s="189">
+      <c r="N8" s="188">
         <f>J7/J6</f>
         <v>55.555555555555557</v>
       </c>
@@ -16836,11 +16819,11 @@
         <f>1-L6</f>
         <v>0.11948042418906502</v>
       </c>
-      <c r="V8" s="482">
+      <c r="V8" s="480">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.3">
       <c r="A9" s="66"/>
       <c r="B9" s="77"/>
       <c r="C9" s="131"/>
@@ -16857,20 +16840,20 @@
         <v>-9.76</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="261"/>
+      <c r="H9" s="260"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
       <c r="K9" s="94"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="478"/>
+      <c r="N9" s="476"/>
       <c r="O9" s="66"/>
-      <c r="T9" s="476"/>
-      <c r="V9" s="482">
+      <c r="T9" s="474"/>
+      <c r="V9" s="480">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.6" thickBot="1">
       <c r="A10" s="66"/>
       <c r="B10" s="77"/>
       <c r="C10" s="91"/>
@@ -16884,7 +16867,7 @@
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
-      <c r="H10" s="261"/>
+      <c r="H10" s="260"/>
       <c r="I10" s="68"/>
       <c r="J10" s="76"/>
       <c r="K10" s="94"/>
@@ -16892,11 +16875,11 @@
       <c r="M10" s="94"/>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
-      <c r="V10" s="482">
+      <c r="V10" s="480">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.6" thickBot="1">
       <c r="A11" s="66"/>
       <c r="B11" s="78"/>
       <c r="C11" s="97"/>
@@ -16908,11 +16891,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="416" t="s">
+      <c r="F11" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="449"/>
-      <c r="H11" s="261"/>
+      <c r="G11" s="448"/>
+      <c r="H11" s="260"/>
       <c r="I11" s="67" t="s">
         <v>39</v>
       </c>
@@ -16928,43 +16911,43 @@
       <c r="M11" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="198" t="s">
+      <c r="N11" s="197" t="s">
         <v>107</v>
       </c>
       <c r="O11" s="66"/>
-      <c r="V11" s="482">
+      <c r="V11" s="480">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.6" thickBot="1">
       <c r="A12" s="66"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
       <c r="D12" s="106"/>
       <c r="E12" s="85"/>
-      <c r="F12" s="447">
+      <c r="F12" s="446">
         <f>SUM(F13:F28)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="448" t="s">
+      <c r="G12" s="447" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="261"/>
+      <c r="H12" s="260"/>
       <c r="I12" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="76">
         <v>57</v>
       </c>
-      <c r="K12" s="265">
+      <c r="K12" s="264">
         <f xml:space="preserve"> (J11-J12)/J13</f>
         <v>0.25</v>
       </c>
-      <c r="L12" s="266">
+      <c r="L12" s="265">
         <f xml:space="preserve"> _xlfn.NORM.DIST(J11,J12,J13, TRUE)</f>
         <v>0.5987063256829237</v>
       </c>
-      <c r="M12" s="266">
+      <c r="M12" s="265">
         <f>1-L12</f>
         <v>0.4012936743170763</v>
       </c>
@@ -16973,24 +16956,24 @@
         <v>-6.5499573830301472E-2</v>
       </c>
       <c r="O12" s="66"/>
-      <c r="V12" s="482">
+      <c r="V12" s="480">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.3">
       <c r="A13" s="66"/>
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="106"/>
-      <c r="E13" s="442"/>
-      <c r="F13" s="482">
+      <c r="E13" s="441"/>
+      <c r="F13" s="480">
         <v>12</v>
       </c>
-      <c r="G13" s="483">
+      <c r="G13" s="481">
         <f>IF(F13="","",F13/F$12)</f>
         <v>0.12</v>
       </c>
-      <c r="H13" s="261"/>
+      <c r="H13" s="260"/>
       <c r="I13" s="67" t="s">
         <v>42</v>
       </c>
@@ -17002,24 +16985,24 @@
       <c r="M13" s="91"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
-      <c r="V13" s="482">
+      <c r="V13" s="480">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.3">
       <c r="A14" s="66"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="459"/>
+      <c r="C14" s="458"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="442"/>
-      <c r="F14" s="482">
+      <c r="E14" s="441"/>
+      <c r="F14" s="480">
         <v>33</v>
       </c>
-      <c r="G14" s="484">
+      <c r="G14" s="482">
         <f t="shared" ref="G14:G24" si="2">IF(F14="","",F14/F$12)</f>
         <v>0.33</v>
       </c>
-      <c r="H14" s="261"/>
+      <c r="H14" s="260"/>
       <c r="I14" s="67" t="s">
         <v>106</v>
       </c>
@@ -17031,24 +17014,24 @@
       <c r="M14" s="91"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
-      <c r="V14" s="482">
+      <c r="V14" s="480">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.6" thickBot="1">
       <c r="A15" s="66"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="461"/>
+      <c r="C15" s="460"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="443"/>
-      <c r="F15" s="482">
+      <c r="E15" s="442"/>
+      <c r="F15" s="480">
         <v>29</v>
       </c>
-      <c r="G15" s="484">
+      <c r="G15" s="482">
         <f t="shared" si="2"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H15" s="261"/>
+      <c r="H15" s="260"/>
       <c r="I15" s="67"/>
       <c r="J15" s="76"/>
       <c r="K15" s="157" t="s">
@@ -17064,24 +17047,24 @@
         <v>171</v>
       </c>
       <c r="O15" s="66"/>
-      <c r="V15" s="482">
+      <c r="V15" s="480">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.3" thickBot="1">
       <c r="A16" s="66"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="460"/>
+      <c r="C16" s="459"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="482">
+      <c r="F16" s="480">
         <v>11</v>
       </c>
-      <c r="G16" s="484">
+      <c r="G16" s="482">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
-      <c r="H16" s="261"/>
+      <c r="H16" s="260"/>
       <c r="I16" s="87"/>
       <c r="J16" s="88"/>
       <c r="K16" s="70" t="s">
@@ -17090,31 +17073,31 @@
       <c r="L16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="491" t="s">
+      <c r="M16" s="489" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="492" t="s">
+      <c r="N16" s="490" t="s">
         <v>172</v>
       </c>
       <c r="O16" s="66"/>
-      <c r="V16" s="482">
+      <c r="V16" s="480">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.6" thickBot="1">
       <c r="A17" s="66"/>
       <c r="B17" s="66"/>
       <c r="C17" s="75"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="462">
+      <c r="F17" s="461">
         <v>6</v>
       </c>
-      <c r="G17" s="444">
+      <c r="G17" s="443">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="H17" s="261"/>
+      <c r="H17" s="260"/>
       <c r="I17" s="90" t="s">
         <v>50</v>
       </c>
@@ -17138,161 +17121,161 @@
         <v>0.50541122449897558</v>
       </c>
       <c r="O17" s="66"/>
-      <c r="V17" s="482">
+      <c r="V17" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="17.7" thickBot="1">
       <c r="C18" s="29"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
-      <c r="F18" s="462">
+      <c r="F18" s="461">
         <v>2</v>
       </c>
-      <c r="G18" s="444">
+      <c r="G18" s="443">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H18" s="262"/>
-      <c r="I18" s="212" t="s">
+      <c r="H18" s="261"/>
+      <c r="I18" s="211" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="212">
         <v>1.4</v>
       </c>
-      <c r="K18" s="271" t="s">
+      <c r="K18" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="256"/>
+      <c r="M18" s="255"/>
       <c r="O18" s="66"/>
-      <c r="V18" s="482">
+      <c r="V18" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15.6" thickBot="1">
       <c r="C19" s="29"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
-      <c r="F19" s="463">
+      <c r="F19" s="462">
         <v>3</v>
       </c>
-      <c r="G19" s="444">
+      <c r="G19" s="443">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="H19" s="262"/>
-      <c r="I19" s="490" t="s">
+      <c r="H19" s="261"/>
+      <c r="I19" s="488" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="97">
         <v>0.11</v>
       </c>
-      <c r="K19" s="340">
+      <c r="K19" s="339">
         <f>_xlfn.NORM.S.INV(J19)</f>
         <v>-1.2265281200366105</v>
       </c>
       <c r="O19" s="66"/>
-      <c r="V19" s="482">
+      <c r="V19" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="16.5" customHeight="1">
       <c r="C20" s="29"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
-      <c r="F20" s="463">
+      <c r="F20" s="462">
         <v>1</v>
       </c>
-      <c r="G20" s="444">
+      <c r="G20" s="443">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="H20" s="262"/>
+      <c r="H20" s="261"/>
       <c r="I20" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J20" s="76">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K20" s="263" t="s">
+      <c r="K20" s="262" t="s">
         <v>109</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="V20" s="482">
+      <c r="V20" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.6" thickBot="1">
       <c r="C21" s="29"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
-      <c r="F21" s="463">
+      <c r="F21" s="462">
         <v>1</v>
       </c>
-      <c r="G21" s="444">
+      <c r="G21" s="443">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="H21" s="262"/>
+      <c r="H21" s="261"/>
       <c r="I21" s="67" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="76">
         <v>1.31</v>
       </c>
-      <c r="K21" s="264">
+      <c r="K21" s="263">
         <f>K19*J21+J20</f>
         <v>0.59324816275204029</v>
       </c>
       <c r="O21" s="66"/>
-      <c r="V21" s="482">
+      <c r="V21" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="C22" s="29"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="463">
+      <c r="F22" s="462">
         <v>2</v>
       </c>
-      <c r="G22" s="444">
+      <c r="G22" s="443">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H22" s="262"/>
+      <c r="H22" s="261"/>
       <c r="O22" s="66"/>
-      <c r="V22" s="482">
+      <c r="V22" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="14.7" thickBot="1">
       <c r="C23" s="29"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="463"/>
-      <c r="G23" s="444" t="str">
+      <c r="F23" s="462"/>
+      <c r="G23" s="443" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H23" s="262"/>
-      <c r="J23" s="532"/>
-      <c r="K23" s="532"/>
+      <c r="H23" s="261"/>
+      <c r="J23" s="531"/>
+      <c r="K23" s="531"/>
       <c r="O23" s="66"/>
-      <c r="V23" s="482">
+      <c r="V23" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.6" thickBot="1">
       <c r="C24" s="29"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
-      <c r="F24" s="463"/>
-      <c r="G24" s="444" t="str">
+      <c r="F24" s="462"/>
+      <c r="G24" s="443" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" s="262"/>
+      <c r="H24" s="261"/>
       <c r="I24" s="67" t="s">
         <v>39</v>
       </c>
@@ -17309,27 +17292,27 @@
         <v>51</v>
       </c>
       <c r="O24" s="66"/>
-      <c r="V24" s="482">
+      <c r="V24" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15.6" thickBot="1">
       <c r="C25" s="29"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
       <c r="F25" s="81"/>
-      <c r="H25" s="262"/>
+      <c r="H25" s="261"/>
       <c r="I25" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="76">
         <v>0</v>
       </c>
-      <c r="K25" s="265">
+      <c r="K25" s="264">
         <f xml:space="preserve"> (J24-J25)/K27</f>
         <v>2.7306357613906034</v>
       </c>
-      <c r="L25" s="266">
+      <c r="L25" s="265">
         <f xml:space="preserve">  _xlfn.NORM.S.DIST(K25,TRUE)</f>
         <v>0.99683938542026707</v>
       </c>
@@ -17337,16 +17320,16 @@
         <f>1-L25</f>
         <v>3.1606145797329344E-3</v>
       </c>
-      <c r="V25" s="482">
+      <c r="V25" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.6" thickBot="1">
       <c r="C26" s="29"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
-      <c r="H26" s="262"/>
+      <c r="H26" s="261"/>
       <c r="I26" s="67" t="s">
         <v>42</v>
       </c>
@@ -17358,16 +17341,16 @@
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="91"/>
-      <c r="V26" s="482">
+      <c r="V26" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="16.5" thickBot="1">
       <c r="C27" s="29"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
-      <c r="H27" s="262"/>
+      <c r="H27" s="261"/>
       <c r="I27" s="98" t="s">
         <v>52</v>
       </c>
@@ -17378,496 +17361,496 @@
         <f>J26/SQRT(J27)</f>
         <v>0.44312024954356982</v>
       </c>
-      <c r="V27" s="482">
+      <c r="V27" s="480">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="C28" s="29"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
-      <c r="H28" s="262"/>
-      <c r="V28" s="482">
+      <c r="H28" s="261"/>
+      <c r="V28" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="C29" s="29"/>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
-      <c r="H29" s="262"/>
-      <c r="V29" s="482">
+      <c r="H29" s="261"/>
+      <c r="V29" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="C30" s="29"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="V30" s="482">
+      <c r="V30" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="C31" s="29"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="V31" s="482">
+      <c r="V31" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="C32" s="29"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="V32" s="482">
+      <c r="V32" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22">
       <c r="C33" s="29"/>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="V33" s="482">
+      <c r="V33" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22">
       <c r="C34" s="29"/>
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="81"/>
-      <c r="V34" s="482">
+      <c r="V34" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22">
       <c r="C35" s="29"/>
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
-      <c r="V35" s="482">
+      <c r="V35" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22">
       <c r="C36" s="29"/>
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
-      <c r="V36" s="482">
+      <c r="V36" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22">
       <c r="C37" s="29"/>
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
       <c r="F37" s="81"/>
-      <c r="V37" s="482">
+      <c r="V37" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:22">
       <c r="C38" s="29"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="81"/>
-      <c r="V38" s="482">
+      <c r="V38" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:22">
       <c r="C39" s="29"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="V39" s="482">
+      <c r="V39" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:22">
       <c r="C40" s="29"/>
       <c r="D40" s="80"/>
       <c r="E40" s="80"/>
       <c r="F40" s="81"/>
-      <c r="V40" s="482">
+      <c r="V40" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:22">
       <c r="C41" s="29"/>
       <c r="D41" s="80"/>
       <c r="E41" s="80"/>
       <c r="F41" s="81"/>
-      <c r="V41" s="482">
+      <c r="V41" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:22">
       <c r="C42" s="29"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="81"/>
-      <c r="V42" s="482">
+      <c r="V42" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22">
       <c r="C43" s="29"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="81"/>
-      <c r="V43" s="482">
+      <c r="V43" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:22">
       <c r="C44" s="29"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="81"/>
-      <c r="V44" s="482">
+      <c r="V44" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:22">
       <c r="C45" s="29"/>
       <c r="D45" s="80"/>
       <c r="E45" s="80"/>
       <c r="F45" s="81"/>
-      <c r="V45" s="482">
+      <c r="V45" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:22">
       <c r="C46" s="29"/>
       <c r="D46" s="80"/>
       <c r="E46" s="80"/>
       <c r="F46" s="81"/>
-      <c r="V46" s="482">
+      <c r="V46" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:22">
       <c r="C47" s="29"/>
       <c r="D47" s="80"/>
       <c r="E47" s="80"/>
       <c r="F47" s="81"/>
-      <c r="V47" s="482">
+      <c r="V47" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:22">
       <c r="C48" s="29"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="81"/>
-      <c r="V48" s="482">
+      <c r="V48" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:22">
       <c r="C49" s="29"/>
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81"/>
-      <c r="V49" s="482">
+      <c r="V49" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:22">
       <c r="C50" s="29"/>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
       <c r="F50" s="81"/>
-      <c r="V50" s="482">
+      <c r="V50" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:22">
       <c r="C51" s="29"/>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
       <c r="F51" s="81"/>
-      <c r="V51" s="482">
+      <c r="V51" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:22">
       <c r="C52" s="29"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
-      <c r="V52" s="482">
+      <c r="V52" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:22">
       <c r="C53" s="29"/>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
       <c r="F53" s="81"/>
-      <c r="V53" s="482">
+      <c r="V53" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:22">
       <c r="C54" s="29"/>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
       <c r="F54" s="81"/>
-      <c r="V54" s="482">
+      <c r="V54" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:22">
       <c r="C55" s="29"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="81"/>
-      <c r="V55" s="482">
+      <c r="V55" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V56" s="482">
+    <row r="56" spans="3:22">
+      <c r="V56" s="480">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V57" s="482">
+    <row r="57" spans="3:22">
+      <c r="V57" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V58" s="482">
+    <row r="58" spans="3:22">
+      <c r="V58" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V59" s="482">
+    <row r="59" spans="3:22">
+      <c r="V59" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V60" s="482">
+    <row r="60" spans="3:22">
+      <c r="V60" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V61" s="482">
+    <row r="61" spans="3:22">
+      <c r="V61" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V62" s="482">
+    <row r="62" spans="3:22">
+      <c r="V62" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V63" s="482">
+    <row r="63" spans="3:22">
+      <c r="V63" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="V64" s="482">
+    <row r="64" spans="3:22">
+      <c r="V64" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V65" s="482">
+    <row r="65" spans="22:22">
+      <c r="V65" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V66" s="482">
+    <row r="66" spans="22:22">
+      <c r="V66" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V67" s="482">
+    <row r="67" spans="22:22">
+      <c r="V67" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V68" s="482">
+    <row r="68" spans="22:22">
+      <c r="V68" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V69" s="482">
+    <row r="69" spans="22:22">
+      <c r="V69" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V70" s="482">
+    <row r="70" spans="22:22">
+      <c r="V70" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V71" s="482">
+    <row r="71" spans="22:22">
+      <c r="V71" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V72" s="482">
+    <row r="72" spans="22:22">
+      <c r="V72" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V73" s="482">
+    <row r="73" spans="22:22">
+      <c r="V73" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V74" s="482">
+    <row r="74" spans="22:22">
+      <c r="V74" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V75" s="482">
+    <row r="75" spans="22:22">
+      <c r="V75" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V76" s="482">
+    <row r="76" spans="22:22">
+      <c r="V76" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V77" s="482">
+    <row r="77" spans="22:22">
+      <c r="V77" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V78" s="482">
+    <row r="78" spans="22:22">
+      <c r="V78" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V79" s="482">
+    <row r="79" spans="22:22">
+      <c r="V79" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V80" s="482">
+    <row r="80" spans="22:22">
+      <c r="V80" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V81" s="482">
+    <row r="81" spans="22:22">
+      <c r="V81" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V82" s="482">
+    <row r="82" spans="22:22">
+      <c r="V82" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V83" s="482">
+    <row r="83" spans="22:22">
+      <c r="V83" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V84" s="482">
+    <row r="84" spans="22:22">
+      <c r="V84" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V85" s="482">
+    <row r="85" spans="22:22">
+      <c r="V85" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V86" s="482">
+    <row r="86" spans="22:22">
+      <c r="V86" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V87" s="482">
+    <row r="87" spans="22:22">
+      <c r="V87" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V88" s="482">
+    <row r="88" spans="22:22">
+      <c r="V88" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V89" s="482">
+    <row r="89" spans="22:22">
+      <c r="V89" s="480">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V90" s="482">
+    <row r="90" spans="22:22">
+      <c r="V90" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V91" s="482">
+    <row r="91" spans="22:22">
+      <c r="V91" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V92" s="482">
+    <row r="92" spans="22:22">
+      <c r="V92" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V93" s="482">
+    <row r="93" spans="22:22">
+      <c r="V93" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V94" s="482">
+    <row r="94" spans="22:22">
+      <c r="V94" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V95" s="482">
+    <row r="95" spans="22:22">
+      <c r="V95" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V96" s="482">
+    <row r="96" spans="22:22">
+      <c r="V96" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V97" s="482">
+    <row r="97" spans="22:22">
+      <c r="V97" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V98" s="482">
+    <row r="98" spans="22:22">
+      <c r="V98" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V99" s="482">
+    <row r="99" spans="22:22">
+      <c r="V99" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V100" s="482">
+    <row r="100" spans="22:22">
+      <c r="V100" s="480">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V101" s="482">
+    <row r="101" spans="22:22">
+      <c r="V101" s="480">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="V2:V101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V2:V101">
     <sortCondition descending="1" ref="V2"/>
   </sortState>
   <mergeCells count="1">
@@ -17882,67 +17865,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="0.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.26171875" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" customWidth="1"/>
+    <col min="3" max="3" width="1.15625" customWidth="1"/>
+    <col min="4" max="4" width="0.83984375" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" customWidth="1"/>
+    <col min="6" max="6" width="9.68359375" customWidth="1"/>
+    <col min="7" max="7" width="6.83984375" customWidth="1"/>
+    <col min="8" max="8" width="8.68359375" customWidth="1"/>
+    <col min="10" max="10" width="10.83984375" customWidth="1"/>
+    <col min="11" max="11" width="11.578125" customWidth="1"/>
+    <col min="12" max="12" width="10.68359375" customWidth="1"/>
+    <col min="13" max="13" width="10.41796875" customWidth="1"/>
+    <col min="14" max="14" width="0.68359375" customWidth="1"/>
+    <col min="15" max="15" width="8.68359375" customWidth="1"/>
+    <col min="16" max="16" width="8.26171875" customWidth="1"/>
     <col min="17" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="30" customWidth="1"/>
+    <col min="19" max="19" width="9.83984375" customWidth="1"/>
+    <col min="20" max="20" width="10.15625" customWidth="1"/>
+    <col min="21" max="21" width="0.68359375" customWidth="1"/>
+    <col min="22" max="22" width="6.68359375" style="30" customWidth="1"/>
     <col min="23" max="23" width="8" style="30" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" customWidth="1"/>
+    <col min="24" max="24" width="9.83984375" customWidth="1"/>
+    <col min="25" max="25" width="10.15625" customWidth="1"/>
+    <col min="26" max="26" width="10.41796875" customWidth="1"/>
+    <col min="27" max="27" width="4.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
       <c r="A1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="219" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="105"/>
       <c r="D1" s="84"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
-      <c r="K1" s="351" t="s">
+      <c r="K1" s="350" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="352">
+      <c r="L1" s="351">
         <v>95</v>
       </c>
-      <c r="N1" s="302"/>
-      <c r="U1" s="336"/>
-    </row>
-    <row r="2" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="563">
+      <c r="N1" s="301"/>
+      <c r="U1" s="335"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.6" thickBot="1">
+      <c r="A2" s="526">
         <v>0</v>
       </c>
-      <c r="B2" s="563">
+      <c r="B2" s="526">
         <v>0.38600000000000001</v>
       </c>
       <c r="C2" s="106">
@@ -17956,14 +17939,14 @@
       <c r="E2" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="348">
+      <c r="F2" s="347">
         <f>SUM(D2:D6)</f>
         <v>1.147</v>
       </c>
-      <c r="G2" s="355" t="s">
+      <c r="G2" s="354" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="356">
+      <c r="H2" s="355">
         <f>F2</f>
         <v>1.147</v>
       </c>
@@ -17974,21 +17957,21 @@
         <f>H2</f>
         <v>1.147</v>
       </c>
-      <c r="K2" s="357"/>
-      <c r="L2" s="343"/>
-      <c r="N2" s="303"/>
+      <c r="K2" s="356"/>
+      <c r="L2" s="342"/>
+      <c r="N2" s="302"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
-      <c r="U2" s="337"/>
+      <c r="U2" s="336"/>
       <c r="X2" s="140"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="563">
+    <row r="3" spans="1:27" ht="15.6" thickBot="1">
+      <c r="A3" s="526">
         <v>1</v>
       </c>
-      <c r="B3" s="563">
+      <c r="B3" s="526">
         <v>0.307</v>
       </c>
       <c r="C3" s="106">
@@ -18002,14 +17985,14 @@
       <c r="E3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="349">
+      <c r="F3" s="348">
         <f>SUM(C2:C6)</f>
         <v>1.4933909999999999</v>
       </c>
-      <c r="G3" s="358" t="s">
+      <c r="G3" s="357" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="459">
+      <c r="H3" s="458">
         <f>F4</f>
         <v>1.2220437799031587</v>
       </c>
@@ -18021,20 +18004,20 @@
         <v>0.54651459266885083</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="313"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="291" t="s">
+      <c r="L3" s="312"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="290" t="s">
         <v>102</v>
       </c>
       <c r="P3" s="74">
         <v>0.155</v>
       </c>
       <c r="Q3" s="160"/>
-      <c r="R3" s="294">
+      <c r="R3" s="293">
         <f>(P3+P4)/2</f>
         <v>0.26</v>
       </c>
-      <c r="U3" s="337"/>
+      <c r="U3" s="336"/>
       <c r="V3" s="94"/>
       <c r="W3" s="76">
         <v>0.1</v>
@@ -18043,11 +18026,11 @@
       <c r="Y3" s="121"/>
       <c r="Z3" s="126"/>
     </row>
-    <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="563">
+    <row r="4" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A4" s="526">
         <v>2</v>
       </c>
-      <c r="B4" s="563">
+      <c r="B4" s="526">
         <v>0.153</v>
       </c>
       <c r="C4" s="106">
@@ -18061,48 +18044,48 @@
       <c r="E4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="350">
+      <c r="F4" s="349">
         <f>SQRT(F3)</f>
         <v>1.2220437799031587</v>
       </c>
-      <c r="G4" s="359" t="s">
+      <c r="G4" s="358" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="287">
+      <c r="H4" s="286">
         <v>5</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="430">
+      <c r="I4" s="184"/>
+      <c r="J4" s="429">
         <f>SQRT(H6*(1-H6)/H4)</f>
         <v>0.18525657883055058</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="273">
+      <c r="K4" s="284"/>
+      <c r="L4" s="272">
         <f>H6</f>
         <v>0.78</v>
       </c>
-      <c r="N4" s="328"/>
-      <c r="O4" s="291" t="s">
+      <c r="N4" s="327"/>
+      <c r="O4" s="290" t="s">
         <v>103</v>
       </c>
       <c r="P4" s="74">
         <v>0.36499999999999999</v>
       </c>
-      <c r="Q4" s="293" t="s">
+      <c r="Q4" s="292" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="270">
+      <c r="R4" s="269">
         <f>(P4-P3)/2</f>
         <v>0.105</v>
       </c>
-      <c r="U4" s="337"/>
-      <c r="V4" s="339" t="s">
+      <c r="U4" s="336"/>
+      <c r="V4" s="338" t="s">
         <v>122</v>
       </c>
       <c r="W4" s="76">
         <v>239</v>
       </c>
-      <c r="X4" s="304">
+      <c r="X4" s="303">
         <f>_xlfn.CHISQ.INV(W3,W4)</f>
         <v>211.44423601108178</v>
       </c>
@@ -18116,11 +18099,11 @@
       </c>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="563">
+    <row r="5" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A5" s="526">
         <v>3</v>
       </c>
-      <c r="B5" s="563">
+      <c r="B5" s="526">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="C5" s="106">
@@ -18131,50 +18114,50 @@
         <f t="shared" si="1"/>
         <v>0.246</v>
       </c>
-      <c r="E5" s="431">
+      <c r="E5" s="430">
         <f>A2*B2+A3*B3</f>
         <v>0.307</v>
       </c>
-      <c r="F5" s="218"/>
-      <c r="G5" s="359" t="s">
+      <c r="F5" s="217"/>
+      <c r="G5" s="358" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="287">
+      <c r="H5" s="286">
         <v>20000</v>
       </c>
-      <c r="I5" s="284" t="s">
+      <c r="I5" s="283" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="286">
+      <c r="J5" s="285">
         <f>H4*H6*(1-H6)</f>
         <v>0.85799999999999998</v>
       </c>
-      <c r="K5" s="282" t="s">
+      <c r="K5" s="281" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="182">
+      <c r="L5" s="181">
         <f>H4/H5</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="N5" s="329"/>
-      <c r="O5" s="292" t="s">
+      <c r="N5" s="328"/>
+      <c r="O5" s="291" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="74">
         <v>1500</v>
       </c>
-      <c r="Q5" s="282" t="s">
+      <c r="Q5" s="281" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="295">
+      <c r="R5" s="294">
         <f>P5*R3</f>
         <v>390</v>
       </c>
-      <c r="U5" s="337"/>
-      <c r="V5" s="326" t="s">
+      <c r="U5" s="336"/>
+      <c r="V5" s="325" t="s">
         <v>125</v>
       </c>
-      <c r="W5" s="235">
+      <c r="W5" s="234">
         <v>2.9</v>
       </c>
       <c r="X5" s="159"/>
@@ -18184,11 +18167,11 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="563">
+    <row r="6" spans="1:27" ht="17.7" thickBot="1">
+      <c r="A6" s="526">
         <v>4</v>
       </c>
-      <c r="B6" s="563">
+      <c r="B6" s="526">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C6" s="106">
@@ -18199,18 +18182,18 @@
         <f t="shared" si="1"/>
         <v>0.28799999999999998</v>
       </c>
-      <c r="E6" s="283"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="359" t="s">
+      <c r="E6" s="282"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="358" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="287">
+      <c r="H6" s="286">
         <v>0.78</v>
       </c>
       <c r="I6" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="376">
+      <c r="J6" s="375">
         <f>ROUND(H8/H6, 0)</f>
         <v>2</v>
       </c>
@@ -18221,84 +18204,84 @@
         <f>ROUND(10/(H6*(1-H6)),0)</f>
         <v>58</v>
       </c>
-      <c r="N6" s="329"/>
+      <c r="N6" s="328"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
-      <c r="U6" s="337"/>
+      <c r="U6" s="336"/>
       <c r="V6" s="68"/>
-      <c r="W6" s="235"/>
-      <c r="X6" s="340">
+      <c r="W6" s="234"/>
+      <c r="X6" s="339">
         <f>(W7-1)*W5^2 / W8^2</f>
         <v>45.992187499999993</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="308"/>
-      <c r="B7" s="311" t="s">
+    <row r="7" spans="1:27" ht="17.7" thickBot="1">
+      <c r="A7" s="307"/>
+      <c r="B7" s="310" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="310"/>
+      <c r="C7" s="309"/>
       <c r="D7" s="85"/>
       <c r="E7" s="153" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="66"/>
-      <c r="G7" s="358" t="s">
+      <c r="G7" s="357" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="300">
+      <c r="H7" s="299">
         <v>81</v>
       </c>
-      <c r="I7" s="282" t="s">
+      <c r="I7" s="281" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="273">
+      <c r="J7" s="272">
         <f>H7*SQRT(H4)</f>
         <v>181.12150617748298</v>
       </c>
       <c r="K7" s="29"/>
-      <c r="L7" s="313"/>
-      <c r="N7" s="329"/>
+      <c r="L7" s="312"/>
+      <c r="N7" s="328"/>
       <c r="O7" s="178"/>
       <c r="P7" s="144">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q7" s="297" t="s">
+      <c r="Q7" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="298">
+      <c r="R7" s="297">
         <f>P7*(1-P7)* ((_xlfn.NORM.S.INV(1- (100-L1)/200))/P8)^2</f>
         <v>1051.7060593544802</v>
       </c>
-      <c r="U7" s="337"/>
+      <c r="U7" s="336"/>
       <c r="V7" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="235">
+      <c r="W7" s="234">
         <v>15</v>
       </c>
-      <c r="X7" s="537" t="s">
+      <c r="X7" s="536" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="538"/>
-      <c r="Z7" s="539"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="279"/>
-      <c r="B8" s="309"/>
-      <c r="C8" s="310"/>
+      <c r="Y7" s="537"/>
+      <c r="Z7" s="538"/>
+    </row>
+    <row r="8" spans="1:27" ht="18" customHeight="1" thickBot="1">
+      <c r="A8" s="278"/>
+      <c r="B8" s="308"/>
+      <c r="C8" s="309"/>
       <c r="D8" s="85"/>
       <c r="E8" s="155">
         <f>IF(B9="","",AVERAGE(B9:B30))</f>
         <v>0.2</v>
       </c>
       <c r="F8" s="66"/>
-      <c r="G8" s="358" t="s">
+      <c r="G8" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="287">
+      <c r="H8" s="286">
         <v>1.21</v>
       </c>
       <c r="I8" s="70" t="s">
@@ -18310,72 +18293,72 @@
       <c r="K8" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="198" t="s">
+      <c r="L8" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="329"/>
-      <c r="O8" s="325" t="s">
+      <c r="N8" s="328"/>
+      <c r="O8" s="324" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="97">
         <v>0.03</v>
       </c>
-      <c r="Q8" s="299" t="s">
+      <c r="Q8" s="298" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="298">
+      <c r="R8" s="297">
         <f>0.25* ((_xlfn.NORM.S.INV(1- (100-L$1)/200))/P8)^2</f>
         <v>1067.0718946372567</v>
       </c>
-      <c r="U8" s="337"/>
-      <c r="V8" s="280" t="s">
+      <c r="U8" s="336"/>
+      <c r="V8" s="279" t="s">
         <v>42</v>
       </c>
       <c r="W8" s="74">
         <v>1.6</v>
       </c>
-      <c r="X8" s="341" t="s">
+      <c r="X8" s="340" t="s">
         <v>134</v>
       </c>
-      <c r="Y8" s="344" t="s">
+      <c r="Y8" s="343" t="s">
         <v>133</v>
       </c>
-      <c r="Z8" s="346"/>
-    </row>
-    <row r="9" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="279"/>
-      <c r="B9" s="563">
+      <c r="Z8" s="345"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.6" thickBot="1">
+      <c r="A9" s="278"/>
+      <c r="B9" s="526">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C9" s="310"/>
+      <c r="C9" s="309"/>
       <c r="D9" s="85"/>
       <c r="E9" s="153" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="360" t="s">
+      <c r="G9" s="359" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="288">
+      <c r="H9" s="287">
         <v>83.75</v>
       </c>
-      <c r="I9" s="276">
+      <c r="I9" s="275">
         <f>ROUND((H8-H2)/H3,2)</f>
         <v>0.05</v>
       </c>
-      <c r="J9" s="277">
+      <c r="J9" s="276">
         <f xml:space="preserve"> _xlfn.NORM.DIST(H8,H2,H3, TRUE)</f>
         <v>0.52055755747088472</v>
       </c>
-      <c r="K9" s="277">
+      <c r="K9" s="276">
         <f>1-J9</f>
         <v>0.47944244252911528</v>
       </c>
-      <c r="L9" s="278">
+      <c r="L9" s="277">
         <f>_xlfn.NORM.DIST(H9,H2, H3, TRUE)-J9</f>
         <v>0.47944244252911528</v>
       </c>
-      <c r="N9" s="329"/>
+      <c r="N9" s="328"/>
       <c r="O9" s="94"/>
       <c r="P9" s="76">
         <v>0.01</v>
@@ -18384,12 +18367,12 @@
         <v>67</v>
       </c>
       <c r="R9" s="140"/>
-      <c r="U9" s="337"/>
-      <c r="X9" s="186">
+      <c r="U9" s="336"/>
+      <c r="X9" s="185">
         <f>CHIDIST(X6,W7-1)</f>
         <v>2.8119835991838909E-5</v>
       </c>
-      <c r="Y9" s="345">
+      <c r="Y9" s="344">
         <f>1-X9</f>
         <v>0.99997188016400818</v>
       </c>
@@ -18398,35 +18381,35 @@
         <v>5.6239671983677817E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="279"/>
-      <c r="B10" s="563">
+    <row r="10" spans="1:27" ht="15.9" thickTop="1" thickBot="1">
+      <c r="A10" s="278"/>
+      <c r="B10" s="526">
         <v>0.108</v>
       </c>
-      <c r="C10" s="310"/>
+      <c r="C10" s="309"/>
       <c r="D10" s="85"/>
-      <c r="E10" s="347">
+      <c r="E10" s="346">
         <f>_xlfn.STDEV.S(B9:B30)</f>
         <v>0.15598878164791208</v>
       </c>
-      <c r="G10" s="361"/>
-      <c r="H10" s="281" t="s">
+      <c r="G10" s="360"/>
+      <c r="H10" s="280" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="274" t="s">
+      <c r="I10" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="274" t="s">
+      <c r="J10" s="273" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="274" t="s">
+      <c r="K10" s="273" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="275" t="s">
+      <c r="L10" s="274" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="329"/>
-      <c r="O10" s="306" t="s">
+      <c r="N10" s="328"/>
+      <c r="O10" s="305" t="s">
         <v>122</v>
       </c>
       <c r="P10" s="69">
@@ -18438,29 +18421,29 @@
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="337"/>
+      <c r="U10" s="336"/>
       <c r="W10" s="91">
         <v>10.8</v>
       </c>
       <c r="X10" s="159"/>
       <c r="Y10" s="94"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="279"/>
-      <c r="B11" s="563">
+    <row r="11" spans="1:27" ht="15.6" thickBot="1">
+      <c r="A11" s="278"/>
+      <c r="B11" s="526">
         <v>0.115</v>
       </c>
-      <c r="C11" s="310"/>
+      <c r="C11" s="309"/>
       <c r="D11" s="85"/>
-      <c r="I11" s="353">
+      <c r="I11" s="352">
         <f>ROUND((H8-H2)/H7, 2)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="354">
+      <c r="J11" s="353">
         <f xml:space="preserve"> _xlfn.NORM.S.DIST(I11,TRUE)</f>
         <v>0.5</v>
       </c>
-      <c r="K11" s="354">
+      <c r="K11" s="353">
         <f>1-J11</f>
         <v>0.5</v>
       </c>
@@ -18468,21 +18451,21 @@
         <f>_xlfn.NORM.DIST(H9,H2, J3, TRUE)-J11</f>
         <v>0.5</v>
       </c>
-      <c r="N11" s="329"/>
-      <c r="O11" s="306" t="s">
+      <c r="N11" s="328"/>
+      <c r="O11" s="305" t="s">
         <v>115</v>
       </c>
       <c r="P11" s="69">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="304">
+      <c r="Q11" s="303">
         <f>TINV(2*P11, P10)</f>
         <v>0.85069979579045529</v>
       </c>
       <c r="R11" s="167"/>
       <c r="S11" s="111"/>
       <c r="T11" s="111"/>
-      <c r="U11" s="337"/>
+      <c r="U11" s="336"/>
       <c r="W11" s="91">
         <v>9</v>
       </c>
@@ -18492,18 +18475,18 @@
       </c>
       <c r="Y11" s="111"/>
     </row>
-    <row r="12" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="279"/>
-      <c r="B12" s="563">
+    <row r="12" spans="1:27" ht="15.6" thickBot="1">
+      <c r="A12" s="278"/>
+      <c r="B12" s="526">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C12" s="310"/>
+      <c r="C12" s="309"/>
       <c r="D12" s="85"/>
-      <c r="N12" s="329"/>
-      <c r="O12" s="533" t="s">
+      <c r="N12" s="328"/>
+      <c r="O12" s="532" t="s">
         <v>126</v>
       </c>
-      <c r="P12" s="534"/>
+      <c r="P12" s="533"/>
       <c r="Q12" s="121">
         <f>TINV(1-L$1/100, P10)</f>
         <v>2.0210753903062715</v>
@@ -18511,42 +18494,42 @@
       <c r="R12" s="75"/>
       <c r="S12" s="29"/>
       <c r="T12" s="111"/>
-      <c r="U12" s="337"/>
+      <c r="U12" s="336"/>
       <c r="W12" s="132"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="279"/>
-      <c r="B13" s="563">
+    <row r="13" spans="1:27" ht="15.6" thickBot="1">
+      <c r="A13" s="278"/>
+      <c r="B13" s="526">
         <v>0.42899999999999999</v>
       </c>
-      <c r="C13" s="310"/>
+      <c r="C13" s="309"/>
       <c r="D13" s="85"/>
       <c r="G13" s="128"/>
       <c r="H13" s="144">
         <v>0.84</v>
       </c>
-      <c r="I13" s="200"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="201" t="s">
+      <c r="I13" s="199"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="301" t="s">
+      <c r="M13" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="329"/>
-      <c r="O13" s="305"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="304"/>
       <c r="P13" s="74"/>
       <c r="Q13" s="111"/>
       <c r="R13" s="66"/>
-      <c r="U13" s="337"/>
-    </row>
-    <row r="14" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="312"/>
-      <c r="B14" s="496"/>
-      <c r="C14" s="310"/>
+      <c r="U13" s="336"/>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A14" s="311"/>
+      <c r="B14" s="494"/>
+      <c r="C14" s="309"/>
       <c r="D14" s="85"/>
       <c r="G14" s="90"/>
       <c r="H14" s="91"/>
@@ -18562,14 +18545,14 @@
       <c r="L14" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="219" t="s">
+      <c r="M14" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="329"/>
+      <c r="N14" s="328"/>
       <c r="O14" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="316">
+      <c r="P14" s="315">
         <v>4.97</v>
       </c>
       <c r="Q14" s="70" t="s">
@@ -18578,14 +18561,14 @@
       <c r="R14" s="160"/>
       <c r="S14" s="160"/>
       <c r="T14" s="29"/>
-      <c r="U14" s="337"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="312"/>
-      <c r="B15" s="496"/>
-      <c r="C15" s="310"/>
+      <c r="U14" s="336"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.6" thickBot="1">
+      <c r="A15" s="311"/>
+      <c r="B15" s="494"/>
+      <c r="C15" s="309"/>
       <c r="D15" s="85"/>
-      <c r="G15" s="199"/>
+      <c r="G15" s="198"/>
       <c r="H15" s="97"/>
       <c r="I15" s="117">
         <f xml:space="preserve"> ROUND( (H13-H6) / SQRT(H6*(1-H6)/H4), 2)</f>
@@ -18607,11 +18590,11 @@
         <f>2*K15</f>
         <v>0.74896833055335987</v>
       </c>
-      <c r="N15" s="329"/>
+      <c r="N15" s="328"/>
       <c r="O15" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="P15" s="235">
+      <c r="P15" s="234">
         <v>16.3</v>
       </c>
       <c r="Q15" s="121">
@@ -18627,18 +18610,18 @@
         <v>15.326525903489426</v>
       </c>
       <c r="T15" s="123"/>
-      <c r="U15" s="337"/>
-    </row>
-    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="312"/>
-      <c r="B16" s="496"/>
-      <c r="C16" s="310"/>
+      <c r="U15" s="336"/>
+    </row>
+    <row r="16" spans="1:27" ht="18" customHeight="1" thickBot="1">
+      <c r="A16" s="311"/>
+      <c r="B16" s="494"/>
+      <c r="C16" s="309"/>
       <c r="D16" s="85"/>
-      <c r="N16" s="329"/>
-      <c r="O16" s="307" t="s">
+      <c r="N16" s="328"/>
+      <c r="O16" s="306" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="235">
+      <c r="P16" s="234">
         <v>12</v>
       </c>
       <c r="Q16" s="168" t="s">
@@ -18647,38 +18630,38 @@
       <c r="R16" s="117"/>
       <c r="S16" s="117"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="337"/>
-    </row>
-    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="312"/>
-      <c r="B17" s="496"/>
-      <c r="C17" s="310"/>
+      <c r="U16" s="336"/>
+    </row>
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="311"/>
+      <c r="B17" s="494"/>
+      <c r="C17" s="309"/>
       <c r="D17" s="85"/>
       <c r="G17" s="94"/>
       <c r="H17" s="91"/>
       <c r="I17" s="70"/>
       <c r="J17" s="111"/>
       <c r="K17" s="111"/>
-      <c r="N17" s="329"/>
-      <c r="O17" s="331" t="s">
+      <c r="N17" s="328"/>
+      <c r="O17" s="330" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="332">
+      <c r="P17" s="331">
         <v>2</v>
       </c>
-      <c r="Q17" s="189">
+      <c r="Q17" s="188">
         <f>((_xlfn.NORM.S.INV(1- (100-L1)/200))*P15/P17)^2</f>
         <v>255.15929851755541</v>
       </c>
       <c r="R17" s="123"/>
       <c r="S17" s="111"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="337"/>
-    </row>
-    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="312"/>
-      <c r="B18" s="496"/>
-      <c r="C18" s="310"/>
+      <c r="U17" s="336"/>
+    </row>
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A18" s="311"/>
+      <c r="B18" s="494"/>
+      <c r="C18" s="309"/>
       <c r="D18" s="85"/>
       <c r="G18" s="94"/>
       <c r="H18" s="91"/>
@@ -18686,21 +18669,21 @@
         <f>-_xlfn.NORM.S.INV( (1-L1/100)/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="N18" s="329"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="335"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
+      <c r="N18" s="328"/>
+      <c r="O18" s="332"/>
+      <c r="P18" s="334"/>
       <c r="Q18" s="177"/>
       <c r="R18" s="177"/>
-      <c r="S18" s="334"/>
-      <c r="T18" s="334"/>
-      <c r="U18" s="337"/>
-    </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="312"/>
-      <c r="B19" s="496"/>
-      <c r="C19" s="310"/>
+      <c r="S18" s="333"/>
+      <c r="T18" s="333"/>
+      <c r="U18" s="336"/>
+    </row>
+    <row r="19" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A19" s="311"/>
+      <c r="B19" s="494"/>
+      <c r="C19" s="309"/>
       <c r="D19" s="85"/>
       <c r="G19" s="91"/>
       <c r="H19" s="75"/>
@@ -18712,20 +18695,20 @@
       <c r="L19" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="329"/>
+      <c r="N19" s="328"/>
       <c r="O19" s="68"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="114"/>
       <c r="R19" s="114"/>
-      <c r="U19" s="337"/>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="312"/>
-      <c r="B20" s="496"/>
-      <c r="C20" s="310"/>
+      <c r="U19" s="336"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A20" s="311"/>
+      <c r="B20" s="494"/>
+      <c r="C20" s="309"/>
       <c r="D20" s="85"/>
-      <c r="G20" s="432"/>
-      <c r="H20" s="433"/>
+      <c r="G20" s="431"/>
+      <c r="H20" s="432"/>
       <c r="I20" s="70" t="s">
         <v>44</v>
       </c>
@@ -18738,11 +18721,11 @@
       <c r="L20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="329"/>
+      <c r="N20" s="328"/>
       <c r="O20" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="235">
+      <c r="P20" s="234">
         <v>16</v>
       </c>
       <c r="Q20" s="138">
@@ -18753,17 +18736,17 @@
         <f>_xlfn.CHISQ.INV.RT((1-L1/100)/2,P20-1)</f>
         <v>27.488392863442979</v>
       </c>
-      <c r="U20" s="337"/>
-    </row>
-    <row r="21" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="312"/>
-      <c r="B21" s="313"/>
-      <c r="C21" s="310"/>
+      <c r="U20" s="336"/>
+    </row>
+    <row r="21" spans="1:21" ht="20.100000000000001" thickBot="1">
+      <c r="A21" s="311"/>
+      <c r="B21" s="312"/>
+      <c r="C21" s="309"/>
       <c r="D21" s="85"/>
-      <c r="G21" s="289" t="s">
+      <c r="G21" s="288" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="290">
+      <c r="H21" s="289">
         <v>-0.5</v>
       </c>
       <c r="I21" s="121">
@@ -18774,15 +18757,15 @@
         <f>1-I21</f>
         <v>0.69146246127401312</v>
       </c>
-      <c r="K21" s="321">
+      <c r="K21" s="320">
         <f>2*I21</f>
         <v>0.61707507745197376</v>
       </c>
-      <c r="L21" s="321">
+      <c r="L21" s="320">
         <f>2*J21</f>
         <v>1.3829249225480262</v>
       </c>
-      <c r="N21" s="329"/>
+      <c r="N21" s="328"/>
       <c r="O21" s="68" t="s">
         <v>127</v>
       </c>
@@ -18795,15 +18778,15 @@
       <c r="R21" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="U21" s="337"/>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="312"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="310"/>
+      <c r="U21" s="336"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A22" s="311"/>
+      <c r="B22" s="312"/>
+      <c r="C22" s="309"/>
       <c r="D22" s="85"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="535">
+      <c r="H22" s="534">
         <v>0.05</v>
       </c>
       <c r="I22" s="70" t="s">
@@ -18812,16 +18795,16 @@
       <c r="J22" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="322" t="s">
+      <c r="K22" s="321" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="323" t="s">
+      <c r="L22" s="322" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="324" t="s">
+      <c r="M22" s="323" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="329"/>
+      <c r="N22" s="328"/>
       <c r="O22" s="66"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="138">
@@ -18832,17 +18815,17 @@
         <f>(P20-1)*P21/Q20</f>
         <v>5.5093006780061922</v>
       </c>
-      <c r="U22" s="337"/>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="312"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="310"/>
+      <c r="U22" s="336"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A23" s="311"/>
+      <c r="B23" s="312"/>
+      <c r="C23" s="309"/>
       <c r="D23" s="85"/>
       <c r="G23" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="536"/>
+      <c r="H23" s="535"/>
       <c r="I23" s="121">
         <f>_xlfn.NORM.S.INV(H22)</f>
         <v>-1.6448536269514726</v>
@@ -18851,11 +18834,11 @@
         <f>_xlfn.NORM.S.INV(H22/2)</f>
         <v>-1.9599639845400538</v>
       </c>
-      <c r="K23" s="202">
+      <c r="K23" s="201">
         <f>-TINV(2*H22,H24)</f>
         <v>-2.3533634348018233</v>
       </c>
-      <c r="L23" s="320">
+      <c r="L23" s="319">
         <f>TINV(2*H22,H24)</f>
         <v>2.3533634348018233</v>
       </c>
@@ -18863,7 +18846,7 @@
         <f>TINV(H22,H24)</f>
         <v>3.1824463052837091</v>
       </c>
-      <c r="N23" s="329"/>
+      <c r="N23" s="328"/>
       <c r="O23" s="152" t="s">
         <v>128</v>
       </c>
@@ -18878,14 +18861,14 @@
         <f>SQRT((P20-1)*(P23^2)/Q20)</f>
         <v>4.3335354236049</v>
       </c>
-      <c r="U23" s="337"/>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="312"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="310"/>
+      <c r="U23" s="336"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A24" s="311"/>
+      <c r="B24" s="312"/>
+      <c r="C24" s="309"/>
       <c r="D24" s="85"/>
-      <c r="G24" s="306" t="s">
+      <c r="G24" s="305" t="s">
         <v>122</v>
       </c>
       <c r="H24" s="69">
@@ -18900,7 +18883,7 @@
       <c r="M24" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="N24" s="329"/>
+      <c r="N24" s="328"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="138">
         <f>Q23^2</f>
@@ -18910,12 +18893,12 @@
         <f>R23^2</f>
         <v>18.779529267638498</v>
       </c>
-      <c r="U24" s="337"/>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="312"/>
-      <c r="B25" s="313"/>
-      <c r="C25" s="310"/>
+      <c r="U24" s="336"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A25" s="311"/>
+      <c r="B25" s="312"/>
+      <c r="C25" s="309"/>
       <c r="D25" s="85"/>
       <c r="K25" s="121">
         <f>IF(J29 &gt;=10,  _xlfn.NORM.S.DIST(K27,TRUE), _xlfn.BINOM.DIST(H28, H26, H27, TRUE))</f>
@@ -18929,15 +18912,15 @@
         <f>2*L25</f>
         <v>8.7929766962426825E-3</v>
       </c>
-      <c r="N25" s="329"/>
+      <c r="N25" s="328"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="317"/>
-      <c r="U25" s="337"/>
-    </row>
-    <row r="26" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="312"/>
-      <c r="B26" s="313"/>
-      <c r="C26" s="310"/>
+      <c r="Q25" s="316"/>
+      <c r="U25" s="336"/>
+    </row>
+    <row r="26" spans="1:21" ht="17.7" thickBot="1">
+      <c r="A26" s="311"/>
+      <c r="B26" s="312"/>
+      <c r="C26" s="309"/>
       <c r="D26" s="85"/>
       <c r="G26" s="128" t="s">
         <v>35</v>
@@ -18948,7 +18931,7 @@
       <c r="I26" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="220" t="s">
+      <c r="J26" s="219" t="s">
         <v>62</v>
       </c>
       <c r="K26" s="70" t="s">
@@ -18957,11 +18940,11 @@
       <c r="L26" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="219" t="s">
+      <c r="M26" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="329"/>
-      <c r="O26" s="230" t="s">
+      <c r="N26" s="328"/>
+      <c r="O26" s="229" t="s">
         <v>68</v>
       </c>
       <c r="P26" s="144">
@@ -18973,14 +18956,14 @@
       <c r="R26" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="342"/>
-      <c r="T26" s="343"/>
-      <c r="U26" s="337"/>
-    </row>
-    <row r="27" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="312"/>
-      <c r="B27" s="313"/>
-      <c r="C27" s="310"/>
+      <c r="S26" s="341"/>
+      <c r="T26" s="342"/>
+      <c r="U26" s="336"/>
+    </row>
+    <row r="27" spans="1:21" ht="17.7" thickBot="1">
+      <c r="A27" s="311"/>
+      <c r="B27" s="312"/>
+      <c r="C27" s="309"/>
       <c r="D27" s="85"/>
       <c r="G27" s="90" t="s">
         <v>40</v>
@@ -18992,7 +18975,7 @@
         <f>H26*H27</f>
         <v>860</v>
       </c>
-      <c r="J27" s="318">
+      <c r="J27" s="317">
         <f>SQRT(H26*H27*(1-H27))</f>
         <v>22.140460699813815</v>
       </c>
@@ -19008,8 +18991,8 @@
         <f>1-L27</f>
         <v>4.3964883481213413E-3</v>
       </c>
-      <c r="N27" s="329"/>
-      <c r="O27" s="327" t="s">
+      <c r="N27" s="328"/>
+      <c r="O27" s="326" t="s">
         <v>69</v>
       </c>
       <c r="P27" s="91">
@@ -19031,12 +19014,12 @@
         <f>P28+Q29*P27/SQRT(P26)</f>
         <v>2.1449020053404104</v>
       </c>
-      <c r="U27" s="337"/>
-    </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="312"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="310"/>
+      <c r="U27" s="336"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A28" s="311"/>
+      <c r="B28" s="312"/>
+      <c r="C28" s="309"/>
       <c r="D28" s="85"/>
       <c r="G28" s="90" t="s">
         <v>39</v>
@@ -19045,17 +19028,17 @@
         <v>918</v>
       </c>
       <c r="I28" s="126"/>
-      <c r="J28" s="296" t="s">
+      <c r="J28" s="295" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="495"/>
+      <c r="K28" s="493"/>
       <c r="L28" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="M28" s="191" t="s">
+      <c r="M28" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="N28" s="329"/>
+      <c r="N28" s="328"/>
       <c r="O28" s="94"/>
       <c r="P28" s="99">
         <v>1.21</v>
@@ -19067,14 +19050,14 @@
       <c r="S28" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="U28" s="337"/>
-    </row>
-    <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="312"/>
-      <c r="B29" s="313"/>
-      <c r="C29" s="310"/>
+      <c r="U28" s="336"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A29" s="311"/>
+      <c r="B29" s="312"/>
+      <c r="C29" s="309"/>
       <c r="D29" s="85"/>
-      <c r="G29" s="360" t="s">
+      <c r="G29" s="359" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="97">
@@ -19088,11 +19071,11 @@
         <f>H26*I29*(1-I29)</f>
         <v>496.63799999999992</v>
       </c>
-      <c r="K29" s="493">
+      <c r="K29" s="491">
         <f>(H28+2)/(H26+4)</f>
         <v>0.45908183632734528</v>
       </c>
-      <c r="L29" s="498">
+      <c r="L29" s="496">
         <f>L27*2</f>
         <v>1.9912070233037573</v>
       </c>
@@ -19100,7 +19083,7 @@
         <f xml:space="preserve"> M27 - 1 + _xlfn.NORM.S.DIST(ROUND((H29 - I27)/J27,2),TRUE)</f>
         <v>-0.99560351165187866</v>
       </c>
-      <c r="N29" s="329"/>
+      <c r="N29" s="328"/>
       <c r="O29" s="177"/>
       <c r="P29" s="97">
         <v>0</v>
@@ -19117,12 +19100,12 @@
         <f>_xlfn.T.DIST(Q27, P26-1, TRUE)</f>
         <v>0.99288311676097785</v>
       </c>
-      <c r="U29" s="337"/>
-    </row>
-    <row r="30" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="314"/>
-      <c r="B30" s="315"/>
-      <c r="C30" s="310"/>
+      <c r="U29" s="336"/>
+    </row>
+    <row r="30" spans="1:21" ht="18" thickTop="1" thickBot="1">
+      <c r="A30" s="313"/>
+      <c r="B30" s="314"/>
+      <c r="C30" s="309"/>
       <c r="D30" s="85"/>
       <c r="I30" s="128" t="s">
         <v>70</v>
@@ -19133,21 +19116,21 @@
       <c r="K30" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="256"/>
-      <c r="N30" s="329"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="328"/>
       <c r="O30" s="145"/>
       <c r="P30" s="123"/>
       <c r="Q30" s="94"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="319" t="s">
+      <c r="S30" s="318" t="s">
         <v>66</v>
       </c>
       <c r="T30" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="U30" s="337"/>
-    </row>
-    <row r="31" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="336"/>
+    </row>
+    <row r="31" spans="1:21" ht="17.7" thickBot="1">
       <c r="I31" s="129">
         <f xml:space="preserve"> (100-L1)/200</f>
         <v>2.5000000000000001E-2</v>
@@ -19160,7 +19143,7 @@
         <f>_xlfn.NORM.S.INV(J31)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="N31" s="329"/>
+      <c r="N31" s="328"/>
       <c r="O31" s="147" t="s">
         <v>61</v>
       </c>
@@ -19176,24 +19159,24 @@
       <c r="S31" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="T31" s="219" t="s">
+      <c r="T31" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="337"/>
-    </row>
-    <row r="32" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="336"/>
+    </row>
+    <row r="32" spans="1:21" ht="17.7" thickBot="1">
       <c r="I32" s="113" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
-      <c r="L32" s="494" t="s">
+      <c r="L32" s="492" t="s">
         <v>174</v>
       </c>
       <c r="M32" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="329"/>
+      <c r="N32" s="328"/>
       <c r="O32" s="148" t="s">
         <v>52</v>
       </c>
@@ -19216,9 +19199,9 @@
         <f>2*R32</f>
         <v>1.9857472821466085</v>
       </c>
-      <c r="U32" s="337"/>
-    </row>
-    <row r="33" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="336"/>
+    </row>
+    <row r="33" spans="9:21" ht="15.6" thickBot="1">
       <c r="I33" s="114">
         <f>K31* SQRT(I29*(1-I29) / H26)</f>
         <v>2.183926753460317E-2</v>
@@ -19231,7 +19214,7 @@
         <f>I29+I33</f>
         <v>0.48083926753460321</v>
       </c>
-      <c r="L33" s="202">
+      <c r="L33" s="201">
         <f>K29-K31*SQRT(K29*(1-K29)/(H26+4))</f>
         <v>0.43726408085427082</v>
       </c>
@@ -19239,11 +19222,11 @@
         <f>K29+K31*SQRT(K29*(1-K29)/(H26+4))</f>
         <v>0.48089959180041975</v>
       </c>
-      <c r="N33" s="330"/>
-      <c r="U33" s="337"/>
-    </row>
-    <row r="34" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U34" s="338"/>
+      <c r="N33" s="329"/>
+      <c r="U33" s="336"/>
+    </row>
+    <row r="34" spans="9:21" ht="15.6" thickBot="1">
+      <c r="U34" s="337"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19263,15 +19246,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>125730</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>506730</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19288,7 +19271,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>125730</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -19296,7 +19279,7 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19321,7 +19304,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19338,7 +19321,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:colOff>87630</xdr:colOff>
                 <xdr:row>16</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
@@ -19371,7 +19354,7 @@
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>361950</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19388,13 +19371,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>220980</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>49530</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
@@ -19413,9 +19396,9 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>125730</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
@@ -19438,7 +19421,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>68580</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -19446,7 +19429,7 @@
                 <xdr:col>18</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19465,13 +19448,13 @@
                 <xdr:col>17</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>506730</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19488,15 +19471,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>163830</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>476250</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19521,7 +19504,7 @@
                 <xdr:col>15</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19538,15 +19521,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>163830</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>316230</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19571,7 +19554,7 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19588,9 +19571,9 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>125730</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
@@ -19613,7 +19596,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>68580</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
@@ -19621,7 +19604,7 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
+                <xdr:rowOff>220980</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19638,15 +19621,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19665,11 +19648,11 @@
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
+                <xdr:colOff>354330</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -19688,15 +19671,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>163830</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>316230</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19715,11 +19698,11 @@
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
+                <xdr:colOff>373380</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -19738,15 +19721,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>163830</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>316230</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19765,13 +19748,13 @@
                 <xdr:col>24</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>24</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>506730</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19788,15 +19771,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>23</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>163830</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>476250</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19815,13 +19798,13 @@
                 <xdr:col>25</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>25</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>506730</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19863,9 +19846,9 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>125730</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>18</xdr:col>
@@ -19888,7 +19871,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>19</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>125730</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
@@ -19913,7 +19896,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>163830</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -19921,7 +19904,7 @@
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19965,7 +19948,7 @@
                 <xdr:col>21</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>163830</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>21</xdr:col>
@@ -19990,13 +19973,13 @@
                 <xdr:col>21</xdr:col>
                 <xdr:colOff>95250</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20015,13 +19998,13 @@
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
+                <xdr:colOff>373380</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20046,7 +20029,7 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20061,48 +20044,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="1" max="3" width="8.15625" customWidth="1"/>
+    <col min="4" max="4" width="1.15625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" customWidth="1"/>
+    <col min="7" max="7" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26171875" customWidth="1"/>
+    <col min="9" max="9" width="1.26171875" customWidth="1"/>
     <col min="10" max="10" width="12" style="91" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="91" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.7109375" style="132" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="17" width="1.28515625" style="383" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="29" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="29" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="9.15625" style="91" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.68359375" style="132" customWidth="1"/>
+    <col min="15" max="15" width="9.41796875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="9.15625" style="29"/>
+    <col min="17" max="17" width="1.26171875" style="382" customWidth="1"/>
+    <col min="18" max="18" width="8.68359375" style="29" customWidth="1"/>
+    <col min="19" max="19" width="7.68359375" style="29" customWidth="1"/>
+    <col min="20" max="20" width="9.41796875" style="29" customWidth="1"/>
     <col min="21" max="21" width="1" style="29" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" style="29" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="29" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="29" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" style="29" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="29"/>
-    <col min="27" max="27" width="11.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.42578125" style="29" customWidth="1"/>
-    <col min="29" max="29" width="3.85546875" style="29" customWidth="1"/>
-    <col min="30" max="30" width="1.5703125" style="29" customWidth="1"/>
-    <col min="31" max="31" width="2.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.26171875" style="29" customWidth="1"/>
+    <col min="23" max="23" width="9.41796875" style="29" customWidth="1"/>
+    <col min="24" max="24" width="10.68359375" style="29" customWidth="1"/>
+    <col min="25" max="25" width="9.41796875" style="29" customWidth="1"/>
+    <col min="26" max="26" width="9.15625" style="29"/>
+    <col min="27" max="27" width="11.83984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.41796875" style="29" customWidth="1"/>
+    <col min="29" max="29" width="3.83984375" style="29" customWidth="1"/>
+    <col min="30" max="30" width="1.578125" style="29" customWidth="1"/>
+    <col min="31" max="31" width="2.41796875" customWidth="1"/>
     <col min="32" max="32" width="1" style="109" customWidth="1"/>
-    <col min="33" max="34" width="0.85546875" style="109" customWidth="1"/>
+    <col min="33" max="34" width="0.83984375" style="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="17.7" thickBot="1">
       <c r="A1" s="164">
         <f>COUNT(A4:A39)</f>
         <v>8</v>
@@ -20113,26 +20096,26 @@
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="151"/>
-      <c r="E1" s="369" t="s">
+      <c r="E1" s="368" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="370" t="s">
+      <c r="F1" s="369" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="540"/>
-      <c r="H1" s="541"/>
-      <c r="I1" s="195"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="540"/>
+      <c r="I1" s="194"/>
       <c r="J1" s="150"/>
       <c r="K1" s="99"/>
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
       <c r="O1" s="75"/>
       <c r="P1" s="75"/>
-      <c r="Q1" s="195"/>
+      <c r="Q1" s="194"/>
       <c r="R1" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="435">
+      <c r="S1" s="434">
         <f>SUM(S4:S18)</f>
         <v>576</v>
       </c>
@@ -20148,7 +20131,7 @@
       <c r="AC1" s="75"/>
       <c r="AD1" s="75"/>
     </row>
-    <row r="2" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="18" thickBot="1">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
@@ -20163,17 +20146,17 @@
       <c r="F2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="375" t="s">
+      <c r="G2" s="374" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="375" t="s">
+      <c r="H2" s="374" t="s">
         <v>146</v>
       </c>
       <c r="I2" s="154"/>
-      <c r="J2" s="203" t="s">
+      <c r="J2" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="197">
+      <c r="K2" s="196">
         <v>90</v>
       </c>
       <c r="L2" s="111"/>
@@ -20181,15 +20164,15 @@
       <c r="N2" s="94"/>
       <c r="O2" s="75"/>
       <c r="P2" s="75"/>
-      <c r="Q2" s="385"/>
-      <c r="R2" s="384" t="s">
+      <c r="Q2" s="384"/>
+      <c r="R2" s="383" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="32">
         <v>576</v>
       </c>
       <c r="T2" s="132"/>
-      <c r="U2" s="394"/>
+      <c r="U2" s="393"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -20200,10 +20183,10 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="75"/>
     </row>
-    <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="456"/>
-      <c r="B3" s="456"/>
-      <c r="C3" s="365" t="s">
+    <row r="3" spans="1:34" ht="16.5" thickBot="1">
+      <c r="A3" s="455"/>
+      <c r="B3" s="455"/>
+      <c r="C3" s="364" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="154"/>
@@ -20219,7 +20202,7 @@
         <f xml:space="preserve"> IF(G8&gt;0, 2*(1-_xlfn.T.DIST(G8,A1- 1, TRUE)), 2*(_xlfn.T.DIST(G8,A1- 1, TRUE)))</f>
         <v>0.99507542388801351</v>
       </c>
-      <c r="H3" s="183">
+      <c r="H3" s="182">
         <f>_xlfn.T.DIST(G8,A1- 1, TRUE)</f>
         <v>0.49753771194400676</v>
       </c>
@@ -20233,29 +20216,29 @@
       <c r="N3" s="123"/>
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
-      <c r="Q3" s="385"/>
-      <c r="R3" s="518" t="s">
+      <c r="Q3" s="384"/>
+      <c r="R3" s="516" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="520" t="s">
+      <c r="S3" s="518" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="517" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="394"/>
-      <c r="V3" s="402"/>
-      <c r="W3" s="403"/>
+      <c r="U3" s="393"/>
+      <c r="V3" s="401"/>
+      <c r="W3" s="402"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="510" t="s">
+      <c r="Z3" s="508" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="511" t="s">
+      <c r="AA3" s="509" t="s">
         <v>147</v>
       </c>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="521" t="s">
+      <c r="AC3" s="519" t="s">
         <v>30</v>
       </c>
       <c r="AD3" s="75"/>
@@ -20267,14 +20250,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="502">
+    <row r="4" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A4" s="500">
         <v>220</v>
       </c>
-      <c r="B4" s="502">
+      <c r="B4" s="500">
         <v>73.3</v>
       </c>
-      <c r="C4" s="364">
+      <c r="C4" s="363">
         <f>A4-B4</f>
         <v>146.69999999999999</v>
       </c>
@@ -20289,13 +20272,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="153"/>
-      <c r="H4" s="450"/>
+      <c r="H4" s="449"/>
       <c r="I4" s="154"/>
       <c r="J4" s="145"/>
       <c r="L4" s="111"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
-      <c r="Q4" s="385">
+      <c r="Q4" s="384">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
         <v>219.23677420910491</v>
       </c>
@@ -20303,39 +20286,39 @@
         <f>S4/S$1</f>
         <v>0.38194444444444442</v>
       </c>
-      <c r="S4" s="517">
+      <c r="S4" s="515">
         <v>220</v>
       </c>
-      <c r="T4" s="376">
+      <c r="T4" s="375">
         <f>S$2*R4</f>
         <v>220</v>
       </c>
-      <c r="U4" s="394">
+      <c r="U4" s="393">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
         <v>95.338888888888874</v>
       </c>
-      <c r="V4" s="404">
+      <c r="V4" s="403">
         <f>SUM(Q4:Q15)</f>
         <v>574.0017361111112</v>
       </c>
-      <c r="W4" s="405">
+      <c r="W4" s="404">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
         <v>7.7794403397348582</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="508">
+      <c r="Z4" s="506">
         <v>1.6</v>
       </c>
-      <c r="AA4" s="509">
+      <c r="AA4" s="507">
         <f>Z4/S$1</f>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="523">
+      <c r="AC4" s="521">
         <v>0</v>
       </c>
-      <c r="AD4" s="522">
+      <c r="AD4" s="520">
         <f>AC4*R4</f>
         <v>0</v>
       </c>
@@ -20349,14 +20332,14 @@
         <v>21583.282656249998</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="502">
+    <row r="5" spans="1:34" ht="15.6" thickBot="1">
+      <c r="A5" s="500">
         <v>214</v>
       </c>
-      <c r="B5" s="502">
+      <c r="B5" s="500">
         <v>76.8</v>
       </c>
-      <c r="C5" s="364">
+      <c r="C5" s="363">
         <f t="shared" ref="C5:C16" si="0">A5-B5</f>
         <v>137.19999999999999</v>
       </c>
@@ -20373,14 +20356,14 @@
         <v>2.4634108177774277</v>
       </c>
       <c r="G5" s="155"/>
-      <c r="H5" s="183"/>
+      <c r="H5" s="182"/>
       <c r="I5" s="154"/>
       <c r="J5" s="176"/>
       <c r="K5" s="176"/>
       <c r="L5" s="123"/>
       <c r="O5" s="75"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="385">
+      <c r="Q5" s="384">
         <f t="shared" ref="Q5:Q23" si="2">IF(S5=0,0, (R5-S5)^2 / S5)</f>
         <v>213.25758945794755</v>
       </c>
@@ -20388,14 +20371,14 @@
         <f t="shared" ref="R5:R8" si="3">S5/S$1</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="S5" s="517">
+      <c r="S5" s="515">
         <v>214</v>
       </c>
-      <c r="T5" s="376">
+      <c r="T5" s="375">
         <f t="shared" ref="T5:T15" si="4">S$2*R5</f>
         <v>214</v>
       </c>
-      <c r="U5" s="394">
+      <c r="U5" s="393">
         <f t="shared" ref="U5:U17" si="5">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
         <v>84.734722222222203</v>
       </c>
@@ -20403,18 +20386,18 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="505">
+      <c r="Z5" s="503">
         <v>25.5</v>
       </c>
-      <c r="AA5" s="507">
+      <c r="AA5" s="505">
         <f t="shared" ref="AA5:AA14" si="6">Z5/S$1</f>
         <v>4.4270833333333336E-2</v>
       </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="523">
+      <c r="AC5" s="521">
         <v>1</v>
       </c>
-      <c r="AD5" s="522">
+      <c r="AD5" s="520">
         <f t="shared" ref="AD5:AD14" si="7">AC5*R5</f>
         <v>0.37152777777777779</v>
       </c>
@@ -20428,14 +20411,14 @@
         <v>18882.19515625</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="502">
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="500">
         <v>99</v>
       </c>
-      <c r="B6" s="502">
+      <c r="B6" s="500">
         <v>69.8</v>
       </c>
-      <c r="C6" s="364">
+      <c r="C6" s="363">
         <f t="shared" si="0"/>
         <v>29.200000000000003</v>
       </c>
@@ -20448,11 +20431,11 @@
       <c r="G6" s="66"/>
       <c r="H6" s="162"/>
       <c r="I6" s="154"/>
-      <c r="O6" s="221" t="s">
+      <c r="O6" s="220" t="s">
         <v>141</v>
       </c>
       <c r="P6" s="140"/>
-      <c r="Q6" s="385">
+      <c r="Q6" s="384">
         <f t="shared" si="2"/>
         <v>98.656548394097229</v>
       </c>
@@ -20460,37 +20443,37 @@
         <f t="shared" si="3"/>
         <v>0.171875</v>
       </c>
-      <c r="S6" s="517">
+      <c r="S6" s="515">
         <v>99</v>
       </c>
-      <c r="T6" s="376">
+      <c r="T6" s="375">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="U6" s="394">
+      <c r="U6" s="393">
         <f t="shared" si="5"/>
         <v>2.2781250000000011</v>
       </c>
-      <c r="V6" s="406" t="s">
+      <c r="V6" s="405" t="s">
         <v>177</v>
       </c>
-      <c r="W6" s="375" t="s">
+      <c r="W6" s="374" t="s">
         <v>146</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="505">
+      <c r="Z6" s="503">
         <v>153.1</v>
       </c>
-      <c r="AA6" s="507">
+      <c r="AA6" s="505">
         <f t="shared" si="6"/>
         <v>0.26579861111111108</v>
       </c>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="523">
+      <c r="AC6" s="521">
         <v>2</v>
       </c>
-      <c r="AD6" s="522">
+      <c r="AD6" s="520">
         <f t="shared" si="7"/>
         <v>0.34375</v>
       </c>
@@ -20504,14 +20487,14 @@
         <v>865.09515625000051</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="502">
+    <row r="7" spans="1:34" ht="18" customHeight="1" thickBot="1">
+      <c r="A7" s="500">
         <v>35</v>
       </c>
-      <c r="B7" s="502">
+      <c r="B7" s="500">
         <v>73</v>
       </c>
-      <c r="C7" s="364">
+      <c r="C7" s="363">
         <f t="shared" si="0"/>
         <v>-38</v>
       </c>
@@ -20524,7 +20507,7 @@
       <c r="G7" s="66"/>
       <c r="H7" s="70"/>
       <c r="I7" s="154"/>
-      <c r="J7" s="230" t="s">
+      <c r="J7" s="229" t="s">
         <v>76</v>
       </c>
       <c r="K7" s="144">
@@ -20535,13 +20518,13 @@
       </c>
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
-      <c r="O7" s="220" t="s">
+      <c r="O7" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="260" t="s">
+      <c r="P7" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="385">
+      <c r="Q7" s="384">
         <f t="shared" si="2"/>
         <v>34.878577715084887</v>
       </c>
@@ -20549,18 +20532,18 @@
         <f t="shared" si="3"/>
         <v>6.0763888888888888E-2</v>
       </c>
-      <c r="S7" s="517">
+      <c r="S7" s="515">
         <v>35</v>
       </c>
-      <c r="T7" s="376">
+      <c r="T7" s="375">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="U7" s="394">
+      <c r="U7" s="393">
         <f t="shared" si="5"/>
         <v>55.83368055555556</v>
       </c>
-      <c r="V7" s="407">
+      <c r="V7" s="406">
         <f>SUM(U4:U17)</f>
         <v>337.94097222222217</v>
       </c>
@@ -20568,26 +20551,26 @@
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
         <v>7.0375872786408058E-72</v>
       </c>
-      <c r="X7" s="503">
+      <c r="X7" s="501">
         <f>1-W7</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="504">
+      <c r="Y7" s="502">
         <f>2*W7</f>
         <v>1.4075174557281612E-71</v>
       </c>
-      <c r="Z7" s="505">
+      <c r="Z7" s="503">
         <v>408.4</v>
       </c>
-      <c r="AA7" s="507">
+      <c r="AA7" s="505">
         <f t="shared" si="6"/>
         <v>0.7090277777777777</v>
       </c>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="523">
+      <c r="AC7" s="521">
         <v>3</v>
       </c>
-      <c r="AD7" s="522">
+      <c r="AD7" s="520">
         <f t="shared" si="7"/>
         <v>0.18229166666666666</v>
       </c>
@@ -20604,14 +20587,14 @@
         <v>1427.8951562499997</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="502">
+    <row r="8" spans="1:34" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="500">
         <v>8</v>
       </c>
-      <c r="B8" s="502">
+      <c r="B8" s="500">
         <v>73.8</v>
       </c>
-      <c r="C8" s="364">
+      <c r="C8" s="363">
         <f t="shared" si="0"/>
         <v>-65.8</v>
       </c>
@@ -20631,7 +20614,7 @@
         <f>E8*SQRT(A1)/F8</f>
         <v>-6.3957452448734397E-3</v>
       </c>
-      <c r="H8" s="183"/>
+      <c r="H8" s="182"/>
       <c r="I8" s="154"/>
       <c r="J8" s="145" t="s">
         <v>75</v>
@@ -20659,7 +20642,7 @@
         <f>SQRT(  M8*(1-M8)/K8 + N8*(1-N8)/K11 )</f>
         <v>2.8322798577803274E-2</v>
       </c>
-      <c r="Q8" s="385">
+      <c r="Q8" s="384">
         <f t="shared" si="2"/>
         <v>7.9722463348765427</v>
       </c>
@@ -20667,37 +20650,37 @@
         <f t="shared" si="3"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="S8" s="517">
+      <c r="S8" s="515">
         <v>8</v>
       </c>
-      <c r="T8" s="376">
+      <c r="T8" s="375">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="U8" s="394">
+      <c r="U8" s="393">
         <f t="shared" si="5"/>
         <v>99.75555555555556</v>
       </c>
-      <c r="V8" s="408" t="s">
+      <c r="V8" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="W8" s="365" t="s">
+      <c r="W8" s="364" t="s">
         <v>32</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="505">
+      <c r="Z8" s="503">
         <v>408.4</v>
       </c>
-      <c r="AA8" s="507">
+      <c r="AA8" s="505">
         <f t="shared" si="6"/>
         <v>0.7090277777777777</v>
       </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="523">
+      <c r="AC8" s="521">
         <v>4</v>
       </c>
-      <c r="AD8" s="522">
+      <c r="AD8" s="520">
         <f t="shared" si="7"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -20714,14 +20697,14 @@
         <v>4301.7201562499986</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="502">
+    <row r="9" spans="1:34" ht="17.7" thickBot="1">
+      <c r="A9" s="500">
         <v>0</v>
       </c>
-      <c r="B9" s="502">
+      <c r="B9" s="500">
         <v>71.3</v>
       </c>
-      <c r="C9" s="364">
+      <c r="C9" s="363">
         <f t="shared" si="0"/>
         <v>-71.3</v>
       </c>
@@ -20729,58 +20712,58 @@
         <f t="shared" si="1"/>
         <v>71.3</v>
       </c>
-      <c r="E9" s="219" t="s">
+      <c r="E9" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="242"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="194" t="s">
+      <c r="F9" s="241"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="193" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="154"/>
       <c r="J9" s="145"/>
       <c r="K9" s="123"/>
       <c r="N9" s="94"/>
-      <c r="O9" s="193" t="s">
+      <c r="O9" s="192" t="s">
         <v>66</v>
       </c>
       <c r="P9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="385">
+      <c r="Q9" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="175"/>
-      <c r="S9" s="517"/>
-      <c r="T9" s="376">
+      <c r="S9" s="515"/>
+      <c r="T9" s="375">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U9" s="394">
+      <c r="U9" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V9" s="409">
+      <c r="V9" s="408">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
         <v>115.2</v>
       </c>
-      <c r="W9" s="524">
+      <c r="W9" s="522">
         <f>SUM(AD4:AD14)</f>
         <v>0.953125</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="505"/>
-      <c r="AA9" s="507">
+      <c r="Z9" s="503"/>
+      <c r="AA9" s="505">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="523">
+      <c r="AC9" s="521">
         <v>5</v>
       </c>
-      <c r="AD9" s="522">
+      <c r="AD9" s="520">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20794,14 +20777,14 @@
         <v>5053.4326562499991</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="502">
+    <row r="10" spans="1:34" ht="17.7" thickBot="1">
+      <c r="A10" s="500">
         <v>0</v>
       </c>
-      <c r="B10" s="502">
+      <c r="B10" s="500">
         <v>71.7</v>
       </c>
-      <c r="C10" s="364">
+      <c r="C10" s="363">
         <f t="shared" si="0"/>
         <v>-71.7</v>
       </c>
@@ -20817,11 +20800,11 @@
         <f>E8-E10</f>
         <v>-63.160278275619447</v>
       </c>
-      <c r="G10" s="501">
+      <c r="G10" s="499">
         <f>E8+E10</f>
         <v>62.735278275619436</v>
       </c>
-      <c r="H10" s="184">
+      <c r="H10" s="183">
         <f>TINV(1-K2/100, A$1- 1)</f>
         <v>1.8945786050900073</v>
       </c>
@@ -20844,20 +20827,20 @@
       <c r="O10" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="219" t="s">
+      <c r="P10" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="385">
+      <c r="Q10" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="175"/>
-      <c r="S10" s="517"/>
-      <c r="T10" s="376">
+      <c r="S10" s="515"/>
+      <c r="T10" s="375">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U10" s="394">
+      <c r="U10" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -20865,16 +20848,16 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="505"/>
-      <c r="AA10" s="507">
+      <c r="Z10" s="503"/>
+      <c r="AA10" s="505">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="523">
+      <c r="AC10" s="521">
         <v>6</v>
       </c>
-      <c r="AD10" s="522">
+      <c r="AD10" s="520">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20888,14 +20871,14 @@
         <v>5110.4626562499998</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="502">
+    <row r="11" spans="1:34" ht="17.7" thickBot="1">
+      <c r="A11" s="500">
         <v>1</v>
       </c>
-      <c r="B11" s="502">
+      <c r="B11" s="500">
         <v>69</v>
       </c>
-      <c r="C11" s="364">
+      <c r="C11" s="363">
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
@@ -20905,8 +20888,8 @@
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="123"/>
-      <c r="G11" s="379"/>
-      <c r="H11" s="380"/>
+      <c r="G11" s="378"/>
+      <c r="H11" s="379"/>
       <c r="I11" s="154"/>
       <c r="J11" s="145" t="s">
         <v>74</v>
@@ -20934,36 +20917,36 @@
         <f>2*N11</f>
         <v>1.7858991853430499</v>
       </c>
-      <c r="Q11" s="385">
+      <c r="Q11" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="175"/>
-      <c r="S11" s="517"/>
-      <c r="T11" s="376">
+      <c r="S11" s="515"/>
+      <c r="T11" s="375">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U11" s="394">
+      <c r="U11" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
-      <c r="X11" s="512" t="s">
+      <c r="X11" s="510" t="s">
         <v>160</v>
       </c>
-      <c r="Y11" s="515"/>
-      <c r="Z11" s="505"/>
-      <c r="AA11" s="507">
+      <c r="Y11" s="513"/>
+      <c r="Z11" s="503"/>
+      <c r="AA11" s="505">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="523">
+      <c r="AC11" s="521">
         <v>7</v>
       </c>
-      <c r="AD11" s="522">
+      <c r="AD11" s="520">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20977,10 +20960,10 @@
         <v>4595.1451562499997</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="502"/>
-      <c r="B12" s="502"/>
-      <c r="C12" s="364">
+    <row r="12" spans="1:34" ht="17.7" thickBot="1">
+      <c r="A12" s="500"/>
+      <c r="B12" s="500"/>
+      <c r="C12" s="363">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20988,72 +20971,72 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="368" t="s">
+      <c r="E12" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="228">
+      <c r="F12" s="227">
         <f>E$5^2/A$1</f>
         <v>1136.9799107142858</v>
       </c>
-      <c r="G12" s="381">
+      <c r="G12" s="380">
         <f xml:space="preserve"> E3-G3 -H14</f>
         <v>5.6075708179702701</v>
       </c>
-      <c r="H12" s="238">
+      <c r="H12" s="237">
         <f>E3-G3+H14</f>
         <v>136.65227833425371</v>
       </c>
       <c r="I12" s="154"/>
-      <c r="J12" s="221"/>
+      <c r="J12" s="220"/>
       <c r="L12" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="219" t="s">
+      <c r="M12" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="542"/>
-      <c r="O12" s="543"/>
+      <c r="N12" s="541"/>
+      <c r="O12" s="542"/>
       <c r="P12" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="Q12" s="385">
+      <c r="Q12" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="175"/>
       <c r="S12" s="175"/>
-      <c r="T12" s="376">
+      <c r="T12" s="375">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U12" s="394">
+      <c r="U12" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V12" s="410" t="s">
+      <c r="V12" s="409" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="411">
+      <c r="W12" s="410">
         <v>240</v>
       </c>
-      <c r="X12" s="513">
+      <c r="X12" s="511">
         <f>W12*W13</f>
         <v>24.240000000000002</v>
       </c>
-      <c r="Y12" s="514">
+      <c r="Y12" s="512">
         <f>( (W14-X12)^2)/X12 + ((W12-W14-X14)^2)/X14</f>
         <v>0.64875898045866787</v>
       </c>
-      <c r="Z12" s="505"/>
-      <c r="AA12" s="507">
+      <c r="Z12" s="503"/>
+      <c r="AA12" s="505">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="523">
+      <c r="AC12" s="521">
         <v>8</v>
       </c>
-      <c r="AD12" s="522">
+      <c r="AD12" s="520">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -21067,10 +21050,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="502"/>
-      <c r="B13" s="502"/>
-      <c r="C13" s="364">
+    <row r="13" spans="1:34" ht="17.7" thickBot="1">
+      <c r="A13" s="500"/>
+      <c r="B13" s="500"/>
+      <c r="C13" s="363">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21098,56 +21081,56 @@
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
         <v>4.6586857966115697E-2</v>
       </c>
-      <c r="M13" s="362">
+      <c r="M13" s="361">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="N13" s="186">
+      <c r="N13" s="185">
         <f>M8-N8-L13</f>
         <v>-8.1798125571749508E-2</v>
       </c>
-      <c r="O13" s="187">
+      <c r="O13" s="186">
         <f>M8-N8+L13</f>
         <v>1.1375590360481885E-2</v>
       </c>
-      <c r="P13" s="434">
+      <c r="P13" s="433">
         <f>2*M11</f>
         <v>0.21410081465694997</v>
       </c>
-      <c r="Q13" s="385">
+      <c r="Q13" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
-      <c r="T13" s="376">
+      <c r="T13" s="375">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U13" s="394">
+      <c r="U13" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V13" s="410" t="s">
+      <c r="V13" s="409" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="436">
+      <c r="W13" s="435">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X13" s="438" t="s">
+      <c r="X13" s="437" t="s">
         <v>161</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="505"/>
-      <c r="AA13" s="507">
+      <c r="Z13" s="503"/>
+      <c r="AA13" s="505">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="523">
+      <c r="AC13" s="521">
         <v>9</v>
       </c>
-      <c r="AD13" s="522">
+      <c r="AD13" s="520">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -21161,10 +21144,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="502"/>
-      <c r="B14" s="502"/>
-      <c r="C14" s="364">
+    <row r="14" spans="1:34" ht="17.7" thickBot="1">
+      <c r="A14" s="500"/>
+      <c r="B14" s="500"/>
+      <c r="C14" s="363">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21172,7 +21155,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="227" t="s">
+      <c r="E14" s="226" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="174">
@@ -21188,54 +21171,54 @@
         <v>65.522353758141719</v>
       </c>
       <c r="I14" s="154"/>
-      <c r="J14" s="231" t="s">
+      <c r="J14" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="363">
+      <c r="K14" s="362">
         <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="220"/>
+      <c r="M14" s="219"/>
       <c r="N14" s="94"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
-      <c r="Q14" s="385">
+      <c r="Q14" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
-      <c r="T14" s="376">
+      <c r="T14" s="375">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U14" s="394">
+      <c r="U14" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V14" s="412" t="s">
+      <c r="V14" s="411" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="413">
+      <c r="W14" s="412">
         <v>28</v>
       </c>
-      <c r="X14" s="437">
+      <c r="X14" s="436">
         <f>W12-X12</f>
         <v>215.76</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="506"/>
-      <c r="AA14" s="507">
+      <c r="Z14" s="504"/>
+      <c r="AA14" s="505">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="523">
+      <c r="AC14" s="521">
         <v>10</v>
       </c>
-      <c r="AD14" s="522">
+      <c r="AD14" s="520">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -21249,23 +21232,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="502"/>
-      <c r="B15" s="502"/>
-      <c r="C15" s="364">
+    <row r="15" spans="1:34" ht="16.5" thickBot="1">
+      <c r="A15" s="500"/>
+      <c r="B15" s="500"/>
+      <c r="C15" s="363">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="376">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="544" t="s">
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="543" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="545"/>
+      <c r="H15" s="544"/>
       <c r="I15" s="154"/>
       <c r="J15" s="127"/>
       <c r="L15" s="138">
@@ -21273,20 +21256,20 @@
         <v>-6.1862272234265658</v>
       </c>
       <c r="M15" s="138"/>
-      <c r="N15" s="218"/>
+      <c r="N15" s="217"/>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
-      <c r="Q15" s="385">
+      <c r="Q15" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="390"/>
-      <c r="S15" s="390"/>
-      <c r="T15" s="376">
+      <c r="R15" s="389"/>
+      <c r="S15" s="389"/>
+      <c r="T15" s="375">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U15" s="394">
+      <c r="U15" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -21308,20 +21291,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="502"/>
-      <c r="B16" s="502"/>
-      <c r="C16" s="364">
+    <row r="16" spans="1:34" ht="17.7" thickBot="1">
+      <c r="A16" s="500"/>
+      <c r="B16" s="500"/>
+      <c r="C16" s="363">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="377">
+      <c r="D16" s="376">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="378"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="191" t="s">
+      <c r="E16" s="377"/>
+      <c r="F16" s="377"/>
+      <c r="G16" s="190" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="158" t="s">
@@ -21331,40 +21314,40 @@
       <c r="K16" s="91">
         <v>0.223</v>
       </c>
-      <c r="L16" s="188" t="s">
+      <c r="L16" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="188" t="s">
+      <c r="M16" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="N16" s="222"/>
-      <c r="O16" s="223"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="385">
+      <c r="N16" s="221"/>
+      <c r="O16" s="222"/>
+      <c r="P16" s="222"/>
+      <c r="Q16" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="391"/>
-      <c r="S16" s="391"/>
-      <c r="T16" s="376"/>
-      <c r="U16" s="394">
+      <c r="R16" s="390"/>
+      <c r="S16" s="390"/>
+      <c r="T16" s="375"/>
+      <c r="U16" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V16" s="223"/>
-      <c r="W16" s="375" t="s">
+      <c r="V16" s="222"/>
+      <c r="W16" s="374" t="s">
         <v>146</v>
       </c>
       <c r="X16" s="121">
         <f>CHIDIST( (W14-X12)^2 / X12 + (W12-W14-X14)^2 / X14,1)</f>
         <v>0.42055672611606526</v>
       </c>
-      <c r="Y16" s="223"/>
+      <c r="Y16" s="222"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="224"/>
+      <c r="AD16" s="223"/>
       <c r="AG16" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21374,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" ht="17.7" thickBot="1">
       <c r="A17" s="175"/>
       <c r="B17" s="175"/>
       <c r="C17" s="175"/>
@@ -21384,7 +21367,7 @@
       </c>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
-      <c r="G17" s="192">
+      <c r="G17" s="191">
         <f xml:space="preserve"> (I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1))</f>
         <v>10.795191609867645</v>
       </c>
@@ -21397,42 +21380,42 @@
       <c r="K17" s="91">
         <v>0.193</v>
       </c>
-      <c r="L17" s="189">
+      <c r="L17" s="188">
         <f>(K16*(1-K16) + K17*(1-K17)) * (M13/K18)^2</f>
         <v>556.36457397086269</v>
       </c>
-      <c r="M17" s="189">
+      <c r="M17" s="188">
         <f xml:space="preserve"> 0.5* (M13/K18)^2</f>
         <v>845.48232940481591</v>
       </c>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="385">
+      <c r="N17" s="222"/>
+      <c r="O17" s="222"/>
+      <c r="P17" s="222"/>
+      <c r="Q17" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="391"/>
-      <c r="S17" s="391"/>
-      <c r="T17" s="376"/>
-      <c r="U17" s="394">
+      <c r="R17" s="390"/>
+      <c r="S17" s="390"/>
+      <c r="T17" s="375"/>
+      <c r="U17" s="393">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V17" s="223"/>
-      <c r="W17" s="375" t="s">
+      <c r="V17" s="222"/>
+      <c r="W17" s="374" t="s">
         <v>151</v>
       </c>
       <c r="X17" s="138">
         <f>1-_xlfn.NORM.S.DIST(X20,TRUE)</f>
         <v>0.21027836305803249</v>
       </c>
-      <c r="Y17" s="223"/>
-      <c r="Z17" s="223"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="223"/>
+      <c r="AD17" s="222"/>
       <c r="AG17" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21442,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" ht="21.75" customHeight="1" thickBot="1">
       <c r="A18" s="175"/>
       <c r="B18" s="175"/>
       <c r="C18" s="175"/>
@@ -21464,26 +21447,26 @@
       </c>
       <c r="L18" s="165"/>
       <c r="M18" s="165"/>
-      <c r="N18" s="225"/>
-      <c r="O18" s="226"/>
-      <c r="P18" s="226"/>
-      <c r="Q18" s="385">
+      <c r="N18" s="224"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="392"/>
-      <c r="S18" s="392"/>
-      <c r="T18" s="226"/>
-      <c r="U18" s="395"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="226"/>
-      <c r="Z18" s="226"/>
+      <c r="R18" s="391"/>
+      <c r="S18" s="391"/>
+      <c r="T18" s="225"/>
+      <c r="U18" s="394"/>
+      <c r="V18" s="225"/>
+      <c r="W18" s="225"/>
+      <c r="X18" s="225"/>
+      <c r="Y18" s="225"/>
+      <c r="Z18" s="225"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="226"/>
+      <c r="AD18" s="225"/>
       <c r="AG18" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21493,7 +21476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" ht="17.7" thickBot="1">
       <c r="A19" s="175"/>
       <c r="B19" s="175"/>
       <c r="C19" s="175"/>
@@ -21520,30 +21503,30 @@
       <c r="K19" s="123"/>
       <c r="L19" s="94"/>
       <c r="M19" s="75"/>
-      <c r="N19" s="234" t="s">
+      <c r="N19" s="233" t="s">
         <v>66</v>
       </c>
       <c r="O19" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="222"/>
-      <c r="Q19" s="385">
+      <c r="P19" s="221"/>
+      <c r="Q19" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="393"/>
-      <c r="S19" s="393"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="396"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="222"/>
-      <c r="X19" s="414"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="222"/>
+      <c r="R19" s="392"/>
+      <c r="S19" s="392"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="395"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="413"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="222"/>
+      <c r="AD19" s="221"/>
       <c r="AG19" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21553,17 +21536,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" ht="17.7" thickBot="1">
       <c r="A20" s="175"/>
       <c r="B20" s="175"/>
       <c r="C20" s="175"/>
       <c r="D20" s="154"/>
       <c r="E20" s="146"/>
-      <c r="F20" s="451">
+      <c r="F20" s="450">
         <v>1.21</v>
       </c>
-      <c r="G20" s="547"/>
-      <c r="H20" s="548"/>
+      <c r="G20" s="546"/>
+      <c r="H20" s="547"/>
       <c r="I20" s="154">
         <f>F24^2/F22</f>
         <v>0.75854910714285684</v>
@@ -21587,23 +21570,23 @@
         <v>65</v>
       </c>
       <c r="P20" s="157"/>
-      <c r="Q20" s="385">
+      <c r="Q20" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="319"/>
-      <c r="S20" s="319"/>
+      <c r="R20" s="318"/>
+      <c r="S20" s="318"/>
       <c r="T20" s="157"/>
-      <c r="U20" s="397"/>
+      <c r="U20" s="396"/>
       <c r="V20" s="157"/>
-      <c r="W20" s="516" t="s">
+      <c r="W20" s="514" t="s">
         <v>178</v>
       </c>
       <c r="X20" s="130">
         <f>(W14/W12-W13)/SQRT(W13*(1-W13)/W12)</f>
         <v>0.80545575946706616</v>
       </c>
-      <c r="Y20" s="415"/>
+      <c r="Y20" s="414"/>
       <c r="Z20" s="157"/>
       <c r="AA20" s="157"/>
       <c r="AB20" s="157"/>
@@ -21618,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" ht="17.7" thickBot="1">
       <c r="A21" s="175"/>
       <c r="B21" s="175"/>
       <c r="C21" s="175"/>
@@ -21626,7 +21609,7 @@
       <c r="E21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="452">
+      <c r="F21" s="451">
         <v>1.88</v>
       </c>
       <c r="G21" s="139">
@@ -21637,7 +21620,7 @@
         <f xml:space="preserve">  F20- F23 + H19</f>
         <v>-69.356377065889944</v>
       </c>
-      <c r="I21" s="196"/>
+      <c r="I21" s="195"/>
       <c r="J21" s="148" t="s">
         <v>52</v>
       </c>
@@ -21661,14 +21644,14 @@
         <v>5.8457278969697296E-2</v>
       </c>
       <c r="P21" s="94"/>
-      <c r="Q21" s="385">
+      <c r="Q21" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="94"/>
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
-      <c r="U21" s="398"/>
+      <c r="U21" s="397"/>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
       <c r="X21" s="94"/>
@@ -21687,7 +21670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="17.7" thickBot="1">
       <c r="A22" s="175"/>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
@@ -21698,18 +21681,18 @@
       <c r="F22" s="91">
         <v>8</v>
       </c>
-      <c r="G22" s="546" t="s">
+      <c r="G22" s="545" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="546"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="230" t="s">
+      <c r="H22" s="545"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="229" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="236">
+      <c r="K22" s="235">
         <v>12</v>
       </c>
-      <c r="L22" s="237" t="s">
+      <c r="L22" s="236" t="s">
         <v>89</v>
       </c>
       <c r="M22" s="121">
@@ -21719,14 +21702,14 @@
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
-      <c r="Q22" s="385">
+      <c r="Q22" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="111"/>
       <c r="S22" s="111"/>
       <c r="T22" s="111"/>
-      <c r="U22" s="399"/>
+      <c r="U22" s="398"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -21745,39 +21728,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="18.75" customHeight="1" thickBot="1">
       <c r="A23" s="175"/>
       <c r="B23" s="175"/>
       <c r="C23" s="175"/>
       <c r="D23" s="154"/>
       <c r="E23" s="146"/>
-      <c r="F23" s="451">
+      <c r="F23" s="450">
         <f>F3</f>
         <v>72.337500000000006</v>
       </c>
-      <c r="G23" s="191" t="s">
+      <c r="G23" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="194" t="s">
+      <c r="H23" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="196"/>
+      <c r="I23" s="195"/>
       <c r="J23" s="145"/>
-      <c r="K23" s="235">
+      <c r="K23" s="234">
         <v>3.125</v>
       </c>
-      <c r="L23" s="240"/>
-      <c r="M23" s="241"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="240"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
-      <c r="Q23" s="385">
+      <c r="Q23" s="384">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="390"/>
-      <c r="S23" s="390"/>
+      <c r="R23" s="389"/>
+      <c r="S23" s="389"/>
       <c r="T23" s="75"/>
-      <c r="U23" s="400"/>
+      <c r="U23" s="399"/>
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
@@ -21796,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" ht="17.7" thickBot="1">
       <c r="A24" s="175"/>
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
@@ -21804,11 +21787,11 @@
       <c r="E24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="452">
+      <c r="F24" s="451">
         <f>F5</f>
         <v>2.4634108177774277</v>
       </c>
-      <c r="G24" s="192">
+      <c r="G24" s="191">
         <f xml:space="preserve"> IF(F19=F22,F19-1,(I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1)))</f>
         <v>10.795191609867645</v>
       </c>
@@ -21816,12 +21799,12 @@
         <f>TINV(1-K2/100, G24)</f>
         <v>1.812461122811676</v>
       </c>
-      <c r="I24" s="196"/>
+      <c r="I24" s="195"/>
       <c r="J24" s="148"/>
-      <c r="K24" s="239">
+      <c r="K24" s="238">
         <v>2.911</v>
       </c>
-      <c r="L24" s="238">
+      <c r="L24" s="237">
         <f>K23 - M22* K24 /SQRT(K22)</f>
         <v>1.6158581536977861</v>
       </c>
@@ -21832,11 +21815,11 @@
       <c r="N24" s="166"/>
       <c r="O24" s="157"/>
       <c r="P24" s="157"/>
-      <c r="Q24" s="386"/>
+      <c r="Q24" s="385"/>
       <c r="R24" s="157"/>
       <c r="S24" s="157"/>
       <c r="T24" s="157"/>
-      <c r="U24" s="397"/>
+      <c r="U24" s="396"/>
       <c r="V24" s="157"/>
       <c r="W24" s="157"/>
       <c r="X24" s="157"/>
@@ -21855,7 +21838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" ht="17.7" thickBot="1">
       <c r="A25" s="175"/>
       <c r="B25" s="175"/>
       <c r="C25" s="175"/>
@@ -21865,10 +21848,10 @@
       <c r="G25" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="219" t="s">
+      <c r="H25" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="196"/>
+      <c r="I25" s="195"/>
       <c r="J25" s="75"/>
       <c r="K25" s="75"/>
       <c r="L25" s="94"/>
@@ -21876,11 +21859,11 @@
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
-      <c r="Q25" s="387"/>
+      <c r="Q25" s="386"/>
       <c r="R25" s="94"/>
       <c r="S25" s="94"/>
       <c r="T25" s="94"/>
-      <c r="U25" s="398"/>
+      <c r="U25" s="397"/>
       <c r="V25" s="94"/>
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
@@ -21899,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="17.7" thickBot="1">
       <c r="A26" s="175"/>
       <c r="B26" s="175"/>
       <c r="C26" s="175"/>
@@ -21914,7 +21897,7 @@
         <f xml:space="preserve"> H24 * SQRT( F21^2 /F19 + F24^2/F22)</f>
         <v>1.7711229341100652</v>
       </c>
-      <c r="I26" s="196"/>
+      <c r="I26" s="195"/>
       <c r="J26" s="150"/>
       <c r="K26" s="54" t="s">
         <v>25</v>
@@ -21932,11 +21915,11 @@
         <v>26</v>
       </c>
       <c r="P26" s="111"/>
-      <c r="Q26" s="388"/>
+      <c r="Q26" s="387"/>
       <c r="R26" s="111"/>
       <c r="S26" s="111"/>
       <c r="T26" s="111"/>
-      <c r="U26" s="399"/>
+      <c r="U26" s="398"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -21955,43 +21938,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="17.7" thickBot="1">
       <c r="A27" s="175"/>
       <c r="B27" s="175"/>
       <c r="C27" s="175"/>
       <c r="D27" s="154"/>
       <c r="E27" s="150"/>
       <c r="F27" s="76"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="196"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="195"/>
       <c r="J27" s="94"/>
-      <c r="K27" s="371">
+      <c r="K27" s="370">
         <f>MIN(C4:C28)</f>
         <v>-71.7</v>
       </c>
-      <c r="L27" s="372">
+      <c r="L27" s="371">
         <f>QUARTILE(C4:C27, 1)</f>
         <v>-65.8</v>
       </c>
-      <c r="M27" s="372">
+      <c r="M27" s="371">
         <f>QUARTILE(C4:C15, 2)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="372">
+      <c r="N27" s="371">
         <f>QUARTILE(C4:C15, 3)</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="O27" s="373">
+      <c r="O27" s="372">
         <f>MAX(C4:C24)</f>
         <v>146.69999999999999</v>
       </c>
       <c r="P27" s="75"/>
-      <c r="Q27" s="389"/>
+      <c r="Q27" s="388"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
       <c r="T27" s="75"/>
-      <c r="U27" s="401"/>
+      <c r="U27" s="400"/>
       <c r="V27" s="75"/>
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
@@ -22010,7 +21993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="15.6" thickBot="1">
       <c r="A28" s="175"/>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
@@ -22021,22 +22004,22 @@
         <f xml:space="preserve"> F20- F23 -H26</f>
         <v>-72.89862293411008</v>
       </c>
-      <c r="H28" s="229">
+      <c r="H28" s="228">
         <f xml:space="preserve">  F20- F23 + H26</f>
         <v>-69.356377065889944</v>
       </c>
-      <c r="I28" s="196"/>
+      <c r="I28" s="195"/>
       <c r="J28" s="94"/>
       <c r="L28" s="111"/>
       <c r="M28" s="94"/>
       <c r="N28" s="75"/>
-      <c r="O28" s="319" t="s">
+      <c r="O28" s="318" t="s">
         <v>66</v>
       </c>
       <c r="P28" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="Q28" s="382"/>
+      <c r="Q28" s="381"/>
       <c r="R28" s="75"/>
       <c r="S28" s="75"/>
       <c r="T28" s="75"/>
@@ -22059,23 +22042,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" ht="17.7" thickBot="1">
       <c r="A29" s="175"/>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
       <c r="D29" s="154"/>
-      <c r="E29" s="366" t="s">
+      <c r="E29" s="365" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="367" t="s">
+      <c r="F29" s="366" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="374" t="s">
+      <c r="G29" s="373" t="s">
         <v>145</v>
       </c>
       <c r="H29" s="157"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="230" t="s">
+      <c r="I29" s="195"/>
+      <c r="J29" s="229" t="s">
         <v>68</v>
       </c>
       <c r="K29" s="144">
@@ -22096,7 +22079,7 @@
       <c r="P29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="Q29" s="382"/>
+      <c r="Q29" s="381"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
       <c r="T29" s="75"/>
@@ -22119,7 +22102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" ht="17.7" thickBot="1">
       <c r="A30" s="175"/>
       <c r="B30" s="175"/>
       <c r="C30" s="175"/>
@@ -22134,8 +22117,8 @@
         <v>65</v>
       </c>
       <c r="H30" s="70"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="327" t="s">
+      <c r="I30" s="195"/>
+      <c r="J30" s="326" t="s">
         <v>69</v>
       </c>
       <c r="K30" s="91">
@@ -22153,15 +22136,15 @@
         <f>1-M30</f>
         <v>0.97743986734687949</v>
       </c>
-      <c r="O30" s="500">
+      <c r="O30" s="498">
         <f>2*M30</f>
         <v>4.5120265306241025E-2</v>
       </c>
-      <c r="P30" s="499">
+      <c r="P30" s="497">
         <f>2*N30</f>
         <v>1.954879734693759</v>
       </c>
-      <c r="Q30" s="382"/>
+      <c r="Q30" s="381"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
       <c r="T30" s="75"/>
@@ -22184,7 +22167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="15.6" thickBot="1">
       <c r="A31" s="175"/>
       <c r="B31" s="175"/>
       <c r="C31" s="99" t="s">
@@ -22204,15 +22187,15 @@
         <v>5.8448265524949578E-15</v>
       </c>
       <c r="H31" s="121"/>
-      <c r="I31" s="196"/>
+      <c r="I31" s="195"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="497">
+      <c r="K31" s="495">
         <v>1.06</v>
       </c>
       <c r="L31" s="70"/>
       <c r="O31" s="75"/>
       <c r="P31" s="75"/>
-      <c r="Q31" s="382"/>
+      <c r="Q31" s="381"/>
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="75"/>
@@ -22235,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="15.6" thickBot="1">
       <c r="A32" s="175"/>
       <c r="B32" s="175"/>
       <c r="C32" s="163" t="s">
@@ -22255,7 +22238,7 @@
         <v>5.8448265524949578E-15</v>
       </c>
       <c r="H32" s="121"/>
-      <c r="I32" s="196"/>
+      <c r="I32" s="195"/>
       <c r="J32" s="177"/>
       <c r="K32" s="97">
         <v>0</v>
@@ -22266,7 +22249,7 @@
       </c>
       <c r="O32" s="75"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="382"/>
+      <c r="Q32" s="381"/>
       <c r="R32" s="75"/>
       <c r="S32" s="75"/>
       <c r="T32" s="75"/>
@@ -22289,17 +22272,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34">
       <c r="A33" s="175"/>
       <c r="B33" s="175"/>
       <c r="C33" s="175"/>
       <c r="D33" s="154"/>
       <c r="E33" s="46"/>
       <c r="F33" s="43"/>
-      <c r="I33" s="196"/>
+      <c r="I33" s="195"/>
       <c r="J33" s="175"/>
       <c r="K33" s="175"/>
-      <c r="L33" s="376"/>
+      <c r="L33" s="375"/>
       <c r="AG33" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22309,15 +22292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34">
       <c r="A34" s="175"/>
       <c r="B34" s="175"/>
       <c r="C34" s="175"/>
       <c r="D34" s="154"/>
-      <c r="I34" s="196"/>
+      <c r="I34" s="195"/>
       <c r="J34" s="175"/>
       <c r="K34" s="175"/>
-      <c r="L34" s="376"/>
+      <c r="L34" s="375"/>
       <c r="AG34" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22327,13 +22310,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="243"/>
-      <c r="B35" s="243"/>
-      <c r="C35" s="243"/>
+    <row r="35" spans="1:34">
+      <c r="A35" s="242"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="242"/>
       <c r="D35" s="154"/>
-      <c r="I35" s="196"/>
-      <c r="L35" s="376"/>
+      <c r="I35" s="195"/>
+      <c r="L35" s="375"/>
       <c r="AG35" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22343,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34">
       <c r="AG36" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22373,13 +22356,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>506730</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>125730</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
@@ -22400,7 +22383,7 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>49530</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
@@ -22431,7 +22414,7 @@
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22448,13 +22431,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>144780</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>49530</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -22481,7 +22464,7 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
+                <xdr:rowOff>220980</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22504,7 +22487,7 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>220980</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
@@ -22523,9 +22506,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:colOff>182880</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
@@ -22548,13 +22531,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>449580</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -22573,9 +22556,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>506730</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
@@ -22600,13 +22583,13 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
+                <xdr:rowOff>220980</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22629,9 +22612,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>468630</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22648,13 +22631,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>220980</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
+                <xdr:colOff>373380</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22673,9 +22656,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>544830</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
@@ -22704,7 +22687,7 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>220980</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
@@ -22750,11 +22733,11 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>468630</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22773,9 +22756,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>544830</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
@@ -22798,9 +22781,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:colOff>240030</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>68580</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>22</xdr:col>
@@ -22829,7 +22812,7 @@
               </from>
               <to>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
+                <xdr:colOff>430530</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22848,15 +22831,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:colOff>87630</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>21</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22873,15 +22856,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22900,11 +22883,11 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
+                <xdr:colOff>354330</xdr:colOff>
                 <xdr:row>30</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -22923,7 +22906,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>163830</xdr:colOff>
                 <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -22931,7 +22914,7 @@
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>201930</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22954,9 +22937,9 @@
               </from>
               <to>
                 <xdr:col>24</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
+                <xdr:colOff>430530</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
+                <xdr:rowOff>220980</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -22971,80 +22954,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="0.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.62890625" customWidth="1"/>
+    <col min="2" max="2" width="6.3671875" customWidth="1"/>
+    <col min="3" max="3" width="0.83984375" customWidth="1"/>
+    <col min="4" max="4" width="13.15625" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" customWidth="1"/>
+    <col min="6" max="6" width="13.15625" customWidth="1"/>
+    <col min="7" max="7" width="11.83984375" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="11" max="12" width="0.85546875" style="427" customWidth="1"/>
+    <col min="11" max="12" width="0.83984375" style="426" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" thickBot="1">
       <c r="A1" s="164">
         <f>COUNT(A4:A25)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="164">
         <f>COUNT(B4:B25)</f>
-        <v>10</v>
-      </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="205"/>
+      <c r="D1" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="208" t="s">
+      <c r="E1" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="209" t="s">
+      <c r="G1" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="197">
+      <c r="H1" s="196">
         <v>95</v>
       </c>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="427"/>
+      <c r="L1" s="427"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.3" thickBot="1">
       <c r="A2" s="152" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="181">
+      <c r="C2" s="206"/>
+      <c r="D2" s="237">
         <f>CORREL(A3:A33, B3:B33)</f>
-        <v>0.9896545822453271</v>
+        <v>0.49876476767467082</v>
       </c>
       <c r="E2" s="86">
         <f>D2^2</f>
-        <v>0.97941619215917286</v>
-      </c>
-      <c r="K2" s="428"/>
-      <c r="L2" s="428"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="456"/>
-      <c r="B3" s="456"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="205" t="s">
+        <v>0.24876629347356835</v>
+      </c>
+      <c r="K2" s="427"/>
+      <c r="L2" s="427"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="455"/>
+      <c r="B3" s="455"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="204" t="s">
         <v>92</v>
       </c>
       <c r="E3" s="138">
         <f>(_xlfn.T.INV((1-(100 -$H$1)/200), $A$1-2)) / SQRT((_xlfn.T.INV((1-(100 -$H$1)/200), $A$1-2))^2 + $A$1-2)</f>
-        <v>0.63189686471983386</v>
-      </c>
-      <c r="G3" s="212" t="s">
+        <v>0.87833944815980514</v>
+      </c>
+      <c r="G3" s="211" t="s">
         <v>80</v>
       </c>
       <c r="H3" s="179">
@@ -23053,269 +23038,253 @@
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="429"/>
-      <c r="L3" s="429"/>
+      <c r="K3" s="428"/>
+      <c r="L3" s="428"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="474">
-        <v>-5</v>
-      </c>
-      <c r="B4" s="474">
-        <v>-10</v>
-      </c>
-      <c r="C4" s="207">
+    <row r="4" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A4" s="562">
+        <v>816932</v>
+      </c>
+      <c r="B4" s="562">
+        <v>133</v>
+      </c>
+      <c r="C4" s="206">
         <f>A4*B4</f>
-        <v>50</v>
-      </c>
-      <c r="D4" s="556" t="s">
+        <v>108651956</v>
+      </c>
+      <c r="D4" s="555" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="557"/>
+      <c r="E4" s="556"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="204"/>
+      <c r="H4" s="203"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="429">
+      <c r="K4" s="428">
         <f>IF( A4="",0, A4*E$6+D$6)</f>
-        <v>-11.036363636363637</v>
-      </c>
-      <c r="L4" s="429">
+        <v>134.24401014590165</v>
+      </c>
+      <c r="L4" s="428">
         <f>(K4-B4)^2</f>
-        <v>1.0740495867768609</v>
+        <v>1.547561243106256</v>
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="474">
-        <v>-3</v>
-      </c>
-      <c r="B5" s="474">
-        <v>-8</v>
-      </c>
-      <c r="C5" s="207">
+    <row r="5" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A5" s="562">
+        <v>951545</v>
+      </c>
+      <c r="B5" s="562">
+        <v>137</v>
+      </c>
+      <c r="C5" s="206">
         <f t="shared" ref="C5:C33" si="0">A5*B5</f>
-        <v>24</v>
-      </c>
-      <c r="D5" s="205" t="s">
+        <v>130361665</v>
+      </c>
+      <c r="D5" s="204" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="210"/>
+      <c r="F5" s="209"/>
       <c r="G5" s="29"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="429">
+      <c r="K5" s="428">
         <f t="shared" ref="K5:K18" si="1">IF( A5="",0, A5*E$6+D$6)</f>
-        <v>-6.8424242424242427</v>
-      </c>
-      <c r="L5" s="429">
+        <v>137.32316153567729</v>
+      </c>
+      <c r="L5" s="428">
         <f t="shared" ref="L5:L18" si="2">(K5-B5)^2</f>
-        <v>1.3399816345270883</v>
+        <v>0.10443337814130201</v>
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="474">
-        <v>4</v>
-      </c>
-      <c r="B6" s="474">
-        <v>9</v>
-      </c>
-      <c r="C6" s="207">
+    <row r="6" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A6" s="562">
+        <v>991305</v>
+      </c>
+      <c r="B6" s="562">
+        <v>138</v>
+      </c>
+      <c r="C6" s="206">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D6" s="182">
+        <v>136800090</v>
+      </c>
+      <c r="D6" s="181">
         <f xml:space="preserve"> (SUM($B$4:$B$33)*SUMSQ($A$4:$A$33) - SUM(A4:A33)*SUM(C4:C33) ) / (COUNT(A4:A33)*SUMSQ(A4:A33) - SUM(A4:A33)^2 )</f>
-        <v>-0.55151515151515151</v>
+        <v>115.55742487440351</v>
       </c>
       <c r="E6" s="121">
         <f xml:space="preserve">  (COUNT(A4:A33) *SUM(C4:C33) - SUM(A4:A33)*SUM(B4:B33) ) / (COUNT(A4:A33)*SUMSQ(A4:A33) - SUM(A4:A33)^2 )</f>
-        <v>2.0969696969696972</v>
+        <v>2.2874101236697988E-5</v>
       </c>
       <c r="F6" s="117">
         <f>IF(D2 &gt; E3, D6+E6*E7, AVERAGE(B4:B33))</f>
-        <v>7.8363636363636369</v>
+        <v>136</v>
       </c>
       <c r="G6" s="123"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="429">
+      <c r="K6" s="428">
         <f t="shared" si="1"/>
-        <v>7.8363636363636369</v>
-      </c>
-      <c r="L6" s="429">
+        <v>138.23263580084841</v>
+      </c>
+      <c r="L6" s="428">
         <f t="shared" si="2"/>
-        <v>1.3540495867768583</v>
+        <v>5.411941583638271E-2</v>
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="474">
-        <v>1</v>
-      </c>
-      <c r="B7" s="474">
-        <v>1</v>
-      </c>
-      <c r="C7" s="207">
+    <row r="7" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A7" s="562">
+        <v>856472</v>
+      </c>
+      <c r="B7" s="562">
+        <v>140</v>
+      </c>
+      <c r="C7" s="206">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>119906080</v>
       </c>
       <c r="D7" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="213">
+      <c r="E7" s="212">
         <v>4</v>
       </c>
       <c r="F7" s="121">
         <f>E7*E6+D6</f>
-        <v>7.8363636363636369</v>
+        <v>115.55751637080846</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="94"/>
-      <c r="K7" s="429">
+      <c r="K7" s="428">
         <f t="shared" si="1"/>
-        <v>1.5454545454545456</v>
-      </c>
-      <c r="L7" s="429">
+        <v>135.14845210880071</v>
+      </c>
+      <c r="L7" s="428">
         <f t="shared" si="2"/>
-        <v>0.29752066115702497</v>
-      </c>
-      <c r="M7" s="204"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="474">
-        <v>-1</v>
-      </c>
-      <c r="B8" s="474">
-        <v>-2</v>
-      </c>
-      <c r="C8" s="207">
+        <v>23.537516940600266</v>
+      </c>
+      <c r="M7" s="203"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A8" s="562">
+        <v>852244</v>
+      </c>
+      <c r="B8" s="562">
+        <v>132</v>
+      </c>
+      <c r="C8" s="206">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>112496208</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="429">
+      <c r="K8" s="428">
         <f t="shared" si="1"/>
-        <v>-2.6484848484848484</v>
-      </c>
-      <c r="L8" s="429">
+        <v>135.05174040877193</v>
+      </c>
+      <c r="L8" s="428">
         <f t="shared" si="2"/>
-        <v>0.42053259871441684</v>
+        <v>9.3131195225314922</v>
       </c>
       <c r="M8" s="132"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="474">
-        <v>-2</v>
-      </c>
-      <c r="B9" s="474">
-        <v>-6</v>
-      </c>
-      <c r="C9" s="426">
+    <row r="9" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A9" s="563"/>
+      <c r="B9" s="563"/>
+      <c r="C9" s="425">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D9" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="551" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="553"/>
+      <c r="E9" s="552"/>
       <c r="F9" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="218"/>
+      <c r="G9" s="217"/>
       <c r="I9" s="30"/>
       <c r="J9" s="132"/>
-      <c r="K9" s="429">
+      <c r="K9" s="428">
         <f t="shared" si="1"/>
-        <v>-4.745454545454546</v>
-      </c>
-      <c r="L9" s="429">
+        <v>0</v>
+      </c>
+      <c r="L9" s="428">
         <f t="shared" si="2"/>
-        <v>1.5738842975206597</v>
+        <v>0</v>
       </c>
       <c r="M9" s="132"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="474">
-        <v>0</v>
-      </c>
-      <c r="B10" s="474">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="426">
+    <row r="10" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A10" s="563"/>
+      <c r="B10" s="563"/>
+      <c r="C10" s="425">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="558">
+      <c r="D10" s="557">
         <f>SUM(L4:L17)</f>
-        <v>7.6242424242424223</v>
-      </c>
-      <c r="E10" s="559"/>
-      <c r="F10" s="117">
+        <v>34.556750500215699</v>
+      </c>
+      <c r="E10" s="558"/>
+      <c r="F10" s="117" t="e">
         <f>VLOOKUP(E7,A4:B20,2,FALSE)-F7</f>
-        <v>1.1636363636363631</v>
+        <v>#N/A</v>
       </c>
       <c r="G10" s="29"/>
       <c r="I10" s="30"/>
       <c r="J10" s="132"/>
-      <c r="K10" s="429">
+      <c r="K10" s="428">
         <f t="shared" si="1"/>
-        <v>-0.55151515151515151</v>
-      </c>
-      <c r="L10" s="429">
+        <v>0</v>
+      </c>
+      <c r="L10" s="428">
         <f t="shared" si="2"/>
-        <v>0.2011386593204775</v>
+        <v>0</v>
       </c>
       <c r="M10" s="132"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="474">
-        <v>2</v>
-      </c>
-      <c r="B11" s="474">
-        <v>3</v>
-      </c>
-      <c r="C11" s="207">
+    <row r="11" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A11" s="563"/>
+      <c r="B11" s="563"/>
+      <c r="C11" s="206">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
       <c r="I11" s="30"/>
       <c r="J11" s="132"/>
-      <c r="K11" s="429">
+      <c r="K11" s="428">
         <f t="shared" si="1"/>
-        <v>3.6424242424242426</v>
-      </c>
-      <c r="L11" s="429">
+        <v>0</v>
+      </c>
+      <c r="L11" s="428">
         <f t="shared" si="2"/>
-        <v>0.41270890725436199</v>
+        <v>0</v>
       </c>
       <c r="M11" s="132"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="474">
-        <v>3</v>
-      </c>
-      <c r="B12" s="474">
-        <v>6</v>
-      </c>
-      <c r="C12" s="207">
+    <row r="12" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A12" s="563"/>
+      <c r="B12" s="563"/>
+      <c r="C12" s="206">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D12" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="213">
+      <c r="E12" s="212">
         <v>10</v>
       </c>
       <c r="F12" s="70" t="s">
@@ -23327,49 +23296,45 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="429">
+      <c r="K12" s="428">
         <f t="shared" si="1"/>
-        <v>5.7393939393939393</v>
-      </c>
-      <c r="L12" s="429">
+        <v>0</v>
+      </c>
+      <c r="L12" s="428">
         <f t="shared" si="2"/>
-        <v>6.7915518824609805E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="132"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="474">
-        <v>-4</v>
-      </c>
-      <c r="B13" s="474">
-        <v>-8</v>
-      </c>
-      <c r="C13" s="207">
+    <row r="13" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A13" s="563"/>
+      <c r="B13" s="563"/>
+      <c r="C13" s="206">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D13" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="216">
+      <c r="E13" s="215">
         <v>0.21149999999999999</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="132"/>
-      <c r="K13" s="429">
+      <c r="K13" s="428">
         <f t="shared" si="1"/>
-        <v>-8.9393939393939394</v>
-      </c>
-      <c r="L13" s="429">
+        <v>0</v>
+      </c>
+      <c r="L13" s="428">
         <f t="shared" si="2"/>
-        <v>0.88246097337006435</v>
+        <v>0</v>
       </c>
       <c r="M13" s="132"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="473"/>
-      <c r="B14" s="473"/>
-      <c r="C14" s="207">
+    <row r="14" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A14" s="523"/>
+      <c r="B14" s="523"/>
+      <c r="C14" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23377,76 +23342,76 @@
       <c r="E14" s="76"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="429">
+      <c r="K14" s="428">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="429">
+      <c r="L14" s="428">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="473"/>
-      <c r="B15" s="473"/>
-      <c r="C15" s="207">
+    <row r="15" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A15" s="523"/>
+      <c r="B15" s="523"/>
+      <c r="C15" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="560" t="s">
+      <c r="D15" s="559" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="561"/>
+      <c r="E15" s="560"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
-      <c r="K15" s="429">
+      <c r="K15" s="428">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="429">
+      <c r="L15" s="428">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="473"/>
-      <c r="B16" s="473"/>
-      <c r="C16" s="207">
+    <row r="16" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A16" s="472"/>
+      <c r="B16" s="472"/>
+      <c r="C16" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="220" t="s">
+      <c r="D16" s="219" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="210"/>
+      <c r="F16" s="209"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="429">
+      <c r="K16" s="428">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="429">
+      <c r="L16" s="428">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="473"/>
-      <c r="B17" s="473"/>
-      <c r="C17" s="207">
+    <row r="17" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A17" s="472"/>
+      <c r="B17" s="472"/>
+      <c r="C17" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="439">
+      <c r="D17" s="438">
         <v>2.097</v>
       </c>
-      <c r="E17" s="439">
+      <c r="E17" s="438">
         <v>-0.20599999999999999</v>
       </c>
       <c r="F17" s="117">
@@ -23455,257 +23420,257 @@
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="429">
+      <c r="K17" s="428">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="429">
+      <c r="L17" s="428">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="473"/>
-      <c r="B18" s="473"/>
-      <c r="C18" s="207">
+    <row r="18" spans="1:13" ht="15.6" thickBot="1">
+      <c r="A18" s="472"/>
+      <c r="B18" s="472"/>
+      <c r="C18" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="213">
+      <c r="E18" s="212">
         <v>3</v>
       </c>
       <c r="F18" s="121"/>
-      <c r="K18" s="429">
+      <c r="K18" s="428">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="475">
+      <c r="L18" s="473">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="207">
+    <row r="19" spans="1:13" ht="14.7" thickBot="1">
+      <c r="C19" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="468">
+      <c r="K19" s="467">
         <f>IF(A4="",0,D$21*A4+E$21)</f>
-        <v>-11.0365</v>
-      </c>
-      <c r="L19" s="468">
+        <v>1713105.8524999998</v>
+      </c>
+      <c r="L19" s="467">
         <f>(B4-K19)^2</f>
-        <v>1.0743322500000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="426">
+        <v>2934275993401.9863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1">
+      <c r="C20" s="425">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="550" t="s">
+      <c r="D20" s="549" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="551"/>
-      <c r="F20" s="549"/>
-      <c r="G20" s="549"/>
-      <c r="K20" s="468">
+      <c r="E20" s="550"/>
+      <c r="F20" s="548"/>
+      <c r="G20" s="548"/>
+      <c r="K20" s="467">
         <f t="shared" ref="K20:K30" si="3">IF(A5="",0,D$21*A5+E$21)</f>
-        <v>-6.8425000000000002</v>
-      </c>
-      <c r="L20" s="468">
+        <v>1995389.3134999999</v>
+      </c>
+      <c r="L20" s="467">
         <f t="shared" ref="L20:L30" si="4">(B5-K20)^2</f>
-        <v>1.3398062499999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="426">
+        <v>3981031794527.1021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" thickBot="1">
+      <c r="C21" s="425">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="422">
+      <c r="D21" s="421">
         <v>2.097</v>
       </c>
-      <c r="E21" s="423">
+      <c r="E21" s="422">
         <v>-0.55149999999999999</v>
       </c>
-      <c r="F21" s="469"/>
-      <c r="G21" s="469"/>
-      <c r="K21" s="468">
+      <c r="F21" s="468"/>
+      <c r="G21" s="468"/>
+      <c r="K21" s="467">
         <f t="shared" si="3"/>
-        <v>7.8365</v>
-      </c>
-      <c r="L21" s="468">
+        <v>2078766.0334999999</v>
+      </c>
+      <c r="L21" s="467">
         <f t="shared" si="4"/>
-        <v>1.35373225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="426">
+        <v>4320694501652.0767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1">
+      <c r="C22" s="425">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="552" t="s">
+      <c r="D22" s="551" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="553"/>
-      <c r="F22" s="470"/>
-      <c r="G22" s="470"/>
-      <c r="K22" s="468">
+      <c r="E22" s="552"/>
+      <c r="F22" s="469"/>
+      <c r="G22" s="469"/>
+      <c r="K22" s="467">
         <f t="shared" si="3"/>
-        <v>1.5455000000000001</v>
-      </c>
-      <c r="L22" s="468">
+        <v>1796021.2324999999</v>
+      </c>
+      <c r="L22" s="467">
         <f t="shared" si="4"/>
-        <v>0.29757025000000009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="426">
+        <v>3225189401245.7188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1">
+      <c r="C23" s="425">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="554">
+      <c r="D23" s="553">
         <f>SUM(L19:L30)</f>
-        <v>7.624242500000002</v>
-      </c>
-      <c r="E23" s="555"/>
-      <c r="F23" s="471"/>
-      <c r="G23" s="472"/>
-      <c r="K23" s="468">
+        <v>17654643309732.254</v>
+      </c>
+      <c r="E23" s="554"/>
+      <c r="F23" s="470"/>
+      <c r="G23" s="471"/>
+      <c r="K23" s="467">
         <f t="shared" si="3"/>
-        <v>-2.6484999999999999</v>
-      </c>
-      <c r="L23" s="468">
+        <v>1787155.1165</v>
+      </c>
+      <c r="L23" s="467">
         <f t="shared" si="4"/>
-        <v>0.42055224999999979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="207">
+        <v>3193451618905.3726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="468">
+      <c r="K24" s="467">
         <f t="shared" si="3"/>
-        <v>-4.7454999999999998</v>
-      </c>
-      <c r="L24" s="468">
+        <v>0</v>
+      </c>
+      <c r="L24" s="467">
         <f t="shared" si="4"/>
-        <v>1.5737702500000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="C25" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="468">
+      <c r="K25" s="467">
         <f t="shared" si="3"/>
-        <v>-0.55149999999999999</v>
-      </c>
-      <c r="L25" s="468">
+        <v>0</v>
+      </c>
+      <c r="L25" s="467">
         <f t="shared" si="4"/>
-        <v>0.20115225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="C26" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="468">
+      <c r="K26" s="467">
         <f t="shared" si="3"/>
-        <v>3.6425000000000001</v>
-      </c>
-      <c r="L26" s="468">
+        <v>0</v>
+      </c>
+      <c r="L26" s="467">
         <f t="shared" si="4"/>
-        <v>0.4128062500000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="C27" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="468">
+      <c r="K27" s="467">
         <f t="shared" si="3"/>
-        <v>5.7395000000000005</v>
-      </c>
-      <c r="L27" s="468">
+        <v>0</v>
+      </c>
+      <c r="L27" s="467">
         <f t="shared" si="4"/>
-        <v>6.7860249999999747E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="C28" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="468">
+      <c r="K28" s="467">
         <f t="shared" si="3"/>
-        <v>-8.9395000000000007</v>
-      </c>
-      <c r="L28" s="468">
+        <v>0</v>
+      </c>
+      <c r="L28" s="467">
         <f t="shared" si="4"/>
-        <v>0.88266025000000126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="C29" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="468">
+      <c r="K29" s="467">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="468">
+      <c r="L29" s="467">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="207">
+    <row r="30" spans="1:13">
+      <c r="C30" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="468">
+      <c r="K30" s="467">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="468">
+      <c r="L30" s="467">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="207">
+    <row r="31" spans="1:13">
+      <c r="C31" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="468"/>
-      <c r="L31" s="468"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="207">
+      <c r="K31" s="467"/>
+      <c r="L31" s="467"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="C32" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="468"/>
-      <c r="L32" s="468"/>
-    </row>
-    <row r="33" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="217">
+      <c r="K32" s="467"/>
+      <c r="L32" s="467"/>
+    </row>
+    <row r="33" spans="3:12" ht="14.7" thickBot="1">
+      <c r="C33" s="216">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="428"/>
-      <c r="L33" s="428"/>
+      <c r="K33" s="427"/>
+      <c r="L33" s="427"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -23731,13 +23696,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>201930</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>449580</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -23756,13 +23721,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>201930</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>11430</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>449580</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -23779,16 +23744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
@@ -23796,7 +23761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
@@ -23812,7 +23777,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -23828,7 +23793,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1">
       <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
@@ -23844,7 +23809,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.6" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>23</v>
       </c>
@@ -23860,7 +23825,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.6" thickBot="1">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
       <c r="C8" s="16">
@@ -23872,7 +23837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.6" thickBot="1">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="16">
@@ -23884,7 +23849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23894,7 +23859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23904,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23914,7 +23879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23924,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -23935,31 +23900,31 @@
       <c r="C14" s="16"/>
       <c r="D14" s="45"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" s="16"/>
       <c r="D15" s="45"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="C16" s="16"/>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="16"/>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" s="16"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" s="16"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" s="16"/>
       <c r="D20" s="45"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21" s="16"/>
       <c r="D21" s="45"/>
     </row>
@@ -23970,22 +23935,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="8" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.41796875" customWidth="1"/>
+    <col min="2" max="8" width="5.68359375" customWidth="1"/>
+    <col min="11" max="11" width="12.26171875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="279" customHeight="1">
       <c r="B1" s="26" t="str">
         <f>REPT("*",COUNTIF(A2:A58,A1))</f>
         <v/>
@@ -24015,7 +23980,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="17.399999999999999">
       <c r="B2" s="27">
         <v>0</v>
       </c>
@@ -24038,7 +24003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15.6" thickBot="1">
       <c r="K3" s="30">
         <v>670</v>
       </c>
@@ -24049,7 +24014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="15.6" thickBot="1">
       <c r="K4" s="31">
         <v>675</v>
       </c>
@@ -24060,7 +24025,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="15.6" thickBot="1">
       <c r="K5" s="33">
         <v>685</v>
       </c>
@@ -24071,7 +24036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="15.6" thickBot="1">
       <c r="K6" s="33">
         <v>695</v>
       </c>
@@ -24082,7 +24047,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15.6" thickBot="1">
       <c r="K7" s="33">
         <v>705</v>
       </c>
@@ -24093,7 +24058,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="15.6" thickBot="1">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -24112,7 +24077,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15.6" thickBot="1">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -24131,7 +24096,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15.6" thickBot="1">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -24150,7 +24115,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.3">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -24169,7 +24134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15">
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -24179,29 +24144,29 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15">
       <c r="B15" s="28"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="15">
       <c r="B16" s="28"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="28"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="28"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="28"/>
-      <c r="K20" s="562" t="s">
+      <c r="K20" s="561" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="562"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L20" s="561"/>
+    </row>
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="28"/>
       <c r="K21" s="39" t="s">
         <v>14</v>
@@ -24210,7 +24175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="28.8">
       <c r="B22" s="29"/>
       <c r="K22" s="39" t="s">
         <v>16</v>
@@ -24219,7 +24184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="K23" s="39" t="s">
         <v>17</v>
       </c>
@@ -24227,7 +24192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="28.8">
       <c r="K24" s="39" t="s">
         <v>18</v>
       </c>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whitecapsgc-my.sharepoint.com/personal/fkhoury_gc_edu/Documents/Math/Math 1342/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fredmath\Statistic\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_A1D96020BD9FF91B6F91B8E0A05DF932AE4825C6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A547D36C-734E-4CBC-B9BA-99FCA0732528}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC132986-5BFE-4A53-98EC-6058DEA40AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="234" yWindow="48" windowWidth="9504" windowHeight="11712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1014" yWindow="342" windowWidth="10776" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -16046,7 +16046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -17675,7 +17675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fredmath\Statistic\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC132986-5BFE-4A53-98EC-6058DEA40AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FDEAA9-02B8-4A47-A714-22A8965B65CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1014" yWindow="342" windowWidth="10776" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="966" yWindow="414" windowWidth="10998" windowHeight="11664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -17675,7 +17675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -19151,7 +19151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M22" sqref="M22:M23"/>
     </sheetView>
   </sheetViews>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fredmath\Statistic\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FDEAA9-02B8-4A47-A714-22A8965B65CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D190F631-D939-4745-B95E-68607C9C688F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="966" yWindow="414" windowWidth="10998" windowHeight="11664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8556" yWindow="654" windowWidth="13254" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -19151,8 +19151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
@@ -21334,7 +21334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fredmath\Statistic\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D190F631-D939-4745-B95E-68607C9C688F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF48A26-B496-4C90-889D-B5E696916233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8556" yWindow="654" windowWidth="13254" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="30" windowWidth="8400" windowHeight="12498" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -13696,8 +13696,8 @@
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14217,8 +14217,8 @@
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>251460</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14847,8 +14847,8 @@
         <xdr:to>
           <xdr:col>21</xdr:col>
           <xdr:colOff>426720</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15100,8 +15100,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21334,8 +21334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
@@ -21378,11 +21378,11 @@
     <row r="1" spans="1:42" ht="17.7" thickBot="1">
       <c r="A1" s="155">
         <f>COUNT(A4:A39)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="155">
         <f>COUNT(B4:B39)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="155"/>
       <c r="D1" s="142"/>
@@ -21407,7 +21407,7 @@
       </c>
       <c r="S1" s="421">
         <f>SUM(S4:S18)</f>
-        <v>994</v>
+        <v>240</v>
       </c>
       <c r="T1" s="67"/>
       <c r="U1" s="142"/>
@@ -21447,7 +21447,7 @@
         <v>56</v>
       </c>
       <c r="K2" s="186">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L2" s="103"/>
       <c r="M2" s="103"/>
@@ -21459,7 +21459,8 @@
         <v>52</v>
       </c>
       <c r="S2" s="31">
-        <v>994</v>
+        <f>S1</f>
+        <v>240</v>
       </c>
       <c r="T2" s="123"/>
       <c r="U2" s="381"/>
@@ -21500,19 +21501,19 @@
       <c r="D3" s="145"/>
       <c r="E3" s="146">
         <f>IF(A4="","",AVERAGE(A4:A39))</f>
-        <v>48.674999999999997</v>
+        <v>6.56</v>
       </c>
       <c r="F3" s="146">
         <f>IF(B4="","",AVERAGE(B4:B39))</f>
-        <v>50.662500000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G3" s="146">
         <f xml:space="preserve"> IF(G8&gt;0, 2*(1-_xlfn.T.DIST(G8,A1- 1, TRUE)), 2*(_xlfn.T.DIST(G8,A1- 1, TRUE)))</f>
-        <v>3.1678567640053161E-2</v>
+        <v>0.29188801998266589</v>
       </c>
       <c r="H3" s="173">
         <f>_xlfn.T.DIST(G8,A1- 1, TRUE)</f>
-        <v>1.5839283820026581E-2</v>
+        <v>0.14594400999133295</v>
       </c>
       <c r="I3" s="145"/>
       <c r="J3" s="141" t="s">
@@ -21584,18 +21585,18 @@
     </row>
     <row r="4" spans="1:42" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="624">
-        <v>48.7</v>
+        <v>5.8</v>
       </c>
       <c r="B4" s="624">
-        <v>51.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C4" s="351">
         <f>A4-B4</f>
-        <v>-2.7999999999999972</v>
+        <v>-2.3999999999999995</v>
       </c>
       <c r="D4" s="145">
         <f>IF(B4=0,0, C4^2 / B4)</f>
-        <v>0.15223300970873754</v>
+        <v>0.70243902439024364</v>
       </c>
       <c r="E4" s="144" t="s">
         <v>2</v>
@@ -21616,29 +21617,30 @@
       <c r="P4" s="67"/>
       <c r="Q4" s="372">
         <f>IF(S4=0,0, (R4-S4)^2 / S4)</f>
-        <v>3.9968006400000005</v>
+        <v>44.667283950617289</v>
       </c>
       <c r="R4" s="504">
-        <v>1.6000000000000001E-3</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S4" s="507">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="T4" s="568">
         <f>S$2*R4</f>
-        <v>1.5904</v>
+        <v>40</v>
       </c>
       <c r="U4" s="381">
         <f>IF(T4=0,0,IF(T4=S4,(S4-V$9)^2/V$9,(S4-T4)^2/T4))</f>
-        <v>3.6507621730382298</v>
+        <v>0.625</v>
       </c>
       <c r="V4" s="391">
         <f>SUM(Q4:Q15)</f>
-        <v>992.00102366723172</v>
+        <v>238.0042855639731</v>
       </c>
       <c r="W4" s="392">
         <f>_xlfn.CHISQ.INV.RT((100-K2)/100,COUNT(R4:R25)-1)</f>
-        <v>13.276704135987623</v>
+        <v>11.070497693516353</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -21647,11 +21649,11 @@
       </c>
       <c r="AA4" s="573">
         <f>Z4/S$2</f>
-        <v>1.6096579476861169E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="AB4" s="500">
         <f>W$9^AC4*EXP(-W$9)/FACT(AC4)</f>
-        <v>4.0762203978366211E-2</v>
+        <v>8.20849986238988E-2</v>
       </c>
       <c r="AC4" s="497">
         <v>0</v>
@@ -21663,11 +21665,11 @@
       <c r="AF4" s="124"/>
       <c r="AG4" s="125">
         <f>$A4-$B4</f>
-        <v>-2.7999999999999972</v>
+        <v>-2.3999999999999995</v>
       </c>
       <c r="AH4" s="125">
         <f>IF(A4="",0, (AG4-$E$8)^2)</f>
-        <v>0.66015624999999711</v>
+        <v>2.1315999999999979</v>
       </c>
       <c r="AJ4">
         <f t="shared" ref="AJ4:AJ5" si="0">SUM(AK4:AN4)</f>
@@ -21694,33 +21696,33 @@
     </row>
     <row r="5" spans="1:42" ht="15.6" thickBot="1">
       <c r="A5" s="624">
-        <v>52</v>
+        <v>6.8</v>
       </c>
       <c r="B5" s="624">
-        <v>50.7</v>
+        <v>7.1</v>
       </c>
       <c r="C5" s="351">
         <f t="shared" ref="C5:C16" si="3">A5-B5</f>
-        <v>1.2999999999999972</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="D5" s="145">
         <f t="shared" ref="D5:D17" si="4">IF(B5=0,0, C5^2 / B5)</f>
-        <v>3.3333333333333187E-2</v>
+        <v>1.2676056338028156E-2</v>
       </c>
       <c r="E5" s="147">
         <f>_xlfn.STDEV.S(A4:A39)</f>
-        <v>3.5507544469953345</v>
+        <v>1.2778888840583922</v>
       </c>
       <c r="F5" s="147">
         <f>_xlfn.STDEV.S(B4:B39)</f>
-        <v>2.8923235839521335</v>
+        <v>0.68920243760451105</v>
       </c>
       <c r="G5" s="569">
         <v>351</v>
       </c>
       <c r="H5" s="173">
         <f>TINV(2*(1-K2/100),G5)</f>
-        <v>2.3370185990570649</v>
+        <v>1.6492063998825595</v>
       </c>
       <c r="I5" s="145"/>
       <c r="J5" s="166"/>
@@ -21730,21 +21732,22 @@
       <c r="P5" s="67"/>
       <c r="Q5" s="372">
         <f t="shared" ref="Q5:Q23" si="5">IF(S5=0,0, (R5-S5)^2 / S5)</f>
-        <v>38.94881680410257</v>
+        <v>35.667438271604944</v>
       </c>
       <c r="R5" s="504">
-        <v>2.5600000000000001E-2</v>
+        <f t="shared" ref="R5:R9" si="6">1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S5" s="507">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T5" s="568">
-        <f t="shared" ref="T5:T10" si="6">S$2*R5</f>
-        <v>25.446400000000001</v>
+        <f t="shared" ref="T5:T10" si="7">S$2*R5</f>
+        <v>40</v>
       </c>
       <c r="U5" s="381">
-        <f t="shared" ref="U5:U17" si="7">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
-        <v>7.2190986921529161</v>
+        <f t="shared" ref="U5:U17" si="8">IF(T5=0,0,IF(T5=S5,(S5-V$9)^2/V$9,(S5-T5)^2/T5))</f>
+        <v>0.4</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -21754,28 +21757,28 @@
         <v>25.4</v>
       </c>
       <c r="AA5" s="486">
-        <f t="shared" ref="AA5:AA8" si="8">Z5/S$2</f>
-        <v>2.5553319919517103E-2</v>
+        <f t="shared" ref="AA5:AA8" si="9">Z5/S$2</f>
+        <v>0.10583333333333332</v>
       </c>
       <c r="AB5" s="500">
-        <f t="shared" ref="AB5:AB11" si="9">W$9^AC5*EXP(-W$9)/FACT(AC5)</f>
-        <v>0.13043905273077189</v>
+        <f t="shared" ref="AB5:AB11" si="10">W$9^AC5*EXP(-W$9)/FACT(AC5)</f>
+        <v>0.20521249655974699</v>
       </c>
       <c r="AC5" s="497">
         <v>1</v>
       </c>
       <c r="AD5" s="496">
-        <f t="shared" ref="AD5:AD14" si="10">AC5*R5</f>
-        <v>2.5600000000000001E-2</v>
+        <f t="shared" ref="AD5:AD14" si="11">AC5*R5</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AF5" s="124"/>
       <c r="AG5" s="125">
-        <f t="shared" ref="AG5:AG36" si="11">$A5-$B5</f>
-        <v>1.2999999999999972</v>
+        <f t="shared" ref="AG5:AG36" si="12">$A5-$B5</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="AH5" s="125">
-        <f t="shared" ref="AH5:AH11" si="12">IF(A5="",0, (AG5-$E$8)^2)</f>
-        <v>10.807656249999974</v>
+        <f t="shared" ref="AH5:AH11" si="13">IF(A5="",0, (AG5-$E$8)^2)</f>
+        <v>0.40960000000000046</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
@@ -21796,18 +21799,18 @@
     </row>
     <row r="6" spans="1:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="624">
-        <v>49.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B6" s="624">
-        <v>54.3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="351">
         <f t="shared" si="3"/>
-        <v>-4.6999999999999957</v>
+        <v>1.6999999999999993</v>
       </c>
       <c r="D6" s="145">
         <f t="shared" si="4"/>
-        <v>0.40681399631675802</v>
+        <v>0.41285714285714248</v>
       </c>
       <c r="E6" s="116"/>
       <c r="F6" s="83"/>
@@ -21820,21 +21823,22 @@
       <c r="P6" s="131"/>
       <c r="Q6" s="372">
         <f t="shared" si="5"/>
-        <v>121.69299338491804</v>
+        <v>49.667222222222229</v>
       </c>
       <c r="R6" s="504">
-        <v>0.15359999999999999</v>
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S6" s="507">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="T6" s="568">
-        <f t="shared" si="6"/>
-        <v>152.67839999999998</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="U6" s="381">
-        <f t="shared" si="7"/>
-        <v>6.1643574111334614</v>
+        <f t="shared" si="8"/>
+        <v>2.5</v>
       </c>
       <c r="V6" s="393" t="s">
         <v>175</v>
@@ -21848,28 +21852,28 @@
         <v>152.69999999999999</v>
       </c>
       <c r="AA6" s="486">
-        <f t="shared" si="8"/>
-        <v>0.15362173038229376</v>
+        <f t="shared" si="9"/>
+        <v>0.63624999999999998</v>
       </c>
       <c r="AB6" s="500">
-        <f t="shared" si="9"/>
-        <v>0.20870248436923505</v>
+        <f t="shared" si="10"/>
+        <v>0.25651562069968376</v>
       </c>
       <c r="AC6" s="497">
         <v>2</v>
       </c>
       <c r="AD6" s="496">
-        <f t="shared" si="10"/>
-        <v>0.30719999999999997</v>
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF6" s="124"/>
       <c r="AG6" s="125">
-        <f t="shared" si="11"/>
-        <v>-4.6999999999999957</v>
+        <f t="shared" si="12"/>
+        <v>1.6999999999999993</v>
       </c>
       <c r="AH6" s="125">
-        <f t="shared" si="12"/>
-        <v>7.3576562499999829</v>
+        <f t="shared" si="13"/>
+        <v>6.969599999999998</v>
       </c>
       <c r="AJ6">
         <f>SUM(AK2:AN5)</f>
@@ -21880,15 +21884,15 @@
         <v>43</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6:AN6" si="13">SUM(AL2:AL5)</f>
+        <f t="shared" ref="AL6:AN6" si="14">SUM(AL2:AL5)</f>
         <v>22</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP6" s="514">
@@ -21898,18 +21902,18 @@
     </row>
     <row r="7" spans="1:42" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="624">
-        <v>42.6</v>
+        <v>5.7</v>
       </c>
       <c r="B7" s="624">
-        <v>47.3</v>
+        <v>6.9</v>
       </c>
       <c r="C7" s="351">
         <f t="shared" si="3"/>
-        <v>-4.6999999999999957</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="D7" s="145">
         <f t="shared" si="4"/>
-        <v>0.46701902748414298</v>
+        <v>0.20869565217391309</v>
       </c>
       <c r="E7" s="161"/>
       <c r="F7" s="58"/>
@@ -21920,7 +21924,7 @@
         <v>76</v>
       </c>
       <c r="K7" s="135">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L7" s="92" t="s">
         <v>40</v>
@@ -21935,82 +21939,83 @@
       </c>
       <c r="Q7" s="372">
         <f t="shared" si="5"/>
-        <v>440.18118043573696</v>
+        <v>43.667297979797986</v>
       </c>
       <c r="R7" s="504">
-        <v>0.40960000000000002</v>
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S7" s="507">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="T7" s="568">
         <f>S$2*R7</f>
-        <v>407.14240000000001</v>
+        <v>40</v>
       </c>
       <c r="U7" s="381">
-        <f t="shared" si="7"/>
-        <v>2.8155679137323926</v>
+        <f t="shared" si="8"/>
+        <v>0.4</v>
       </c>
       <c r="V7" s="394">
         <f>SUM(U4:U17)</f>
-        <v>20.749794338950363</v>
+        <v>6.75</v>
       </c>
       <c r="W7" s="130">
         <f>CHIDIST(V7,COUNT(R4:R19)-1)</f>
-        <v>3.5496610755409791E-4</v>
+        <v>0.23990688227010734</v>
       </c>
       <c r="X7" s="483">
         <f>1-W7</f>
-        <v>0.99964503389244586</v>
+        <v>0.76009311772989263</v>
       </c>
       <c r="Y7" s="484">
         <f>2*W7</f>
-        <v>7.0993221510819583E-4</v>
+        <v>0.47981376454021468</v>
       </c>
       <c r="Z7" s="574">
         <v>407.1</v>
       </c>
       <c r="AA7" s="486">
-        <f t="shared" si="8"/>
-        <v>0.40955734406438632</v>
+        <f t="shared" si="9"/>
+        <v>1.69625</v>
       </c>
       <c r="AB7" s="500">
-        <f t="shared" si="9"/>
-        <v>0.22261598332718405</v>
+        <f t="shared" si="10"/>
+        <v>0.21376301724973645</v>
       </c>
       <c r="AC7" s="497">
         <v>3</v>
       </c>
       <c r="AD7" s="496">
-        <f t="shared" si="10"/>
-        <v>1.2288000000000001</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="AF7" s="126">
         <f>SUM(A4:A39)</f>
-        <v>389.4</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AG7" s="125">
-        <f t="shared" si="11"/>
-        <v>-4.6999999999999957</v>
+        <f t="shared" si="12"/>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="AH7" s="125">
-        <f t="shared" si="12"/>
-        <v>7.3576562499999829</v>
+        <f t="shared" si="13"/>
+        <v>6.7600000000000007E-2</v>
       </c>
       <c r="AK7" s="511">
         <f>AK6/$AJ$6</f>
         <v>0.4777777777777778</v>
       </c>
       <c r="AL7" s="511">
-        <f t="shared" ref="AL7:AN7" si="14">AL6/$AJ$6</f>
+        <f t="shared" ref="AL7:AN7" si="15">AL6/$AJ$6</f>
         <v>0.24444444444444444</v>
       </c>
       <c r="AM7" s="511">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="AN7" s="511">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP7" s="514">
@@ -22020,30 +22025,30 @@
     </row>
     <row r="8" spans="1:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="A8" s="624">
-        <v>54.1</v>
+        <v>5.8</v>
       </c>
       <c r="B8" s="624">
-        <v>54.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C8" s="351">
         <f t="shared" si="3"/>
-        <v>-0.29999999999999716</v>
+        <v>-2.5000000000000009</v>
       </c>
       <c r="D8" s="145">
         <f t="shared" si="4"/>
-        <v>1.6544117647058509E-3</v>
+        <v>0.75301204819277157</v>
       </c>
       <c r="E8" s="163">
         <f xml:space="preserve"> SUM(AG4:AG39)/A1</f>
-        <v>-1.9874999999999989</v>
+        <v>-0.94000000000000017</v>
       </c>
       <c r="F8" s="162">
         <f>SQRT(SUM(AH4:AH39) /(A1-1))</f>
-        <v>2.0999574825627829</v>
+        <v>1.7329166165744962</v>
       </c>
       <c r="G8" s="162">
         <f>E8*SQRT(A1)/F8</f>
-        <v>-2.6769584418312067</v>
+        <v>-1.2129284691173967</v>
       </c>
       <c r="H8" s="173"/>
       <c r="I8" s="145"/>
@@ -22051,45 +22056,46 @@
         <v>75</v>
       </c>
       <c r="K8" s="83">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="L8" s="129">
         <f xml:space="preserve"> (K7+K10) / (K8+K11)</f>
-        <v>3.4499999999999998E-4</v>
+        <v>0.45</v>
       </c>
       <c r="M8" s="112">
         <f>K7/K8</f>
-        <v>1.9000000000000001E-4</v>
+        <v>0.43</v>
       </c>
       <c r="N8" s="88">
         <f>K10/K11</f>
-        <v>5.0000000000000001E-4</v>
+        <v>0.47</v>
       </c>
       <c r="O8" s="129">
         <f>(ABS(K7-K10)-1)/SQRT(K7+K10)</f>
-        <v>3.6115755925730761</v>
+        <v>0.31622776601683794</v>
       </c>
       <c r="P8" s="112">
         <f>SQRT(  M8*(1-M8)/K8 + N8*(1-N8)/K11 )</f>
-        <v>8.3049015647387422E-5</v>
+        <v>7.0299359883287699E-2</v>
       </c>
       <c r="Q8" s="372">
         <f t="shared" si="5"/>
-        <v>387.18123240247417</v>
+        <v>31.667534722222221</v>
       </c>
       <c r="R8" s="504">
-        <v>0.40960000000000002</v>
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S8" s="507">
-        <v>388</v>
+        <v>32</v>
       </c>
       <c r="T8" s="568">
-        <f t="shared" si="6"/>
-        <v>407.14240000000001</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="U8" s="381">
-        <f t="shared" si="7"/>
-        <v>0.900008148893361</v>
+        <f t="shared" si="8"/>
+        <v>1.6</v>
       </c>
       <c r="V8" s="395" t="s">
         <v>147</v>
@@ -22103,51 +22109,47 @@
         <v>407.1</v>
       </c>
       <c r="AA8" s="486">
-        <f t="shared" si="8"/>
-        <v>0.40955734406438632</v>
+        <f t="shared" si="9"/>
+        <v>1.69625</v>
       </c>
       <c r="AB8" s="500">
-        <f t="shared" si="9"/>
-        <v>0.1780927866617473</v>
+        <f t="shared" si="10"/>
+        <v>0.13360188578108528</v>
       </c>
       <c r="AC8" s="497">
         <v>4</v>
       </c>
       <c r="AD8" s="496">
-        <f t="shared" si="10"/>
-        <v>1.6384000000000001</v>
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF8" s="126">
         <f>SUM(B4:B39)</f>
-        <v>405.3</v>
+        <v>37.5</v>
       </c>
       <c r="AG8" s="125">
-        <f t="shared" si="11"/>
-        <v>-0.29999999999999716</v>
+        <f t="shared" si="12"/>
+        <v>-2.5000000000000009</v>
       </c>
       <c r="AH8" s="125">
-        <f t="shared" si="12"/>
-        <v>2.8476562500000062</v>
+        <f t="shared" si="13"/>
+        <v>2.4336000000000024</v>
       </c>
       <c r="AP8" s="514">
-        <f t="shared" ref="AP8:AP10" si="15">IF(AL3="",0,(AL3-AL10)^2/AL10)</f>
+        <f t="shared" ref="AP8:AP10" si="16">IF(AL3="",0,(AL3-AL10)^2/AL10)</f>
         <v>1.6409090909090902</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="17.7" thickBot="1">
-      <c r="A9" s="624">
-        <v>46.4</v>
-      </c>
-      <c r="B9" s="624">
-        <v>47.1</v>
-      </c>
+      <c r="A9" s="624"/>
+      <c r="B9" s="624"/>
       <c r="C9" s="351">
         <f t="shared" si="3"/>
-        <v>-0.70000000000000284</v>
+        <v>0</v>
       </c>
       <c r="D9" s="145">
         <f t="shared" si="4"/>
-        <v>1.0403397027600934E-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="208" t="s">
         <v>78</v>
@@ -22169,49 +22171,54 @@
       </c>
       <c r="Q9" s="372">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="504"/>
-      <c r="S9" s="507"/>
+        <v>32.667508417508422</v>
+      </c>
+      <c r="R9" s="504">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S9" s="507">
+        <v>33</v>
+      </c>
       <c r="T9" s="568">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="U9" s="381">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.2250000000000001</v>
       </c>
       <c r="V9" s="567">
         <f>SUM(S4:S15)/COUNT(S4:S15)</f>
-        <v>198.8</v>
+        <v>40</v>
       </c>
       <c r="W9" s="498">
         <f>SUM(AD4:AD14)</f>
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="508"/>
       <c r="AA9" s="486"/>
       <c r="AB9" s="500">
-        <f t="shared" si="9"/>
-        <v>0.11397938346351828</v>
+        <f t="shared" si="10"/>
+        <v>6.6800942890542642E-2</v>
       </c>
       <c r="AC9" s="497">
         <v>5</v>
       </c>
       <c r="AD9" s="496">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.83333333333333326</v>
       </c>
       <c r="AF9" s="124"/>
       <c r="AG9" s="125">
-        <f t="shared" si="11"/>
-        <v>-0.70000000000000284</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AH9" s="125">
-        <f t="shared" si="12"/>
-        <v>1.6576562499999898</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AK9" s="516">
         <f>AO2*AK7*AJ6</f>
@@ -22230,47 +22237,43 @@
         <v>0</v>
       </c>
       <c r="AP9" s="514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.26692733789507994</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="17.7" thickBot="1">
-      <c r="A10" s="624">
-        <v>49.4</v>
-      </c>
-      <c r="B10" s="624">
-        <v>51.7</v>
-      </c>
+      <c r="A10" s="624"/>
+      <c r="B10" s="624"/>
       <c r="C10" s="351">
         <f t="shared" si="3"/>
-        <v>-2.3000000000000043</v>
+        <v>0</v>
       </c>
       <c r="D10" s="145">
         <f t="shared" si="4"/>
-        <v>0.10232108317214737</v>
+        <v>0</v>
       </c>
       <c r="E10" s="162">
         <f xml:space="preserve"> H10* F8 /SQRT(A1)</f>
-        <v>2.5981811838387356</v>
+        <v>2.151700174689628</v>
       </c>
       <c r="F10" s="121">
         <f>E8-E10</f>
-        <v>-4.5856811838387346</v>
+        <v>-3.0917001746896284</v>
       </c>
       <c r="G10" s="481">
         <f>E8+E10</f>
-        <v>0.61068118383873671</v>
+        <v>1.2117001746896279</v>
       </c>
       <c r="H10" s="174">
         <f>TINV(1-K2/100, A$1- 1)</f>
-        <v>3.4994832973504928</v>
+        <v>2.776445105197793</v>
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="136" t="s">
         <v>77</v>
       </c>
       <c r="K10" s="83">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L10" s="62" t="s">
         <v>79</v>
@@ -22294,11 +22297,11 @@
       <c r="R10" s="504"/>
       <c r="S10" s="507"/>
       <c r="T10" s="568">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U10" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V10" s="3"/>
@@ -22308,24 +22311,24 @@
       <c r="Z10" s="508"/>
       <c r="AA10" s="486"/>
       <c r="AB10" s="500">
-        <f t="shared" si="9"/>
-        <v>6.0789004513876407E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.783372620439277E-2</v>
       </c>
       <c r="AC10" s="497">
         <v>6</v>
       </c>
       <c r="AD10" s="496">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF10" s="124"/>
       <c r="AG10" s="125">
-        <f t="shared" si="11"/>
-        <v>-2.3000000000000043</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AH10" s="125">
-        <f t="shared" si="12"/>
-        <v>9.7656250000003331E-2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AK10" s="516">
         <f>AJ6*AO3*AK7</f>
@@ -22344,24 +22347,20 @@
         <v>0</v>
       </c>
       <c r="AP10" s="514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="17.7" thickBot="1">
-      <c r="A11" s="624">
-        <v>46.6</v>
-      </c>
-      <c r="B11" s="624">
-        <v>48.3</v>
-      </c>
+      <c r="A11" s="624"/>
+      <c r="B11" s="624"/>
       <c r="C11" s="351">
         <f t="shared" si="3"/>
-        <v>-1.6999999999999957</v>
+        <v>0</v>
       </c>
       <c r="D11" s="145">
         <f t="shared" si="4"/>
-        <v>5.9834368530020408E-2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="158"/>
       <c r="F11" s="114"/>
@@ -22372,27 +22371,27 @@
         <v>74</v>
       </c>
       <c r="K11" s="83">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="L11" s="129">
         <f>(M8-N8 ) / (SQRT(L8*(1-L8)) * SQRT(1/K8+1/K11))</f>
-        <v>-3.7326053756298925</v>
+        <v>-0.56853524361496088</v>
       </c>
       <c r="M11" s="88">
         <f>_xlfn.NORM.S.DIST(L11,TRUE)</f>
-        <v>9.4754687239365819E-5</v>
+        <v>0.28483579079398319</v>
       </c>
       <c r="N11" s="112">
         <f>1-M11</f>
-        <v>0.99990524531276059</v>
+        <v>0.71516420920601687</v>
       </c>
       <c r="O11" s="112">
         <f>2*M11</f>
-        <v>1.8950937447873164E-4</v>
+        <v>0.56967158158796638</v>
       </c>
       <c r="P11" s="140">
         <f>2*N11</f>
-        <v>1.9998104906255212</v>
+        <v>1.4303284184120337</v>
       </c>
       <c r="Q11" s="372">
         <f t="shared" si="5"/>
@@ -22401,11 +22400,11 @@
       <c r="R11" s="504"/>
       <c r="S11" s="507"/>
       <c r="T11" s="508">
-        <f t="shared" ref="T11:T12" si="16">S$2*R11</f>
+        <f t="shared" ref="T11:T12" si="17">S$2*R11</f>
         <v>0</v>
       </c>
       <c r="U11" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V11" s="103"/>
@@ -22417,24 +22416,24 @@
       <c r="Z11" s="508"/>
       <c r="AA11" s="486"/>
       <c r="AB11" s="500">
-        <f t="shared" si="9"/>
-        <v>2.7789259206343508E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.9406165015688466E-3</v>
       </c>
       <c r="AC11" s="497">
         <v>7</v>
       </c>
       <c r="AD11" s="496">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF11" s="124"/>
       <c r="AG11" s="125">
-        <f t="shared" si="11"/>
-        <v>-1.6999999999999957</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AH11" s="125">
-        <f t="shared" si="12"/>
-        <v>8.2656250000001832E-2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AK11" s="516">
         <f>AJ6*AO4*AK7</f>
@@ -22473,15 +22472,15 @@
       </c>
       <c r="F12" s="499">
         <f>E$5^2/A$1</f>
-        <v>1.575982142857143</v>
+        <v>0.32660000000000056</v>
       </c>
       <c r="G12" s="368">
         <f xml:space="preserve"> E3-G3 -H14</f>
-        <v>-385.65511794463168</v>
+        <v>-429.55883975216784</v>
       </c>
       <c r="H12" s="226">
         <f>E3-G3+H14</f>
-        <v>482.94176080935154</v>
+        <v>442.09506371220255</v>
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="210"/>
@@ -22503,11 +22502,11 @@
       <c r="R12" s="504"/>
       <c r="S12" s="502"/>
       <c r="T12" s="508">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U12" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V12" s="396" t="s">
@@ -22526,7 +22525,7 @@
       </c>
       <c r="Z12" s="508"/>
       <c r="AA12" s="485">
-        <f t="shared" ref="AA12:AA14" si="17">Z12/S$1</f>
+        <f t="shared" ref="AA12:AA14" si="18">Z12/S$1</f>
         <v>0</v>
       </c>
       <c r="AB12" s="500"/>
@@ -22534,16 +22533,16 @@
         <v>8</v>
       </c>
       <c r="AD12" s="496">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF12" s="124"/>
       <c r="AG12" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH12" s="125">
-        <f t="shared" ref="AH12:AH35" si="18">IF(A12="",0, (AG12-$E$8)^2)</f>
+        <f t="shared" ref="AH12:AH35" si="19">IF(A12="",0, (AG12-$E$8)^2)</f>
         <v>0</v>
       </c>
       <c r="AK12" s="516">
@@ -22563,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="514">
-        <f t="shared" ref="AP12:AP14" si="19">IF(AM3="",0,(AM3-AM10)^2/AM10)</f>
+        <f t="shared" ref="AP12:AP14" si="20">IF(AM3="",0,(AM3-AM10)^2/AM10)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -22583,7 +22582,7 @@
       </c>
       <c r="F13" s="578">
         <f>G$5^2/B$1</f>
-        <v>15400.125</v>
+        <v>24640.2</v>
       </c>
       <c r="G13" s="149" t="s">
         <v>71</v>
@@ -22596,23 +22595,23 @@
       <c r="K13" s="122"/>
       <c r="L13" s="78">
         <f>_xlfn.NORM.S.INV(1- (100-K2)/200) *SQRT(M8*(1-M8)/K8+N8*(1-N8)/K11)</f>
-        <v>2.1392008813543164E-4</v>
+        <v>0.13778421350746375</v>
       </c>
       <c r="M13" s="349">
         <f xml:space="preserve"> _xlfn.NORM.S.INV(1- (100-K2)/200)</f>
-        <v>2.5758293035488999</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="N13" s="622">
         <f>M8-N8-L13</f>
-        <v>-5.2392008813543166E-4</v>
+        <v>-0.17778421350746373</v>
       </c>
       <c r="O13" s="65">
         <f>M8-N8+L13</f>
-        <v>-9.6079911864568364E-5</v>
+        <v>9.7784213507463774E-2</v>
       </c>
       <c r="P13" s="420">
         <f>2*M11</f>
-        <v>1.8950937447873164E-4</v>
+        <v>0.56967158158796638</v>
       </c>
       <c r="Q13" s="372">
         <f t="shared" si="5"/>
@@ -22621,11 +22620,11 @@
       <c r="R13" s="505"/>
       <c r="S13" s="503"/>
       <c r="T13" s="363">
-        <f t="shared" ref="T13:T15" si="20">S$2*R13</f>
+        <f t="shared" ref="T13:T15" si="21">S$2*R13</f>
         <v>0</v>
       </c>
       <c r="U13" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V13" s="396" t="s">
@@ -22640,7 +22639,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="509"/>
       <c r="AA13" s="485">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB13" s="500"/>
@@ -22648,20 +22647,20 @@
         <v>9</v>
       </c>
       <c r="AD13" s="496">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF13" s="127"/>
       <c r="AG13" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH13" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP13" s="514">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.22401433691756284</v>
       </c>
     </row>
@@ -22681,15 +22680,15 @@
       </c>
       <c r="F14" s="164">
         <f>(F12+F13)^2 / ((F12^2/(A1-1)) + F13^2/(B1-1))</f>
-        <v>7.0014326993949032</v>
+        <v>4.0001060381003208</v>
       </c>
       <c r="G14" s="112">
         <f>TINV(1-K2/100, F14)</f>
-        <v>3.4994832973504928</v>
+        <v>2.776445105197793</v>
       </c>
       <c r="H14" s="112">
         <f xml:space="preserve"> G14 * SQRT( E5^2 /A1 + G5^2/B1)</f>
-        <v>434.29843937699161</v>
+        <v>435.82695173218519</v>
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="219" t="s">
@@ -22712,11 +22711,11 @@
       <c r="R14" s="505"/>
       <c r="S14" s="503"/>
       <c r="T14" s="363">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U14" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V14" s="398" t="s">
@@ -22732,7 +22731,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="510"/>
       <c r="AA14" s="575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB14" s="500"/>
@@ -22740,16 +22739,16 @@
         <v>10</v>
       </c>
       <c r="AD14" s="496">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF14" s="128"/>
       <c r="AG14" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH14" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK14" s="515">
@@ -22757,7 +22756,7 @@
         <v>5.1200758193500944</v>
       </c>
       <c r="AP14" s="514">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -22782,7 +22781,7 @@
       <c r="J15" s="118"/>
       <c r="L15" s="129">
         <f xml:space="preserve"> (M8-N8-K14) /SQRT(M8*(1-M8)/K8 + N8*(1-N8)/K11)</f>
-        <v>-1689.4842028680196</v>
+        <v>-2.5604785064734492</v>
       </c>
       <c r="M15" s="129"/>
       <c r="N15" s="207"/>
@@ -22795,11 +22794,11 @@
       <c r="R15" s="440"/>
       <c r="S15" s="66"/>
       <c r="T15" s="363">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U15" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V15" s="67"/>
@@ -22812,11 +22811,11 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="67"/>
       <c r="AG15" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH15" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP15" s="514">
@@ -22864,7 +22863,7 @@
       <c r="S16" s="212"/>
       <c r="T16" s="363"/>
       <c r="U16" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V16" s="212"/>
@@ -22882,15 +22881,15 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="213"/>
       <c r="AG16" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH16" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP16" s="514">
-        <f t="shared" ref="AP16:AP18" si="21">IF(AN3="",0,(AN3-AN10)^2/AN10)</f>
+        <f t="shared" ref="AP16:AP18" si="22">IF(AN3="",0,(AN3-AN10)^2/AN10)</f>
         <v>0</v>
       </c>
     </row>
@@ -22906,11 +22905,11 @@
       <c r="F17" s="67"/>
       <c r="G17" s="181">
         <f xml:space="preserve"> (I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1))</f>
-        <v>16.948110785195851</v>
+        <v>27.771429535210263</v>
       </c>
       <c r="H17" s="112">
         <f>TINV(1-K2/100, G17)</f>
-        <v>2.9207816224250998</v>
+        <v>2.0518305164802841</v>
       </c>
       <c r="I17" s="145"/>
       <c r="J17" s="136"/>
@@ -22919,11 +22918,11 @@
       </c>
       <c r="L17" s="623">
         <f xml:space="preserve"> ROUNDUP( (K16*(1-K16) + K17*(1-K17)) * (M13/K18)^2, 0)</f>
-        <v>5504</v>
+        <v>510</v>
       </c>
       <c r="M17" s="623">
         <f>ROUNDUP( 0.5* (M13/K18)^2, 0)</f>
-        <v>8294</v>
+        <v>769</v>
       </c>
       <c r="N17" s="212"/>
       <c r="O17" s="212"/>
@@ -22936,7 +22935,7 @@
       <c r="S17" s="378"/>
       <c r="T17" s="363"/>
       <c r="U17" s="381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V17" s="212"/>
@@ -22954,15 +22953,15 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="212"/>
       <c r="AG17" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH17" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP17" s="514">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -22984,7 +22983,7 @@
         <v>81</v>
       </c>
       <c r="K18" s="83">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L18" s="156"/>
       <c r="M18" s="156"/>
@@ -23009,15 +23008,15 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="215"/>
       <c r="AG18" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH18" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP18" s="514">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -23030,19 +23029,19 @@
         <v>83</v>
       </c>
       <c r="F19" s="83">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="106">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>2.3725907164139763</v>
+        <v>-1.7409560118083243</v>
       </c>
       <c r="H19" s="112">
         <f xml:space="preserve"> H17 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>3.6931548314068428</v>
+        <v>1649.9915584246601</v>
       </c>
       <c r="I19" s="145">
         <f>F21^2 /F19</f>
-        <v>0.60025000000000017</v>
+        <v>352666.66666666669</v>
       </c>
       <c r="J19" s="136"/>
       <c r="K19" s="114"/>
@@ -23073,11 +23072,11 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="211"/>
       <c r="AG19" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH19" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP19" s="514"/>
@@ -23089,13 +23088,13 @@
       <c r="D20" s="145"/>
       <c r="E20" s="137"/>
       <c r="F20" s="259">
-        <v>63</v>
+        <v>28900</v>
       </c>
       <c r="G20" s="648"/>
       <c r="H20" s="649"/>
       <c r="I20" s="145">
         <f>F24^2/F22</f>
-        <v>0.99856000000000011</v>
+        <v>294000</v>
       </c>
       <c r="J20" s="138" t="s">
         <v>61</v>
@@ -23139,11 +23138,11 @@
       <c r="AC20" s="148"/>
       <c r="AD20" s="67"/>
       <c r="AG20" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH20" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP20" s="514"/>
@@ -23157,15 +23156,15 @@
         <v>84</v>
       </c>
       <c r="F21" s="501">
-        <v>2.4500000000000002</v>
+        <v>2300</v>
       </c>
       <c r="G21" s="130">
         <f xml:space="preserve"> F20- F23 -H19</f>
-        <v>-0.69315483140684275</v>
+        <v>-3049.9915584246601</v>
       </c>
       <c r="H21" s="130">
         <f xml:space="preserve">  F20- F23 + H19</f>
-        <v>6.6931548314068428</v>
+        <v>249.99155842466007</v>
       </c>
       <c r="I21" s="185"/>
       <c r="J21" s="139" t="s">
@@ -23209,11 +23208,11 @@
       <c r="AC21" s="86"/>
       <c r="AD21" s="67"/>
       <c r="AG21" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH21" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23226,7 +23225,7 @@
         <v>85</v>
       </c>
       <c r="F22" s="83">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" s="647" t="s">
         <v>96</v>
@@ -23237,14 +23236,14 @@
         <v>68</v>
       </c>
       <c r="K22" s="224">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L22" s="225" t="s">
         <v>89</v>
       </c>
       <c r="M22" s="112">
         <f xml:space="preserve"> TINV(1-K2/100, K22 -1)</f>
-        <v>3.10580651553928</v>
+        <v>2.3646242515927849</v>
       </c>
       <c r="N22" s="103"/>
       <c r="O22" s="103"/>
@@ -23267,11 +23266,11 @@
       <c r="AC22" s="103"/>
       <c r="AD22" s="67"/>
       <c r="AG22" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH22" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23282,7 +23281,7 @@
       <c r="D23" s="145"/>
       <c r="E23" s="137"/>
       <c r="F23" s="259">
-        <v>60</v>
+        <v>30300</v>
       </c>
       <c r="G23" s="180" t="s">
         <v>73</v>
@@ -23293,7 +23292,7 @@
       <c r="I23" s="185"/>
       <c r="J23" s="136"/>
       <c r="K23" s="223">
-        <v>3.125</v>
+        <v>-3.7499999999999999E-2</v>
       </c>
       <c r="L23" s="228"/>
       <c r="M23" s="229"/>
@@ -23317,11 +23316,11 @@
       <c r="AC23" s="67"/>
       <c r="AD23" s="67"/>
       <c r="AG23" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH23" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23334,28 +23333,28 @@
         <v>86</v>
       </c>
       <c r="F24" s="501">
-        <v>3.16</v>
+        <v>2100</v>
       </c>
       <c r="G24" s="181">
         <f xml:space="preserve"> IF(F19=F22,F19-1,(I19+I20)^2/(I19^2/(F19-1)+I20^2/(F22-1)))</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H24" s="140">
         <f>TINV(1-K2/100, G24)</f>
-        <v>3.2498355415921263</v>
+        <v>2.1447866879178035</v>
       </c>
       <c r="I24" s="185"/>
       <c r="J24" s="139"/>
       <c r="K24" s="227">
-        <v>2.911</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="L24" s="226">
         <f>K23 - M22* K24 /SQRT(K22)</f>
-        <v>0.5150873094407431</v>
+        <v>-6.935239711409201E-2</v>
       </c>
       <c r="M24" s="129">
         <f xml:space="preserve">  K23 + M22* K24 /SQRT(K22)</f>
-        <v>5.7349126905592573</v>
+        <v>-5.6476028859079874E-3</v>
       </c>
       <c r="N24" s="157"/>
       <c r="O24" s="148"/>
@@ -23375,11 +23374,11 @@
       <c r="AC24" s="148"/>
       <c r="AD24" s="67"/>
       <c r="AG24" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH24" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23419,11 +23418,11 @@
       <c r="AC25" s="86"/>
       <c r="AD25" s="67"/>
       <c r="AG25" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH25" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23436,11 +23435,11 @@
       <c r="F26" s="83"/>
       <c r="G26" s="106">
         <f xml:space="preserve">  (F20-F23) / SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>2.3725907164139763</v>
+        <v>-1.7409560118083243</v>
       </c>
       <c r="H26" s="140">
         <f xml:space="preserve"> H24 * SQRT( F21^2 /F19 + F24^2/F22)</f>
-        <v>4.1092239623664009</v>
+        <v>1724.7428095360265</v>
       </c>
       <c r="I26" s="185"/>
       <c r="J26" s="141"/>
@@ -23475,11 +23474,11 @@
       <c r="AC26" s="103"/>
       <c r="AD26" s="67"/>
       <c r="AG26" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH26" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23496,15 +23495,15 @@
       <c r="J27" s="86"/>
       <c r="K27" s="358">
         <f>MIN(C4:C28)</f>
-        <v>-4.6999999999999957</v>
+        <v>-2.5000000000000009</v>
       </c>
       <c r="L27" s="359">
         <f>QUARTILE(C4:C27, 1)</f>
-        <v>-2.3000000000000043</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="M27" s="359">
         <f>QUARTILE(C4:C15, 2)</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="359">
         <f>QUARTILE(C4:C15, 3)</f>
@@ -23512,7 +23511,7 @@
       </c>
       <c r="O27" s="360">
         <f>MAX(C4:C24)</f>
-        <v>1.2999999999999972</v>
+        <v>1.6999999999999993</v>
       </c>
       <c r="P27" s="67"/>
       <c r="Q27" s="376"/>
@@ -23530,11 +23529,11 @@
       <c r="AC27" s="67"/>
       <c r="AD27" s="67"/>
       <c r="AG27" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH27" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23547,11 +23546,11 @@
       <c r="F28" s="91"/>
       <c r="G28" s="130">
         <f xml:space="preserve"> F20- F23 -H26</f>
-        <v>-1.1092239623664009</v>
+        <v>-3124.7428095360265</v>
       </c>
       <c r="H28" s="217">
         <f xml:space="preserve">  F20- F23 + H26</f>
-        <v>7.1092239623664009</v>
+        <v>324.74280953602647</v>
       </c>
       <c r="I28" s="185"/>
       <c r="J28" s="86"/>
@@ -23579,11 +23578,11 @@
       <c r="AC28" s="67"/>
       <c r="AD28" s="67"/>
       <c r="AG28" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH28" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23639,11 +23638,11 @@
       <c r="AC29" s="67"/>
       <c r="AD29" s="67"/>
       <c r="AG29" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH29" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23704,11 +23703,11 @@
       <c r="AC30" s="67"/>
       <c r="AD30" s="67"/>
       <c r="AG30" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH30" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23721,15 +23720,15 @@
       <c r="D31" s="145"/>
       <c r="E31" s="112">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G17-1, TRUE)</f>
-        <v>0.98426808459065007</v>
+        <v>4.6757257829288988E-2</v>
       </c>
       <c r="F31" s="112">
         <f>1-_xlfn.T.DIST(G19, G17-1, TRUE)</f>
-        <v>1.5731915409349928E-2</v>
+        <v>0.95324274217071103</v>
       </c>
       <c r="G31" s="112">
         <f xml:space="preserve">  IF(G19&gt;0, 2*(1-_xlfn.T.DIST(G19,G17, TRUE)), 2*(_xlfn.T.DIST(G19,G17, TRUE)))</f>
-        <v>3.0537975652435767E-2</v>
+        <v>9.3077160934786504E-2</v>
       </c>
       <c r="H31" s="112"/>
       <c r="I31" s="185"/>
@@ -23763,11 +23762,11 @@
       <c r="AC31" s="67"/>
       <c r="AD31" s="67"/>
       <c r="AG31" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH31" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23780,15 +23779,15 @@
       <c r="D32" s="145"/>
       <c r="E32" s="112">
         <f xml:space="preserve"> _xlfn.T.DIST(G19,G24-1, TRUE)</f>
-        <v>0.97746808960675324</v>
+        <v>5.2644593024474669E-2</v>
       </c>
       <c r="F32" s="112">
         <f>1-_xlfn.T.DIST(G19, G24-1, TRUE)</f>
-        <v>2.2531910393246757E-2</v>
+        <v>0.94735540697552534</v>
       </c>
       <c r="G32" s="112">
         <f xml:space="preserve"> IF(G26&gt;0, 2*(1-_xlfn.T.DIST(G26,G24, TRUE)), 2*(_xlfn.T.DIST(G26,G24, TRUE)))</f>
-        <v>4.1731402601214773E-2</v>
+        <v>0.10361193877172349</v>
       </c>
       <c r="H32" s="112"/>
       <c r="I32" s="185"/>
@@ -23798,7 +23797,7 @@
       </c>
       <c r="L32" s="112">
         <f>TINV((100-K2)/100, K29-1)</f>
-        <v>2.9768427343708348</v>
+        <v>2.1447866879178044</v>
       </c>
       <c r="M32" s="191">
         <f>-TINV(2*K3, K29-1)</f>
@@ -23828,11 +23827,11 @@
       <c r="AC32" s="67"/>
       <c r="AD32" s="67"/>
       <c r="AG32" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH32" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23848,11 +23847,11 @@
       <c r="K33" s="165"/>
       <c r="L33" s="363"/>
       <c r="AG33" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH33" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23866,11 +23865,11 @@
       <c r="K34" s="165"/>
       <c r="L34" s="363"/>
       <c r="AG34" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH34" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -23882,21 +23881,21 @@
       <c r="I35" s="185"/>
       <c r="L35" s="363"/>
       <c r="AG35" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH35" s="125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:34">
       <c r="AG36" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH36" s="125">
-        <f t="shared" ref="AH36" si="22">IF(A36="",0, (AG36-$E$8)^2)</f>
+        <f t="shared" ref="AH36" si="23">IF(A36="",0, (AG36-$E$8)^2)</f>
         <v>0</v>
       </c>
     </row>

--- a/Statistic/excel/STAT.xlsx
+++ b/Statistic/excel/STAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fredmath\Statistic\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF48A26-B496-4C90-889D-B5E696916233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CCE367-6E62-40B5-98D9-B24D70130479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="30" windowWidth="8400" windowHeight="12498" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="456" yWindow="114" windowWidth="10632" windowHeight="11418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1" sheetId="1" r:id="rId1"/>
@@ -13696,8 +13696,8 @@
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14217,8 +14217,8 @@
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>251460</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14847,8 +14847,8 @@
         <xdr:to>
           <xdr:col>21</xdr:col>
           <xdr:colOff>426720</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15100,8 +15100,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16046,8 +16046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17430,10 +17430,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="524"/>
-      <c r="F26" s="628">
-        <f>163/56</f>
-        <v>2.9107142857142856</v>
-      </c>
+      <c r="F26" s="628"/>
       <c r="G26" s="47"/>
       <c r="H26" s="529"/>
       <c r="I26" s="8"/>
@@ -21334,7 +21331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -24545,8 +24542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A11"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25334,7 +25331,7 @@
   <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25524,7 +25521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
